--- a/template-description.xlsx
+++ b/template-description.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgraybeal/Documents/GitHub/fair-data-collective/generic-dataset-metadata-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CE917C-9066-2F44-9557-815D932B520D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3545CB-BC20-1641-B1BA-F93E5C92B5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="860" windowWidth="41500" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset template" sheetId="1" r:id="rId1"/>
     <sheet name="Terminology template" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dataset template'!$H$1:$V$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dataset template'!$H$1:$V$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="566">
   <si>
     <t>Element 
 (CEDAR)</t>
@@ -230,15 +230,9 @@
     <t>datasetIdentifierSubType</t>
   </si>
   <si>
-    <t>The identifier sub-type used to identify the resource being described.</t>
-  </si>
-  <si>
     <t>RelatedResources</t>
   </si>
   <si>
-    <t>Information about identifiers of resources related to the dataset being described.</t>
-  </si>
-  <si>
     <t>0..N</t>
   </si>
   <si>
@@ -272,9 +266,6 @@
     <t>relationType</t>
   </si>
   <si>
-    <t>Description of the relationship of the dataset being described to the related resource (B).</t>
-  </si>
-  <si>
     <t>The direction of the relationship is from (A) to (B).</t>
   </si>
   <si>
@@ -300,12 +291,6 @@
   </si>
   <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>http://purl.org/pav/version and PROV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The version string identifying the dataset being described. </t>
   </si>
   <si>
     <t>[major].[minor].[patch]-[build/beta/rc]</t>
@@ -1732,14 +1717,47 @@
     <t>http://www.bridgmodel.org/owl#SafetyReportVersion.subtypeCode</t>
   </si>
   <si>
-    <t>http://data.bioontology.org/ontologies/BCO</t>
+    <t>Relation Type</t>
+  </si>
+  <si>
+    <t>Related Resource Identifier</t>
+  </si>
+  <si>
+    <t>Related Resource Identifier Type</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/relationshipOfResource</t>
+  </si>
+  <si>
+    <t>Description of the relationship of the object being described (A) to the related resource (B).</t>
+  </si>
+  <si>
+    <t>relatedResourceIdentifierSubType</t>
+  </si>
+  <si>
+    <t>Related Resource Identifier SubType</t>
+  </si>
+  <si>
+    <t>The subtype of the identifier used to specify the related resource.</t>
+  </si>
+  <si>
+    <t>We need this if we need it in DatasetIdentifier</t>
+  </si>
+  <si>
+    <t>https://schema.org/version</t>
+  </si>
+  <si>
+    <t>Information about resource related to the dataset or other entity being described.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The string identifying the version of the dataset or other object being described. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1994,6 +2012,13 @@
       <b/>
       <sz val="12"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Arial Bold"/>
     </font>
     <font>
@@ -2007,6 +2032,13 @@
       <i/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2819,7 +2851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="587">
+  <cellXfs count="593">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4035,19 +4067,19 @@
     <xf numFmtId="0" fontId="42" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4057,6 +4089,16 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4277,13 +4319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1031"/>
+  <dimension ref="A1:AJ1032"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -4322,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -4331,10 +4373,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="580" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H1" s="580" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -4420,7 +4462,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="581" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>27</v>
@@ -4472,19 +4514,19 @@
         <v>32</v>
       </c>
       <c r="D3" s="535" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E3" s="493">
         <v>1</v>
       </c>
       <c r="F3" s="576" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="582" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I3" s="23">
         <v>1</v>
@@ -4498,10 +4540,10 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="528" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="27" t="s">
@@ -4519,7 +4561,7 @@
       <c r="U3" s="24"/>
       <c r="V3" s="24"/>
       <c r="W3" s="529" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Z3" s="30" t="s">
         <v>41</v>
@@ -4539,7 +4581,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="582" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I4" s="23">
         <v>1</v>
@@ -4558,7 +4600,7 @@
         <v>46</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="32" t="s">
@@ -4576,7 +4618,7 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
       <c r="W4" s="529" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1">
@@ -4584,25 +4626,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="530" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C5" s="571" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="583" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E5" s="494">
         <v>1</v>
       </c>
       <c r="F5" s="577" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>51</v>
       </c>
       <c r="H5" s="575" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I5" s="37">
         <v>1</v>
@@ -4618,7 +4660,7 @@
       </c>
       <c r="M5" s="38"/>
       <c r="N5" s="570" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="O5" s="39" t="s">
         <v>53</v>
@@ -4651,7 +4693,7 @@
         <v>55</v>
       </c>
       <c r="H6" s="575" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="I6" s="37">
         <v>1</v>
@@ -4665,7 +4707,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="584" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="O6" s="39" t="s">
         <v>58</v>
@@ -4714,10 +4756,10 @@
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="584" t="s">
-        <v>558</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>63</v>
+        <v>553</v>
+      </c>
+      <c r="O7" s="588" t="s">
+        <v>561</v>
       </c>
       <c r="P7" s="40"/>
       <c r="Q7" s="41"/>
@@ -4727,44 +4769,46 @@
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
       <c r="W7" s="575" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="15.75" customHeight="1">
       <c r="A8" s="45"/>
       <c r="B8" s="487" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="573" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C8" s="591" t="s">
+        <v>564</v>
       </c>
       <c r="D8" s="537"/>
       <c r="E8" s="487" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="487"/>
+        <v>64</v>
+      </c>
+      <c r="F8" s="590" t="s">
+        <v>542</v>
+      </c>
       <c r="G8" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="H8" s="586" t="s">
+        <v>555</v>
       </c>
       <c r="I8" s="47">
         <v>1</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="585" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="O8" s="49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" s="50"/>
       <c r="Q8" s="51" t="s">
@@ -4782,7 +4826,7 @@
       <c r="U8" s="48"/>
       <c r="V8" s="48"/>
       <c r="W8" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15.75" customHeight="1">
@@ -4793,27 +4837,27 @@
       <c r="E9" s="469"/>
       <c r="F9" s="469"/>
       <c r="G9" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="H9" s="586" t="s">
+        <v>556</v>
       </c>
       <c r="I9" s="47">
         <v>1</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="585" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P9" s="50"/>
       <c r="Q9" s="51" t="s">
@@ -4823,7 +4867,7 @@
         <v>48</v>
       </c>
       <c r="S9" s="48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T9" s="52" t="s">
         <v>40</v>
@@ -4832,39 +4876,37 @@
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
     </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1">
+    <row r="10" spans="1:36" s="459" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="45"/>
-      <c r="B10" s="469"/>
+      <c r="B10" s="488"/>
       <c r="C10" s="573"/>
       <c r="D10" s="537"/>
-      <c r="E10" s="469"/>
-      <c r="F10" s="469"/>
-      <c r="G10" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="47">
+      <c r="E10" s="488"/>
+      <c r="F10" s="488"/>
+      <c r="G10" s="586" t="s">
+        <v>559</v>
+      </c>
+      <c r="H10" s="586" t="s">
+        <v>560</v>
+      </c>
+      <c r="I10" s="51">
         <v>1</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
       <c r="N10" s="585" t="s">
-        <v>559</v>
-      </c>
-      <c r="O10" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="54" t="s">
-        <v>78</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="O10" s="588" t="s">
+        <v>561</v>
+      </c>
+      <c r="P10" s="54"/>
       <c r="Q10" s="51" t="s">
         <v>47</v>
       </c>
@@ -4872,48 +4914,50 @@
         <v>48</v>
       </c>
       <c r="S10" s="48" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="T10" s="52" t="s">
         <v>40</v>
       </c>
       <c r="U10" s="48"/>
       <c r="V10" s="48"/>
-      <c r="W10" s="46" t="s">
-        <v>79</v>
+      <c r="W10" s="587" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15.75" customHeight="1">
       <c r="A11" s="45"/>
-      <c r="B11" s="488"/>
-      <c r="C11" s="574"/>
-      <c r="D11" s="538"/>
+      <c r="B11" s="469"/>
+      <c r="C11" s="573"/>
+      <c r="D11" s="537"/>
       <c r="E11" s="469"/>
       <c r="F11" s="469"/>
-      <c r="G11" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="586" t="s">
-        <v>551</v>
+      <c r="G11" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="587" t="s">
+        <v>554</v>
       </c>
       <c r="I11" s="47">
         <v>1</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
       <c r="N11" s="585" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="50"/>
+        <v>557</v>
+      </c>
+      <c r="O11" s="588" t="s">
+        <v>558</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>75</v>
+      </c>
       <c r="Q11" s="51" t="s">
         <v>47</v>
       </c>
@@ -4924,159 +4968,164 @@
         <v>54</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="U11" s="48"/>
       <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
+      <c r="W11" s="46" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="488"/>
+      <c r="C12" s="574"/>
+      <c r="D12" s="538"/>
+      <c r="E12" s="469"/>
+      <c r="F12" s="469"/>
+      <c r="G12" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="586" t="s">
+        <v>546</v>
+      </c>
+      <c r="I12" s="47">
+        <v>1</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="585" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="H13" s="592" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="60">
+        <v>1</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="61"/>
+      <c r="N13" s="589" t="s">
+        <v>563</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>565</v>
+      </c>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="S13" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58" t="s">
+      <c r="V13" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59" t="s">
+      <c r="W13" s="61"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A14" s="66">
+        <v>1</v>
+      </c>
+      <c r="B14" s="565" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="60">
-        <v>1</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62" t="s">
+      <c r="C14" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="O12" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="U12" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="V12" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="W12" s="61"/>
-    </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A13" s="66">
-        <v>1</v>
-      </c>
-      <c r="B13" s="565" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="531"/>
-      <c r="E13" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" s="72"/>
-      <c r="S13" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="T13" s="76"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-    </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="566"/>
-      <c r="C14" s="67"/>
       <c r="D14" s="531"/>
-      <c r="E14" s="66"/>
+      <c r="E14" s="66" t="s">
+        <v>64</v>
+      </c>
       <c r="F14" s="66"/>
       <c r="G14" s="68" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H14" s="68" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I14" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
+        <v>64</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>67</v>
+      </c>
       <c r="L14" s="71"/>
       <c r="M14" s="72"/>
       <c r="N14" s="72"/>
-      <c r="O14" s="73"/>
+      <c r="O14" s="73" t="s">
+        <v>87</v>
+      </c>
       <c r="P14" s="74"/>
-      <c r="Q14" s="75"/>
+      <c r="Q14" s="75" t="s">
+        <v>47</v>
+      </c>
       <c r="R14" s="72"/>
-      <c r="S14" s="71"/>
+      <c r="S14" s="71" t="s">
+        <v>89</v>
+      </c>
       <c r="T14" s="76"/>
       <c r="U14" s="72"/>
       <c r="V14" s="72"/>
@@ -5096,211 +5145,206 @@
       <c r="AJ14" s="77"/>
     </row>
     <row r="15" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A15" s="78">
+      <c r="A15" s="66"/>
+      <c r="B15" s="566"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="531"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="77"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A16" s="78">
         <v>1</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B16" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="532"/>
+      <c r="E16" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="O16" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="532"/>
-      <c r="E15" s="78" t="s">
+    </row>
+    <row r="17" spans="1:23" ht="17.25" customHeight="1">
+      <c r="A17" s="90">
+        <v>1</v>
+      </c>
+      <c r="B17" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="81" t="s">
+      <c r="C17" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" s="84" t="s">
+      <c r="D17" s="533"/>
+      <c r="E17" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="94"/>
+      <c r="G17" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84" t="s">
+      <c r="L17" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="O15" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="88" t="s">
+      <c r="O17" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="84" t="s">
+      <c r="R17" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="84" t="s">
+      <c r="S17" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="T15" s="89" t="s">
+      <c r="T17" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A16" s="90">
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A18" s="104">
         <v>1</v>
       </c>
-      <c r="B16" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="92" t="s">
+      <c r="B18" s="489" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="533"/>
-      <c r="E16" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95" t="s">
+      <c r="C18" s="490" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97" t="s">
+      <c r="D18" s="539"/>
+      <c r="E18" s="486" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="486"/>
+      <c r="G18" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="O16" s="99" t="s">
+      <c r="H18" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="S16" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="T16" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="103" t="s">
+      <c r="M18" s="110"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="111" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A17" s="104">
-        <v>1</v>
-      </c>
-      <c r="B17" s="489" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="490" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="539"/>
-      <c r="E17" s="486" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="486"/>
-      <c r="G17" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="107"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="110"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="116" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A18" s="117"/>
-      <c r="B18" s="469"/>
-      <c r="C18" s="469"/>
-      <c r="D18" s="539"/>
-      <c r="E18" s="469"/>
-      <c r="F18" s="469"/>
-      <c r="G18" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="118" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="119"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="O18" s="111" t="s">
-        <v>117</v>
-      </c>
       <c r="P18" s="112"/>
-      <c r="Q18" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="R18" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="S18" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="T18" s="115" t="s">
-        <v>47</v>
-      </c>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="115"/>
       <c r="U18" s="107"/>
       <c r="V18" s="107"/>
       <c r="W18" s="116" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1">
@@ -5311,46 +5355,46 @@
       <c r="E19" s="469"/>
       <c r="F19" s="469"/>
       <c r="G19" s="116" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H19" s="116" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I19" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="116" t="s">
-        <v>122</v>
+        <v>64</v>
+      </c>
+      <c r="J19" s="107" t="s">
+        <v>104</v>
       </c>
       <c r="K19" s="108" t="s">
-        <v>123</v>
-      </c>
-      <c r="L19" s="121" t="s">
-        <v>124</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L19" s="119"/>
       <c r="M19" s="110"/>
-      <c r="N19" s="116" t="s">
-        <v>57</v>
+      <c r="N19" s="107" t="s">
+        <v>111</v>
       </c>
       <c r="O19" s="111" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P19" s="112"/>
       <c r="Q19" s="113" t="s">
         <v>47</v>
       </c>
       <c r="R19" s="120" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="S19" s="107" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="T19" s="115" t="s">
         <v>47</v>
       </c>
       <c r="U19" s="107"/>
       <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
+      <c r="W19" s="116" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="117"/>
@@ -5359,79 +5403,79 @@
       <c r="D20" s="539"/>
       <c r="E20" s="469"/>
       <c r="F20" s="469"/>
-      <c r="G20" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="107" t="s">
-        <v>127</v>
+      <c r="G20" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="116" t="s">
+        <v>116</v>
       </c>
       <c r="I20" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="122"/>
-      <c r="M20" s="107"/>
+        <v>82</v>
+      </c>
+      <c r="J20" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="110"/>
       <c r="N20" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="123" t="s">
-        <v>128</v>
+      <c r="O20" s="111" t="s">
+        <v>120</v>
       </c>
       <c r="P20" s="112"/>
       <c r="Q20" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="R20" s="107" t="s">
-        <v>54</v>
+      <c r="R20" s="120" t="s">
+        <v>113</v>
       </c>
       <c r="S20" s="107" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="T20" s="115" t="s">
         <v>47</v>
       </c>
       <c r="U20" s="107"/>
       <c r="V20" s="107"/>
-      <c r="W20" s="124" t="s">
-        <v>130</v>
-      </c>
+      <c r="W20" s="107"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="117"/>
-      <c r="B21" s="470"/>
-      <c r="C21" s="470"/>
-      <c r="D21" s="540"/>
-      <c r="E21" s="470"/>
-      <c r="F21" s="470"/>
-      <c r="G21" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="116" t="s">
-        <v>131</v>
+      <c r="B21" s="469"/>
+      <c r="C21" s="469"/>
+      <c r="D21" s="539"/>
+      <c r="E21" s="469"/>
+      <c r="F21" s="469"/>
+      <c r="G21" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="107" t="s">
+        <v>122</v>
       </c>
       <c r="I21" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="116" t="s">
-        <v>132</v>
+        <v>82</v>
+      </c>
+      <c r="J21" s="107" t="s">
+        <v>122</v>
       </c>
       <c r="K21" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="107"/>
+        <v>118</v>
+      </c>
+      <c r="L21" s="122"/>
       <c r="M21" s="107"/>
       <c r="N21" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="P21" s="125"/>
+      <c r="O21" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="112"/>
       <c r="Q21" s="113" t="s">
         <v>47</v>
       </c>
@@ -5439,118 +5483,118 @@
         <v>54</v>
       </c>
       <c r="S21" s="107" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="T21" s="115" t="s">
         <v>47</v>
       </c>
       <c r="U21" s="107"/>
       <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
+      <c r="W21" s="124" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A22" s="126">
+      <c r="A22" s="117"/>
+      <c r="B22" s="470"/>
+      <c r="C22" s="470"/>
+      <c r="D22" s="540"/>
+      <c r="E22" s="470"/>
+      <c r="F22" s="470"/>
+      <c r="G22" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="116" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="T22" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A23" s="126">
         <v>1</v>
       </c>
-      <c r="B22" s="482" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="483" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="541"/>
-      <c r="E22" s="482" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="482"/>
-      <c r="G22" s="145" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="127" t="s">
-        <v>138</v>
-      </c>
-      <c r="K22" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="132" t="s">
-        <v>47</v>
-      </c>
-      <c r="R22" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="T22" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="U22" s="129"/>
-      <c r="V22" s="129"/>
-      <c r="W22" s="127"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A23" s="135"/>
-      <c r="B23" s="469"/>
-      <c r="C23" s="469"/>
-      <c r="D23" s="542"/>
-      <c r="E23" s="469"/>
-      <c r="F23" s="469"/>
+      <c r="B23" s="482" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="483" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="541"/>
+      <c r="E23" s="482" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="482"/>
       <c r="G23" s="145" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H23" s="127" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="128">
-        <v>1</v>
-      </c>
-      <c r="J23" s="129" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="I23" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="127" t="s">
+        <v>133</v>
       </c>
       <c r="K23" s="129" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="L23" s="129"/>
       <c r="M23" s="129"/>
       <c r="N23" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="136" t="s">
-        <v>143</v>
-      </c>
-      <c r="P23" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q23" s="138" t="s">
+      <c r="O23" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="132" t="s">
         <v>47</v>
       </c>
       <c r="R23" s="133" t="s">
         <v>48</v>
       </c>
       <c r="S23" s="129" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T23" s="134" t="s">
         <v>47</v>
       </c>
       <c r="U23" s="129"/>
       <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
+      <c r="W23" s="127"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="135"/>
@@ -5560,37 +5604,39 @@
       <c r="E24" s="469"/>
       <c r="F24" s="469"/>
       <c r="G24" s="145" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H24" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="128" t="s">
-        <v>66</v>
+        <v>136</v>
+      </c>
+      <c r="I24" s="128">
+        <v>1</v>
       </c>
       <c r="J24" s="129" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K24" s="129" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L24" s="129"/>
       <c r="M24" s="129"/>
-      <c r="N24" s="139" t="s">
-        <v>147</v>
+      <c r="N24" s="127" t="s">
+        <v>57</v>
       </c>
       <c r="O24" s="136" t="s">
-        <v>148</v>
-      </c>
-      <c r="P24" s="140"/>
+        <v>138</v>
+      </c>
+      <c r="P24" s="137" t="s">
+        <v>139</v>
+      </c>
       <c r="Q24" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="R24" s="129" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="R24" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="S24" s="129" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="T24" s="134" t="s">
         <v>47</v>
@@ -5607,27 +5653,27 @@
       <c r="E25" s="469"/>
       <c r="F25" s="469"/>
       <c r="G25" s="145" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H25" s="127" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I25" s="128" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J25" s="129" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K25" s="129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L25" s="129"/>
       <c r="M25" s="129"/>
-      <c r="N25" s="129" t="s">
-        <v>151</v>
+      <c r="N25" s="139" t="s">
+        <v>142</v>
       </c>
       <c r="O25" s="136" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P25" s="140"/>
       <c r="Q25" s="138" t="s">
@@ -5644,7 +5690,7 @@
       </c>
       <c r="U25" s="129"/>
       <c r="V25" s="129"/>
-      <c r="W25" s="141"/>
+      <c r="W25" s="129"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="135"/>
@@ -5653,28 +5699,28 @@
       <c r="D26" s="542"/>
       <c r="E26" s="469"/>
       <c r="F26" s="469"/>
-      <c r="G26" s="129" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="129" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" s="128">
-        <v>1</v>
+      <c r="G26" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="128" t="s">
+        <v>64</v>
       </c>
       <c r="J26" s="129" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K26" s="129" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="L26" s="129"/>
       <c r="M26" s="129"/>
       <c r="N26" s="129" t="s">
-        <v>154</v>
-      </c>
-      <c r="O26" s="142" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="O26" s="136" t="s">
+        <v>147</v>
       </c>
       <c r="P26" s="140"/>
       <c r="Q26" s="138" t="s">
@@ -5691,37 +5737,37 @@
       </c>
       <c r="U26" s="129"/>
       <c r="V26" s="129"/>
-      <c r="W26" s="129"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="W26" s="141"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="135"/>
       <c r="B27" s="469"/>
       <c r="C27" s="469"/>
       <c r="D27" s="542"/>
       <c r="E27" s="469"/>
       <c r="F27" s="469"/>
-      <c r="G27" s="143" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="143" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" s="144" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="145" t="s">
-        <v>138</v>
+      <c r="G27" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="128">
+        <v>1</v>
+      </c>
+      <c r="J27" s="129" t="s">
+        <v>148</v>
       </c>
       <c r="K27" s="129" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L27" s="129"/>
       <c r="M27" s="129"/>
       <c r="N27" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="O27" s="136" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="O27" s="142" t="s">
+        <v>150</v>
       </c>
       <c r="P27" s="140"/>
       <c r="Q27" s="138" t="s">
@@ -5734,43 +5780,41 @@
         <v>54</v>
       </c>
       <c r="T27" s="134" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="U27" s="129"/>
-      <c r="V27" s="129" t="s">
-        <v>159</v>
-      </c>
+      <c r="V27" s="129"/>
       <c r="W27" s="129"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="135"/>
       <c r="B28" s="469"/>
       <c r="C28" s="469"/>
       <c r="D28" s="542"/>
       <c r="E28" s="469"/>
       <c r="F28" s="469"/>
-      <c r="G28" s="146" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="146" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="148" t="s">
-        <v>161</v>
+      <c r="G28" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="145" t="s">
+        <v>133</v>
       </c>
       <c r="K28" s="129" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="L28" s="129"/>
       <c r="M28" s="129"/>
-      <c r="N28" s="127" t="s">
-        <v>57</v>
+      <c r="N28" s="129" t="s">
+        <v>152</v>
       </c>
       <c r="O28" s="136" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="P28" s="140"/>
       <c r="Q28" s="138" t="s">
@@ -5783,30 +5827,32 @@
         <v>54</v>
       </c>
       <c r="T28" s="134" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="U28" s="129"/>
-      <c r="V28" s="129"/>
+      <c r="V28" s="129" t="s">
+        <v>154</v>
+      </c>
       <c r="W28" s="129"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A29" s="135"/>
       <c r="B29" s="469"/>
       <c r="C29" s="469"/>
       <c r="D29" s="542"/>
       <c r="E29" s="469"/>
       <c r="F29" s="469"/>
-      <c r="G29" s="149" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="149" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="150" t="s">
-        <v>98</v>
+      <c r="G29" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="147" t="s">
+        <v>93</v>
       </c>
       <c r="J29" s="148" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K29" s="129" t="s">
         <v>35</v>
@@ -5817,43 +5863,43 @@
         <v>57</v>
       </c>
       <c r="O29" s="136" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="P29" s="140"/>
       <c r="Q29" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="R29" s="133" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="R29" s="129" t="s">
+        <v>54</v>
       </c>
       <c r="S29" s="129" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="T29" s="134" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="U29" s="129"/>
       <c r="V29" s="129"/>
       <c r="W29" s="129"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="135"/>
       <c r="B30" s="469"/>
       <c r="C30" s="469"/>
       <c r="D30" s="542"/>
       <c r="E30" s="469"/>
       <c r="F30" s="469"/>
-      <c r="G30" s="151" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="151" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="153" t="s">
-        <v>132</v>
+      <c r="G30" s="149" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="149" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="148" t="s">
+        <v>159</v>
       </c>
       <c r="K30" s="129" t="s">
         <v>35</v>
@@ -5864,7 +5910,7 @@
         <v>57</v>
       </c>
       <c r="O30" s="136" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P30" s="140"/>
       <c r="Q30" s="138" t="s">
@@ -5874,7 +5920,7 @@
         <v>48</v>
       </c>
       <c r="S30" s="129" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="T30" s="134" t="s">
         <v>47</v>
@@ -5883,82 +5929,82 @@
       <c r="V30" s="129"/>
       <c r="W30" s="129"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="135"/>
       <c r="B31" s="469"/>
       <c r="C31" s="469"/>
       <c r="D31" s="542"/>
       <c r="E31" s="469"/>
       <c r="F31" s="469"/>
-      <c r="G31" s="146" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" s="146" t="s">
-        <v>170</v>
-      </c>
-      <c r="I31" s="147" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="148" t="s">
-        <v>171</v>
+      <c r="G31" s="151" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="151" t="s">
+        <v>162</v>
+      </c>
+      <c r="I31" s="152" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="153" t="s">
+        <v>127</v>
       </c>
       <c r="K31" s="129" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L31" s="129"/>
       <c r="M31" s="129"/>
       <c r="N31" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="O31" s="142" t="s">
-        <v>172</v>
+      <c r="O31" s="136" t="s">
+        <v>163</v>
       </c>
       <c r="P31" s="140"/>
       <c r="Q31" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="R31" s="129" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="R31" s="133" t="s">
+        <v>48</v>
       </c>
       <c r="S31" s="129" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="T31" s="134" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="U31" s="129"/>
       <c r="V31" s="129"/>
       <c r="W31" s="129"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A32" s="135"/>
       <c r="B32" s="469"/>
       <c r="C32" s="469"/>
       <c r="D32" s="542"/>
       <c r="E32" s="469"/>
       <c r="F32" s="469"/>
-      <c r="G32" s="149" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="149" t="s">
-        <v>174</v>
-      </c>
-      <c r="I32" s="150" t="s">
-        <v>66</v>
+      <c r="G32" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="I32" s="147" t="s">
+        <v>64</v>
       </c>
       <c r="J32" s="148" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K32" s="129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L32" s="129"/>
       <c r="M32" s="129"/>
       <c r="N32" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="O32" s="136" t="s">
-        <v>176</v>
+      <c r="O32" s="142" t="s">
+        <v>167</v>
       </c>
       <c r="P32" s="140"/>
       <c r="Q32" s="138" t="s">
@@ -5968,10 +6014,10 @@
         <v>54</v>
       </c>
       <c r="S32" s="129" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="T32" s="134" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="U32" s="129"/>
       <c r="V32" s="129"/>
@@ -5985,19 +6031,19 @@
       <c r="E33" s="469"/>
       <c r="F33" s="469"/>
       <c r="G33" s="149" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H33" s="149" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I33" s="150" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J33" s="148" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K33" s="129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L33" s="129"/>
       <c r="M33" s="129"/>
@@ -6005,46 +6051,46 @@
         <v>57</v>
       </c>
       <c r="O33" s="136" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="P33" s="140"/>
       <c r="Q33" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="R33" s="133" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="R33" s="129" t="s">
+        <v>54</v>
       </c>
       <c r="S33" s="129" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="T33" s="134" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="U33" s="129"/>
       <c r="V33" s="129"/>
       <c r="W33" s="129"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" s="135"/>
-      <c r="B34" s="470"/>
-      <c r="C34" s="470"/>
-      <c r="D34" s="543"/>
-      <c r="E34" s="470"/>
-      <c r="F34" s="470"/>
-      <c r="G34" s="151" t="s">
-        <v>182</v>
-      </c>
-      <c r="H34" s="151" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="J34" s="153" t="s">
-        <v>183</v>
+      <c r="B34" s="469"/>
+      <c r="C34" s="469"/>
+      <c r="D34" s="542"/>
+      <c r="E34" s="469"/>
+      <c r="F34" s="469"/>
+      <c r="G34" s="149" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="149" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="148" t="s">
+        <v>174</v>
       </c>
       <c r="K34" s="129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L34" s="129"/>
       <c r="M34" s="129"/>
@@ -6052,9 +6098,9 @@
         <v>57</v>
       </c>
       <c r="O34" s="136" t="s">
-        <v>184</v>
-      </c>
-      <c r="P34" s="154"/>
+        <v>175</v>
+      </c>
+      <c r="P34" s="140"/>
       <c r="Q34" s="138" t="s">
         <v>47</v>
       </c>
@@ -6062,7 +6108,7 @@
         <v>48</v>
       </c>
       <c r="S34" s="129" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="T34" s="134" t="s">
         <v>47</v>
@@ -6071,109 +6117,107 @@
       <c r="V34" s="129"/>
       <c r="W34" s="129"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A35" s="155">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="135"/>
+      <c r="B35" s="470"/>
+      <c r="C35" s="470"/>
+      <c r="D35" s="543"/>
+      <c r="E35" s="470"/>
+      <c r="F35" s="470"/>
+      <c r="G35" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="153" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" s="136" t="s">
+        <v>179</v>
+      </c>
+      <c r="P35" s="154"/>
+      <c r="Q35" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="R35" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="129" t="s">
+        <v>180</v>
+      </c>
+      <c r="T35" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
+      <c r="W35" s="129"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A36" s="155">
         <v>1</v>
       </c>
-      <c r="B35" s="478" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="484" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="544"/>
-      <c r="E35" s="478" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="478"/>
-      <c r="G35" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="I35" s="157" t="s">
-        <v>66</v>
-      </c>
-      <c r="J35" s="158" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35" s="158" t="s">
-        <v>123</v>
-      </c>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="159" t="s">
-        <v>57</v>
-      </c>
-      <c r="O35" s="160" t="s">
-        <v>190</v>
-      </c>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="162" t="s">
-        <v>47</v>
-      </c>
-      <c r="R35" s="163" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" s="158" t="s">
-        <v>54</v>
-      </c>
-      <c r="T35" s="164" t="s">
-        <v>191</v>
-      </c>
-      <c r="U35" s="158"/>
-      <c r="V35" s="158"/>
-      <c r="W35" s="165"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A36" s="166"/>
-      <c r="B36" s="469"/>
-      <c r="C36" s="469"/>
-      <c r="D36" s="545"/>
-      <c r="E36" s="469"/>
-      <c r="F36" s="469"/>
-      <c r="G36" s="165" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="I36" s="167">
-        <v>1</v>
+      <c r="B36" s="478" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="484" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="544"/>
+      <c r="E36" s="478" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="478"/>
+      <c r="G36" s="156" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="156" t="s">
+        <v>183</v>
+      </c>
+      <c r="I36" s="157" t="s">
+        <v>64</v>
       </c>
       <c r="J36" s="158" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="K36" s="158" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L36" s="158"/>
       <c r="M36" s="158"/>
       <c r="N36" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="168" t="s">
-        <v>192</v>
-      </c>
-      <c r="P36" s="169" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q36" s="170" t="s">
+      <c r="O36" s="160" t="s">
+        <v>185</v>
+      </c>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="162" t="s">
         <v>47</v>
       </c>
       <c r="R36" s="163" t="s">
         <v>48</v>
       </c>
       <c r="S36" s="158" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="T36" s="164" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="U36" s="158"/>
       <c r="V36" s="158"/>
-      <c r="W36" s="158"/>
+      <c r="W36" s="165"/>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="166"/>
@@ -6183,37 +6227,39 @@
       <c r="E37" s="469"/>
       <c r="F37" s="469"/>
       <c r="G37" s="165" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H37" s="159" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" s="167" t="s">
-        <v>66</v>
+        <v>184</v>
+      </c>
+      <c r="I37" s="167">
+        <v>1</v>
       </c>
       <c r="J37" s="158" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K37" s="158" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L37" s="158"/>
       <c r="M37" s="158"/>
-      <c r="N37" s="158" t="s">
-        <v>147</v>
+      <c r="N37" s="159" t="s">
+        <v>57</v>
       </c>
       <c r="O37" s="168" t="s">
-        <v>194</v>
-      </c>
-      <c r="P37" s="171"/>
+        <v>187</v>
+      </c>
+      <c r="P37" s="169" t="s">
+        <v>139</v>
+      </c>
       <c r="Q37" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="R37" s="158" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="R37" s="163" t="s">
+        <v>48</v>
       </c>
       <c r="S37" s="158" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="T37" s="164" t="s">
         <v>47</v>
@@ -6230,27 +6276,27 @@
       <c r="E38" s="469"/>
       <c r="F38" s="469"/>
       <c r="G38" s="165" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H38" s="159" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I38" s="167" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J38" s="158" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K38" s="158" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L38" s="158"/>
       <c r="M38" s="158"/>
-      <c r="N38" s="172" t="s">
-        <v>151</v>
+      <c r="N38" s="158" t="s">
+        <v>142</v>
       </c>
       <c r="O38" s="168" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P38" s="171"/>
       <c r="Q38" s="170" t="s">
@@ -6267,7 +6313,7 @@
       </c>
       <c r="U38" s="158"/>
       <c r="V38" s="158"/>
-      <c r="W38" s="173"/>
+      <c r="W38" s="158"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="166"/>
@@ -6276,28 +6322,28 @@
       <c r="D39" s="545"/>
       <c r="E39" s="469"/>
       <c r="F39" s="469"/>
-      <c r="G39" s="158" t="s">
-        <v>197</v>
-      </c>
-      <c r="H39" s="158" t="s">
-        <v>197</v>
-      </c>
-      <c r="I39" s="167">
-        <v>1</v>
+      <c r="G39" s="165" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="167" t="s">
+        <v>64</v>
       </c>
       <c r="J39" s="158" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="K39" s="158" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L39" s="158"/>
       <c r="M39" s="158"/>
-      <c r="N39" s="158" t="s">
-        <v>198</v>
-      </c>
-      <c r="O39" s="174" t="s">
-        <v>199</v>
+      <c r="N39" s="172" t="s">
+        <v>146</v>
+      </c>
+      <c r="O39" s="168" t="s">
+        <v>191</v>
       </c>
       <c r="P39" s="171"/>
       <c r="Q39" s="170" t="s">
@@ -6314,7 +6360,7 @@
       </c>
       <c r="U39" s="158"/>
       <c r="V39" s="158"/>
-      <c r="W39" s="158"/>
+      <c r="W39" s="173"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" s="166"/>
@@ -6323,28 +6369,28 @@
       <c r="D40" s="545"/>
       <c r="E40" s="469"/>
       <c r="F40" s="469"/>
-      <c r="G40" s="165" t="s">
-        <v>200</v>
-      </c>
-      <c r="H40" s="159" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" s="175" t="s">
-        <v>66</v>
-      </c>
-      <c r="J40" s="159" t="s">
-        <v>138</v>
+      <c r="G40" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="H40" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" s="167">
+        <v>1</v>
+      </c>
+      <c r="J40" s="158" t="s">
+        <v>192</v>
       </c>
       <c r="K40" s="158" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L40" s="158"/>
       <c r="M40" s="158"/>
       <c r="N40" s="158" t="s">
-        <v>157</v>
-      </c>
-      <c r="O40" s="168" t="s">
-        <v>201</v>
+        <v>193</v>
+      </c>
+      <c r="O40" s="174" t="s">
+        <v>194</v>
       </c>
       <c r="P40" s="171"/>
       <c r="Q40" s="170" t="s">
@@ -6357,12 +6403,10 @@
         <v>54</v>
       </c>
       <c r="T40" s="164" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="U40" s="158"/>
-      <c r="V40" s="158" t="s">
-        <v>159</v>
-      </c>
+      <c r="V40" s="158"/>
       <c r="W40" s="158"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1">
@@ -6372,28 +6416,28 @@
       <c r="D41" s="545"/>
       <c r="E41" s="469"/>
       <c r="F41" s="469"/>
-      <c r="G41" s="176" t="s">
-        <v>202</v>
-      </c>
-      <c r="H41" s="176" t="s">
-        <v>202</v>
-      </c>
-      <c r="I41" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="J41" s="178" t="s">
-        <v>161</v>
-      </c>
-      <c r="K41" s="159" t="s">
-        <v>69</v>
+      <c r="G41" s="165" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" s="159" t="s">
+        <v>195</v>
+      </c>
+      <c r="I41" s="175" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="159" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" s="158" t="s">
+        <v>118</v>
       </c>
       <c r="L41" s="158"/>
       <c r="M41" s="158"/>
-      <c r="N41" s="159" t="s">
-        <v>57</v>
+      <c r="N41" s="158" t="s">
+        <v>152</v>
       </c>
       <c r="O41" s="168" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P41" s="171"/>
       <c r="Q41" s="170" t="s">
@@ -6406,13 +6450,13 @@
         <v>54</v>
       </c>
       <c r="T41" s="164" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="U41" s="158"/>
-      <c r="V41" s="158"/>
-      <c r="W41" s="159" t="s">
-        <v>204</v>
-      </c>
+      <c r="V41" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="W41" s="158"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" s="166"/>
@@ -6422,19 +6466,19 @@
       <c r="E42" s="469"/>
       <c r="F42" s="469"/>
       <c r="G42" s="176" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H42" s="176" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I42" s="177" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J42" s="178" t="s">
-        <v>164</v>
-      </c>
-      <c r="K42" s="158" t="s">
-        <v>123</v>
+        <v>156</v>
+      </c>
+      <c r="K42" s="159" t="s">
+        <v>67</v>
       </c>
       <c r="L42" s="158"/>
       <c r="M42" s="158"/>
@@ -6442,25 +6486,25 @@
         <v>57</v>
       </c>
       <c r="O42" s="168" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P42" s="171"/>
       <c r="Q42" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="R42" s="163" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="R42" s="158" t="s">
+        <v>54</v>
       </c>
       <c r="S42" s="158" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="T42" s="164" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="U42" s="158"/>
       <c r="V42" s="158"/>
       <c r="W42" s="159" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1">
@@ -6471,19 +6515,19 @@
       <c r="E43" s="469"/>
       <c r="F43" s="469"/>
       <c r="G43" s="176" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H43" s="176" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I43" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" s="179" t="s">
-        <v>132</v>
+        <v>93</v>
+      </c>
+      <c r="J43" s="178" t="s">
+        <v>159</v>
       </c>
       <c r="K43" s="158" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L43" s="158"/>
       <c r="M43" s="158"/>
@@ -6491,7 +6535,7 @@
         <v>57</v>
       </c>
       <c r="O43" s="168" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P43" s="171"/>
       <c r="Q43" s="170" t="s">
@@ -6501,7 +6545,7 @@
         <v>48</v>
       </c>
       <c r="S43" s="158" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="T43" s="164" t="s">
         <v>47</v>
@@ -6509,7 +6553,7 @@
       <c r="U43" s="158"/>
       <c r="V43" s="158"/>
       <c r="W43" s="159" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1">
@@ -6520,19 +6564,19 @@
       <c r="E44" s="469"/>
       <c r="F44" s="469"/>
       <c r="G44" s="176" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H44" s="176" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I44" s="177" t="s">
-        <v>66</v>
-      </c>
-      <c r="J44" s="178" t="s">
-        <v>171</v>
+        <v>93</v>
+      </c>
+      <c r="J44" s="179" t="s">
+        <v>127</v>
       </c>
       <c r="K44" s="158" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L44" s="158"/>
       <c r="M44" s="158"/>
@@ -6540,17 +6584,17 @@
         <v>57</v>
       </c>
       <c r="O44" s="168" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P44" s="171"/>
       <c r="Q44" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="R44" s="180" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="R44" s="163" t="s">
+        <v>48</v>
       </c>
       <c r="S44" s="158" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="T44" s="164" t="s">
         <v>47</v>
@@ -6558,7 +6602,7 @@
       <c r="U44" s="158"/>
       <c r="V44" s="158"/>
       <c r="W44" s="159" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1">
@@ -6569,19 +6613,19 @@
       <c r="E45" s="469"/>
       <c r="F45" s="469"/>
       <c r="G45" s="176" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H45" s="176" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I45" s="177" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J45" s="178" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K45" s="158" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L45" s="158"/>
       <c r="M45" s="158"/>
@@ -6589,25 +6633,25 @@
         <v>57</v>
       </c>
       <c r="O45" s="168" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P45" s="171"/>
       <c r="Q45" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="R45" s="158" t="s">
+      <c r="R45" s="180" t="s">
         <v>54</v>
       </c>
       <c r="S45" s="158" t="s">
         <v>54</v>
       </c>
       <c r="T45" s="164" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="U45" s="158"/>
       <c r="V45" s="158"/>
       <c r="W45" s="159" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1">
@@ -6618,19 +6662,19 @@
       <c r="E46" s="469"/>
       <c r="F46" s="469"/>
       <c r="G46" s="176" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H46" s="176" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I46" s="177" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J46" s="178" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K46" s="158" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L46" s="158"/>
       <c r="M46" s="158"/>
@@ -6638,56 +6682,56 @@
         <v>57</v>
       </c>
       <c r="O46" s="168" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="P46" s="171"/>
       <c r="Q46" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="R46" s="163" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="R46" s="158" t="s">
+        <v>54</v>
       </c>
       <c r="S46" s="158" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="T46" s="164" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="U46" s="158"/>
       <c r="V46" s="158"/>
       <c r="W46" s="159" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="A47" s="166"/>
-      <c r="B47" s="470"/>
-      <c r="C47" s="470"/>
-      <c r="D47" s="546"/>
-      <c r="E47" s="470"/>
-      <c r="F47" s="470"/>
-      <c r="G47" s="181" t="s">
-        <v>216</v>
-      </c>
-      <c r="H47" s="181" t="s">
-        <v>216</v>
+      <c r="B47" s="469"/>
+      <c r="C47" s="469"/>
+      <c r="D47" s="545"/>
+      <c r="E47" s="469"/>
+      <c r="F47" s="469"/>
+      <c r="G47" s="176" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="176" t="s">
+        <v>209</v>
       </c>
       <c r="I47" s="177" t="s">
-        <v>66</v>
-      </c>
-      <c r="J47" s="182" t="s">
-        <v>183</v>
-      </c>
-      <c r="K47" s="183" t="s">
-        <v>123</v>
-      </c>
-      <c r="L47" s="183"/>
-      <c r="M47" s="183"/>
-      <c r="N47" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="178" t="s">
+        <v>174</v>
+      </c>
+      <c r="K47" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="L47" s="158"/>
+      <c r="M47" s="158"/>
+      <c r="N47" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="O47" s="185" t="s">
-        <v>217</v>
+      <c r="O47" s="168" t="s">
+        <v>210</v>
       </c>
       <c r="P47" s="171"/>
       <c r="Q47" s="170" t="s">
@@ -6697,7 +6741,7 @@
         <v>48</v>
       </c>
       <c r="S47" s="158" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="T47" s="164" t="s">
         <v>47</v>
@@ -6705,106 +6749,114 @@
       <c r="U47" s="158"/>
       <c r="V47" s="158"/>
       <c r="W47" s="159" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A48" s="166"/>
+      <c r="B48" s="470"/>
+      <c r="C48" s="470"/>
+      <c r="D48" s="546"/>
+      <c r="E48" s="470"/>
+      <c r="F48" s="470"/>
+      <c r="G48" s="181" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A48" s="186"/>
-      <c r="B48" s="479" t="s">
-        <v>218</v>
-      </c>
-      <c r="C48" s="480" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" s="548"/>
-      <c r="E48" s="479">
-        <v>1</v>
-      </c>
-      <c r="F48" s="479"/>
-      <c r="G48" s="198" t="s">
-        <v>220</v>
-      </c>
-      <c r="H48" s="189" t="s">
-        <v>220</v>
-      </c>
-      <c r="I48" s="190">
-        <v>1</v>
-      </c>
-      <c r="J48" s="191" t="s">
-        <v>218</v>
-      </c>
-      <c r="K48" s="191" t="s">
-        <v>35</v>
-      </c>
-      <c r="L48" s="189" t="s">
-        <v>218</v>
-      </c>
-      <c r="M48" s="191"/>
-      <c r="N48" s="191" t="s">
-        <v>221</v>
-      </c>
-      <c r="O48" s="192" t="s">
-        <v>222</v>
-      </c>
-      <c r="P48" s="193"/>
-      <c r="Q48" s="194" t="s">
-        <v>40</v>
-      </c>
-      <c r="R48" s="195" t="s">
-        <v>54</v>
-      </c>
-      <c r="S48" s="195" t="s">
-        <v>223</v>
-      </c>
-      <c r="T48" s="196" t="s">
+      <c r="H48" s="181" t="s">
+        <v>211</v>
+      </c>
+      <c r="I48" s="177" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" s="182" t="s">
+        <v>178</v>
+      </c>
+      <c r="K48" s="183" t="s">
+        <v>118</v>
+      </c>
+      <c r="L48" s="183"/>
+      <c r="M48" s="183"/>
+      <c r="N48" s="184" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48" s="185" t="s">
+        <v>212</v>
+      </c>
+      <c r="P48" s="171"/>
+      <c r="Q48" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="U48" s="195"/>
-      <c r="V48" s="195"/>
-      <c r="W48" s="197" t="s">
-        <v>224</v>
+      <c r="R48" s="163" t="s">
+        <v>48</v>
+      </c>
+      <c r="S48" s="158" t="s">
+        <v>180</v>
+      </c>
+      <c r="T48" s="164" t="s">
+        <v>47</v>
+      </c>
+      <c r="U48" s="158"/>
+      <c r="V48" s="158"/>
+      <c r="W48" s="159" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="15.75" customHeight="1">
       <c r="A49" s="186"/>
-      <c r="B49" s="464"/>
-      <c r="C49" s="464"/>
-      <c r="D49" s="547"/>
-      <c r="E49" s="464"/>
-      <c r="F49" s="464"/>
+      <c r="B49" s="479" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="480" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="548"/>
+      <c r="E49" s="479">
+        <v>1</v>
+      </c>
+      <c r="F49" s="479"/>
       <c r="G49" s="198" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H49" s="189" t="s">
-        <v>225</v>
-      </c>
-      <c r="I49" s="190" t="s">
-        <v>66</v>
-      </c>
-      <c r="J49" s="198" t="s">
-        <v>138</v>
-      </c>
-      <c r="K49" s="189" t="s">
-        <v>69</v>
+        <v>215</v>
+      </c>
+      <c r="I49" s="190">
+        <v>1</v>
+      </c>
+      <c r="J49" s="191" t="s">
+        <v>213</v>
+      </c>
+      <c r="K49" s="191" t="s">
+        <v>35</v>
       </c>
       <c r="L49" s="189" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="M49" s="191"/>
       <c r="N49" s="191" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="O49" s="192" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="P49" s="193"/>
-      <c r="Q49" s="194"/>
-      <c r="R49" s="195"/>
-      <c r="S49" s="195"/>
-      <c r="T49" s="196"/>
+      <c r="Q49" s="194" t="s">
+        <v>40</v>
+      </c>
+      <c r="R49" s="195" t="s">
+        <v>54</v>
+      </c>
+      <c r="S49" s="195" t="s">
+        <v>218</v>
+      </c>
+      <c r="T49" s="196" t="s">
+        <v>47</v>
+      </c>
       <c r="U49" s="195"/>
       <c r="V49" s="195"/>
-      <c r="W49" s="197"/>
+      <c r="W49" s="197" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="50" spans="1:36" ht="15.75" customHeight="1">
       <c r="A50" s="186"/>
@@ -6814,27 +6866,29 @@
       <c r="E50" s="464"/>
       <c r="F50" s="464"/>
       <c r="G50" s="198" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H50" s="189" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I50" s="190" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J50" s="198" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K50" s="189" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L50" s="189" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M50" s="191"/>
-      <c r="N50" s="191"/>
+      <c r="N50" s="191" t="s">
+        <v>152</v>
+      </c>
       <c r="O50" s="192" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P50" s="193"/>
       <c r="Q50" s="194"/>
@@ -6853,27 +6907,27 @@
       <c r="E51" s="464"/>
       <c r="F51" s="464"/>
       <c r="G51" s="198" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H51" s="189" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I51" s="190" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="J51" s="198" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K51" s="189" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="L51" s="189" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M51" s="191"/>
       <c r="N51" s="191"/>
       <c r="O51" s="192" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P51" s="193"/>
       <c r="Q51" s="194"/>
@@ -6892,27 +6946,27 @@
       <c r="E52" s="464"/>
       <c r="F52" s="464"/>
       <c r="G52" s="198" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H52" s="189" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I52" s="190" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J52" s="198" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K52" s="189" t="s">
         <v>35</v>
       </c>
       <c r="L52" s="189" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M52" s="191"/>
       <c r="N52" s="191"/>
       <c r="O52" s="192" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="P52" s="193"/>
       <c r="Q52" s="194"/>
@@ -6923,7 +6977,7 @@
       <c r="V52" s="195"/>
       <c r="W52" s="197"/>
     </row>
-    <row r="53" spans="1:36" ht="37.5" customHeight="1">
+    <row r="53" spans="1:36" ht="15.75" customHeight="1">
       <c r="A53" s="186"/>
       <c r="B53" s="464"/>
       <c r="C53" s="464"/>
@@ -6931,27 +6985,27 @@
       <c r="E53" s="464"/>
       <c r="F53" s="464"/>
       <c r="G53" s="198" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H53" s="189" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I53" s="190" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J53" s="198" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K53" s="189" t="s">
         <v>35</v>
       </c>
       <c r="L53" s="189" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M53" s="191"/>
       <c r="N53" s="191"/>
       <c r="O53" s="192" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P53" s="193"/>
       <c r="Q53" s="194"/>
@@ -6962,111 +7016,101 @@
       <c r="V53" s="195"/>
       <c r="W53" s="197"/>
     </row>
-    <row r="54" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A54" s="199"/>
-      <c r="B54" s="474" t="s">
-        <v>235</v>
-      </c>
-      <c r="C54" s="481" t="s">
-        <v>236</v>
-      </c>
-      <c r="D54" s="549"/>
-      <c r="E54" s="474">
-        <v>1</v>
-      </c>
-      <c r="F54" s="475"/>
-      <c r="G54" s="200" t="s">
-        <v>237</v>
-      </c>
-      <c r="H54" s="200" t="s">
-        <v>237</v>
-      </c>
-      <c r="I54" s="201">
-        <v>1</v>
-      </c>
-      <c r="J54" s="202" t="s">
-        <v>235</v>
-      </c>
-      <c r="K54" s="202" t="s">
+    <row r="54" spans="1:36" ht="37.5" customHeight="1">
+      <c r="A54" s="186"/>
+      <c r="B54" s="464"/>
+      <c r="C54" s="464"/>
+      <c r="D54" s="547"/>
+      <c r="E54" s="464"/>
+      <c r="F54" s="464"/>
+      <c r="G54" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="H54" s="189" t="s">
+        <v>228</v>
+      </c>
+      <c r="I54" s="190" t="s">
+        <v>93</v>
+      </c>
+      <c r="J54" s="198" t="s">
+        <v>133</v>
+      </c>
+      <c r="K54" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="L54" s="203" t="s">
-        <v>235</v>
-      </c>
-      <c r="M54" s="202"/>
-      <c r="N54" s="202" t="s">
-        <v>238</v>
-      </c>
-      <c r="O54" s="204" t="s">
-        <v>239</v>
-      </c>
-      <c r="P54" s="205"/>
-      <c r="Q54" s="206" t="s">
-        <v>40</v>
-      </c>
-      <c r="R54" s="207" t="s">
-        <v>240</v>
-      </c>
-      <c r="S54" s="208" t="s">
-        <v>241</v>
-      </c>
-      <c r="T54" s="209" t="s">
-        <v>47</v>
-      </c>
-      <c r="U54" s="208"/>
-      <c r="V54" s="208"/>
-      <c r="W54" s="210" t="s">
-        <v>242</v>
-      </c>
+      <c r="L54" s="189" t="s">
+        <v>133</v>
+      </c>
+      <c r="M54" s="191"/>
+      <c r="N54" s="191"/>
+      <c r="O54" s="192" t="s">
+        <v>229</v>
+      </c>
+      <c r="P54" s="193"/>
+      <c r="Q54" s="194"/>
+      <c r="R54" s="195"/>
+      <c r="S54" s="195"/>
+      <c r="T54" s="196"/>
+      <c r="U54" s="195"/>
+      <c r="V54" s="195"/>
+      <c r="W54" s="197"/>
     </row>
     <row r="55" spans="1:36" ht="15.75" customHeight="1">
       <c r="A55" s="199"/>
-      <c r="B55" s="469"/>
-      <c r="C55" s="469"/>
+      <c r="B55" s="474" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="481" t="s">
+        <v>231</v>
+      </c>
       <c r="D55" s="549"/>
-      <c r="E55" s="469"/>
-      <c r="F55" s="476"/>
-      <c r="G55" s="203" t="s">
-        <v>243</v>
-      </c>
-      <c r="H55" s="203" t="s">
-        <v>243</v>
-      </c>
-      <c r="I55" s="206">
+      <c r="E55" s="474">
         <v>1</v>
       </c>
-      <c r="J55" s="208" t="s">
-        <v>244</v>
-      </c>
-      <c r="K55" s="208" t="s">
+      <c r="F55" s="475"/>
+      <c r="G55" s="200" t="s">
+        <v>232</v>
+      </c>
+      <c r="H55" s="200" t="s">
+        <v>232</v>
+      </c>
+      <c r="I55" s="201">
+        <v>1</v>
+      </c>
+      <c r="J55" s="202" t="s">
+        <v>230</v>
+      </c>
+      <c r="K55" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="L55" s="210" t="s">
-        <v>245</v>
-      </c>
-      <c r="M55" s="208"/>
-      <c r="N55" s="210" t="s">
-        <v>57</v>
-      </c>
-      <c r="O55" s="211" t="s">
-        <v>246</v>
+      <c r="L55" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="M55" s="202"/>
+      <c r="N55" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="O55" s="204" t="s">
+        <v>234</v>
       </c>
       <c r="P55" s="205"/>
-      <c r="Q55" s="212" t="s">
-        <v>47</v>
+      <c r="Q55" s="206" t="s">
+        <v>40</v>
       </c>
       <c r="R55" s="207" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="S55" s="208" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="T55" s="209" t="s">
         <v>47</v>
       </c>
       <c r="U55" s="208"/>
       <c r="V55" s="208"/>
-      <c r="W55" s="208"/>
+      <c r="W55" s="210" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="56" spans="1:36" ht="15.75" customHeight="1">
       <c r="A56" s="199"/>
@@ -7075,38 +7119,40 @@
       <c r="D56" s="549"/>
       <c r="E56" s="469"/>
       <c r="F56" s="476"/>
-      <c r="G56" s="210" t="s">
-        <v>248</v>
-      </c>
-      <c r="H56" s="210" t="s">
-        <v>248</v>
-      </c>
-      <c r="I56" s="206" t="s">
-        <v>66</v>
-      </c>
-      <c r="J56" s="210" t="s">
-        <v>249</v>
+      <c r="G56" s="203" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56" s="203" t="s">
+        <v>238</v>
+      </c>
+      <c r="I56" s="206">
+        <v>1</v>
+      </c>
+      <c r="J56" s="208" t="s">
+        <v>239</v>
       </c>
       <c r="K56" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="L56" s="208"/>
+      <c r="L56" s="210" t="s">
+        <v>240</v>
+      </c>
       <c r="M56" s="208"/>
       <c r="N56" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="O56" s="213" t="s">
-        <v>250</v>
+      <c r="O56" s="211" t="s">
+        <v>241</v>
       </c>
       <c r="P56" s="205"/>
       <c r="Q56" s="212" t="s">
         <v>47</v>
       </c>
       <c r="R56" s="207" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="S56" s="208" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="T56" s="209" t="s">
         <v>47</v>
@@ -7123,16 +7169,16 @@
       <c r="E57" s="469"/>
       <c r="F57" s="476"/>
       <c r="G57" s="210" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H57" s="210" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I57" s="206" t="s">
-        <v>66</v>
-      </c>
-      <c r="J57" s="208" t="s">
-        <v>253</v>
+        <v>64</v>
+      </c>
+      <c r="J57" s="210" t="s">
+        <v>244</v>
       </c>
       <c r="K57" s="208" t="s">
         <v>35</v>
@@ -7143,17 +7189,17 @@
         <v>57</v>
       </c>
       <c r="O57" s="213" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P57" s="205"/>
       <c r="Q57" s="212" t="s">
         <v>47</v>
       </c>
       <c r="R57" s="207" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="S57" s="208" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="T57" s="209" t="s">
         <v>47</v>
@@ -7164,43 +7210,43 @@
     </row>
     <row r="58" spans="1:36" ht="15.75" customHeight="1">
       <c r="A58" s="199"/>
-      <c r="B58" s="470"/>
-      <c r="C58" s="470"/>
-      <c r="D58" s="550"/>
-      <c r="E58" s="470"/>
-      <c r="F58" s="477"/>
-      <c r="G58" s="214" t="s">
-        <v>255</v>
-      </c>
-      <c r="H58" s="214" t="s">
-        <v>255</v>
-      </c>
-      <c r="I58" s="215" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="214" t="s">
-        <v>132</v>
-      </c>
-      <c r="K58" s="216" t="s">
+      <c r="B58" s="469"/>
+      <c r="C58" s="469"/>
+      <c r="D58" s="549"/>
+      <c r="E58" s="469"/>
+      <c r="F58" s="476"/>
+      <c r="G58" s="210" t="s">
+        <v>247</v>
+      </c>
+      <c r="H58" s="210" t="s">
+        <v>247</v>
+      </c>
+      <c r="I58" s="206" t="s">
+        <v>64</v>
+      </c>
+      <c r="J58" s="208" t="s">
+        <v>248</v>
+      </c>
+      <c r="K58" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="216"/>
-      <c r="M58" s="216"/>
-      <c r="N58" s="214" t="s">
+      <c r="L58" s="208"/>
+      <c r="M58" s="208"/>
+      <c r="N58" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="O58" s="217" t="s">
-        <v>256</v>
+      <c r="O58" s="213" t="s">
+        <v>249</v>
       </c>
       <c r="P58" s="205"/>
       <c r="Q58" s="212" t="s">
         <v>47</v>
       </c>
       <c r="R58" s="207" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="S58" s="208" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="T58" s="209" t="s">
         <v>47</v>
@@ -7210,69 +7256,81 @@
       <c r="W58" s="208"/>
     </row>
     <row r="59" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A59" s="218"/>
-      <c r="B59" s="516" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" s="517" t="s">
-        <v>259</v>
-      </c>
-      <c r="D59" s="551"/>
-      <c r="E59" s="518" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="519"/>
-      <c r="G59" s="219" t="s">
-        <v>260</v>
-      </c>
-      <c r="H59" s="219" t="s">
-        <v>260</v>
-      </c>
-      <c r="I59" s="220">
-        <v>1</v>
-      </c>
-      <c r="J59" s="221"/>
-      <c r="K59" s="221"/>
-      <c r="L59" s="221"/>
-      <c r="M59" s="221"/>
-      <c r="N59" s="219"/>
-      <c r="O59" s="222" t="s">
-        <v>261</v>
-      </c>
-      <c r="P59" s="223"/>
-      <c r="Q59" s="224"/>
-      <c r="R59" s="225"/>
-      <c r="S59" s="225"/>
-      <c r="T59" s="226"/>
-      <c r="U59" s="225"/>
-      <c r="V59" s="225"/>
-      <c r="W59" s="227"/>
-    </row>
-    <row r="60" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A59" s="199"/>
+      <c r="B59" s="470"/>
+      <c r="C59" s="470"/>
+      <c r="D59" s="550"/>
+      <c r="E59" s="470"/>
+      <c r="F59" s="477"/>
+      <c r="G59" s="214" t="s">
+        <v>250</v>
+      </c>
+      <c r="H59" s="214" t="s">
+        <v>250</v>
+      </c>
+      <c r="I59" s="215" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59" s="214" t="s">
+        <v>127</v>
+      </c>
+      <c r="K59" s="216" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" s="216"/>
+      <c r="M59" s="216"/>
+      <c r="N59" s="214" t="s">
+        <v>57</v>
+      </c>
+      <c r="O59" s="217" t="s">
+        <v>251</v>
+      </c>
+      <c r="P59" s="205"/>
+      <c r="Q59" s="212" t="s">
+        <v>47</v>
+      </c>
+      <c r="R59" s="207" t="s">
+        <v>235</v>
+      </c>
+      <c r="S59" s="208" t="s">
+        <v>252</v>
+      </c>
+      <c r="T59" s="209" t="s">
+        <v>47</v>
+      </c>
+      <c r="U59" s="208"/>
+      <c r="V59" s="208"/>
+      <c r="W59" s="208"/>
+    </row>
+    <row r="60" spans="1:36" ht="15.75" customHeight="1">
       <c r="A60" s="218"/>
-      <c r="B60" s="466"/>
-      <c r="C60" s="466"/>
-      <c r="D60" s="552"/>
-      <c r="E60" s="469"/>
-      <c r="F60" s="476"/>
+      <c r="B60" s="516" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" s="517" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" s="551"/>
+      <c r="E60" s="518" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="519"/>
       <c r="G60" s="219" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H60" s="219" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I60" s="220">
         <v>1</v>
       </c>
       <c r="J60" s="221"/>
       <c r="K60" s="221"/>
-      <c r="L60" s="219" t="s">
-        <v>263</v>
-      </c>
+      <c r="L60" s="221"/>
       <c r="M60" s="221"/>
       <c r="N60" s="219"/>
       <c r="O60" s="222" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P60" s="223"/>
       <c r="Q60" s="224"/>
@@ -7283,98 +7341,83 @@
       <c r="V60" s="225"/>
       <c r="W60" s="227"/>
     </row>
-    <row r="61" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A61" s="228"/>
-      <c r="B61" s="510" t="s">
-        <v>265</v>
-      </c>
-      <c r="C61" s="508" t="s">
-        <v>266</v>
-      </c>
-      <c r="D61" s="553"/>
-      <c r="E61" s="521" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="522"/>
-      <c r="G61" s="229" t="s">
-        <v>267</v>
-      </c>
-      <c r="H61" s="229" t="s">
-        <v>267</v>
-      </c>
-      <c r="I61" s="230">
+    <row r="61" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A61" s="218"/>
+      <c r="B61" s="466"/>
+      <c r="C61" s="466"/>
+      <c r="D61" s="552"/>
+      <c r="E61" s="469"/>
+      <c r="F61" s="476"/>
+      <c r="G61" s="219" t="s">
+        <v>257</v>
+      </c>
+      <c r="H61" s="219" t="s">
+        <v>257</v>
+      </c>
+      <c r="I61" s="220">
         <v>1</v>
       </c>
-      <c r="J61" s="231" t="s">
-        <v>138</v>
-      </c>
-      <c r="K61" s="232" t="s">
+      <c r="J61" s="221"/>
+      <c r="K61" s="221"/>
+      <c r="L61" s="219" t="s">
+        <v>258</v>
+      </c>
+      <c r="M61" s="221"/>
+      <c r="N61" s="219"/>
+      <c r="O61" s="222" t="s">
+        <v>259</v>
+      </c>
+      <c r="P61" s="223"/>
+      <c r="Q61" s="224"/>
+      <c r="R61" s="225"/>
+      <c r="S61" s="225"/>
+      <c r="T61" s="226"/>
+      <c r="U61" s="225"/>
+      <c r="V61" s="225"/>
+      <c r="W61" s="227"/>
+    </row>
+    <row r="62" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A62" s="228"/>
+      <c r="B62" s="510" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" s="508" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="553"/>
+      <c r="E62" s="521" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="522"/>
+      <c r="G62" s="229" t="s">
+        <v>262</v>
+      </c>
+      <c r="H62" s="229" t="s">
+        <v>262</v>
+      </c>
+      <c r="I62" s="230">
+        <v>1</v>
+      </c>
+      <c r="J62" s="231" t="s">
+        <v>133</v>
+      </c>
+      <c r="K62" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="L61" s="233"/>
-      <c r="M61" s="231"/>
-      <c r="N61" s="231"/>
-      <c r="O61" s="234" t="s">
-        <v>268</v>
-      </c>
-      <c r="P61" s="235"/>
-      <c r="Q61" s="236"/>
-      <c r="R61" s="236"/>
-      <c r="S61" s="236"/>
-      <c r="T61" s="237"/>
-      <c r="U61" s="236"/>
-      <c r="V61" s="236"/>
-      <c r="W61" s="238"/>
-      <c r="X61" s="239"/>
-      <c r="Y61" s="239"/>
-      <c r="Z61" s="239"/>
-      <c r="AA61" s="239"/>
-      <c r="AB61" s="239"/>
-      <c r="AC61" s="239"/>
-      <c r="AD61" s="239"/>
-      <c r="AE61" s="239"/>
-      <c r="AF61" s="239"/>
-      <c r="AG61" s="239"/>
-      <c r="AH61" s="239"/>
-      <c r="AI61" s="239"/>
-      <c r="AJ61" s="239"/>
-    </row>
-    <row r="62" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="228"/>
-      <c r="B62" s="511"/>
-      <c r="C62" s="464"/>
-      <c r="D62" s="554"/>
-      <c r="E62" s="466"/>
-      <c r="F62" s="464"/>
-      <c r="G62" s="240" t="s">
-        <v>269</v>
-      </c>
-      <c r="H62" s="240" t="s">
-        <v>269</v>
-      </c>
-      <c r="I62" s="241">
-        <v>1</v>
-      </c>
-      <c r="J62" s="242" t="s">
-        <v>138</v>
-      </c>
-      <c r="K62" s="243" t="s">
-        <v>35</v>
-      </c>
-      <c r="L62" s="244"/>
-      <c r="M62" s="242"/>
-      <c r="N62" s="242"/>
+      <c r="L62" s="233"/>
+      <c r="M62" s="231"/>
+      <c r="N62" s="231"/>
       <c r="O62" s="234" t="s">
-        <v>270</v>
-      </c>
-      <c r="P62" s="245"/>
-      <c r="Q62" s="246"/>
-      <c r="R62" s="246"/>
-      <c r="S62" s="246"/>
-      <c r="T62" s="247"/>
-      <c r="U62" s="246"/>
-      <c r="V62" s="246"/>
-      <c r="W62" s="248"/>
+        <v>263</v>
+      </c>
+      <c r="P62" s="235"/>
+      <c r="Q62" s="236"/>
+      <c r="R62" s="236"/>
+      <c r="S62" s="236"/>
+      <c r="T62" s="237"/>
+      <c r="U62" s="236"/>
+      <c r="V62" s="236"/>
+      <c r="W62" s="238"/>
       <c r="X62" s="239"/>
       <c r="Y62" s="239"/>
       <c r="Z62" s="239"/>
@@ -7389,76 +7432,89 @@
       <c r="AI62" s="239"/>
       <c r="AJ62" s="239"/>
     </row>
-    <row r="63" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
+    <row r="63" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
       <c r="A63" s="228"/>
       <c r="B63" s="511"/>
-      <c r="C63" s="509" t="s">
-        <v>271</v>
-      </c>
-      <c r="D63" s="555"/>
-      <c r="E63" s="514" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" s="515"/>
-      <c r="G63" s="258" t="s">
-        <v>272</v>
-      </c>
-      <c r="H63" s="249" t="s">
-        <v>272</v>
-      </c>
-      <c r="I63" s="250">
+      <c r="C63" s="464"/>
+      <c r="D63" s="554"/>
+      <c r="E63" s="466"/>
+      <c r="F63" s="464"/>
+      <c r="G63" s="240" t="s">
+        <v>264</v>
+      </c>
+      <c r="H63" s="240" t="s">
+        <v>264</v>
+      </c>
+      <c r="I63" s="241">
         <v>1</v>
       </c>
-      <c r="J63" s="251" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="249" t="s">
+      <c r="J63" s="242" t="s">
+        <v>133</v>
+      </c>
+      <c r="K63" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="L63" s="249"/>
-      <c r="M63" s="251"/>
-      <c r="N63" s="251" t="s">
-        <v>273</v>
-      </c>
-      <c r="O63" s="252" t="s">
-        <v>274</v>
-      </c>
-      <c r="P63" s="253"/>
-      <c r="Q63" s="254"/>
-      <c r="R63" s="255"/>
-      <c r="S63" s="255"/>
-      <c r="T63" s="256"/>
-      <c r="U63" s="255"/>
-      <c r="V63" s="255"/>
-      <c r="W63" s="257"/>
-    </row>
-    <row r="64" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L63" s="244"/>
+      <c r="M63" s="242"/>
+      <c r="N63" s="242"/>
+      <c r="O63" s="234" t="s">
+        <v>265</v>
+      </c>
+      <c r="P63" s="245"/>
+      <c r="Q63" s="246"/>
+      <c r="R63" s="246"/>
+      <c r="S63" s="246"/>
+      <c r="T63" s="247"/>
+      <c r="U63" s="246"/>
+      <c r="V63" s="246"/>
+      <c r="W63" s="248"/>
+      <c r="X63" s="239"/>
+      <c r="Y63" s="239"/>
+      <c r="Z63" s="239"/>
+      <c r="AA63" s="239"/>
+      <c r="AB63" s="239"/>
+      <c r="AC63" s="239"/>
+      <c r="AD63" s="239"/>
+      <c r="AE63" s="239"/>
+      <c r="AF63" s="239"/>
+      <c r="AG63" s="239"/>
+      <c r="AH63" s="239"/>
+      <c r="AI63" s="239"/>
+      <c r="AJ63" s="239"/>
+    </row>
+    <row r="64" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
       <c r="A64" s="228"/>
       <c r="B64" s="511"/>
-      <c r="C64" s="464"/>
+      <c r="C64" s="509" t="s">
+        <v>266</v>
+      </c>
       <c r="D64" s="555"/>
-      <c r="E64" s="466"/>
-      <c r="F64" s="469"/>
+      <c r="E64" s="514" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="515"/>
       <c r="G64" s="258" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H64" s="249" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I64" s="250">
         <v>1</v>
       </c>
-      <c r="J64" s="258" t="s">
-        <v>276</v>
+      <c r="J64" s="251" t="s">
+        <v>16</v>
       </c>
       <c r="K64" s="249" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L64" s="249"/>
       <c r="M64" s="251"/>
-      <c r="N64" s="251"/>
+      <c r="N64" s="251" t="s">
+        <v>268</v>
+      </c>
       <c r="O64" s="252" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P64" s="253"/>
       <c r="Q64" s="254"/>
@@ -7469,33 +7525,33 @@
       <c r="V64" s="255"/>
       <c r="W64" s="257"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="228"/>
       <c r="B65" s="511"/>
       <c r="C65" s="464"/>
       <c r="D65" s="555"/>
       <c r="E65" s="466"/>
       <c r="F65" s="469"/>
-      <c r="G65" s="259" t="s">
-        <v>278</v>
-      </c>
-      <c r="H65" s="259" t="s">
-        <v>278</v>
-      </c>
-      <c r="I65" s="260" t="s">
-        <v>98</v>
-      </c>
-      <c r="J65" s="261" t="s">
-        <v>138</v>
+      <c r="G65" s="258" t="s">
+        <v>270</v>
+      </c>
+      <c r="H65" s="249" t="s">
+        <v>270</v>
+      </c>
+      <c r="I65" s="250">
+        <v>1</v>
+      </c>
+      <c r="J65" s="258" t="s">
+        <v>271</v>
       </c>
       <c r="K65" s="249" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L65" s="249"/>
       <c r="M65" s="251"/>
       <c r="N65" s="251"/>
       <c r="O65" s="252" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="P65" s="253"/>
       <c r="Q65" s="254"/>
@@ -7506,33 +7562,33 @@
       <c r="V65" s="255"/>
       <c r="W65" s="257"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A66" s="228"/>
       <c r="B66" s="511"/>
       <c r="C66" s="464"/>
       <c r="D66" s="555"/>
       <c r="E66" s="466"/>
       <c r="F66" s="469"/>
-      <c r="G66" s="262" t="s">
-        <v>280</v>
-      </c>
-      <c r="H66" s="262" t="s">
-        <v>280</v>
-      </c>
-      <c r="I66" s="263" t="s">
-        <v>98</v>
+      <c r="G66" s="259" t="s">
+        <v>273</v>
+      </c>
+      <c r="H66" s="259" t="s">
+        <v>273</v>
+      </c>
+      <c r="I66" s="260" t="s">
+        <v>93</v>
       </c>
       <c r="J66" s="261" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K66" s="249" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L66" s="249"/>
       <c r="M66" s="251"/>
       <c r="N66" s="251"/>
-      <c r="O66" s="264" t="s">
-        <v>281</v>
+      <c r="O66" s="252" t="s">
+        <v>274</v>
       </c>
       <c r="P66" s="253"/>
       <c r="Q66" s="254"/>
@@ -7543,31 +7599,33 @@
       <c r="V66" s="255"/>
       <c r="W66" s="257"/>
     </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A67" s="228"/>
       <c r="B67" s="511"/>
       <c r="C67" s="464"/>
       <c r="D67" s="555"/>
       <c r="E67" s="466"/>
       <c r="F67" s="469"/>
-      <c r="G67" s="265" t="s">
-        <v>282</v>
-      </c>
-      <c r="H67" s="265" t="s">
-        <v>282</v>
-      </c>
-      <c r="I67" s="266" t="s">
-        <v>98</v>
-      </c>
-      <c r="J67" s="267"/>
-      <c r="K67" s="268" t="s">
-        <v>35</v>
+      <c r="G67" s="262" t="s">
+        <v>275</v>
+      </c>
+      <c r="H67" s="262" t="s">
+        <v>275</v>
+      </c>
+      <c r="I67" s="263" t="s">
+        <v>93</v>
+      </c>
+      <c r="J67" s="261" t="s">
+        <v>133</v>
+      </c>
+      <c r="K67" s="249" t="s">
+        <v>67</v>
       </c>
       <c r="L67" s="249"/>
       <c r="M67" s="251"/>
       <c r="N67" s="251"/>
-      <c r="O67" s="252" t="s">
-        <v>283</v>
+      <c r="O67" s="264" t="s">
+        <v>276</v>
       </c>
       <c r="P67" s="253"/>
       <c r="Q67" s="254"/>
@@ -7578,31 +7636,31 @@
       <c r="V67" s="255"/>
       <c r="W67" s="257"/>
     </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A68" s="228"/>
-      <c r="B68" s="520"/>
+      <c r="B68" s="511"/>
       <c r="C68" s="464"/>
       <c r="D68" s="555"/>
       <c r="E68" s="466"/>
       <c r="F68" s="469"/>
-      <c r="G68" s="269" t="s">
-        <v>284</v>
-      </c>
-      <c r="H68" s="269" t="s">
-        <v>284</v>
-      </c>
-      <c r="I68" s="270" t="s">
-        <v>98</v>
-      </c>
-      <c r="J68" s="261"/>
-      <c r="K68" s="271" t="s">
+      <c r="G68" s="265" t="s">
+        <v>277</v>
+      </c>
+      <c r="H68" s="265" t="s">
+        <v>277</v>
+      </c>
+      <c r="I68" s="266" t="s">
+        <v>93</v>
+      </c>
+      <c r="J68" s="267"/>
+      <c r="K68" s="268" t="s">
         <v>35</v>
       </c>
       <c r="L68" s="249"/>
       <c r="M68" s="251"/>
       <c r="N68" s="251"/>
       <c r="O68" s="252" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P68" s="253"/>
       <c r="Q68" s="254"/>
@@ -7613,72 +7671,68 @@
       <c r="V68" s="255"/>
       <c r="W68" s="257"/>
     </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
+    <row r="69" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="228"/>
-      <c r="B69" s="510" t="s">
-        <v>286</v>
-      </c>
-      <c r="C69" s="512" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="512"/>
-      <c r="E69" s="513" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" s="495"/>
-      <c r="G69" s="272" t="s">
-        <v>288</v>
-      </c>
-      <c r="H69" s="272" t="s">
-        <v>288</v>
-      </c>
-      <c r="I69" s="273" t="s">
-        <v>66</v>
-      </c>
-      <c r="J69" s="274" t="s">
-        <v>138</v>
-      </c>
-      <c r="K69" s="275" t="s">
-        <v>123</v>
-      </c>
-      <c r="L69" s="276"/>
-      <c r="M69" s="277"/>
-      <c r="N69" s="278" t="s">
-        <v>57</v>
-      </c>
-      <c r="O69" s="279" t="s">
-        <v>289</v>
-      </c>
-      <c r="P69" s="280"/>
-      <c r="Q69" s="281"/>
-      <c r="R69" s="282"/>
-      <c r="S69" s="282"/>
-      <c r="T69" s="283"/>
-      <c r="U69" s="282"/>
-      <c r="V69" s="282"/>
-      <c r="W69" s="284"/>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B69" s="520"/>
+      <c r="C69" s="464"/>
+      <c r="D69" s="555"/>
+      <c r="E69" s="466"/>
+      <c r="F69" s="469"/>
+      <c r="G69" s="269" t="s">
+        <v>279</v>
+      </c>
+      <c r="H69" s="269" t="s">
+        <v>279</v>
+      </c>
+      <c r="I69" s="270" t="s">
+        <v>93</v>
+      </c>
+      <c r="J69" s="261"/>
+      <c r="K69" s="271" t="s">
+        <v>35</v>
+      </c>
+      <c r="L69" s="249"/>
+      <c r="M69" s="251"/>
+      <c r="N69" s="251"/>
+      <c r="O69" s="252" t="s">
+        <v>280</v>
+      </c>
+      <c r="P69" s="253"/>
+      <c r="Q69" s="254"/>
+      <c r="R69" s="255"/>
+      <c r="S69" s="255"/>
+      <c r="T69" s="256"/>
+      <c r="U69" s="255"/>
+      <c r="V69" s="255"/>
+      <c r="W69" s="257"/>
+    </row>
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A70" s="228"/>
-      <c r="B70" s="511"/>
-      <c r="C70" s="464"/>
+      <c r="B70" s="510" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="512" t="s">
+        <v>282</v>
+      </c>
       <c r="D70" s="512"/>
-      <c r="E70" s="466"/>
-      <c r="F70" s="469"/>
+      <c r="E70" s="513" t="s">
+        <v>93</v>
+      </c>
+      <c r="F70" s="495"/>
       <c r="G70" s="272" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H70" s="272" t="s">
-        <v>290</v>
-      </c>
-      <c r="I70" s="273">
-        <v>1</v>
-      </c>
-      <c r="J70" s="285" t="s">
-        <v>142</v>
+        <v>283</v>
+      </c>
+      <c r="I70" s="273" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" s="274" t="s">
+        <v>133</v>
       </c>
       <c r="K70" s="275" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="L70" s="276"/>
       <c r="M70" s="277"/>
@@ -7686,7 +7740,7 @@
         <v>57</v>
       </c>
       <c r="O70" s="279" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P70" s="280"/>
       <c r="Q70" s="281"/>
@@ -7705,27 +7759,27 @@
       <c r="E71" s="466"/>
       <c r="F71" s="469"/>
       <c r="G71" s="272" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H71" s="272" t="s">
-        <v>292</v>
-      </c>
-      <c r="I71" s="273" t="s">
-        <v>66</v>
+        <v>285</v>
+      </c>
+      <c r="I71" s="273">
+        <v>1</v>
       </c>
       <c r="J71" s="285" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K71" s="275" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L71" s="276"/>
       <c r="M71" s="277"/>
       <c r="N71" s="278" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="O71" s="279" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P71" s="280"/>
       <c r="Q71" s="281"/>
@@ -7744,27 +7798,27 @@
       <c r="E72" s="466"/>
       <c r="F72" s="469"/>
       <c r="G72" s="272" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H72" s="272" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I72" s="273" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J72" s="285" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K72" s="275" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L72" s="276"/>
       <c r="M72" s="277"/>
-      <c r="N72" s="277" t="s">
-        <v>151</v>
+      <c r="N72" s="278" t="s">
+        <v>142</v>
       </c>
       <c r="O72" s="279" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P72" s="280"/>
       <c r="Q72" s="281"/>
@@ -7783,27 +7837,27 @@
       <c r="E73" s="466"/>
       <c r="F73" s="469"/>
       <c r="G73" s="272" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H73" s="272" t="s">
-        <v>296</v>
-      </c>
-      <c r="I73" s="273">
-        <v>1</v>
-      </c>
-      <c r="J73" s="286" t="s">
-        <v>296</v>
+        <v>289</v>
+      </c>
+      <c r="I73" s="273" t="s">
+        <v>64</v>
+      </c>
+      <c r="J73" s="285" t="s">
+        <v>145</v>
       </c>
       <c r="K73" s="275" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="L73" s="276"/>
       <c r="M73" s="277"/>
-      <c r="N73" s="287" t="s">
-        <v>297</v>
+      <c r="N73" s="277" t="s">
+        <v>146</v>
       </c>
       <c r="O73" s="279" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P73" s="280"/>
       <c r="Q73" s="281"/>
@@ -7822,27 +7876,27 @@
       <c r="E74" s="466"/>
       <c r="F74" s="469"/>
       <c r="G74" s="272" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H74" s="272" t="s">
-        <v>299</v>
-      </c>
-      <c r="I74" s="273" t="s">
-        <v>66</v>
-      </c>
-      <c r="J74" s="274" t="s">
-        <v>138</v>
+        <v>291</v>
+      </c>
+      <c r="I74" s="273">
+        <v>1</v>
+      </c>
+      <c r="J74" s="286" t="s">
+        <v>291</v>
       </c>
       <c r="K74" s="275" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L74" s="276"/>
       <c r="M74" s="277"/>
-      <c r="N74" s="277" t="s">
-        <v>157</v>
+      <c r="N74" s="287" t="s">
+        <v>292</v>
       </c>
       <c r="O74" s="279" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="P74" s="280"/>
       <c r="Q74" s="281"/>
@@ -7861,27 +7915,27 @@
       <c r="E75" s="466"/>
       <c r="F75" s="469"/>
       <c r="G75" s="272" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H75" s="272" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I75" s="273" t="s">
-        <v>98</v>
-      </c>
-      <c r="J75" s="285" t="s">
-        <v>161</v>
+        <v>64</v>
+      </c>
+      <c r="J75" s="274" t="s">
+        <v>133</v>
       </c>
       <c r="K75" s="275" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="L75" s="276"/>
       <c r="M75" s="277"/>
-      <c r="N75" s="278" t="s">
-        <v>57</v>
+      <c r="N75" s="277" t="s">
+        <v>152</v>
       </c>
       <c r="O75" s="279" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P75" s="280"/>
       <c r="Q75" s="281"/>
@@ -7900,16 +7954,16 @@
       <c r="E76" s="466"/>
       <c r="F76" s="469"/>
       <c r="G76" s="272" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H76" s="272" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I76" s="273" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J76" s="285" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K76" s="275" t="s">
         <v>35</v>
@@ -7920,7 +7974,7 @@
         <v>57</v>
       </c>
       <c r="O76" s="279" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P76" s="280"/>
       <c r="Q76" s="281"/>
@@ -7939,16 +7993,16 @@
       <c r="E77" s="466"/>
       <c r="F77" s="469"/>
       <c r="G77" s="272" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H77" s="272" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I77" s="273" t="s">
-        <v>98</v>
-      </c>
-      <c r="J77" s="274" t="s">
-        <v>132</v>
+        <v>93</v>
+      </c>
+      <c r="J77" s="285" t="s">
+        <v>159</v>
       </c>
       <c r="K77" s="275" t="s">
         <v>35</v>
@@ -7959,7 +8013,7 @@
         <v>57</v>
       </c>
       <c r="O77" s="279" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P77" s="280"/>
       <c r="Q77" s="281"/>
@@ -7978,19 +8032,19 @@
       <c r="E78" s="466"/>
       <c r="F78" s="469"/>
       <c r="G78" s="272" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H78" s="272" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I78" s="273" t="s">
-        <v>66</v>
-      </c>
-      <c r="J78" s="285" t="s">
-        <v>171</v>
+        <v>93</v>
+      </c>
+      <c r="J78" s="274" t="s">
+        <v>127</v>
       </c>
       <c r="K78" s="275" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L78" s="276"/>
       <c r="M78" s="277"/>
@@ -7998,7 +8052,7 @@
         <v>57</v>
       </c>
       <c r="O78" s="279" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P78" s="280"/>
       <c r="Q78" s="281"/>
@@ -8017,19 +8071,19 @@
       <c r="E79" s="466"/>
       <c r="F79" s="469"/>
       <c r="G79" s="272" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H79" s="272" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I79" s="273" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J79" s="285" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K79" s="275" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L79" s="276"/>
       <c r="M79" s="277"/>
@@ -8037,7 +8091,7 @@
         <v>57</v>
       </c>
       <c r="O79" s="279" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P79" s="280"/>
       <c r="Q79" s="281"/>
@@ -8056,19 +8110,19 @@
       <c r="E80" s="466"/>
       <c r="F80" s="469"/>
       <c r="G80" s="272" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H80" s="272" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I80" s="273" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J80" s="285" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K80" s="275" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L80" s="276"/>
       <c r="M80" s="277"/>
@@ -8076,7 +8130,7 @@
         <v>57</v>
       </c>
       <c r="O80" s="279" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P80" s="280"/>
       <c r="Q80" s="281"/>
@@ -8087,7 +8141,7 @@
       <c r="V80" s="282"/>
       <c r="W80" s="284"/>
     </row>
-    <row r="81" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="81" spans="1:23" ht="15.75" customHeight="1">
       <c r="A81" s="228"/>
       <c r="B81" s="511"/>
       <c r="C81" s="464"/>
@@ -8095,19 +8149,19 @@
       <c r="E81" s="466"/>
       <c r="F81" s="469"/>
       <c r="G81" s="272" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H81" s="272" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I81" s="273" t="s">
-        <v>66</v>
-      </c>
-      <c r="J81" s="274" t="s">
-        <v>183</v>
+        <v>64</v>
+      </c>
+      <c r="J81" s="285" t="s">
+        <v>174</v>
       </c>
       <c r="K81" s="275" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L81" s="276"/>
       <c r="M81" s="277"/>
@@ -8115,7 +8169,7 @@
         <v>57</v>
       </c>
       <c r="O81" s="279" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P81" s="280"/>
       <c r="Q81" s="281"/>
@@ -8126,74 +8180,76 @@
       <c r="V81" s="282"/>
       <c r="W81" s="284"/>
     </row>
-    <row r="82" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A82" s="188"/>
-      <c r="B82" s="499" t="s">
-        <v>315</v>
-      </c>
-      <c r="C82" s="480" t="s">
-        <v>316</v>
-      </c>
-      <c r="D82" s="547"/>
-      <c r="E82" s="507" t="s">
-        <v>98</v>
-      </c>
-      <c r="F82" s="496"/>
-      <c r="G82" s="289" t="s">
-        <v>317</v>
-      </c>
-      <c r="H82" s="289" t="s">
-        <v>317</v>
-      </c>
-      <c r="I82" s="190" t="s">
-        <v>98</v>
-      </c>
-      <c r="J82" s="290" t="s">
-        <v>138</v>
-      </c>
-      <c r="K82" s="291"/>
-      <c r="L82" s="291"/>
-      <c r="M82" s="291"/>
-      <c r="N82" s="292"/>
-      <c r="O82" s="293" t="s">
-        <v>318</v>
-      </c>
-      <c r="P82" s="193"/>
-      <c r="Q82" s="294"/>
-      <c r="R82" s="195"/>
-      <c r="S82" s="195"/>
-      <c r="T82" s="196"/>
-      <c r="U82" s="197"/>
-      <c r="V82" s="197"/>
-      <c r="W82" s="197" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="15.75" customHeight="1">
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A82" s="228"/>
+      <c r="B82" s="511"/>
+      <c r="C82" s="464"/>
+      <c r="D82" s="512"/>
+      <c r="E82" s="466"/>
+      <c r="F82" s="469"/>
+      <c r="G82" s="272" t="s">
+        <v>308</v>
+      </c>
+      <c r="H82" s="272" t="s">
+        <v>308</v>
+      </c>
+      <c r="I82" s="273" t="s">
+        <v>64</v>
+      </c>
+      <c r="J82" s="274" t="s">
+        <v>178</v>
+      </c>
+      <c r="K82" s="275" t="s">
+        <v>67</v>
+      </c>
+      <c r="L82" s="276"/>
+      <c r="M82" s="277"/>
+      <c r="N82" s="278" t="s">
+        <v>57</v>
+      </c>
+      <c r="O82" s="279" t="s">
+        <v>309</v>
+      </c>
+      <c r="P82" s="280"/>
+      <c r="Q82" s="281"/>
+      <c r="R82" s="282"/>
+      <c r="S82" s="282"/>
+      <c r="T82" s="283"/>
+      <c r="U82" s="282"/>
+      <c r="V82" s="282"/>
+      <c r="W82" s="284"/>
+    </row>
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A83" s="188"/>
-      <c r="B83" s="461"/>
-      <c r="C83" s="464"/>
+      <c r="B83" s="499" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="480" t="s">
+        <v>311</v>
+      </c>
       <c r="D83" s="547"/>
-      <c r="E83" s="466"/>
-      <c r="F83" s="469"/>
+      <c r="E83" s="507" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83" s="496"/>
       <c r="G83" s="289" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H83" s="289" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I83" s="190" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="J83" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K83" s="291"/>
       <c r="L83" s="291"/>
       <c r="M83" s="291"/>
       <c r="N83" s="292"/>
       <c r="O83" s="293" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P83" s="193"/>
       <c r="Q83" s="294"/>
@@ -8202,7 +8258,9 @@
       <c r="T83" s="196"/>
       <c r="U83" s="197"/>
       <c r="V83" s="197"/>
-      <c r="W83" s="197"/>
+      <c r="W83" s="197" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="84" spans="1:23" ht="15.75" customHeight="1">
       <c r="A84" s="188"/>
@@ -8211,24 +8269,24 @@
       <c r="D84" s="547"/>
       <c r="E84" s="466"/>
       <c r="F84" s="469"/>
-      <c r="G84" s="295" t="s">
-        <v>322</v>
-      </c>
-      <c r="H84" s="295" t="s">
-        <v>322</v>
+      <c r="G84" s="289" t="s">
+        <v>315</v>
+      </c>
+      <c r="H84" s="289" t="s">
+        <v>315</v>
       </c>
       <c r="I84" s="190" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J84" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K84" s="291"/>
       <c r="L84" s="291"/>
       <c r="M84" s="291"/>
       <c r="N84" s="292"/>
-      <c r="O84" s="296" t="s">
-        <v>323</v>
+      <c r="O84" s="293" t="s">
+        <v>316</v>
       </c>
       <c r="P84" s="193"/>
       <c r="Q84" s="294"/>
@@ -8239,31 +8297,31 @@
       <c r="V84" s="197"/>
       <c r="W84" s="197"/>
     </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="85" spans="1:23" ht="15.75" customHeight="1">
       <c r="A85" s="188"/>
       <c r="B85" s="461"/>
       <c r="C85" s="464"/>
       <c r="D85" s="547"/>
       <c r="E85" s="466"/>
       <c r="F85" s="469"/>
-      <c r="G85" s="289" t="s">
-        <v>324</v>
-      </c>
-      <c r="H85" s="289" t="s">
-        <v>324</v>
+      <c r="G85" s="295" t="s">
+        <v>317</v>
+      </c>
+      <c r="H85" s="295" t="s">
+        <v>317</v>
       </c>
       <c r="I85" s="190" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J85" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K85" s="291"/>
       <c r="L85" s="291"/>
       <c r="M85" s="291"/>
       <c r="N85" s="292"/>
-      <c r="O85" s="293" t="s">
-        <v>325</v>
+      <c r="O85" s="296" t="s">
+        <v>318</v>
       </c>
       <c r="P85" s="193"/>
       <c r="Q85" s="294"/>
@@ -8274,74 +8332,62 @@
       <c r="V85" s="197"/>
       <c r="W85" s="197"/>
     </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="188"/>
       <c r="B86" s="461"/>
       <c r="C86" s="464"/>
       <c r="D86" s="547"/>
       <c r="E86" s="466"/>
       <c r="F86" s="469"/>
-      <c r="G86" s="297" t="s">
-        <v>326</v>
-      </c>
-      <c r="H86" s="297" t="s">
-        <v>326</v>
-      </c>
-      <c r="I86" s="298" t="s">
-        <v>98</v>
+      <c r="G86" s="289" t="s">
+        <v>319</v>
+      </c>
+      <c r="H86" s="289" t="s">
+        <v>319</v>
+      </c>
+      <c r="I86" s="190" t="s">
+        <v>64</v>
       </c>
       <c r="J86" s="290" t="s">
-        <v>138</v>
-      </c>
-      <c r="K86" s="195" t="s">
-        <v>35</v>
-      </c>
-      <c r="L86" s="195"/>
-      <c r="M86" s="195"/>
-      <c r="N86" s="197" t="s">
-        <v>57</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K86" s="291"/>
+      <c r="L86" s="291"/>
+      <c r="M86" s="291"/>
+      <c r="N86" s="292"/>
       <c r="O86" s="293" t="s">
-        <v>327</v>
-      </c>
-      <c r="P86" s="299"/>
-      <c r="Q86" s="294" t="s">
-        <v>47</v>
-      </c>
-      <c r="R86" s="195" t="s">
-        <v>328</v>
-      </c>
-      <c r="S86" s="195" t="s">
-        <v>54</v>
-      </c>
-      <c r="T86" s="196" t="s">
-        <v>47</v>
-      </c>
-      <c r="U86" s="195"/>
-      <c r="V86" s="195"/>
-      <c r="W86" s="195"/>
-    </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1">
+        <v>320</v>
+      </c>
+      <c r="P86" s="193"/>
+      <c r="Q86" s="294"/>
+      <c r="R86" s="195"/>
+      <c r="S86" s="195"/>
+      <c r="T86" s="196"/>
+      <c r="U86" s="197"/>
+      <c r="V86" s="197"/>
+      <c r="W86" s="197"/>
+    </row>
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A87" s="188"/>
       <c r="B87" s="461"/>
       <c r="C87" s="464"/>
       <c r="D87" s="547"/>
       <c r="E87" s="466"/>
       <c r="F87" s="469"/>
-      <c r="G87" s="300" t="s">
-        <v>329</v>
-      </c>
-      <c r="H87" s="300" t="s">
-        <v>329</v>
-      </c>
-      <c r="I87" s="301" t="s">
-        <v>66</v>
+      <c r="G87" s="297" t="s">
+        <v>321</v>
+      </c>
+      <c r="H87" s="297" t="s">
+        <v>321</v>
+      </c>
+      <c r="I87" s="298" t="s">
+        <v>93</v>
       </c>
       <c r="J87" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K87" s="195" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L87" s="195"/>
       <c r="M87" s="195"/>
@@ -8349,20 +8395,20 @@
         <v>57</v>
       </c>
       <c r="O87" s="293" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P87" s="299"/>
       <c r="Q87" s="294" t="s">
         <v>47</v>
       </c>
       <c r="R87" s="195" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="S87" s="195" t="s">
         <v>54</v>
       </c>
       <c r="T87" s="196" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="U87" s="195"/>
       <c r="V87" s="195"/>
@@ -8376,19 +8422,19 @@
       <c r="E88" s="466"/>
       <c r="F88" s="469"/>
       <c r="G88" s="300" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H88" s="300" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I88" s="301" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J88" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K88" s="195" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L88" s="195"/>
       <c r="M88" s="195"/>
@@ -8396,46 +8442,46 @@
         <v>57</v>
       </c>
       <c r="O88" s="293" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P88" s="299"/>
       <c r="Q88" s="294" t="s">
         <v>47</v>
       </c>
       <c r="R88" s="195" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S88" s="195" t="s">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="T88" s="196" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="U88" s="195"/>
       <c r="V88" s="195"/>
       <c r="W88" s="195"/>
     </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="89" spans="1:23" ht="15.75" customHeight="1">
       <c r="A89" s="188"/>
       <c r="B89" s="461"/>
       <c r="C89" s="464"/>
       <c r="D89" s="547"/>
       <c r="E89" s="466"/>
       <c r="F89" s="469"/>
-      <c r="G89" s="302" t="s">
-        <v>335</v>
-      </c>
-      <c r="H89" s="302" t="s">
-        <v>335</v>
-      </c>
-      <c r="I89" s="303" t="s">
-        <v>66</v>
+      <c r="G89" s="300" t="s">
+        <v>327</v>
+      </c>
+      <c r="H89" s="300" t="s">
+        <v>327</v>
+      </c>
+      <c r="I89" s="301" t="s">
+        <v>64</v>
       </c>
       <c r="J89" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K89" s="195" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L89" s="195"/>
       <c r="M89" s="195"/>
@@ -8443,17 +8489,17 @@
         <v>57</v>
       </c>
       <c r="O89" s="293" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P89" s="299"/>
       <c r="Q89" s="294" t="s">
         <v>47</v>
       </c>
       <c r="R89" s="195" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S89" s="195" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="T89" s="196" t="s">
         <v>47</v>
@@ -8462,27 +8508,27 @@
       <c r="V89" s="195"/>
       <c r="W89" s="195"/>
     </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A90" s="188"/>
       <c r="B90" s="461"/>
       <c r="C90" s="464"/>
       <c r="D90" s="547"/>
       <c r="E90" s="466"/>
       <c r="F90" s="469"/>
-      <c r="G90" s="304" t="s">
-        <v>338</v>
-      </c>
-      <c r="H90" s="304" t="s">
-        <v>338</v>
-      </c>
-      <c r="I90" s="305" t="s">
-        <v>98</v>
+      <c r="G90" s="302" t="s">
+        <v>330</v>
+      </c>
+      <c r="H90" s="302" t="s">
+        <v>330</v>
+      </c>
+      <c r="I90" s="303" t="s">
+        <v>64</v>
       </c>
       <c r="J90" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K90" s="195" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="L90" s="195"/>
       <c r="M90" s="195"/>
@@ -8490,32 +8536,26 @@
         <v>57</v>
       </c>
       <c r="O90" s="293" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P90" s="299"/>
       <c r="Q90" s="294" t="s">
         <v>47</v>
       </c>
       <c r="R90" s="195" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S90" s="195" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="T90" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="U90" s="197" t="s">
-        <v>60</v>
-      </c>
-      <c r="V90" s="197" t="s">
-        <v>340</v>
-      </c>
-      <c r="W90" s="197" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1">
+      <c r="U90" s="195"/>
+      <c r="V90" s="195"/>
+      <c r="W90" s="195"/>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A91" s="188"/>
       <c r="B91" s="461"/>
       <c r="C91" s="464"/>
@@ -8523,19 +8563,19 @@
       <c r="E91" s="466"/>
       <c r="F91" s="469"/>
       <c r="G91" s="304" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H91" s="304" t="s">
-        <v>342</v>
-      </c>
-      <c r="I91" s="306" t="s">
-        <v>66</v>
+        <v>333</v>
+      </c>
+      <c r="I91" s="305" t="s">
+        <v>93</v>
       </c>
       <c r="J91" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K91" s="195" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L91" s="195"/>
       <c r="M91" s="195"/>
@@ -8543,24 +8583,30 @@
         <v>57</v>
       </c>
       <c r="O91" s="293" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P91" s="299"/>
       <c r="Q91" s="294" t="s">
         <v>47</v>
       </c>
       <c r="R91" s="195" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S91" s="195" t="s">
         <v>54</v>
       </c>
       <c r="T91" s="196" t="s">
-        <v>40</v>
-      </c>
-      <c r="U91" s="195"/>
-      <c r="V91" s="195"/>
-      <c r="W91" s="195"/>
+        <v>47</v>
+      </c>
+      <c r="U91" s="197" t="s">
+        <v>60</v>
+      </c>
+      <c r="V91" s="197" t="s">
+        <v>335</v>
+      </c>
+      <c r="W91" s="197" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1">
       <c r="A92" s="188"/>
@@ -8570,19 +8616,19 @@
       <c r="E92" s="466"/>
       <c r="F92" s="469"/>
       <c r="G92" s="304" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H92" s="304" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I92" s="306" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J92" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K92" s="195" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L92" s="195"/>
       <c r="M92" s="195"/>
@@ -8590,20 +8636,20 @@
         <v>57</v>
       </c>
       <c r="O92" s="293" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P92" s="299"/>
       <c r="Q92" s="294" t="s">
         <v>47</v>
       </c>
       <c r="R92" s="195" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S92" s="195" t="s">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="T92" s="196" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="U92" s="195"/>
       <c r="V92" s="195"/>
@@ -8611,25 +8657,25 @@
     </row>
     <row r="93" spans="1:23" ht="15.75" customHeight="1">
       <c r="A93" s="188"/>
-      <c r="B93" s="492"/>
-      <c r="C93" s="506"/>
+      <c r="B93" s="461"/>
+      <c r="C93" s="464"/>
       <c r="D93" s="547"/>
-      <c r="E93" s="467"/>
+      <c r="E93" s="466"/>
       <c r="F93" s="469"/>
       <c r="G93" s="304" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H93" s="304" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I93" s="306" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J93" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K93" s="195" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L93" s="195"/>
       <c r="M93" s="195"/>
@@ -8637,17 +8683,17 @@
         <v>57</v>
       </c>
       <c r="O93" s="293" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P93" s="299"/>
       <c r="Q93" s="294" t="s">
         <v>47</v>
       </c>
       <c r="R93" s="195" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S93" s="195" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="T93" s="196" t="s">
         <v>47</v>
@@ -8656,27 +8702,27 @@
       <c r="V93" s="195"/>
       <c r="W93" s="195"/>
     </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="94" spans="1:23" ht="15.75" customHeight="1">
       <c r="A94" s="188"/>
-      <c r="B94" s="307"/>
-      <c r="C94" s="187"/>
-      <c r="D94" s="556"/>
-      <c r="E94" s="308"/>
-      <c r="F94" s="288"/>
+      <c r="B94" s="492"/>
+      <c r="C94" s="506"/>
+      <c r="D94" s="547"/>
+      <c r="E94" s="467"/>
+      <c r="F94" s="469"/>
       <c r="G94" s="304" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H94" s="304" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I94" s="306" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="J94" s="290" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K94" s="195" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L94" s="195"/>
       <c r="M94" s="195"/>
@@ -8684,83 +8730,85 @@
         <v>57</v>
       </c>
       <c r="O94" s="293" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P94" s="299"/>
-      <c r="Q94" s="294"/>
-      <c r="R94" s="195"/>
-      <c r="S94" s="195"/>
-      <c r="T94" s="196"/>
+      <c r="Q94" s="294" t="s">
+        <v>47</v>
+      </c>
+      <c r="R94" s="195" t="s">
+        <v>323</v>
+      </c>
+      <c r="S94" s="195" t="s">
+        <v>344</v>
+      </c>
+      <c r="T94" s="196" t="s">
+        <v>47</v>
+      </c>
       <c r="U94" s="195"/>
       <c r="V94" s="195"/>
       <c r="W94" s="195"/>
     </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A95" s="309"/>
-      <c r="B95" s="500" t="s">
-        <v>352</v>
-      </c>
-      <c r="C95" s="501" t="s">
-        <v>353</v>
-      </c>
-      <c r="D95" s="557"/>
-      <c r="E95" s="502" t="s">
-        <v>85</v>
-      </c>
-      <c r="F95" s="503"/>
-      <c r="G95" s="310" t="s">
-        <v>354</v>
-      </c>
-      <c r="H95" s="310" t="s">
-        <v>354</v>
-      </c>
-      <c r="I95" s="311" t="s">
-        <v>98</v>
-      </c>
-      <c r="J95" s="312"/>
-      <c r="K95" s="313"/>
-      <c r="L95" s="313"/>
-      <c r="M95" s="313"/>
-      <c r="N95" s="313"/>
-      <c r="O95" s="314" t="s">
-        <v>355</v>
-      </c>
-      <c r="P95" s="315"/>
-      <c r="Q95" s="316" t="s">
-        <v>40</v>
-      </c>
-      <c r="R95" s="313" t="s">
-        <v>54</v>
-      </c>
-      <c r="S95" s="313" t="s">
-        <v>54</v>
-      </c>
-      <c r="T95" s="317" t="s">
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A95" s="188"/>
+      <c r="B95" s="307"/>
+      <c r="C95" s="187"/>
+      <c r="D95" s="556"/>
+      <c r="E95" s="308"/>
+      <c r="F95" s="288"/>
+      <c r="G95" s="304" t="s">
+        <v>345</v>
+      </c>
+      <c r="H95" s="304" t="s">
+        <v>345</v>
+      </c>
+      <c r="I95" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="U95" s="318" t="s">
-        <v>48</v>
-      </c>
-      <c r="V95" s="313"/>
-      <c r="W95" s="319" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J95" s="290" t="s">
+        <v>133</v>
+      </c>
+      <c r="K95" s="195" t="s">
+        <v>118</v>
+      </c>
+      <c r="L95" s="195"/>
+      <c r="M95" s="195"/>
+      <c r="N95" s="197" t="s">
+        <v>57</v>
+      </c>
+      <c r="O95" s="293" t="s">
+        <v>346</v>
+      </c>
+      <c r="P95" s="299"/>
+      <c r="Q95" s="294"/>
+      <c r="R95" s="195"/>
+      <c r="S95" s="195"/>
+      <c r="T95" s="196"/>
+      <c r="U95" s="195"/>
+      <c r="V95" s="195"/>
+      <c r="W95" s="195"/>
+    </row>
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A96" s="309"/>
-      <c r="B96" s="461"/>
-      <c r="C96" s="464"/>
-      <c r="D96" s="558"/>
-      <c r="E96" s="466"/>
-      <c r="F96" s="469"/>
-      <c r="G96" s="320" t="s">
-        <v>357</v>
-      </c>
-      <c r="H96" s="320" t="s">
-        <v>357</v>
-      </c>
-      <c r="I96" s="321" t="s">
-        <v>98</v>
+      <c r="B96" s="500" t="s">
+        <v>347</v>
+      </c>
+      <c r="C96" s="501" t="s">
+        <v>348</v>
+      </c>
+      <c r="D96" s="557"/>
+      <c r="E96" s="502" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" s="503"/>
+      <c r="G96" s="310" t="s">
+        <v>349</v>
+      </c>
+      <c r="H96" s="310" t="s">
+        <v>349</v>
+      </c>
+      <c r="I96" s="311" t="s">
+        <v>93</v>
       </c>
       <c r="J96" s="312"/>
       <c r="K96" s="313"/>
@@ -8768,89 +8816,76 @@
       <c r="M96" s="313"/>
       <c r="N96" s="313"/>
       <c r="O96" s="314" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P96" s="315"/>
-      <c r="Q96" s="316"/>
-      <c r="R96" s="313"/>
-      <c r="S96" s="313"/>
-      <c r="T96" s="317"/>
-      <c r="U96" s="322"/>
+      <c r="Q96" s="316" t="s">
+        <v>40</v>
+      </c>
+      <c r="R96" s="313" t="s">
+        <v>54</v>
+      </c>
+      <c r="S96" s="313" t="s">
+        <v>54</v>
+      </c>
+      <c r="T96" s="317" t="s">
+        <v>79</v>
+      </c>
+      <c r="U96" s="318" t="s">
+        <v>48</v>
+      </c>
       <c r="V96" s="313"/>
-      <c r="W96" s="319"/>
-    </row>
-    <row r="97" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
+      <c r="W96" s="319" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
       <c r="A97" s="309"/>
       <c r="B97" s="461"/>
       <c r="C97" s="464"/>
       <c r="D97" s="558"/>
       <c r="E97" s="466"/>
       <c r="F97" s="469"/>
-      <c r="G97" s="323" t="s">
-        <v>359</v>
-      </c>
-      <c r="H97" s="323" t="s">
-        <v>359</v>
-      </c>
-      <c r="I97" s="324">
-        <v>1</v>
-      </c>
-      <c r="J97" s="237"/>
-      <c r="K97" s="325"/>
-      <c r="L97" s="325"/>
-      <c r="M97" s="325"/>
-      <c r="N97" s="325"/>
-      <c r="O97" s="326" t="s">
-        <v>360</v>
-      </c>
-      <c r="P97" s="327"/>
-      <c r="Q97" s="328" t="s">
-        <v>40</v>
-      </c>
-      <c r="R97" s="325" t="s">
-        <v>54</v>
-      </c>
-      <c r="S97" s="325" t="s">
-        <v>54</v>
-      </c>
-      <c r="T97" s="329" t="s">
-        <v>82</v>
-      </c>
-      <c r="U97" s="330" t="s">
-        <v>48</v>
-      </c>
-      <c r="V97" s="325"/>
-      <c r="W97" s="331" t="s">
-        <v>356</v>
-      </c>
-      <c r="X97" s="332"/>
-      <c r="Y97" s="332"/>
-      <c r="Z97" s="332"/>
-      <c r="AA97" s="332"/>
-      <c r="AB97" s="332"/>
-      <c r="AC97" s="332"/>
-      <c r="AD97" s="332"/>
-      <c r="AE97" s="332"/>
-      <c r="AF97" s="332"/>
-      <c r="AG97" s="332"/>
-      <c r="AH97" s="332"/>
-      <c r="AI97" s="332"/>
-      <c r="AJ97" s="332"/>
-    </row>
-    <row r="98" spans="1:36" ht="15.75" customHeight="1">
+      <c r="G97" s="320" t="s">
+        <v>352</v>
+      </c>
+      <c r="H97" s="320" t="s">
+        <v>352</v>
+      </c>
+      <c r="I97" s="321" t="s">
+        <v>93</v>
+      </c>
+      <c r="J97" s="312"/>
+      <c r="K97" s="313"/>
+      <c r="L97" s="313"/>
+      <c r="M97" s="313"/>
+      <c r="N97" s="313"/>
+      <c r="O97" s="314" t="s">
+        <v>353</v>
+      </c>
+      <c r="P97" s="315"/>
+      <c r="Q97" s="316"/>
+      <c r="R97" s="313"/>
+      <c r="S97" s="313"/>
+      <c r="T97" s="317"/>
+      <c r="U97" s="322"/>
+      <c r="V97" s="313"/>
+      <c r="W97" s="319"/>
+    </row>
+    <row r="98" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
       <c r="A98" s="309"/>
       <c r="B98" s="461"/>
       <c r="C98" s="464"/>
       <c r="D98" s="558"/>
       <c r="E98" s="466"/>
       <c r="F98" s="469"/>
-      <c r="G98" s="333" t="s">
-        <v>361</v>
-      </c>
-      <c r="H98" s="333" t="s">
-        <v>361</v>
-      </c>
-      <c r="I98" s="334">
+      <c r="G98" s="323" t="s">
+        <v>354</v>
+      </c>
+      <c r="H98" s="323" t="s">
+        <v>354</v>
+      </c>
+      <c r="I98" s="324">
         <v>1</v>
       </c>
       <c r="J98" s="237"/>
@@ -8859,16 +8894,28 @@
       <c r="M98" s="325"/>
       <c r="N98" s="325"/>
       <c r="O98" s="326" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P98" s="327"/>
-      <c r="Q98" s="328"/>
-      <c r="R98" s="325"/>
-      <c r="S98" s="325"/>
-      <c r="T98" s="329"/>
-      <c r="U98" s="335"/>
+      <c r="Q98" s="328" t="s">
+        <v>40</v>
+      </c>
+      <c r="R98" s="325" t="s">
+        <v>54</v>
+      </c>
+      <c r="S98" s="325" t="s">
+        <v>54</v>
+      </c>
+      <c r="T98" s="329" t="s">
+        <v>79</v>
+      </c>
+      <c r="U98" s="330" t="s">
+        <v>48</v>
+      </c>
       <c r="V98" s="325"/>
-      <c r="W98" s="331"/>
+      <c r="W98" s="331" t="s">
+        <v>351</v>
+      </c>
       <c r="X98" s="332"/>
       <c r="Y98" s="332"/>
       <c r="Z98" s="332"/>
@@ -8891,10 +8938,10 @@
       <c r="E99" s="466"/>
       <c r="F99" s="469"/>
       <c r="G99" s="333" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H99" s="333" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="I99" s="334">
         <v>1</v>
@@ -8905,7 +8952,7 @@
       <c r="M99" s="325"/>
       <c r="N99" s="325"/>
       <c r="O99" s="326" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P99" s="327"/>
       <c r="Q99" s="328"/>
@@ -8929,20 +8976,20 @@
       <c r="AI99" s="332"/>
       <c r="AJ99" s="332"/>
     </row>
-    <row r="100" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+    <row r="100" spans="1:36" ht="15.75" customHeight="1">
       <c r="A100" s="309"/>
       <c r="B100" s="461"/>
       <c r="C100" s="464"/>
       <c r="D100" s="558"/>
       <c r="E100" s="466"/>
       <c r="F100" s="469"/>
-      <c r="G100" s="336" t="s">
-        <v>365</v>
-      </c>
-      <c r="H100" s="336" t="s">
-        <v>365</v>
-      </c>
-      <c r="I100" s="337">
+      <c r="G100" s="333" t="s">
+        <v>358</v>
+      </c>
+      <c r="H100" s="333" t="s">
+        <v>358</v>
+      </c>
+      <c r="I100" s="334">
         <v>1</v>
       </c>
       <c r="J100" s="237"/>
@@ -8951,7 +8998,7 @@
       <c r="M100" s="325"/>
       <c r="N100" s="325"/>
       <c r="O100" s="326" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P100" s="327"/>
       <c r="Q100" s="328"/>
@@ -8975,21 +9022,21 @@
       <c r="AI100" s="332"/>
       <c r="AJ100" s="332"/>
     </row>
-    <row r="101" spans="1:36" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="101" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
       <c r="A101" s="309"/>
       <c r="B101" s="461"/>
       <c r="C101" s="464"/>
       <c r="D101" s="558"/>
       <c r="E101" s="466"/>
       <c r="F101" s="469"/>
-      <c r="G101" s="338" t="s">
-        <v>367</v>
-      </c>
-      <c r="H101" s="338" t="s">
-        <v>367</v>
-      </c>
-      <c r="I101" s="339" t="s">
-        <v>98</v>
+      <c r="G101" s="336" t="s">
+        <v>360</v>
+      </c>
+      <c r="H101" s="336" t="s">
+        <v>360</v>
+      </c>
+      <c r="I101" s="337">
+        <v>1</v>
       </c>
       <c r="J101" s="237"/>
       <c r="K101" s="325"/>
@@ -8997,7 +9044,7 @@
       <c r="M101" s="325"/>
       <c r="N101" s="325"/>
       <c r="O101" s="326" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="P101" s="327"/>
       <c r="Q101" s="328"/>
@@ -9021,29 +9068,29 @@
       <c r="AI101" s="332"/>
       <c r="AJ101" s="332"/>
     </row>
-    <row r="102" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
+    <row r="102" spans="1:36" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A102" s="309"/>
       <c r="B102" s="461"/>
       <c r="C102" s="464"/>
       <c r="D102" s="558"/>
       <c r="E102" s="466"/>
       <c r="F102" s="469"/>
-      <c r="G102" s="310" t="s">
-        <v>354</v>
-      </c>
-      <c r="H102" s="310" t="s">
-        <v>354</v>
-      </c>
-      <c r="I102" s="311" t="s">
-        <v>369</v>
-      </c>
-      <c r="J102" s="325"/>
+      <c r="G102" s="338" t="s">
+        <v>362</v>
+      </c>
+      <c r="H102" s="338" t="s">
+        <v>362</v>
+      </c>
+      <c r="I102" s="339" t="s">
+        <v>93</v>
+      </c>
+      <c r="J102" s="237"/>
       <c r="K102" s="325"/>
       <c r="L102" s="325"/>
       <c r="M102" s="325"/>
       <c r="N102" s="325"/>
       <c r="O102" s="326" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P102" s="327"/>
       <c r="Q102" s="328"/>
@@ -9067,21 +9114,21 @@
       <c r="AI102" s="332"/>
       <c r="AJ102" s="332"/>
     </row>
-    <row r="103" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+    <row r="103" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
       <c r="A103" s="309"/>
-      <c r="B103" s="462"/>
+      <c r="B103" s="461"/>
       <c r="C103" s="464"/>
       <c r="D103" s="558"/>
-      <c r="E103" s="467"/>
-      <c r="F103" s="470"/>
-      <c r="G103" s="320" t="s">
-        <v>357</v>
-      </c>
-      <c r="H103" s="320" t="s">
-        <v>357</v>
-      </c>
-      <c r="I103" s="321" t="s">
-        <v>369</v>
+      <c r="E103" s="466"/>
+      <c r="F103" s="469"/>
+      <c r="G103" s="310" t="s">
+        <v>349</v>
+      </c>
+      <c r="H103" s="310" t="s">
+        <v>349</v>
+      </c>
+      <c r="I103" s="311" t="s">
+        <v>364</v>
       </c>
       <c r="J103" s="325"/>
       <c r="K103" s="325"/>
@@ -9089,7 +9136,7 @@
       <c r="M103" s="325"/>
       <c r="N103" s="325"/>
       <c r="O103" s="326" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P103" s="327"/>
       <c r="Q103" s="328"/>
@@ -9113,70 +9160,70 @@
       <c r="AI103" s="332"/>
       <c r="AJ103" s="332"/>
     </row>
-    <row r="104" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A104" s="340"/>
-      <c r="B104" s="504" t="s">
-        <v>372</v>
-      </c>
-      <c r="C104" s="505" t="s">
-        <v>373</v>
-      </c>
-      <c r="D104" s="559"/>
-      <c r="E104" s="497" t="s">
-        <v>85</v>
-      </c>
-      <c r="F104" s="498"/>
-      <c r="G104" s="342" t="s">
-        <v>374</v>
-      </c>
-      <c r="H104" s="342" t="s">
-        <v>374</v>
-      </c>
-      <c r="I104" s="343">
-        <v>1</v>
-      </c>
-      <c r="J104" s="344"/>
-      <c r="K104" s="345"/>
-      <c r="L104" s="345"/>
-      <c r="M104" s="345"/>
-      <c r="N104" s="345"/>
-      <c r="O104" s="346" t="s">
-        <v>375</v>
-      </c>
-      <c r="P104" s="347"/>
-      <c r="Q104" s="348"/>
-      <c r="R104" s="345"/>
-      <c r="S104" s="345"/>
-      <c r="T104" s="349"/>
-      <c r="U104" s="345"/>
-      <c r="V104" s="345"/>
-      <c r="W104" s="345"/>
-      <c r="X104" s="350"/>
-      <c r="Y104" s="350"/>
-      <c r="Z104" s="350"/>
-      <c r="AA104" s="350"/>
-      <c r="AB104" s="350"/>
-      <c r="AC104" s="350"/>
-      <c r="AD104" s="350"/>
-      <c r="AE104" s="350"/>
-      <c r="AF104" s="350"/>
-      <c r="AG104" s="350"/>
-      <c r="AH104" s="350"/>
-      <c r="AI104" s="350"/>
-      <c r="AJ104" s="350"/>
-    </row>
-    <row r="105" spans="1:36" ht="15.75" customHeight="1">
+    <row r="104" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A104" s="309"/>
+      <c r="B104" s="462"/>
+      <c r="C104" s="464"/>
+      <c r="D104" s="558"/>
+      <c r="E104" s="467"/>
+      <c r="F104" s="470"/>
+      <c r="G104" s="320" t="s">
+        <v>352</v>
+      </c>
+      <c r="H104" s="320" t="s">
+        <v>352</v>
+      </c>
+      <c r="I104" s="321" t="s">
+        <v>364</v>
+      </c>
+      <c r="J104" s="325"/>
+      <c r="K104" s="325"/>
+      <c r="L104" s="325"/>
+      <c r="M104" s="325"/>
+      <c r="N104" s="325"/>
+      <c r="O104" s="326" t="s">
+        <v>366</v>
+      </c>
+      <c r="P104" s="327"/>
+      <c r="Q104" s="328"/>
+      <c r="R104" s="325"/>
+      <c r="S104" s="325"/>
+      <c r="T104" s="329"/>
+      <c r="U104" s="335"/>
+      <c r="V104" s="325"/>
+      <c r="W104" s="331"/>
+      <c r="X104" s="332"/>
+      <c r="Y104" s="332"/>
+      <c r="Z104" s="332"/>
+      <c r="AA104" s="332"/>
+      <c r="AB104" s="332"/>
+      <c r="AC104" s="332"/>
+      <c r="AD104" s="332"/>
+      <c r="AE104" s="332"/>
+      <c r="AF104" s="332"/>
+      <c r="AG104" s="332"/>
+      <c r="AH104" s="332"/>
+      <c r="AI104" s="332"/>
+      <c r="AJ104" s="332"/>
+    </row>
+    <row r="105" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
       <c r="A105" s="340"/>
-      <c r="B105" s="461"/>
-      <c r="C105" s="464"/>
+      <c r="B105" s="504" t="s">
+        <v>367</v>
+      </c>
+      <c r="C105" s="505" t="s">
+        <v>368</v>
+      </c>
       <c r="D105" s="559"/>
-      <c r="E105" s="466"/>
-      <c r="F105" s="469"/>
+      <c r="E105" s="497" t="s">
+        <v>82</v>
+      </c>
+      <c r="F105" s="498"/>
       <c r="G105" s="342" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H105" s="342" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I105" s="343">
         <v>1</v>
@@ -9187,7 +9234,7 @@
       <c r="M105" s="345"/>
       <c r="N105" s="345"/>
       <c r="O105" s="346" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P105" s="347"/>
       <c r="Q105" s="348"/>
@@ -9211,18 +9258,18 @@
       <c r="AI105" s="350"/>
       <c r="AJ105" s="350"/>
     </row>
-    <row r="106" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+    <row r="106" spans="1:36" ht="15.75" customHeight="1">
       <c r="A106" s="340"/>
-      <c r="B106" s="462"/>
+      <c r="B106" s="461"/>
       <c r="C106" s="464"/>
       <c r="D106" s="559"/>
-      <c r="E106" s="467"/>
-      <c r="F106" s="470"/>
+      <c r="E106" s="466"/>
+      <c r="F106" s="469"/>
       <c r="G106" s="342" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H106" s="342" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I106" s="343">
         <v>1</v>
@@ -9233,7 +9280,7 @@
       <c r="M106" s="345"/>
       <c r="N106" s="345"/>
       <c r="O106" s="346" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P106" s="347"/>
       <c r="Q106" s="348"/>
@@ -9257,28 +9304,30 @@
       <c r="AI106" s="350"/>
       <c r="AJ106" s="350"/>
     </row>
-    <row r="107" spans="1:36" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="107" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
       <c r="A107" s="340"/>
-      <c r="B107" s="351"/>
-      <c r="C107" s="341"/>
+      <c r="B107" s="462"/>
+      <c r="C107" s="464"/>
       <c r="D107" s="559"/>
-      <c r="E107" s="352"/>
-      <c r="F107" s="353"/>
+      <c r="E107" s="467"/>
+      <c r="F107" s="470"/>
       <c r="G107" s="342" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H107" s="342" t="s">
-        <v>380</v>
-      </c>
-      <c r="I107" s="343" t="s">
-        <v>85</v>
+        <v>373</v>
+      </c>
+      <c r="I107" s="343">
+        <v>1</v>
       </c>
       <c r="J107" s="344"/>
       <c r="K107" s="345"/>
       <c r="L107" s="345"/>
       <c r="M107" s="345"/>
       <c r="N107" s="345"/>
-      <c r="O107" s="346"/>
+      <c r="O107" s="346" t="s">
+        <v>374</v>
+      </c>
       <c r="P107" s="347"/>
       <c r="Q107" s="348"/>
       <c r="R107" s="345"/>
@@ -9309,13 +9358,13 @@
       <c r="E108" s="352"/>
       <c r="F108" s="353"/>
       <c r="G108" s="342" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H108" s="342" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="I108" s="343" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J108" s="344"/>
       <c r="K108" s="345"/>
@@ -9353,13 +9402,13 @@
       <c r="E109" s="352"/>
       <c r="F109" s="353"/>
       <c r="G109" s="342" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H109" s="342" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I109" s="343" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J109" s="344"/>
       <c r="K109" s="345"/>
@@ -9389,92 +9438,85 @@
       <c r="AI109" s="350"/>
       <c r="AJ109" s="350"/>
     </row>
-    <row r="110" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A110" s="354"/>
-      <c r="B110" s="460" t="s">
-        <v>383</v>
-      </c>
-      <c r="C110" s="463" t="s">
-        <v>384</v>
-      </c>
-      <c r="D110" s="560"/>
-      <c r="E110" s="465" t="s">
-        <v>85</v>
-      </c>
-      <c r="F110" s="468"/>
-      <c r="G110" s="357" t="s">
-        <v>385</v>
-      </c>
-      <c r="H110" s="355" t="s">
-        <v>385</v>
-      </c>
-      <c r="I110" s="356" t="s">
-        <v>85</v>
-      </c>
-      <c r="J110" s="357" t="s">
-        <v>138</v>
-      </c>
-      <c r="K110" s="358" t="s">
-        <v>69</v>
-      </c>
-      <c r="L110" s="358"/>
-      <c r="M110" s="358"/>
-      <c r="N110" s="358" t="s">
-        <v>386</v>
-      </c>
-      <c r="O110" s="359" t="s">
-        <v>387</v>
-      </c>
-      <c r="P110" s="360"/>
-      <c r="Q110" s="361" t="s">
-        <v>40</v>
-      </c>
-      <c r="R110" s="358" t="s">
-        <v>54</v>
-      </c>
-      <c r="S110" s="358" t="s">
-        <v>54</v>
-      </c>
-      <c r="T110" s="362" t="s">
+    <row r="110" spans="1:36" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A110" s="340"/>
+      <c r="B110" s="351"/>
+      <c r="C110" s="341"/>
+      <c r="D110" s="559"/>
+      <c r="E110" s="352"/>
+      <c r="F110" s="353"/>
+      <c r="G110" s="342" t="s">
+        <v>377</v>
+      </c>
+      <c r="H110" s="342" t="s">
+        <v>377</v>
+      </c>
+      <c r="I110" s="343" t="s">
         <v>82</v>
       </c>
-      <c r="U110" s="358" t="s">
-        <v>388</v>
-      </c>
-      <c r="V110" s="358" t="s">
-        <v>389</v>
-      </c>
-      <c r="W110" s="358"/>
-    </row>
-    <row r="111" spans="1:36" ht="15.75" customHeight="1">
+      <c r="J110" s="344"/>
+      <c r="K110" s="345"/>
+      <c r="L110" s="345"/>
+      <c r="M110" s="345"/>
+      <c r="N110" s="345"/>
+      <c r="O110" s="346"/>
+      <c r="P110" s="347"/>
+      <c r="Q110" s="348"/>
+      <c r="R110" s="345"/>
+      <c r="S110" s="345"/>
+      <c r="T110" s="349"/>
+      <c r="U110" s="345"/>
+      <c r="V110" s="345"/>
+      <c r="W110" s="345"/>
+      <c r="X110" s="350"/>
+      <c r="Y110" s="350"/>
+      <c r="Z110" s="350"/>
+      <c r="AA110" s="350"/>
+      <c r="AB110" s="350"/>
+      <c r="AC110" s="350"/>
+      <c r="AD110" s="350"/>
+      <c r="AE110" s="350"/>
+      <c r="AF110" s="350"/>
+      <c r="AG110" s="350"/>
+      <c r="AH110" s="350"/>
+      <c r="AI110" s="350"/>
+      <c r="AJ110" s="350"/>
+    </row>
+    <row r="111" spans="1:36" ht="15.75" customHeight="1" thickTop="1">
       <c r="A111" s="354"/>
-      <c r="B111" s="461"/>
-      <c r="C111" s="464"/>
+      <c r="B111" s="460" t="s">
+        <v>378</v>
+      </c>
+      <c r="C111" s="463" t="s">
+        <v>379</v>
+      </c>
       <c r="D111" s="560"/>
-      <c r="E111" s="466"/>
-      <c r="F111" s="469"/>
+      <c r="E111" s="465" t="s">
+        <v>82</v>
+      </c>
+      <c r="F111" s="468"/>
       <c r="G111" s="357" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H111" s="355" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I111" s="356" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J111" s="357" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K111" s="358" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L111" s="358"/>
       <c r="M111" s="358"/>
       <c r="N111" s="358" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O111" s="359" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="P111" s="360"/>
       <c r="Q111" s="361" t="s">
@@ -9487,13 +9529,13 @@
         <v>54</v>
       </c>
       <c r="T111" s="362" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="U111" s="358" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="V111" s="358" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="W111" s="358"/>
     </row>
@@ -9505,27 +9547,27 @@
       <c r="E112" s="466"/>
       <c r="F112" s="469"/>
       <c r="G112" s="357" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H112" s="355" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I112" s="356" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J112" s="357" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K112" s="358" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L112" s="358"/>
       <c r="M112" s="358"/>
       <c r="N112" s="358" t="s">
+        <v>381</v>
+      </c>
+      <c r="O112" s="359" t="s">
         <v>386</v>
-      </c>
-      <c r="O112" s="359" t="s">
-        <v>393</v>
       </c>
       <c r="P112" s="360"/>
       <c r="Q112" s="361" t="s">
@@ -9538,45 +9580,45 @@
         <v>54</v>
       </c>
       <c r="T112" s="362" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="U112" s="358" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="V112" s="358" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="W112" s="358"/>
     </row>
-    <row r="113" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="113" spans="1:23" ht="15.75" customHeight="1">
       <c r="A113" s="354"/>
-      <c r="B113" s="462"/>
+      <c r="B113" s="461"/>
       <c r="C113" s="464"/>
       <c r="D113" s="560"/>
-      <c r="E113" s="467"/>
-      <c r="F113" s="470"/>
+      <c r="E113" s="466"/>
+      <c r="F113" s="469"/>
       <c r="G113" s="357" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H113" s="355" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I113" s="356" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J113" s="357" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K113" s="358" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L113" s="358"/>
       <c r="M113" s="358"/>
       <c r="N113" s="358" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O113" s="359" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P113" s="360"/>
       <c r="Q113" s="361" t="s">
@@ -9589,90 +9631,94 @@
         <v>54</v>
       </c>
       <c r="T113" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="U113" s="358" t="s">
+        <v>383</v>
+      </c>
+      <c r="V113" s="358" t="s">
+        <v>389</v>
+      </c>
+      <c r="W113" s="358"/>
+    </row>
+    <row r="114" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A114" s="354"/>
+      <c r="B114" s="462"/>
+      <c r="C114" s="464"/>
+      <c r="D114" s="560"/>
+      <c r="E114" s="467"/>
+      <c r="F114" s="470"/>
+      <c r="G114" s="357" t="s">
+        <v>390</v>
+      </c>
+      <c r="H114" s="355" t="s">
+        <v>390</v>
+      </c>
+      <c r="I114" s="356" t="s">
         <v>82</v>
       </c>
-      <c r="U113" s="358" t="s">
-        <v>388</v>
-      </c>
-      <c r="V113" s="358" t="s">
+      <c r="J114" s="357" t="s">
+        <v>133</v>
+      </c>
+      <c r="K114" s="358" t="s">
+        <v>67</v>
+      </c>
+      <c r="L114" s="358"/>
+      <c r="M114" s="358"/>
+      <c r="N114" s="358" t="s">
+        <v>381</v>
+      </c>
+      <c r="O114" s="359" t="s">
+        <v>391</v>
+      </c>
+      <c r="P114" s="360"/>
+      <c r="Q114" s="361" t="s">
+        <v>40</v>
+      </c>
+      <c r="R114" s="358" t="s">
+        <v>54</v>
+      </c>
+      <c r="S114" s="358" t="s">
+        <v>54</v>
+      </c>
+      <c r="T114" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="U114" s="358" t="s">
+        <v>383</v>
+      </c>
+      <c r="V114" s="358" t="s">
+        <v>389</v>
+      </c>
+      <c r="W114" s="358"/>
+    </row>
+    <row r="115" spans="1:23" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A115" s="55"/>
+      <c r="B115" s="471" t="s">
+        <v>392</v>
+      </c>
+      <c r="C115" s="472" t="s">
+        <v>393</v>
+      </c>
+      <c r="D115" s="561"/>
+      <c r="E115" s="473" t="s">
+        <v>64</v>
+      </c>
+      <c r="F115" s="473"/>
+      <c r="G115" s="363" t="s">
         <v>394</v>
       </c>
-      <c r="W113" s="358"/>
-    </row>
-    <row r="114" spans="1:23" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A114" s="55"/>
-      <c r="B114" s="471" t="s">
-        <v>397</v>
-      </c>
-      <c r="C114" s="472" t="s">
-        <v>398</v>
-      </c>
-      <c r="D114" s="561"/>
-      <c r="E114" s="473" t="s">
-        <v>66</v>
-      </c>
-      <c r="F114" s="473"/>
-      <c r="G114" s="363" t="s">
-        <v>399</v>
-      </c>
-      <c r="H114" s="363" t="s">
-        <v>399</v>
-      </c>
-      <c r="I114" s="60">
+      <c r="H115" s="363" t="s">
+        <v>394</v>
+      </c>
+      <c r="I115" s="60">
         <v>1</v>
       </c>
-      <c r="J114" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="K114" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="L114" s="61"/>
-      <c r="M114" s="61"/>
-      <c r="N114" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O114" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="P114" s="64"/>
-      <c r="Q114" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="R114" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="S114" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="T114" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="U114" s="61"/>
-      <c r="V114" s="61"/>
-      <c r="W114" s="61"/>
-    </row>
-    <row r="115" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A115" s="55"/>
-      <c r="B115" s="469"/>
-      <c r="C115" s="469"/>
-      <c r="D115" s="561"/>
-      <c r="E115" s="469"/>
-      <c r="F115" s="469"/>
-      <c r="G115" s="364" t="s">
-        <v>401</v>
-      </c>
-      <c r="H115" s="364" t="s">
-        <v>401</v>
-      </c>
-      <c r="I115" s="365" t="s">
-        <v>66</v>
-      </c>
-      <c r="J115" s="366" t="s">
-        <v>402</v>
+      <c r="J115" s="61" t="s">
+        <v>394</v>
       </c>
       <c r="K115" s="61" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="L115" s="61"/>
       <c r="M115" s="61"/>
@@ -9680,7 +9726,7 @@
         <v>57</v>
       </c>
       <c r="O115" s="63" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P115" s="64"/>
       <c r="Q115" s="65" t="s">
@@ -9695,35 +9741,31 @@
       <c r="T115" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="U115" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="V115" s="62" t="s">
-        <v>340</v>
-      </c>
+      <c r="U115" s="61"/>
+      <c r="V115" s="61"/>
       <c r="W115" s="61"/>
     </row>
-    <row r="116" spans="1:23" ht="15.75" customHeight="1">
+    <row r="116" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="A116" s="55"/>
       <c r="B116" s="469"/>
       <c r="C116" s="469"/>
       <c r="D116" s="561"/>
       <c r="E116" s="469"/>
       <c r="F116" s="469"/>
-      <c r="G116" s="367" t="s">
-        <v>404</v>
-      </c>
-      <c r="H116" s="367" t="s">
-        <v>404</v>
-      </c>
-      <c r="I116" s="368" t="s">
-        <v>98</v>
-      </c>
-      <c r="J116" s="369" t="s">
-        <v>405</v>
+      <c r="G116" s="364" t="s">
+        <v>396</v>
+      </c>
+      <c r="H116" s="364" t="s">
+        <v>396</v>
+      </c>
+      <c r="I116" s="365" t="s">
+        <v>64</v>
+      </c>
+      <c r="J116" s="366" t="s">
+        <v>397</v>
       </c>
       <c r="K116" s="61" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="L116" s="61"/>
       <c r="M116" s="61"/>
@@ -9731,7 +9773,7 @@
         <v>57</v>
       </c>
       <c r="O116" s="63" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="P116" s="64"/>
       <c r="Q116" s="65" t="s">
@@ -9746,8 +9788,12 @@
       <c r="T116" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="U116" s="61"/>
-      <c r="V116" s="61"/>
+      <c r="U116" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="V116" s="62" t="s">
+        <v>335</v>
+      </c>
       <c r="W116" s="61"/>
     </row>
     <row r="117" spans="1:23" ht="15.75" customHeight="1">
@@ -9757,20 +9803,20 @@
       <c r="D117" s="561"/>
       <c r="E117" s="469"/>
       <c r="F117" s="469"/>
-      <c r="G117" s="370" t="s">
-        <v>407</v>
-      </c>
-      <c r="H117" s="370" t="s">
-        <v>407</v>
+      <c r="G117" s="367" t="s">
+        <v>399</v>
+      </c>
+      <c r="H117" s="367" t="s">
+        <v>399</v>
       </c>
       <c r="I117" s="368" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J117" s="369" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="K117" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L117" s="61"/>
       <c r="M117" s="61"/>
@@ -9778,7 +9824,7 @@
         <v>57</v>
       </c>
       <c r="O117" s="63" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P117" s="64"/>
       <c r="Q117" s="65" t="s">
@@ -9805,19 +9851,19 @@
       <c r="E118" s="469"/>
       <c r="F118" s="469"/>
       <c r="G118" s="370" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H118" s="370" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I118" s="368" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="J118" s="369" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K118" s="61" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="L118" s="61"/>
       <c r="M118" s="61"/>
@@ -9825,7 +9871,7 @@
         <v>57</v>
       </c>
       <c r="O118" s="63" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P118" s="64"/>
       <c r="Q118" s="65" t="s">
@@ -9851,20 +9897,20 @@
       <c r="D119" s="561"/>
       <c r="E119" s="469"/>
       <c r="F119" s="469"/>
-      <c r="G119" s="367" t="s">
-        <v>411</v>
-      </c>
-      <c r="H119" s="367" t="s">
-        <v>411</v>
+      <c r="G119" s="370" t="s">
+        <v>404</v>
+      </c>
+      <c r="H119" s="370" t="s">
+        <v>404</v>
       </c>
       <c r="I119" s="368" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J119" s="369" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K119" s="61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L119" s="61"/>
       <c r="M119" s="61"/>
@@ -9872,14 +9918,14 @@
         <v>57</v>
       </c>
       <c r="O119" s="63" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P119" s="64"/>
       <c r="Q119" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="R119" s="371" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="R119" s="61" t="s">
+        <v>54</v>
       </c>
       <c r="S119" s="61" t="s">
         <v>54</v>
@@ -9891,27 +9937,27 @@
       <c r="V119" s="61"/>
       <c r="W119" s="61"/>
     </row>
-    <row r="120" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="120" spans="1:23" ht="15.75" customHeight="1">
       <c r="A120" s="55"/>
-      <c r="B120" s="470"/>
-      <c r="C120" s="470"/>
-      <c r="D120" s="562"/>
-      <c r="E120" s="470"/>
-      <c r="F120" s="470"/>
-      <c r="G120" s="372" t="s">
-        <v>414</v>
-      </c>
-      <c r="H120" s="372" t="s">
-        <v>414</v>
-      </c>
-      <c r="I120" s="373" t="s">
-        <v>66</v>
-      </c>
-      <c r="J120" s="366" t="s">
-        <v>183</v>
+      <c r="B120" s="469"/>
+      <c r="C120" s="469"/>
+      <c r="D120" s="561"/>
+      <c r="E120" s="469"/>
+      <c r="F120" s="469"/>
+      <c r="G120" s="367" t="s">
+        <v>406</v>
+      </c>
+      <c r="H120" s="367" t="s">
+        <v>406</v>
+      </c>
+      <c r="I120" s="368" t="s">
+        <v>64</v>
+      </c>
+      <c r="J120" s="369" t="s">
+        <v>407</v>
       </c>
       <c r="K120" s="61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L120" s="61"/>
       <c r="M120" s="61"/>
@@ -9919,7 +9965,7 @@
         <v>57</v>
       </c>
       <c r="O120" s="63" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P120" s="64"/>
       <c r="Q120" s="65" t="s">
@@ -9938,72 +9984,102 @@
       <c r="V120" s="61"/>
       <c r="W120" s="61"/>
     </row>
-    <row r="121" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
-      <c r="C121" s="374"/>
-      <c r="D121" s="374"/>
-      <c r="I121" s="375"/>
-      <c r="P121" s="376"/>
-      <c r="Q121" s="377"/>
-      <c r="T121" s="378"/>
-    </row>
-    <row r="122" spans="1:23" ht="15.75" customHeight="1">
+    <row r="121" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A121" s="55"/>
+      <c r="B121" s="470"/>
+      <c r="C121" s="470"/>
+      <c r="D121" s="562"/>
+      <c r="E121" s="470"/>
+      <c r="F121" s="470"/>
+      <c r="G121" s="372" t="s">
+        <v>409</v>
+      </c>
+      <c r="H121" s="372" t="s">
+        <v>409</v>
+      </c>
+      <c r="I121" s="373" t="s">
+        <v>64</v>
+      </c>
+      <c r="J121" s="366" t="s">
+        <v>178</v>
+      </c>
+      <c r="K121" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="L121" s="61"/>
+      <c r="M121" s="61"/>
+      <c r="N121" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="O121" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="P121" s="64"/>
+      <c r="Q121" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="R121" s="371" t="s">
+        <v>48</v>
+      </c>
+      <c r="S121" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="T121" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="U121" s="61"/>
+      <c r="V121" s="61"/>
+      <c r="W121" s="61"/>
+    </row>
+    <row r="122" spans="1:23" ht="15.75" customHeight="1" thickTop="1">
       <c r="C122" s="374"/>
       <c r="D122" s="374"/>
-      <c r="G122" s="379" t="s">
-        <v>416</v>
-      </c>
-      <c r="H122" s="379" t="s">
-        <v>416</v>
-      </c>
-      <c r="I122" s="380"/>
+      <c r="I122" s="375"/>
       <c r="P122" s="376"/>
       <c r="Q122" s="377"/>
       <c r="T122" s="378"/>
     </row>
     <row r="123" spans="1:23" ht="15.75" customHeight="1">
-      <c r="C123" s="381"/>
-      <c r="D123" s="381"/>
-      <c r="E123" s="382" t="s">
-        <v>85</v>
-      </c>
-      <c r="F123" s="382"/>
-      <c r="G123" s="383" t="s">
-        <v>417</v>
-      </c>
-      <c r="H123" s="383" t="s">
-        <v>417</v>
-      </c>
-      <c r="I123" s="382"/>
-      <c r="J123" s="77"/>
-      <c r="K123" s="383" t="s">
-        <v>123</v>
-      </c>
-      <c r="L123" s="383" t="s">
-        <v>418</v>
-      </c>
-      <c r="N123" s="383" t="s">
-        <v>419</v>
-      </c>
-      <c r="O123" s="384" t="s">
-        <v>420</v>
-      </c>
-      <c r="P123" s="385"/>
+      <c r="C123" s="374"/>
+      <c r="D123" s="374"/>
+      <c r="G123" s="379" t="s">
+        <v>411</v>
+      </c>
+      <c r="H123" s="379" t="s">
+        <v>411</v>
+      </c>
+      <c r="I123" s="380"/>
+      <c r="P123" s="376"/>
       <c r="Q123" s="377"/>
       <c r="T123" s="378"/>
     </row>
     <row r="124" spans="1:23" ht="15.75" customHeight="1">
       <c r="C124" s="381"/>
       <c r="D124" s="381"/>
-      <c r="E124" s="382"/>
+      <c r="E124" s="382" t="s">
+        <v>82</v>
+      </c>
       <c r="F124" s="382"/>
-      <c r="G124" s="383"/>
-      <c r="H124" s="383"/>
+      <c r="G124" s="383" t="s">
+        <v>412</v>
+      </c>
+      <c r="H124" s="383" t="s">
+        <v>412</v>
+      </c>
       <c r="I124" s="382"/>
       <c r="J124" s="77"/>
-      <c r="K124" s="383"/>
-      <c r="L124" s="383"/>
-      <c r="N124" s="383"/>
-      <c r="O124" s="384"/>
+      <c r="K124" s="383" t="s">
+        <v>118</v>
+      </c>
+      <c r="L124" s="383" t="s">
+        <v>413</v>
+      </c>
+      <c r="N124" s="383" t="s">
+        <v>414</v>
+      </c>
+      <c r="O124" s="384" t="s">
+        <v>415</v>
+      </c>
       <c r="P124" s="385"/>
       <c r="Q124" s="377"/>
       <c r="T124" s="378"/>
@@ -10011,30 +10087,16 @@
     <row r="125" spans="1:23" ht="15.75" customHeight="1">
       <c r="C125" s="381"/>
       <c r="D125" s="381"/>
-      <c r="E125" s="382" t="s">
-        <v>66</v>
-      </c>
+      <c r="E125" s="382"/>
       <c r="F125" s="382"/>
-      <c r="G125" s="383" t="s">
-        <v>421</v>
-      </c>
-      <c r="H125" s="383" t="s">
-        <v>421</v>
-      </c>
+      <c r="G125" s="383"/>
+      <c r="H125" s="383"/>
       <c r="I125" s="382"/>
       <c r="J125" s="77"/>
-      <c r="K125" s="383" t="s">
-        <v>123</v>
-      </c>
-      <c r="L125" s="383" t="s">
-        <v>421</v>
-      </c>
-      <c r="N125" s="383" t="s">
-        <v>422</v>
-      </c>
-      <c r="O125" s="384" t="s">
-        <v>423</v>
-      </c>
+      <c r="K125" s="383"/>
+      <c r="L125" s="383"/>
+      <c r="N125" s="383"/>
+      <c r="O125" s="384"/>
       <c r="P125" s="385"/>
       <c r="Q125" s="377"/>
       <c r="T125" s="378"/>
@@ -10042,29 +10104,29 @@
     <row r="126" spans="1:23" ht="15.75" customHeight="1">
       <c r="C126" s="381"/>
       <c r="D126" s="381"/>
-      <c r="E126" s="382">
-        <v>1</v>
+      <c r="E126" s="382" t="s">
+        <v>64</v>
       </c>
       <c r="F126" s="382"/>
       <c r="G126" s="383" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H126" s="383" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I126" s="382"/>
       <c r="J126" s="77"/>
       <c r="K126" s="383" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="L126" s="383" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="N126" s="383" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="O126" s="384" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P126" s="385"/>
       <c r="Q126" s="377"/>
@@ -10078,10 +10140,10 @@
       </c>
       <c r="F127" s="382"/>
       <c r="G127" s="383" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H127" s="383" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="I127" s="382"/>
       <c r="J127" s="77"/>
@@ -10089,13 +10151,13 @@
         <v>35</v>
       </c>
       <c r="L127" s="383" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="N127" s="383" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="O127" s="384" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="P127" s="385"/>
       <c r="Q127" s="377"/>
@@ -10109,10 +10171,10 @@
       </c>
       <c r="F128" s="382"/>
       <c r="G128" s="383" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H128" s="383" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="I128" s="382"/>
       <c r="J128" s="77"/>
@@ -10120,13 +10182,13 @@
         <v>35</v>
       </c>
       <c r="L128" s="383" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="N128" s="383" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="O128" s="384" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P128" s="385"/>
       <c r="Q128" s="377"/>
@@ -10135,29 +10197,29 @@
     <row r="129" spans="3:20" ht="15.75" customHeight="1">
       <c r="C129" s="381"/>
       <c r="D129" s="381"/>
-      <c r="E129" s="382" t="s">
-        <v>85</v>
+      <c r="E129" s="382">
+        <v>1</v>
       </c>
       <c r="F129" s="382"/>
       <c r="G129" s="383" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H129" s="383" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I129" s="382"/>
       <c r="J129" s="77"/>
       <c r="K129" s="383" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="L129" s="383" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="N129" s="383" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="O129" s="384" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P129" s="385"/>
       <c r="Q129" s="377"/>
@@ -10167,36 +10229,59 @@
       <c r="C130" s="381"/>
       <c r="D130" s="381"/>
       <c r="E130" s="382" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F130" s="382"/>
       <c r="G130" s="383" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H130" s="383" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I130" s="382"/>
       <c r="J130" s="77"/>
       <c r="K130" s="383" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L130" s="383" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="N130" s="383" t="s">
-        <v>438</v>
-      </c>
-      <c r="O130" s="382"/>
-      <c r="P130" s="386"/>
+        <v>430</v>
+      </c>
+      <c r="O130" s="384" t="s">
+        <v>431</v>
+      </c>
+      <c r="P130" s="385"/>
       <c r="Q130" s="377"/>
       <c r="T130" s="378"/>
     </row>
     <row r="131" spans="3:20" ht="15.75" customHeight="1">
-      <c r="C131" s="374"/>
-      <c r="D131" s="374"/>
-      <c r="I131" s="375"/>
-      <c r="P131" s="376"/>
+      <c r="C131" s="381"/>
+      <c r="D131" s="381"/>
+      <c r="E131" s="382" t="s">
+        <v>64</v>
+      </c>
+      <c r="F131" s="382"/>
+      <c r="G131" s="383" t="s">
+        <v>432</v>
+      </c>
+      <c r="H131" s="383" t="s">
+        <v>432</v>
+      </c>
+      <c r="I131" s="382"/>
+      <c r="J131" s="77"/>
+      <c r="K131" s="383" t="s">
+        <v>118</v>
+      </c>
+      <c r="L131" s="383" t="s">
+        <v>432</v>
+      </c>
+      <c r="N131" s="383" t="s">
+        <v>433</v>
+      </c>
+      <c r="O131" s="382"/>
+      <c r="P131" s="386"/>
       <c r="Q131" s="377"/>
       <c r="T131" s="378"/>
     </row>
@@ -10219,14 +10304,7 @@
     <row r="134" spans="3:20" ht="15.75" customHeight="1">
       <c r="C134" s="374"/>
       <c r="D134" s="374"/>
-      <c r="G134" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="H134" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="I134" s="387"/>
-      <c r="L134" s="30"/>
+      <c r="I134" s="375"/>
       <c r="P134" s="376"/>
       <c r="Q134" s="377"/>
       <c r="T134" s="378"/>
@@ -10235,10 +10313,10 @@
       <c r="C135" s="374"/>
       <c r="D135" s="374"/>
       <c r="G135" s="30" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H135" s="30" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I135" s="387"/>
       <c r="L135" s="30"/>
@@ -10250,10 +10328,10 @@
       <c r="C136" s="374"/>
       <c r="D136" s="374"/>
       <c r="G136" s="30" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H136" s="30" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I136" s="387"/>
       <c r="L136" s="30"/>
@@ -10264,7 +10342,14 @@
     <row r="137" spans="3:20" ht="15.75" customHeight="1">
       <c r="C137" s="374"/>
       <c r="D137" s="374"/>
-      <c r="I137" s="375"/>
+      <c r="G137" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="H137" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="I137" s="387"/>
+      <c r="L137" s="30"/>
       <c r="P137" s="376"/>
       <c r="Q137" s="377"/>
       <c r="T137" s="378"/>
@@ -10272,14 +10357,7 @@
     <row r="138" spans="3:20" ht="15.75" customHeight="1">
       <c r="C138" s="374"/>
       <c r="D138" s="374"/>
-      <c r="G138" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="H138" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="I138" s="387"/>
-      <c r="L138" s="30"/>
+      <c r="I138" s="375"/>
       <c r="P138" s="376"/>
       <c r="Q138" s="377"/>
       <c r="T138" s="378"/>
@@ -10288,10 +10366,10 @@
       <c r="C139" s="374"/>
       <c r="D139" s="374"/>
       <c r="G139" s="30" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H139" s="30" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I139" s="387"/>
       <c r="L139" s="30"/>
@@ -10303,10 +10381,10 @@
       <c r="C140" s="374"/>
       <c r="D140" s="374"/>
       <c r="G140" s="30" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H140" s="30" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I140" s="387"/>
       <c r="L140" s="30"/>
@@ -10317,7 +10395,14 @@
     <row r="141" spans="3:20" ht="15.75" customHeight="1">
       <c r="C141" s="374"/>
       <c r="D141" s="374"/>
-      <c r="I141" s="375"/>
+      <c r="G141" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="H141" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="I141" s="387"/>
+      <c r="L141" s="30"/>
       <c r="P141" s="376"/>
       <c r="Q141" s="377"/>
       <c r="T141" s="378"/>
@@ -10333,16 +10418,7 @@
     <row r="143" spans="3:20" ht="15.75" customHeight="1">
       <c r="C143" s="374"/>
       <c r="D143" s="374"/>
-      <c r="G143" s="379" t="s">
-        <v>445</v>
-      </c>
-      <c r="H143" s="379" t="s">
-        <v>445</v>
-      </c>
-      <c r="I143" s="380"/>
-      <c r="L143" s="30" t="s">
-        <v>446</v>
-      </c>
+      <c r="I143" s="375"/>
       <c r="P143" s="376"/>
       <c r="Q143" s="377"/>
       <c r="T143" s="378"/>
@@ -10351,14 +10427,14 @@
       <c r="C144" s="374"/>
       <c r="D144" s="374"/>
       <c r="G144" s="379" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H144" s="379" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I144" s="380"/>
       <c r="L144" s="30" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="P144" s="376"/>
       <c r="Q144" s="377"/>
@@ -10368,14 +10444,14 @@
       <c r="C145" s="374"/>
       <c r="D145" s="374"/>
       <c r="G145" s="379" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H145" s="379" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I145" s="380"/>
       <c r="L145" s="30" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P145" s="376"/>
       <c r="Q145" s="377"/>
@@ -10385,14 +10461,14 @@
       <c r="C146" s="374"/>
       <c r="D146" s="374"/>
       <c r="G146" s="379" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H146" s="379" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="I146" s="380"/>
-      <c r="L146" s="388" t="s">
-        <v>177</v>
+      <c r="L146" s="30" t="s">
+        <v>445</v>
       </c>
       <c r="P146" s="376"/>
       <c r="Q146" s="377"/>
@@ -10401,7 +10477,16 @@
     <row r="147" spans="3:20" ht="15.75" customHeight="1">
       <c r="C147" s="374"/>
       <c r="D147" s="374"/>
-      <c r="I147" s="375"/>
+      <c r="G147" s="379" t="s">
+        <v>446</v>
+      </c>
+      <c r="H147" s="379" t="s">
+        <v>446</v>
+      </c>
+      <c r="I147" s="380"/>
+      <c r="L147" s="388" t="s">
+        <v>172</v>
+      </c>
       <c r="P147" s="376"/>
       <c r="Q147" s="377"/>
       <c r="T147" s="378"/>
@@ -17478,129 +17563,137 @@
       <c r="Q1031" s="377"/>
       <c r="T1031" s="378"/>
     </row>
+    <row r="1032" spans="3:20" ht="15.75" customHeight="1">
+      <c r="C1032" s="374"/>
+      <c r="D1032" s="374"/>
+      <c r="I1032" s="375"/>
+      <c r="P1032" s="376"/>
+      <c r="Q1032" s="377"/>
+      <c r="T1032" s="378"/>
+    </row>
   </sheetData>
-  <autoFilter ref="H1:V130" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="H1:V131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="86">
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D34"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C82:C93"/>
-    <mergeCell ref="E82:E93"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="B69:B81"/>
-    <mergeCell ref="C69:C81"/>
-    <mergeCell ref="E69:E81"/>
-    <mergeCell ref="E63:E68"/>
-    <mergeCell ref="D69:D81"/>
-    <mergeCell ref="D82:D94"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="D104:D109"/>
-    <mergeCell ref="B82:B93"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="F95:F103"/>
-    <mergeCell ref="F69:F81"/>
-    <mergeCell ref="F82:F93"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D23:D35"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C83:C94"/>
+    <mergeCell ref="E83:E94"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="B70:B82"/>
+    <mergeCell ref="C70:C82"/>
+    <mergeCell ref="E70:E82"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="D70:D82"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D104"/>
+    <mergeCell ref="D105:D110"/>
+    <mergeCell ref="B83:B94"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="E96:E104"/>
+    <mergeCell ref="F96:F104"/>
+    <mergeCell ref="F70:F82"/>
+    <mergeCell ref="F83:F94"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="F64:F69"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="C22:C34"/>
-    <mergeCell ref="E22:E34"/>
-    <mergeCell ref="F22:F34"/>
-    <mergeCell ref="C35:C47"/>
-    <mergeCell ref="E35:E47"/>
-    <mergeCell ref="F35:F47"/>
-    <mergeCell ref="D35:D47"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="E114:E120"/>
-    <mergeCell ref="F114:F120"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="D114:D120"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="C23:C35"/>
+    <mergeCell ref="E23:E35"/>
+    <mergeCell ref="F23:F35"/>
+    <mergeCell ref="C36:C48"/>
+    <mergeCell ref="E36:E48"/>
+    <mergeCell ref="F36:F48"/>
+    <mergeCell ref="D36:D48"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="B36:B48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="F111:F114"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="E115:E121"/>
+    <mergeCell ref="F115:F121"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="D115:D121"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="R4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="R9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="R10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="R11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="R18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="R19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="W20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="R22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="R23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="N24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="R29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="R30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="R33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="R34" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="R35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="R36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="N38" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="R42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="R43" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="R46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="R47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="R54" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="R55" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="R56" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="R57" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="R58" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N73" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="U95" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="U97" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="R119" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="R120" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="R11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="R12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="R19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="R20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="W21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="R23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="R24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="R30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="R31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="R34" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="R35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="R36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="R37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="R43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="R44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="R47" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="R48" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="R55" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="R56" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="R57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="R58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="R59" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N74" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="U96" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="U98" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="R120" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="R121" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="N4" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="N3" r:id="rId34" xr:uid="{79274165-A08F-504F-ABEF-86158BAB6E38}"/>
     <hyperlink ref="D3" r:id="rId35" xr:uid="{E5874144-BA40-664E-9537-E3F8FCFB9B57}"/>
@@ -17609,8 +17702,11 @@
     <hyperlink ref="N7" r:id="rId38" location="SafetyReportVersion.subtypeCode" xr:uid="{823395F2-DDD1-1E4B-A081-AF0690EF97CB}"/>
     <hyperlink ref="N9" r:id="rId39" xr:uid="{ACAFE479-E18E-2047-B209-085A9026CC0F}"/>
     <hyperlink ref="N8" r:id="rId40" xr:uid="{AA8245AE-3C94-7147-8E40-35DCB3896ED9}"/>
-    <hyperlink ref="N11" r:id="rId41" xr:uid="{1D0D9659-E7AE-5049-A112-64A8598938D8}"/>
-    <hyperlink ref="N10" r:id="rId42" xr:uid="{686CAE22-83EC-A34E-B091-F87EA6510ADC}"/>
+    <hyperlink ref="N12" r:id="rId41" xr:uid="{1D0D9659-E7AE-5049-A112-64A8598938D8}"/>
+    <hyperlink ref="N11" r:id="rId42" xr:uid="{686CAE22-83EC-A34E-B091-F87EA6510ADC}"/>
+    <hyperlink ref="R10" r:id="rId43" xr:uid="{DE9DC848-A7C3-104D-B0CC-7DED37DA0AD1}"/>
+    <hyperlink ref="N10" r:id="rId44" location="SafetyReportVersion.subtypeCode" xr:uid="{88B54086-0AE2-FE4B-BEAA-77EC7B83F468}"/>
+    <hyperlink ref="N13" r:id="rId45" xr:uid="{E40CF022-E2D9-024B-BA4B-36300D6EABED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17642,31 +17738,31 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="389" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="390" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="390" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>14</v>
@@ -17686,22 +17782,22 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="523" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B2" s="391" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C2" s="392">
         <v>1</v>
       </c>
       <c r="D2" s="393" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E2" s="394" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F2" s="395" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G2" s="395" t="s">
         <v>35</v>
@@ -17710,7 +17806,7 @@
         <v>47</v>
       </c>
       <c r="I2" s="395" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J2" s="395" t="s">
         <v>54</v>
@@ -17725,28 +17821,28 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="464"/>
       <c r="B3" s="391" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C3" s="392" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="393" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E3" s="397" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F3" s="395" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G3" s="395" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" s="395" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="395" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J3" s="395" t="s">
         <v>54</v>
@@ -17760,20 +17856,20 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="398" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="399" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="399" t="s">
-        <v>86</v>
-      </c>
       <c r="C4" s="400" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="401" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E4" s="402"/>
       <c r="F4" s="403" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G4" s="403" t="s">
         <v>35</v>
@@ -17788,39 +17884,39 @@
         <v>54</v>
       </c>
       <c r="K4" s="403" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L4" s="61" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M4" s="61" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N4" s="403" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="404" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B5" s="405" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C5" s="406" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="407" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E5" s="408" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F5" s="409" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G5" s="409" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H5" s="409" t="s">
         <v>37</v>
@@ -17840,20 +17936,20 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="524" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B6" s="411" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C6" s="412">
         <v>1</v>
       </c>
       <c r="D6" s="413" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E6" s="414"/>
       <c r="F6" s="415" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G6" s="415" t="s">
         <v>35</v>
@@ -17862,7 +17958,7 @@
         <v>47</v>
       </c>
       <c r="I6" s="415" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J6" s="415" t="s">
         <v>54</v>
@@ -17877,20 +17973,20 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="464"/>
       <c r="B7" s="411" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C7" s="412" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="413" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E7" s="414"/>
       <c r="F7" s="415" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G7" s="415" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H7" s="415" t="s">
         <v>40</v>
@@ -17911,20 +18007,20 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="464"/>
       <c r="B8" s="411" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C8" s="412" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="413" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E8" s="414"/>
       <c r="F8" s="415" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G8" s="415" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H8" s="415" t="s">
         <v>40</v>
@@ -17944,20 +18040,20 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="417" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B9" s="418" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C9" s="419">
         <v>1</v>
       </c>
       <c r="D9" s="420" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E9" s="421"/>
       <c r="F9" s="422" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G9" s="423" t="s">
         <v>35</v>
@@ -17972,30 +18068,30 @@
         <v>54</v>
       </c>
       <c r="K9" s="423" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L9" s="424"/>
       <c r="M9" s="424"/>
       <c r="N9" s="423" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="425" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B10" s="426" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C10" s="427" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="428" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E10" s="429"/>
       <c r="F10" s="430" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G10" s="430" t="s">
         <v>35</v>
@@ -18004,45 +18100,45 @@
         <v>47</v>
       </c>
       <c r="I10" s="430" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J10" s="430" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="430" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L10" s="431"/>
       <c r="M10" s="431"/>
       <c r="N10" s="430" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="525" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B11" s="432" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C11" s="433" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="434" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E11" s="435"/>
       <c r="F11" s="436" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G11" s="436" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="436" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="436" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="J11" s="436" t="s">
         <v>54</v>
@@ -18057,28 +18153,28 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="464"/>
       <c r="B12" s="432" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C12" s="433" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="434" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E12" s="435" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F12" s="436" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G12" s="436" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H12" s="436" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="436" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="J12" s="436" t="s">
         <v>54</v>
@@ -18092,10 +18188,10 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="526" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B13" s="438" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C13" s="439">
         <v>1</v>
@@ -18104,10 +18200,10 @@
         <v>57</v>
       </c>
       <c r="E13" s="441" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F13" s="440" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G13" s="440" t="s">
         <v>35</v>
@@ -18116,7 +18212,7 @@
         <v>47</v>
       </c>
       <c r="I13" s="440" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="J13" s="440" t="s">
         <v>54</v>
@@ -18127,32 +18223,32 @@
       <c r="L13" s="442"/>
       <c r="M13" s="442"/>
       <c r="N13" s="440" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="464"/>
       <c r="B14" s="438" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C14" s="439" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="440" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="441"/>
       <c r="F14" s="440" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G14" s="440" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H14" s="440" t="s">
         <v>47</v>
       </c>
       <c r="I14" s="440" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="J14" s="440" t="s">
         <v>54</v>
@@ -18163,15 +18259,15 @@
       <c r="L14" s="442"/>
       <c r="M14" s="442"/>
       <c r="N14" s="440" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="443" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B15" s="443" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C15" s="444">
         <v>1</v>
@@ -18181,19 +18277,19 @@
       </c>
       <c r="E15" s="446"/>
       <c r="F15" s="445" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G15" s="445" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="445" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="447" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J15" s="445" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K15" s="445" t="s">
         <v>40</v>
@@ -18201,30 +18297,30 @@
       <c r="L15" s="448"/>
       <c r="M15" s="448"/>
       <c r="N15" s="445" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="527" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B16" s="449" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C16" s="450" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" s="449" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="451" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F16" s="449" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G16" s="449" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H16" s="449" t="s">
         <v>40</v>
@@ -18236,35 +18332,35 @@
         <v>54</v>
       </c>
       <c r="K16" s="449" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L16" s="449" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M16" s="452"/>
       <c r="N16" s="449" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="464"/>
       <c r="B17" s="449" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C17" s="450" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="449" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="453" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F17" s="449" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G17" s="449" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H17" s="449" t="s">
         <v>40</v>
@@ -18276,33 +18372,33 @@
         <v>54</v>
       </c>
       <c r="K17" s="449" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L17" s="452"/>
       <c r="M17" s="452"/>
       <c r="N17" s="449" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="464"/>
       <c r="B18" s="449" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C18" s="450" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" s="449" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="453" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F18" s="449" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G18" s="449" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H18" s="449" t="s">
         <v>40</v>
@@ -18314,31 +18410,31 @@
         <v>54</v>
       </c>
       <c r="K18" s="449" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L18" s="452"/>
       <c r="M18" s="452"/>
       <c r="N18" s="449" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="464"/>
       <c r="B19" s="449" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C19" s="450" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="449" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="453"/>
       <c r="F19" s="449" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G19" s="449" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H19" s="449" t="s">
         <v>40</v>
@@ -18347,34 +18443,34 @@
         <v>54</v>
       </c>
       <c r="J19" s="454" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K19" s="449" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L19" s="452"/>
       <c r="M19" s="452"/>
       <c r="N19" s="449" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="464"/>
       <c r="B20" s="449" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C20" s="450" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D20" s="449" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="453"/>
       <c r="F20" s="449" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G20" s="449" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H20" s="449" t="s">
         <v>40</v>
@@ -18386,12 +18482,12 @@
         <v>54</v>
       </c>
       <c r="K20" s="449" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L20" s="452"/>
       <c r="M20" s="452"/>
       <c r="N20" s="449" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">

--- a/template-description.xlsx
+++ b/template-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgraybeal/Documents/GitHub/fair-data-collective/generic-dataset-metadata-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7796AED1-135A-A044-AA33-5BFC139A1E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C9082C-2B6D-5C42-8876-85783A82C5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="600" windowWidth="46160" windowHeight="27420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="600" windowWidth="31800" windowHeight="25660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset template" sheetId="1" r:id="rId1"/>
@@ -424,6 +424,7 @@
         <sz val="12"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://github.com/FAIRsharing/subject-ontology/?</t>
     </r>
@@ -2528,220 +2529,251 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2774,13 +2806,6 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -2833,6 +2858,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3940,7 +3980,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3960,8 +4000,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3994,11 +4034,11 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4008,7 +4048,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4020,8 +4060,8 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4030,8 +4070,8 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4043,8 +4083,8 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4057,8 +4097,8 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4067,8 +4107,8 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4078,7 +4118,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4087,104 +4127,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4194,121 +4157,22 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4323,28 +4187,17 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4355,43 +4208,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4412,12 +4238,6 @@
     <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4432,18 +4252,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4462,13 +4275,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4479,34 +4285,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4528,43 +4314,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4578,10 +4352,8 @@
     <xf numFmtId="0" fontId="9" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4613,399 +4385,640 @@
     <xf numFmtId="0" fontId="9" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -5013,14 +5026,41 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5043,10 +5083,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5249,21 +5285,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1035"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3:O124"/>
+      <selection pane="bottomRight" activeCell="I72" sqref="I72:I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="652" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="524" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="59.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="296" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="559" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="443" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" style="296" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
@@ -5274,7 +5310,7 @@
     <col min="14" max="14" width="37" style="296" customWidth="1"/>
     <col min="15" max="15" width="56.140625" customWidth="1"/>
     <col min="16" max="16" width="31.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="345" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="301" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" customWidth="1"/>
     <col min="19" max="19" width="34" customWidth="1"/>
     <col min="20" max="20" width="21.140625" customWidth="1"/>
@@ -5285,7 +5321,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="631" t="s">
+      <c r="A1" s="505" t="s">
         <v>666</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5303,10 +5339,10 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="365" t="s">
+      <c r="G1" s="303" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="365" t="s">
+      <c r="H1" s="303" t="s">
         <v>515</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -5324,7 +5360,7 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="592" t="s">
+      <c r="N1" s="466" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -5367,7 +5403,7 @@
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10"/>
-      <c r="AE1" s="538" t="s">
+      <c r="AE1" s="700" t="s">
         <v>614</v>
       </c>
       <c r="AF1" s="10"/>
@@ -5377,7 +5413,7 @@
       <c r="AJ1" s="10"/>
     </row>
     <row r="2" spans="1:36" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="632"/>
+      <c r="A2" s="506"/>
       <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
@@ -5394,7 +5430,7 @@
       <c r="G2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="366" t="s">
+      <c r="H2" s="304" t="s">
         <v>494</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -5403,10 +5439,10 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="594" t="s">
+      <c r="M2" s="468" t="s">
         <v>419</v>
       </c>
-      <c r="N2" s="593" t="s">
+      <c r="N2" s="467" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="11" t="s">
@@ -5431,7 +5467,7 @@
       <c r="AB2" s="19"/>
       <c r="AC2" s="19"/>
       <c r="AD2" s="19"/>
-      <c r="AE2" s="540" t="s">
+      <c r="AE2" s="701" t="s">
         <v>611</v>
       </c>
       <c r="AF2" s="19"/>
@@ -5441,29 +5477,29 @@
       <c r="AJ2" s="19"/>
     </row>
     <row r="3" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="633">
+      <c r="A3" s="631">
         <v>1</v>
       </c>
-      <c r="B3" s="359" t="s">
+      <c r="B3" s="647" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="315" t="s">
+      <c r="C3" s="649" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="333" t="s">
+      <c r="D3" s="580" t="s">
         <v>491</v>
       </c>
-      <c r="E3" s="317">
+      <c r="E3" s="651">
         <v>1</v>
       </c>
-      <c r="F3" s="562" t="str">
+      <c r="F3" s="653" t="str">
         <f>Namespace &amp; LOWER($B3)</f>
         <v>https://fairdatacollective.org/voc/dataset/resourcetype</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="367" t="s">
+      <c r="H3" s="305" t="s">
         <v>496</v>
       </c>
       <c r="I3" s="21">
@@ -5479,7 +5515,7 @@
       <c r="M3" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="N3" s="658" t="s">
+      <c r="N3" s="530" t="s">
         <v>487</v>
       </c>
       <c r="O3" s="23" t="s">
@@ -5500,7 +5536,7 @@
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="22"/>
-      <c r="W3" s="327" t="s">
+      <c r="W3" s="297" t="s">
         <v>489</v>
       </c>
       <c r="Z3" s="28" t="s">
@@ -5511,16 +5547,16 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="634"/>
-      <c r="B4" s="303"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="332"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="563"/>
+      <c r="A4" s="632"/>
+      <c r="B4" s="648"/>
+      <c r="C4" s="650"/>
+      <c r="D4" s="581"/>
+      <c r="E4" s="652"/>
+      <c r="F4" s="654"/>
       <c r="G4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="367" t="s">
+      <c r="H4" s="305" t="s">
         <v>495</v>
       </c>
       <c r="I4" s="21">
@@ -5538,7 +5574,7 @@
       <c r="M4" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="N4" s="659" t="s">
+      <c r="N4" s="531" t="s">
         <v>46</v>
       </c>
       <c r="O4" s="23" t="s">
@@ -5559,34 +5595,34 @@
       </c>
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
-      <c r="W4" s="327" t="s">
+      <c r="W4" s="297" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="635">
+      <c r="A5" s="507">
         <v>1</v>
       </c>
-      <c r="B5" s="328" t="s">
+      <c r="B5" s="566" t="s">
         <v>490</v>
       </c>
-      <c r="C5" s="360" t="s">
+      <c r="C5" s="577" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="368" t="s">
+      <c r="D5" s="582" t="s">
         <v>500</v>
       </c>
-      <c r="E5" s="318">
+      <c r="E5" s="571">
         <v>1</v>
       </c>
-      <c r="F5" s="564" t="str">
+      <c r="F5" s="574" t="str">
         <f>Namespace &amp; LOWER($B5)</f>
         <v>https://fairdatacollective.org/voc/dataset/datasetidentifier</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="364" t="s">
+      <c r="H5" s="302" t="s">
         <v>497</v>
       </c>
       <c r="I5" s="33">
@@ -5604,7 +5640,7 @@
       <c r="M5" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="N5" s="660" t="s">
+      <c r="N5" s="532" t="s">
         <v>493</v>
       </c>
       <c r="O5" s="35" t="s">
@@ -5628,16 +5664,16 @@
       <c r="W5" s="32"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="635"/>
-      <c r="B6" s="353"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="334"/>
-      <c r="E6" s="357"/>
-      <c r="F6" s="565"/>
+      <c r="A6" s="507"/>
+      <c r="B6" s="567"/>
+      <c r="C6" s="578"/>
+      <c r="D6" s="583"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="575"/>
       <c r="G6" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="364" t="s">
+      <c r="H6" s="302" t="s">
         <v>498</v>
       </c>
       <c r="I6" s="33">
@@ -5653,7 +5689,7 @@
       <c r="M6" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="N6" s="660" t="s">
+      <c r="N6" s="532" t="s">
         <v>501</v>
       </c>
       <c r="O6" s="35" t="s">
@@ -5676,21 +5712,21 @@
       </c>
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
-      <c r="W6" s="364" t="s">
+      <c r="W6" s="302" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="635"/>
-      <c r="B7" s="354"/>
-      <c r="C7" s="361"/>
-      <c r="D7" s="334"/>
-      <c r="E7" s="358"/>
-      <c r="F7" s="566"/>
+      <c r="A7" s="507"/>
+      <c r="B7" s="568"/>
+      <c r="C7" s="578"/>
+      <c r="D7" s="583"/>
+      <c r="E7" s="573"/>
+      <c r="F7" s="576"/>
       <c r="G7" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="364" t="s">
+      <c r="H7" s="302" t="s">
         <v>543</v>
       </c>
       <c r="I7" s="33">
@@ -5704,7 +5740,7 @@
       <c r="M7" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="N7" s="661" t="str">
+      <c r="N7" s="533" t="str">
         <f>Namespace &amp; "primarylanguage"</f>
         <v>https://fairdatacollective.org/voc/dataset/primarylanguage</v>
       </c>
@@ -5718,30 +5754,30 @@
       <c r="T7" s="39"/>
       <c r="U7" s="34"/>
       <c r="V7" s="34"/>
-      <c r="W7" s="364" t="s">
+      <c r="W7" s="302" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="636"/>
-      <c r="B8" s="311" t="s">
+      <c r="A8" s="508"/>
+      <c r="B8" s="638" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="372" t="s">
+      <c r="C8" s="639" t="s">
         <v>512</v>
       </c>
-      <c r="D8" s="335"/>
-      <c r="E8" s="311" t="s">
+      <c r="D8" s="584"/>
+      <c r="E8" s="638" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="568" t="str">
+      <c r="F8" s="642" t="str">
         <f>Namespace &amp; LOWER($B8)</f>
         <v>https://fairdatacollective.org/voc/dataset/relatedresources</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="369" t="s">
+      <c r="H8" s="306" t="s">
         <v>503</v>
       </c>
       <c r="I8" s="41">
@@ -5757,7 +5793,7 @@
       <c r="M8" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="N8" s="662" t="s">
+      <c r="N8" s="534" t="s">
         <v>493</v>
       </c>
       <c r="O8" s="43" t="s">
@@ -5783,16 +5819,16 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="636"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="362"/>
-      <c r="D9" s="335"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="569"/>
+      <c r="A9" s="508"/>
+      <c r="B9" s="634"/>
+      <c r="C9" s="640"/>
+      <c r="D9" s="584"/>
+      <c r="E9" s="634"/>
+      <c r="F9" s="643"/>
       <c r="G9" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="369" t="s">
+      <c r="H9" s="306" t="s">
         <v>504</v>
       </c>
       <c r="I9" s="41">
@@ -5808,7 +5844,7 @@
       <c r="M9" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="N9" s="662" t="s">
+      <c r="N9" s="534" t="s">
         <v>501</v>
       </c>
       <c r="O9" s="43" t="s">
@@ -5832,16 +5868,16 @@
       <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:36" s="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="636"/>
-      <c r="B10" s="312"/>
-      <c r="C10" s="362"/>
-      <c r="D10" s="335"/>
-      <c r="E10" s="312"/>
-      <c r="F10" s="569"/>
-      <c r="G10" s="369" t="s">
+      <c r="A10" s="508"/>
+      <c r="B10" s="595"/>
+      <c r="C10" s="640"/>
+      <c r="D10" s="584"/>
+      <c r="E10" s="595"/>
+      <c r="F10" s="643"/>
+      <c r="G10" s="306" t="s">
         <v>507</v>
       </c>
-      <c r="H10" s="369" t="s">
+      <c r="H10" s="306" t="s">
         <v>508</v>
       </c>
       <c r="I10" s="45">
@@ -5857,11 +5893,11 @@
       <c r="M10" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="N10" s="663" t="str">
+      <c r="N10" s="535" t="str">
         <f>Namespace &amp; $G10</f>
         <v>https://fairdatacollective.org/voc/dataset/relatedResourceIdentifierSubType</v>
       </c>
-      <c r="O10" s="371" t="s">
+      <c r="O10" s="308" t="s">
         <v>509</v>
       </c>
       <c r="P10" s="48"/>
@@ -5879,21 +5915,21 @@
       </c>
       <c r="U10" s="42"/>
       <c r="V10" s="42"/>
-      <c r="W10" s="370" t="s">
+      <c r="W10" s="307" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="636"/>
-      <c r="B11" s="300"/>
-      <c r="C11" s="362"/>
-      <c r="D11" s="335"/>
-      <c r="E11" s="300"/>
-      <c r="F11" s="569"/>
+      <c r="A11" s="508"/>
+      <c r="B11" s="634"/>
+      <c r="C11" s="640"/>
+      <c r="D11" s="584"/>
+      <c r="E11" s="634"/>
+      <c r="F11" s="643"/>
       <c r="G11" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="370" t="s">
+      <c r="H11" s="307" t="s">
         <v>502</v>
       </c>
       <c r="I11" s="41">
@@ -5909,10 +5945,10 @@
       <c r="M11" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="N11" s="664" t="s">
+      <c r="N11" s="536" t="s">
         <v>505</v>
       </c>
-      <c r="O11" s="371" t="s">
+      <c r="O11" s="308" t="s">
         <v>506</v>
       </c>
       <c r="P11" s="48" t="s">
@@ -5937,16 +5973,16 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="636"/>
-      <c r="B12" s="312"/>
-      <c r="C12" s="363"/>
-      <c r="D12" s="336"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="570"/>
+      <c r="A12" s="508"/>
+      <c r="B12" s="595"/>
+      <c r="C12" s="641"/>
+      <c r="D12" s="585"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="644"/>
       <c r="G12" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="369" t="s">
+      <c r="H12" s="306" t="s">
         <v>495</v>
       </c>
       <c r="I12" s="41">
@@ -5962,7 +5998,7 @@
       <c r="M12" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="N12" s="664" t="s">
+      <c r="N12" s="536" t="s">
         <v>46</v>
       </c>
       <c r="O12" s="43" t="s">
@@ -5986,7 +6022,7 @@
       <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="637"/>
+      <c r="A13" s="509"/>
       <c r="B13" s="49" t="s">
         <v>80</v>
       </c>
@@ -5997,14 +6033,14 @@
       <c r="E13" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="543" t="str">
+      <c r="F13" s="439" t="str">
         <f>Namespace &amp; LOWER($B13)</f>
         <v>https://fairdatacollective.org/voc/dataset/version</v>
       </c>
       <c r="G13" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="373" t="s">
+      <c r="H13" s="309" t="s">
         <v>80</v>
       </c>
       <c r="I13" s="53">
@@ -6022,7 +6058,7 @@
       <c r="M13" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="N13" s="665" t="s">
+      <c r="N13" s="537" t="s">
         <v>511</v>
       </c>
       <c r="O13" s="56" t="s">
@@ -6050,27 +6086,27 @@
       <c r="W13" s="54"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="677" t="s">
+      <c r="A14" s="548" t="s">
         <v>677</v>
       </c>
-      <c r="B14" s="355" t="s">
+      <c r="B14" s="569" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="329"/>
+      <c r="D14" s="298"/>
       <c r="E14" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="544" t="str">
+      <c r="F14" s="579" t="str">
         <f>Namespace &amp; LOWER($B14)</f>
         <v>https://fairdatacollective.org/voc/dataset/language</v>
       </c>
       <c r="G14" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="374" t="s">
+      <c r="H14" s="310" t="s">
         <v>86</v>
       </c>
       <c r="I14" s="62" t="s">
@@ -6086,10 +6122,10 @@
       <c r="M14" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="N14" s="666" t="s">
+      <c r="N14" s="538" t="s">
         <v>612</v>
       </c>
-      <c r="O14" s="567" t="s">
+      <c r="O14" s="445" t="s">
         <v>613</v>
       </c>
       <c r="P14" s="66"/>
@@ -6119,40 +6155,40 @@
       <c r="AJ14" s="69"/>
     </row>
     <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="677" t="s">
+      <c r="A15" s="548" t="s">
         <v>675</v>
       </c>
-      <c r="B15" s="356"/>
+      <c r="B15" s="570"/>
       <c r="C15" s="60"/>
-      <c r="D15" s="329"/>
+      <c r="D15" s="298"/>
       <c r="E15" s="59"/>
-      <c r="F15" s="544"/>
+      <c r="F15" s="579"/>
       <c r="G15" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="374" t="s">
+      <c r="H15" s="310" t="s">
         <v>516</v>
       </c>
       <c r="I15" s="62" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="63"/>
-      <c r="K15" s="675" t="s">
+      <c r="K15" s="546" t="s">
         <v>118</v>
       </c>
       <c r="L15" s="64"/>
       <c r="M15" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="N15" s="667" t="str">
+      <c r="N15" s="539" t="str">
         <f>Namespace &amp; "primarylanguage"</f>
         <v>https://fairdatacollective.org/voc/dataset/primarylanguage</v>
       </c>
-      <c r="O15" s="567" t="s">
+      <c r="O15" s="445" t="s">
         <v>676</v>
       </c>
       <c r="P15" s="66"/>
-      <c r="Q15" s="676" t="s">
+      <c r="Q15" s="547" t="s">
         <v>47</v>
       </c>
       <c r="R15" s="65"/>
@@ -6176,7 +6212,7 @@
       <c r="AJ15" s="69"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="638">
+      <c r="A16" s="510">
         <v>1</v>
       </c>
       <c r="B16" s="71" t="s">
@@ -6185,18 +6221,18 @@
       <c r="C16" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="330"/>
+      <c r="D16" s="299"/>
       <c r="E16" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="545" t="str">
+      <c r="F16" s="440" t="str">
         <f>Namespace &amp; LOWER($B16)</f>
         <v>https://fairdatacollective.org/voc/dataset/title</v>
       </c>
       <c r="G16" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="472" t="s">
+      <c r="H16" s="378" t="s">
         <v>542</v>
       </c>
       <c r="I16" s="74"/>
@@ -6212,7 +6248,7 @@
       <c r="M16" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="N16" s="668" t="s">
+      <c r="N16" s="540" t="s">
         <v>96</v>
       </c>
       <c r="O16" s="78" t="s">
@@ -6237,8 +6273,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="479" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="639">
+    <row r="17" spans="1:23" s="385" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="511">
         <v>1</v>
       </c>
       <c r="B17" s="82" t="s">
@@ -6247,80 +6283,80 @@
       <c r="C17" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="331"/>
+      <c r="D17" s="300"/>
       <c r="E17" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="546" t="str">
+      <c r="F17" s="441" t="str">
         <f>Namespace &amp; LOWER($B17)</f>
         <v>https://fairdatacollective.org/voc/dataset/description</v>
       </c>
-      <c r="G17" s="473" t="s">
+      <c r="G17" s="379" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="480" t="s">
+      <c r="H17" s="386" t="s">
         <v>544</v>
       </c>
-      <c r="I17" s="474"/>
-      <c r="J17" s="475" t="s">
+      <c r="I17" s="380"/>
+      <c r="J17" s="381" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="475" t="s">
+      <c r="K17" s="381" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="476" t="s">
+      <c r="L17" s="382" t="s">
         <v>98</v>
       </c>
-      <c r="M17" s="475" t="s">
+      <c r="M17" s="381" t="s">
         <v>419</v>
       </c>
-      <c r="N17" s="475" t="s">
+      <c r="N17" s="381" t="s">
         <v>101</v>
       </c>
-      <c r="O17" s="477" t="s">
+      <c r="O17" s="383" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="478"/>
+      <c r="P17" s="384"/>
       <c r="Q17" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="R17" s="475" t="s">
+      <c r="R17" s="381" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="475" t="s">
+      <c r="S17" s="381" t="s">
         <v>54</v>
       </c>
       <c r="T17" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="475"/>
-      <c r="V17" s="475"/>
-      <c r="W17" s="475" t="s">
+      <c r="U17" s="381"/>
+      <c r="V17" s="381"/>
+      <c r="W17" s="381" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="626" t="s">
+      <c r="A18" s="500" t="s">
         <v>667</v>
       </c>
-      <c r="B18" s="313" t="s">
+      <c r="B18" s="645" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="314" t="s">
+      <c r="C18" s="646" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="337"/>
-      <c r="E18" s="310" t="s">
+      <c r="D18" s="586"/>
+      <c r="E18" s="633" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="684" t="str">
+      <c r="F18" s="636" t="str">
         <f>$AE$2&amp;LOWER($B18)</f>
         <v>https://fairdatacollective.org/voc/dataset/subject</v>
       </c>
       <c r="G18" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="481" t="s">
+      <c r="H18" s="387" t="s">
         <v>545</v>
       </c>
       <c r="I18" s="87" t="s">
@@ -6342,7 +6378,7 @@
         <v>108</v>
       </c>
       <c r="P18" s="93"/>
-      <c r="Q18" s="657" t="s">
+      <c r="Q18" s="529" t="s">
         <v>40</v>
       </c>
       <c r="R18" s="94"/>
@@ -6355,16 +6391,16 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="625"/>
-      <c r="B19" s="300"/>
-      <c r="C19" s="300"/>
-      <c r="D19" s="337"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="684"/>
+      <c r="A19" s="499"/>
+      <c r="B19" s="634"/>
+      <c r="C19" s="634"/>
+      <c r="D19" s="586"/>
+      <c r="E19" s="634"/>
+      <c r="F19" s="636"/>
       <c r="G19" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="482" t="s">
+      <c r="H19" s="388" t="s">
         <v>546</v>
       </c>
       <c r="I19" s="97" t="s">
@@ -6406,16 +6442,16 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="625"/>
-      <c r="B20" s="300"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="337"/>
-      <c r="E20" s="300"/>
-      <c r="F20" s="684"/>
+      <c r="A20" s="499"/>
+      <c r="B20" s="634"/>
+      <c r="C20" s="634"/>
+      <c r="D20" s="586"/>
+      <c r="E20" s="634"/>
+      <c r="F20" s="636"/>
       <c r="G20" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="482" t="s">
+      <c r="H20" s="388" t="s">
         <v>547</v>
       </c>
       <c r="I20" s="97" t="s">
@@ -6433,7 +6469,7 @@
       <c r="M20" s="91" t="s">
         <v>419</v>
       </c>
-      <c r="N20" s="571" t="str">
+      <c r="N20" s="446" t="str">
         <f>Namespace &amp; $G20</f>
         <v>https://fairdatacollective.org/voc/dataset/subjectConcept</v>
       </c>
@@ -6441,7 +6477,7 @@
         <v>120</v>
       </c>
       <c r="P20" s="93"/>
-      <c r="Q20" s="657" t="s">
+      <c r="Q20" s="529" t="s">
         <v>40</v>
       </c>
       <c r="R20" s="99" t="s">
@@ -6458,16 +6494,16 @@
       <c r="W20" s="88"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="625"/>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="337"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="684"/>
+      <c r="A21" s="499"/>
+      <c r="B21" s="634"/>
+      <c r="C21" s="634"/>
+      <c r="D21" s="586"/>
+      <c r="E21" s="634"/>
+      <c r="F21" s="636"/>
       <c r="G21" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="483" t="s">
+      <c r="H21" s="389" t="s">
         <v>548</v>
       </c>
       <c r="I21" s="97" t="s">
@@ -6483,7 +6519,7 @@
       <c r="M21" s="88" t="s">
         <v>419</v>
       </c>
-      <c r="N21" s="571" t="str">
+      <c r="N21" s="446" t="str">
         <f>Namespace &amp; $G21</f>
         <v>https://fairdatacollective.org/voc/dataset/subjectScheme</v>
       </c>
@@ -6491,7 +6527,7 @@
         <v>617</v>
       </c>
       <c r="P21" s="93"/>
-      <c r="Q21" s="657" t="s">
+      <c r="Q21" s="529" t="s">
         <v>79</v>
       </c>
       <c r="R21" s="88" t="s">
@@ -6510,16 +6546,16 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="625"/>
-      <c r="B22" s="301"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="338"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="685"/>
+      <c r="A22" s="499"/>
+      <c r="B22" s="635"/>
+      <c r="C22" s="635"/>
+      <c r="D22" s="587"/>
+      <c r="E22" s="635"/>
+      <c r="F22" s="637"/>
       <c r="G22" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="482" t="s">
+      <c r="H22" s="388" t="s">
         <v>549</v>
       </c>
       <c r="I22" s="97" t="s">
@@ -6535,7 +6571,7 @@
       <c r="M22" s="88" t="s">
         <v>419</v>
       </c>
-      <c r="N22" s="571" t="str">
+      <c r="N22" s="446" t="str">
         <f>Namespace &amp; $G22</f>
         <v>https://fairdatacollective.org/voc/dataset/subjectSchemeIRI</v>
       </c>
@@ -6543,7 +6579,7 @@
         <v>618</v>
       </c>
       <c r="P22" s="103"/>
-      <c r="Q22" s="657" t="s">
+      <c r="Q22" s="529" t="s">
         <v>79</v>
       </c>
       <c r="R22" s="88" t="s">
@@ -6560,27 +6596,27 @@
       <c r="W22" s="88"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="640">
+      <c r="A23" s="512">
         <v>1</v>
       </c>
-      <c r="B23" s="307" t="s">
+      <c r="B23" s="655" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="308" t="s">
+      <c r="C23" s="656" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="339"/>
-      <c r="E23" s="307" t="s">
+      <c r="D23" s="588"/>
+      <c r="E23" s="655" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="686" t="str">
+      <c r="F23" s="657" t="str">
         <f>Namespace &amp; LOWER($B23)</f>
         <v>https://fairdatacollective.org/voc/dataset/creator</v>
       </c>
       <c r="G23" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="484" t="s">
+      <c r="H23" s="390" t="s">
         <v>550</v>
       </c>
       <c r="I23" s="105" t="s">
@@ -6596,7 +6632,7 @@
       <c r="M23" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="N23" s="590" t="str">
+      <c r="N23" s="464" t="str">
         <f>Namespace &amp; $G23</f>
         <v>https://fairdatacollective.org/voc/dataset/creatorRole</v>
       </c>
@@ -6621,16 +6657,16 @@
       <c r="W23" s="104"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="640"/>
-      <c r="B24" s="300"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="340"/>
-      <c r="E24" s="300"/>
-      <c r="F24" s="687"/>
+      <c r="A24" s="512"/>
+      <c r="B24" s="634"/>
+      <c r="C24" s="634"/>
+      <c r="D24" s="589"/>
+      <c r="E24" s="634"/>
+      <c r="F24" s="658"/>
       <c r="G24" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="484" t="s">
+      <c r="H24" s="390" t="s">
         <v>551</v>
       </c>
       <c r="I24" s="105">
@@ -6646,7 +6682,7 @@
       <c r="M24" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="N24" s="590" t="str">
+      <c r="N24" s="464" t="str">
         <f>Namespace &amp; $G24</f>
         <v>https://fairdatacollective.org/voc/dataset/creatorType</v>
       </c>
@@ -6673,16 +6709,16 @@
       <c r="W24" s="106"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="640"/>
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="340"/>
-      <c r="E25" s="300"/>
-      <c r="F25" s="687"/>
+      <c r="A25" s="512"/>
+      <c r="B25" s="634"/>
+      <c r="C25" s="634"/>
+      <c r="D25" s="589"/>
+      <c r="E25" s="634"/>
+      <c r="F25" s="658"/>
       <c r="G25" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="484" t="s">
+      <c r="H25" s="390" t="s">
         <v>552</v>
       </c>
       <c r="I25" s="105" t="s">
@@ -6722,16 +6758,16 @@
       <c r="W25" s="106"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="640"/>
-      <c r="B26" s="300"/>
-      <c r="C26" s="300"/>
-      <c r="D26" s="340"/>
-      <c r="E26" s="300"/>
-      <c r="F26" s="687"/>
+      <c r="A26" s="512"/>
+      <c r="B26" s="634"/>
+      <c r="C26" s="634"/>
+      <c r="D26" s="589"/>
+      <c r="E26" s="634"/>
+      <c r="F26" s="658"/>
       <c r="G26" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="484" t="s">
+      <c r="H26" s="390" t="s">
         <v>553</v>
       </c>
       <c r="I26" s="105" t="s">
@@ -6771,16 +6807,16 @@
       <c r="W26" s="116"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="640"/>
-      <c r="B27" s="300"/>
-      <c r="C27" s="300"/>
-      <c r="D27" s="340"/>
-      <c r="E27" s="300"/>
-      <c r="F27" s="687"/>
+      <c r="A27" s="512"/>
+      <c r="B27" s="634"/>
+      <c r="C27" s="634"/>
+      <c r="D27" s="589"/>
+      <c r="E27" s="634"/>
+      <c r="F27" s="658"/>
       <c r="G27" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="485" t="s">
+      <c r="H27" s="391" t="s">
         <v>554</v>
       </c>
       <c r="I27" s="105">
@@ -6820,16 +6856,16 @@
       <c r="W27" s="106"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="640"/>
-      <c r="B28" s="300"/>
-      <c r="C28" s="300"/>
-      <c r="D28" s="340"/>
-      <c r="E28" s="300"/>
-      <c r="F28" s="687"/>
+      <c r="A28" s="512"/>
+      <c r="B28" s="634"/>
+      <c r="C28" s="634"/>
+      <c r="D28" s="589"/>
+      <c r="E28" s="634"/>
+      <c r="F28" s="658"/>
       <c r="G28" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="486" t="s">
+      <c r="H28" s="392" t="s">
         <v>555</v>
       </c>
       <c r="I28" s="119" t="s">
@@ -6871,16 +6907,16 @@
       <c r="W28" s="106"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="640"/>
-      <c r="B29" s="300"/>
-      <c r="C29" s="300"/>
-      <c r="D29" s="340"/>
-      <c r="E29" s="300"/>
-      <c r="F29" s="687"/>
+      <c r="A29" s="512"/>
+      <c r="B29" s="634"/>
+      <c r="C29" s="634"/>
+      <c r="D29" s="589"/>
+      <c r="E29" s="634"/>
+      <c r="F29" s="658"/>
       <c r="G29" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="487" t="s">
+      <c r="H29" s="393" t="s">
         <v>556</v>
       </c>
       <c r="I29" s="122" t="s">
@@ -6896,8 +6932,8 @@
       <c r="M29" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="N29" s="590" t="str">
-        <f>Namespace &amp; $G29</f>
+      <c r="N29" s="464" t="str">
+        <f t="shared" ref="N29:N37" si="0">Namespace &amp; $G29</f>
         <v>https://fairdatacollective.org/voc/dataset/creatorIdentifier</v>
       </c>
       <c r="O29" s="112" t="s">
@@ -6921,16 +6957,16 @@
       <c r="W29" s="106"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="640"/>
-      <c r="B30" s="300"/>
-      <c r="C30" s="300"/>
-      <c r="D30" s="340"/>
-      <c r="E30" s="300"/>
-      <c r="F30" s="687"/>
+      <c r="A30" s="512"/>
+      <c r="B30" s="634"/>
+      <c r="C30" s="634"/>
+      <c r="D30" s="589"/>
+      <c r="E30" s="634"/>
+      <c r="F30" s="658"/>
       <c r="G30" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="H30" s="488" t="s">
+      <c r="H30" s="394" t="s">
         <v>557</v>
       </c>
       <c r="I30" s="125" t="s">
@@ -6946,15 +6982,15 @@
       <c r="M30" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="N30" s="590" t="str">
-        <f>Namespace &amp; $G30</f>
+      <c r="N30" s="464" t="str">
+        <f t="shared" si="0"/>
         <v>https://fairdatacollective.org/voc/dataset/creatorIdentifierScheme</v>
       </c>
       <c r="O30" s="112" t="s">
         <v>619</v>
       </c>
       <c r="P30" s="115"/>
-      <c r="Q30" s="656" t="s">
+      <c r="Q30" s="528" t="s">
         <v>79</v>
       </c>
       <c r="R30" s="110" t="s">
@@ -6971,16 +7007,16 @@
       <c r="W30" s="106"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="640"/>
-      <c r="B31" s="300"/>
-      <c r="C31" s="300"/>
-      <c r="D31" s="340"/>
-      <c r="E31" s="300"/>
-      <c r="F31" s="687"/>
+      <c r="A31" s="512"/>
+      <c r="B31" s="634"/>
+      <c r="C31" s="634"/>
+      <c r="D31" s="589"/>
+      <c r="E31" s="634"/>
+      <c r="F31" s="658"/>
       <c r="G31" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="489" t="s">
+      <c r="H31" s="395" t="s">
         <v>558</v>
       </c>
       <c r="I31" s="127" t="s">
@@ -6996,15 +7032,15 @@
       <c r="M31" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="N31" s="590" t="str">
-        <f>Namespace &amp; $G31</f>
+      <c r="N31" s="464" t="str">
+        <f t="shared" si="0"/>
         <v>https://fairdatacollective.org/voc/dataset/creatorIdentifierSchemeIRI</v>
       </c>
       <c r="O31" s="112" t="s">
         <v>620</v>
       </c>
       <c r="P31" s="115"/>
-      <c r="Q31" s="656" t="s">
+      <c r="Q31" s="528" t="s">
         <v>79</v>
       </c>
       <c r="R31" s="110" t="s">
@@ -7021,16 +7057,16 @@
       <c r="W31" s="106"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="640"/>
-      <c r="B32" s="300"/>
-      <c r="C32" s="300"/>
-      <c r="D32" s="340"/>
-      <c r="E32" s="300"/>
-      <c r="F32" s="687"/>
+      <c r="A32" s="512"/>
+      <c r="B32" s="634"/>
+      <c r="C32" s="634"/>
+      <c r="D32" s="589"/>
+      <c r="E32" s="634"/>
+      <c r="F32" s="658"/>
       <c r="G32" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="487" t="s">
+      <c r="H32" s="393" t="s">
         <v>559</v>
       </c>
       <c r="I32" s="122" t="s">
@@ -7046,15 +7082,15 @@
       <c r="M32" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="N32" s="590" t="str">
-        <f>Namespace &amp; $G32</f>
+      <c r="N32" s="464" t="str">
+        <f t="shared" si="0"/>
         <v>https://fairdatacollective.org/voc/dataset/creatorAffiliation</v>
       </c>
       <c r="O32" s="112" t="s">
         <v>163</v>
       </c>
       <c r="P32" s="115"/>
-      <c r="Q32" s="656" t="s">
+      <c r="Q32" s="528" t="s">
         <v>79</v>
       </c>
       <c r="R32" s="106" t="s">
@@ -7071,16 +7107,16 @@
       <c r="W32" s="106"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="640"/>
-      <c r="B33" s="300"/>
-      <c r="C33" s="300"/>
-      <c r="D33" s="340"/>
-      <c r="E33" s="300"/>
-      <c r="F33" s="687"/>
+      <c r="A33" s="512"/>
+      <c r="B33" s="634"/>
+      <c r="C33" s="634"/>
+      <c r="D33" s="589"/>
+      <c r="E33" s="634"/>
+      <c r="F33" s="658"/>
       <c r="G33" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="488" t="s">
+      <c r="H33" s="394" t="s">
         <v>560</v>
       </c>
       <c r="I33" s="125" t="s">
@@ -7096,8 +7132,8 @@
       <c r="M33" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="N33" s="590" t="str">
-        <f>Namespace &amp; $G33</f>
+      <c r="N33" s="464" t="str">
+        <f t="shared" si="0"/>
         <v>https://fairdatacollective.org/voc/dataset/creatorAffiliationIdentifier</v>
       </c>
       <c r="O33" s="112" t="s">
@@ -7121,16 +7157,16 @@
       <c r="W33" s="106"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="640"/>
-      <c r="B34" s="300"/>
-      <c r="C34" s="300"/>
-      <c r="D34" s="340"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="687"/>
+      <c r="A34" s="512"/>
+      <c r="B34" s="634"/>
+      <c r="C34" s="634"/>
+      <c r="D34" s="589"/>
+      <c r="E34" s="634"/>
+      <c r="F34" s="658"/>
       <c r="G34" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="488" t="s">
+      <c r="H34" s="394" t="s">
         <v>561</v>
       </c>
       <c r="I34" s="125" t="s">
@@ -7146,15 +7182,15 @@
       <c r="M34" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="N34" s="590" t="str">
-        <f>Namespace &amp; $G34</f>
+      <c r="N34" s="464" t="str">
+        <f t="shared" si="0"/>
         <v>https://fairdatacollective.org/voc/dataset/creatorAffiliationIdentifierScheme</v>
       </c>
       <c r="O34" s="112" t="s">
         <v>621</v>
       </c>
       <c r="P34" s="115"/>
-      <c r="Q34" s="656" t="s">
+      <c r="Q34" s="528" t="s">
         <v>79</v>
       </c>
       <c r="R34" s="110" t="s">
@@ -7171,16 +7207,16 @@
       <c r="W34" s="106"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="640"/>
-      <c r="B35" s="301"/>
-      <c r="C35" s="301"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="688"/>
+      <c r="A35" s="512"/>
+      <c r="B35" s="635"/>
+      <c r="C35" s="635"/>
+      <c r="D35" s="590"/>
+      <c r="E35" s="635"/>
+      <c r="F35" s="659"/>
       <c r="G35" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="H35" s="488" t="s">
+      <c r="H35" s="394" t="s">
         <v>562</v>
       </c>
       <c r="I35" s="127" t="s">
@@ -7196,15 +7232,15 @@
       <c r="M35" s="106" t="s">
         <v>419</v>
       </c>
-      <c r="N35" s="590" t="str">
-        <f>Namespace &amp; $G35</f>
+      <c r="N35" s="464" t="str">
+        <f t="shared" si="0"/>
         <v>https://fairdatacollective.org/voc/dataset/creatorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="O35" s="112" t="s">
         <v>622</v>
       </c>
       <c r="P35" s="129"/>
-      <c r="Q35" s="656" t="s">
+      <c r="Q35" s="528" t="s">
         <v>79</v>
       </c>
       <c r="R35" s="110" t="s">
@@ -7221,27 +7257,27 @@
       <c r="W35" s="106"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="641">
+      <c r="A36" s="513">
         <v>1</v>
       </c>
-      <c r="B36" s="304" t="s">
+      <c r="B36" s="661" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="309" t="s">
+      <c r="C36" s="660" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="342"/>
-      <c r="E36" s="304" t="s">
+      <c r="D36" s="665"/>
+      <c r="E36" s="661" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="547" t="str">
+      <c r="F36" s="662" t="str">
         <f>Namespace &amp; LOWER($B36)</f>
         <v>https://fairdatacollective.org/voc/dataset/contributor</v>
       </c>
       <c r="G36" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="H36" s="490" t="s">
+      <c r="H36" s="396" t="s">
         <v>563</v>
       </c>
       <c r="I36" s="131" t="s">
@@ -7257,8 +7293,8 @@
       <c r="M36" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="N36" s="591" t="str">
-        <f>Namespace &amp; $G36</f>
+      <c r="N36" s="465" t="str">
+        <f t="shared" si="0"/>
         <v>https://fairdatacollective.org/voc/dataset/contributorRole</v>
       </c>
       <c r="O36" s="134" t="s">
@@ -7282,16 +7318,16 @@
       <c r="W36" s="139"/>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="641"/>
-      <c r="B37" s="300"/>
-      <c r="C37" s="300"/>
-      <c r="D37" s="343"/>
-      <c r="E37" s="300"/>
-      <c r="F37" s="689"/>
+      <c r="A37" s="513"/>
+      <c r="B37" s="634"/>
+      <c r="C37" s="634"/>
+      <c r="D37" s="666"/>
+      <c r="E37" s="634"/>
+      <c r="F37" s="663"/>
       <c r="G37" s="139" t="s">
         <v>178</v>
       </c>
-      <c r="H37" s="491" t="s">
+      <c r="H37" s="397" t="s">
         <v>564</v>
       </c>
       <c r="I37" s="140">
@@ -7307,8 +7343,8 @@
       <c r="M37" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="N37" s="591" t="str">
-        <f>Namespace &amp; $G37</f>
+      <c r="N37" s="465" t="str">
+        <f t="shared" si="0"/>
         <v>https://fairdatacollective.org/voc/dataset/contributorType</v>
       </c>
       <c r="O37" s="141" t="s">
@@ -7334,16 +7370,16 @@
       <c r="W37" s="132"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="641"/>
-      <c r="B38" s="300"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="343"/>
-      <c r="E38" s="300"/>
-      <c r="F38" s="689"/>
+      <c r="A38" s="513"/>
+      <c r="B38" s="634"/>
+      <c r="C38" s="634"/>
+      <c r="D38" s="666"/>
+      <c r="E38" s="634"/>
+      <c r="F38" s="663"/>
       <c r="G38" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="H38" s="491" t="s">
+      <c r="H38" s="397" t="s">
         <v>565</v>
       </c>
       <c r="I38" s="140" t="s">
@@ -7383,16 +7419,16 @@
       <c r="W38" s="132"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="641"/>
-      <c r="B39" s="300"/>
-      <c r="C39" s="300"/>
-      <c r="D39" s="343"/>
-      <c r="E39" s="300"/>
-      <c r="F39" s="689"/>
+      <c r="A39" s="513"/>
+      <c r="B39" s="634"/>
+      <c r="C39" s="634"/>
+      <c r="D39" s="666"/>
+      <c r="E39" s="634"/>
+      <c r="F39" s="663"/>
       <c r="G39" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="H39" s="491" t="s">
+      <c r="H39" s="397" t="s">
         <v>566</v>
       </c>
       <c r="I39" s="140" t="s">
@@ -7432,16 +7468,16 @@
       <c r="W39" s="145"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="641"/>
-      <c r="B40" s="300"/>
-      <c r="C40" s="300"/>
-      <c r="D40" s="343"/>
-      <c r="E40" s="300"/>
-      <c r="F40" s="689"/>
+      <c r="A40" s="513"/>
+      <c r="B40" s="634"/>
+      <c r="C40" s="634"/>
+      <c r="D40" s="666"/>
+      <c r="E40" s="634"/>
+      <c r="F40" s="663"/>
       <c r="G40" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="H40" s="492" t="s">
+      <c r="H40" s="398" t="s">
         <v>567</v>
       </c>
       <c r="I40" s="140">
@@ -7481,16 +7517,16 @@
       <c r="W40" s="132"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="641"/>
-      <c r="B41" s="300"/>
-      <c r="C41" s="300"/>
-      <c r="D41" s="343"/>
-      <c r="E41" s="300"/>
-      <c r="F41" s="689"/>
+      <c r="A41" s="513"/>
+      <c r="B41" s="634"/>
+      <c r="C41" s="634"/>
+      <c r="D41" s="666"/>
+      <c r="E41" s="634"/>
+      <c r="F41" s="663"/>
       <c r="G41" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="491" t="s">
+      <c r="H41" s="397" t="s">
         <v>568</v>
       </c>
       <c r="I41" s="147" t="s">
@@ -7532,16 +7568,16 @@
       <c r="W41" s="132"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="641"/>
-      <c r="B42" s="300"/>
-      <c r="C42" s="300"/>
-      <c r="D42" s="343"/>
-      <c r="E42" s="300"/>
-      <c r="F42" s="689"/>
+      <c r="A42" s="513"/>
+      <c r="B42" s="634"/>
+      <c r="C42" s="634"/>
+      <c r="D42" s="666"/>
+      <c r="E42" s="634"/>
+      <c r="F42" s="663"/>
       <c r="G42" s="148" t="s">
         <v>191</v>
       </c>
-      <c r="H42" s="493" t="s">
+      <c r="H42" s="399" t="s">
         <v>569</v>
       </c>
       <c r="I42" s="149" t="s">
@@ -7558,7 +7594,7 @@
         <v>419</v>
       </c>
       <c r="N42" s="132" t="str">
-        <f>Namespace &amp; $G42</f>
+        <f t="shared" ref="N42:N48" si="1">Namespace &amp; $G42</f>
         <v>https://fairdatacollective.org/voc/dataset/contributorIdentifier</v>
       </c>
       <c r="O42" s="141" t="s">
@@ -7584,16 +7620,16 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="641"/>
-      <c r="B43" s="300"/>
-      <c r="C43" s="300"/>
-      <c r="D43" s="343"/>
-      <c r="E43" s="300"/>
-      <c r="F43" s="689"/>
+      <c r="A43" s="513"/>
+      <c r="B43" s="634"/>
+      <c r="C43" s="634"/>
+      <c r="D43" s="666"/>
+      <c r="E43" s="634"/>
+      <c r="F43" s="663"/>
       <c r="G43" s="148" t="s">
         <v>194</v>
       </c>
-      <c r="H43" s="493" t="s">
+      <c r="H43" s="399" t="s">
         <v>570</v>
       </c>
       <c r="I43" s="149" t="s">
@@ -7609,15 +7645,15 @@
       <c r="M43" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="N43" s="591" t="str">
-        <f>Namespace &amp; $G43</f>
+      <c r="N43" s="465" t="str">
+        <f t="shared" si="1"/>
         <v>https://fairdatacollective.org/voc/dataset/contributorIdentifierScheme</v>
       </c>
-      <c r="O43" s="574" t="s">
+      <c r="O43" s="449" t="s">
         <v>623</v>
       </c>
       <c r="P43" s="144"/>
-      <c r="Q43" s="655" t="s">
+      <c r="Q43" s="527" t="s">
         <v>79</v>
       </c>
       <c r="R43" s="137" t="s">
@@ -7636,16 +7672,16 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="641"/>
-      <c r="B44" s="300"/>
-      <c r="C44" s="300"/>
-      <c r="D44" s="343"/>
-      <c r="E44" s="300"/>
-      <c r="F44" s="689"/>
+      <c r="A44" s="513"/>
+      <c r="B44" s="634"/>
+      <c r="C44" s="634"/>
+      <c r="D44" s="666"/>
+      <c r="E44" s="634"/>
+      <c r="F44" s="663"/>
       <c r="G44" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="H44" s="493" t="s">
+      <c r="H44" s="399" t="s">
         <v>571</v>
       </c>
       <c r="I44" s="149" t="s">
@@ -7661,15 +7697,15 @@
       <c r="M44" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="N44" s="591" t="str">
-        <f>Namespace &amp; $G44</f>
+      <c r="N44" s="465" t="str">
+        <f t="shared" si="1"/>
         <v>https://fairdatacollective.org/voc/dataset/contributorIdentifierSchemeIRI</v>
       </c>
-      <c r="O44" s="574" t="s">
+      <c r="O44" s="449" t="s">
         <v>624</v>
       </c>
       <c r="P44" s="144"/>
-      <c r="Q44" s="655" t="s">
+      <c r="Q44" s="527" t="s">
         <v>79</v>
       </c>
       <c r="R44" s="137" t="s">
@@ -7688,16 +7724,16 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="641"/>
-      <c r="B45" s="300"/>
-      <c r="C45" s="300"/>
-      <c r="D45" s="343"/>
-      <c r="E45" s="300"/>
-      <c r="F45" s="689"/>
-      <c r="G45" s="493" t="s">
+      <c r="A45" s="513"/>
+      <c r="B45" s="634"/>
+      <c r="C45" s="634"/>
+      <c r="D45" s="666"/>
+      <c r="E45" s="634"/>
+      <c r="F45" s="663"/>
+      <c r="G45" s="399" t="s">
         <v>573</v>
       </c>
-      <c r="H45" s="493" t="s">
+      <c r="H45" s="399" t="s">
         <v>572</v>
       </c>
       <c r="I45" s="149" t="s">
@@ -7713,15 +7749,15 @@
       <c r="M45" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="N45" s="591" t="str">
-        <f>Namespace &amp; $G45</f>
+      <c r="N45" s="465" t="str">
+        <f t="shared" si="1"/>
         <v>https://fairdatacollective.org/voc/dataset/contributorAffiliation</v>
       </c>
       <c r="O45" s="141" t="s">
         <v>196</v>
       </c>
       <c r="P45" s="144"/>
-      <c r="Q45" s="655" t="s">
+      <c r="Q45" s="527" t="s">
         <v>79</v>
       </c>
       <c r="R45" s="152" t="s">
@@ -7740,16 +7776,16 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="641"/>
-      <c r="B46" s="300"/>
-      <c r="C46" s="300"/>
-      <c r="D46" s="343"/>
-      <c r="E46" s="300"/>
-      <c r="F46" s="689"/>
+      <c r="A46" s="513"/>
+      <c r="B46" s="634"/>
+      <c r="C46" s="634"/>
+      <c r="D46" s="666"/>
+      <c r="E46" s="634"/>
+      <c r="F46" s="663"/>
       <c r="G46" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="H46" s="493" t="s">
+      <c r="H46" s="399" t="s">
         <v>574</v>
       </c>
       <c r="I46" s="149" t="s">
@@ -7765,8 +7801,8 @@
       <c r="M46" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="N46" s="591" t="str">
-        <f>Namespace &amp; $G46</f>
+      <c r="N46" s="465" t="str">
+        <f t="shared" si="1"/>
         <v>https://fairdatacollective.org/voc/dataset/contributorAffiliationIdentifier</v>
       </c>
       <c r="O46" s="141" t="s">
@@ -7792,16 +7828,16 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="641"/>
-      <c r="B47" s="300"/>
-      <c r="C47" s="300"/>
-      <c r="D47" s="343"/>
-      <c r="E47" s="300"/>
-      <c r="F47" s="689"/>
+      <c r="A47" s="513"/>
+      <c r="B47" s="634"/>
+      <c r="C47" s="634"/>
+      <c r="D47" s="666"/>
+      <c r="E47" s="634"/>
+      <c r="F47" s="663"/>
       <c r="G47" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="H47" s="493" t="s">
+      <c r="H47" s="399" t="s">
         <v>575</v>
       </c>
       <c r="I47" s="149" t="s">
@@ -7817,15 +7853,15 @@
       <c r="M47" s="132" t="s">
         <v>419</v>
       </c>
-      <c r="N47" s="591" t="str">
-        <f>Namespace &amp; $G47</f>
+      <c r="N47" s="465" t="str">
+        <f t="shared" si="1"/>
         <v>https://fairdatacollective.org/voc/dataset/contributorAfiliationIdentifierScheme</v>
       </c>
-      <c r="O47" s="574" t="s">
+      <c r="O47" s="449" t="s">
         <v>625</v>
       </c>
       <c r="P47" s="144"/>
-      <c r="Q47" s="655" t="s">
+      <c r="Q47" s="527" t="s">
         <v>79</v>
       </c>
       <c r="R47" s="137" t="s">
@@ -7844,16 +7880,16 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="641"/>
-      <c r="B48" s="301"/>
-      <c r="C48" s="301"/>
-      <c r="D48" s="344"/>
-      <c r="E48" s="301"/>
-      <c r="F48" s="690"/>
+      <c r="A48" s="513"/>
+      <c r="B48" s="635"/>
+      <c r="C48" s="635"/>
+      <c r="D48" s="667"/>
+      <c r="E48" s="635"/>
+      <c r="F48" s="664"/>
       <c r="G48" s="153" t="s">
         <v>201</v>
       </c>
-      <c r="H48" s="493" t="s">
+      <c r="H48" s="399" t="s">
         <v>576</v>
       </c>
       <c r="I48" s="149" t="s">
@@ -7869,15 +7905,15 @@
       <c r="M48" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="N48" s="595" t="str">
-        <f>Namespace &amp; $G48</f>
+      <c r="N48" s="469" t="str">
+        <f t="shared" si="1"/>
         <v>https://fairdatacollective.org/voc/dataset/contributorAffiliationIdentifierSchemeIRI</v>
       </c>
-      <c r="O48" s="575" t="s">
+      <c r="O48" s="450" t="s">
         <v>626</v>
       </c>
       <c r="P48" s="144"/>
-      <c r="Q48" s="655" t="s">
+      <c r="Q48" s="527" t="s">
         <v>40</v>
       </c>
       <c r="R48" s="137" t="s">
@@ -7896,25 +7932,25 @@
       </c>
     </row>
     <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="642"/>
-      <c r="B49" s="305" t="s">
+      <c r="A49" s="514"/>
+      <c r="B49" s="671" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="495" t="s">
+      <c r="C49" s="673" t="s">
         <v>668</v>
       </c>
-      <c r="D49" s="347"/>
-      <c r="E49" s="305">
+      <c r="D49" s="677"/>
+      <c r="E49" s="671">
         <v>1</v>
       </c>
-      <c r="F49" s="691" t="str">
+      <c r="F49" s="674" t="str">
         <f>Namespace &amp; LOWER($B49)</f>
         <v>https://fairdatacollective.org/voc/dataset/publisher</v>
       </c>
       <c r="G49" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="H49" s="494" t="s">
+      <c r="H49" s="400" t="s">
         <v>578</v>
       </c>
       <c r="I49" s="157">
@@ -7958,16 +7994,16 @@
       </c>
     </row>
     <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="642"/>
-      <c r="B50" s="297"/>
-      <c r="C50" s="297"/>
-      <c r="D50" s="346"/>
-      <c r="E50" s="297"/>
-      <c r="F50" s="548"/>
+      <c r="A50" s="514"/>
+      <c r="B50" s="672"/>
+      <c r="C50" s="672"/>
+      <c r="D50" s="678"/>
+      <c r="E50" s="672"/>
+      <c r="F50" s="675"/>
       <c r="G50" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="H50" s="494" t="s">
+      <c r="H50" s="400" t="s">
         <v>577</v>
       </c>
       <c r="I50" s="157" t="s">
@@ -7992,7 +8028,7 @@
         <v>209</v>
       </c>
       <c r="P50" s="160"/>
-      <c r="Q50" s="615" t="s">
+      <c r="Q50" s="489" t="s">
         <v>40</v>
       </c>
       <c r="R50" s="161"/>
@@ -8003,16 +8039,16 @@
       <c r="W50" s="163"/>
     </row>
     <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="642"/>
-      <c r="B51" s="297"/>
-      <c r="C51" s="297"/>
-      <c r="D51" s="346"/>
-      <c r="E51" s="297"/>
-      <c r="F51" s="548"/>
+      <c r="A51" s="514"/>
+      <c r="B51" s="672"/>
+      <c r="C51" s="672"/>
+      <c r="D51" s="678"/>
+      <c r="E51" s="672"/>
+      <c r="F51" s="675"/>
       <c r="G51" s="164" t="s">
         <v>210</v>
       </c>
-      <c r="H51" s="494" t="s">
+      <c r="H51" s="400" t="s">
         <v>579</v>
       </c>
       <c r="I51" s="157" t="s">
@@ -8030,7 +8066,7 @@
       <c r="M51" s="158" t="s">
         <v>419</v>
       </c>
-      <c r="N51" s="596" t="str">
+      <c r="N51" s="470" t="str">
         <f>Namespace &amp; $G51</f>
         <v>https://fairdatacollective.org/voc/dataset/publisherAddress</v>
       </c>
@@ -8038,7 +8074,7 @@
         <v>211</v>
       </c>
       <c r="P51" s="160"/>
-      <c r="Q51" s="615" t="s">
+      <c r="Q51" s="489" t="s">
         <v>40</v>
       </c>
       <c r="R51" s="161"/>
@@ -8049,16 +8085,16 @@
       <c r="W51" s="163"/>
     </row>
     <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="642"/>
-      <c r="B52" s="297"/>
-      <c r="C52" s="297"/>
-      <c r="D52" s="346"/>
-      <c r="E52" s="297"/>
-      <c r="F52" s="548"/>
+      <c r="A52" s="514"/>
+      <c r="B52" s="672"/>
+      <c r="C52" s="672"/>
+      <c r="D52" s="678"/>
+      <c r="E52" s="672"/>
+      <c r="F52" s="675"/>
       <c r="G52" s="164" t="s">
         <v>212</v>
       </c>
-      <c r="H52" s="494" t="s">
+      <c r="H52" s="400" t="s">
         <v>580</v>
       </c>
       <c r="I52" s="157" t="s">
@@ -8076,7 +8112,7 @@
       <c r="M52" s="158" t="s">
         <v>419</v>
       </c>
-      <c r="N52" s="596" t="str">
+      <c r="N52" s="470" t="str">
         <f>Namespace &amp; $G52</f>
         <v>https://fairdatacollective.org/voc/dataset/publisherIdentifier</v>
       </c>
@@ -8084,7 +8120,7 @@
         <v>213</v>
       </c>
       <c r="P52" s="160"/>
-      <c r="Q52" s="615" t="s">
+      <c r="Q52" s="489" t="s">
         <v>40</v>
       </c>
       <c r="R52" s="161"/>
@@ -8095,16 +8131,16 @@
       <c r="W52" s="163"/>
     </row>
     <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="642"/>
-      <c r="B53" s="297"/>
-      <c r="C53" s="297"/>
-      <c r="D53" s="346"/>
-      <c r="E53" s="297"/>
-      <c r="F53" s="548"/>
+      <c r="A53" s="514"/>
+      <c r="B53" s="672"/>
+      <c r="C53" s="672"/>
+      <c r="D53" s="678"/>
+      <c r="E53" s="672"/>
+      <c r="F53" s="675"/>
       <c r="G53" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="H53" s="494" t="s">
+      <c r="H53" s="400" t="s">
         <v>581</v>
       </c>
       <c r="I53" s="157" t="s">
@@ -8122,15 +8158,15 @@
       <c r="M53" s="158" t="s">
         <v>419</v>
       </c>
-      <c r="N53" s="596" t="str">
+      <c r="N53" s="470" t="str">
         <f>Namespace &amp; $G53</f>
         <v>https://fairdatacollective.org/voc/dataset/publisherIdentifierScheme</v>
       </c>
-      <c r="O53" s="576" t="s">
+      <c r="O53" s="451" t="s">
         <v>627</v>
       </c>
       <c r="P53" s="160"/>
-      <c r="Q53" s="615" t="s">
+      <c r="Q53" s="489" t="s">
         <v>40</v>
       </c>
       <c r="R53" s="161"/>
@@ -8141,18 +8177,18 @@
       <c r="W53" s="163"/>
     </row>
     <row r="54" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="627" t="s">
+      <c r="A54" s="501" t="s">
         <v>669</v>
       </c>
-      <c r="B54" s="297"/>
-      <c r="C54" s="297"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="297"/>
-      <c r="F54" s="548"/>
+      <c r="B54" s="672"/>
+      <c r="C54" s="672"/>
+      <c r="D54" s="678"/>
+      <c r="E54" s="672"/>
+      <c r="F54" s="675"/>
       <c r="G54" s="164" t="s">
         <v>215</v>
       </c>
-      <c r="H54" s="494" t="s">
+      <c r="H54" s="400" t="s">
         <v>582</v>
       </c>
       <c r="I54" s="157" t="s">
@@ -8170,15 +8206,15 @@
       <c r="M54" s="158" t="s">
         <v>419</v>
       </c>
-      <c r="N54" s="596" t="str">
+      <c r="N54" s="470" t="str">
         <f>Namespace &amp; $G54</f>
         <v>https://fairdatacollective.org/voc/dataset/publisherIdentifierSchemeIRI</v>
       </c>
-      <c r="O54" s="576" t="s">
+      <c r="O54" s="451" t="s">
         <v>628</v>
       </c>
       <c r="P54" s="160"/>
-      <c r="Q54" s="615" t="s">
+      <c r="Q54" s="489" t="s">
         <v>40</v>
       </c>
       <c r="R54" s="161"/>
@@ -8189,25 +8225,25 @@
       <c r="W54" s="163"/>
     </row>
     <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="643"/>
-      <c r="B55" s="302" t="s">
+      <c r="A55" s="515"/>
+      <c r="B55" s="668" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="306" t="s">
+      <c r="C55" s="676" t="s">
         <v>217</v>
       </c>
-      <c r="D55" s="348"/>
-      <c r="E55" s="302">
+      <c r="D55" s="679"/>
+      <c r="E55" s="668">
         <v>1</v>
       </c>
-      <c r="F55" s="549" t="str">
+      <c r="F55" s="669" t="str">
         <f>Namespace &amp; LOWER($B55)</f>
         <v>https://fairdatacollective.org/voc/dataset/rights</v>
       </c>
       <c r="G55" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="H55" s="498" t="s">
+      <c r="H55" s="403" t="s">
         <v>586</v>
       </c>
       <c r="I55" s="166">
@@ -8251,16 +8287,16 @@
       </c>
     </row>
     <row r="56" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="643"/>
-      <c r="B56" s="300"/>
-      <c r="C56" s="300"/>
-      <c r="D56" s="348"/>
-      <c r="E56" s="300"/>
-      <c r="F56" s="549"/>
+      <c r="A56" s="515"/>
+      <c r="B56" s="634"/>
+      <c r="C56" s="634"/>
+      <c r="D56" s="679"/>
+      <c r="E56" s="634"/>
+      <c r="F56" s="669"/>
       <c r="G56" s="168" t="s">
         <v>224</v>
       </c>
-      <c r="H56" s="499" t="s">
+      <c r="H56" s="404" t="s">
         <v>587</v>
       </c>
       <c r="I56" s="171">
@@ -8278,15 +8314,15 @@
       <c r="M56" s="173" t="s">
         <v>419</v>
       </c>
-      <c r="N56" s="597" t="str">
-        <f>Namespace &amp; $G56</f>
+      <c r="N56" s="471" t="str">
+        <f t="shared" ref="N56:N63" si="2">Namespace &amp; $G56</f>
         <v>https://fairdatacollective.org/voc/dataset/licenseName</v>
       </c>
       <c r="O56" s="176" t="s">
         <v>227</v>
       </c>
       <c r="P56" s="170"/>
-      <c r="Q56" s="628" t="s">
+      <c r="Q56" s="502" t="s">
         <v>79</v>
       </c>
       <c r="R56" s="172" t="s">
@@ -8303,16 +8339,16 @@
       <c r="W56" s="173"/>
     </row>
     <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="643"/>
-      <c r="B57" s="300"/>
-      <c r="C57" s="300"/>
-      <c r="D57" s="348"/>
-      <c r="E57" s="300"/>
-      <c r="F57" s="549"/>
+      <c r="A57" s="515"/>
+      <c r="B57" s="634"/>
+      <c r="C57" s="634"/>
+      <c r="D57" s="679"/>
+      <c r="E57" s="634"/>
+      <c r="F57" s="669"/>
       <c r="G57" s="175" t="s">
         <v>229</v>
       </c>
-      <c r="H57" s="496" t="s">
+      <c r="H57" s="401" t="s">
         <v>583</v>
       </c>
       <c r="I57" s="171" t="s">
@@ -8328,15 +8364,15 @@
       <c r="M57" s="173" t="s">
         <v>419</v>
       </c>
-      <c r="N57" s="597" t="str">
-        <f>Namespace &amp; $G57</f>
+      <c r="N57" s="471" t="str">
+        <f t="shared" si="2"/>
         <v>https://fairdatacollective.org/voc/dataset/licenseIdentifier</v>
       </c>
       <c r="O57" s="178" t="s">
         <v>231</v>
       </c>
       <c r="P57" s="170"/>
-      <c r="Q57" s="628" t="s">
+      <c r="Q57" s="502" t="s">
         <v>40</v>
       </c>
       <c r="R57" s="172" t="s">
@@ -8353,16 +8389,16 @@
       <c r="W57" s="173"/>
     </row>
     <row r="58" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="643"/>
-      <c r="B58" s="300"/>
-      <c r="C58" s="300"/>
-      <c r="D58" s="348"/>
-      <c r="E58" s="300"/>
-      <c r="F58" s="549"/>
+      <c r="A58" s="515"/>
+      <c r="B58" s="634"/>
+      <c r="C58" s="634"/>
+      <c r="D58" s="679"/>
+      <c r="E58" s="634"/>
+      <c r="F58" s="669"/>
       <c r="G58" s="175" t="s">
         <v>233</v>
       </c>
-      <c r="H58" s="496" t="s">
+      <c r="H58" s="401" t="s">
         <v>584</v>
       </c>
       <c r="I58" s="171" t="s">
@@ -8378,15 +8414,15 @@
       <c r="M58" s="173" t="s">
         <v>419</v>
       </c>
-      <c r="N58" s="597" t="str">
-        <f>Namespace &amp; $G58</f>
+      <c r="N58" s="471" t="str">
+        <f t="shared" si="2"/>
         <v>https://fairdatacollective.org/voc/dataset/licenseIdentifierScheme</v>
       </c>
-      <c r="O58" s="577" t="s">
+      <c r="O58" s="452" t="s">
         <v>629</v>
       </c>
       <c r="P58" s="170"/>
-      <c r="Q58" s="628" t="s">
+      <c r="Q58" s="502" t="s">
         <v>40</v>
       </c>
       <c r="R58" s="172" t="s">
@@ -8403,16 +8439,16 @@
       <c r="W58" s="173"/>
     </row>
     <row r="59" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="643"/>
-      <c r="B59" s="301"/>
-      <c r="C59" s="301"/>
-      <c r="D59" s="349"/>
-      <c r="E59" s="301"/>
-      <c r="F59" s="692"/>
+      <c r="A59" s="515"/>
+      <c r="B59" s="635"/>
+      <c r="C59" s="635"/>
+      <c r="D59" s="680"/>
+      <c r="E59" s="635"/>
+      <c r="F59" s="670"/>
       <c r="G59" s="179" t="s">
         <v>235</v>
       </c>
-      <c r="H59" s="497" t="s">
+      <c r="H59" s="402" t="s">
         <v>585</v>
       </c>
       <c r="I59" s="180" t="s">
@@ -8428,15 +8464,15 @@
       <c r="M59" s="181" t="s">
         <v>419</v>
       </c>
-      <c r="N59" s="598" t="str">
-        <f>Namespace &amp; $G59</f>
+      <c r="N59" s="472" t="str">
+        <f t="shared" si="2"/>
         <v>https://fairdatacollective.org/voc/dataset/licenseIdentifierSchemeIRI</v>
       </c>
-      <c r="O59" s="578" t="s">
+      <c r="O59" s="453" t="s">
         <v>630</v>
       </c>
       <c r="P59" s="170"/>
-      <c r="Q59" s="628" t="s">
+      <c r="Q59" s="502" t="s">
         <v>40</v>
       </c>
       <c r="R59" s="172" t="s">
@@ -8453,25 +8489,25 @@
       <c r="W59" s="173"/>
     </row>
     <row r="60" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="644"/>
-      <c r="B60" s="319" t="s">
+      <c r="A60" s="516"/>
+      <c r="B60" s="591" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="320" t="s">
+      <c r="C60" s="593" t="s">
         <v>238</v>
       </c>
-      <c r="D60" s="350"/>
-      <c r="E60" s="321" t="s">
+      <c r="D60" s="600"/>
+      <c r="E60" s="594" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="550" t="str">
+      <c r="F60" s="596" t="str">
         <f>Namespace &amp; LOWER($B60)</f>
         <v>https://fairdatacollective.org/voc/dataset/date</v>
       </c>
       <c r="G60" s="182" t="s">
         <v>239</v>
       </c>
-      <c r="H60" s="500" t="s">
+      <c r="H60" s="405" t="s">
         <v>588</v>
       </c>
       <c r="I60" s="183">
@@ -8483,15 +8519,15 @@
       <c r="M60" s="184" t="s">
         <v>419</v>
       </c>
-      <c r="N60" s="599" t="str">
-        <f>Namespace &amp; $G60</f>
+      <c r="N60" s="473" t="str">
+        <f t="shared" si="2"/>
         <v>https://fairdatacollective.org/voc/dataset/datasetDate</v>
       </c>
-      <c r="O60" s="613" t="s">
+      <c r="O60" s="487" t="s">
         <v>240</v>
       </c>
       <c r="P60" s="185"/>
-      <c r="Q60" s="614" t="s">
+      <c r="Q60" s="488" t="s">
         <v>40</v>
       </c>
       <c r="R60" s="186"/>
@@ -8502,38 +8538,38 @@
       <c r="W60" s="188"/>
     </row>
     <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="644"/>
-      <c r="B61" s="298"/>
-      <c r="C61" s="298"/>
-      <c r="D61" s="383"/>
-      <c r="E61" s="312"/>
-      <c r="F61" s="551"/>
-      <c r="G61" s="501" t="s">
+      <c r="A61" s="516"/>
+      <c r="B61" s="592"/>
+      <c r="C61" s="592"/>
+      <c r="D61" s="601"/>
+      <c r="E61" s="595"/>
+      <c r="F61" s="597"/>
+      <c r="G61" s="406" t="s">
         <v>662</v>
       </c>
-      <c r="H61" s="501" t="s">
+      <c r="H61" s="406" t="s">
         <v>661</v>
       </c>
-      <c r="I61" s="385">
+      <c r="I61" s="320">
         <v>1</v>
       </c>
-      <c r="J61" s="386"/>
-      <c r="K61" s="386"/>
-      <c r="L61" s="384" t="s">
+      <c r="J61" s="321"/>
+      <c r="K61" s="321"/>
+      <c r="L61" s="319" t="s">
         <v>241</v>
       </c>
-      <c r="M61" s="386" t="s">
+      <c r="M61" s="321" t="s">
         <v>419</v>
       </c>
-      <c r="N61" s="600" t="str">
-        <f>Namespace &amp; $G61</f>
+      <c r="N61" s="474" t="str">
+        <f t="shared" si="2"/>
         <v>https://fairdatacollective.org/voc/dataset/datasetDateRole</v>
       </c>
-      <c r="O61" s="613" t="s">
+      <c r="O61" s="487" t="s">
         <v>660</v>
       </c>
       <c r="P61" s="185"/>
-      <c r="Q61" s="614" t="s">
+      <c r="Q61" s="488" t="s">
         <v>47</v>
       </c>
       <c r="R61" s="186"/>
@@ -8544,57 +8580,57 @@
       <c r="W61" s="188"/>
     </row>
     <row r="62" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="645"/>
-      <c r="B62" s="451" t="s">
+      <c r="A62" s="517"/>
+      <c r="B62" s="598" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="541" t="s">
+      <c r="C62" s="605" t="s">
         <v>609</v>
       </c>
-      <c r="D62" s="452"/>
-      <c r="E62" s="451" t="s">
+      <c r="D62" s="602"/>
+      <c r="E62" s="598" t="s">
         <v>93</v>
       </c>
-      <c r="F62" s="552" t="str">
+      <c r="F62" s="604" t="str">
         <f>Namespace &amp; LOWER($B62)</f>
         <v>https://fairdatacollective.org/voc/dataset/distribution</v>
       </c>
-      <c r="G62" s="453" t="s">
+      <c r="G62" s="367" t="s">
         <v>243</v>
       </c>
-      <c r="H62" s="502" t="s">
+      <c r="H62" s="407" t="s">
         <v>590</v>
       </c>
-      <c r="I62" s="454">
+      <c r="I62" s="368">
         <v>1</v>
       </c>
-      <c r="J62" s="453" t="s">
+      <c r="J62" s="367" t="s">
         <v>131</v>
       </c>
-      <c r="K62" s="453" t="s">
+      <c r="K62" s="367" t="s">
         <v>35</v>
       </c>
-      <c r="L62" s="453"/>
-      <c r="M62" s="453" t="s">
+      <c r="L62" s="367"/>
+      <c r="M62" s="367" t="s">
         <v>419</v>
       </c>
-      <c r="N62" s="601" t="str">
-        <f>Namespace &amp; $G62</f>
+      <c r="N62" s="475" t="str">
+        <f t="shared" si="2"/>
         <v>https://fairdatacollective.org/voc/dataset/distributionIdentifier</v>
       </c>
-      <c r="O62" s="455" t="s">
+      <c r="O62" s="369" t="s">
         <v>244</v>
       </c>
-      <c r="P62" s="456"/>
-      <c r="Q62" s="616" t="s">
+      <c r="P62" s="370"/>
+      <c r="Q62" s="490" t="s">
         <v>40</v>
       </c>
-      <c r="R62" s="457"/>
-      <c r="S62" s="457"/>
-      <c r="T62" s="458"/>
-      <c r="U62" s="457"/>
-      <c r="V62" s="457"/>
-      <c r="W62" s="457"/>
+      <c r="R62" s="371"/>
+      <c r="S62" s="371"/>
+      <c r="T62" s="372"/>
+      <c r="U62" s="371"/>
+      <c r="V62" s="371"/>
+      <c r="W62" s="371"/>
       <c r="X62" s="189"/>
       <c r="Y62" s="189"/>
       <c r="Z62" s="189"/>
@@ -8610,48 +8646,48 @@
       <c r="AJ62" s="189"/>
     </row>
     <row r="63" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="645"/>
-      <c r="B63" s="459"/>
-      <c r="C63" s="460"/>
-      <c r="D63" s="452"/>
-      <c r="E63" s="459"/>
-      <c r="F63" s="552"/>
-      <c r="G63" s="453" t="s">
+      <c r="A63" s="517"/>
+      <c r="B63" s="599"/>
+      <c r="C63" s="606"/>
+      <c r="D63" s="602"/>
+      <c r="E63" s="599"/>
+      <c r="F63" s="604"/>
+      <c r="G63" s="367" t="s">
         <v>245</v>
       </c>
-      <c r="H63" s="502" t="s">
+      <c r="H63" s="407" t="s">
         <v>589</v>
       </c>
-      <c r="I63" s="454">
+      <c r="I63" s="368">
         <v>1</v>
       </c>
-      <c r="J63" s="453" t="s">
+      <c r="J63" s="367" t="s">
         <v>131</v>
       </c>
-      <c r="K63" s="453" t="s">
+      <c r="K63" s="367" t="s">
         <v>35</v>
       </c>
-      <c r="L63" s="453"/>
-      <c r="M63" s="453" t="s">
+      <c r="L63" s="367"/>
+      <c r="M63" s="367" t="s">
         <v>419</v>
       </c>
-      <c r="N63" s="601" t="str">
-        <f>Namespace &amp; $G63</f>
+      <c r="N63" s="475" t="str">
+        <f t="shared" si="2"/>
         <v>https://fairdatacollective.org/voc/dataset/distributionIdentifierType</v>
       </c>
-      <c r="O63" s="455" t="s">
+      <c r="O63" s="369" t="s">
         <v>246</v>
       </c>
-      <c r="P63" s="461"/>
-      <c r="Q63" s="617" t="s">
+      <c r="P63" s="373"/>
+      <c r="Q63" s="491" t="s">
         <v>47</v>
       </c>
-      <c r="R63" s="462"/>
-      <c r="S63" s="462"/>
-      <c r="T63" s="463"/>
-      <c r="U63" s="462"/>
-      <c r="V63" s="462"/>
-      <c r="W63" s="462"/>
+      <c r="R63" s="374"/>
+      <c r="S63" s="374"/>
+      <c r="T63" s="375"/>
+      <c r="U63" s="374"/>
+      <c r="V63" s="374"/>
+      <c r="W63" s="374"/>
       <c r="X63" s="189"/>
       <c r="Y63" s="189"/>
       <c r="Z63" s="189"/>
@@ -8667,1700 +8703,1700 @@
       <c r="AJ63" s="189"/>
     </row>
     <row r="64" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="646" t="s">
+      <c r="A64" s="518" t="s">
         <v>671</v>
       </c>
-      <c r="B64" s="459"/>
-      <c r="C64" s="464" t="s">
+      <c r="B64" s="599"/>
+      <c r="C64" s="607" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="424"/>
-      <c r="E64" s="425" t="s">
+      <c r="D64" s="603"/>
+      <c r="E64" s="613" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="552"/>
-      <c r="G64" s="426" t="s">
+      <c r="F64" s="604"/>
+      <c r="G64" s="346" t="s">
         <v>248</v>
       </c>
-      <c r="H64" s="503" t="s">
+      <c r="H64" s="408" t="s">
         <v>591</v>
       </c>
-      <c r="I64" s="427">
+      <c r="I64" s="347">
         <v>1</v>
       </c>
-      <c r="J64" s="428" t="s">
+      <c r="J64" s="348" t="s">
         <v>16</v>
       </c>
-      <c r="K64" s="426" t="s">
+      <c r="K64" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="L64" s="426"/>
-      <c r="M64" s="428" t="s">
+      <c r="L64" s="346"/>
+      <c r="M64" s="348" t="s">
         <v>419</v>
       </c>
-      <c r="N64" s="426" t="s">
+      <c r="N64" s="346" t="s">
         <v>249</v>
       </c>
-      <c r="O64" s="429" t="s">
+      <c r="O64" s="349" t="s">
         <v>250</v>
       </c>
-      <c r="P64" s="430"/>
-      <c r="Q64" s="629" t="s">
+      <c r="P64" s="350"/>
+      <c r="Q64" s="503" t="s">
         <v>47</v>
       </c>
-      <c r="R64" s="431"/>
-      <c r="S64" s="431"/>
-      <c r="T64" s="432"/>
-      <c r="U64" s="431"/>
-      <c r="V64" s="431"/>
-      <c r="W64" s="433"/>
+      <c r="R64" s="351"/>
+      <c r="S64" s="351"/>
+      <c r="T64" s="352"/>
+      <c r="U64" s="351"/>
+      <c r="V64" s="351"/>
+      <c r="W64" s="353"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="645"/>
-      <c r="B65" s="459"/>
-      <c r="C65" s="465"/>
-      <c r="D65" s="424"/>
-      <c r="E65" s="434"/>
-      <c r="F65" s="552"/>
-      <c r="G65" s="426" t="s">
+      <c r="A65" s="517"/>
+      <c r="B65" s="599"/>
+      <c r="C65" s="608"/>
+      <c r="D65" s="603"/>
+      <c r="E65" s="612"/>
+      <c r="F65" s="604"/>
+      <c r="G65" s="346" t="s">
         <v>251</v>
       </c>
-      <c r="H65" s="503" t="s">
+      <c r="H65" s="408" t="s">
         <v>593</v>
       </c>
-      <c r="I65" s="427">
+      <c r="I65" s="347">
         <v>1</v>
       </c>
-      <c r="J65" s="426" t="s">
+      <c r="J65" s="346" t="s">
         <v>252</v>
       </c>
-      <c r="K65" s="426" t="s">
+      <c r="K65" s="346" t="s">
         <v>67</v>
       </c>
-      <c r="L65" s="426"/>
-      <c r="M65" s="428" t="s">
+      <c r="L65" s="346"/>
+      <c r="M65" s="348" t="s">
         <v>419</v>
       </c>
-      <c r="N65" s="602" t="str">
-        <f>Namespace &amp; $G65</f>
+      <c r="N65" s="476" t="str">
+        <f t="shared" ref="N65:N71" si="3">Namespace &amp; $G65</f>
         <v>https://fairdatacollective.org/voc/dataset/distributionSize</v>
       </c>
-      <c r="O65" s="429" t="s">
+      <c r="O65" s="349" t="s">
         <v>253</v>
       </c>
-      <c r="P65" s="430"/>
-      <c r="Q65" s="629" t="s">
+      <c r="P65" s="350"/>
+      <c r="Q65" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R65" s="431"/>
-      <c r="S65" s="431"/>
-      <c r="T65" s="432"/>
-      <c r="U65" s="431"/>
-      <c r="V65" s="431"/>
-      <c r="W65" s="433"/>
+      <c r="R65" s="351"/>
+      <c r="S65" s="351"/>
+      <c r="T65" s="352"/>
+      <c r="U65" s="351"/>
+      <c r="V65" s="351"/>
+      <c r="W65" s="353"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="646" t="s">
+      <c r="A66" s="518" t="s">
         <v>671</v>
       </c>
-      <c r="B66" s="459"/>
-      <c r="C66" s="465"/>
-      <c r="D66" s="424"/>
-      <c r="E66" s="434"/>
-      <c r="F66" s="552"/>
-      <c r="G66" s="426" t="s">
+      <c r="B66" s="599"/>
+      <c r="C66" s="608"/>
+      <c r="D66" s="603"/>
+      <c r="E66" s="612"/>
+      <c r="F66" s="604"/>
+      <c r="G66" s="346" t="s">
         <v>254</v>
       </c>
-      <c r="H66" s="503" t="s">
+      <c r="H66" s="408" t="s">
         <v>592</v>
       </c>
-      <c r="I66" s="427" t="s">
+      <c r="I66" s="347" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="426" t="s">
+      <c r="J66" s="346" t="s">
         <v>131</v>
       </c>
-      <c r="K66" s="426" t="s">
+      <c r="K66" s="346" t="s">
         <v>67</v>
       </c>
-      <c r="L66" s="426"/>
-      <c r="M66" s="428" t="s">
+      <c r="L66" s="346"/>
+      <c r="M66" s="348" t="s">
         <v>419</v>
       </c>
-      <c r="N66" s="602" t="str">
-        <f>Namespace &amp; $G66</f>
+      <c r="N66" s="476" t="str">
+        <f t="shared" si="3"/>
         <v>https://fairdatacollective.org/voc/dataset/distributionAccessProtocol</v>
       </c>
-      <c r="O66" s="429" t="s">
+      <c r="O66" s="349" t="s">
         <v>255</v>
       </c>
-      <c r="P66" s="430"/>
-      <c r="Q66" s="629" t="s">
+      <c r="P66" s="350"/>
+      <c r="Q66" s="503" t="s">
         <v>47</v>
       </c>
-      <c r="R66" s="431"/>
-      <c r="S66" s="431"/>
-      <c r="T66" s="432"/>
-      <c r="U66" s="431"/>
-      <c r="V66" s="431"/>
-      <c r="W66" s="433"/>
+      <c r="R66" s="351"/>
+      <c r="S66" s="351"/>
+      <c r="T66" s="352"/>
+      <c r="U66" s="351"/>
+      <c r="V66" s="351"/>
+      <c r="W66" s="353"/>
     </row>
     <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="646" t="s">
+      <c r="A67" s="518" t="s">
         <v>673</v>
       </c>
-      <c r="B67" s="459"/>
-      <c r="C67" s="465"/>
-      <c r="D67" s="424"/>
-      <c r="E67" s="434"/>
-      <c r="F67" s="552"/>
-      <c r="G67" s="426" t="s">
+      <c r="B67" s="599"/>
+      <c r="C67" s="608"/>
+      <c r="D67" s="603"/>
+      <c r="E67" s="612"/>
+      <c r="F67" s="604"/>
+      <c r="G67" s="346" t="s">
         <v>256</v>
       </c>
-      <c r="H67" s="503" t="s">
+      <c r="H67" s="408" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="427" t="s">
+      <c r="I67" s="347" t="s">
         <v>93</v>
       </c>
-      <c r="J67" s="426" t="s">
+      <c r="J67" s="346" t="s">
         <v>131</v>
       </c>
-      <c r="K67" s="426" t="s">
+      <c r="K67" s="346" t="s">
         <v>67</v>
       </c>
-      <c r="L67" s="426"/>
-      <c r="M67" s="428" t="s">
+      <c r="L67" s="346"/>
+      <c r="M67" s="348" t="s">
         <v>419</v>
       </c>
-      <c r="N67" s="602" t="str">
-        <f>Namespace &amp; $G67</f>
+      <c r="N67" s="476" t="str">
+        <f t="shared" si="3"/>
         <v>https://fairdatacollective.org/voc/dataset/distributionAccessConfiguration</v>
       </c>
-      <c r="O67" s="630" t="s">
+      <c r="O67" s="504" t="s">
         <v>672</v>
       </c>
-      <c r="P67" s="430"/>
-      <c r="Q67" s="629" t="s">
+      <c r="P67" s="350"/>
+      <c r="Q67" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R67" s="431"/>
-      <c r="S67" s="431"/>
-      <c r="T67" s="432"/>
-      <c r="U67" s="431"/>
-      <c r="V67" s="431"/>
-      <c r="W67" s="433"/>
+      <c r="R67" s="351"/>
+      <c r="S67" s="351"/>
+      <c r="T67" s="352"/>
+      <c r="U67" s="351"/>
+      <c r="V67" s="351"/>
+      <c r="W67" s="353"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="645"/>
-      <c r="B68" s="459"/>
-      <c r="C68" s="465"/>
-      <c r="D68" s="424"/>
-      <c r="E68" s="434"/>
-      <c r="F68" s="552"/>
-      <c r="G68" s="435" t="s">
+      <c r="A68" s="517"/>
+      <c r="B68" s="599"/>
+      <c r="C68" s="608"/>
+      <c r="D68" s="603"/>
+      <c r="E68" s="612"/>
+      <c r="F68" s="604"/>
+      <c r="G68" s="354" t="s">
         <v>257</v>
       </c>
-      <c r="H68" s="503" t="s">
+      <c r="H68" s="408" t="s">
         <v>595</v>
       </c>
-      <c r="I68" s="427" t="s">
+      <c r="I68" s="347" t="s">
         <v>93</v>
       </c>
-      <c r="J68" s="436"/>
-      <c r="K68" s="437" t="s">
+      <c r="J68" s="355"/>
+      <c r="K68" s="356" t="s">
         <v>35</v>
       </c>
-      <c r="L68" s="426"/>
-      <c r="M68" s="428" t="s">
+      <c r="L68" s="346"/>
+      <c r="M68" s="348" t="s">
         <v>419</v>
       </c>
-      <c r="N68" s="602" t="str">
-        <f>Namespace &amp; $G68</f>
+      <c r="N68" s="476" t="str">
+        <f t="shared" si="3"/>
         <v>https://fairdatacollective.org/voc/dataset/distributionDate</v>
       </c>
-      <c r="O68" s="653" t="s">
+      <c r="O68" s="525" t="s">
         <v>674</v>
       </c>
-      <c r="P68" s="430"/>
-      <c r="Q68" s="629" t="s">
+      <c r="P68" s="350"/>
+      <c r="Q68" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R68" s="431"/>
-      <c r="S68" s="431"/>
-      <c r="T68" s="432"/>
-      <c r="U68" s="431"/>
-      <c r="V68" s="431"/>
-      <c r="W68" s="433"/>
+      <c r="R68" s="351"/>
+      <c r="S68" s="351"/>
+      <c r="T68" s="352"/>
+      <c r="U68" s="351"/>
+      <c r="V68" s="351"/>
+      <c r="W68" s="353"/>
     </row>
     <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="646" t="s">
+      <c r="A69" s="518" t="s">
         <v>665</v>
       </c>
-      <c r="B69" s="459"/>
-      <c r="C69" s="465"/>
-      <c r="D69" s="424"/>
-      <c r="E69" s="434"/>
-      <c r="F69" s="552"/>
-      <c r="G69" s="619" t="s">
+      <c r="B69" s="599"/>
+      <c r="C69" s="608"/>
+      <c r="D69" s="603"/>
+      <c r="E69" s="612"/>
+      <c r="F69" s="604"/>
+      <c r="G69" s="493" t="s">
         <v>664</v>
       </c>
-      <c r="H69" s="618" t="s">
+      <c r="H69" s="492" t="s">
         <v>663</v>
       </c>
-      <c r="I69" s="620" t="s">
+      <c r="I69" s="494" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="618"/>
-      <c r="K69" s="621" t="s">
+      <c r="J69" s="492"/>
+      <c r="K69" s="495" t="s">
         <v>35</v>
       </c>
-      <c r="L69" s="618"/>
-      <c r="M69" s="622" t="s">
+      <c r="L69" s="492"/>
+      <c r="M69" s="496" t="s">
         <v>419</v>
       </c>
-      <c r="N69" s="623" t="str">
-        <f>Namespace &amp; $G69</f>
+      <c r="N69" s="497" t="str">
+        <f t="shared" si="3"/>
         <v>https://fairdatacollective.org/voc/dataset/distributionDateRole</v>
       </c>
-      <c r="O69" s="624" t="s">
+      <c r="O69" s="498" t="s">
         <v>258</v>
       </c>
-      <c r="P69" s="430"/>
-      <c r="Q69" s="629" t="s">
+      <c r="P69" s="350"/>
+      <c r="Q69" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R69" s="431"/>
-      <c r="S69" s="431"/>
-      <c r="T69" s="432"/>
-      <c r="U69" s="431"/>
-      <c r="V69" s="431"/>
-      <c r="W69" s="433"/>
+      <c r="R69" s="351"/>
+      <c r="S69" s="351"/>
+      <c r="T69" s="352"/>
+      <c r="U69" s="351"/>
+      <c r="V69" s="351"/>
+      <c r="W69" s="353"/>
     </row>
     <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="646" t="s">
+      <c r="A70" s="518" t="s">
         <v>675</v>
       </c>
-      <c r="B70" s="542" t="s">
+      <c r="B70" s="609" t="s">
         <v>610</v>
       </c>
-      <c r="C70" s="466" t="s">
+      <c r="C70" s="610" t="s">
         <v>259</v>
       </c>
-      <c r="D70" s="438"/>
-      <c r="E70" s="439" t="s">
+      <c r="D70" s="614"/>
+      <c r="E70" s="611" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="553" t="str">
+      <c r="F70" s="628" t="str">
         <f>Namespace &amp; LOWER($B70)</f>
         <v>https://fairdatacollective.org/voc/dataset/distributiondistributor</v>
       </c>
-      <c r="G70" s="440" t="s">
+      <c r="G70" s="357" t="s">
         <v>260</v>
       </c>
-      <c r="H70" s="503" t="s">
+      <c r="H70" s="408" t="s">
         <v>596</v>
       </c>
-      <c r="I70" s="441" t="s">
+      <c r="I70" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="J70" s="442" t="s">
+      <c r="J70" s="359" t="s">
         <v>131</v>
       </c>
-      <c r="K70" s="443" t="s">
+      <c r="K70" s="360" t="s">
         <v>118</v>
       </c>
-      <c r="L70" s="444"/>
-      <c r="M70" s="444" t="s">
+      <c r="L70" s="361"/>
+      <c r="M70" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N70" s="602" t="str">
-        <f>Namespace &amp; $G70</f>
+      <c r="N70" s="476" t="str">
+        <f t="shared" si="3"/>
         <v>https://fairdatacollective.org/voc/dataset/distributorRole</v>
       </c>
-      <c r="O70" s="445" t="s">
+      <c r="O70" s="362" t="s">
         <v>261</v>
       </c>
-      <c r="P70" s="446"/>
-      <c r="Q70" s="654" t="s">
+      <c r="P70" s="363"/>
+      <c r="Q70" s="526" t="s">
         <v>47</v>
       </c>
-      <c r="R70" s="447"/>
-      <c r="S70" s="447"/>
-      <c r="T70" s="448"/>
-      <c r="U70" s="447"/>
-      <c r="V70" s="447"/>
-      <c r="W70" s="449"/>
+      <c r="R70" s="364"/>
+      <c r="S70" s="364"/>
+      <c r="T70" s="365"/>
+      <c r="U70" s="364"/>
+      <c r="V70" s="364"/>
+      <c r="W70" s="366"/>
     </row>
     <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="646" t="s">
+      <c r="A71" s="518" t="s">
         <v>675</v>
       </c>
-      <c r="B71" s="459"/>
-      <c r="C71" s="465"/>
-      <c r="D71" s="438"/>
-      <c r="E71" s="434"/>
-      <c r="F71" s="553"/>
-      <c r="G71" s="440" t="s">
+      <c r="B71" s="599"/>
+      <c r="C71" s="608"/>
+      <c r="D71" s="614"/>
+      <c r="E71" s="612"/>
+      <c r="F71" s="628"/>
+      <c r="G71" s="357" t="s">
         <v>262</v>
       </c>
-      <c r="H71" s="503" t="s">
+      <c r="H71" s="408" t="s">
         <v>597</v>
       </c>
-      <c r="I71" s="441">
+      <c r="I71" s="358">
         <v>1</v>
       </c>
-      <c r="J71" s="444" t="s">
+      <c r="J71" s="361" t="s">
         <v>135</v>
       </c>
-      <c r="K71" s="443" t="s">
+      <c r="K71" s="360" t="s">
         <v>35</v>
       </c>
-      <c r="L71" s="444"/>
-      <c r="M71" s="444" t="s">
+      <c r="L71" s="361"/>
+      <c r="M71" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N71" s="602" t="str">
-        <f>Namespace &amp; $G71</f>
+      <c r="N71" s="476" t="str">
+        <f t="shared" si="3"/>
         <v>https://fairdatacollective.org/voc/dataset/distributorType</v>
       </c>
-      <c r="O71" s="445" t="s">
+      <c r="O71" s="362" t="s">
         <v>263</v>
       </c>
-      <c r="P71" s="446"/>
-      <c r="Q71" s="654" t="s">
+      <c r="P71" s="363"/>
+      <c r="Q71" s="526" t="s">
         <v>47</v>
       </c>
-      <c r="R71" s="447"/>
-      <c r="S71" s="447"/>
-      <c r="T71" s="448"/>
-      <c r="U71" s="447"/>
-      <c r="V71" s="447"/>
-      <c r="W71" s="449"/>
+      <c r="R71" s="364"/>
+      <c r="S71" s="364"/>
+      <c r="T71" s="365"/>
+      <c r="U71" s="364"/>
+      <c r="V71" s="364"/>
+      <c r="W71" s="366"/>
     </row>
     <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="645"/>
-      <c r="B72" s="459"/>
-      <c r="C72" s="465"/>
-      <c r="D72" s="438"/>
-      <c r="E72" s="434"/>
-      <c r="F72" s="553"/>
-      <c r="G72" s="440" t="s">
+      <c r="A72" s="517"/>
+      <c r="B72" s="599"/>
+      <c r="C72" s="608"/>
+      <c r="D72" s="614"/>
+      <c r="E72" s="612"/>
+      <c r="F72" s="628"/>
+      <c r="G72" s="357" t="s">
         <v>264</v>
       </c>
-      <c r="H72" s="503" t="s">
+      <c r="H72" s="408" t="s">
         <v>598</v>
       </c>
-      <c r="I72" s="441" t="s">
+      <c r="I72" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="J72" s="444" t="s">
+      <c r="J72" s="361" t="s">
         <v>139</v>
       </c>
-      <c r="K72" s="443" t="s">
+      <c r="K72" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="L72" s="444"/>
-      <c r="M72" s="444" t="s">
+      <c r="L72" s="361"/>
+      <c r="M72" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N72" s="442" t="s">
+      <c r="N72" s="359" t="s">
         <v>140</v>
       </c>
-      <c r="O72" s="445" t="s">
+      <c r="O72" s="362" t="s">
         <v>265</v>
       </c>
-      <c r="P72" s="446"/>
-      <c r="Q72" s="629" t="s">
+      <c r="P72" s="363"/>
+      <c r="Q72" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R72" s="447"/>
-      <c r="S72" s="447"/>
-      <c r="T72" s="448"/>
-      <c r="U72" s="447"/>
-      <c r="V72" s="447"/>
-      <c r="W72" s="449"/>
+      <c r="R72" s="364"/>
+      <c r="S72" s="364"/>
+      <c r="T72" s="365"/>
+      <c r="U72" s="364"/>
+      <c r="V72" s="364"/>
+      <c r="W72" s="366"/>
     </row>
     <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="645"/>
-      <c r="B73" s="459"/>
-      <c r="C73" s="465"/>
-      <c r="D73" s="438"/>
-      <c r="E73" s="434"/>
-      <c r="F73" s="553"/>
-      <c r="G73" s="440" t="s">
+      <c r="A73" s="517"/>
+      <c r="B73" s="599"/>
+      <c r="C73" s="608"/>
+      <c r="D73" s="614"/>
+      <c r="E73" s="612"/>
+      <c r="F73" s="628"/>
+      <c r="G73" s="357" t="s">
         <v>266</v>
       </c>
-      <c r="H73" s="503" t="s">
+      <c r="H73" s="408" t="s">
         <v>599</v>
       </c>
-      <c r="I73" s="441" t="s">
+      <c r="I73" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="J73" s="444" t="s">
+      <c r="J73" s="361" t="s">
         <v>143</v>
       </c>
-      <c r="K73" s="443" t="s">
+      <c r="K73" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="L73" s="444"/>
-      <c r="M73" s="444" t="s">
+      <c r="L73" s="361"/>
+      <c r="M73" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N73" s="442" t="s">
+      <c r="N73" s="359" t="s">
         <v>144</v>
       </c>
-      <c r="O73" s="445" t="s">
+      <c r="O73" s="362" t="s">
         <v>267</v>
       </c>
-      <c r="P73" s="446"/>
-      <c r="Q73" s="629" t="s">
+      <c r="P73" s="363"/>
+      <c r="Q73" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R73" s="447"/>
-      <c r="S73" s="447"/>
-      <c r="T73" s="448"/>
-      <c r="U73" s="447"/>
-      <c r="V73" s="447"/>
-      <c r="W73" s="449"/>
+      <c r="R73" s="364"/>
+      <c r="S73" s="364"/>
+      <c r="T73" s="365"/>
+      <c r="U73" s="364"/>
+      <c r="V73" s="364"/>
+      <c r="W73" s="366"/>
     </row>
     <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="645"/>
-      <c r="B74" s="459"/>
-      <c r="C74" s="465"/>
-      <c r="D74" s="438"/>
-      <c r="E74" s="434"/>
-      <c r="F74" s="553"/>
-      <c r="G74" s="440" t="s">
+      <c r="A74" s="517"/>
+      <c r="B74" s="599"/>
+      <c r="C74" s="608"/>
+      <c r="D74" s="614"/>
+      <c r="E74" s="612"/>
+      <c r="F74" s="628"/>
+      <c r="G74" s="357" t="s">
         <v>268</v>
       </c>
-      <c r="H74" s="503" t="s">
+      <c r="H74" s="408" t="s">
         <v>600</v>
       </c>
-      <c r="I74" s="441">
+      <c r="I74" s="358">
         <v>1</v>
       </c>
-      <c r="J74" s="442" t="s">
+      <c r="J74" s="359" t="s">
         <v>268</v>
       </c>
-      <c r="K74" s="443" t="s">
+      <c r="K74" s="360" t="s">
         <v>35</v>
       </c>
-      <c r="L74" s="444"/>
-      <c r="M74" s="444" t="s">
+      <c r="L74" s="361"/>
+      <c r="M74" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N74" s="450" t="s">
+      <c r="N74" s="699" t="s">
         <v>269</v>
       </c>
-      <c r="O74" s="445" t="s">
+      <c r="O74" s="362" t="s">
         <v>270</v>
       </c>
-      <c r="P74" s="446"/>
-      <c r="Q74" s="629" t="s">
+      <c r="P74" s="363"/>
+      <c r="Q74" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R74" s="447"/>
-      <c r="S74" s="447"/>
-      <c r="T74" s="448"/>
-      <c r="U74" s="447"/>
-      <c r="V74" s="447"/>
-      <c r="W74" s="449"/>
+      <c r="R74" s="364"/>
+      <c r="S74" s="364"/>
+      <c r="T74" s="365"/>
+      <c r="U74" s="364"/>
+      <c r="V74" s="364"/>
+      <c r="W74" s="366"/>
     </row>
     <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="645"/>
-      <c r="B75" s="459"/>
-      <c r="C75" s="465"/>
-      <c r="D75" s="438"/>
-      <c r="E75" s="434"/>
-      <c r="F75" s="553"/>
-      <c r="G75" s="440" t="s">
+      <c r="A75" s="517"/>
+      <c r="B75" s="599"/>
+      <c r="C75" s="608"/>
+      <c r="D75" s="614"/>
+      <c r="E75" s="612"/>
+      <c r="F75" s="628"/>
+      <c r="G75" s="357" t="s">
         <v>271</v>
       </c>
-      <c r="H75" s="503" t="s">
+      <c r="H75" s="408" t="s">
         <v>601</v>
       </c>
-      <c r="I75" s="441" t="s">
+      <c r="I75" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="J75" s="442" t="s">
+      <c r="J75" s="359" t="s">
         <v>131</v>
       </c>
-      <c r="K75" s="443" t="s">
+      <c r="K75" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="L75" s="444"/>
-      <c r="M75" s="444" t="s">
+      <c r="L75" s="361"/>
+      <c r="M75" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N75" s="442" t="s">
+      <c r="N75" s="359" t="s">
         <v>150</v>
       </c>
-      <c r="O75" s="445" t="s">
+      <c r="O75" s="362" t="s">
         <v>272</v>
       </c>
-      <c r="P75" s="446"/>
-      <c r="Q75" s="629" t="s">
+      <c r="P75" s="363"/>
+      <c r="Q75" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R75" s="447"/>
-      <c r="S75" s="447"/>
-      <c r="T75" s="448"/>
-      <c r="U75" s="447"/>
-      <c r="V75" s="447"/>
-      <c r="W75" s="449"/>
+      <c r="R75" s="364"/>
+      <c r="S75" s="364"/>
+      <c r="T75" s="365"/>
+      <c r="U75" s="364"/>
+      <c r="V75" s="364"/>
+      <c r="W75" s="366"/>
     </row>
     <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="645"/>
-      <c r="B76" s="459"/>
-      <c r="C76" s="465"/>
-      <c r="D76" s="438"/>
-      <c r="E76" s="434"/>
-      <c r="F76" s="553"/>
-      <c r="G76" s="440" t="s">
+      <c r="A76" s="517"/>
+      <c r="B76" s="599"/>
+      <c r="C76" s="608"/>
+      <c r="D76" s="614"/>
+      <c r="E76" s="612"/>
+      <c r="F76" s="628"/>
+      <c r="G76" s="357" t="s">
         <v>273</v>
       </c>
-      <c r="H76" s="503" t="s">
+      <c r="H76" s="408" t="s">
         <v>602</v>
       </c>
-      <c r="I76" s="441" t="s">
+      <c r="I76" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="J76" s="444" t="s">
+      <c r="J76" s="361" t="s">
         <v>154</v>
       </c>
-      <c r="K76" s="443" t="s">
+      <c r="K76" s="360" t="s">
         <v>35</v>
       </c>
-      <c r="L76" s="444"/>
-      <c r="M76" s="444" t="s">
+      <c r="L76" s="361"/>
+      <c r="M76" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N76" s="603" t="str">
-        <f>Namespace &amp; $G76</f>
+      <c r="N76" s="477" t="str">
+        <f t="shared" ref="N76:N82" si="4">Namespace &amp; $G76</f>
         <v>https://fairdatacollective.org/voc/dataset/distributorIdentifier</v>
       </c>
-      <c r="O76" s="445" t="s">
+      <c r="O76" s="362" t="s">
         <v>274</v>
       </c>
-      <c r="P76" s="446"/>
-      <c r="Q76" s="629" t="s">
+      <c r="P76" s="363"/>
+      <c r="Q76" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R76" s="447"/>
-      <c r="S76" s="447"/>
-      <c r="T76" s="448"/>
-      <c r="U76" s="447"/>
-      <c r="V76" s="447"/>
-      <c r="W76" s="449"/>
+      <c r="R76" s="364"/>
+      <c r="S76" s="364"/>
+      <c r="T76" s="365"/>
+      <c r="U76" s="364"/>
+      <c r="V76" s="364"/>
+      <c r="W76" s="366"/>
     </row>
     <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="645"/>
-      <c r="B77" s="459"/>
-      <c r="C77" s="465"/>
-      <c r="D77" s="438"/>
-      <c r="E77" s="434"/>
-      <c r="F77" s="553"/>
-      <c r="G77" s="440" t="s">
+      <c r="A77" s="517"/>
+      <c r="B77" s="599"/>
+      <c r="C77" s="608"/>
+      <c r="D77" s="614"/>
+      <c r="E77" s="612"/>
+      <c r="F77" s="628"/>
+      <c r="G77" s="357" t="s">
         <v>275</v>
       </c>
-      <c r="H77" s="503" t="s">
+      <c r="H77" s="408" t="s">
         <v>603</v>
       </c>
-      <c r="I77" s="441" t="s">
+      <c r="I77" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="J77" s="444" t="s">
+      <c r="J77" s="361" t="s">
         <v>157</v>
       </c>
-      <c r="K77" s="443" t="s">
+      <c r="K77" s="360" t="s">
         <v>35</v>
       </c>
-      <c r="L77" s="444"/>
-      <c r="M77" s="444" t="s">
+      <c r="L77" s="361"/>
+      <c r="M77" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N77" s="603" t="str">
-        <f>Namespace &amp; $G77</f>
+      <c r="N77" s="477" t="str">
+        <f t="shared" si="4"/>
         <v>https://fairdatacollective.org/voc/dataset/distributorIdentifierScheme</v>
       </c>
-      <c r="O77" s="579" t="s">
+      <c r="O77" s="454" t="s">
         <v>632</v>
       </c>
-      <c r="P77" s="446"/>
-      <c r="Q77" s="654" t="s">
+      <c r="P77" s="363"/>
+      <c r="Q77" s="526" t="s">
         <v>79</v>
       </c>
-      <c r="R77" s="447"/>
-      <c r="S77" s="447"/>
-      <c r="T77" s="448"/>
-      <c r="U77" s="447"/>
-      <c r="V77" s="447"/>
-      <c r="W77" s="449"/>
+      <c r="R77" s="364"/>
+      <c r="S77" s="364"/>
+      <c r="T77" s="365"/>
+      <c r="U77" s="364"/>
+      <c r="V77" s="364"/>
+      <c r="W77" s="366"/>
     </row>
     <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="645"/>
-      <c r="B78" s="459"/>
-      <c r="C78" s="465"/>
-      <c r="D78" s="438"/>
-      <c r="E78" s="434"/>
-      <c r="F78" s="553"/>
-      <c r="G78" s="440" t="s">
+      <c r="A78" s="517"/>
+      <c r="B78" s="599"/>
+      <c r="C78" s="608"/>
+      <c r="D78" s="614"/>
+      <c r="E78" s="612"/>
+      <c r="F78" s="628"/>
+      <c r="G78" s="357" t="s">
         <v>276</v>
       </c>
-      <c r="H78" s="503" t="s">
+      <c r="H78" s="408" t="s">
         <v>604</v>
       </c>
-      <c r="I78" s="441" t="s">
+      <c r="I78" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="J78" s="442" t="s">
+      <c r="J78" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="K78" s="443" t="s">
+      <c r="K78" s="360" t="s">
         <v>35</v>
       </c>
-      <c r="L78" s="444"/>
-      <c r="M78" s="444" t="s">
+      <c r="L78" s="361"/>
+      <c r="M78" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N78" s="603" t="str">
-        <f>Namespace &amp; $G78</f>
+      <c r="N78" s="477" t="str">
+        <f t="shared" si="4"/>
         <v>https://fairdatacollective.org/voc/dataset/distributorIdentifierSchemeIRI</v>
       </c>
-      <c r="O78" s="579" t="s">
+      <c r="O78" s="454" t="s">
         <v>631</v>
       </c>
-      <c r="P78" s="446"/>
-      <c r="Q78" s="629" t="s">
+      <c r="P78" s="363"/>
+      <c r="Q78" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R78" s="447"/>
-      <c r="S78" s="447"/>
-      <c r="T78" s="448"/>
-      <c r="U78" s="447"/>
-      <c r="V78" s="447"/>
-      <c r="W78" s="449"/>
+      <c r="R78" s="364"/>
+      <c r="S78" s="364"/>
+      <c r="T78" s="365"/>
+      <c r="U78" s="364"/>
+      <c r="V78" s="364"/>
+      <c r="W78" s="366"/>
     </row>
     <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="645"/>
-      <c r="B79" s="459"/>
-      <c r="C79" s="465"/>
-      <c r="D79" s="438"/>
-      <c r="E79" s="434"/>
-      <c r="F79" s="553"/>
-      <c r="G79" s="440" t="s">
+      <c r="A79" s="517"/>
+      <c r="B79" s="599"/>
+      <c r="C79" s="608"/>
+      <c r="D79" s="614"/>
+      <c r="E79" s="612"/>
+      <c r="F79" s="628"/>
+      <c r="G79" s="357" t="s">
         <v>277</v>
       </c>
-      <c r="H79" s="503" t="s">
+      <c r="H79" s="408" t="s">
         <v>605</v>
       </c>
-      <c r="I79" s="441" t="s">
+      <c r="I79" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="J79" s="444" t="s">
+      <c r="J79" s="361" t="s">
         <v>162</v>
       </c>
-      <c r="K79" s="443" t="s">
+      <c r="K79" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="L79" s="444"/>
-      <c r="M79" s="444" t="s">
+      <c r="L79" s="361"/>
+      <c r="M79" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N79" s="603" t="str">
-        <f>Namespace &amp; $G79</f>
+      <c r="N79" s="477" t="str">
+        <f t="shared" si="4"/>
         <v>https://fairdatacollective.org/voc/dataset/distributorAffiliation</v>
       </c>
-      <c r="O79" s="445" t="s">
+      <c r="O79" s="362" t="s">
         <v>278</v>
       </c>
-      <c r="P79" s="446"/>
-      <c r="Q79" s="629" t="s">
+      <c r="P79" s="363"/>
+      <c r="Q79" s="503" t="s">
         <v>79</v>
       </c>
-      <c r="R79" s="447"/>
-      <c r="S79" s="447"/>
-      <c r="T79" s="448"/>
-      <c r="U79" s="447"/>
-      <c r="V79" s="447"/>
-      <c r="W79" s="449"/>
+      <c r="R79" s="364"/>
+      <c r="S79" s="364"/>
+      <c r="T79" s="365"/>
+      <c r="U79" s="364"/>
+      <c r="V79" s="364"/>
+      <c r="W79" s="366"/>
     </row>
     <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="645"/>
-      <c r="B80" s="459"/>
-      <c r="C80" s="465"/>
-      <c r="D80" s="438"/>
-      <c r="E80" s="434"/>
-      <c r="F80" s="553"/>
-      <c r="G80" s="440" t="s">
+      <c r="A80" s="517"/>
+      <c r="B80" s="599"/>
+      <c r="C80" s="608"/>
+      <c r="D80" s="614"/>
+      <c r="E80" s="612"/>
+      <c r="F80" s="628"/>
+      <c r="G80" s="357" t="s">
         <v>279</v>
       </c>
-      <c r="H80" s="503" t="s">
+      <c r="H80" s="408" t="s">
         <v>606</v>
       </c>
-      <c r="I80" s="441" t="s">
+      <c r="I80" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="J80" s="444" t="s">
+      <c r="J80" s="361" t="s">
         <v>166</v>
       </c>
-      <c r="K80" s="443" t="s">
+      <c r="K80" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="L80" s="444"/>
-      <c r="M80" s="444" t="s">
+      <c r="L80" s="361"/>
+      <c r="M80" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N80" s="603" t="str">
-        <f>Namespace &amp; $G80</f>
+      <c r="N80" s="477" t="str">
+        <f t="shared" si="4"/>
         <v>https://fairdatacollective.org/voc/dataset/distributorAffiliationIdentifier</v>
       </c>
-      <c r="O80" s="445" t="s">
+      <c r="O80" s="362" t="s">
         <v>280</v>
       </c>
-      <c r="P80" s="446"/>
-      <c r="Q80" s="629" t="s">
+      <c r="P80" s="363"/>
+      <c r="Q80" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R80" s="447"/>
-      <c r="S80" s="447"/>
-      <c r="T80" s="448"/>
-      <c r="U80" s="447"/>
-      <c r="V80" s="447"/>
-      <c r="W80" s="449"/>
+      <c r="R80" s="364"/>
+      <c r="S80" s="364"/>
+      <c r="T80" s="365"/>
+      <c r="U80" s="364"/>
+      <c r="V80" s="364"/>
+      <c r="W80" s="366"/>
     </row>
     <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="645"/>
-      <c r="B81" s="459"/>
-      <c r="C81" s="465"/>
-      <c r="D81" s="438"/>
-      <c r="E81" s="434"/>
-      <c r="F81" s="553"/>
-      <c r="G81" s="440" t="s">
+      <c r="A81" s="517"/>
+      <c r="B81" s="599"/>
+      <c r="C81" s="608"/>
+      <c r="D81" s="614"/>
+      <c r="E81" s="612"/>
+      <c r="F81" s="628"/>
+      <c r="G81" s="357" t="s">
         <v>281</v>
       </c>
-      <c r="H81" s="503" t="s">
+      <c r="H81" s="408" t="s">
         <v>607</v>
       </c>
-      <c r="I81" s="441" t="s">
+      <c r="I81" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="J81" s="444" t="s">
+      <c r="J81" s="361" t="s">
         <v>170</v>
       </c>
-      <c r="K81" s="443" t="s">
+      <c r="K81" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="L81" s="444"/>
-      <c r="M81" s="444" t="s">
+      <c r="L81" s="361"/>
+      <c r="M81" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N81" s="603" t="str">
-        <f>Namespace &amp; $G81</f>
+      <c r="N81" s="477" t="str">
+        <f t="shared" si="4"/>
         <v>https://fairdatacollective.org/voc/dataset/distributorAffiliationIdentifierScheme</v>
       </c>
-      <c r="O81" s="579" t="s">
+      <c r="O81" s="454" t="s">
         <v>633</v>
       </c>
-      <c r="P81" s="446"/>
-      <c r="Q81" s="654" t="s">
+      <c r="P81" s="363"/>
+      <c r="Q81" s="526" t="s">
         <v>79</v>
       </c>
-      <c r="R81" s="447"/>
-      <c r="S81" s="447"/>
-      <c r="T81" s="448"/>
-      <c r="U81" s="447"/>
-      <c r="V81" s="447"/>
-      <c r="W81" s="449"/>
+      <c r="R81" s="364"/>
+      <c r="S81" s="364"/>
+      <c r="T81" s="365"/>
+      <c r="U81" s="364"/>
+      <c r="V81" s="364"/>
+      <c r="W81" s="366"/>
     </row>
     <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="645"/>
-      <c r="B82" s="459"/>
-      <c r="C82" s="465"/>
-      <c r="D82" s="438"/>
-      <c r="E82" s="434"/>
-      <c r="F82" s="553"/>
-      <c r="G82" s="440" t="s">
+      <c r="A82" s="517"/>
+      <c r="B82" s="599"/>
+      <c r="C82" s="608"/>
+      <c r="D82" s="614"/>
+      <c r="E82" s="612"/>
+      <c r="F82" s="628"/>
+      <c r="G82" s="357" t="s">
         <v>282</v>
       </c>
-      <c r="H82" s="503" t="s">
+      <c r="H82" s="408" t="s">
         <v>608</v>
       </c>
-      <c r="I82" s="441" t="s">
+      <c r="I82" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="J82" s="442" t="s">
+      <c r="J82" s="359" t="s">
         <v>173</v>
       </c>
-      <c r="K82" s="443" t="s">
+      <c r="K82" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="L82" s="444"/>
-      <c r="M82" s="444" t="s">
+      <c r="L82" s="361"/>
+      <c r="M82" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="N82" s="603" t="str">
-        <f>Namespace &amp; $G82</f>
+      <c r="N82" s="477" t="str">
+        <f t="shared" si="4"/>
         <v>https://fairdatacollective.org/voc/dataset/distributorAffiliationIdentifierSchemeIRI</v>
       </c>
-      <c r="O82" s="579" t="s">
+      <c r="O82" s="454" t="s">
         <v>634</v>
       </c>
-      <c r="P82" s="446"/>
-      <c r="Q82" s="629" t="s">
+      <c r="P82" s="363"/>
+      <c r="Q82" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="R82" s="447"/>
-      <c r="S82" s="447"/>
-      <c r="T82" s="448"/>
-      <c r="U82" s="447"/>
-      <c r="V82" s="447"/>
-      <c r="W82" s="449"/>
+      <c r="R82" s="364"/>
+      <c r="S82" s="364"/>
+      <c r="T82" s="365"/>
+      <c r="U82" s="364"/>
+      <c r="V82" s="364"/>
+      <c r="W82" s="366"/>
     </row>
     <row r="83" spans="1:23" s="296" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="647"/>
-      <c r="B83" s="394" t="s">
+      <c r="A83" s="519"/>
+      <c r="B83" s="325" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="539" t="s">
+      <c r="C83" s="438" t="s">
         <v>670</v>
       </c>
-      <c r="D83" s="395"/>
-      <c r="E83" s="394" t="s">
+      <c r="D83" s="326"/>
+      <c r="E83" s="325" t="s">
         <v>93</v>
       </c>
-      <c r="F83" s="554" t="str">
+      <c r="F83" s="442" t="str">
         <f>Namespace &amp; LOWER($B83)</f>
         <v>https://fairdatacollective.org/voc/dataset/content</v>
       </c>
-      <c r="G83" s="396"/>
-      <c r="H83" s="396"/>
-      <c r="I83" s="397"/>
-      <c r="J83" s="396"/>
-      <c r="K83" s="398"/>
-      <c r="L83" s="398"/>
-      <c r="M83" s="398" t="s">
+      <c r="G83" s="327"/>
+      <c r="H83" s="327"/>
+      <c r="I83" s="328"/>
+      <c r="J83" s="327"/>
+      <c r="K83" s="329"/>
+      <c r="L83" s="329"/>
+      <c r="M83" s="329" t="s">
         <v>419</v>
       </c>
-      <c r="N83" s="604"/>
-      <c r="O83" s="380"/>
-      <c r="P83" s="375"/>
-      <c r="Q83" s="376"/>
-      <c r="R83" s="377"/>
-      <c r="S83" s="377"/>
-      <c r="T83" s="378"/>
-      <c r="U83" s="379"/>
-      <c r="V83" s="379"/>
-      <c r="W83" s="379"/>
+      <c r="N83" s="478"/>
+      <c r="O83" s="316"/>
+      <c r="P83" s="311"/>
+      <c r="Q83" s="312"/>
+      <c r="R83" s="313"/>
+      <c r="S83" s="313"/>
+      <c r="T83" s="314"/>
+      <c r="U83" s="315"/>
+      <c r="V83" s="315"/>
+      <c r="W83" s="315"/>
     </row>
     <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="647"/>
-      <c r="B84" s="399" t="s">
+      <c r="A84" s="519"/>
+      <c r="B84" s="616" t="s">
         <v>519</v>
       </c>
-      <c r="C84" s="467" t="s">
+      <c r="C84" s="623" t="s">
         <v>523</v>
       </c>
-      <c r="D84" s="412"/>
-      <c r="E84" s="412" t="s">
+      <c r="D84" s="624"/>
+      <c r="E84" s="624" t="s">
         <v>93</v>
       </c>
-      <c r="F84" s="555" t="str">
+      <c r="F84" s="629" t="str">
         <f>Namespace &amp; LOWER($B84)</f>
         <v>https://fairdatacollective.org/voc/dataset/datastream</v>
       </c>
-      <c r="G84" s="469" t="s">
+      <c r="G84" s="376" t="s">
         <v>520</v>
       </c>
-      <c r="H84" s="469" t="s">
+      <c r="H84" s="376" t="s">
         <v>534</v>
       </c>
-      <c r="I84" s="415" t="s">
+      <c r="I84" s="337" t="s">
         <v>93</v>
       </c>
-      <c r="J84" s="414" t="s">
+      <c r="J84" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K84" s="470" t="s">
+      <c r="K84" s="377" t="s">
         <v>35</v>
       </c>
-      <c r="L84" s="416"/>
-      <c r="M84" s="416" t="s">
+      <c r="L84" s="338"/>
+      <c r="M84" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N84" s="605" t="str">
-        <f>Namespace &amp; $G84</f>
+      <c r="N84" s="479" t="str">
+        <f t="shared" ref="N84:N124" si="5">Namespace &amp; $G84</f>
         <v>https://fairdatacollective.org/voc/dataset/dataStream</v>
       </c>
-      <c r="O84" s="417" t="s">
+      <c r="O84" s="339" t="s">
         <v>284</v>
       </c>
-      <c r="P84" s="418"/>
-      <c r="Q84" s="669" t="s">
+      <c r="P84" s="340"/>
+      <c r="Q84" s="541" t="s">
         <v>40</v>
       </c>
-      <c r="R84" s="420"/>
-      <c r="S84" s="420"/>
-      <c r="T84" s="421"/>
-      <c r="U84" s="422"/>
-      <c r="V84" s="422"/>
-      <c r="W84" s="422" t="s">
+      <c r="R84" s="342"/>
+      <c r="S84" s="342"/>
+      <c r="T84" s="343"/>
+      <c r="U84" s="344"/>
+      <c r="V84" s="344"/>
+      <c r="W84" s="344" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="647"/>
-      <c r="B85" s="400"/>
-      <c r="C85" s="467"/>
-      <c r="D85" s="413"/>
-      <c r="E85" s="413"/>
-      <c r="F85" s="555"/>
-      <c r="G85" s="469" t="s">
+      <c r="A85" s="519"/>
+      <c r="B85" s="617"/>
+      <c r="C85" s="623"/>
+      <c r="D85" s="625"/>
+      <c r="E85" s="625"/>
+      <c r="F85" s="629"/>
+      <c r="G85" s="376" t="s">
         <v>521</v>
       </c>
-      <c r="H85" s="469" t="s">
+      <c r="H85" s="376" t="s">
         <v>535</v>
       </c>
-      <c r="I85" s="415" t="s">
-        <v>64</v>
-      </c>
-      <c r="J85" s="414" t="s">
+      <c r="I85" s="702" t="s">
+        <v>82</v>
+      </c>
+      <c r="J85" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K85" s="470" t="s">
+      <c r="K85" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="L85" s="416"/>
-      <c r="M85" s="416" t="s">
+      <c r="L85" s="338"/>
+      <c r="M85" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N85" s="605" t="str">
-        <f>Namespace &amp; $G85</f>
+      <c r="N85" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/dataStreamIRI</v>
       </c>
-      <c r="O85" s="572" t="s">
+      <c r="O85" s="447" t="s">
         <v>616</v>
       </c>
-      <c r="P85" s="418"/>
-      <c r="Q85" s="669" t="s">
+      <c r="P85" s="340"/>
+      <c r="Q85" s="541" t="s">
         <v>40</v>
       </c>
-      <c r="R85" s="420"/>
-      <c r="S85" s="420"/>
-      <c r="T85" s="421"/>
-      <c r="U85" s="422"/>
-      <c r="V85" s="422"/>
-      <c r="W85" s="422"/>
+      <c r="R85" s="342"/>
+      <c r="S85" s="342"/>
+      <c r="T85" s="343"/>
+      <c r="U85" s="344"/>
+      <c r="V85" s="344"/>
+      <c r="W85" s="344"/>
     </row>
     <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="647"/>
-      <c r="B86" s="400"/>
-      <c r="C86" s="467"/>
-      <c r="D86" s="413"/>
-      <c r="E86" s="413"/>
-      <c r="F86" s="555"/>
-      <c r="G86" s="470" t="s">
+      <c r="A86" s="519"/>
+      <c r="B86" s="617"/>
+      <c r="C86" s="623"/>
+      <c r="D86" s="625"/>
+      <c r="E86" s="625"/>
+      <c r="F86" s="629"/>
+      <c r="G86" s="377" t="s">
         <v>286</v>
       </c>
-      <c r="H86" s="470" t="s">
+      <c r="H86" s="377" t="s">
         <v>536</v>
       </c>
-      <c r="I86" s="415" t="s">
-        <v>64</v>
-      </c>
-      <c r="J86" s="414" t="s">
+      <c r="I86" s="702" t="s">
+        <v>82</v>
+      </c>
+      <c r="J86" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K86" s="470" t="s">
+      <c r="K86" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="L86" s="416"/>
-      <c r="M86" s="416" t="s">
+      <c r="L86" s="338"/>
+      <c r="M86" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N86" s="605" t="str">
-        <f>Namespace &amp; $G86</f>
+      <c r="N86" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/datastreamScheme</v>
       </c>
-      <c r="O86" s="573" t="s">
+      <c r="O86" s="448" t="s">
         <v>635</v>
       </c>
-      <c r="P86" s="418"/>
-      <c r="Q86" s="669" t="s">
+      <c r="P86" s="340"/>
+      <c r="Q86" s="541" t="s">
         <v>79</v>
       </c>
-      <c r="R86" s="420"/>
-      <c r="S86" s="420"/>
-      <c r="T86" s="421"/>
-      <c r="U86" s="422"/>
-      <c r="V86" s="422"/>
-      <c r="W86" s="422"/>
+      <c r="R86" s="342"/>
+      <c r="S86" s="342"/>
+      <c r="T86" s="343"/>
+      <c r="U86" s="344"/>
+      <c r="V86" s="344"/>
+      <c r="W86" s="344"/>
     </row>
     <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="647"/>
-      <c r="B87" s="400"/>
-      <c r="C87" s="467"/>
-      <c r="D87" s="413"/>
-      <c r="E87" s="413"/>
-      <c r="F87" s="555"/>
-      <c r="G87" s="469" t="s">
+      <c r="A87" s="519"/>
+      <c r="B87" s="617"/>
+      <c r="C87" s="623"/>
+      <c r="D87" s="625"/>
+      <c r="E87" s="625"/>
+      <c r="F87" s="629"/>
+      <c r="G87" s="376" t="s">
         <v>522</v>
       </c>
-      <c r="H87" s="469" t="s">
+      <c r="H87" s="376" t="s">
         <v>537</v>
       </c>
-      <c r="I87" s="415" t="s">
-        <v>64</v>
-      </c>
-      <c r="J87" s="414" t="s">
+      <c r="I87" s="702" t="s">
+        <v>82</v>
+      </c>
+      <c r="J87" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K87" s="470" t="s">
+      <c r="K87" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="L87" s="416"/>
-      <c r="M87" s="416" t="s">
+      <c r="L87" s="338"/>
+      <c r="M87" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N87" s="605" t="str">
-        <f>Namespace &amp; $G87</f>
+      <c r="N87" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/dataStreamSchemeIRI</v>
       </c>
-      <c r="O87" s="572" t="s">
+      <c r="O87" s="447" t="s">
         <v>636</v>
       </c>
-      <c r="P87" s="418"/>
-      <c r="Q87" s="669" t="s">
+      <c r="P87" s="340"/>
+      <c r="Q87" s="541" t="s">
         <v>40</v>
       </c>
-      <c r="R87" s="420"/>
-      <c r="S87" s="420"/>
-      <c r="T87" s="421"/>
-      <c r="U87" s="422"/>
-      <c r="V87" s="422"/>
-      <c r="W87" s="422"/>
+      <c r="R87" s="342"/>
+      <c r="S87" s="342"/>
+      <c r="T87" s="343"/>
+      <c r="U87" s="344"/>
+      <c r="V87" s="344"/>
+      <c r="W87" s="344"/>
     </row>
     <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="647"/>
-      <c r="B88" s="399" t="s">
+      <c r="A88" s="519"/>
+      <c r="B88" s="616" t="s">
         <v>517</v>
       </c>
-      <c r="C88" s="467" t="s">
+      <c r="C88" s="623" t="s">
         <v>615</v>
       </c>
-      <c r="D88" s="412"/>
-      <c r="E88" s="412">
+      <c r="D88" s="624"/>
+      <c r="E88" s="624">
         <v>1</v>
       </c>
-      <c r="F88" s="555" t="str">
+      <c r="F88" s="629" t="str">
         <f>Namespace &amp; LOWER($B88)</f>
         <v>https://fairdatacollective.org/voc/dataset/datasource</v>
       </c>
-      <c r="G88" s="414" t="s">
+      <c r="G88" s="336" t="s">
         <v>287</v>
       </c>
-      <c r="H88" s="469" t="s">
+      <c r="H88" s="376" t="s">
         <v>538</v>
       </c>
-      <c r="I88" s="415">
+      <c r="I88" s="337">
         <v>1</v>
       </c>
-      <c r="J88" s="414" t="s">
+      <c r="J88" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K88" s="416" t="s">
+      <c r="K88" s="338" t="s">
         <v>35</v>
       </c>
-      <c r="L88" s="416"/>
-      <c r="M88" s="416" t="s">
+      <c r="L88" s="338"/>
+      <c r="M88" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N88" s="605" t="str">
-        <f>Namespace &amp; $G88</f>
+      <c r="N88" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/dataSource</v>
       </c>
-      <c r="O88" s="417" t="s">
+      <c r="O88" s="339" t="s">
         <v>288</v>
       </c>
-      <c r="P88" s="423"/>
-      <c r="Q88" s="669" t="s">
+      <c r="P88" s="345"/>
+      <c r="Q88" s="541" t="s">
         <v>40</v>
       </c>
-      <c r="R88" s="420" t="s">
+      <c r="R88" s="342" t="s">
         <v>289</v>
       </c>
-      <c r="S88" s="420" t="s">
+      <c r="S88" s="342" t="s">
         <v>54</v>
       </c>
-      <c r="T88" s="421" t="s">
+      <c r="T88" s="343" t="s">
         <v>47</v>
       </c>
-      <c r="U88" s="420"/>
-      <c r="V88" s="420"/>
-      <c r="W88" s="420"/>
+      <c r="U88" s="342"/>
+      <c r="V88" s="342"/>
+      <c r="W88" s="342"/>
     </row>
     <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="647"/>
-      <c r="B89" s="400"/>
-      <c r="C89" s="471"/>
-      <c r="D89" s="413"/>
-      <c r="E89" s="413"/>
-      <c r="F89" s="555"/>
-      <c r="G89" s="414" t="s">
+      <c r="A89" s="519"/>
+      <c r="B89" s="617"/>
+      <c r="C89" s="626"/>
+      <c r="D89" s="625"/>
+      <c r="E89" s="625"/>
+      <c r="F89" s="629"/>
+      <c r="G89" s="336" t="s">
         <v>290</v>
       </c>
-      <c r="H89" s="469" t="s">
+      <c r="H89" s="376" t="s">
         <v>539</v>
       </c>
-      <c r="I89" s="670" t="s">
+      <c r="I89" s="702" t="s">
         <v>82</v>
       </c>
-      <c r="J89" s="414" t="s">
+      <c r="J89" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K89" s="416" t="s">
+      <c r="K89" s="338" t="s">
         <v>67</v>
       </c>
-      <c r="L89" s="416"/>
-      <c r="M89" s="416" t="s">
+      <c r="L89" s="338"/>
+      <c r="M89" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N89" s="605" t="str">
-        <f>Namespace &amp; $G89</f>
+      <c r="N89" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/dataSourceIRI</v>
       </c>
-      <c r="O89" s="417" t="s">
+      <c r="O89" s="339" t="s">
         <v>291</v>
       </c>
-      <c r="P89" s="423"/>
-      <c r="Q89" s="669" t="s">
+      <c r="P89" s="345"/>
+      <c r="Q89" s="541" t="s">
         <v>79</v>
       </c>
-      <c r="R89" s="420" t="s">
+      <c r="R89" s="342" t="s">
         <v>292</v>
       </c>
-      <c r="S89" s="420" t="s">
+      <c r="S89" s="342" t="s">
         <v>54</v>
       </c>
-      <c r="T89" s="421" t="s">
+      <c r="T89" s="343" t="s">
         <v>79</v>
       </c>
-      <c r="U89" s="420"/>
-      <c r="V89" s="420"/>
-      <c r="W89" s="420"/>
+      <c r="U89" s="342"/>
+      <c r="V89" s="342"/>
+      <c r="W89" s="342"/>
     </row>
     <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="647"/>
-      <c r="B90" s="400"/>
-      <c r="C90" s="471"/>
-      <c r="D90" s="413"/>
-      <c r="E90" s="413"/>
-      <c r="F90" s="555"/>
-      <c r="G90" s="414" t="s">
+      <c r="A90" s="519"/>
+      <c r="B90" s="617"/>
+      <c r="C90" s="626"/>
+      <c r="D90" s="625"/>
+      <c r="E90" s="625"/>
+      <c r="F90" s="629"/>
+      <c r="G90" s="336" t="s">
         <v>293</v>
       </c>
-      <c r="H90" s="469" t="s">
+      <c r="H90" s="376" t="s">
         <v>540</v>
       </c>
-      <c r="I90" s="415" t="s">
-        <v>64</v>
-      </c>
-      <c r="J90" s="414" t="s">
+      <c r="I90" s="702" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K90" s="470" t="s">
+      <c r="K90" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="L90" s="416"/>
-      <c r="M90" s="416" t="s">
+      <c r="L90" s="338"/>
+      <c r="M90" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N90" s="605" t="str">
-        <f>Namespace &amp; $G90</f>
+      <c r="N90" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/dataSourceScheme</v>
       </c>
-      <c r="O90" s="572" t="s">
+      <c r="O90" s="447" t="s">
         <v>637</v>
       </c>
-      <c r="P90" s="423"/>
-      <c r="Q90" s="669" t="s">
+      <c r="P90" s="345"/>
+      <c r="Q90" s="541" t="s">
         <v>79</v>
       </c>
-      <c r="R90" s="420" t="s">
+      <c r="R90" s="342" t="s">
         <v>292</v>
       </c>
-      <c r="S90" s="420" t="s">
+      <c r="S90" s="342" t="s">
         <v>294</v>
       </c>
-      <c r="T90" s="421" t="s">
+      <c r="T90" s="343" t="s">
         <v>47</v>
       </c>
-      <c r="U90" s="420"/>
-      <c r="V90" s="420"/>
-      <c r="W90" s="420"/>
+      <c r="U90" s="342"/>
+      <c r="V90" s="342"/>
+      <c r="W90" s="342"/>
     </row>
     <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="647"/>
-      <c r="B91" s="400"/>
-      <c r="C91" s="471"/>
-      <c r="D91" s="413"/>
-      <c r="E91" s="413"/>
-      <c r="F91" s="555"/>
-      <c r="G91" s="414" t="s">
+      <c r="A91" s="519"/>
+      <c r="B91" s="617"/>
+      <c r="C91" s="626"/>
+      <c r="D91" s="625"/>
+      <c r="E91" s="625"/>
+      <c r="F91" s="629"/>
+      <c r="G91" s="336" t="s">
         <v>295</v>
       </c>
-      <c r="H91" s="469" t="s">
+      <c r="H91" s="376" t="s">
         <v>541</v>
       </c>
-      <c r="I91" s="415" t="s">
-        <v>64</v>
-      </c>
-      <c r="J91" s="414" t="s">
+      <c r="I91" s="702" t="s">
+        <v>82</v>
+      </c>
+      <c r="J91" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K91" s="470" t="s">
+      <c r="K91" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="L91" s="416"/>
-      <c r="M91" s="416" t="s">
+      <c r="L91" s="338"/>
+      <c r="M91" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N91" s="605" t="str">
-        <f>Namespace &amp; $G91</f>
+      <c r="N91" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/dataSourceSchemeIRI</v>
       </c>
-      <c r="O91" s="572" t="s">
+      <c r="O91" s="447" t="s">
         <v>638</v>
       </c>
-      <c r="P91" s="423"/>
-      <c r="Q91" s="669" t="s">
+      <c r="P91" s="345"/>
+      <c r="Q91" s="541" t="s">
         <v>79</v>
       </c>
-      <c r="R91" s="420" t="s">
+      <c r="R91" s="342" t="s">
         <v>292</v>
       </c>
-      <c r="S91" s="420" t="s">
+      <c r="S91" s="342" t="s">
         <v>296</v>
       </c>
-      <c r="T91" s="421" t="s">
+      <c r="T91" s="343" t="s">
         <v>47</v>
       </c>
-      <c r="U91" s="420"/>
-      <c r="V91" s="420"/>
-      <c r="W91" s="420"/>
+      <c r="U91" s="342"/>
+      <c r="V91" s="342"/>
+      <c r="W91" s="342"/>
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="647"/>
-      <c r="B92" s="399" t="s">
+      <c r="A92" s="519"/>
+      <c r="B92" s="616" t="s">
         <v>518</v>
       </c>
-      <c r="C92" s="468" t="s">
+      <c r="C92" s="627" t="s">
         <v>524</v>
       </c>
-      <c r="D92" s="412"/>
-      <c r="E92" s="412" t="s">
+      <c r="D92" s="624"/>
+      <c r="E92" s="624" t="s">
         <v>93</v>
       </c>
-      <c r="F92" s="561" t="str">
+      <c r="F92" s="630" t="str">
         <f>Namespace &amp; LOWER($B92)</f>
         <v>https://fairdatacollective.org/voc/dataset/variable</v>
       </c>
-      <c r="G92" s="469" t="s">
+      <c r="G92" s="376" t="s">
         <v>525</v>
       </c>
-      <c r="H92" s="469" t="s">
+      <c r="H92" s="376" t="s">
         <v>518</v>
       </c>
-      <c r="I92" s="415" t="s">
+      <c r="I92" s="337" t="s">
         <v>93</v>
       </c>
-      <c r="J92" s="414" t="s">
+      <c r="J92" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K92" s="470" t="s">
+      <c r="K92" s="377" t="s">
         <v>67</v>
       </c>
-      <c r="L92" s="416"/>
-      <c r="M92" s="416" t="s">
+      <c r="L92" s="338"/>
+      <c r="M92" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N92" s="605" t="str">
-        <f>Namespace &amp; $G92</f>
+      <c r="N92" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/variable</v>
       </c>
-      <c r="O92" s="417" t="s">
+      <c r="O92" s="339" t="s">
         <v>297</v>
       </c>
-      <c r="P92" s="423"/>
-      <c r="Q92" s="419" t="s">
+      <c r="P92" s="345"/>
+      <c r="Q92" s="341" t="s">
         <v>47</v>
       </c>
-      <c r="R92" s="420" t="s">
+      <c r="R92" s="342" t="s">
         <v>289</v>
       </c>
-      <c r="S92" s="420" t="s">
+      <c r="S92" s="342" t="s">
         <v>54</v>
       </c>
-      <c r="T92" s="421" t="s">
+      <c r="T92" s="343" t="s">
         <v>47</v>
       </c>
-      <c r="U92" s="422" t="s">
+      <c r="U92" s="344" t="s">
         <v>60</v>
       </c>
-      <c r="V92" s="422" t="s">
+      <c r="V92" s="344" t="s">
         <v>298</v>
       </c>
-      <c r="W92" s="422" t="s">
+      <c r="W92" s="344" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="647"/>
-      <c r="B93" s="399"/>
-      <c r="C93" s="468"/>
-      <c r="D93" s="412"/>
-      <c r="E93" s="412"/>
-      <c r="F93" s="561"/>
-      <c r="G93" s="469" t="s">
+      <c r="A93" s="519"/>
+      <c r="B93" s="616"/>
+      <c r="C93" s="627"/>
+      <c r="D93" s="624"/>
+      <c r="E93" s="624"/>
+      <c r="F93" s="630"/>
+      <c r="G93" s="376" t="s">
         <v>526</v>
       </c>
-      <c r="H93" s="469" t="s">
+      <c r="H93" s="376" t="s">
         <v>530</v>
       </c>
-      <c r="I93" s="415" t="s">
-        <v>64</v>
-      </c>
-      <c r="J93" s="414" t="s">
+      <c r="I93" s="702" t="s">
+        <v>82</v>
+      </c>
+      <c r="J93" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K93" s="416" t="s">
+      <c r="K93" s="338" t="s">
         <v>118</v>
       </c>
-      <c r="L93" s="416"/>
-      <c r="M93" s="416" t="s">
+      <c r="L93" s="338"/>
+      <c r="M93" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N93" s="605" t="str">
-        <f>Namespace &amp; $G93</f>
+      <c r="N93" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/variableIRI</v>
       </c>
-      <c r="O93" s="417" t="s">
+      <c r="O93" s="339" t="s">
         <v>300</v>
       </c>
-      <c r="P93" s="423"/>
-      <c r="Q93" s="669" t="s">
+      <c r="P93" s="345"/>
+      <c r="Q93" s="541" t="s">
         <v>40</v>
       </c>
-      <c r="R93" s="420" t="s">
+      <c r="R93" s="342" t="s">
         <v>289</v>
       </c>
-      <c r="S93" s="420" t="s">
+      <c r="S93" s="342" t="s">
         <v>54</v>
       </c>
-      <c r="T93" s="421" t="s">
+      <c r="T93" s="343" t="s">
         <v>40</v>
       </c>
-      <c r="U93" s="420"/>
-      <c r="V93" s="420"/>
-      <c r="W93" s="420"/>
+      <c r="U93" s="342"/>
+      <c r="V93" s="342"/>
+      <c r="W93" s="342"/>
     </row>
     <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="647"/>
-      <c r="B94" s="399"/>
-      <c r="C94" s="468"/>
-      <c r="D94" s="412"/>
-      <c r="E94" s="412"/>
-      <c r="F94" s="561"/>
-      <c r="G94" s="469" t="s">
+      <c r="A94" s="519"/>
+      <c r="B94" s="616"/>
+      <c r="C94" s="627"/>
+      <c r="D94" s="624"/>
+      <c r="E94" s="624"/>
+      <c r="F94" s="630"/>
+      <c r="G94" s="376" t="s">
         <v>527</v>
       </c>
-      <c r="H94" s="469" t="s">
+      <c r="H94" s="376" t="s">
         <v>531</v>
       </c>
-      <c r="I94" s="415" t="s">
-        <v>64</v>
-      </c>
-      <c r="J94" s="414" t="s">
+      <c r="I94" s="702" t="s">
+        <v>82</v>
+      </c>
+      <c r="J94" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K94" s="416" t="s">
+      <c r="K94" s="338" t="s">
         <v>118</v>
       </c>
-      <c r="L94" s="416"/>
-      <c r="M94" s="416" t="s">
+      <c r="L94" s="338"/>
+      <c r="M94" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N94" s="605" t="str">
-        <f>Namespace &amp; $G94</f>
+      <c r="N94" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/variableScheme</v>
       </c>
-      <c r="O94" s="572" t="s">
+      <c r="O94" s="447" t="s">
         <v>639</v>
       </c>
-      <c r="P94" s="423"/>
-      <c r="Q94" s="669" t="s">
+      <c r="P94" s="345"/>
+      <c r="Q94" s="541" t="s">
         <v>79</v>
       </c>
-      <c r="R94" s="420" t="s">
+      <c r="R94" s="342" t="s">
         <v>289</v>
       </c>
-      <c r="S94" s="420" t="s">
+      <c r="S94" s="342" t="s">
         <v>301</v>
       </c>
-      <c r="T94" s="421" t="s">
+      <c r="T94" s="343" t="s">
         <v>47</v>
       </c>
-      <c r="U94" s="420"/>
-      <c r="V94" s="420"/>
-      <c r="W94" s="420"/>
+      <c r="U94" s="342"/>
+      <c r="V94" s="342"/>
+      <c r="W94" s="342"/>
     </row>
     <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="647"/>
-      <c r="B95" s="399"/>
-      <c r="C95" s="468"/>
-      <c r="D95" s="412"/>
-      <c r="E95" s="412"/>
-      <c r="F95" s="561"/>
-      <c r="G95" s="469" t="s">
+      <c r="A95" s="519"/>
+      <c r="B95" s="616"/>
+      <c r="C95" s="627"/>
+      <c r="D95" s="624"/>
+      <c r="E95" s="624"/>
+      <c r="F95" s="630"/>
+      <c r="G95" s="376" t="s">
         <v>528</v>
       </c>
-      <c r="H95" s="469" t="s">
+      <c r="H95" s="376" t="s">
         <v>532</v>
       </c>
-      <c r="I95" s="415" t="s">
-        <v>64</v>
-      </c>
-      <c r="J95" s="414" t="s">
+      <c r="I95" s="702" t="s">
+        <v>82</v>
+      </c>
+      <c r="J95" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K95" s="416" t="s">
+      <c r="K95" s="338" t="s">
         <v>118</v>
       </c>
-      <c r="L95" s="416"/>
-      <c r="M95" s="416" t="s">
+      <c r="L95" s="338"/>
+      <c r="M95" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N95" s="605" t="str">
-        <f>Namespace &amp; $G95</f>
+      <c r="N95" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/variableSchemeIRI</v>
       </c>
-      <c r="O95" s="572" t="s">
+      <c r="O95" s="447" t="s">
         <v>640</v>
       </c>
-      <c r="P95" s="423"/>
-      <c r="Q95" s="669" t="s">
+      <c r="P95" s="345"/>
+      <c r="Q95" s="541" t="s">
         <v>79</v>
       </c>
-      <c r="R95" s="420" t="s">
+      <c r="R95" s="342" t="s">
         <v>289</v>
       </c>
-      <c r="S95" s="420" t="s">
+      <c r="S95" s="342" t="s">
         <v>302</v>
       </c>
-      <c r="T95" s="421" t="s">
+      <c r="T95" s="343" t="s">
         <v>47</v>
       </c>
-      <c r="U95" s="420"/>
-      <c r="V95" s="420"/>
-      <c r="W95" s="420"/>
+      <c r="U95" s="342"/>
+      <c r="V95" s="342"/>
+      <c r="W95" s="342"/>
     </row>
     <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="647"/>
-      <c r="B96" s="399"/>
-      <c r="C96" s="468"/>
-      <c r="D96" s="412"/>
-      <c r="E96" s="412"/>
-      <c r="F96" s="561"/>
-      <c r="G96" s="469" t="s">
+      <c r="A96" s="519"/>
+      <c r="B96" s="616"/>
+      <c r="C96" s="627"/>
+      <c r="D96" s="624"/>
+      <c r="E96" s="624"/>
+      <c r="F96" s="630"/>
+      <c r="G96" s="376" t="s">
         <v>529</v>
       </c>
-      <c r="H96" s="469" t="s">
+      <c r="H96" s="376" t="s">
         <v>533</v>
       </c>
-      <c r="I96" s="415" t="s">
+      <c r="I96" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="J96" s="414" t="s">
+      <c r="J96" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="K96" s="416" t="s">
+      <c r="K96" s="338" t="s">
         <v>118</v>
       </c>
-      <c r="L96" s="416"/>
-      <c r="M96" s="416" t="s">
+      <c r="L96" s="338"/>
+      <c r="M96" s="338" t="s">
         <v>419</v>
       </c>
-      <c r="N96" s="605" t="str">
-        <f>Namespace &amp; $G96</f>
+      <c r="N96" s="479" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/variableSourceIRI</v>
       </c>
-      <c r="O96" s="417" t="s">
+      <c r="O96" s="339" t="s">
         <v>303</v>
       </c>
-      <c r="P96" s="423"/>
-      <c r="Q96" s="669" t="s">
+      <c r="P96" s="345"/>
+      <c r="Q96" s="541" t="s">
         <v>79</v>
       </c>
-      <c r="R96" s="420"/>
-      <c r="S96" s="420"/>
-      <c r="T96" s="421"/>
-      <c r="U96" s="420"/>
-      <c r="V96" s="420"/>
-      <c r="W96" s="420"/>
+      <c r="R96" s="342"/>
+      <c r="S96" s="342"/>
+      <c r="T96" s="343"/>
+      <c r="U96" s="342"/>
+      <c r="V96" s="342"/>
+      <c r="W96" s="342"/>
     </row>
     <row r="97" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="648"/>
-      <c r="B97" s="504" t="s">
+      <c r="A97" s="520"/>
+      <c r="B97" s="618" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="505" t="s">
+      <c r="C97" s="620" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="506"/>
-      <c r="E97" s="504" t="s">
+      <c r="D97" s="615"/>
+      <c r="E97" s="618" t="s">
         <v>82</v>
       </c>
-      <c r="F97" s="556" t="str">
+      <c r="F97" s="622" t="str">
         <f>Namespace &amp; LOWER($B97)</f>
         <v>https://fairdatacollective.org/voc/dataset/spatialcoverage</v>
       </c>
-      <c r="G97" s="507" t="s">
+      <c r="G97" s="409" t="s">
         <v>309</v>
       </c>
-      <c r="H97" s="582" t="s">
+      <c r="H97" s="457" t="s">
         <v>647</v>
       </c>
-      <c r="I97" s="587">
+      <c r="I97" s="461">
         <v>1</v>
       </c>
-      <c r="J97" s="508"/>
-      <c r="K97" s="671" t="s">
+      <c r="J97" s="410"/>
+      <c r="K97" s="542" t="s">
         <v>118</v>
       </c>
-      <c r="L97" s="508"/>
-      <c r="M97" s="508" t="s">
+      <c r="L97" s="410"/>
+      <c r="M97" s="410" t="s">
         <v>419</v>
       </c>
-      <c r="N97" s="606" t="str">
-        <f>Namespace &amp; $G97</f>
+      <c r="N97" s="480" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/pointLatitude</v>
       </c>
-      <c r="O97" s="509" t="s">
+      <c r="O97" s="411" t="s">
         <v>310</v>
       </c>
-      <c r="P97" s="510"/>
-      <c r="Q97" s="511" t="s">
+      <c r="P97" s="412"/>
+      <c r="Q97" s="413" t="s">
         <v>40</v>
       </c>
-      <c r="R97" s="512" t="s">
+      <c r="R97" s="414" t="s">
         <v>54</v>
       </c>
-      <c r="S97" s="512" t="s">
+      <c r="S97" s="414" t="s">
         <v>54</v>
       </c>
-      <c r="T97" s="513" t="s">
+      <c r="T97" s="415" t="s">
         <v>79</v>
       </c>
-      <c r="U97" s="514" t="s">
+      <c r="U97" s="416" t="s">
         <v>48</v>
       </c>
-      <c r="V97" s="512"/>
-      <c r="W97" s="515" t="s">
+      <c r="V97" s="414"/>
+      <c r="W97" s="417" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="648"/>
-      <c r="B98" s="516"/>
-      <c r="C98" s="517"/>
-      <c r="D98" s="506"/>
-      <c r="E98" s="516"/>
-      <c r="F98" s="556"/>
-      <c r="G98" s="582" t="s">
+      <c r="A98" s="520"/>
+      <c r="B98" s="619"/>
+      <c r="C98" s="621"/>
+      <c r="D98" s="615"/>
+      <c r="E98" s="619"/>
+      <c r="F98" s="622"/>
+      <c r="G98" s="457" t="s">
         <v>306</v>
       </c>
-      <c r="H98" s="582" t="s">
+      <c r="H98" s="457" t="s">
         <v>646</v>
       </c>
-      <c r="I98" s="587">
+      <c r="I98" s="461">
         <v>2</v>
       </c>
-      <c r="J98" s="508"/>
-      <c r="K98" s="671" t="s">
+      <c r="J98" s="410"/>
+      <c r="K98" s="542" t="s">
         <v>118</v>
       </c>
-      <c r="L98" s="508"/>
-      <c r="M98" s="508" t="s">
+      <c r="L98" s="410"/>
+      <c r="M98" s="410" t="s">
         <v>419</v>
       </c>
-      <c r="N98" s="606" t="str">
-        <f>Namespace &amp; $G98</f>
+      <c r="N98" s="480" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/pointLongitude</v>
       </c>
-      <c r="O98" s="679" t="s">
+      <c r="O98" s="550" t="s">
         <v>307</v>
       </c>
-      <c r="P98" s="510"/>
-      <c r="Q98" s="680" t="s">
+      <c r="P98" s="412"/>
+      <c r="Q98" s="551" t="s">
         <v>40</v>
       </c>
-      <c r="R98" s="512"/>
-      <c r="S98" s="512"/>
-      <c r="T98" s="513"/>
-      <c r="U98" s="518"/>
-      <c r="V98" s="512"/>
-      <c r="W98" s="515"/>
+      <c r="R98" s="414"/>
+      <c r="S98" s="414"/>
+      <c r="T98" s="415"/>
+      <c r="U98" s="418"/>
+      <c r="V98" s="414"/>
+      <c r="W98" s="417"/>
     </row>
     <row r="99" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="648"/>
-      <c r="B99" s="516"/>
-      <c r="C99" s="517"/>
-      <c r="D99" s="506"/>
-      <c r="E99" s="516"/>
-      <c r="F99" s="556"/>
-      <c r="G99" s="527" t="s">
+      <c r="A99" s="520"/>
+      <c r="B99" s="619"/>
+      <c r="C99" s="621"/>
+      <c r="D99" s="615"/>
+      <c r="E99" s="619"/>
+      <c r="F99" s="622"/>
+      <c r="G99" s="427" t="s">
         <v>311</v>
       </c>
-      <c r="H99" s="583" t="s">
+      <c r="H99" s="458" t="s">
         <v>648</v>
       </c>
-      <c r="I99" s="528">
+      <c r="I99" s="428">
         <v>1</v>
       </c>
-      <c r="J99" s="529"/>
-      <c r="K99" s="672" t="s">
+      <c r="J99" s="429"/>
+      <c r="K99" s="543" t="s">
         <v>118</v>
       </c>
-      <c r="L99" s="529"/>
-      <c r="M99" s="529" t="s">
+      <c r="L99" s="429"/>
+      <c r="M99" s="429" t="s">
         <v>419</v>
       </c>
-      <c r="N99" s="607" t="str">
-        <f>Namespace &amp; $G99</f>
+      <c r="N99" s="481" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/westBoundLongitude</v>
       </c>
-      <c r="O99" s="530" t="s">
+      <c r="O99" s="430" t="s">
         <v>312</v>
       </c>
-      <c r="P99" s="531"/>
-      <c r="Q99" s="532" t="s">
+      <c r="P99" s="431"/>
+      <c r="Q99" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="R99" s="533" t="s">
+      <c r="R99" s="433" t="s">
         <v>54</v>
       </c>
-      <c r="S99" s="533" t="s">
+      <c r="S99" s="433" t="s">
         <v>54</v>
       </c>
-      <c r="T99" s="534" t="s">
+      <c r="T99" s="434" t="s">
         <v>79</v>
       </c>
-      <c r="U99" s="535" t="s">
+      <c r="U99" s="435" t="s">
         <v>48</v>
       </c>
-      <c r="V99" s="533"/>
-      <c r="W99" s="536" t="s">
+      <c r="V99" s="433"/>
+      <c r="W99" s="436" t="s">
         <v>308</v>
       </c>
       <c r="X99" s="191"/>
@@ -10378,46 +10414,46 @@
       <c r="AJ99" s="191"/>
     </row>
     <row r="100" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="648"/>
-      <c r="B100" s="516"/>
-      <c r="C100" s="517"/>
-      <c r="D100" s="506"/>
-      <c r="E100" s="516"/>
-      <c r="F100" s="556"/>
-      <c r="G100" s="527" t="s">
+      <c r="A100" s="520"/>
+      <c r="B100" s="619"/>
+      <c r="C100" s="621"/>
+      <c r="D100" s="615"/>
+      <c r="E100" s="619"/>
+      <c r="F100" s="622"/>
+      <c r="G100" s="427" t="s">
         <v>313</v>
       </c>
-      <c r="H100" s="583" t="s">
+      <c r="H100" s="458" t="s">
         <v>649</v>
       </c>
-      <c r="I100" s="528">
+      <c r="I100" s="428">
         <v>1</v>
       </c>
-      <c r="J100" s="529"/>
-      <c r="K100" s="672" t="s">
+      <c r="J100" s="429"/>
+      <c r="K100" s="543" t="s">
         <v>118</v>
       </c>
-      <c r="L100" s="529"/>
-      <c r="M100" s="529" t="s">
+      <c r="L100" s="429"/>
+      <c r="M100" s="429" t="s">
         <v>419</v>
       </c>
-      <c r="N100" s="607" t="str">
-        <f>Namespace &amp; $G100</f>
+      <c r="N100" s="481" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/eastBoundLongitude</v>
       </c>
-      <c r="O100" s="530" t="s">
+      <c r="O100" s="430" t="s">
         <v>314</v>
       </c>
-      <c r="P100" s="531"/>
-      <c r="Q100" s="532" t="s">
+      <c r="P100" s="431"/>
+      <c r="Q100" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="R100" s="533"/>
-      <c r="S100" s="533"/>
-      <c r="T100" s="534"/>
-      <c r="U100" s="537"/>
-      <c r="V100" s="533"/>
-      <c r="W100" s="536"/>
+      <c r="R100" s="433"/>
+      <c r="S100" s="433"/>
+      <c r="T100" s="434"/>
+      <c r="U100" s="437"/>
+      <c r="V100" s="433"/>
+      <c r="W100" s="436"/>
       <c r="X100" s="191"/>
       <c r="Y100" s="191"/>
       <c r="Z100" s="191"/>
@@ -10433,46 +10469,46 @@
       <c r="AJ100" s="191"/>
     </row>
     <row r="101" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="648"/>
-      <c r="B101" s="516"/>
-      <c r="C101" s="517"/>
-      <c r="D101" s="506"/>
-      <c r="E101" s="516"/>
-      <c r="F101" s="556"/>
-      <c r="G101" s="527" t="s">
+      <c r="A101" s="520"/>
+      <c r="B101" s="619"/>
+      <c r="C101" s="621"/>
+      <c r="D101" s="615"/>
+      <c r="E101" s="619"/>
+      <c r="F101" s="622"/>
+      <c r="G101" s="427" t="s">
         <v>315</v>
       </c>
-      <c r="H101" s="583" t="s">
+      <c r="H101" s="458" t="s">
         <v>650</v>
       </c>
-      <c r="I101" s="528">
+      <c r="I101" s="428">
         <v>1</v>
       </c>
-      <c r="J101" s="529"/>
-      <c r="K101" s="672" t="s">
+      <c r="J101" s="429"/>
+      <c r="K101" s="543" t="s">
         <v>118</v>
       </c>
-      <c r="L101" s="529"/>
-      <c r="M101" s="529" t="s">
+      <c r="L101" s="429"/>
+      <c r="M101" s="429" t="s">
         <v>419</v>
       </c>
-      <c r="N101" s="607" t="str">
-        <f>Namespace &amp; $G101</f>
+      <c r="N101" s="481" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/southBoundLatitude</v>
       </c>
-      <c r="O101" s="530" t="s">
+      <c r="O101" s="430" t="s">
         <v>316</v>
       </c>
-      <c r="P101" s="531"/>
-      <c r="Q101" s="532" t="s">
+      <c r="P101" s="431"/>
+      <c r="Q101" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="R101" s="533"/>
-      <c r="S101" s="533"/>
-      <c r="T101" s="534"/>
-      <c r="U101" s="537"/>
-      <c r="V101" s="533"/>
-      <c r="W101" s="536"/>
+      <c r="R101" s="433"/>
+      <c r="S101" s="433"/>
+      <c r="T101" s="434"/>
+      <c r="U101" s="437"/>
+      <c r="V101" s="433"/>
+      <c r="W101" s="436"/>
       <c r="X101" s="191"/>
       <c r="Y101" s="191"/>
       <c r="Z101" s="191"/>
@@ -10488,46 +10524,46 @@
       <c r="AJ101" s="191"/>
     </row>
     <row r="102" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="648"/>
-      <c r="B102" s="516"/>
-      <c r="C102" s="517"/>
-      <c r="D102" s="506"/>
-      <c r="E102" s="516"/>
-      <c r="F102" s="556"/>
-      <c r="G102" s="527" t="s">
+      <c r="A102" s="520"/>
+      <c r="B102" s="619"/>
+      <c r="C102" s="621"/>
+      <c r="D102" s="615"/>
+      <c r="E102" s="619"/>
+      <c r="F102" s="622"/>
+      <c r="G102" s="427" t="s">
         <v>317</v>
       </c>
-      <c r="H102" s="583" t="s">
+      <c r="H102" s="458" t="s">
         <v>651</v>
       </c>
-      <c r="I102" s="528">
+      <c r="I102" s="428">
         <v>1</v>
       </c>
-      <c r="J102" s="529"/>
-      <c r="K102" s="672" t="s">
+      <c r="J102" s="429"/>
+      <c r="K102" s="543" t="s">
         <v>118</v>
       </c>
-      <c r="L102" s="529"/>
-      <c r="M102" s="529" t="s">
+      <c r="L102" s="429"/>
+      <c r="M102" s="429" t="s">
         <v>419</v>
       </c>
-      <c r="N102" s="607" t="str">
-        <f>Namespace &amp; $G102</f>
+      <c r="N102" s="481" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/northBoundLatitude</v>
       </c>
-      <c r="O102" s="530" t="s">
+      <c r="O102" s="430" t="s">
         <v>318</v>
       </c>
-      <c r="P102" s="531"/>
-      <c r="Q102" s="532" t="s">
+      <c r="P102" s="431"/>
+      <c r="Q102" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="R102" s="533"/>
-      <c r="S102" s="533"/>
-      <c r="T102" s="534"/>
-      <c r="U102" s="537"/>
-      <c r="V102" s="533"/>
-      <c r="W102" s="536"/>
+      <c r="R102" s="433"/>
+      <c r="S102" s="433"/>
+      <c r="T102" s="434"/>
+      <c r="U102" s="437"/>
+      <c r="V102" s="433"/>
+      <c r="W102" s="436"/>
       <c r="X102" s="191"/>
       <c r="Y102" s="191"/>
       <c r="Z102" s="191"/>
@@ -10543,46 +10579,46 @@
       <c r="AJ102" s="191"/>
     </row>
     <row r="103" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="648"/>
-      <c r="B103" s="516"/>
-      <c r="C103" s="517"/>
-      <c r="D103" s="506"/>
-      <c r="E103" s="516"/>
-      <c r="F103" s="556"/>
-      <c r="G103" s="584" t="s">
+      <c r="A103" s="520"/>
+      <c r="B103" s="619"/>
+      <c r="C103" s="621"/>
+      <c r="D103" s="615"/>
+      <c r="E103" s="619"/>
+      <c r="F103" s="622"/>
+      <c r="G103" s="459" t="s">
         <v>653</v>
       </c>
-      <c r="H103" s="584" t="s">
+      <c r="H103" s="459" t="s">
         <v>652</v>
       </c>
-      <c r="I103" s="519" t="s">
+      <c r="I103" s="419" t="s">
         <v>93</v>
       </c>
-      <c r="J103" s="520"/>
-      <c r="K103" s="673" t="s">
+      <c r="J103" s="420"/>
+      <c r="K103" s="544" t="s">
         <v>118</v>
       </c>
-      <c r="L103" s="520"/>
-      <c r="M103" s="520" t="s">
+      <c r="L103" s="420"/>
+      <c r="M103" s="420" t="s">
         <v>419</v>
       </c>
-      <c r="N103" s="608" t="str">
-        <f>Namespace &amp; $G103</f>
+      <c r="N103" s="482" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/geoLocationDescription</v>
       </c>
-      <c r="O103" s="521" t="s">
+      <c r="O103" s="421" t="s">
         <v>319</v>
       </c>
-      <c r="P103" s="522"/>
-      <c r="Q103" s="681" t="s">
+      <c r="P103" s="422"/>
+      <c r="Q103" s="552" t="s">
         <v>79</v>
       </c>
-      <c r="R103" s="523"/>
-      <c r="S103" s="523"/>
-      <c r="T103" s="524"/>
-      <c r="U103" s="526"/>
-      <c r="V103" s="523"/>
-      <c r="W103" s="525"/>
+      <c r="R103" s="423"/>
+      <c r="S103" s="423"/>
+      <c r="T103" s="424"/>
+      <c r="U103" s="426"/>
+      <c r="V103" s="423"/>
+      <c r="W103" s="425"/>
       <c r="X103" s="191"/>
       <c r="Y103" s="191"/>
       <c r="Z103" s="191"/>
@@ -10598,48 +10634,48 @@
       <c r="AJ103" s="191"/>
     </row>
     <row r="104" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="649" t="s">
+      <c r="A104" s="521" t="s">
         <v>678</v>
       </c>
-      <c r="B104" s="516"/>
-      <c r="C104" s="517"/>
-      <c r="D104" s="506"/>
-      <c r="E104" s="516"/>
-      <c r="F104" s="556"/>
-      <c r="G104" s="585" t="s">
+      <c r="B104" s="619"/>
+      <c r="C104" s="621"/>
+      <c r="D104" s="615"/>
+      <c r="E104" s="619"/>
+      <c r="F104" s="622"/>
+      <c r="G104" s="698" t="s">
         <v>655</v>
       </c>
-      <c r="H104" s="585" t="s">
+      <c r="H104" s="698" t="s">
         <v>682</v>
       </c>
-      <c r="I104" s="586" t="s">
+      <c r="I104" s="460" t="s">
         <v>320</v>
       </c>
-      <c r="J104" s="529"/>
-      <c r="K104" s="672" t="s">
+      <c r="J104" s="429"/>
+      <c r="K104" s="543" t="s">
         <v>118</v>
       </c>
-      <c r="L104" s="529"/>
-      <c r="M104" s="529" t="s">
+      <c r="L104" s="429"/>
+      <c r="M104" s="429" t="s">
         <v>419</v>
       </c>
-      <c r="N104" s="607" t="str">
-        <f>Namespace &amp; $G104</f>
+      <c r="N104" s="481" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/areaPointLatitude</v>
       </c>
-      <c r="O104" s="678" t="s">
+      <c r="O104" s="549" t="s">
         <v>680</v>
       </c>
-      <c r="P104" s="531"/>
-      <c r="Q104" s="682" t="s">
+      <c r="P104" s="431"/>
+      <c r="Q104" s="553" t="s">
         <v>40</v>
       </c>
-      <c r="R104" s="533"/>
-      <c r="S104" s="533"/>
-      <c r="T104" s="534"/>
-      <c r="U104" s="537"/>
-      <c r="V104" s="533"/>
-      <c r="W104" s="536"/>
+      <c r="R104" s="433"/>
+      <c r="S104" s="433"/>
+      <c r="T104" s="434"/>
+      <c r="U104" s="437"/>
+      <c r="V104" s="433"/>
+      <c r="W104" s="436"/>
       <c r="X104" s="191"/>
       <c r="Y104" s="191"/>
       <c r="Z104" s="191"/>
@@ -10655,46 +10691,46 @@
       <c r="AJ104" s="191"/>
     </row>
     <row r="105" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="648"/>
-      <c r="B105" s="516"/>
-      <c r="C105" s="517"/>
-      <c r="D105" s="506"/>
-      <c r="E105" s="516"/>
-      <c r="F105" s="556"/>
-      <c r="G105" s="585" t="s">
+      <c r="A105" s="520"/>
+      <c r="B105" s="619"/>
+      <c r="C105" s="621"/>
+      <c r="D105" s="615"/>
+      <c r="E105" s="619"/>
+      <c r="F105" s="622"/>
+      <c r="G105" s="698" t="s">
         <v>654</v>
       </c>
-      <c r="H105" s="585" t="s">
+      <c r="H105" s="698" t="s">
         <v>681</v>
       </c>
-      <c r="I105" s="586" t="s">
+      <c r="I105" s="460" t="s">
         <v>320</v>
       </c>
-      <c r="J105" s="529"/>
-      <c r="K105" s="672" t="s">
+      <c r="J105" s="429"/>
+      <c r="K105" s="543" t="s">
         <v>118</v>
       </c>
-      <c r="L105" s="529"/>
-      <c r="M105" s="529" t="s">
+      <c r="L105" s="429"/>
+      <c r="M105" s="429" t="s">
         <v>419</v>
       </c>
-      <c r="N105" s="607" t="str">
-        <f>Namespace &amp; $G105</f>
+      <c r="N105" s="481" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/areaPointLongitude</v>
       </c>
-      <c r="O105" s="678" t="s">
+      <c r="O105" s="549" t="s">
         <v>679</v>
       </c>
-      <c r="P105" s="531"/>
-      <c r="Q105" s="682" t="s">
+      <c r="P105" s="431"/>
+      <c r="Q105" s="553" t="s">
         <v>40</v>
       </c>
-      <c r="R105" s="533"/>
-      <c r="S105" s="533"/>
-      <c r="T105" s="534"/>
-      <c r="U105" s="537"/>
-      <c r="V105" s="533"/>
-      <c r="W105" s="536"/>
+      <c r="R105" s="433"/>
+      <c r="S105" s="433"/>
+      <c r="T105" s="434"/>
+      <c r="U105" s="437"/>
+      <c r="V105" s="433"/>
+      <c r="W105" s="436"/>
       <c r="X105" s="191"/>
       <c r="Y105" s="191"/>
       <c r="Z105" s="191"/>
@@ -10710,47 +10746,47 @@
       <c r="AJ105" s="191"/>
     </row>
     <row r="106" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="650"/>
-      <c r="B106" s="401" t="s">
+      <c r="A106" s="522"/>
+      <c r="B106" s="563" t="s">
         <v>321</v>
       </c>
-      <c r="C106" s="402" t="s">
+      <c r="C106" s="564" t="s">
         <v>322</v>
       </c>
-      <c r="D106" s="402"/>
-      <c r="E106" s="401" t="s">
+      <c r="D106" s="564"/>
+      <c r="E106" s="563" t="s">
         <v>82</v>
       </c>
-      <c r="F106" s="557" t="str">
+      <c r="F106" s="565" t="str">
         <f>Namespace &amp; LOWER($B106)</f>
         <v>https://fairdatacollective.org/voc/dataset/verticalcoverage</v>
       </c>
-      <c r="G106" s="403" t="s">
+      <c r="G106" s="330" t="s">
         <v>323</v>
       </c>
-      <c r="H106" s="581" t="s">
+      <c r="H106" s="456" t="s">
         <v>683</v>
       </c>
-      <c r="I106" s="404">
+      <c r="I106" s="331">
         <v>1</v>
       </c>
-      <c r="J106" s="403"/>
-      <c r="K106" s="674" t="s">
+      <c r="J106" s="330"/>
+      <c r="K106" s="545" t="s">
         <v>118</v>
       </c>
-      <c r="L106" s="405"/>
-      <c r="M106" s="405" t="s">
+      <c r="L106" s="332"/>
+      <c r="M106" s="332" t="s">
         <v>419</v>
       </c>
-      <c r="N106" s="609" t="str">
-        <f>Namespace &amp; $G106</f>
+      <c r="N106" s="483" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/verticalExtentMaximumValue</v>
       </c>
-      <c r="O106" s="381" t="s">
+      <c r="O106" s="317" t="s">
         <v>324</v>
       </c>
       <c r="P106" s="193"/>
-      <c r="Q106" s="683" t="s">
+      <c r="Q106" s="554" t="s">
         <v>40</v>
       </c>
       <c r="R106" s="192"/>
@@ -10774,38 +10810,38 @@
       <c r="AJ106" s="195"/>
     </row>
     <row r="107" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="650"/>
-      <c r="B107" s="401"/>
-      <c r="C107" s="402"/>
-      <c r="D107" s="402"/>
-      <c r="E107" s="401"/>
-      <c r="F107" s="557"/>
-      <c r="G107" s="403" t="s">
+      <c r="A107" s="522"/>
+      <c r="B107" s="563"/>
+      <c r="C107" s="564"/>
+      <c r="D107" s="564"/>
+      <c r="E107" s="563"/>
+      <c r="F107" s="565"/>
+      <c r="G107" s="330" t="s">
         <v>325</v>
       </c>
-      <c r="H107" s="581" t="s">
+      <c r="H107" s="456" t="s">
         <v>684</v>
       </c>
-      <c r="I107" s="404">
+      <c r="I107" s="331">
         <v>1</v>
       </c>
-      <c r="J107" s="403"/>
-      <c r="K107" s="674" t="s">
+      <c r="J107" s="330"/>
+      <c r="K107" s="545" t="s">
         <v>118</v>
       </c>
-      <c r="L107" s="405"/>
-      <c r="M107" s="405" t="s">
+      <c r="L107" s="332"/>
+      <c r="M107" s="332" t="s">
         <v>419</v>
       </c>
-      <c r="N107" s="609" t="str">
-        <f>Namespace &amp; $G107</f>
+      <c r="N107" s="483" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/verticalExtentMinimumValue</v>
       </c>
-      <c r="O107" s="381" t="s">
+      <c r="O107" s="317" t="s">
         <v>326</v>
       </c>
       <c r="P107" s="193"/>
-      <c r="Q107" s="683" t="s">
+      <c r="Q107" s="554" t="s">
         <v>40</v>
       </c>
       <c r="R107" s="192"/>
@@ -10829,38 +10865,38 @@
       <c r="AJ107" s="195"/>
     </row>
     <row r="108" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="650"/>
-      <c r="B108" s="401"/>
-      <c r="C108" s="402"/>
-      <c r="D108" s="402"/>
-      <c r="E108" s="401"/>
-      <c r="F108" s="557"/>
-      <c r="G108" s="403" t="s">
+      <c r="A108" s="522"/>
+      <c r="B108" s="563"/>
+      <c r="C108" s="564"/>
+      <c r="D108" s="564"/>
+      <c r="E108" s="563"/>
+      <c r="F108" s="565"/>
+      <c r="G108" s="330" t="s">
         <v>327</v>
       </c>
-      <c r="H108" s="581" t="s">
+      <c r="H108" s="456" t="s">
         <v>685</v>
       </c>
-      <c r="I108" s="404">
+      <c r="I108" s="331">
         <v>1</v>
       </c>
-      <c r="J108" s="403"/>
-      <c r="K108" s="674" t="s">
+      <c r="J108" s="330"/>
+      <c r="K108" s="545" t="s">
         <v>118</v>
       </c>
-      <c r="L108" s="405"/>
-      <c r="M108" s="405" t="s">
+      <c r="L108" s="332"/>
+      <c r="M108" s="332" t="s">
         <v>419</v>
       </c>
-      <c r="N108" s="609" t="str">
-        <f>Namespace &amp; $G108</f>
+      <c r="N108" s="483" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/verticalExtentUnit</v>
       </c>
-      <c r="O108" s="580" t="s">
+      <c r="O108" s="455" t="s">
         <v>644</v>
       </c>
       <c r="P108" s="193"/>
-      <c r="Q108" s="683" t="s">
+      <c r="Q108" s="554" t="s">
         <v>79</v>
       </c>
       <c r="R108" s="192"/>
@@ -10884,38 +10920,38 @@
       <c r="AJ108" s="195"/>
     </row>
     <row r="109" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="650"/>
-      <c r="B109" s="401"/>
-      <c r="C109" s="402"/>
-      <c r="D109" s="402"/>
-      <c r="E109" s="401"/>
-      <c r="F109" s="557"/>
-      <c r="G109" s="403" t="s">
+      <c r="A109" s="522"/>
+      <c r="B109" s="563"/>
+      <c r="C109" s="564"/>
+      <c r="D109" s="564"/>
+      <c r="E109" s="563"/>
+      <c r="F109" s="565"/>
+      <c r="G109" s="330" t="s">
         <v>328</v>
       </c>
-      <c r="H109" s="581" t="s">
+      <c r="H109" s="456" t="s">
         <v>686</v>
       </c>
-      <c r="I109" s="404" t="s">
+      <c r="I109" s="331" t="s">
         <v>82</v>
       </c>
-      <c r="J109" s="403"/>
-      <c r="K109" s="674" t="s">
+      <c r="J109" s="330"/>
+      <c r="K109" s="545" t="s">
         <v>118</v>
       </c>
-      <c r="L109" s="405"/>
-      <c r="M109" s="405" t="s">
+      <c r="L109" s="332"/>
+      <c r="M109" s="332" t="s">
         <v>419</v>
       </c>
-      <c r="N109" s="609" t="str">
-        <f>Namespace &amp; $G109</f>
+      <c r="N109" s="483" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/verticalExtentUnitIRI</v>
       </c>
-      <c r="O109" s="580" t="s">
+      <c r="O109" s="455" t="s">
         <v>642</v>
       </c>
       <c r="P109" s="193"/>
-      <c r="Q109" s="683" t="s">
+      <c r="Q109" s="554" t="s">
         <v>79</v>
       </c>
       <c r="R109" s="192"/>
@@ -10939,38 +10975,38 @@
       <c r="AJ109" s="195"/>
     </row>
     <row r="110" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="650"/>
-      <c r="B110" s="401"/>
-      <c r="C110" s="402"/>
-      <c r="D110" s="402"/>
-      <c r="E110" s="401"/>
-      <c r="F110" s="557"/>
-      <c r="G110" s="403" t="s">
+      <c r="A110" s="522"/>
+      <c r="B110" s="563"/>
+      <c r="C110" s="564"/>
+      <c r="D110" s="564"/>
+      <c r="E110" s="563"/>
+      <c r="F110" s="565"/>
+      <c r="G110" s="330" t="s">
         <v>329</v>
       </c>
-      <c r="H110" s="581" t="s">
+      <c r="H110" s="456" t="s">
         <v>687</v>
       </c>
-      <c r="I110" s="404" t="s">
+      <c r="I110" s="331" t="s">
         <v>82</v>
       </c>
-      <c r="J110" s="403"/>
-      <c r="K110" s="674" t="s">
+      <c r="J110" s="330"/>
+      <c r="K110" s="545" t="s">
         <v>118</v>
       </c>
-      <c r="L110" s="405"/>
-      <c r="M110" s="405" t="s">
+      <c r="L110" s="332"/>
+      <c r="M110" s="332" t="s">
         <v>419</v>
       </c>
-      <c r="N110" s="609" t="str">
-        <f>Namespace &amp; $G110</f>
+      <c r="N110" s="483" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/verticalExtentUnitScheme</v>
       </c>
-      <c r="O110" s="580" t="s">
+      <c r="O110" s="455" t="s">
         <v>643</v>
       </c>
       <c r="P110" s="193"/>
-      <c r="Q110" s="683" t="s">
+      <c r="Q110" s="554" t="s">
         <v>40</v>
       </c>
       <c r="R110" s="192"/>
@@ -10994,38 +11030,38 @@
       <c r="AJ110" s="195"/>
     </row>
     <row r="111" spans="1:36" s="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="650"/>
-      <c r="B111" s="401"/>
-      <c r="C111" s="402"/>
-      <c r="D111" s="402"/>
-      <c r="E111" s="401"/>
-      <c r="F111" s="557"/>
-      <c r="G111" s="403" t="s">
+      <c r="A111" s="522"/>
+      <c r="B111" s="563"/>
+      <c r="C111" s="564"/>
+      <c r="D111" s="564"/>
+      <c r="E111" s="563"/>
+      <c r="F111" s="565"/>
+      <c r="G111" s="330" t="s">
         <v>330</v>
       </c>
-      <c r="H111" s="581" t="s">
+      <c r="H111" s="456" t="s">
         <v>688</v>
       </c>
-      <c r="I111" s="404" t="s">
+      <c r="I111" s="331" t="s">
         <v>82</v>
       </c>
-      <c r="J111" s="403"/>
-      <c r="K111" s="674" t="s">
+      <c r="J111" s="330"/>
+      <c r="K111" s="545" t="s">
         <v>118</v>
       </c>
-      <c r="L111" s="405"/>
-      <c r="M111" s="405" t="s">
+      <c r="L111" s="332"/>
+      <c r="M111" s="332" t="s">
         <v>419</v>
       </c>
-      <c r="N111" s="609" t="str">
-        <f>Namespace &amp; $G111</f>
+      <c r="N111" s="483" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/verticalExtentUnitSchemeIRI</v>
       </c>
-      <c r="O111" s="580" t="s">
+      <c r="O111" s="455" t="s">
         <v>641</v>
       </c>
       <c r="P111" s="193"/>
-      <c r="Q111" s="683" t="s">
+      <c r="Q111" s="554" t="s">
         <v>40</v>
       </c>
       <c r="R111" s="192"/>
@@ -11049,38 +11085,38 @@
       <c r="AJ111" s="195"/>
     </row>
     <row r="112" spans="1:36" s="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="650"/>
-      <c r="B112" s="401"/>
-      <c r="C112" s="402"/>
-      <c r="D112" s="402"/>
-      <c r="E112" s="401"/>
-      <c r="F112" s="557"/>
-      <c r="G112" s="588" t="s">
+      <c r="A112" s="522"/>
+      <c r="B112" s="563"/>
+      <c r="C112" s="564"/>
+      <c r="D112" s="564"/>
+      <c r="E112" s="563"/>
+      <c r="F112" s="565"/>
+      <c r="G112" s="462" t="s">
         <v>645</v>
       </c>
-      <c r="H112" s="588" t="s">
+      <c r="H112" s="462" t="s">
         <v>689</v>
       </c>
-      <c r="I112" s="589" t="s">
+      <c r="I112" s="463" t="s">
         <v>82</v>
       </c>
-      <c r="J112" s="403"/>
-      <c r="K112" s="674" t="s">
+      <c r="J112" s="330"/>
+      <c r="K112" s="545" t="s">
         <v>118</v>
       </c>
-      <c r="L112" s="405"/>
-      <c r="M112" s="405" t="s">
+      <c r="L112" s="332"/>
+      <c r="M112" s="332" t="s">
         <v>419</v>
       </c>
-      <c r="N112" s="609" t="str">
-        <f>Namespace &amp; $G112</f>
+      <c r="N112" s="483" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/verticalExtentDatum</v>
       </c>
-      <c r="O112" s="580" t="s">
+      <c r="O112" s="455" t="s">
         <v>656</v>
       </c>
       <c r="P112" s="193"/>
-      <c r="Q112" s="683" t="s">
+      <c r="Q112" s="554" t="s">
         <v>79</v>
       </c>
       <c r="R112" s="192"/>
@@ -11104,38 +11140,38 @@
       <c r="AJ112" s="195"/>
     </row>
     <row r="113" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="650"/>
-      <c r="B113" s="401"/>
-      <c r="C113" s="402"/>
-      <c r="D113" s="402"/>
-      <c r="E113" s="401"/>
-      <c r="F113" s="557"/>
-      <c r="G113" s="588" t="s">
+      <c r="A113" s="522"/>
+      <c r="B113" s="563"/>
+      <c r="C113" s="564"/>
+      <c r="D113" s="564"/>
+      <c r="E113" s="563"/>
+      <c r="F113" s="565"/>
+      <c r="G113" s="462" t="s">
         <v>657</v>
       </c>
-      <c r="H113" s="588" t="s">
+      <c r="H113" s="462" t="s">
         <v>690</v>
       </c>
-      <c r="I113" s="589" t="s">
+      <c r="I113" s="463" t="s">
         <v>82</v>
       </c>
-      <c r="J113" s="403"/>
-      <c r="K113" s="674" t="s">
+      <c r="J113" s="330"/>
+      <c r="K113" s="545" t="s">
         <v>118</v>
       </c>
-      <c r="L113" s="405"/>
-      <c r="M113" s="405" t="s">
+      <c r="L113" s="332"/>
+      <c r="M113" s="332" t="s">
         <v>419</v>
       </c>
-      <c r="N113" s="609" t="str">
-        <f>Namespace &amp; $G113</f>
+      <c r="N113" s="483" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/verticalExtentDatumIRI</v>
       </c>
-      <c r="O113" s="580" t="s">
+      <c r="O113" s="455" t="s">
         <v>658</v>
       </c>
       <c r="P113" s="193"/>
-      <c r="Q113" s="683" t="s">
+      <c r="Q113" s="554" t="s">
         <v>79</v>
       </c>
       <c r="R113" s="192"/>
@@ -11159,45 +11195,45 @@
       <c r="AJ113" s="195"/>
     </row>
     <row r="114" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="651"/>
-      <c r="B114" s="406" t="s">
+      <c r="A114" s="523"/>
+      <c r="B114" s="681" t="s">
         <v>331</v>
       </c>
-      <c r="C114" s="407" t="s">
+      <c r="C114" s="683" t="s">
         <v>332</v>
       </c>
-      <c r="D114" s="408"/>
-      <c r="E114" s="406" t="s">
+      <c r="D114" s="690"/>
+      <c r="E114" s="681" t="s">
         <v>82</v>
       </c>
-      <c r="F114" s="558" t="str">
+      <c r="F114" s="685" t="str">
         <f>Namespace &amp; LOWER($B114)</f>
         <v>https://fairdatacollective.org/voc/dataset/temporalcoverage</v>
       </c>
-      <c r="G114" s="409" t="s">
+      <c r="G114" s="333" t="s">
         <v>333</v>
       </c>
-      <c r="H114" s="695" t="s">
+      <c r="H114" s="555" t="s">
         <v>691</v>
       </c>
-      <c r="I114" s="410" t="s">
+      <c r="I114" s="334" t="s">
         <v>82</v>
       </c>
-      <c r="J114" s="409" t="s">
+      <c r="J114" s="333" t="s">
         <v>131</v>
       </c>
-      <c r="K114" s="411" t="s">
+      <c r="K114" s="335" t="s">
         <v>67</v>
       </c>
-      <c r="L114" s="411"/>
-      <c r="M114" s="411" t="s">
+      <c r="L114" s="335"/>
+      <c r="M114" s="335" t="s">
         <v>419</v>
       </c>
-      <c r="N114" s="610" t="str">
-        <f>Namespace &amp; $G114</f>
+      <c r="N114" s="484" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/temporalExtentMinimumValue</v>
       </c>
-      <c r="O114" s="382" t="s">
+      <c r="O114" s="318" t="s">
         <v>334</v>
       </c>
       <c r="P114" s="198"/>
@@ -11222,36 +11258,36 @@
       <c r="W114" s="197"/>
     </row>
     <row r="115" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="651"/>
-      <c r="B115" s="392"/>
-      <c r="C115" s="393"/>
-      <c r="D115" s="408"/>
-      <c r="E115" s="392"/>
-      <c r="F115" s="558"/>
-      <c r="G115" s="409" t="s">
+      <c r="A115" s="523"/>
+      <c r="B115" s="682"/>
+      <c r="C115" s="684"/>
+      <c r="D115" s="690"/>
+      <c r="E115" s="682"/>
+      <c r="F115" s="685"/>
+      <c r="G115" s="333" t="s">
         <v>337</v>
       </c>
-      <c r="H115" s="695" t="s">
+      <c r="H115" s="555" t="s">
         <v>692</v>
       </c>
-      <c r="I115" s="410" t="s">
+      <c r="I115" s="334" t="s">
         <v>82</v>
       </c>
-      <c r="J115" s="409" t="s">
+      <c r="J115" s="333" t="s">
         <v>131</v>
       </c>
-      <c r="K115" s="411" t="s">
+      <c r="K115" s="335" t="s">
         <v>67</v>
       </c>
-      <c r="L115" s="411"/>
-      <c r="M115" s="411" t="s">
+      <c r="L115" s="335"/>
+      <c r="M115" s="335" t="s">
         <v>419</v>
       </c>
-      <c r="N115" s="610" t="str">
-        <f>Namespace &amp; $G115</f>
+      <c r="N115" s="484" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/temporalExtentMaximumValue</v>
       </c>
-      <c r="O115" s="382" t="s">
+      <c r="O115" s="318" t="s">
         <v>338</v>
       </c>
       <c r="P115" s="198"/>
@@ -11276,36 +11312,36 @@
       <c r="W115" s="197"/>
     </row>
     <row r="116" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="651"/>
-      <c r="B116" s="392"/>
-      <c r="C116" s="393"/>
-      <c r="D116" s="408"/>
-      <c r="E116" s="392"/>
-      <c r="F116" s="558"/>
-      <c r="G116" s="409" t="s">
+      <c r="A116" s="523"/>
+      <c r="B116" s="682"/>
+      <c r="C116" s="684"/>
+      <c r="D116" s="690"/>
+      <c r="E116" s="682"/>
+      <c r="F116" s="685"/>
+      <c r="G116" s="333" t="s">
         <v>339</v>
       </c>
-      <c r="H116" s="695" t="s">
+      <c r="H116" s="555" t="s">
         <v>693</v>
       </c>
-      <c r="I116" s="410" t="s">
+      <c r="I116" s="334" t="s">
         <v>82</v>
       </c>
-      <c r="J116" s="409" t="s">
+      <c r="J116" s="333" t="s">
         <v>131</v>
       </c>
-      <c r="K116" s="411" t="s">
+      <c r="K116" s="335" t="s">
         <v>67</v>
       </c>
-      <c r="L116" s="411"/>
-      <c r="M116" s="411" t="s">
+      <c r="L116" s="335"/>
+      <c r="M116" s="335" t="s">
         <v>419</v>
       </c>
-      <c r="N116" s="610" t="str">
-        <f>Namespace &amp; $G116</f>
+      <c r="N116" s="484" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/temporalResolution</v>
       </c>
-      <c r="O116" s="382" t="s">
+      <c r="O116" s="318" t="s">
         <v>340</v>
       </c>
       <c r="P116" s="198"/>
@@ -11330,36 +11366,36 @@
       <c r="W116" s="197"/>
     </row>
     <row r="117" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="651"/>
-      <c r="B117" s="392"/>
-      <c r="C117" s="393"/>
-      <c r="D117" s="408"/>
-      <c r="E117" s="392"/>
-      <c r="F117" s="558"/>
-      <c r="G117" s="409" t="s">
+      <c r="A117" s="523"/>
+      <c r="B117" s="682"/>
+      <c r="C117" s="684"/>
+      <c r="D117" s="690"/>
+      <c r="E117" s="682"/>
+      <c r="F117" s="685"/>
+      <c r="G117" s="333" t="s">
         <v>342</v>
       </c>
-      <c r="H117" s="695" t="s">
+      <c r="H117" s="555" t="s">
         <v>694</v>
       </c>
-      <c r="I117" s="410" t="s">
+      <c r="I117" s="334" t="s">
         <v>82</v>
       </c>
-      <c r="J117" s="409" t="s">
+      <c r="J117" s="333" t="s">
         <v>131</v>
       </c>
-      <c r="K117" s="411" t="s">
+      <c r="K117" s="335" t="s">
         <v>67</v>
       </c>
-      <c r="L117" s="411"/>
-      <c r="M117" s="411" t="s">
+      <c r="L117" s="335"/>
+      <c r="M117" s="335" t="s">
         <v>419</v>
       </c>
-      <c r="N117" s="610" t="str">
-        <f>Namespace &amp; $G117</f>
+      <c r="N117" s="484" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/duration</v>
       </c>
-      <c r="O117" s="382" t="s">
+      <c r="O117" s="318" t="s">
         <v>343</v>
       </c>
       <c r="P117" s="198"/>
@@ -11384,42 +11420,42 @@
       <c r="W117" s="197"/>
     </row>
     <row r="118" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="637"/>
-      <c r="B118" s="387" t="s">
+      <c r="A118" s="509"/>
+      <c r="B118" s="686" t="s">
         <v>344</v>
       </c>
-      <c r="C118" s="388" t="s">
+      <c r="C118" s="687" t="s">
         <v>345</v>
       </c>
-      <c r="D118" s="351"/>
-      <c r="E118" s="387" t="s">
+      <c r="D118" s="691"/>
+      <c r="E118" s="686" t="s">
         <v>64</v>
       </c>
-      <c r="F118" s="693" t="str">
+      <c r="F118" s="688" t="str">
         <f>Namespace &amp; LOWER($B118)</f>
         <v>https://fairdatacollective.org/voc/dataset/funding</v>
       </c>
-      <c r="G118" s="389" t="s">
+      <c r="G118" s="322" t="s">
         <v>346</v>
       </c>
-      <c r="H118" s="696" t="s">
+      <c r="H118" s="556" t="s">
         <v>695</v>
       </c>
-      <c r="I118" s="390">
+      <c r="I118" s="323">
         <v>1</v>
       </c>
-      <c r="J118" s="391" t="s">
+      <c r="J118" s="324" t="s">
         <v>346</v>
       </c>
-      <c r="K118" s="391" t="s">
+      <c r="K118" s="324" t="s">
         <v>67</v>
       </c>
-      <c r="L118" s="391"/>
-      <c r="M118" s="391" t="s">
+      <c r="L118" s="324"/>
+      <c r="M118" s="324" t="s">
         <v>419</v>
       </c>
-      <c r="N118" s="611" t="str">
-        <f>Namespace &amp; $G118</f>
+      <c r="N118" s="485" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/awardTitle</v>
       </c>
       <c r="O118" s="56" t="s">
@@ -11443,16 +11479,16 @@
       <c r="W118" s="54"/>
     </row>
     <row r="119" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="637"/>
-      <c r="B119" s="300"/>
-      <c r="C119" s="300"/>
-      <c r="D119" s="351"/>
-      <c r="E119" s="300"/>
-      <c r="F119" s="693"/>
+      <c r="A119" s="509"/>
+      <c r="B119" s="634"/>
+      <c r="C119" s="634"/>
+      <c r="D119" s="691"/>
+      <c r="E119" s="634"/>
+      <c r="F119" s="688"/>
       <c r="G119" s="201" t="s">
         <v>348</v>
       </c>
-      <c r="H119" s="697" t="s">
+      <c r="H119" s="557" t="s">
         <v>696</v>
       </c>
       <c r="I119" s="202" t="s">
@@ -11468,8 +11504,8 @@
       <c r="M119" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="N119" s="612" t="str">
-        <f>Namespace &amp; $G119</f>
+      <c r="N119" s="486" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/awardPageIRI</v>
       </c>
       <c r="O119" s="56" t="s">
@@ -11497,16 +11533,16 @@
       <c r="W119" s="54"/>
     </row>
     <row r="120" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="637"/>
-      <c r="B120" s="300"/>
-      <c r="C120" s="300"/>
-      <c r="D120" s="351"/>
-      <c r="E120" s="300"/>
-      <c r="F120" s="693"/>
+      <c r="A120" s="509"/>
+      <c r="B120" s="634"/>
+      <c r="C120" s="634"/>
+      <c r="D120" s="691"/>
+      <c r="E120" s="634"/>
+      <c r="F120" s="688"/>
       <c r="G120" s="204" t="s">
         <v>351</v>
       </c>
-      <c r="H120" s="698" t="s">
+      <c r="H120" s="558" t="s">
         <v>697</v>
       </c>
       <c r="I120" s="205" t="s">
@@ -11522,8 +11558,8 @@
       <c r="M120" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="N120" s="612" t="str">
-        <f>Namespace &amp; $G120</f>
+      <c r="N120" s="486" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/awardLocalIdentifier</v>
       </c>
       <c r="O120" s="56" t="s">
@@ -11547,16 +11583,16 @@
       <c r="W120" s="54"/>
     </row>
     <row r="121" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="637"/>
-      <c r="B121" s="300"/>
-      <c r="C121" s="300"/>
-      <c r="D121" s="351"/>
-      <c r="E121" s="300"/>
-      <c r="F121" s="693"/>
+      <c r="A121" s="509"/>
+      <c r="B121" s="634"/>
+      <c r="C121" s="634"/>
+      <c r="D121" s="691"/>
+      <c r="E121" s="634"/>
+      <c r="F121" s="688"/>
       <c r="G121" s="207" t="s">
         <v>354</v>
       </c>
-      <c r="H121" s="699" t="s">
+      <c r="H121" s="559" t="s">
         <v>698</v>
       </c>
       <c r="I121" s="205" t="s">
@@ -11572,8 +11608,8 @@
       <c r="M121" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="N121" s="612" t="str">
-        <f>Namespace &amp; $G121</f>
+      <c r="N121" s="486" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/funderName</v>
       </c>
       <c r="O121" s="56" t="s">
@@ -11597,16 +11633,16 @@
       <c r="W121" s="54"/>
     </row>
     <row r="122" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="637"/>
-      <c r="B122" s="300"/>
-      <c r="C122" s="300"/>
-      <c r="D122" s="351"/>
-      <c r="E122" s="300"/>
-      <c r="F122" s="693"/>
+      <c r="A122" s="509"/>
+      <c r="B122" s="634"/>
+      <c r="C122" s="634"/>
+      <c r="D122" s="691"/>
+      <c r="E122" s="634"/>
+      <c r="F122" s="688"/>
       <c r="G122" s="207" t="s">
         <v>356</v>
       </c>
-      <c r="H122" s="699" t="s">
+      <c r="H122" s="559" t="s">
         <v>699</v>
       </c>
       <c r="I122" s="205" t="s">
@@ -11622,8 +11658,8 @@
       <c r="M122" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="N122" s="612" t="str">
-        <f>Namespace &amp; $G122</f>
+      <c r="N122" s="486" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/funderIdentifier</v>
       </c>
       <c r="O122" s="56" t="s">
@@ -11647,16 +11683,16 @@
       <c r="W122" s="54"/>
     </row>
     <row r="123" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="637"/>
-      <c r="B123" s="300"/>
-      <c r="C123" s="300"/>
-      <c r="D123" s="351"/>
-      <c r="E123" s="300"/>
-      <c r="F123" s="693"/>
+      <c r="A123" s="509"/>
+      <c r="B123" s="634"/>
+      <c r="C123" s="634"/>
+      <c r="D123" s="691"/>
+      <c r="E123" s="634"/>
+      <c r="F123" s="688"/>
       <c r="G123" s="204" t="s">
         <v>358</v>
       </c>
-      <c r="H123" s="698" t="s">
+      <c r="H123" s="558" t="s">
         <v>700</v>
       </c>
       <c r="I123" s="205" t="s">
@@ -11672,8 +11708,8 @@
       <c r="M123" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="N123" s="612" t="str">
-        <f>Namespace &amp; $G123</f>
+      <c r="N123" s="486" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/funderIdentifierScheme</v>
       </c>
       <c r="O123" s="56" t="s">
@@ -11697,16 +11733,16 @@
       <c r="W123" s="54"/>
     </row>
     <row r="124" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="637"/>
-      <c r="B124" s="301"/>
-      <c r="C124" s="301"/>
-      <c r="D124" s="352"/>
-      <c r="E124" s="301"/>
-      <c r="F124" s="694"/>
+      <c r="A124" s="509"/>
+      <c r="B124" s="635"/>
+      <c r="C124" s="635"/>
+      <c r="D124" s="692"/>
+      <c r="E124" s="635"/>
+      <c r="F124" s="689"/>
       <c r="G124" s="209" t="s">
         <v>361</v>
       </c>
-      <c r="H124" s="700" t="s">
+      <c r="H124" s="560" t="s">
         <v>701</v>
       </c>
       <c r="I124" s="210" t="s">
@@ -11722,8 +11758,8 @@
       <c r="M124" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="N124" s="612" t="str">
-        <f>Namespace &amp; $G124</f>
+      <c r="N124" s="486" t="str">
+        <f t="shared" si="5"/>
         <v>https://fairdatacollective.org/voc/dataset/funderIdentifierSchemeIRI</v>
       </c>
       <c r="O124" s="56" t="s">
@@ -11780,7 +11816,7 @@
       <c r="E127" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="F127" s="560"/>
+      <c r="F127" s="444"/>
       <c r="G127" s="220" t="s">
         <v>364</v>
       </c>
@@ -11812,7 +11848,7 @@
       <c r="C128" s="218"/>
       <c r="D128" s="218"/>
       <c r="E128" s="219"/>
-      <c r="F128" s="560"/>
+      <c r="F128" s="444"/>
       <c r="G128" s="220"/>
       <c r="H128" s="220"/>
       <c r="I128" s="219"/>
@@ -11834,7 +11870,7 @@
       <c r="E129" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="F129" s="560"/>
+      <c r="F129" s="444"/>
       <c r="G129" s="220" t="s">
         <v>368</v>
       </c>
@@ -11868,7 +11904,7 @@
       <c r="E130" s="219">
         <v>1</v>
       </c>
-      <c r="F130" s="560"/>
+      <c r="F130" s="444"/>
       <c r="G130" s="220" t="s">
         <v>371</v>
       </c>
@@ -11902,7 +11938,7 @@
       <c r="E131" s="219">
         <v>1</v>
       </c>
-      <c r="F131" s="560"/>
+      <c r="F131" s="444"/>
       <c r="G131" s="220" t="s">
         <v>374</v>
       </c>
@@ -11936,7 +11972,7 @@
       <c r="E132" s="219">
         <v>1</v>
       </c>
-      <c r="F132" s="560"/>
+      <c r="F132" s="444"/>
       <c r="G132" s="220" t="s">
         <v>378</v>
       </c>
@@ -11970,7 +12006,7 @@
       <c r="E133" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="F133" s="560"/>
+      <c r="F133" s="444"/>
       <c r="G133" s="220" t="s">
         <v>381</v>
       </c>
@@ -12004,7 +12040,7 @@
       <c r="E134" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="F134" s="560"/>
+      <c r="F134" s="444"/>
       <c r="G134" s="220" t="s">
         <v>384</v>
       </c>
@@ -19328,56 +19364,36 @@
   </sheetData>
   <autoFilter ref="H1:V134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="96">
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="C106:C113"/>
-    <mergeCell ref="E106:E113"/>
-    <mergeCell ref="F106:F113"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D23:D35"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="B70:B82"/>
-    <mergeCell ref="C70:C82"/>
-    <mergeCell ref="E70:E82"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="D70:D82"/>
-    <mergeCell ref="D97:D105"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B97:B105"/>
-    <mergeCell ref="C97:C105"/>
-    <mergeCell ref="E97:E105"/>
-    <mergeCell ref="F97:F105"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="E118:E124"/>
+    <mergeCell ref="F118:F124"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B36:B48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="C36:C48"/>
+    <mergeCell ref="E36:E48"/>
+    <mergeCell ref="F36:F48"/>
+    <mergeCell ref="D36:D48"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="C23:C35"/>
+    <mergeCell ref="E23:E35"/>
+    <mergeCell ref="F23:F35"/>
     <mergeCell ref="F70:F82"/>
     <mergeCell ref="F84:F87"/>
     <mergeCell ref="F88:F91"/>
@@ -19394,36 +19410,56 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="C23:C35"/>
-    <mergeCell ref="E23:E35"/>
-    <mergeCell ref="F23:F35"/>
-    <mergeCell ref="C36:C48"/>
-    <mergeCell ref="E36:E48"/>
-    <mergeCell ref="F36:F48"/>
-    <mergeCell ref="D36:D48"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="B36:B48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="E49:E54"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="C118:C124"/>
-    <mergeCell ref="E118:E124"/>
-    <mergeCell ref="F118:F124"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="E97:E105"/>
+    <mergeCell ref="F97:F105"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="D97:D105"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B97:B105"/>
+    <mergeCell ref="C97:C105"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B70:B82"/>
+    <mergeCell ref="C70:C82"/>
+    <mergeCell ref="E70:E82"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="D70:D82"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D23:D35"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="C106:C113"/>
+    <mergeCell ref="E106:E113"/>
+    <mergeCell ref="F106:F113"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="E62:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -19477,7 +19513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5727C78E-ED35-FA4C-A4E0-76B1E05BF1C3}">
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
@@ -19488,28 +19524,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="702" t="s">
+      <c r="A1" s="562" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="702" t="s">
+      <c r="A2" s="562" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="702" t="s">
+      <c r="A3" s="562" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="702" t="s">
+      <c r="A5" s="562" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="702" t="s">
+      <c r="B5" s="562" t="s">
         <v>793</v>
       </c>
-      <c r="C5" s="702" t="s">
+      <c r="C5" s="562" t="s">
         <v>404</v>
       </c>
     </row>
@@ -19517,7 +19553,7 @@
       <c r="A6" t="s">
         <v>794</v>
       </c>
-      <c r="B6" s="701" t="s">
+      <c r="B6" s="561" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
@@ -19772,28 +19808,28 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="702" t="s">
+      <c r="A32" s="562" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="702" t="s">
+      <c r="A33" s="562" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="702" t="s">
+      <c r="A34" s="562" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="702" t="s">
+      <c r="A35" s="562" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="702" t="s">
+      <c r="B35" s="562" t="s">
         <v>816</v>
       </c>
-      <c r="C35" s="702" t="s">
+      <c r="C35" s="562" t="s">
         <v>404</v>
       </c>
     </row>
@@ -20882,7 +20918,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="693" t="s">
         <v>407</v>
       </c>
       <c r="B2" s="228" t="s">
@@ -20920,7 +20956,7 @@
       <c r="N2" s="233"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="297"/>
+      <c r="A3" s="672"/>
       <c r="B3" s="228" t="s">
         <v>413</v>
       </c>
@@ -21036,7 +21072,7 @@
       <c r="N5" s="247"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="323" t="s">
+      <c r="A6" s="694" t="s">
         <v>425</v>
       </c>
       <c r="B6" s="248" t="s">
@@ -21072,7 +21108,7 @@
       <c r="N6" s="253"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="297"/>
+      <c r="A7" s="672"/>
       <c r="B7" s="248" t="s">
         <v>429</v>
       </c>
@@ -21106,7 +21142,7 @@
       <c r="N7" s="253"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="297"/>
+      <c r="A8" s="672"/>
       <c r="B8" s="248" t="s">
         <v>432</v>
       </c>
@@ -21216,7 +21252,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="324" t="s">
+      <c r="A11" s="695" t="s">
         <v>447</v>
       </c>
       <c r="B11" s="269" t="s">
@@ -21252,7 +21288,7 @@
       <c r="N11" s="274"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="297"/>
+      <c r="A12" s="672"/>
       <c r="B12" s="269" t="s">
         <v>452</v>
       </c>
@@ -21288,7 +21324,7 @@
       <c r="N12" s="274"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="325" t="s">
+      <c r="A13" s="696" t="s">
         <v>456</v>
       </c>
       <c r="B13" s="275" t="s">
@@ -21328,7 +21364,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="297"/>
+      <c r="A14" s="672"/>
       <c r="B14" s="275" t="s">
         <v>462</v>
       </c>
@@ -21402,7 +21438,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="326" t="s">
+      <c r="A16" s="697" t="s">
         <v>469</v>
       </c>
       <c r="B16" s="286" t="s">
@@ -21444,7 +21480,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="297"/>
+      <c r="A17" s="672"/>
       <c r="B17" s="286" t="s">
         <v>475</v>
       </c>
@@ -21482,7 +21518,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="297"/>
+      <c r="A18" s="672"/>
       <c r="B18" s="286" t="s">
         <v>478</v>
       </c>
@@ -21520,7 +21556,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="297"/>
+      <c r="A19" s="672"/>
       <c r="B19" s="286" t="s">
         <v>481</v>
       </c>
@@ -21556,7 +21592,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="297"/>
+      <c r="A20" s="672"/>
       <c r="B20" s="286" t="s">
         <v>484</v>
       </c>

--- a/template-description.xlsx
+++ b/template-description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88232250-A652-6747-AD08-77D1F4E5D01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FA80AF-DE41-CB4C-8235-9850CAD6AC54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="524">
   <si>
     <t>Element 
 (CEDAR)</t>
@@ -1376,9 +1376,6 @@
     <t>An established standard to which the dataset distribution conforms to.</t>
   </si>
   <si>
-    <t>https://www.sitepoint.com/mime-types-complete-list/</t>
-  </si>
-  <si>
     <t>distributionMediaType</t>
   </si>
   <si>
@@ -1608,6 +1605,12 @@
   </si>
   <si>
     <t>BASE url</t>
+  </si>
+  <si>
+    <t>FDC</t>
+  </si>
+  <si>
+    <t>MIME Types list</t>
   </si>
 </sst>
 </file>
@@ -3158,472 +3161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3666,6 +3204,24 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3684,6 +3240,78 @@
     <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3693,9 +3321,394 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3726,6 +3739,12 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3733,30 +3752,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3990,10 +3993,10 @@
   <dimension ref="A1:P1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D151" sqref="D151"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4015,11 +4018,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="640" t="s">
+      <c r="A1" s="612" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="640"/>
-      <c r="C1" s="640"/>
+      <c r="B1" s="612"/>
+      <c r="C1" s="612"/>
       <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
@@ -4057,11 +4060,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="639" t="s">
+      <c r="A2" s="611" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="639"/>
-      <c r="C2" s="639"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
       <c r="D2" s="126" t="s">
         <v>10</v>
       </c>
@@ -4093,18 +4096,18 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="634" t="s">
+      <c r="A3" s="606" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="634"/>
-      <c r="C3" s="634"/>
-      <c r="D3" s="706" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="708">
+      <c r="E3" s="553">
         <v>1</v>
       </c>
-      <c r="F3" s="709" t="str">
+      <c r="F3" s="554" t="str">
         <f>Namespace &amp; $A3</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/ResourceType</v>
       </c>
@@ -4134,12 +4137,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="635"/>
-      <c r="B4" s="635"/>
-      <c r="C4" s="635"/>
-      <c r="D4" s="707"/>
-      <c r="E4" s="702"/>
-      <c r="F4" s="710"/>
+      <c r="A4" s="607"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="552"/>
+      <c r="E4" s="547"/>
+      <c r="F4" s="555"/>
       <c r="G4" s="190" t="s">
         <v>22</v>
       </c>
@@ -4166,18 +4169,18 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="636" t="s">
+      <c r="A5" s="608" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="636"/>
-      <c r="C5" s="636"/>
-      <c r="D5" s="670" t="s">
+      <c r="B5" s="608"/>
+      <c r="C5" s="608"/>
+      <c r="D5" s="634" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="664">
+      <c r="E5" s="628">
         <v>1</v>
       </c>
-      <c r="F5" s="667" t="str">
+      <c r="F5" s="631" t="str">
         <f>Namespace &amp; ($A5)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DatasetIdentifier</v>
       </c>
@@ -4207,12 +4210,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="637"/>
-      <c r="B6" s="637"/>
-      <c r="C6" s="637"/>
-      <c r="D6" s="671"/>
-      <c r="E6" s="665"/>
-      <c r="F6" s="668"/>
+      <c r="A6" s="609"/>
+      <c r="B6" s="609"/>
+      <c r="C6" s="609"/>
+      <c r="D6" s="635"/>
+      <c r="E6" s="629"/>
+      <c r="F6" s="632"/>
       <c r="G6" s="53" t="s">
         <v>29</v>
       </c>
@@ -4239,12 +4242,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="638"/>
-      <c r="B7" s="638"/>
-      <c r="C7" s="638"/>
-      <c r="D7" s="672"/>
-      <c r="E7" s="666"/>
-      <c r="F7" s="669"/>
+      <c r="A7" s="610"/>
+      <c r="B7" s="610"/>
+      <c r="C7" s="610"/>
+      <c r="D7" s="636"/>
+      <c r="E7" s="630"/>
+      <c r="F7" s="633"/>
       <c r="G7" s="203" t="s">
         <v>32</v>
       </c>
@@ -4272,18 +4275,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="590" t="s">
+      <c r="A8" s="676" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="590"/>
-      <c r="C8" s="590"/>
-      <c r="D8" s="697" t="s">
+      <c r="B8" s="676"/>
+      <c r="C8" s="676"/>
+      <c r="D8" s="542" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="700" t="s">
+      <c r="E8" s="545" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="703" t="str">
+      <c r="F8" s="548" t="str">
         <f>Namespace &amp; ($A8)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/RelatedResources</v>
       </c>
@@ -4313,12 +4316,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="591"/>
-      <c r="B9" s="591"/>
-      <c r="C9" s="591"/>
-      <c r="D9" s="698"/>
-      <c r="E9" s="701"/>
-      <c r="F9" s="704"/>
+      <c r="A9" s="677"/>
+      <c r="B9" s="677"/>
+      <c r="C9" s="677"/>
+      <c r="D9" s="543"/>
+      <c r="E9" s="546"/>
+      <c r="F9" s="549"/>
       <c r="G9" s="59" t="s">
         <v>38</v>
       </c>
@@ -4345,12 +4348,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="591"/>
-      <c r="B10" s="591"/>
-      <c r="C10" s="591"/>
-      <c r="D10" s="698"/>
-      <c r="E10" s="701"/>
-      <c r="F10" s="704"/>
+      <c r="A10" s="677"/>
+      <c r="B10" s="677"/>
+      <c r="C10" s="677"/>
+      <c r="D10" s="543"/>
+      <c r="E10" s="546"/>
+      <c r="F10" s="549"/>
       <c r="G10" s="59" t="s">
         <v>272</v>
       </c>
@@ -4378,12 +4381,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="591"/>
-      <c r="B11" s="591"/>
-      <c r="C11" s="591"/>
-      <c r="D11" s="698"/>
-      <c r="E11" s="701"/>
-      <c r="F11" s="704"/>
+      <c r="A11" s="677"/>
+      <c r="B11" s="677"/>
+      <c r="C11" s="677"/>
+      <c r="D11" s="543"/>
+      <c r="E11" s="546"/>
+      <c r="F11" s="549"/>
       <c r="G11" s="64" t="s">
         <v>41</v>
       </c>
@@ -4410,12 +4413,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="592"/>
-      <c r="B12" s="592"/>
-      <c r="C12" s="592"/>
-      <c r="D12" s="699"/>
-      <c r="E12" s="702"/>
-      <c r="F12" s="705"/>
+      <c r="A12" s="678"/>
+      <c r="B12" s="678"/>
+      <c r="C12" s="678"/>
+      <c r="D12" s="544"/>
+      <c r="E12" s="547"/>
+      <c r="F12" s="550"/>
       <c r="G12" s="216" t="s">
         <v>42</v>
       </c>
@@ -4442,11 +4445,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="597" t="s">
+      <c r="A13" s="680" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="597"/>
-      <c r="C13" s="597"/>
+      <c r="B13" s="680"/>
+      <c r="C13" s="680"/>
       <c r="D13" s="243" t="s">
         <v>45</v>
       </c>
@@ -4483,18 +4486,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="598" t="s">
+      <c r="A14" s="681" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="598"/>
-      <c r="C14" s="598"/>
-      <c r="D14" s="675" t="s">
+      <c r="B14" s="681"/>
+      <c r="C14" s="681"/>
+      <c r="D14" s="639" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="677" t="s">
+      <c r="E14" s="570" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="673" t="str">
+      <c r="F14" s="637" t="str">
         <f>Namespace &amp; ($A14)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Language</v>
       </c>
@@ -4524,12 +4527,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="599"/>
-      <c r="B15" s="599"/>
-      <c r="C15" s="599"/>
-      <c r="D15" s="676"/>
-      <c r="E15" s="678"/>
-      <c r="F15" s="674"/>
+      <c r="A15" s="682"/>
+      <c r="B15" s="682"/>
+      <c r="C15" s="682"/>
+      <c r="D15" s="640"/>
+      <c r="E15" s="571"/>
+      <c r="F15" s="638"/>
       <c r="G15" s="229" t="s">
         <v>51</v>
       </c>
@@ -4559,11 +4562,11 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="600" t="s">
+      <c r="A16" s="683" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="600"/>
-      <c r="C16" s="600"/>
+      <c r="B16" s="683"/>
+      <c r="C16" s="683"/>
       <c r="D16" s="244" t="s">
         <v>53</v>
       </c>
@@ -4600,11 +4603,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="601" t="s">
+      <c r="A17" s="684" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="601"/>
-      <c r="C17" s="601"/>
+      <c r="B17" s="684"/>
+      <c r="C17" s="684"/>
       <c r="D17" s="78" t="s">
         <v>58</v>
       </c>
@@ -4643,11 +4646,11 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" s="11" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="593" t="s">
+      <c r="A18" s="679" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="593"/>
-      <c r="C18" s="593"/>
+      <c r="B18" s="679"/>
+      <c r="C18" s="679"/>
       <c r="D18" s="245" t="s">
         <v>63</v>
       </c>
@@ -4671,17 +4674,17 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="315"/>
-      <c r="B19" s="594" t="s">
-        <v>502</v>
-      </c>
-      <c r="C19" s="594"/>
-      <c r="D19" s="594" t="s">
-        <v>469</v>
-      </c>
-      <c r="E19" s="716" t="s">
+      <c r="B19" s="641" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="641"/>
+      <c r="D19" s="641" t="s">
+        <v>468</v>
+      </c>
+      <c r="E19" s="567" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="713" t="str">
+      <c r="F19" s="564" t="str">
         <f>Namespace&amp;($A19)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>307</v>
       </c>
       <c r="I19" s="128" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J19" s="129" t="s">
         <v>34</v>
@@ -4704,7 +4707,7 @@
         <v>67</v>
       </c>
       <c r="M19" s="131" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N19" s="131" t="s">
         <v>28</v>
@@ -4712,16 +4715,16 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="315"/>
-      <c r="B20" s="595"/>
-      <c r="C20" s="595"/>
-      <c r="D20" s="595"/>
-      <c r="E20" s="717"/>
-      <c r="F20" s="714"/>
+      <c r="B20" s="642"/>
+      <c r="C20" s="642"/>
+      <c r="D20" s="642"/>
+      <c r="E20" s="568"/>
+      <c r="F20" s="565"/>
       <c r="G20" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="H20" s="79" t="s">
         <v>470</v>
-      </c>
-      <c r="H20" s="79" t="s">
-        <v>471</v>
       </c>
       <c r="I20" s="80" t="s">
         <v>69</v>
@@ -4737,7 +4740,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/subjectIRI</v>
       </c>
       <c r="M20" s="83" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N20" s="83" t="s">
         <v>28</v>
@@ -4745,11 +4748,11 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="315"/>
-      <c r="B21" s="595"/>
-      <c r="C21" s="595"/>
-      <c r="D21" s="595"/>
-      <c r="E21" s="717"/>
-      <c r="F21" s="714"/>
+      <c r="B21" s="642"/>
+      <c r="C21" s="642"/>
+      <c r="D21" s="642"/>
+      <c r="E21" s="568"/>
+      <c r="F21" s="565"/>
       <c r="G21" s="83" t="s">
         <v>70</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/subjectScheme</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N21" s="83" t="s">
         <v>28</v>
@@ -4778,11 +4781,11 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="315"/>
-      <c r="B22" s="596"/>
-      <c r="C22" s="596"/>
-      <c r="D22" s="596"/>
-      <c r="E22" s="718"/>
-      <c r="F22" s="715"/>
+      <c r="B22" s="643"/>
+      <c r="C22" s="643"/>
+      <c r="D22" s="643"/>
+      <c r="E22" s="569"/>
+      <c r="F22" s="566"/>
       <c r="G22" s="132" t="s">
         <v>71</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/subjectSchemeIRI</v>
       </c>
       <c r="M22" s="136" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N22" s="136" t="s">
         <v>28</v>
@@ -4817,7 +4820,7 @@
       <c r="E23" s="157"/>
       <c r="F23" s="158"/>
       <c r="G23" s="159" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H23" s="159" t="s">
         <v>64</v>
@@ -4841,11 +4844,11 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="627" t="s">
+      <c r="A24" s="653" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="627"/>
-      <c r="C24" s="627"/>
+      <c r="B24" s="653"/>
+      <c r="C24" s="653"/>
       <c r="D24" s="246" t="s">
         <v>73</v>
       </c>
@@ -4867,17 +4870,17 @@
     </row>
     <row r="25" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="628" t="s">
-        <v>453</v>
-      </c>
-      <c r="C25" s="628"/>
-      <c r="D25" s="628" t="s">
-        <v>479</v>
-      </c>
-      <c r="E25" s="650" t="s">
+      <c r="B25" s="622" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25" s="622"/>
+      <c r="D25" s="622" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" s="558" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="653" t="str">
+      <c r="F25" s="625" t="str">
         <f>Namespace &amp; ($B25)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/CreatorName</v>
       </c>
@@ -4908,11 +4911,11 @@
     </row>
     <row r="26" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="629"/>
-      <c r="C26" s="629"/>
-      <c r="D26" s="629"/>
-      <c r="E26" s="651"/>
-      <c r="F26" s="654"/>
+      <c r="B26" s="623"/>
+      <c r="C26" s="623"/>
+      <c r="D26" s="623"/>
+      <c r="E26" s="559"/>
+      <c r="F26" s="626"/>
       <c r="G26" s="87" t="s">
         <v>79</v>
       </c>
@@ -4940,11 +4943,11 @@
     </row>
     <row r="27" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="630"/>
-      <c r="C27" s="630"/>
-      <c r="D27" s="630"/>
-      <c r="E27" s="652"/>
-      <c r="F27" s="655"/>
+      <c r="B27" s="624"/>
+      <c r="C27" s="624"/>
+      <c r="D27" s="624"/>
+      <c r="E27" s="560"/>
+      <c r="F27" s="627"/>
       <c r="G27" s="141" t="s">
         <v>82</v>
       </c>
@@ -4972,17 +4975,17 @@
     </row>
     <row r="28" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="628" t="s">
-        <v>454</v>
-      </c>
-      <c r="C28" s="628"/>
-      <c r="D28" s="628" t="s">
-        <v>478</v>
-      </c>
-      <c r="E28" s="650" t="s">
+      <c r="B28" s="622" t="s">
+        <v>453</v>
+      </c>
+      <c r="C28" s="622"/>
+      <c r="D28" s="622" t="s">
+        <v>477</v>
+      </c>
+      <c r="E28" s="558" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="653" t="str">
+      <c r="F28" s="625" t="str">
         <f>Namespace &amp; ($B28)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/CreatorIdentifier</v>
       </c>
@@ -5014,11 +5017,11 @@
     </row>
     <row r="29" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="629"/>
-      <c r="C29" s="629"/>
-      <c r="D29" s="629"/>
-      <c r="E29" s="651"/>
-      <c r="F29" s="654"/>
+      <c r="B29" s="623"/>
+      <c r="C29" s="623"/>
+      <c r="D29" s="623"/>
+      <c r="E29" s="559"/>
+      <c r="F29" s="626"/>
       <c r="G29" s="87" t="s">
         <v>93</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/creatorIdentifierScheme</v>
       </c>
       <c r="M29" s="89" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N29" s="84" t="s">
         <v>94</v>
@@ -5047,11 +5050,11 @@
     </row>
     <row r="30" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="630"/>
-      <c r="C30" s="630"/>
-      <c r="D30" s="630"/>
-      <c r="E30" s="652"/>
-      <c r="F30" s="655"/>
+      <c r="B30" s="624"/>
+      <c r="C30" s="624"/>
+      <c r="D30" s="624"/>
+      <c r="E30" s="560"/>
+      <c r="F30" s="627"/>
       <c r="G30" s="141" t="s">
         <v>95</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/creatorIdentifierSchemeIRI</v>
       </c>
       <c r="M30" s="148" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N30" s="145" t="s">
         <v>96</v>
@@ -5080,17 +5083,17 @@
     </row>
     <row r="31" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="628" t="s">
-        <v>455</v>
-      </c>
-      <c r="C31" s="628"/>
-      <c r="D31" s="628" t="s">
-        <v>477</v>
-      </c>
-      <c r="E31" s="650" t="s">
+      <c r="B31" s="622" t="s">
+        <v>454</v>
+      </c>
+      <c r="C31" s="622"/>
+      <c r="D31" s="622" t="s">
+        <v>476</v>
+      </c>
+      <c r="E31" s="558" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="711" t="str">
+      <c r="F31" s="556" t="str">
         <f>Namespace &amp; ($B31)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/CreatorAffiliation</v>
       </c>
@@ -5122,11 +5125,11 @@
     </row>
     <row r="32" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="629"/>
-      <c r="C32" s="629"/>
-      <c r="D32" s="629"/>
-      <c r="E32" s="651"/>
-      <c r="F32" s="711"/>
+      <c r="B32" s="623"/>
+      <c r="C32" s="623"/>
+      <c r="D32" s="623"/>
+      <c r="E32" s="559"/>
+      <c r="F32" s="556"/>
       <c r="G32" s="87" t="s">
         <v>100</v>
       </c>
@@ -5155,11 +5158,11 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
-      <c r="B33" s="629"/>
-      <c r="C33" s="629"/>
-      <c r="D33" s="629"/>
-      <c r="E33" s="651"/>
-      <c r="F33" s="711"/>
+      <c r="B33" s="623"/>
+      <c r="C33" s="623"/>
+      <c r="D33" s="623"/>
+      <c r="E33" s="559"/>
+      <c r="F33" s="556"/>
       <c r="G33" s="87" t="s">
         <v>103</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/creatorAffiliationIdentifierScheme</v>
       </c>
       <c r="M33" s="89" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N33" s="84" t="s">
         <v>104</v>
@@ -5188,11 +5191,11 @@
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="630"/>
-      <c r="C34" s="630"/>
-      <c r="D34" s="630"/>
-      <c r="E34" s="652"/>
-      <c r="F34" s="712"/>
+      <c r="B34" s="624"/>
+      <c r="C34" s="624"/>
+      <c r="D34" s="624"/>
+      <c r="E34" s="560"/>
+      <c r="F34" s="557"/>
       <c r="G34" s="141" t="s">
         <v>105</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/creatorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="M34" s="148" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N34" s="145" t="s">
         <v>106</v>
@@ -5318,13 +5321,13 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="631" t="s">
+      <c r="A38" s="654" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="631"/>
-      <c r="C38" s="631"/>
+      <c r="B38" s="654"/>
+      <c r="C38" s="654"/>
       <c r="D38" s="382" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E38" s="383" t="s">
         <v>34</v>
@@ -5344,17 +5347,17 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="424"/>
-      <c r="B39" s="632" t="s">
-        <v>464</v>
-      </c>
-      <c r="C39" s="632"/>
-      <c r="D39" s="641" t="s">
-        <v>480</v>
-      </c>
-      <c r="E39" s="568" t="s">
+      <c r="B39" s="655" t="s">
+        <v>463</v>
+      </c>
+      <c r="C39" s="655"/>
+      <c r="D39" s="613" t="s">
+        <v>479</v>
+      </c>
+      <c r="E39" s="616" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="647" t="str">
+      <c r="F39" s="561" t="str">
         <f>Namespace &amp; ($B39)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/ContributorName</v>
       </c>
@@ -5385,16 +5388,16 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="424"/>
-      <c r="B40" s="632"/>
-      <c r="C40" s="632"/>
-      <c r="D40" s="642"/>
-      <c r="E40" s="569"/>
-      <c r="F40" s="648"/>
+      <c r="B40" s="655"/>
+      <c r="C40" s="655"/>
+      <c r="D40" s="614"/>
+      <c r="E40" s="617"/>
+      <c r="F40" s="562"/>
       <c r="G40" s="394" t="s">
         <v>111</v>
       </c>
       <c r="H40" s="394" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I40" s="395" t="s">
         <v>112</v>
@@ -5417,16 +5420,16 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="424"/>
-      <c r="B41" s="632"/>
-      <c r="C41" s="632"/>
-      <c r="D41" s="643"/>
-      <c r="E41" s="570"/>
-      <c r="F41" s="649"/>
+      <c r="B41" s="655"/>
+      <c r="C41" s="655"/>
+      <c r="D41" s="615"/>
+      <c r="E41" s="618"/>
+      <c r="F41" s="563"/>
       <c r="G41" s="399" t="s">
         <v>113</v>
       </c>
       <c r="H41" s="399" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I41" s="400" t="s">
         <v>114</v>
@@ -5449,17 +5452,17 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="424"/>
-      <c r="B42" s="632" t="s">
-        <v>467</v>
-      </c>
-      <c r="C42" s="632"/>
-      <c r="D42" s="641" t="s">
-        <v>481</v>
-      </c>
-      <c r="E42" s="568" t="s">
+      <c r="B42" s="655" t="s">
+        <v>466</v>
+      </c>
+      <c r="C42" s="655"/>
+      <c r="D42" s="613" t="s">
+        <v>480</v>
+      </c>
+      <c r="E42" s="616" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="647" t="str">
+      <c r="F42" s="561" t="str">
         <f>Namespace &amp; ($B42)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/ContributorIdentifier</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>327</v>
       </c>
       <c r="I42" s="405" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J42" s="392">
         <v>1</v>
@@ -5491,11 +5494,11 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="424"/>
-      <c r="B43" s="632"/>
-      <c r="C43" s="632"/>
-      <c r="D43" s="642"/>
-      <c r="E43" s="569"/>
-      <c r="F43" s="648"/>
+      <c r="B43" s="655"/>
+      <c r="C43" s="655"/>
+      <c r="D43" s="614"/>
+      <c r="E43" s="617"/>
+      <c r="F43" s="562"/>
       <c r="G43" s="394" t="s">
         <v>121</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributorIdentifierScheme</v>
       </c>
       <c r="M43" s="406" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N43" s="398" t="s">
         <v>94</v>
@@ -5524,11 +5527,11 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="424"/>
-      <c r="B44" s="632"/>
-      <c r="C44" s="632"/>
-      <c r="D44" s="643"/>
-      <c r="E44" s="570"/>
-      <c r="F44" s="649"/>
+      <c r="B44" s="655"/>
+      <c r="C44" s="655"/>
+      <c r="D44" s="615"/>
+      <c r="E44" s="618"/>
+      <c r="F44" s="563"/>
       <c r="G44" s="399" t="s">
         <v>122</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributorIdentifierSchemeIRI</v>
       </c>
       <c r="M44" s="407" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N44" s="403" t="s">
         <v>96</v>
@@ -5557,17 +5560,17 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="424"/>
-      <c r="B45" s="632" t="s">
-        <v>468</v>
-      </c>
-      <c r="C45" s="632"/>
-      <c r="D45" s="641" t="s">
-        <v>482</v>
-      </c>
-      <c r="E45" s="568" t="s">
+      <c r="B45" s="655" t="s">
+        <v>467</v>
+      </c>
+      <c r="C45" s="655"/>
+      <c r="D45" s="613" t="s">
+        <v>481</v>
+      </c>
+      <c r="E45" s="616" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="644" t="str">
+      <c r="F45" s="619" t="str">
         <f>Namespace &amp; ($B45)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/ContributorAffiliation</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>330</v>
       </c>
       <c r="I45" s="405" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J45" s="392" t="s">
         <v>46</v>
@@ -5599,11 +5602,11 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="424"/>
-      <c r="B46" s="632"/>
-      <c r="C46" s="632"/>
-      <c r="D46" s="642"/>
-      <c r="E46" s="569"/>
-      <c r="F46" s="645"/>
+      <c r="B46" s="655"/>
+      <c r="C46" s="655"/>
+      <c r="D46" s="614"/>
+      <c r="E46" s="617"/>
+      <c r="F46" s="620"/>
       <c r="G46" s="394" t="s">
         <v>123</v>
       </c>
@@ -5632,13 +5635,13 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="424"/>
-      <c r="B47" s="632"/>
-      <c r="C47" s="632"/>
-      <c r="D47" s="642"/>
-      <c r="E47" s="569"/>
-      <c r="F47" s="645"/>
+      <c r="B47" s="655"/>
+      <c r="C47" s="655"/>
+      <c r="D47" s="614"/>
+      <c r="E47" s="617"/>
+      <c r="F47" s="620"/>
       <c r="G47" s="394" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H47" s="394" t="s">
         <v>333</v>
@@ -5657,7 +5660,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliationIdentifierScheme</v>
       </c>
       <c r="M47" s="406" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N47" s="398" t="s">
         <v>104</v>
@@ -5665,11 +5668,11 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="424"/>
-      <c r="B48" s="632"/>
-      <c r="C48" s="632"/>
-      <c r="D48" s="643"/>
-      <c r="E48" s="570"/>
-      <c r="F48" s="646"/>
+      <c r="B48" s="655"/>
+      <c r="C48" s="655"/>
+      <c r="D48" s="615"/>
+      <c r="E48" s="618"/>
+      <c r="F48" s="621"/>
       <c r="G48" s="399" t="s">
         <v>125</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="M48" s="407" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N48" s="403" t="s">
         <v>106</v>
@@ -5746,7 +5749,7 @@
         <v>323</v>
       </c>
       <c r="I50" s="395" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J50" s="396" t="s">
         <v>34</v>
@@ -5799,11 +5802,11 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="633" t="s">
+      <c r="A52" s="656" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="633"/>
-      <c r="C52" s="633"/>
+      <c r="B52" s="656"/>
+      <c r="C52" s="656"/>
       <c r="D52" s="248" t="s">
         <v>437</v>
       </c>
@@ -5825,17 +5828,17 @@
     </row>
     <row r="53" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="426"/>
-      <c r="B53" s="583" t="s">
+      <c r="B53" s="650" t="s">
+        <v>474</v>
+      </c>
+      <c r="C53" s="650"/>
+      <c r="D53" s="650" t="s">
         <v>475</v>
       </c>
-      <c r="C53" s="583"/>
-      <c r="D53" s="583" t="s">
-        <v>476</v>
-      </c>
-      <c r="E53" s="624" t="s">
+      <c r="E53" s="647" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="621" t="str">
+      <c r="F53" s="644" t="str">
         <f>Namespace &amp; ($B53)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/PublisherIdentifier</v>
       </c>
@@ -5867,11 +5870,11 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="426"/>
-      <c r="B54" s="584"/>
-      <c r="C54" s="584"/>
-      <c r="D54" s="584"/>
-      <c r="E54" s="625"/>
-      <c r="F54" s="622"/>
+      <c r="B54" s="651"/>
+      <c r="C54" s="651"/>
+      <c r="D54" s="651"/>
+      <c r="E54" s="648"/>
+      <c r="F54" s="645"/>
       <c r="G54" s="93" t="s">
         <v>136</v>
       </c>
@@ -5900,11 +5903,11 @@
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="426"/>
-      <c r="B55" s="585"/>
-      <c r="C55" s="585"/>
-      <c r="D55" s="585"/>
-      <c r="E55" s="626"/>
-      <c r="F55" s="623"/>
+      <c r="B55" s="652"/>
+      <c r="C55" s="652"/>
+      <c r="D55" s="652"/>
+      <c r="E55" s="649"/>
+      <c r="F55" s="646"/>
       <c r="G55" s="257" t="s">
         <v>137</v>
       </c>
@@ -6031,11 +6034,11 @@
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="586" t="s">
+      <c r="A59" s="673" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="586"/>
-      <c r="C59" s="586"/>
+      <c r="B59" s="673"/>
+      <c r="C59" s="673"/>
       <c r="D59" s="296" t="s">
         <v>139</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v>345</v>
       </c>
       <c r="I60" s="104" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J60" s="100">
         <v>1</v>
@@ -6090,17 +6093,17 @@
     </row>
     <row r="61" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="428"/>
-      <c r="B61" s="550" t="s">
+      <c r="B61" s="600" t="s">
+        <v>484</v>
+      </c>
+      <c r="C61" s="600"/>
+      <c r="D61" s="600" t="s">
         <v>485</v>
       </c>
-      <c r="C61" s="550"/>
-      <c r="D61" s="550" t="s">
-        <v>486</v>
-      </c>
-      <c r="E61" s="553" t="s">
+      <c r="E61" s="597" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="719" t="str">
+      <c r="F61" s="594" t="str">
         <f>Namespace &amp; ($B61)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/LicenseIdentifier</v>
       </c>
@@ -6134,11 +6137,11 @@
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="428"/>
-      <c r="B62" s="551"/>
-      <c r="C62" s="551"/>
-      <c r="D62" s="551"/>
-      <c r="E62" s="554"/>
-      <c r="F62" s="720"/>
+      <c r="B62" s="601"/>
+      <c r="C62" s="601"/>
+      <c r="D62" s="601"/>
+      <c r="E62" s="598"/>
+      <c r="F62" s="595"/>
       <c r="G62" s="98" t="s">
         <v>148</v>
       </c>
@@ -6167,11 +6170,11 @@
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="428"/>
-      <c r="B63" s="587"/>
-      <c r="C63" s="587"/>
-      <c r="D63" s="587"/>
-      <c r="E63" s="722"/>
-      <c r="F63" s="721"/>
+      <c r="B63" s="602"/>
+      <c r="C63" s="602"/>
+      <c r="D63" s="602"/>
+      <c r="E63" s="599"/>
+      <c r="F63" s="596"/>
       <c r="G63" s="290" t="s">
         <v>149</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>344</v>
       </c>
       <c r="I64" s="273" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J64" s="274" t="s">
         <v>46</v>
@@ -6229,18 +6232,18 @@
       <c r="N64" s="277"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="588" t="s">
+      <c r="A65" s="674" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="588"/>
-      <c r="C65" s="588"/>
-      <c r="D65" s="617" t="s">
-        <v>520</v>
-      </c>
-      <c r="E65" s="619" t="s">
+      <c r="B65" s="674"/>
+      <c r="C65" s="674"/>
+      <c r="D65" s="666" t="s">
+        <v>519</v>
+      </c>
+      <c r="E65" s="668" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="617" t="str">
+      <c r="F65" s="666" t="str">
         <f>Namespace &amp; ($A65)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Date</v>
       </c>
@@ -6265,20 +6268,20 @@
       <c r="N65" s="308"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="588"/>
-      <c r="B66" s="588"/>
-      <c r="C66" s="588"/>
-      <c r="D66" s="618"/>
-      <c r="E66" s="620"/>
-      <c r="F66" s="618"/>
+      <c r="A66" s="674"/>
+      <c r="B66" s="674"/>
+      <c r="C66" s="674"/>
+      <c r="D66" s="667"/>
+      <c r="E66" s="669"/>
+      <c r="F66" s="667"/>
       <c r="G66" s="105" t="s">
+        <v>486</v>
+      </c>
+      <c r="H66" s="105" t="s">
         <v>487</v>
       </c>
-      <c r="H66" s="105" t="s">
+      <c r="I66" s="106" t="s">
         <v>488</v>
-      </c>
-      <c r="I66" s="106" t="s">
-        <v>489</v>
       </c>
       <c r="J66" s="107">
         <v>1</v>
@@ -6292,16 +6295,16 @@
         <v>24</v>
       </c>
       <c r="N66" s="109" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="589" t="s">
+      <c r="A67" s="675" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="589"/>
-      <c r="C67" s="589"/>
-      <c r="D67" s="740" t="s">
+      <c r="B67" s="675"/>
+      <c r="C67" s="675"/>
+      <c r="D67" s="603" t="s">
         <v>159</v>
       </c>
       <c r="E67" s="365" t="s">
@@ -6322,9 +6325,9 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="372"/>
-      <c r="B68" s="615"/>
-      <c r="C68" s="615"/>
-      <c r="D68" s="741"/>
+      <c r="B68" s="664"/>
+      <c r="C68" s="664"/>
+      <c r="D68" s="604"/>
       <c r="E68" s="316"/>
       <c r="F68" s="317"/>
       <c r="G68" s="318" t="s">
@@ -6357,7 +6360,7 @@
       <c r="A69" s="372"/>
       <c r="B69" s="373"/>
       <c r="C69" s="322"/>
-      <c r="D69" s="741"/>
+      <c r="D69" s="604"/>
       <c r="E69" s="324"/>
       <c r="F69" s="317"/>
       <c r="G69" s="318" t="s">
@@ -6383,14 +6386,14 @@
         <v>24</v>
       </c>
       <c r="N69" s="318" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="372"/>
       <c r="B70" s="373"/>
       <c r="C70" s="322"/>
-      <c r="D70" s="741"/>
+      <c r="D70" s="604"/>
       <c r="E70" s="325"/>
       <c r="F70" s="317"/>
       <c r="G70" s="310" t="s">
@@ -6412,27 +6415,27 @@
         <v>443</v>
       </c>
       <c r="M70" s="314" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N70" s="314" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="372"/>
       <c r="B71" s="373"/>
       <c r="C71" s="322"/>
-      <c r="D71" s="741"/>
+      <c r="D71" s="604"/>
       <c r="E71" s="325"/>
       <c r="F71" s="317"/>
       <c r="G71" s="310" t="s">
+        <v>445</v>
+      </c>
+      <c r="H71" s="310" t="s">
         <v>446</v>
       </c>
-      <c r="H71" s="310" t="s">
+      <c r="I71" s="311" t="s">
         <v>447</v>
-      </c>
-      <c r="I71" s="311" t="s">
-        <v>448</v>
       </c>
       <c r="J71" s="312">
         <v>1</v>
@@ -6445,7 +6448,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/distributionMediaType</v>
       </c>
       <c r="M71" s="314" t="s">
-        <v>445</v>
+        <v>523</v>
       </c>
       <c r="N71" s="314" t="s">
         <v>28</v>
@@ -6455,7 +6458,7 @@
       <c r="A72" s="372"/>
       <c r="B72" s="373"/>
       <c r="C72" s="322"/>
-      <c r="D72" s="742"/>
+      <c r="D72" s="605"/>
       <c r="E72" s="324"/>
       <c r="F72" s="317"/>
       <c r="G72" s="310" t="s">
@@ -6486,17 +6489,17 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="372"/>
-      <c r="B73" s="603" t="s">
+      <c r="B73" s="658" t="s">
+        <v>490</v>
+      </c>
+      <c r="C73" s="658"/>
+      <c r="D73" s="578" t="s">
         <v>491</v>
       </c>
-      <c r="C73" s="603"/>
-      <c r="D73" s="682" t="s">
-        <v>492</v>
-      </c>
-      <c r="E73" s="606">
+      <c r="E73" s="575">
         <v>1</v>
       </c>
-      <c r="F73" s="679"/>
+      <c r="F73" s="572"/>
       <c r="G73" s="326" t="s">
         <v>163</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>350</v>
       </c>
       <c r="I73" s="327" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J73" s="328">
         <v>1</v>
@@ -6525,11 +6528,11 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="372"/>
-      <c r="B74" s="604"/>
-      <c r="C74" s="604"/>
-      <c r="D74" s="683"/>
-      <c r="E74" s="607"/>
-      <c r="F74" s="680"/>
+      <c r="B74" s="659"/>
+      <c r="C74" s="659"/>
+      <c r="D74" s="579"/>
+      <c r="E74" s="576"/>
+      <c r="F74" s="573"/>
       <c r="G74" s="310" t="s">
         <v>164</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>352</v>
       </c>
       <c r="I74" s="311" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J74" s="312" t="s">
         <v>54</v>
@@ -6558,16 +6561,16 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="372"/>
-      <c r="B75" s="605"/>
-      <c r="C75" s="605"/>
-      <c r="D75" s="684"/>
-      <c r="E75" s="608"/>
-      <c r="F75" s="681"/>
+      <c r="B75" s="660"/>
+      <c r="C75" s="660"/>
+      <c r="D75" s="580"/>
+      <c r="E75" s="577"/>
+      <c r="F75" s="574"/>
       <c r="G75" s="331" t="s">
+        <v>449</v>
+      </c>
+      <c r="H75" s="331" t="s">
         <v>450</v>
-      </c>
-      <c r="H75" s="331" t="s">
-        <v>451</v>
       </c>
       <c r="I75" s="332" t="s">
         <v>411</v>
@@ -6620,12 +6623,12 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="372"/>
-      <c r="B77" s="616" t="s">
+      <c r="B77" s="665" t="s">
+        <v>492</v>
+      </c>
+      <c r="C77" s="665"/>
+      <c r="D77" s="358" t="s">
         <v>493</v>
-      </c>
-      <c r="C77" s="616"/>
-      <c r="D77" s="358" t="s">
-        <v>494</v>
       </c>
       <c r="E77" s="359" t="s">
         <v>54</v>
@@ -6645,17 +6648,17 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="372"/>
-      <c r="B78" s="602"/>
-      <c r="C78" s="603" t="s">
+      <c r="B78" s="657"/>
+      <c r="C78" s="658" t="s">
+        <v>494</v>
+      </c>
+      <c r="D78" s="658" t="s">
         <v>495</v>
       </c>
-      <c r="D78" s="603" t="s">
-        <v>496</v>
-      </c>
-      <c r="E78" s="606">
+      <c r="E78" s="575">
         <v>1</v>
       </c>
-      <c r="F78" s="612" t="str">
+      <c r="F78" s="661" t="str">
         <f>Namespace &amp; ($C78)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DistributorName</v>
       </c>
@@ -6686,11 +6689,11 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="372"/>
-      <c r="B79" s="602"/>
-      <c r="C79" s="604"/>
-      <c r="D79" s="604"/>
-      <c r="E79" s="607"/>
-      <c r="F79" s="613"/>
+      <c r="B79" s="657"/>
+      <c r="C79" s="659"/>
+      <c r="D79" s="659"/>
+      <c r="E79" s="576"/>
+      <c r="F79" s="662"/>
       <c r="G79" s="354" t="s">
         <v>170</v>
       </c>
@@ -6718,16 +6721,16 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="372"/>
-      <c r="B80" s="602"/>
-      <c r="C80" s="605"/>
-      <c r="D80" s="605"/>
-      <c r="E80" s="608"/>
-      <c r="F80" s="614"/>
+      <c r="B80" s="657"/>
+      <c r="C80" s="660"/>
+      <c r="D80" s="660"/>
+      <c r="E80" s="577"/>
+      <c r="F80" s="663"/>
       <c r="G80" s="340" t="s">
         <v>172</v>
       </c>
       <c r="H80" s="340" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I80" s="341" t="s">
         <v>173</v>
@@ -6750,17 +6753,17 @@
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="372"/>
-      <c r="B81" s="602"/>
-      <c r="C81" s="603" t="s">
+      <c r="B81" s="657"/>
+      <c r="C81" s="658" t="s">
+        <v>497</v>
+      </c>
+      <c r="D81" s="658" t="s">
         <v>498</v>
       </c>
-      <c r="D81" s="603" t="s">
-        <v>499</v>
-      </c>
-      <c r="E81" s="606">
+      <c r="E81" s="575">
         <v>1</v>
       </c>
-      <c r="F81" s="612" t="str">
+      <c r="F81" s="661" t="str">
         <f>Namespace &amp; ($C81)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DistributorIdentifier</v>
       </c>
@@ -6792,11 +6795,11 @@
     </row>
     <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="372"/>
-      <c r="B82" s="602"/>
-      <c r="C82" s="604"/>
-      <c r="D82" s="604"/>
-      <c r="E82" s="607"/>
-      <c r="F82" s="613"/>
+      <c r="B82" s="657"/>
+      <c r="C82" s="659"/>
+      <c r="D82" s="659"/>
+      <c r="E82" s="576"/>
+      <c r="F82" s="662"/>
       <c r="G82" s="354" t="s">
         <v>181</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/distributorIdentifierScheme</v>
       </c>
       <c r="M82" s="374" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N82" s="354" t="s">
         <v>94</v>
@@ -6825,11 +6828,11 @@
     </row>
     <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="372"/>
-      <c r="B83" s="602"/>
-      <c r="C83" s="605"/>
-      <c r="D83" s="605"/>
-      <c r="E83" s="608"/>
-      <c r="F83" s="614"/>
+      <c r="B83" s="657"/>
+      <c r="C83" s="660"/>
+      <c r="D83" s="660"/>
+      <c r="E83" s="577"/>
+      <c r="F83" s="663"/>
       <c r="G83" s="340" t="s">
         <v>182</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/distributorIdentifierSchemeIRI</v>
       </c>
       <c r="M83" s="344" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N83" s="340" t="s">
         <v>96</v>
@@ -6858,17 +6861,17 @@
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="372"/>
-      <c r="B84" s="602"/>
-      <c r="C84" s="603" t="s">
+      <c r="B84" s="657"/>
+      <c r="C84" s="658" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" s="658" t="s">
         <v>500</v>
       </c>
-      <c r="D84" s="603" t="s">
-        <v>501</v>
-      </c>
-      <c r="E84" s="606" t="s">
+      <c r="E84" s="575" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="609" t="str">
+      <c r="F84" s="670" t="str">
         <f>Namespace &amp; ($C84)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DistributorAffiliation</v>
       </c>
@@ -6900,11 +6903,11 @@
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="372"/>
-      <c r="B85" s="602"/>
-      <c r="C85" s="604"/>
-      <c r="D85" s="604"/>
-      <c r="E85" s="607"/>
-      <c r="F85" s="610"/>
+      <c r="B85" s="657"/>
+      <c r="C85" s="659"/>
+      <c r="D85" s="659"/>
+      <c r="E85" s="576"/>
+      <c r="F85" s="671"/>
       <c r="G85" s="354" t="s">
         <v>185</v>
       </c>
@@ -6933,11 +6936,11 @@
     </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="372"/>
-      <c r="B86" s="602"/>
-      <c r="C86" s="604"/>
-      <c r="D86" s="604"/>
-      <c r="E86" s="607"/>
-      <c r="F86" s="610"/>
+      <c r="B86" s="657"/>
+      <c r="C86" s="659"/>
+      <c r="D86" s="659"/>
+      <c r="E86" s="576"/>
+      <c r="F86" s="671"/>
       <c r="G86" s="354" t="s">
         <v>187</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/distributorAffiliationIdentifierScheme</v>
       </c>
       <c r="M86" s="374" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N86" s="354" t="s">
         <v>104</v>
@@ -6966,11 +6969,11 @@
     </row>
     <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="372"/>
-      <c r="B87" s="602"/>
-      <c r="C87" s="605"/>
-      <c r="D87" s="605"/>
-      <c r="E87" s="608"/>
-      <c r="F87" s="611"/>
+      <c r="B87" s="657"/>
+      <c r="C87" s="660"/>
+      <c r="D87" s="660"/>
+      <c r="E87" s="577"/>
+      <c r="F87" s="672"/>
       <c r="G87" s="340" t="s">
         <v>188</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/distributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="M87" s="344" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N87" s="340" t="s">
         <v>106</v>
@@ -7056,7 +7059,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/distributorRole</v>
       </c>
       <c r="M89" s="374" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N89" s="354" t="s">
         <v>28</v>
@@ -7089,7 +7092,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/distributorType</v>
       </c>
       <c r="M90" s="353" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N90" s="349" t="s">
         <v>76</v>
@@ -7098,11 +7101,11 @@
       <c r="P90"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="576" t="s">
+      <c r="A91" s="693" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="576"/>
-      <c r="C91" s="576"/>
+      <c r="B91" s="693"/>
+      <c r="C91" s="693"/>
       <c r="D91" s="430" t="s">
         <v>410</v>
       </c>
@@ -7124,17 +7127,17 @@
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="426"/>
-      <c r="B92" s="577" t="s">
+      <c r="B92" s="581" t="s">
         <v>283</v>
       </c>
-      <c r="C92" s="577"/>
-      <c r="D92" s="577" t="s">
+      <c r="C92" s="581"/>
+      <c r="D92" s="581" t="s">
         <v>287</v>
       </c>
-      <c r="E92" s="685" t="s">
+      <c r="E92" s="584" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="692" t="str">
+      <c r="F92" s="589" t="str">
         <f>Namespace &amp; ($B92)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DataStream</v>
       </c>
@@ -7158,7 +7161,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/dataStream</v>
       </c>
       <c r="M92" s="447" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N92" s="447" t="s">
         <v>28</v>
@@ -7166,11 +7169,11 @@
     </row>
     <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="426"/>
-      <c r="B93" s="578"/>
-      <c r="C93" s="578"/>
-      <c r="D93" s="578"/>
-      <c r="E93" s="686"/>
-      <c r="F93" s="693"/>
+      <c r="B93" s="582"/>
+      <c r="C93" s="582"/>
+      <c r="D93" s="582"/>
+      <c r="E93" s="585"/>
+      <c r="F93" s="590"/>
       <c r="G93" s="110" t="s">
         <v>285</v>
       </c>
@@ -7191,7 +7194,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/dataStreamIRI</v>
       </c>
       <c r="M93" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N93" s="114" t="s">
         <v>28</v>
@@ -7199,11 +7202,11 @@
     </row>
     <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="426"/>
-      <c r="B94" s="578"/>
-      <c r="C94" s="578"/>
-      <c r="D94" s="578"/>
-      <c r="E94" s="686"/>
-      <c r="F94" s="693"/>
+      <c r="B94" s="582"/>
+      <c r="C94" s="582"/>
+      <c r="D94" s="582"/>
+      <c r="E94" s="585"/>
+      <c r="F94" s="590"/>
       <c r="G94" s="114" t="s">
         <v>191</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/datastreamScheme</v>
       </c>
       <c r="M94" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N94" s="114" t="s">
         <v>28</v>
@@ -7232,11 +7235,11 @@
     </row>
     <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="426"/>
-      <c r="B95" s="579"/>
-      <c r="C95" s="579"/>
-      <c r="D95" s="579"/>
-      <c r="E95" s="687"/>
-      <c r="F95" s="694"/>
+      <c r="B95" s="583"/>
+      <c r="C95" s="583"/>
+      <c r="D95" s="583"/>
+      <c r="E95" s="586"/>
+      <c r="F95" s="591"/>
       <c r="G95" s="448" t="s">
         <v>286</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/dataStreamSchemeIRI</v>
       </c>
       <c r="M95" s="451" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N95" s="451" t="s">
         <v>28</v>
@@ -7265,17 +7268,17 @@
     </row>
     <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="426"/>
-      <c r="B96" s="656"/>
-      <c r="C96" s="577" t="s">
+      <c r="B96" s="697"/>
+      <c r="C96" s="581" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="577" t="s">
+      <c r="D96" s="581" t="s">
         <v>368</v>
       </c>
-      <c r="E96" s="685">
+      <c r="E96" s="584">
         <v>1</v>
       </c>
-      <c r="F96" s="692" t="str">
+      <c r="F96" s="589" t="str">
         <f>Namespace &amp; ($C96)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DataSource</v>
       </c>
@@ -7299,7 +7302,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/dataSource</v>
       </c>
       <c r="M96" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N96" s="447" t="s">
         <v>28</v>
@@ -7307,11 +7310,11 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="426"/>
-      <c r="B97" s="656"/>
-      <c r="C97" s="578"/>
-      <c r="D97" s="578"/>
-      <c r="E97" s="686"/>
-      <c r="F97" s="693"/>
+      <c r="B97" s="697"/>
+      <c r="C97" s="582"/>
+      <c r="D97" s="582"/>
+      <c r="E97" s="585"/>
+      <c r="F97" s="590"/>
       <c r="G97" s="110" t="s">
         <v>195</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/dataSourceIRI</v>
       </c>
       <c r="M97" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N97" s="114" t="s">
         <v>28</v>
@@ -7340,11 +7343,11 @@
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="426"/>
-      <c r="B98" s="656"/>
-      <c r="C98" s="578"/>
-      <c r="D98" s="578"/>
-      <c r="E98" s="686"/>
-      <c r="F98" s="693"/>
+      <c r="B98" s="697"/>
+      <c r="C98" s="582"/>
+      <c r="D98" s="582"/>
+      <c r="E98" s="585"/>
+      <c r="F98" s="590"/>
       <c r="G98" s="110" t="s">
         <v>197</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/dataSourceScheme</v>
       </c>
       <c r="M98" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N98" s="114" t="s">
         <v>28</v>
@@ -7373,11 +7376,11 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="426"/>
-      <c r="B99" s="656"/>
-      <c r="C99" s="579"/>
-      <c r="D99" s="579"/>
-      <c r="E99" s="687"/>
-      <c r="F99" s="694"/>
+      <c r="B99" s="697"/>
+      <c r="C99" s="583"/>
+      <c r="D99" s="583"/>
+      <c r="E99" s="586"/>
+      <c r="F99" s="591"/>
       <c r="G99" s="448" t="s">
         <v>198</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/dataSourceSchemeIRI</v>
       </c>
       <c r="M99" s="451" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N99" s="451" t="s">
         <v>28</v>
@@ -7406,17 +7409,17 @@
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="426"/>
-      <c r="B100" s="656"/>
-      <c r="C100" s="578" t="s">
+      <c r="B100" s="697"/>
+      <c r="C100" s="582" t="s">
         <v>282</v>
       </c>
-      <c r="D100" s="578" t="s">
+      <c r="D100" s="582" t="s">
         <v>288</v>
       </c>
-      <c r="E100" s="686" t="s">
+      <c r="E100" s="585" t="s">
         <v>54</v>
       </c>
-      <c r="F100" s="695" t="str">
+      <c r="F100" s="592" t="str">
         <f>Namespace &amp; ($C100)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Variable</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/variable</v>
       </c>
       <c r="M100" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N100" s="114" t="s">
         <v>28</v>
@@ -7448,11 +7451,11 @@
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="426"/>
-      <c r="B101" s="656"/>
-      <c r="C101" s="578"/>
-      <c r="D101" s="578"/>
-      <c r="E101" s="686"/>
-      <c r="F101" s="695"/>
+      <c r="B101" s="697"/>
+      <c r="C101" s="582"/>
+      <c r="D101" s="582"/>
+      <c r="E101" s="585"/>
+      <c r="F101" s="592"/>
       <c r="G101" s="110" t="s">
         <v>290</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/variableIRI</v>
       </c>
       <c r="M101" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N101" s="114" t="s">
         <v>28</v>
@@ -7481,11 +7484,11 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="426"/>
-      <c r="B102" s="656"/>
-      <c r="C102" s="578"/>
-      <c r="D102" s="578"/>
-      <c r="E102" s="686"/>
-      <c r="F102" s="695"/>
+      <c r="B102" s="697"/>
+      <c r="C102" s="582"/>
+      <c r="D102" s="582"/>
+      <c r="E102" s="585"/>
+      <c r="F102" s="592"/>
       <c r="G102" s="110" t="s">
         <v>291</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/variableScheme</v>
       </c>
       <c r="M102" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N102" s="114" t="s">
         <v>28</v>
@@ -7514,11 +7517,11 @@
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="427"/>
-      <c r="B103" s="657"/>
-      <c r="C103" s="688"/>
-      <c r="D103" s="688"/>
-      <c r="E103" s="689"/>
-      <c r="F103" s="696"/>
+      <c r="B103" s="698"/>
+      <c r="C103" s="587"/>
+      <c r="D103" s="587"/>
+      <c r="E103" s="588"/>
+      <c r="F103" s="593"/>
       <c r="G103" s="438" t="s">
         <v>292</v>
       </c>
@@ -7539,18 +7542,18 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/variableSchemeIRI</v>
       </c>
       <c r="M103" s="442" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N103" s="442" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="580" t="s">
+      <c r="A104" s="694" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="580"/>
-      <c r="C104" s="580"/>
+      <c r="B104" s="694"/>
+      <c r="C104" s="694"/>
       <c r="D104" s="478" t="s">
         <v>202</v>
       </c>
@@ -7572,17 +7575,17 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="424"/>
-      <c r="B105" s="565" t="s">
-        <v>505</v>
-      </c>
-      <c r="C105" s="565"/>
-      <c r="D105" s="581" t="s">
+      <c r="B105" s="685" t="s">
         <v>504</v>
       </c>
-      <c r="E105" s="690" t="s">
+      <c r="C105" s="685"/>
+      <c r="D105" s="695" t="s">
+        <v>503</v>
+      </c>
+      <c r="E105" s="699" t="s">
         <v>46</v>
       </c>
-      <c r="F105" s="571" t="str">
+      <c r="F105" s="688" t="str">
         <f>Namespace &amp; ($B105)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoveragePoint</v>
       </c>
@@ -7614,11 +7617,11 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="424"/>
-      <c r="B106" s="567"/>
-      <c r="C106" s="567"/>
-      <c r="D106" s="582"/>
-      <c r="E106" s="691"/>
-      <c r="F106" s="573"/>
+      <c r="B106" s="687"/>
+      <c r="C106" s="687"/>
+      <c r="D106" s="696"/>
+      <c r="E106" s="700"/>
+      <c r="F106" s="690"/>
       <c r="G106" s="458" t="s">
         <v>203</v>
       </c>
@@ -7647,17 +7650,17 @@
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="424"/>
-      <c r="B107" s="565" t="s">
+      <c r="B107" s="685" t="s">
+        <v>505</v>
+      </c>
+      <c r="C107" s="685"/>
+      <c r="D107" s="685" t="s">
         <v>506</v>
       </c>
-      <c r="C107" s="565"/>
-      <c r="D107" s="565" t="s">
-        <v>507</v>
-      </c>
-      <c r="E107" s="568" t="s">
+      <c r="E107" s="616" t="s">
         <v>46</v>
       </c>
-      <c r="F107" s="571" t="str">
+      <c r="F107" s="688" t="str">
         <f>Namespace &amp; ($B107)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoverageBoundingBox</v>
       </c>
@@ -7689,11 +7692,11 @@
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="424"/>
-      <c r="B108" s="566"/>
-      <c r="C108" s="566"/>
-      <c r="D108" s="566"/>
-      <c r="E108" s="569"/>
-      <c r="F108" s="572"/>
+      <c r="B108" s="686"/>
+      <c r="C108" s="686"/>
+      <c r="D108" s="686"/>
+      <c r="E108" s="617"/>
+      <c r="F108" s="689"/>
       <c r="G108" s="468" t="s">
         <v>209</v>
       </c>
@@ -7722,11 +7725,11 @@
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="424"/>
-      <c r="B109" s="566"/>
-      <c r="C109" s="566"/>
-      <c r="D109" s="566"/>
-      <c r="E109" s="569"/>
-      <c r="F109" s="572"/>
+      <c r="B109" s="686"/>
+      <c r="C109" s="686"/>
+      <c r="D109" s="686"/>
+      <c r="E109" s="617"/>
+      <c r="F109" s="689"/>
       <c r="G109" s="468" t="s">
         <v>211</v>
       </c>
@@ -7755,11 +7758,11 @@
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="424"/>
-      <c r="B110" s="567"/>
-      <c r="C110" s="567"/>
-      <c r="D110" s="567"/>
-      <c r="E110" s="570"/>
-      <c r="F110" s="573"/>
+      <c r="B110" s="687"/>
+      <c r="C110" s="687"/>
+      <c r="D110" s="687"/>
+      <c r="E110" s="618"/>
+      <c r="F110" s="690"/>
       <c r="G110" s="473" t="s">
         <v>213</v>
       </c>
@@ -7788,17 +7791,17 @@
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="424"/>
-      <c r="B111" s="565" t="s">
+      <c r="B111" s="685" t="s">
+        <v>507</v>
+      </c>
+      <c r="C111" s="685"/>
+      <c r="D111" s="691" t="s">
         <v>508</v>
       </c>
-      <c r="C111" s="565"/>
-      <c r="D111" s="574" t="s">
-        <v>509</v>
-      </c>
-      <c r="E111" s="568" t="s">
+      <c r="E111" s="616" t="s">
         <v>46</v>
       </c>
-      <c r="F111" s="571" t="str">
+      <c r="F111" s="688" t="str">
         <f>Namespace &amp; ($B111)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoveragePolygon</v>
       </c>
@@ -7830,11 +7833,11 @@
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="424"/>
-      <c r="B112" s="567"/>
-      <c r="C112" s="567"/>
-      <c r="D112" s="575"/>
-      <c r="E112" s="570"/>
-      <c r="F112" s="573"/>
+      <c r="B112" s="687"/>
+      <c r="C112" s="687"/>
+      <c r="D112" s="692"/>
+      <c r="E112" s="618"/>
+      <c r="F112" s="690"/>
       <c r="G112" s="458" t="s">
         <v>439</v>
       </c>
@@ -7895,18 +7898,18 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="557" t="s">
+      <c r="A114" s="713" t="s">
         <v>217</v>
       </c>
-      <c r="B114" s="557"/>
-      <c r="C114" s="557"/>
-      <c r="D114" s="726" t="s">
+      <c r="B114" s="713"/>
+      <c r="C114" s="713"/>
+      <c r="D114" s="730" t="s">
         <v>218</v>
       </c>
-      <c r="E114" s="658" t="s">
+      <c r="E114" s="721" t="s">
         <v>46</v>
       </c>
-      <c r="F114" s="661" t="str">
+      <c r="F114" s="724" t="str">
         <f>Namespace &amp; ($A114)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/VerticalCoverage</v>
       </c>
@@ -7937,12 +7940,12 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="558"/>
-      <c r="B115" s="558"/>
-      <c r="C115" s="558"/>
-      <c r="D115" s="727"/>
-      <c r="E115" s="659"/>
-      <c r="F115" s="662"/>
+      <c r="A115" s="714"/>
+      <c r="B115" s="714"/>
+      <c r="C115" s="714"/>
+      <c r="D115" s="731"/>
+      <c r="E115" s="722"/>
+      <c r="F115" s="725"/>
       <c r="G115" s="116" t="s">
         <v>221</v>
       </c>
@@ -7970,12 +7973,12 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="558"/>
-      <c r="B116" s="558"/>
-      <c r="C116" s="558"/>
-      <c r="D116" s="727"/>
-      <c r="E116" s="659"/>
-      <c r="F116" s="662"/>
+      <c r="A116" s="714"/>
+      <c r="B116" s="714"/>
+      <c r="C116" s="714"/>
+      <c r="D116" s="731"/>
+      <c r="E116" s="722"/>
+      <c r="F116" s="725"/>
       <c r="G116" s="116" t="s">
         <v>223</v>
       </c>
@@ -8003,12 +8006,12 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="558"/>
-      <c r="B117" s="558"/>
-      <c r="C117" s="558"/>
-      <c r="D117" s="727"/>
-      <c r="E117" s="659"/>
-      <c r="F117" s="662"/>
+      <c r="A117" s="714"/>
+      <c r="B117" s="714"/>
+      <c r="C117" s="714"/>
+      <c r="D117" s="731"/>
+      <c r="E117" s="722"/>
+      <c r="F117" s="725"/>
       <c r="G117" s="116" t="s">
         <v>224</v>
       </c>
@@ -8036,12 +8039,12 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="558"/>
-      <c r="B118" s="558"/>
-      <c r="C118" s="558"/>
-      <c r="D118" s="727"/>
-      <c r="E118" s="659"/>
-      <c r="F118" s="662"/>
+      <c r="A118" s="714"/>
+      <c r="B118" s="714"/>
+      <c r="C118" s="714"/>
+      <c r="D118" s="731"/>
+      <c r="E118" s="722"/>
+      <c r="F118" s="725"/>
       <c r="G118" s="116" t="s">
         <v>225</v>
       </c>
@@ -8069,12 +8072,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="558"/>
-      <c r="B119" s="558"/>
-      <c r="C119" s="558"/>
-      <c r="D119" s="727"/>
-      <c r="E119" s="659"/>
-      <c r="F119" s="662"/>
+      <c r="A119" s="714"/>
+      <c r="B119" s="714"/>
+      <c r="C119" s="714"/>
+      <c r="D119" s="731"/>
+      <c r="E119" s="722"/>
+      <c r="F119" s="725"/>
       <c r="G119" s="116" t="s">
         <v>226</v>
       </c>
@@ -8102,12 +8105,12 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="558"/>
-      <c r="B120" s="558"/>
-      <c r="C120" s="558"/>
-      <c r="D120" s="727"/>
-      <c r="E120" s="659"/>
-      <c r="F120" s="662"/>
+      <c r="A120" s="714"/>
+      <c r="B120" s="714"/>
+      <c r="C120" s="714"/>
+      <c r="D120" s="731"/>
+      <c r="E120" s="722"/>
+      <c r="F120" s="725"/>
       <c r="G120" s="116" t="s">
         <v>398</v>
       </c>
@@ -8135,16 +8138,16 @@
       </c>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="559"/>
-      <c r="B121" s="559"/>
-      <c r="C121" s="559"/>
-      <c r="D121" s="728"/>
-      <c r="E121" s="660"/>
-      <c r="F121" s="663"/>
-      <c r="G121" s="743" t="s">
+      <c r="A121" s="715"/>
+      <c r="B121" s="715"/>
+      <c r="C121" s="715"/>
+      <c r="D121" s="732"/>
+      <c r="E121" s="723"/>
+      <c r="F121" s="726"/>
+      <c r="G121" s="541" t="s">
         <v>408</v>
       </c>
-      <c r="H121" s="743" t="s">
+      <c r="H121" s="541" t="s">
         <v>423</v>
       </c>
       <c r="I121" s="498" t="s">
@@ -8168,18 +8171,18 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="560" t="s">
+      <c r="A122" s="716" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="560"/>
-      <c r="C122" s="560"/>
-      <c r="D122" s="723" t="s">
+      <c r="B122" s="716"/>
+      <c r="C122" s="716"/>
+      <c r="D122" s="727" t="s">
         <v>228</v>
       </c>
-      <c r="E122" s="729" t="s">
+      <c r="E122" s="733" t="s">
         <v>46</v>
       </c>
-      <c r="F122" s="730" t="str">
+      <c r="F122" s="734" t="str">
         <f>Namespace &amp; ($A122)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/TemporalCoverage</v>
       </c>
@@ -8210,12 +8213,12 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="561"/>
-      <c r="B123" s="561"/>
-      <c r="C123" s="561"/>
-      <c r="D123" s="724"/>
-      <c r="E123" s="701"/>
-      <c r="F123" s="731"/>
+      <c r="A123" s="717"/>
+      <c r="B123" s="717"/>
+      <c r="C123" s="717"/>
+      <c r="D123" s="728"/>
+      <c r="E123" s="546"/>
+      <c r="F123" s="735"/>
       <c r="G123" s="121" t="s">
         <v>231</v>
       </c>
@@ -8243,12 +8246,12 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="561"/>
-      <c r="B124" s="561"/>
-      <c r="C124" s="561"/>
-      <c r="D124" s="724"/>
-      <c r="E124" s="701"/>
-      <c r="F124" s="731"/>
+      <c r="A124" s="717"/>
+      <c r="B124" s="717"/>
+      <c r="C124" s="717"/>
+      <c r="D124" s="728"/>
+      <c r="E124" s="546"/>
+      <c r="F124" s="735"/>
       <c r="G124" s="121" t="s">
         <v>233</v>
       </c>
@@ -8276,12 +8279,12 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="562"/>
-      <c r="B125" s="562"/>
-      <c r="C125" s="562"/>
-      <c r="D125" s="725"/>
-      <c r="E125" s="702"/>
-      <c r="F125" s="732"/>
+      <c r="A125" s="718"/>
+      <c r="B125" s="718"/>
+      <c r="C125" s="718"/>
+      <c r="D125" s="729"/>
+      <c r="E125" s="547"/>
+      <c r="F125" s="736"/>
       <c r="G125" s="507" t="s">
         <v>235</v>
       </c>
@@ -8309,13 +8312,13 @@
       </c>
     </row>
     <row r="126" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="563" t="s">
+      <c r="A126" s="719" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="563"/>
-      <c r="C126" s="563"/>
+      <c r="B126" s="719"/>
+      <c r="C126" s="719"/>
       <c r="D126" s="518" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E126" s="519" t="s">
         <v>34</v>
@@ -8335,17 +8338,17 @@
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="428"/>
-      <c r="B127" s="547" t="s">
-        <v>511</v>
-      </c>
-      <c r="C127" s="547"/>
-      <c r="D127" s="541" t="s">
-        <v>514</v>
-      </c>
-      <c r="E127" s="544">
+      <c r="B127" s="707" t="s">
+        <v>510</v>
+      </c>
+      <c r="C127" s="707"/>
+      <c r="D127" s="701" t="s">
+        <v>513</v>
+      </c>
+      <c r="E127" s="704">
         <v>1</v>
       </c>
-      <c r="F127" s="541" t="str">
+      <c r="F127" s="701" t="str">
         <f>Namespace &amp; ($B127)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Award</v>
       </c>
@@ -8377,11 +8380,11 @@
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="428"/>
-      <c r="B128" s="548"/>
-      <c r="C128" s="548"/>
-      <c r="D128" s="542"/>
-      <c r="E128" s="545"/>
-      <c r="F128" s="542"/>
+      <c r="B128" s="708"/>
+      <c r="C128" s="708"/>
+      <c r="D128" s="702"/>
+      <c r="E128" s="705"/>
+      <c r="F128" s="702"/>
       <c r="G128" s="516" t="s">
         <v>240</v>
       </c>
@@ -8410,11 +8413,11 @@
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="428"/>
-      <c r="B129" s="564"/>
-      <c r="C129" s="564"/>
-      <c r="D129" s="543"/>
-      <c r="E129" s="546"/>
-      <c r="F129" s="543"/>
+      <c r="B129" s="720"/>
+      <c r="C129" s="720"/>
+      <c r="D129" s="703"/>
+      <c r="E129" s="706"/>
+      <c r="F129" s="703"/>
       <c r="G129" s="535" t="s">
         <v>242</v>
       </c>
@@ -8443,17 +8446,17 @@
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="428"/>
-      <c r="B130" s="547" t="s">
+      <c r="B130" s="707" t="s">
+        <v>511</v>
+      </c>
+      <c r="C130" s="707"/>
+      <c r="D130" s="600" t="s">
         <v>512</v>
       </c>
-      <c r="C130" s="547"/>
-      <c r="D130" s="550" t="s">
-        <v>513</v>
-      </c>
-      <c r="E130" s="553" t="s">
+      <c r="E130" s="597" t="s">
         <v>54</v>
       </c>
-      <c r="F130" s="541" t="str">
+      <c r="F130" s="701" t="str">
         <f>Namespace &amp; ($B130)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Funder</v>
       </c>
@@ -8485,11 +8488,11 @@
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="428"/>
-      <c r="B131" s="548"/>
-      <c r="C131" s="548"/>
-      <c r="D131" s="551"/>
-      <c r="E131" s="554"/>
-      <c r="F131" s="542"/>
+      <c r="B131" s="708"/>
+      <c r="C131" s="708"/>
+      <c r="D131" s="601"/>
+      <c r="E131" s="598"/>
+      <c r="F131" s="702"/>
       <c r="G131" s="512" t="s">
         <v>246</v>
       </c>
@@ -8518,11 +8521,11 @@
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="428"/>
-      <c r="B132" s="548"/>
-      <c r="C132" s="548"/>
-      <c r="D132" s="551"/>
-      <c r="E132" s="554"/>
-      <c r="F132" s="542"/>
+      <c r="B132" s="708"/>
+      <c r="C132" s="708"/>
+      <c r="D132" s="601"/>
+      <c r="E132" s="598"/>
+      <c r="F132" s="702"/>
       <c r="G132" s="516" t="s">
         <v>248</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/funderIdentifierScheme</v>
       </c>
       <c r="M132" s="517" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N132" s="512" t="s">
         <v>28</v>
@@ -8551,11 +8554,11 @@
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="429"/>
-      <c r="B133" s="549"/>
-      <c r="C133" s="549"/>
-      <c r="D133" s="552"/>
-      <c r="E133" s="555"/>
-      <c r="F133" s="556"/>
+      <c r="B133" s="709"/>
+      <c r="C133" s="709"/>
+      <c r="D133" s="710"/>
+      <c r="E133" s="711"/>
+      <c r="F133" s="712"/>
       <c r="G133" s="525" t="s">
         <v>250</v>
       </c>
@@ -8576,7 +8579,7 @@
         <v>http://vocab.fairdatacollective.org/dataset/properties/funderIdentifierSchemeIRI</v>
       </c>
       <c r="M133" s="529" t="s">
-        <v>24</v>
+        <v>522</v>
       </c>
       <c r="N133" s="530" t="s">
         <v>28</v>
@@ -8596,7 +8599,7 @@
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" s="540" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H137" s="3"/>
       <c r="J137" s="9"/>
@@ -8635,20 +8638,20 @@
     </row>
     <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H143" s="3"/>
       <c r="J143" s="9"/>
     </row>
     <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J144" s="6"/>
     </row>
     <row r="145" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J145" s="6"/>
     </row>
@@ -8660,7 +8663,7 @@
     </row>
     <row r="147" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -8680,13 +8683,13 @@
     </row>
     <row r="150" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J150" s="6"/>
     </row>
     <row r="151" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J151" s="6"/>
     </row>
@@ -12225,30 +12228,87 @@
   </sheetData>
   <autoFilter ref="H1:N143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="134">
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="B130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="A114:C121"/>
+    <mergeCell ref="A122:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B127:C129"/>
+    <mergeCell ref="E114:E121"/>
+    <mergeCell ref="F114:F121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="B107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="B105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B61:C63"/>
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A8:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="B42:C44"/>
+    <mergeCell ref="B45:C48"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B53:C55"/>
     <mergeCell ref="F61:F63"/>
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="D61:D63"/>
@@ -12273,92 +12333,35 @@
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="B42:C44"/>
-    <mergeCell ref="B45:C48"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B61:C63"/>
-    <mergeCell ref="A65:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A8:C12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="B105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="B130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="A114:C121"/>
-    <mergeCell ref="A122:C125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="B127:C129"/>
-    <mergeCell ref="E114:E121"/>
-    <mergeCell ref="F114:F121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1" display="e.g., DataCiteSchema" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -12368,16 +12371,16 @@
     <hyperlink ref="M12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="M36" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="M37" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M33" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M34" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M29" r:id="rId8" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M30" r:id="rId9" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M33" r:id="rId10" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M34" r:id="rId11" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="M60" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="M61" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="M62" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="M63" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M132" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M133" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M132" r:id="rId16" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M133" r:id="rId17" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="L4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="L3" r:id="rId19" xr:uid="{79274165-A08F-504F-ABEF-86158BAB6E38}"/>
     <hyperlink ref="L5" r:id="rId20" xr:uid="{EB38BFB8-104C-9549-9590-CD747EA2AB6E}"/>
@@ -12389,17 +12392,17 @@
     <hyperlink ref="L13" r:id="rId26" xr:uid="{E40CF022-E2D9-024B-BA4B-36300D6EABED}"/>
     <hyperlink ref="M50" r:id="rId27" xr:uid="{F21891FB-61A7-3242-9AAA-F78E177BD42B}"/>
     <hyperlink ref="M51" r:id="rId28" xr:uid="{528FA186-ED8E-6B4E-8209-54BF5C699854}"/>
-    <hyperlink ref="M43" r:id="rId29" xr:uid="{512E7D48-D0BB-474E-81C8-84AF8AADE6CD}"/>
-    <hyperlink ref="M44" r:id="rId30" xr:uid="{9F3289B1-82D8-D94D-802C-C6C552D25A29}"/>
-    <hyperlink ref="M47" r:id="rId31" xr:uid="{6F22468B-C0E2-8E44-88CB-546D020C68F0}"/>
-    <hyperlink ref="M48" r:id="rId32" xr:uid="{A7D1F61F-E528-0C44-AC76-2EF1F8BEB3E9}"/>
+    <hyperlink ref="M43" r:id="rId29" display="DataCiteSchema" xr:uid="{512E7D48-D0BB-474E-81C8-84AF8AADE6CD}"/>
+    <hyperlink ref="M44" r:id="rId30" display="DataCiteSchema" xr:uid="{9F3289B1-82D8-D94D-802C-C6C552D25A29}"/>
+    <hyperlink ref="M47" r:id="rId31" display="DataCiteSchema" xr:uid="{6F22468B-C0E2-8E44-88CB-546D020C68F0}"/>
+    <hyperlink ref="M48" r:id="rId32" display="DataCiteSchema" xr:uid="{A7D1F61F-E528-0C44-AC76-2EF1F8BEB3E9}"/>
     <hyperlink ref="M64" r:id="rId33" xr:uid="{0CC4972C-ECFA-B440-9A75-02F82DDED55D}"/>
-    <hyperlink ref="M89" r:id="rId34" xr:uid="{9D6D4BCF-FB27-6D40-A7BD-017D1A5A4757}"/>
-    <hyperlink ref="M90" r:id="rId35" xr:uid="{A858633D-A581-7741-AFEF-6719BC41416C}"/>
-    <hyperlink ref="M82" r:id="rId36" xr:uid="{31DE2953-BF4E-694F-871C-448507278D9A}"/>
-    <hyperlink ref="M83" r:id="rId37" xr:uid="{8630DA0C-B932-C246-9078-95C72FB5BF91}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{1B438F6A-F696-1841-A0B8-8C5CDE068A67}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{DDF97B6B-BEE3-3C44-8345-9022D2F48A26}"/>
+    <hyperlink ref="M89" r:id="rId34" display="DataCiteSchema" xr:uid="{9D6D4BCF-FB27-6D40-A7BD-017D1A5A4757}"/>
+    <hyperlink ref="M90" r:id="rId35" display="DataCiteSchema" xr:uid="{A858633D-A581-7741-AFEF-6719BC41416C}"/>
+    <hyperlink ref="M82" r:id="rId36" display="DataCiteSchema" xr:uid="{31DE2953-BF4E-694F-871C-448507278D9A}"/>
+    <hyperlink ref="M83" r:id="rId37" display="DataCiteSchema" xr:uid="{8630DA0C-B932-C246-9078-95C72FB5BF91}"/>
+    <hyperlink ref="M86" r:id="rId38" display="DataCiteSchema" xr:uid="{1B438F6A-F696-1841-A0B8-8C5CDE068A67}"/>
+    <hyperlink ref="M87" r:id="rId39" display="DataCiteSchema" xr:uid="{DDF97B6B-BEE3-3C44-8345-9022D2F48A26}"/>
     <hyperlink ref="D151" r:id="rId40" display="https://fairdatacollective.org/" xr:uid="{F7D6490E-4341-0240-BE7B-5E8915480BD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12426,7 +12429,7 @@
       </c>
       <c r="B1" s="738"/>
       <c r="C1" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>54</v>
@@ -12445,17 +12448,17 @@
       <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="733"/>
-      <c r="B2" s="734" t="s">
-        <v>464</v>
-      </c>
-      <c r="C2" s="739" t="s">
-        <v>456</v>
-      </c>
-      <c r="D2" s="735" t="s">
+      <c r="A2" s="739"/>
+      <c r="B2" s="740" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="741" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="742" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="736" t="str">
+      <c r="E2" s="737" t="str">
         <f>Namespace &amp; LOWER($B2)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributorname</v>
       </c>
@@ -12485,16 +12488,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="733"/>
-      <c r="B3" s="734"/>
-      <c r="C3" s="739"/>
-      <c r="D3" s="735"/>
-      <c r="E3" s="736"/>
+      <c r="A3" s="739"/>
+      <c r="B3" s="740"/>
+      <c r="C3" s="741"/>
+      <c r="D3" s="742"/>
+      <c r="E3" s="737"/>
       <c r="F3" s="34" t="s">
         <v>111</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>112</v>
@@ -12516,16 +12519,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="733"/>
-      <c r="B4" s="734"/>
-      <c r="C4" s="739"/>
-      <c r="D4" s="735"/>
-      <c r="E4" s="736"/>
+      <c r="A4" s="739"/>
+      <c r="B4" s="740"/>
+      <c r="C4" s="741"/>
+      <c r="D4" s="742"/>
+      <c r="E4" s="737"/>
       <c r="F4" s="34" t="s">
         <v>113</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>114</v>
@@ -12547,17 +12550,17 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="733"/>
-      <c r="B5" s="734" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" s="734" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="735" t="s">
+      <c r="A5" s="739"/>
+      <c r="B5" s="740" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="740" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="742" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="736" t="str">
+      <c r="E5" s="737" t="str">
         <f>Namespace &amp; LOWER($B5)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributoridentifier</v>
       </c>
@@ -12568,7 +12571,7 @@
         <v>327</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>54</v>
@@ -12588,11 +12591,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="733"/>
-      <c r="B6" s="734"/>
-      <c r="C6" s="734"/>
-      <c r="D6" s="735"/>
-      <c r="E6" s="736"/>
+      <c r="A6" s="739"/>
+      <c r="B6" s="740"/>
+      <c r="C6" s="740"/>
+      <c r="D6" s="742"/>
+      <c r="E6" s="737"/>
       <c r="F6" s="34" t="s">
         <v>121</v>
       </c>
@@ -12620,11 +12623,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="733"/>
-      <c r="B7" s="734"/>
-      <c r="C7" s="734"/>
-      <c r="D7" s="735"/>
-      <c r="E7" s="736"/>
+      <c r="A7" s="739"/>
+      <c r="B7" s="740"/>
+      <c r="C7" s="740"/>
+      <c r="D7" s="742"/>
+      <c r="E7" s="737"/>
       <c r="F7" s="34" t="s">
         <v>122</v>
       </c>
@@ -12652,17 +12655,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="733"/>
-      <c r="B8" s="734" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" s="734" t="s">
-        <v>459</v>
-      </c>
-      <c r="D8" s="735" t="s">
+      <c r="A8" s="739"/>
+      <c r="B8" s="740" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="740" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="742" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="737" t="str">
+      <c r="E8" s="743" t="str">
         <f>Namespace &amp; LOWER($B8)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributoraffiliation</v>
       </c>
@@ -12673,7 +12676,7 @@
         <v>330</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>34</v>
@@ -12693,11 +12696,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="733"/>
-      <c r="B9" s="734"/>
-      <c r="C9" s="734"/>
-      <c r="D9" s="735"/>
-      <c r="E9" s="737"/>
+      <c r="A9" s="739"/>
+      <c r="B9" s="740"/>
+      <c r="C9" s="740"/>
+      <c r="D9" s="742"/>
+      <c r="E9" s="743"/>
       <c r="F9" s="34" t="s">
         <v>123</v>
       </c>
@@ -12725,13 +12728,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="733"/>
-      <c r="B10" s="734"/>
-      <c r="C10" s="734"/>
-      <c r="D10" s="735"/>
-      <c r="E10" s="737"/>
+      <c r="A10" s="739"/>
+      <c r="B10" s="740"/>
+      <c r="C10" s="740"/>
+      <c r="D10" s="742"/>
+      <c r="E10" s="743"/>
       <c r="F10" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>333</v>
@@ -12757,11 +12760,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="733"/>
-      <c r="B11" s="734"/>
-      <c r="C11" s="734"/>
-      <c r="D11" s="735"/>
-      <c r="E11" s="737"/>
+      <c r="A11" s="739"/>
+      <c r="B11" s="740"/>
+      <c r="C11" s="740"/>
+      <c r="D11" s="742"/>
+      <c r="E11" s="743"/>
       <c r="F11" s="34" t="s">
         <v>125</v>
       </c>
@@ -12832,7 +12835,7 @@
         <v>323</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I13" s="32" t="s">
         <v>34</v>
@@ -12885,22 +12888,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L13" r:id="rId1" xr:uid="{9ABA6EE5-7A54-DF40-9E10-C757BCBA07FF}"/>

--- a/template-description.xlsx
+++ b/template-description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FA80AF-DE41-CB4C-8235-9850CAD6AC54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE3CA1-D949-DC46-A530-D89FDEAE5BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="Namespace">'Dataset template'!$D$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1764,7 +1765,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2011,12 +2012,6 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC8C8C8"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -2089,7 +2084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="744">
+  <cellXfs count="742">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3113,7 +3108,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3139,7 +3133,6 @@
     <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3162,6 +3155,489 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3174,8 +3650,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3204,24 +3678,6 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3246,183 +3702,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3453,312 +3732,26 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3993,10 +3986,10 @@
   <dimension ref="A1:P1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28:D30"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4018,11 +4011,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="612" t="s">
+      <c r="A1" s="669" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="612"/>
-      <c r="C1" s="612"/>
+      <c r="B1" s="669"/>
+      <c r="C1" s="669"/>
       <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
@@ -4060,11 +4053,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="611" t="s">
+      <c r="A2" s="668" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="611"/>
-      <c r="C2" s="611"/>
+      <c r="B2" s="668"/>
+      <c r="C2" s="668"/>
       <c r="D2" s="126" t="s">
         <v>10</v>
       </c>
@@ -4096,18 +4089,18 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="606" t="s">
+      <c r="A3" s="663" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="606"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="551" t="s">
+      <c r="B3" s="663"/>
+      <c r="C3" s="663"/>
+      <c r="D3" s="710" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="553">
+      <c r="E3" s="712">
         <v>1</v>
       </c>
-      <c r="F3" s="554" t="str">
+      <c r="F3" s="713" t="str">
         <f>Namespace &amp; $A3</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/ResourceType</v>
       </c>
@@ -4137,12 +4130,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="607"/>
-      <c r="B4" s="607"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="552"/>
-      <c r="E4" s="547"/>
-      <c r="F4" s="555"/>
+      <c r="A4" s="664"/>
+      <c r="B4" s="664"/>
+      <c r="C4" s="664"/>
+      <c r="D4" s="711"/>
+      <c r="E4" s="578"/>
+      <c r="F4" s="714"/>
       <c r="G4" s="190" t="s">
         <v>22</v>
       </c>
@@ -4169,18 +4162,18 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="608" t="s">
+      <c r="A5" s="665" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="608"/>
-      <c r="C5" s="608"/>
-      <c r="D5" s="634" t="s">
+      <c r="B5" s="665"/>
+      <c r="C5" s="665"/>
+      <c r="D5" s="728" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="628">
+      <c r="E5" s="685">
         <v>1</v>
       </c>
-      <c r="F5" s="631" t="str">
+      <c r="F5" s="725" t="str">
         <f>Namespace &amp; ($A5)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DatasetIdentifier</v>
       </c>
@@ -4210,12 +4203,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="609"/>
-      <c r="B6" s="609"/>
-      <c r="C6" s="609"/>
-      <c r="D6" s="635"/>
-      <c r="E6" s="629"/>
-      <c r="F6" s="632"/>
+      <c r="A6" s="666"/>
+      <c r="B6" s="666"/>
+      <c r="C6" s="666"/>
+      <c r="D6" s="729"/>
+      <c r="E6" s="686"/>
+      <c r="F6" s="726"/>
       <c r="G6" s="53" t="s">
         <v>29</v>
       </c>
@@ -4242,12 +4235,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="610"/>
-      <c r="B7" s="610"/>
-      <c r="C7" s="610"/>
-      <c r="D7" s="636"/>
-      <c r="E7" s="630"/>
-      <c r="F7" s="633"/>
+      <c r="A7" s="667"/>
+      <c r="B7" s="667"/>
+      <c r="C7" s="667"/>
+      <c r="D7" s="730"/>
+      <c r="E7" s="687"/>
+      <c r="F7" s="727"/>
       <c r="G7" s="203" t="s">
         <v>32</v>
       </c>
@@ -4275,18 +4268,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="676" t="s">
+      <c r="A8" s="609" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="676"/>
-      <c r="C8" s="676"/>
-      <c r="D8" s="542" t="s">
+      <c r="B8" s="609"/>
+      <c r="C8" s="609"/>
+      <c r="D8" s="703" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="545" t="s">
+      <c r="E8" s="706" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="548" t="str">
+      <c r="F8" s="707" t="str">
         <f>Namespace &amp; ($A8)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/RelatedResources</v>
       </c>
@@ -4316,12 +4309,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="677"/>
-      <c r="B9" s="677"/>
-      <c r="C9" s="677"/>
-      <c r="D9" s="543"/>
-      <c r="E9" s="546"/>
-      <c r="F9" s="549"/>
+      <c r="A9" s="610"/>
+      <c r="B9" s="610"/>
+      <c r="C9" s="610"/>
+      <c r="D9" s="704"/>
+      <c r="E9" s="577"/>
+      <c r="F9" s="708"/>
       <c r="G9" s="59" t="s">
         <v>38</v>
       </c>
@@ -4348,12 +4341,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="677"/>
-      <c r="B10" s="677"/>
-      <c r="C10" s="677"/>
-      <c r="D10" s="543"/>
-      <c r="E10" s="546"/>
-      <c r="F10" s="549"/>
+      <c r="A10" s="610"/>
+      <c r="B10" s="610"/>
+      <c r="C10" s="610"/>
+      <c r="D10" s="704"/>
+      <c r="E10" s="577"/>
+      <c r="F10" s="708"/>
       <c r="G10" s="59" t="s">
         <v>272</v>
       </c>
@@ -4381,12 +4374,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="677"/>
-      <c r="B11" s="677"/>
-      <c r="C11" s="677"/>
-      <c r="D11" s="543"/>
-      <c r="E11" s="546"/>
-      <c r="F11" s="549"/>
+      <c r="A11" s="610"/>
+      <c r="B11" s="610"/>
+      <c r="C11" s="610"/>
+      <c r="D11" s="704"/>
+      <c r="E11" s="577"/>
+      <c r="F11" s="708"/>
       <c r="G11" s="64" t="s">
         <v>41</v>
       </c>
@@ -4413,12 +4406,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="678"/>
-      <c r="B12" s="678"/>
-      <c r="C12" s="678"/>
-      <c r="D12" s="544"/>
-      <c r="E12" s="547"/>
-      <c r="F12" s="550"/>
+      <c r="A12" s="611"/>
+      <c r="B12" s="611"/>
+      <c r="C12" s="611"/>
+      <c r="D12" s="705"/>
+      <c r="E12" s="578"/>
+      <c r="F12" s="709"/>
       <c r="G12" s="216" t="s">
         <v>42</v>
       </c>
@@ -4445,11 +4438,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="680" t="s">
+      <c r="A13" s="616" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="680"/>
-      <c r="C13" s="680"/>
+      <c r="B13" s="616"/>
+      <c r="C13" s="616"/>
       <c r="D13" s="243" t="s">
         <v>45</v>
       </c>
@@ -4486,18 +4479,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="681" t="s">
+      <c r="A14" s="617" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="681"/>
-      <c r="C14" s="681"/>
-      <c r="D14" s="639" t="s">
+      <c r="B14" s="617"/>
+      <c r="C14" s="617"/>
+      <c r="D14" s="733" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="570" t="s">
+      <c r="E14" s="723" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="637" t="str">
+      <c r="F14" s="731" t="str">
         <f>Namespace &amp; ($A14)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Language</v>
       </c>
@@ -4527,12 +4520,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="682"/>
-      <c r="B15" s="682"/>
-      <c r="C15" s="682"/>
-      <c r="D15" s="640"/>
-      <c r="E15" s="571"/>
-      <c r="F15" s="638"/>
+      <c r="A15" s="618"/>
+      <c r="B15" s="618"/>
+      <c r="C15" s="618"/>
+      <c r="D15" s="734"/>
+      <c r="E15" s="724"/>
+      <c r="F15" s="732"/>
       <c r="G15" s="229" t="s">
         <v>51</v>
       </c>
@@ -4562,11 +4555,11 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="683" t="s">
+      <c r="A16" s="619" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="683"/>
-      <c r="C16" s="683"/>
+      <c r="B16" s="619"/>
+      <c r="C16" s="619"/>
       <c r="D16" s="244" t="s">
         <v>53</v>
       </c>
@@ -4603,11 +4596,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="684" t="s">
+      <c r="A17" s="620" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="684"/>
-      <c r="C17" s="684"/>
+      <c r="B17" s="620"/>
+      <c r="C17" s="620"/>
       <c r="D17" s="78" t="s">
         <v>58</v>
       </c>
@@ -4646,11 +4639,11 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" s="11" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="679" t="s">
+      <c r="A18" s="612" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="679"/>
-      <c r="C18" s="679"/>
+      <c r="B18" s="612"/>
+      <c r="C18" s="612"/>
       <c r="D18" s="245" t="s">
         <v>63</v>
       </c>
@@ -4674,17 +4667,17 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="315"/>
-      <c r="B19" s="641" t="s">
+      <c r="B19" s="613" t="s">
         <v>501</v>
       </c>
-      <c r="C19" s="641"/>
-      <c r="D19" s="641" t="s">
+      <c r="C19" s="613"/>
+      <c r="D19" s="613" t="s">
         <v>468</v>
       </c>
-      <c r="E19" s="567" t="s">
+      <c r="E19" s="720" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="564" t="str">
+      <c r="F19" s="717" t="str">
         <f>Namespace&amp;($A19)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/</v>
       </c>
@@ -4715,11 +4708,11 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="315"/>
-      <c r="B20" s="642"/>
-      <c r="C20" s="642"/>
-      <c r="D20" s="642"/>
-      <c r="E20" s="568"/>
-      <c r="F20" s="565"/>
+      <c r="B20" s="614"/>
+      <c r="C20" s="614"/>
+      <c r="D20" s="614"/>
+      <c r="E20" s="721"/>
+      <c r="F20" s="718"/>
       <c r="G20" s="79" t="s">
         <v>469</v>
       </c>
@@ -4748,11 +4741,11 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="315"/>
-      <c r="B21" s="642"/>
-      <c r="C21" s="642"/>
-      <c r="D21" s="642"/>
-      <c r="E21" s="568"/>
-      <c r="F21" s="565"/>
+      <c r="B21" s="614"/>
+      <c r="C21" s="614"/>
+      <c r="D21" s="614"/>
+      <c r="E21" s="721"/>
+      <c r="F21" s="718"/>
       <c r="G21" s="83" t="s">
         <v>70</v>
       </c>
@@ -4781,11 +4774,11 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="315"/>
-      <c r="B22" s="643"/>
-      <c r="C22" s="643"/>
-      <c r="D22" s="643"/>
-      <c r="E22" s="569"/>
-      <c r="F22" s="566"/>
+      <c r="B22" s="615"/>
+      <c r="C22" s="615"/>
+      <c r="D22" s="615"/>
+      <c r="E22" s="722"/>
+      <c r="F22" s="719"/>
       <c r="G22" s="132" t="s">
         <v>71</v>
       </c>
@@ -4844,11 +4837,11 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="653" t="s">
+      <c r="A24" s="649" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="653"/>
-      <c r="C24" s="653"/>
+      <c r="B24" s="649"/>
+      <c r="C24" s="649"/>
       <c r="D24" s="246" t="s">
         <v>73</v>
       </c>
@@ -4870,17 +4863,17 @@
     </row>
     <row r="25" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="622" t="s">
+      <c r="B25" s="650" t="s">
         <v>452</v>
       </c>
-      <c r="C25" s="622"/>
-      <c r="D25" s="622" t="s">
+      <c r="C25" s="650"/>
+      <c r="D25" s="650" t="s">
         <v>478</v>
       </c>
-      <c r="E25" s="558" t="s">
+      <c r="E25" s="679" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="625" t="str">
+      <c r="F25" s="682" t="str">
         <f>Namespace &amp; ($B25)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/CreatorName</v>
       </c>
@@ -4911,11 +4904,11 @@
     </row>
     <row r="26" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="623"/>
-      <c r="C26" s="623"/>
-      <c r="D26" s="623"/>
-      <c r="E26" s="559"/>
-      <c r="F26" s="626"/>
+      <c r="B26" s="651"/>
+      <c r="C26" s="651"/>
+      <c r="D26" s="651"/>
+      <c r="E26" s="680"/>
+      <c r="F26" s="683"/>
       <c r="G26" s="87" t="s">
         <v>79</v>
       </c>
@@ -4943,11 +4936,11 @@
     </row>
     <row r="27" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="624"/>
-      <c r="C27" s="624"/>
-      <c r="D27" s="624"/>
-      <c r="E27" s="560"/>
-      <c r="F27" s="627"/>
+      <c r="B27" s="652"/>
+      <c r="C27" s="652"/>
+      <c r="D27" s="652"/>
+      <c r="E27" s="681"/>
+      <c r="F27" s="684"/>
       <c r="G27" s="141" t="s">
         <v>82</v>
       </c>
@@ -4975,17 +4968,17 @@
     </row>
     <row r="28" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="622" t="s">
+      <c r="B28" s="650" t="s">
         <v>453</v>
       </c>
-      <c r="C28" s="622"/>
-      <c r="D28" s="622" t="s">
+      <c r="C28" s="650"/>
+      <c r="D28" s="650" t="s">
         <v>477</v>
       </c>
-      <c r="E28" s="558" t="s">
+      <c r="E28" s="679" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="625" t="str">
+      <c r="F28" s="682" t="str">
         <f>Namespace &amp; ($B28)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/CreatorIdentifier</v>
       </c>
@@ -5017,11 +5010,11 @@
     </row>
     <row r="29" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="623"/>
-      <c r="C29" s="623"/>
-      <c r="D29" s="623"/>
-      <c r="E29" s="559"/>
-      <c r="F29" s="626"/>
+      <c r="B29" s="651"/>
+      <c r="C29" s="651"/>
+      <c r="D29" s="651"/>
+      <c r="E29" s="680"/>
+      <c r="F29" s="683"/>
       <c r="G29" s="87" t="s">
         <v>93</v>
       </c>
@@ -5050,11 +5043,11 @@
     </row>
     <row r="30" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="624"/>
-      <c r="C30" s="624"/>
-      <c r="D30" s="624"/>
-      <c r="E30" s="560"/>
-      <c r="F30" s="627"/>
+      <c r="B30" s="652"/>
+      <c r="C30" s="652"/>
+      <c r="D30" s="652"/>
+      <c r="E30" s="681"/>
+      <c r="F30" s="684"/>
       <c r="G30" s="141" t="s">
         <v>95</v>
       </c>
@@ -5083,17 +5076,17 @@
     </row>
     <row r="31" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="622" t="s">
+      <c r="B31" s="650" t="s">
         <v>454</v>
       </c>
-      <c r="C31" s="622"/>
-      <c r="D31" s="622" t="s">
+      <c r="C31" s="650"/>
+      <c r="D31" s="650" t="s">
         <v>476</v>
       </c>
-      <c r="E31" s="558" t="s">
+      <c r="E31" s="679" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="556" t="str">
+      <c r="F31" s="715" t="str">
         <f>Namespace &amp; ($B31)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/CreatorAffiliation</v>
       </c>
@@ -5125,11 +5118,11 @@
     </row>
     <row r="32" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="623"/>
-      <c r="C32" s="623"/>
-      <c r="D32" s="623"/>
-      <c r="E32" s="559"/>
-      <c r="F32" s="556"/>
+      <c r="B32" s="651"/>
+      <c r="C32" s="651"/>
+      <c r="D32" s="651"/>
+      <c r="E32" s="680"/>
+      <c r="F32" s="715"/>
       <c r="G32" s="87" t="s">
         <v>100</v>
       </c>
@@ -5158,11 +5151,11 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
-      <c r="B33" s="623"/>
-      <c r="C33" s="623"/>
-      <c r="D33" s="623"/>
-      <c r="E33" s="559"/>
-      <c r="F33" s="556"/>
+      <c r="B33" s="651"/>
+      <c r="C33" s="651"/>
+      <c r="D33" s="651"/>
+      <c r="E33" s="680"/>
+      <c r="F33" s="715"/>
       <c r="G33" s="87" t="s">
         <v>103</v>
       </c>
@@ -5191,11 +5184,11 @@
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="624"/>
-      <c r="C34" s="624"/>
-      <c r="D34" s="624"/>
-      <c r="E34" s="560"/>
-      <c r="F34" s="557"/>
+      <c r="B34" s="652"/>
+      <c r="C34" s="652"/>
+      <c r="D34" s="652"/>
+      <c r="E34" s="681"/>
+      <c r="F34" s="716"/>
       <c r="G34" s="141" t="s">
         <v>105</v>
       </c>
@@ -5321,11 +5314,11 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="654" t="s">
+      <c r="A38" s="653" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="654"/>
-      <c r="C38" s="654"/>
+      <c r="B38" s="653"/>
+      <c r="C38" s="653"/>
       <c r="D38" s="382" t="s">
         <v>462</v>
       </c>
@@ -5347,17 +5340,17 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="424"/>
-      <c r="B39" s="655" t="s">
+      <c r="B39" s="654" t="s">
         <v>463</v>
       </c>
-      <c r="C39" s="655"/>
-      <c r="D39" s="613" t="s">
+      <c r="C39" s="654"/>
+      <c r="D39" s="670" t="s">
         <v>479</v>
       </c>
-      <c r="E39" s="616" t="s">
+      <c r="E39" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="561" t="str">
+      <c r="F39" s="676" t="str">
         <f>Namespace &amp; ($B39)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/ContributorName</v>
       </c>
@@ -5388,11 +5381,11 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="424"/>
-      <c r="B40" s="655"/>
-      <c r="C40" s="655"/>
-      <c r="D40" s="614"/>
-      <c r="E40" s="617"/>
-      <c r="F40" s="562"/>
+      <c r="B40" s="654"/>
+      <c r="C40" s="654"/>
+      <c r="D40" s="671"/>
+      <c r="E40" s="586"/>
+      <c r="F40" s="677"/>
       <c r="G40" s="394" t="s">
         <v>111</v>
       </c>
@@ -5420,11 +5413,11 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="424"/>
-      <c r="B41" s="655"/>
-      <c r="C41" s="655"/>
-      <c r="D41" s="615"/>
-      <c r="E41" s="618"/>
-      <c r="F41" s="563"/>
+      <c r="B41" s="654"/>
+      <c r="C41" s="654"/>
+      <c r="D41" s="672"/>
+      <c r="E41" s="587"/>
+      <c r="F41" s="678"/>
       <c r="G41" s="399" t="s">
         <v>113</v>
       </c>
@@ -5452,17 +5445,17 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="424"/>
-      <c r="B42" s="655" t="s">
+      <c r="B42" s="654" t="s">
         <v>466</v>
       </c>
-      <c r="C42" s="655"/>
-      <c r="D42" s="613" t="s">
+      <c r="C42" s="654"/>
+      <c r="D42" s="670" t="s">
         <v>480</v>
       </c>
-      <c r="E42" s="616" t="s">
+      <c r="E42" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="561" t="str">
+      <c r="F42" s="676" t="str">
         <f>Namespace &amp; ($B42)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/ContributorIdentifier</v>
       </c>
@@ -5494,11 +5487,11 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="424"/>
-      <c r="B43" s="655"/>
-      <c r="C43" s="655"/>
-      <c r="D43" s="614"/>
-      <c r="E43" s="617"/>
-      <c r="F43" s="562"/>
+      <c r="B43" s="654"/>
+      <c r="C43" s="654"/>
+      <c r="D43" s="671"/>
+      <c r="E43" s="586"/>
+      <c r="F43" s="677"/>
       <c r="G43" s="394" t="s">
         <v>121</v>
       </c>
@@ -5527,11 +5520,11 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="424"/>
-      <c r="B44" s="655"/>
-      <c r="C44" s="655"/>
-      <c r="D44" s="615"/>
-      <c r="E44" s="618"/>
-      <c r="F44" s="563"/>
+      <c r="B44" s="654"/>
+      <c r="C44" s="654"/>
+      <c r="D44" s="672"/>
+      <c r="E44" s="587"/>
+      <c r="F44" s="678"/>
       <c r="G44" s="399" t="s">
         <v>122</v>
       </c>
@@ -5560,17 +5553,17 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="424"/>
-      <c r="B45" s="655" t="s">
+      <c r="B45" s="654" t="s">
         <v>467</v>
       </c>
-      <c r="C45" s="655"/>
-      <c r="D45" s="613" t="s">
+      <c r="C45" s="654"/>
+      <c r="D45" s="670" t="s">
         <v>481</v>
       </c>
-      <c r="E45" s="616" t="s">
+      <c r="E45" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="619" t="str">
+      <c r="F45" s="673" t="str">
         <f>Namespace &amp; ($B45)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/ContributorAffiliation</v>
       </c>
@@ -5602,11 +5595,11 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="424"/>
-      <c r="B46" s="655"/>
-      <c r="C46" s="655"/>
-      <c r="D46" s="614"/>
-      <c r="E46" s="617"/>
-      <c r="F46" s="620"/>
+      <c r="B46" s="654"/>
+      <c r="C46" s="654"/>
+      <c r="D46" s="671"/>
+      <c r="E46" s="586"/>
+      <c r="F46" s="674"/>
       <c r="G46" s="394" t="s">
         <v>123</v>
       </c>
@@ -5635,11 +5628,11 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="424"/>
-      <c r="B47" s="655"/>
-      <c r="C47" s="655"/>
-      <c r="D47" s="614"/>
-      <c r="E47" s="617"/>
-      <c r="F47" s="620"/>
+      <c r="B47" s="654"/>
+      <c r="C47" s="654"/>
+      <c r="D47" s="671"/>
+      <c r="E47" s="586"/>
+      <c r="F47" s="674"/>
       <c r="G47" s="394" t="s">
         <v>460</v>
       </c>
@@ -5668,11 +5661,11 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="424"/>
-      <c r="B48" s="655"/>
-      <c r="C48" s="655"/>
-      <c r="D48" s="615"/>
-      <c r="E48" s="618"/>
-      <c r="F48" s="621"/>
+      <c r="B48" s="654"/>
+      <c r="C48" s="654"/>
+      <c r="D48" s="672"/>
+      <c r="E48" s="587"/>
+      <c r="F48" s="675"/>
       <c r="G48" s="399" t="s">
         <v>125</v>
       </c>
@@ -5802,11 +5795,11 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="656" t="s">
+      <c r="A52" s="655" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="656"/>
-      <c r="C52" s="656"/>
+      <c r="B52" s="655"/>
+      <c r="C52" s="655"/>
       <c r="D52" s="248" t="s">
         <v>437</v>
       </c>
@@ -5828,17 +5821,17 @@
     </row>
     <row r="53" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="426"/>
-      <c r="B53" s="650" t="s">
+      <c r="B53" s="646" t="s">
         <v>474</v>
       </c>
-      <c r="C53" s="650"/>
-      <c r="D53" s="650" t="s">
+      <c r="C53" s="646"/>
+      <c r="D53" s="646" t="s">
         <v>475</v>
       </c>
-      <c r="E53" s="647" t="s">
+      <c r="E53" s="643" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="644" t="str">
+      <c r="F53" s="640" t="str">
         <f>Namespace &amp; ($B53)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/PublisherIdentifier</v>
       </c>
@@ -5870,11 +5863,11 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="426"/>
-      <c r="B54" s="651"/>
-      <c r="C54" s="651"/>
-      <c r="D54" s="651"/>
-      <c r="E54" s="648"/>
-      <c r="F54" s="645"/>
+      <c r="B54" s="647"/>
+      <c r="C54" s="647"/>
+      <c r="D54" s="647"/>
+      <c r="E54" s="644"/>
+      <c r="F54" s="641"/>
       <c r="G54" s="93" t="s">
         <v>136</v>
       </c>
@@ -5903,11 +5896,11 @@
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="426"/>
-      <c r="B55" s="652"/>
-      <c r="C55" s="652"/>
-      <c r="D55" s="652"/>
-      <c r="E55" s="649"/>
-      <c r="F55" s="646"/>
+      <c r="B55" s="648"/>
+      <c r="C55" s="648"/>
+      <c r="D55" s="648"/>
+      <c r="E55" s="645"/>
+      <c r="F55" s="642"/>
       <c r="G55" s="257" t="s">
         <v>137</v>
       </c>
@@ -6034,11 +6027,11 @@
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="673" t="s">
+      <c r="A59" s="605" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="673"/>
-      <c r="C59" s="673"/>
+      <c r="B59" s="605"/>
+      <c r="C59" s="605"/>
       <c r="D59" s="296" t="s">
         <v>139</v>
       </c>
@@ -6093,17 +6086,17 @@
     </row>
     <row r="61" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="428"/>
-      <c r="B61" s="600" t="s">
+      <c r="B61" s="549" t="s">
         <v>484</v>
       </c>
-      <c r="C61" s="600"/>
-      <c r="D61" s="600" t="s">
+      <c r="C61" s="549"/>
+      <c r="D61" s="549" t="s">
         <v>485</v>
       </c>
-      <c r="E61" s="597" t="s">
+      <c r="E61" s="552" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="594" t="str">
+      <c r="F61" s="656" t="str">
         <f>Namespace &amp; ($B61)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/LicenseIdentifier</v>
       </c>
@@ -6137,11 +6130,11 @@
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="428"/>
-      <c r="B62" s="601"/>
-      <c r="C62" s="601"/>
-      <c r="D62" s="601"/>
-      <c r="E62" s="598"/>
-      <c r="F62" s="595"/>
+      <c r="B62" s="550"/>
+      <c r="C62" s="550"/>
+      <c r="D62" s="550"/>
+      <c r="E62" s="553"/>
+      <c r="F62" s="657"/>
       <c r="G62" s="98" t="s">
         <v>148</v>
       </c>
@@ -6170,11 +6163,11 @@
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="428"/>
-      <c r="B63" s="602"/>
-      <c r="C63" s="602"/>
-      <c r="D63" s="602"/>
-      <c r="E63" s="599"/>
-      <c r="F63" s="596"/>
+      <c r="B63" s="606"/>
+      <c r="C63" s="606"/>
+      <c r="D63" s="606"/>
+      <c r="E63" s="659"/>
+      <c r="F63" s="658"/>
       <c r="G63" s="290" t="s">
         <v>149</v>
       </c>
@@ -6232,18 +6225,18 @@
       <c r="N64" s="277"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="674" t="s">
+      <c r="A65" s="607" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="674"/>
-      <c r="C65" s="674"/>
-      <c r="D65" s="666" t="s">
+      <c r="B65" s="607"/>
+      <c r="C65" s="607"/>
+      <c r="D65" s="636" t="s">
         <v>519</v>
       </c>
-      <c r="E65" s="668" t="s">
+      <c r="E65" s="638" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="666" t="str">
+      <c r="F65" s="636" t="str">
         <f>Namespace &amp; ($A65)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Date</v>
       </c>
@@ -6268,12 +6261,12 @@
       <c r="N65" s="308"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="674"/>
-      <c r="B66" s="674"/>
-      <c r="C66" s="674"/>
-      <c r="D66" s="667"/>
-      <c r="E66" s="669"/>
-      <c r="F66" s="667"/>
+      <c r="A66" s="607"/>
+      <c r="B66" s="607"/>
+      <c r="C66" s="607"/>
+      <c r="D66" s="637"/>
+      <c r="E66" s="639"/>
+      <c r="F66" s="637"/>
       <c r="G66" s="105" t="s">
         <v>486</v>
       </c>
@@ -6299,12 +6292,12 @@
       </c>
     </row>
     <row r="67" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="675" t="s">
+      <c r="A67" s="608" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="675"/>
-      <c r="C67" s="675"/>
-      <c r="D67" s="603" t="s">
+      <c r="B67" s="608"/>
+      <c r="C67" s="608"/>
+      <c r="D67" s="660" t="s">
         <v>159</v>
       </c>
       <c r="E67" s="365" t="s">
@@ -6325,9 +6318,9 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="372"/>
-      <c r="B68" s="664"/>
-      <c r="C68" s="664"/>
-      <c r="D68" s="604"/>
+      <c r="B68" s="634"/>
+      <c r="C68" s="634"/>
+      <c r="D68" s="661"/>
       <c r="E68" s="316"/>
       <c r="F68" s="317"/>
       <c r="G68" s="318" t="s">
@@ -6360,7 +6353,7 @@
       <c r="A69" s="372"/>
       <c r="B69" s="373"/>
       <c r="C69" s="322"/>
-      <c r="D69" s="604"/>
+      <c r="D69" s="661"/>
       <c r="E69" s="324"/>
       <c r="F69" s="317"/>
       <c r="G69" s="318" t="s">
@@ -6393,7 +6386,7 @@
       <c r="A70" s="372"/>
       <c r="B70" s="373"/>
       <c r="C70" s="322"/>
-      <c r="D70" s="604"/>
+      <c r="D70" s="661"/>
       <c r="E70" s="325"/>
       <c r="F70" s="317"/>
       <c r="G70" s="310" t="s">
@@ -6425,7 +6418,7 @@
       <c r="A71" s="372"/>
       <c r="B71" s="373"/>
       <c r="C71" s="322"/>
-      <c r="D71" s="604"/>
+      <c r="D71" s="661"/>
       <c r="E71" s="325"/>
       <c r="F71" s="317"/>
       <c r="G71" s="310" t="s">
@@ -6458,7 +6451,7 @@
       <c r="A72" s="372"/>
       <c r="B72" s="373"/>
       <c r="C72" s="322"/>
-      <c r="D72" s="605"/>
+      <c r="D72" s="662"/>
       <c r="E72" s="324"/>
       <c r="F72" s="317"/>
       <c r="G72" s="310" t="s">
@@ -6489,17 +6482,17 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="372"/>
-      <c r="B73" s="658" t="s">
+      <c r="B73" s="622" t="s">
         <v>490</v>
       </c>
-      <c r="C73" s="658"/>
-      <c r="D73" s="578" t="s">
+      <c r="C73" s="622"/>
+      <c r="D73" s="691" t="s">
         <v>491</v>
       </c>
-      <c r="E73" s="575">
+      <c r="E73" s="625">
         <v>1</v>
       </c>
-      <c r="F73" s="572"/>
+      <c r="F73" s="688"/>
       <c r="G73" s="326" t="s">
         <v>163</v>
       </c>
@@ -6528,11 +6521,11 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="372"/>
-      <c r="B74" s="659"/>
-      <c r="C74" s="659"/>
-      <c r="D74" s="579"/>
-      <c r="E74" s="576"/>
-      <c r="F74" s="573"/>
+      <c r="B74" s="623"/>
+      <c r="C74" s="623"/>
+      <c r="D74" s="692"/>
+      <c r="E74" s="626"/>
+      <c r="F74" s="689"/>
       <c r="G74" s="310" t="s">
         <v>164</v>
       </c>
@@ -6561,11 +6554,11 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="372"/>
-      <c r="B75" s="660"/>
-      <c r="C75" s="660"/>
-      <c r="D75" s="580"/>
-      <c r="E75" s="577"/>
-      <c r="F75" s="574"/>
+      <c r="B75" s="624"/>
+      <c r="C75" s="624"/>
+      <c r="D75" s="693"/>
+      <c r="E75" s="627"/>
+      <c r="F75" s="690"/>
       <c r="G75" s="331" t="s">
         <v>449</v>
       </c>
@@ -6623,10 +6616,10 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="372"/>
-      <c r="B77" s="665" t="s">
+      <c r="B77" s="635" t="s">
         <v>492</v>
       </c>
-      <c r="C77" s="665"/>
+      <c r="C77" s="635"/>
       <c r="D77" s="358" t="s">
         <v>493</v>
       </c>
@@ -6648,17 +6641,17 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="372"/>
-      <c r="B78" s="657"/>
-      <c r="C78" s="658" t="s">
+      <c r="B78" s="621"/>
+      <c r="C78" s="622" t="s">
         <v>494</v>
       </c>
-      <c r="D78" s="658" t="s">
+      <c r="D78" s="622" t="s">
         <v>495</v>
       </c>
-      <c r="E78" s="575">
+      <c r="E78" s="625">
         <v>1</v>
       </c>
-      <c r="F78" s="661" t="str">
+      <c r="F78" s="631" t="str">
         <f>Namespace &amp; ($C78)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DistributorName</v>
       </c>
@@ -6689,11 +6682,11 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="372"/>
-      <c r="B79" s="657"/>
-      <c r="C79" s="659"/>
-      <c r="D79" s="659"/>
-      <c r="E79" s="576"/>
-      <c r="F79" s="662"/>
+      <c r="B79" s="621"/>
+      <c r="C79" s="623"/>
+      <c r="D79" s="623"/>
+      <c r="E79" s="626"/>
+      <c r="F79" s="632"/>
       <c r="G79" s="354" t="s">
         <v>170</v>
       </c>
@@ -6721,11 +6714,11 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="372"/>
-      <c r="B80" s="657"/>
-      <c r="C80" s="660"/>
-      <c r="D80" s="660"/>
-      <c r="E80" s="577"/>
-      <c r="F80" s="663"/>
+      <c r="B80" s="621"/>
+      <c r="C80" s="624"/>
+      <c r="D80" s="624"/>
+      <c r="E80" s="627"/>
+      <c r="F80" s="633"/>
       <c r="G80" s="340" t="s">
         <v>172</v>
       </c>
@@ -6753,17 +6746,17 @@
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="372"/>
-      <c r="B81" s="657"/>
-      <c r="C81" s="658" t="s">
+      <c r="B81" s="621"/>
+      <c r="C81" s="622" t="s">
         <v>497</v>
       </c>
-      <c r="D81" s="658" t="s">
+      <c r="D81" s="622" t="s">
         <v>498</v>
       </c>
-      <c r="E81" s="575">
+      <c r="E81" s="625">
         <v>1</v>
       </c>
-      <c r="F81" s="661" t="str">
+      <c r="F81" s="631" t="str">
         <f>Namespace &amp; ($C81)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DistributorIdentifier</v>
       </c>
@@ -6795,11 +6788,11 @@
     </row>
     <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="372"/>
-      <c r="B82" s="657"/>
-      <c r="C82" s="659"/>
-      <c r="D82" s="659"/>
-      <c r="E82" s="576"/>
-      <c r="F82" s="662"/>
+      <c r="B82" s="621"/>
+      <c r="C82" s="623"/>
+      <c r="D82" s="623"/>
+      <c r="E82" s="626"/>
+      <c r="F82" s="632"/>
       <c r="G82" s="354" t="s">
         <v>181</v>
       </c>
@@ -6828,11 +6821,11 @@
     </row>
     <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="372"/>
-      <c r="B83" s="657"/>
-      <c r="C83" s="660"/>
-      <c r="D83" s="660"/>
-      <c r="E83" s="577"/>
-      <c r="F83" s="663"/>
+      <c r="B83" s="621"/>
+      <c r="C83" s="624"/>
+      <c r="D83" s="624"/>
+      <c r="E83" s="627"/>
+      <c r="F83" s="633"/>
       <c r="G83" s="340" t="s">
         <v>182</v>
       </c>
@@ -6861,17 +6854,17 @@
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="372"/>
-      <c r="B84" s="657"/>
-      <c r="C84" s="658" t="s">
+      <c r="B84" s="621"/>
+      <c r="C84" s="622" t="s">
         <v>499</v>
       </c>
-      <c r="D84" s="658" t="s">
+      <c r="D84" s="622" t="s">
         <v>500</v>
       </c>
-      <c r="E84" s="575" t="s">
+      <c r="E84" s="625" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="670" t="str">
+      <c r="F84" s="628" t="str">
         <f>Namespace &amp; ($C84)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DistributorAffiliation</v>
       </c>
@@ -6903,11 +6896,11 @@
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="372"/>
-      <c r="B85" s="657"/>
-      <c r="C85" s="659"/>
-      <c r="D85" s="659"/>
-      <c r="E85" s="576"/>
-      <c r="F85" s="671"/>
+      <c r="B85" s="621"/>
+      <c r="C85" s="623"/>
+      <c r="D85" s="623"/>
+      <c r="E85" s="626"/>
+      <c r="F85" s="629"/>
       <c r="G85" s="354" t="s">
         <v>185</v>
       </c>
@@ -6936,11 +6929,11 @@
     </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="372"/>
-      <c r="B86" s="657"/>
-      <c r="C86" s="659"/>
-      <c r="D86" s="659"/>
-      <c r="E86" s="576"/>
-      <c r="F86" s="671"/>
+      <c r="B86" s="621"/>
+      <c r="C86" s="623"/>
+      <c r="D86" s="623"/>
+      <c r="E86" s="626"/>
+      <c r="F86" s="629"/>
       <c r="G86" s="354" t="s">
         <v>187</v>
       </c>
@@ -6969,11 +6962,11 @@
     </row>
     <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="372"/>
-      <c r="B87" s="657"/>
-      <c r="C87" s="660"/>
-      <c r="D87" s="660"/>
-      <c r="E87" s="577"/>
-      <c r="F87" s="672"/>
+      <c r="B87" s="621"/>
+      <c r="C87" s="624"/>
+      <c r="D87" s="624"/>
+      <c r="E87" s="627"/>
+      <c r="F87" s="630"/>
       <c r="G87" s="340" t="s">
         <v>188</v>
       </c>
@@ -7101,11 +7094,11 @@
       <c r="P90"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="693" t="s">
+      <c r="A91" s="593" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="693"/>
-      <c r="C91" s="693"/>
+      <c r="B91" s="593"/>
+      <c r="C91" s="593"/>
       <c r="D91" s="430" t="s">
         <v>410</v>
       </c>
@@ -7127,17 +7120,17 @@
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="426"/>
-      <c r="B92" s="581" t="s">
+      <c r="B92" s="594" t="s">
         <v>283</v>
       </c>
-      <c r="C92" s="581"/>
-      <c r="D92" s="581" t="s">
+      <c r="C92" s="594"/>
+      <c r="D92" s="594" t="s">
         <v>287</v>
       </c>
-      <c r="E92" s="584" t="s">
+      <c r="E92" s="694" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="589" t="str">
+      <c r="F92" s="698" t="str">
         <f>Namespace &amp; ($B92)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DataStream</v>
       </c>
@@ -7169,11 +7162,11 @@
     </row>
     <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="426"/>
-      <c r="B93" s="582"/>
-      <c r="C93" s="582"/>
-      <c r="D93" s="582"/>
-      <c r="E93" s="585"/>
-      <c r="F93" s="590"/>
+      <c r="B93" s="595"/>
+      <c r="C93" s="595"/>
+      <c r="D93" s="595"/>
+      <c r="E93" s="695"/>
+      <c r="F93" s="699"/>
       <c r="G93" s="110" t="s">
         <v>285</v>
       </c>
@@ -7202,11 +7195,11 @@
     </row>
     <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="426"/>
-      <c r="B94" s="582"/>
-      <c r="C94" s="582"/>
-      <c r="D94" s="582"/>
-      <c r="E94" s="585"/>
-      <c r="F94" s="590"/>
+      <c r="B94" s="595"/>
+      <c r="C94" s="595"/>
+      <c r="D94" s="595"/>
+      <c r="E94" s="695"/>
+      <c r="F94" s="699"/>
       <c r="G94" s="114" t="s">
         <v>191</v>
       </c>
@@ -7235,11 +7228,11 @@
     </row>
     <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="426"/>
-      <c r="B95" s="583"/>
-      <c r="C95" s="583"/>
-      <c r="D95" s="583"/>
-      <c r="E95" s="586"/>
-      <c r="F95" s="591"/>
+      <c r="B95" s="596"/>
+      <c r="C95" s="596"/>
+      <c r="D95" s="596"/>
+      <c r="E95" s="696"/>
+      <c r="F95" s="700"/>
       <c r="G95" s="448" t="s">
         <v>286</v>
       </c>
@@ -7268,17 +7261,17 @@
     </row>
     <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="426"/>
-      <c r="B96" s="697"/>
-      <c r="C96" s="581" t="s">
+      <c r="B96" s="600"/>
+      <c r="C96" s="594" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="581" t="s">
+      <c r="D96" s="594" t="s">
         <v>368</v>
       </c>
-      <c r="E96" s="584">
+      <c r="E96" s="694">
         <v>1</v>
       </c>
-      <c r="F96" s="589" t="str">
+      <c r="F96" s="698" t="str">
         <f>Namespace &amp; ($C96)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/DataSource</v>
       </c>
@@ -7310,11 +7303,11 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="426"/>
-      <c r="B97" s="697"/>
-      <c r="C97" s="582"/>
-      <c r="D97" s="582"/>
-      <c r="E97" s="585"/>
-      <c r="F97" s="590"/>
+      <c r="B97" s="600"/>
+      <c r="C97" s="595"/>
+      <c r="D97" s="595"/>
+      <c r="E97" s="695"/>
+      <c r="F97" s="699"/>
       <c r="G97" s="110" t="s">
         <v>195</v>
       </c>
@@ -7343,11 +7336,11 @@
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="426"/>
-      <c r="B98" s="697"/>
-      <c r="C98" s="582"/>
-      <c r="D98" s="582"/>
-      <c r="E98" s="585"/>
-      <c r="F98" s="590"/>
+      <c r="B98" s="600"/>
+      <c r="C98" s="595"/>
+      <c r="D98" s="595"/>
+      <c r="E98" s="695"/>
+      <c r="F98" s="699"/>
       <c r="G98" s="110" t="s">
         <v>197</v>
       </c>
@@ -7376,11 +7369,11 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="426"/>
-      <c r="B99" s="697"/>
-      <c r="C99" s="583"/>
-      <c r="D99" s="583"/>
-      <c r="E99" s="586"/>
-      <c r="F99" s="591"/>
+      <c r="B99" s="600"/>
+      <c r="C99" s="596"/>
+      <c r="D99" s="596"/>
+      <c r="E99" s="696"/>
+      <c r="F99" s="700"/>
       <c r="G99" s="448" t="s">
         <v>198</v>
       </c>
@@ -7409,17 +7402,17 @@
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="426"/>
-      <c r="B100" s="697"/>
-      <c r="C100" s="582" t="s">
+      <c r="B100" s="600"/>
+      <c r="C100" s="595" t="s">
         <v>282</v>
       </c>
-      <c r="D100" s="582" t="s">
+      <c r="D100" s="595" t="s">
         <v>288</v>
       </c>
-      <c r="E100" s="585" t="s">
+      <c r="E100" s="695" t="s">
         <v>54</v>
       </c>
-      <c r="F100" s="592" t="str">
+      <c r="F100" s="701" t="str">
         <f>Namespace &amp; ($C100)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Variable</v>
       </c>
@@ -7451,11 +7444,11 @@
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="426"/>
-      <c r="B101" s="697"/>
-      <c r="C101" s="582"/>
-      <c r="D101" s="582"/>
-      <c r="E101" s="585"/>
-      <c r="F101" s="592"/>
+      <c r="B101" s="600"/>
+      <c r="C101" s="595"/>
+      <c r="D101" s="595"/>
+      <c r="E101" s="695"/>
+      <c r="F101" s="701"/>
       <c r="G101" s="110" t="s">
         <v>290</v>
       </c>
@@ -7484,11 +7477,11 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="426"/>
-      <c r="B102" s="697"/>
-      <c r="C102" s="582"/>
-      <c r="D102" s="582"/>
-      <c r="E102" s="585"/>
-      <c r="F102" s="592"/>
+      <c r="B102" s="600"/>
+      <c r="C102" s="595"/>
+      <c r="D102" s="595"/>
+      <c r="E102" s="695"/>
+      <c r="F102" s="701"/>
       <c r="G102" s="110" t="s">
         <v>291</v>
       </c>
@@ -7517,11 +7510,11 @@
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="427"/>
-      <c r="B103" s="698"/>
-      <c r="C103" s="587"/>
-      <c r="D103" s="587"/>
-      <c r="E103" s="588"/>
-      <c r="F103" s="593"/>
+      <c r="B103" s="601"/>
+      <c r="C103" s="604"/>
+      <c r="D103" s="604"/>
+      <c r="E103" s="697"/>
+      <c r="F103" s="702"/>
       <c r="G103" s="438" t="s">
         <v>292</v>
       </c>
@@ -7549,11 +7542,11 @@
       </c>
     </row>
     <row r="104" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="694" t="s">
+      <c r="A104" s="597" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="694"/>
-      <c r="C104" s="694"/>
+      <c r="B104" s="597"/>
+      <c r="C104" s="597"/>
       <c r="D104" s="478" t="s">
         <v>202</v>
       </c>
@@ -7575,17 +7568,17 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="424"/>
-      <c r="B105" s="685" t="s">
+      <c r="B105" s="582" t="s">
         <v>504</v>
       </c>
-      <c r="C105" s="685"/>
-      <c r="D105" s="695" t="s">
+      <c r="C105" s="582"/>
+      <c r="D105" s="598" t="s">
         <v>503</v>
       </c>
-      <c r="E105" s="699" t="s">
+      <c r="E105" s="602" t="s">
         <v>46</v>
       </c>
-      <c r="F105" s="688" t="str">
+      <c r="F105" s="588" t="str">
         <f>Namespace &amp; ($B105)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoveragePoint</v>
       </c>
@@ -7617,11 +7610,11 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="424"/>
-      <c r="B106" s="687"/>
-      <c r="C106" s="687"/>
-      <c r="D106" s="696"/>
-      <c r="E106" s="700"/>
-      <c r="F106" s="690"/>
+      <c r="B106" s="584"/>
+      <c r="C106" s="584"/>
+      <c r="D106" s="599"/>
+      <c r="E106" s="603"/>
+      <c r="F106" s="590"/>
       <c r="G106" s="458" t="s">
         <v>203</v>
       </c>
@@ -7650,17 +7643,17 @@
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="424"/>
-      <c r="B107" s="685" t="s">
+      <c r="B107" s="582" t="s">
         <v>505</v>
       </c>
-      <c r="C107" s="685"/>
-      <c r="D107" s="685" t="s">
+      <c r="C107" s="582"/>
+      <c r="D107" s="582" t="s">
         <v>506</v>
       </c>
-      <c r="E107" s="616" t="s">
+      <c r="E107" s="585" t="s">
         <v>46</v>
       </c>
-      <c r="F107" s="688" t="str">
+      <c r="F107" s="588" t="str">
         <f>Namespace &amp; ($B107)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoverageBoundingBox</v>
       </c>
@@ -7692,11 +7685,11 @@
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="424"/>
-      <c r="B108" s="686"/>
-      <c r="C108" s="686"/>
-      <c r="D108" s="686"/>
-      <c r="E108" s="617"/>
-      <c r="F108" s="689"/>
+      <c r="B108" s="583"/>
+      <c r="C108" s="583"/>
+      <c r="D108" s="583"/>
+      <c r="E108" s="586"/>
+      <c r="F108" s="589"/>
       <c r="G108" s="468" t="s">
         <v>209</v>
       </c>
@@ -7725,11 +7718,11 @@
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="424"/>
-      <c r="B109" s="686"/>
-      <c r="C109" s="686"/>
-      <c r="D109" s="686"/>
-      <c r="E109" s="617"/>
-      <c r="F109" s="689"/>
+      <c r="B109" s="583"/>
+      <c r="C109" s="583"/>
+      <c r="D109" s="583"/>
+      <c r="E109" s="586"/>
+      <c r="F109" s="589"/>
       <c r="G109" s="468" t="s">
         <v>211</v>
       </c>
@@ -7758,11 +7751,11 @@
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="424"/>
-      <c r="B110" s="687"/>
-      <c r="C110" s="687"/>
-      <c r="D110" s="687"/>
-      <c r="E110" s="618"/>
-      <c r="F110" s="690"/>
+      <c r="B110" s="584"/>
+      <c r="C110" s="584"/>
+      <c r="D110" s="584"/>
+      <c r="E110" s="587"/>
+      <c r="F110" s="590"/>
       <c r="G110" s="473" t="s">
         <v>213</v>
       </c>
@@ -7791,17 +7784,17 @@
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="424"/>
-      <c r="B111" s="685" t="s">
+      <c r="B111" s="582" t="s">
         <v>507</v>
       </c>
-      <c r="C111" s="685"/>
-      <c r="D111" s="691" t="s">
+      <c r="C111" s="582"/>
+      <c r="D111" s="591" t="s">
         <v>508</v>
       </c>
-      <c r="E111" s="616" t="s">
+      <c r="E111" s="585" t="s">
         <v>46</v>
       </c>
-      <c r="F111" s="688" t="str">
+      <c r="F111" s="588" t="str">
         <f>Namespace &amp; ($B111)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoveragePolygon</v>
       </c>
@@ -7833,11 +7826,11 @@
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="424"/>
-      <c r="B112" s="687"/>
-      <c r="C112" s="687"/>
-      <c r="D112" s="692"/>
-      <c r="E112" s="618"/>
-      <c r="F112" s="690"/>
+      <c r="B112" s="584"/>
+      <c r="C112" s="584"/>
+      <c r="D112" s="592"/>
+      <c r="E112" s="587"/>
+      <c r="F112" s="590"/>
       <c r="G112" s="458" t="s">
         <v>439</v>
       </c>
@@ -7898,18 +7891,18 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="713" t="s">
+      <c r="A114" s="556" t="s">
         <v>217</v>
       </c>
-      <c r="B114" s="713"/>
-      <c r="C114" s="713"/>
-      <c r="D114" s="730" t="s">
+      <c r="B114" s="556"/>
+      <c r="C114" s="556"/>
+      <c r="D114" s="573" t="s">
         <v>218</v>
       </c>
-      <c r="E114" s="721" t="s">
+      <c r="E114" s="564" t="s">
         <v>46</v>
       </c>
-      <c r="F114" s="724" t="str">
+      <c r="F114" s="567" t="str">
         <f>Namespace &amp; ($A114)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/VerticalCoverage</v>
       </c>
@@ -7940,12 +7933,12 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="714"/>
-      <c r="B115" s="714"/>
-      <c r="C115" s="714"/>
-      <c r="D115" s="731"/>
-      <c r="E115" s="722"/>
-      <c r="F115" s="725"/>
+      <c r="A115" s="557"/>
+      <c r="B115" s="557"/>
+      <c r="C115" s="557"/>
+      <c r="D115" s="574"/>
+      <c r="E115" s="565"/>
+      <c r="F115" s="568"/>
       <c r="G115" s="116" t="s">
         <v>221</v>
       </c>
@@ -7973,12 +7966,12 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="714"/>
-      <c r="B116" s="714"/>
-      <c r="C116" s="714"/>
-      <c r="D116" s="731"/>
-      <c r="E116" s="722"/>
-      <c r="F116" s="725"/>
+      <c r="A116" s="557"/>
+      <c r="B116" s="557"/>
+      <c r="C116" s="557"/>
+      <c r="D116" s="574"/>
+      <c r="E116" s="565"/>
+      <c r="F116" s="568"/>
       <c r="G116" s="116" t="s">
         <v>223</v>
       </c>
@@ -8006,12 +7999,12 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="714"/>
-      <c r="B117" s="714"/>
-      <c r="C117" s="714"/>
-      <c r="D117" s="731"/>
-      <c r="E117" s="722"/>
-      <c r="F117" s="725"/>
+      <c r="A117" s="557"/>
+      <c r="B117" s="557"/>
+      <c r="C117" s="557"/>
+      <c r="D117" s="574"/>
+      <c r="E117" s="565"/>
+      <c r="F117" s="568"/>
       <c r="G117" s="116" t="s">
         <v>224</v>
       </c>
@@ -8039,12 +8032,12 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="714"/>
-      <c r="B118" s="714"/>
-      <c r="C118" s="714"/>
-      <c r="D118" s="731"/>
-      <c r="E118" s="722"/>
-      <c r="F118" s="725"/>
+      <c r="A118" s="557"/>
+      <c r="B118" s="557"/>
+      <c r="C118" s="557"/>
+      <c r="D118" s="574"/>
+      <c r="E118" s="565"/>
+      <c r="F118" s="568"/>
       <c r="G118" s="116" t="s">
         <v>225</v>
       </c>
@@ -8072,12 +8065,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="714"/>
-      <c r="B119" s="714"/>
-      <c r="C119" s="714"/>
-      <c r="D119" s="731"/>
-      <c r="E119" s="722"/>
-      <c r="F119" s="725"/>
+      <c r="A119" s="557"/>
+      <c r="B119" s="557"/>
+      <c r="C119" s="557"/>
+      <c r="D119" s="574"/>
+      <c r="E119" s="565"/>
+      <c r="F119" s="568"/>
       <c r="G119" s="116" t="s">
         <v>226</v>
       </c>
@@ -8105,12 +8098,12 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="714"/>
-      <c r="B120" s="714"/>
-      <c r="C120" s="714"/>
-      <c r="D120" s="731"/>
-      <c r="E120" s="722"/>
-      <c r="F120" s="725"/>
+      <c r="A120" s="557"/>
+      <c r="B120" s="557"/>
+      <c r="C120" s="557"/>
+      <c r="D120" s="574"/>
+      <c r="E120" s="565"/>
+      <c r="F120" s="568"/>
       <c r="G120" s="116" t="s">
         <v>398</v>
       </c>
@@ -8138,16 +8131,16 @@
       </c>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="715"/>
-      <c r="B121" s="715"/>
-      <c r="C121" s="715"/>
-      <c r="D121" s="732"/>
-      <c r="E121" s="723"/>
-      <c r="F121" s="726"/>
-      <c r="G121" s="541" t="s">
+      <c r="A121" s="558"/>
+      <c r="B121" s="558"/>
+      <c r="C121" s="558"/>
+      <c r="D121" s="575"/>
+      <c r="E121" s="566"/>
+      <c r="F121" s="569"/>
+      <c r="G121" s="539" t="s">
         <v>408</v>
       </c>
-      <c r="H121" s="541" t="s">
+      <c r="H121" s="539" t="s">
         <v>423</v>
       </c>
       <c r="I121" s="498" t="s">
@@ -8171,18 +8164,18 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="716" t="s">
+      <c r="A122" s="559" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="716"/>
-      <c r="C122" s="716"/>
-      <c r="D122" s="727" t="s">
+      <c r="B122" s="559"/>
+      <c r="C122" s="559"/>
+      <c r="D122" s="570" t="s">
         <v>228</v>
       </c>
-      <c r="E122" s="733" t="s">
+      <c r="E122" s="576" t="s">
         <v>46</v>
       </c>
-      <c r="F122" s="734" t="str">
+      <c r="F122" s="579" t="str">
         <f>Namespace &amp; ($A122)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/TemporalCoverage</v>
       </c>
@@ -8213,12 +8206,12 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="717"/>
-      <c r="B123" s="717"/>
-      <c r="C123" s="717"/>
-      <c r="D123" s="728"/>
-      <c r="E123" s="546"/>
-      <c r="F123" s="735"/>
+      <c r="A123" s="560"/>
+      <c r="B123" s="560"/>
+      <c r="C123" s="560"/>
+      <c r="D123" s="571"/>
+      <c r="E123" s="577"/>
+      <c r="F123" s="580"/>
       <c r="G123" s="121" t="s">
         <v>231</v>
       </c>
@@ -8246,12 +8239,12 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="717"/>
-      <c r="B124" s="717"/>
-      <c r="C124" s="717"/>
-      <c r="D124" s="728"/>
-      <c r="E124" s="546"/>
-      <c r="F124" s="735"/>
+      <c r="A124" s="560"/>
+      <c r="B124" s="560"/>
+      <c r="C124" s="560"/>
+      <c r="D124" s="571"/>
+      <c r="E124" s="577"/>
+      <c r="F124" s="580"/>
       <c r="G124" s="121" t="s">
         <v>233</v>
       </c>
@@ -8279,12 +8272,12 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="718"/>
-      <c r="B125" s="718"/>
-      <c r="C125" s="718"/>
-      <c r="D125" s="729"/>
-      <c r="E125" s="547"/>
-      <c r="F125" s="736"/>
+      <c r="A125" s="561"/>
+      <c r="B125" s="561"/>
+      <c r="C125" s="561"/>
+      <c r="D125" s="572"/>
+      <c r="E125" s="578"/>
+      <c r="F125" s="581"/>
       <c r="G125" s="507" t="s">
         <v>235</v>
       </c>
@@ -8312,79 +8305,79 @@
       </c>
     </row>
     <row r="126" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="719" t="s">
+      <c r="A126" s="562" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="719"/>
-      <c r="C126" s="719"/>
-      <c r="D126" s="518" t="s">
+      <c r="B126" s="562"/>
+      <c r="C126" s="562"/>
+      <c r="D126" s="517" t="s">
         <v>509</v>
       </c>
-      <c r="E126" s="519" t="s">
+      <c r="E126" s="518" t="s">
         <v>34</v>
       </c>
-      <c r="F126" s="520" t="str">
+      <c r="F126" s="519" t="str">
         <f>Namespace &amp; ($A126)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Funding</v>
       </c>
-      <c r="G126" s="521"/>
-      <c r="H126" s="521"/>
-      <c r="I126" s="522"/>
-      <c r="J126" s="523"/>
-      <c r="K126" s="524"/>
-      <c r="L126" s="524"/>
-      <c r="M126" s="521"/>
-      <c r="N126" s="521"/>
+      <c r="G126" s="520"/>
+      <c r="H126" s="520"/>
+      <c r="I126" s="521"/>
+      <c r="J126" s="522"/>
+      <c r="K126" s="523"/>
+      <c r="L126" s="523"/>
+      <c r="M126" s="520"/>
+      <c r="N126" s="520"/>
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="428"/>
-      <c r="B127" s="707" t="s">
+      <c r="B127" s="546" t="s">
         <v>510</v>
       </c>
-      <c r="C127" s="707"/>
-      <c r="D127" s="701" t="s">
+      <c r="C127" s="546"/>
+      <c r="D127" s="540" t="s">
         <v>513</v>
       </c>
-      <c r="E127" s="704">
+      <c r="E127" s="543">
         <v>1</v>
       </c>
-      <c r="F127" s="701" t="str">
+      <c r="F127" s="540" t="str">
         <f>Namespace &amp; ($B127)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Award</v>
       </c>
-      <c r="G127" s="531" t="s">
+      <c r="G127" s="529" t="s">
         <v>238</v>
       </c>
-      <c r="H127" s="531" t="s">
+      <c r="H127" s="529" t="s">
         <v>428</v>
       </c>
-      <c r="I127" s="532" t="s">
+      <c r="I127" s="530" t="s">
         <v>239</v>
       </c>
-      <c r="J127" s="533">
+      <c r="J127" s="531">
         <v>1</v>
       </c>
-      <c r="K127" s="534" t="s">
+      <c r="K127" s="532" t="s">
         <v>36</v>
       </c>
-      <c r="L127" s="534" t="str">
+      <c r="L127" s="532" t="str">
         <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/dataset/properties/awardTitle</v>
       </c>
-      <c r="M127" s="531" t="s">
-        <v>28</v>
-      </c>
-      <c r="N127" s="531" t="s">
+      <c r="M127" s="529" t="s">
+        <v>28</v>
+      </c>
+      <c r="N127" s="529" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="428"/>
-      <c r="B128" s="708"/>
-      <c r="C128" s="708"/>
-      <c r="D128" s="702"/>
-      <c r="E128" s="705"/>
-      <c r="F128" s="702"/>
+      <c r="B128" s="547"/>
+      <c r="C128" s="547"/>
+      <c r="D128" s="541"/>
+      <c r="E128" s="544"/>
+      <c r="F128" s="541"/>
       <c r="G128" s="516" t="s">
         <v>240</v>
       </c>
@@ -8413,50 +8406,50 @@
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="428"/>
-      <c r="B129" s="720"/>
-      <c r="C129" s="720"/>
-      <c r="D129" s="703"/>
-      <c r="E129" s="706"/>
-      <c r="F129" s="703"/>
-      <c r="G129" s="535" t="s">
+      <c r="B129" s="563"/>
+      <c r="C129" s="563"/>
+      <c r="D129" s="542"/>
+      <c r="E129" s="545"/>
+      <c r="F129" s="542"/>
+      <c r="G129" s="533" t="s">
         <v>242</v>
       </c>
-      <c r="H129" s="535" t="s">
+      <c r="H129" s="533" t="s">
         <v>430</v>
       </c>
-      <c r="I129" s="536" t="s">
+      <c r="I129" s="534" t="s">
         <v>243</v>
       </c>
-      <c r="J129" s="537">
+      <c r="J129" s="535">
         <v>1</v>
       </c>
-      <c r="K129" s="538" t="s">
+      <c r="K129" s="536" t="s">
         <v>36</v>
       </c>
-      <c r="L129" s="538" t="str">
+      <c r="L129" s="536" t="str">
         <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/dataset/properties/awardLocalIdentifier</v>
       </c>
-      <c r="M129" s="539" t="s">
-        <v>28</v>
-      </c>
-      <c r="N129" s="539" t="s">
+      <c r="M129" s="537" t="s">
+        <v>28</v>
+      </c>
+      <c r="N129" s="537" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="428"/>
-      <c r="B130" s="707" t="s">
+      <c r="B130" s="546" t="s">
         <v>511</v>
       </c>
-      <c r="C130" s="707"/>
-      <c r="D130" s="600" t="s">
+      <c r="C130" s="546"/>
+      <c r="D130" s="549" t="s">
         <v>512</v>
       </c>
-      <c r="E130" s="597" t="s">
+      <c r="E130" s="552" t="s">
         <v>54</v>
       </c>
-      <c r="F130" s="701" t="str">
+      <c r="F130" s="540" t="str">
         <f>Namespace &amp; ($B130)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/Funder</v>
       </c>
@@ -8488,11 +8481,11 @@
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="428"/>
-      <c r="B131" s="708"/>
-      <c r="C131" s="708"/>
-      <c r="D131" s="601"/>
-      <c r="E131" s="598"/>
-      <c r="F131" s="702"/>
+      <c r="B131" s="547"/>
+      <c r="C131" s="547"/>
+      <c r="D131" s="550"/>
+      <c r="E131" s="553"/>
+      <c r="F131" s="541"/>
       <c r="G131" s="512" t="s">
         <v>246</v>
       </c>
@@ -8521,11 +8514,11 @@
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="428"/>
-      <c r="B132" s="708"/>
-      <c r="C132" s="708"/>
-      <c r="D132" s="601"/>
-      <c r="E132" s="598"/>
-      <c r="F132" s="702"/>
+      <c r="B132" s="547"/>
+      <c r="C132" s="547"/>
+      <c r="D132" s="550"/>
+      <c r="E132" s="553"/>
+      <c r="F132" s="541"/>
       <c r="G132" s="516" t="s">
         <v>248</v>
       </c>
@@ -8545,8 +8538,8 @@
         <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/dataset/properties/funderIdentifierScheme</v>
       </c>
-      <c r="M132" s="517" t="s">
-        <v>522</v>
+      <c r="M132" s="512" t="s">
+        <v>28</v>
       </c>
       <c r="N132" s="512" t="s">
         <v>28</v>
@@ -8554,34 +8547,34 @@
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="429"/>
-      <c r="B133" s="709"/>
-      <c r="C133" s="709"/>
-      <c r="D133" s="710"/>
-      <c r="E133" s="711"/>
-      <c r="F133" s="712"/>
-      <c r="G133" s="525" t="s">
+      <c r="B133" s="548"/>
+      <c r="C133" s="548"/>
+      <c r="D133" s="551"/>
+      <c r="E133" s="554"/>
+      <c r="F133" s="555"/>
+      <c r="G133" s="524" t="s">
         <v>250</v>
       </c>
-      <c r="H133" s="525" t="s">
+      <c r="H133" s="524" t="s">
         <v>434</v>
       </c>
-      <c r="I133" s="526" t="s">
+      <c r="I133" s="525" t="s">
         <v>251</v>
       </c>
-      <c r="J133" s="527" t="s">
+      <c r="J133" s="526" t="s">
         <v>46</v>
       </c>
-      <c r="K133" s="528" t="s">
+      <c r="K133" s="527" t="s">
         <v>68</v>
       </c>
-      <c r="L133" s="528" t="str">
+      <c r="L133" s="527" t="str">
         <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/dataset/properties/funderIdentifierSchemeIRI</v>
       </c>
-      <c r="M133" s="529" t="s">
-        <v>522</v>
-      </c>
-      <c r="N133" s="530" t="s">
+      <c r="M133" s="512" t="s">
+        <v>28</v>
+      </c>
+      <c r="N133" s="528" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8598,7 +8591,7 @@
       <c r="J136" s="6"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D137" s="540" t="s">
+      <c r="D137" s="538" t="s">
         <v>517</v>
       </c>
       <c r="H137" s="3"/>
@@ -12228,87 +12221,27 @@
   </sheetData>
   <autoFilter ref="H1:N143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="134">
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="B130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="A114:C121"/>
-    <mergeCell ref="A122:C125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="B127:C129"/>
-    <mergeCell ref="E114:E121"/>
-    <mergeCell ref="F114:F121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="B107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="B105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B61:C63"/>
-    <mergeCell ref="A65:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A8:C12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="B42:C44"/>
-    <mergeCell ref="B45:C48"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D19:D22"/>
     <mergeCell ref="F61:F63"/>
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="D61:D63"/>
@@ -12333,35 +12266,95 @@
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="B42:C44"/>
+    <mergeCell ref="B45:C48"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="F73:F75"/>
     <mergeCell ref="E73:E75"/>
     <mergeCell ref="D73:D75"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B61:C63"/>
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A8:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="B105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
     <mergeCell ref="D92:D95"/>
     <mergeCell ref="E92:E95"/>
     <mergeCell ref="D96:D99"/>
     <mergeCell ref="E96:E99"/>
     <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="B130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="A114:C121"/>
+    <mergeCell ref="A122:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B127:C129"/>
+    <mergeCell ref="E114:E121"/>
+    <mergeCell ref="F114:F121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1" display="e.g., DataCiteSchema" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -12379,31 +12372,29 @@
     <hyperlink ref="M61" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="M62" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="M63" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M132" r:id="rId16" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M133" r:id="rId17" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L3" r:id="rId19" xr:uid="{79274165-A08F-504F-ABEF-86158BAB6E38}"/>
-    <hyperlink ref="L5" r:id="rId20" xr:uid="{EB38BFB8-104C-9549-9590-CD747EA2AB6E}"/>
-    <hyperlink ref="L6" r:id="rId21" xr:uid="{F30A9924-D727-3841-A75B-86457F100CDE}"/>
-    <hyperlink ref="L9" r:id="rId22" xr:uid="{ACAFE479-E18E-2047-B209-085A9026CC0F}"/>
-    <hyperlink ref="L8" r:id="rId23" xr:uid="{AA8245AE-3C94-7147-8E40-35DCB3896ED9}"/>
-    <hyperlink ref="L11" r:id="rId24" xr:uid="{686CAE22-83EC-A34E-B091-F87EA6510ADC}"/>
-    <hyperlink ref="M10" r:id="rId25" xr:uid="{DE9DC848-A7C3-104D-B0CC-7DED37DA0AD1}"/>
-    <hyperlink ref="L13" r:id="rId26" xr:uid="{E40CF022-E2D9-024B-BA4B-36300D6EABED}"/>
-    <hyperlink ref="M50" r:id="rId27" xr:uid="{F21891FB-61A7-3242-9AAA-F78E177BD42B}"/>
-    <hyperlink ref="M51" r:id="rId28" xr:uid="{528FA186-ED8E-6B4E-8209-54BF5C699854}"/>
-    <hyperlink ref="M43" r:id="rId29" display="DataCiteSchema" xr:uid="{512E7D48-D0BB-474E-81C8-84AF8AADE6CD}"/>
-    <hyperlink ref="M44" r:id="rId30" display="DataCiteSchema" xr:uid="{9F3289B1-82D8-D94D-802C-C6C552D25A29}"/>
-    <hyperlink ref="M47" r:id="rId31" display="DataCiteSchema" xr:uid="{6F22468B-C0E2-8E44-88CB-546D020C68F0}"/>
-    <hyperlink ref="M48" r:id="rId32" display="DataCiteSchema" xr:uid="{A7D1F61F-E528-0C44-AC76-2EF1F8BEB3E9}"/>
-    <hyperlink ref="M64" r:id="rId33" xr:uid="{0CC4972C-ECFA-B440-9A75-02F82DDED55D}"/>
-    <hyperlink ref="M89" r:id="rId34" display="DataCiteSchema" xr:uid="{9D6D4BCF-FB27-6D40-A7BD-017D1A5A4757}"/>
-    <hyperlink ref="M90" r:id="rId35" display="DataCiteSchema" xr:uid="{A858633D-A581-7741-AFEF-6719BC41416C}"/>
-    <hyperlink ref="M82" r:id="rId36" display="DataCiteSchema" xr:uid="{31DE2953-BF4E-694F-871C-448507278D9A}"/>
-    <hyperlink ref="M83" r:id="rId37" display="DataCiteSchema" xr:uid="{8630DA0C-B932-C246-9078-95C72FB5BF91}"/>
-    <hyperlink ref="M86" r:id="rId38" display="DataCiteSchema" xr:uid="{1B438F6A-F696-1841-A0B8-8C5CDE068A67}"/>
-    <hyperlink ref="M87" r:id="rId39" display="DataCiteSchema" xr:uid="{DDF97B6B-BEE3-3C44-8345-9022D2F48A26}"/>
-    <hyperlink ref="D151" r:id="rId40" display="https://fairdatacollective.org/" xr:uid="{F7D6490E-4341-0240-BE7B-5E8915480BD0}"/>
+    <hyperlink ref="L4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L3" r:id="rId17" xr:uid="{79274165-A08F-504F-ABEF-86158BAB6E38}"/>
+    <hyperlink ref="L5" r:id="rId18" xr:uid="{EB38BFB8-104C-9549-9590-CD747EA2AB6E}"/>
+    <hyperlink ref="L6" r:id="rId19" xr:uid="{F30A9924-D727-3841-A75B-86457F100CDE}"/>
+    <hyperlink ref="L9" r:id="rId20" xr:uid="{ACAFE479-E18E-2047-B209-085A9026CC0F}"/>
+    <hyperlink ref="L8" r:id="rId21" xr:uid="{AA8245AE-3C94-7147-8E40-35DCB3896ED9}"/>
+    <hyperlink ref="L11" r:id="rId22" xr:uid="{686CAE22-83EC-A34E-B091-F87EA6510ADC}"/>
+    <hyperlink ref="M10" r:id="rId23" xr:uid="{DE9DC848-A7C3-104D-B0CC-7DED37DA0AD1}"/>
+    <hyperlink ref="L13" r:id="rId24" xr:uid="{E40CF022-E2D9-024B-BA4B-36300D6EABED}"/>
+    <hyperlink ref="M50" r:id="rId25" xr:uid="{F21891FB-61A7-3242-9AAA-F78E177BD42B}"/>
+    <hyperlink ref="M51" r:id="rId26" xr:uid="{528FA186-ED8E-6B4E-8209-54BF5C699854}"/>
+    <hyperlink ref="M43" r:id="rId27" display="DataCiteSchema" xr:uid="{512E7D48-D0BB-474E-81C8-84AF8AADE6CD}"/>
+    <hyperlink ref="M44" r:id="rId28" display="DataCiteSchema" xr:uid="{9F3289B1-82D8-D94D-802C-C6C552D25A29}"/>
+    <hyperlink ref="M47" r:id="rId29" display="DataCiteSchema" xr:uid="{6F22468B-C0E2-8E44-88CB-546D020C68F0}"/>
+    <hyperlink ref="M48" r:id="rId30" display="DataCiteSchema" xr:uid="{A7D1F61F-E528-0C44-AC76-2EF1F8BEB3E9}"/>
+    <hyperlink ref="M64" r:id="rId31" xr:uid="{0CC4972C-ECFA-B440-9A75-02F82DDED55D}"/>
+    <hyperlink ref="M89" r:id="rId32" display="DataCiteSchema" xr:uid="{9D6D4BCF-FB27-6D40-A7BD-017D1A5A4757}"/>
+    <hyperlink ref="M90" r:id="rId33" display="DataCiteSchema" xr:uid="{A858633D-A581-7741-AFEF-6719BC41416C}"/>
+    <hyperlink ref="M82" r:id="rId34" display="DataCiteSchema" xr:uid="{31DE2953-BF4E-694F-871C-448507278D9A}"/>
+    <hyperlink ref="M83" r:id="rId35" display="DataCiteSchema" xr:uid="{8630DA0C-B932-C246-9078-95C72FB5BF91}"/>
+    <hyperlink ref="M86" r:id="rId36" display="DataCiteSchema" xr:uid="{1B438F6A-F696-1841-A0B8-8C5CDE068A67}"/>
+    <hyperlink ref="M87" r:id="rId37" display="DataCiteSchema" xr:uid="{DDF97B6B-BEE3-3C44-8345-9022D2F48A26}"/>
+    <hyperlink ref="D151" r:id="rId38" display="https://fairdatacollective.org/" xr:uid="{F7D6490E-4341-0240-BE7B-5E8915480BD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -12424,10 +12415,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="738" t="s">
+      <c r="A1" s="740" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="738"/>
+      <c r="B1" s="740"/>
       <c r="C1" s="20" t="s">
         <v>462</v>
       </c>
@@ -12448,17 +12439,17 @@
       <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="739"/>
-      <c r="B2" s="740" t="s">
+      <c r="A2" s="735"/>
+      <c r="B2" s="736" t="s">
         <v>463</v>
       </c>
       <c r="C2" s="741" t="s">
         <v>455</v>
       </c>
-      <c r="D2" s="742" t="s">
+      <c r="D2" s="737" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="737" t="str">
+      <c r="E2" s="738" t="str">
         <f>Namespace &amp; LOWER($B2)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributorname</v>
       </c>
@@ -12488,11 +12479,11 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="739"/>
-      <c r="B3" s="740"/>
+      <c r="A3" s="735"/>
+      <c r="B3" s="736"/>
       <c r="C3" s="741"/>
-      <c r="D3" s="742"/>
-      <c r="E3" s="737"/>
+      <c r="D3" s="737"/>
+      <c r="E3" s="738"/>
       <c r="F3" s="34" t="s">
         <v>111</v>
       </c>
@@ -12519,11 +12510,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="739"/>
-      <c r="B4" s="740"/>
+      <c r="A4" s="735"/>
+      <c r="B4" s="736"/>
       <c r="C4" s="741"/>
-      <c r="D4" s="742"/>
-      <c r="E4" s="737"/>
+      <c r="D4" s="737"/>
+      <c r="E4" s="738"/>
       <c r="F4" s="34" t="s">
         <v>113</v>
       </c>
@@ -12550,17 +12541,17 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="739"/>
-      <c r="B5" s="740" t="s">
+      <c r="A5" s="735"/>
+      <c r="B5" s="736" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="740" t="s">
+      <c r="C5" s="736" t="s">
         <v>456</v>
       </c>
-      <c r="D5" s="742" t="s">
+      <c r="D5" s="737" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="737" t="str">
+      <c r="E5" s="738" t="str">
         <f>Namespace &amp; LOWER($B5)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributoridentifier</v>
       </c>
@@ -12591,11 +12582,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="739"/>
-      <c r="B6" s="740"/>
-      <c r="C6" s="740"/>
-      <c r="D6" s="742"/>
-      <c r="E6" s="737"/>
+      <c r="A6" s="735"/>
+      <c r="B6" s="736"/>
+      <c r="C6" s="736"/>
+      <c r="D6" s="737"/>
+      <c r="E6" s="738"/>
       <c r="F6" s="34" t="s">
         <v>121</v>
       </c>
@@ -12623,11 +12614,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="739"/>
-      <c r="B7" s="740"/>
-      <c r="C7" s="740"/>
-      <c r="D7" s="742"/>
-      <c r="E7" s="737"/>
+      <c r="A7" s="735"/>
+      <c r="B7" s="736"/>
+      <c r="C7" s="736"/>
+      <c r="D7" s="737"/>
+      <c r="E7" s="738"/>
       <c r="F7" s="34" t="s">
         <v>122</v>
       </c>
@@ -12655,17 +12646,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="739"/>
-      <c r="B8" s="740" t="s">
+      <c r="A8" s="735"/>
+      <c r="B8" s="736" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="740" t="s">
+      <c r="C8" s="736" t="s">
         <v>458</v>
       </c>
-      <c r="D8" s="742" t="s">
+      <c r="D8" s="737" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="743" t="str">
+      <c r="E8" s="739" t="str">
         <f>Namespace &amp; LOWER($B8)</f>
         <v>http://vocab.fairdatacollective.org/dataset/properties/contributoraffiliation</v>
       </c>
@@ -12696,11 +12687,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="739"/>
-      <c r="B9" s="740"/>
-      <c r="C9" s="740"/>
-      <c r="D9" s="742"/>
-      <c r="E9" s="743"/>
+      <c r="A9" s="735"/>
+      <c r="B9" s="736"/>
+      <c r="C9" s="736"/>
+      <c r="D9" s="737"/>
+      <c r="E9" s="739"/>
       <c r="F9" s="34" t="s">
         <v>123</v>
       </c>
@@ -12728,11 +12719,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="739"/>
-      <c r="B10" s="740"/>
-      <c r="C10" s="740"/>
-      <c r="D10" s="742"/>
-      <c r="E10" s="743"/>
+      <c r="A10" s="735"/>
+      <c r="B10" s="736"/>
+      <c r="C10" s="736"/>
+      <c r="D10" s="737"/>
+      <c r="E10" s="739"/>
       <c r="F10" s="34" t="s">
         <v>460</v>
       </c>
@@ -12760,11 +12751,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="739"/>
-      <c r="B11" s="740"/>
-      <c r="C11" s="740"/>
-      <c r="D11" s="742"/>
-      <c r="E11" s="743"/>
+      <c r="A11" s="735"/>
+      <c r="B11" s="736"/>
+      <c r="C11" s="736"/>
+      <c r="D11" s="737"/>
+      <c r="E11" s="739"/>
       <c r="F11" s="34" t="s">
         <v>125</v>
       </c>
@@ -12888,22 +12879,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L13" r:id="rId1" xr:uid="{9ABA6EE5-7A54-DF40-9E10-C757BCBA07FF}"/>

--- a/template-description.xlsx
+++ b/template-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE3CA1-D949-DC46-A530-D89FDEAE5BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD6CDDF-9082-E143-9B60-3B7C03608A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="Namespace">'Dataset template'!$D$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="524">
   <si>
     <t>Element 
 (CEDAR)</t>
@@ -1602,9 +1601,6 @@
     <t>Relevant dates related to the resource being described. One instance of date must be of datsetDateType=Published.</t>
   </si>
   <si>
-    <t>http://vocab.fairdatacollective.org/dataset/properties/</t>
-  </si>
-  <si>
     <t>BASE url</t>
   </si>
   <si>
@@ -1612,6 +1608,9 @@
   </si>
   <si>
     <t>MIME Types list</t>
+  </si>
+  <si>
+    <t>https://vocab.fairdatacollective.org/gdmt/property/</t>
   </si>
 </sst>
 </file>
@@ -3277,32 +3276,29 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3344,6 +3340,138 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3356,97 +3484,109 @@
     <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3465,159 +3605,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3731,6 +3718,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3986,10 +3985,10 @@
   <dimension ref="A1:P1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="B107" sqref="B107:C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4001,7 +4000,7 @@
     <col min="6" max="6" width="60.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="9" width="80.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="13" customWidth="1"/>
     <col min="12" max="12" width="56.42578125" style="13" customWidth="1"/>
@@ -4011,11 +4010,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="669" t="s">
+      <c r="A1" s="668" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="669"/>
-      <c r="C1" s="669"/>
+      <c r="B1" s="668"/>
+      <c r="C1" s="668"/>
       <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
@@ -4053,11 +4052,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="668" t="s">
+      <c r="A2" s="667" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="668"/>
-      <c r="C2" s="668"/>
+      <c r="B2" s="667"/>
+      <c r="C2" s="667"/>
       <c r="D2" s="126" t="s">
         <v>10</v>
       </c>
@@ -4089,20 +4088,20 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="663" t="s">
+      <c r="A3" s="662" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="663"/>
-      <c r="C3" s="663"/>
-      <c r="D3" s="710" t="s">
+      <c r="B3" s="662"/>
+      <c r="C3" s="662"/>
+      <c r="D3" s="706" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="712">
+      <c r="E3" s="708">
         <v>1</v>
       </c>
-      <c r="F3" s="713" t="str">
-        <f>Namespace &amp; $A3</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/ResourceType</v>
+      <c r="F3" s="709" t="str">
+        <f>Namespace &amp; $A3 &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/ResourceTypeInfo</v>
       </c>
       <c r="G3" s="183" t="s">
         <v>18</v>
@@ -4130,12 +4129,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="664"/>
-      <c r="B4" s="664"/>
-      <c r="C4" s="664"/>
-      <c r="D4" s="711"/>
+      <c r="A4" s="663"/>
+      <c r="B4" s="663"/>
+      <c r="C4" s="663"/>
+      <c r="D4" s="707"/>
       <c r="E4" s="578"/>
-      <c r="F4" s="714"/>
+      <c r="F4" s="710"/>
       <c r="G4" s="190" t="s">
         <v>22</v>
       </c>
@@ -4162,20 +4161,20 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="665" t="s">
+      <c r="A5" s="664" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="665"/>
-      <c r="C5" s="665"/>
-      <c r="D5" s="728" t="s">
+      <c r="B5" s="664"/>
+      <c r="C5" s="664"/>
+      <c r="D5" s="724" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="685">
+      <c r="E5" s="684">
         <v>1</v>
       </c>
-      <c r="F5" s="725" t="str">
-        <f>Namespace &amp; ($A5)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/DatasetIdentifier</v>
+      <c r="F5" s="721" t="str">
+        <f>Namespace &amp; ($A5) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DatasetIdentifierInfo</v>
       </c>
       <c r="G5" s="197" t="s">
         <v>26</v>
@@ -4203,12 +4202,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="666"/>
-      <c r="B6" s="666"/>
-      <c r="C6" s="666"/>
-      <c r="D6" s="729"/>
-      <c r="E6" s="686"/>
-      <c r="F6" s="726"/>
+      <c r="A6" s="665"/>
+      <c r="B6" s="665"/>
+      <c r="C6" s="665"/>
+      <c r="D6" s="725"/>
+      <c r="E6" s="685"/>
+      <c r="F6" s="722"/>
       <c r="G6" s="53" t="s">
         <v>29</v>
       </c>
@@ -4235,12 +4234,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="667"/>
-      <c r="B7" s="667"/>
-      <c r="C7" s="667"/>
-      <c r="D7" s="730"/>
-      <c r="E7" s="687"/>
-      <c r="F7" s="727"/>
+      <c r="A7" s="666"/>
+      <c r="B7" s="666"/>
+      <c r="C7" s="666"/>
+      <c r="D7" s="726"/>
+      <c r="E7" s="686"/>
+      <c r="F7" s="723"/>
       <c r="G7" s="203" t="s">
         <v>32</v>
       </c>
@@ -4258,7 +4257,7 @@
       </c>
       <c r="L7" s="207" t="str">
         <f>Namespace &amp; "identifiersubtype"</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/identifiersubtype</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/identifiersubtype</v>
       </c>
       <c r="M7" s="208" t="s">
         <v>28</v>
@@ -4268,20 +4267,20 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="609" t="s">
+      <c r="A8" s="607" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="609"/>
-      <c r="C8" s="609"/>
-      <c r="D8" s="703" t="s">
+      <c r="B8" s="607"/>
+      <c r="C8" s="607"/>
+      <c r="D8" s="699" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="706" t="s">
+      <c r="E8" s="702" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="707" t="str">
-        <f>Namespace &amp; ($A8)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/RelatedResources</v>
+      <c r="F8" s="703" t="str">
+        <f>Namespace &amp; ($A8) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/RelatedResourcesInfo</v>
       </c>
       <c r="G8" s="210" t="s">
         <v>35</v>
@@ -4309,12 +4308,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="610"/>
-      <c r="B9" s="610"/>
-      <c r="C9" s="610"/>
-      <c r="D9" s="704"/>
+      <c r="A9" s="608"/>
+      <c r="B9" s="608"/>
+      <c r="C9" s="608"/>
+      <c r="D9" s="700"/>
       <c r="E9" s="577"/>
-      <c r="F9" s="708"/>
+      <c r="F9" s="704"/>
       <c r="G9" s="59" t="s">
         <v>38</v>
       </c>
@@ -4341,12 +4340,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="610"/>
-      <c r="B10" s="610"/>
-      <c r="C10" s="610"/>
-      <c r="D10" s="704"/>
+      <c r="A10" s="608"/>
+      <c r="B10" s="608"/>
+      <c r="C10" s="608"/>
+      <c r="D10" s="700"/>
       <c r="E10" s="577"/>
-      <c r="F10" s="708"/>
+      <c r="F10" s="704"/>
       <c r="G10" s="59" t="s">
         <v>272</v>
       </c>
@@ -4364,7 +4363,7 @@
       </c>
       <c r="L10" s="63" t="str">
         <f>Namespace &amp; $G10</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/relatedResourceIdentifierSubType</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/relatedResourceIdentifierSubType</v>
       </c>
       <c r="M10" s="65" t="s">
         <v>24</v>
@@ -4374,12 +4373,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="610"/>
-      <c r="B11" s="610"/>
-      <c r="C11" s="610"/>
-      <c r="D11" s="704"/>
+      <c r="A11" s="608"/>
+      <c r="B11" s="608"/>
+      <c r="C11" s="608"/>
+      <c r="D11" s="700"/>
       <c r="E11" s="577"/>
-      <c r="F11" s="708"/>
+      <c r="F11" s="704"/>
       <c r="G11" s="64" t="s">
         <v>41</v>
       </c>
@@ -4406,12 +4405,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="611"/>
-      <c r="B12" s="611"/>
-      <c r="C12" s="611"/>
-      <c r="D12" s="705"/>
+      <c r="A12" s="609"/>
+      <c r="B12" s="609"/>
+      <c r="C12" s="609"/>
+      <c r="D12" s="701"/>
       <c r="E12" s="578"/>
-      <c r="F12" s="709"/>
+      <c r="F12" s="705"/>
       <c r="G12" s="216" t="s">
         <v>42</v>
       </c>
@@ -4438,11 +4437,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="616" t="s">
+      <c r="A13" s="614" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="616"/>
-      <c r="C13" s="616"/>
+      <c r="B13" s="614"/>
+      <c r="C13" s="614"/>
       <c r="D13" s="243" t="s">
         <v>45</v>
       </c>
@@ -4450,8 +4449,8 @@
         <v>46</v>
       </c>
       <c r="F13" s="68" t="str">
-        <f>Namespace &amp; ($A13)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Version</v>
+        <f>Namespace &amp; ($A13) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/VersionInfo</v>
       </c>
       <c r="G13" s="69" t="s">
         <v>47</v>
@@ -4479,20 +4478,20 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="617" t="s">
+      <c r="A14" s="615" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="617"/>
-      <c r="C14" s="617"/>
-      <c r="D14" s="733" t="s">
+      <c r="B14" s="615"/>
+      <c r="C14" s="615"/>
+      <c r="D14" s="729" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="723" t="s">
+      <c r="E14" s="719" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="731" t="str">
-        <f>Namespace &amp; ($A14)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Language</v>
+      <c r="F14" s="727" t="str">
+        <f>Namespace &amp; ($A14) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/LanguageInfo</v>
       </c>
       <c r="G14" s="223" t="s">
         <v>50</v>
@@ -4520,12 +4519,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="618"/>
-      <c r="B15" s="618"/>
-      <c r="C15" s="618"/>
-      <c r="D15" s="734"/>
-      <c r="E15" s="724"/>
-      <c r="F15" s="732"/>
+      <c r="A15" s="616"/>
+      <c r="B15" s="616"/>
+      <c r="C15" s="616"/>
+      <c r="D15" s="730"/>
+      <c r="E15" s="720"/>
+      <c r="F15" s="728"/>
       <c r="G15" s="229" t="s">
         <v>51</v>
       </c>
@@ -4535,15 +4534,15 @@
       <c r="I15" s="230" t="s">
         <v>413</v>
       </c>
-      <c r="J15" s="231" t="s">
-        <v>46</v>
+      <c r="J15" s="231">
+        <v>1</v>
       </c>
       <c r="K15" s="232" t="s">
         <v>68</v>
       </c>
       <c r="L15" s="233" t="str">
         <f>Namespace &amp; "primarylanguage"</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/primarylanguage</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/primarylanguage</v>
       </c>
       <c r="M15" s="234" t="s">
         <v>435</v>
@@ -4555,20 +4554,20 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="619" t="s">
+      <c r="A16" s="617" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="619"/>
-      <c r="C16" s="619"/>
+      <c r="B16" s="617"/>
+      <c r="C16" s="617"/>
       <c r="D16" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="235" t="s">
-        <v>54</v>
+      <c r="E16" s="235">
+        <v>1</v>
       </c>
       <c r="F16" s="236" t="str">
-        <f>Namespace &amp; ($A16)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Title</v>
+        <f>Namespace &amp; ($A16) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/TitleInfo</v>
       </c>
       <c r="G16" s="237" t="s">
         <v>55</v>
@@ -4596,20 +4595,20 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="620" t="s">
+      <c r="A17" s="618" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="620"/>
-      <c r="C17" s="620"/>
+      <c r="B17" s="618"/>
+      <c r="C17" s="618"/>
       <c r="D17" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="75" t="s">
-        <v>54</v>
+      <c r="E17" s="75">
+        <v>1</v>
       </c>
       <c r="F17" s="76" t="str">
-        <f>Namespace &amp; ($A17)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Description</v>
+        <f>Namespace &amp; ($A17) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DescriptionInfo</v>
       </c>
       <c r="G17" s="76" t="s">
         <v>59</v>
@@ -4639,11 +4638,11 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" s="11" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="612" t="s">
+      <c r="A18" s="610" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="612"/>
-      <c r="C18" s="612"/>
+      <c r="B18" s="610"/>
+      <c r="C18" s="610"/>
       <c r="D18" s="245" t="s">
         <v>63</v>
       </c>
@@ -4651,8 +4650,8 @@
         <v>46</v>
       </c>
       <c r="F18" s="149" t="str">
-        <f>Namespace&amp;($A18)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Subject</v>
+        <f>Namespace&amp;($A18) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/SubjectInfo</v>
       </c>
       <c r="G18" s="151"/>
       <c r="H18" s="151"/>
@@ -4667,19 +4666,19 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="315"/>
-      <c r="B19" s="613" t="s">
+      <c r="B19" s="611" t="s">
         <v>501</v>
       </c>
-      <c r="C19" s="613"/>
-      <c r="D19" s="613" t="s">
+      <c r="C19" s="611"/>
+      <c r="D19" s="611" t="s">
         <v>468</v>
       </c>
-      <c r="E19" s="720" t="s">
+      <c r="E19" s="716" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="717" t="str">
-        <f>Namespace&amp;($A19)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/</v>
+      <c r="F19" s="713" t="str">
+        <f>Namespace&amp;($B19) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/ControlledTermsInfo</v>
       </c>
       <c r="G19" s="127" t="s">
         <v>66</v>
@@ -4708,11 +4707,11 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="315"/>
-      <c r="B20" s="614"/>
-      <c r="C20" s="614"/>
-      <c r="D20" s="614"/>
-      <c r="E20" s="721"/>
-      <c r="F20" s="718"/>
+      <c r="B20" s="612"/>
+      <c r="C20" s="612"/>
+      <c r="D20" s="612"/>
+      <c r="E20" s="717"/>
+      <c r="F20" s="714"/>
       <c r="G20" s="79" t="s">
         <v>469</v>
       </c>
@@ -4730,7 +4729,7 @@
       </c>
       <c r="L20" s="82" t="str">
         <f>Namespace &amp; $G20</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/subjectIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/subjectIRI</v>
       </c>
       <c r="M20" s="83" t="s">
         <v>502</v>
@@ -4741,11 +4740,11 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="315"/>
-      <c r="B21" s="614"/>
-      <c r="C21" s="614"/>
-      <c r="D21" s="614"/>
-      <c r="E21" s="721"/>
-      <c r="F21" s="718"/>
+      <c r="B21" s="612"/>
+      <c r="C21" s="612"/>
+      <c r="D21" s="612"/>
+      <c r="E21" s="717"/>
+      <c r="F21" s="714"/>
       <c r="G21" s="83" t="s">
         <v>70</v>
       </c>
@@ -4763,7 +4762,7 @@
       </c>
       <c r="L21" s="82" t="str">
         <f>Namespace &amp; $G21</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/subjectScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/subjectScheme</v>
       </c>
       <c r="M21" s="83" t="s">
         <v>502</v>
@@ -4774,11 +4773,11 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="315"/>
-      <c r="B22" s="615"/>
-      <c r="C22" s="615"/>
-      <c r="D22" s="615"/>
-      <c r="E22" s="722"/>
-      <c r="F22" s="719"/>
+      <c r="B22" s="613"/>
+      <c r="C22" s="613"/>
+      <c r="D22" s="613"/>
+      <c r="E22" s="718"/>
+      <c r="F22" s="715"/>
       <c r="G22" s="132" t="s">
         <v>71</v>
       </c>
@@ -4796,7 +4795,7 @@
       </c>
       <c r="L22" s="135" t="str">
         <f>Namespace &amp; $G22</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/subjectSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/subjectSchemeIRI</v>
       </c>
       <c r="M22" s="136" t="s">
         <v>502</v>
@@ -4829,7 +4828,7 @@
       </c>
       <c r="L23" s="162" t="str">
         <f>Namespace &amp; $G23</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/keyword</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/keyword</v>
       </c>
       <c r="M23" s="163"/>
       <c r="N23" s="164" t="s">
@@ -4837,11 +4836,11 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="649" t="s">
+      <c r="A24" s="652" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="649"/>
-      <c r="C24" s="649"/>
+      <c r="B24" s="652"/>
+      <c r="C24" s="652"/>
       <c r="D24" s="246" t="s">
         <v>73</v>
       </c>
@@ -4849,8 +4848,8 @@
         <v>54</v>
       </c>
       <c r="F24" s="166" t="str">
-        <f>Namespace &amp; ($A24)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Creator</v>
+        <f>Namespace &amp; ($A24) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/CreatorInfo</v>
       </c>
       <c r="G24" s="167"/>
       <c r="H24" s="167"/>
@@ -4863,19 +4862,19 @@
     </row>
     <row r="25" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="650" t="s">
+      <c r="B25" s="653" t="s">
         <v>452</v>
       </c>
-      <c r="C25" s="650"/>
-      <c r="D25" s="650" t="s">
+      <c r="C25" s="653"/>
+      <c r="D25" s="653" t="s">
         <v>478</v>
       </c>
-      <c r="E25" s="679" t="s">
+      <c r="E25" s="678" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="682" t="str">
-        <f>Namespace &amp; ($B25)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/CreatorName</v>
+      <c r="F25" s="681" t="str">
+        <f>Namespace &amp; ($B25) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/CreatorNameInfo</v>
       </c>
       <c r="G25" s="137" t="s">
         <v>85</v>
@@ -4904,11 +4903,11 @@
     </row>
     <row r="26" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="651"/>
-      <c r="C26" s="651"/>
-      <c r="D26" s="651"/>
-      <c r="E26" s="680"/>
-      <c r="F26" s="683"/>
+      <c r="B26" s="654"/>
+      <c r="C26" s="654"/>
+      <c r="D26" s="654"/>
+      <c r="E26" s="679"/>
+      <c r="F26" s="682"/>
       <c r="G26" s="87" t="s">
         <v>79</v>
       </c>
@@ -4936,11 +4935,11 @@
     </row>
     <row r="27" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="652"/>
-      <c r="C27" s="652"/>
-      <c r="D27" s="652"/>
-      <c r="E27" s="681"/>
-      <c r="F27" s="684"/>
+      <c r="B27" s="655"/>
+      <c r="C27" s="655"/>
+      <c r="D27" s="655"/>
+      <c r="E27" s="680"/>
+      <c r="F27" s="683"/>
       <c r="G27" s="141" t="s">
         <v>82</v>
       </c>
@@ -4968,19 +4967,19 @@
     </row>
     <row r="28" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="650" t="s">
+      <c r="B28" s="653" t="s">
         <v>453</v>
       </c>
-      <c r="C28" s="650"/>
-      <c r="D28" s="650" t="s">
+      <c r="C28" s="653"/>
+      <c r="D28" s="653" t="s">
         <v>477</v>
       </c>
-      <c r="E28" s="679" t="s">
+      <c r="E28" s="678" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="682" t="str">
-        <f>Namespace &amp; ($B28)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/CreatorIdentifier</v>
+      <c r="F28" s="681" t="str">
+        <f>Namespace &amp; ($B28) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/CreatorIdentifierInfo</v>
       </c>
       <c r="G28" s="146" t="s">
         <v>91</v>
@@ -4999,7 +4998,7 @@
       </c>
       <c r="L28" s="140" t="str">
         <f t="shared" ref="L28:L34" si="0">Namespace &amp; $G28</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/creatorIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorIdentifier</v>
       </c>
       <c r="M28" s="137" t="s">
         <v>28</v>
@@ -5010,11 +5009,11 @@
     </row>
     <row r="29" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="651"/>
-      <c r="C29" s="651"/>
-      <c r="D29" s="651"/>
-      <c r="E29" s="680"/>
-      <c r="F29" s="683"/>
+      <c r="B29" s="654"/>
+      <c r="C29" s="654"/>
+      <c r="D29" s="654"/>
+      <c r="E29" s="679"/>
+      <c r="F29" s="682"/>
       <c r="G29" s="87" t="s">
         <v>93</v>
       </c>
@@ -5032,10 +5031,10 @@
       </c>
       <c r="L29" s="86" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/creatorIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorIdentifierScheme</v>
       </c>
       <c r="M29" s="89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N29" s="84" t="s">
         <v>94</v>
@@ -5043,11 +5042,11 @@
     </row>
     <row r="30" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="652"/>
-      <c r="C30" s="652"/>
-      <c r="D30" s="652"/>
-      <c r="E30" s="681"/>
-      <c r="F30" s="684"/>
+      <c r="B30" s="655"/>
+      <c r="C30" s="655"/>
+      <c r="D30" s="655"/>
+      <c r="E30" s="680"/>
+      <c r="F30" s="683"/>
       <c r="G30" s="141" t="s">
         <v>95</v>
       </c>
@@ -5065,10 +5064,10 @@
       </c>
       <c r="L30" s="144" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/creatorIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorIdentifierSchemeIRI</v>
       </c>
       <c r="M30" s="148" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N30" s="145" t="s">
         <v>96</v>
@@ -5076,19 +5075,19 @@
     </row>
     <row r="31" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="650" t="s">
+      <c r="B31" s="653" t="s">
         <v>454</v>
       </c>
-      <c r="C31" s="650"/>
-      <c r="D31" s="650" t="s">
+      <c r="C31" s="653"/>
+      <c r="D31" s="653" t="s">
         <v>476</v>
       </c>
-      <c r="E31" s="679" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="715" t="str">
-        <f>Namespace &amp; ($B31)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/CreatorAffiliation</v>
+      <c r="E31" s="678" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="711" t="str">
+        <f>Namespace &amp; ($B31) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/CreatorAffiliationInfo</v>
       </c>
       <c r="G31" s="87" t="s">
         <v>97</v>
@@ -5107,7 +5106,7 @@
       </c>
       <c r="L31" s="86" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/creatorAffiliation</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorAffiliation</v>
       </c>
       <c r="M31" s="84" t="s">
         <v>28</v>
@@ -5118,11 +5117,11 @@
     </row>
     <row r="32" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="651"/>
-      <c r="C32" s="651"/>
-      <c r="D32" s="651"/>
-      <c r="E32" s="680"/>
-      <c r="F32" s="715"/>
+      <c r="B32" s="654"/>
+      <c r="C32" s="654"/>
+      <c r="D32" s="654"/>
+      <c r="E32" s="679"/>
+      <c r="F32" s="711"/>
       <c r="G32" s="87" t="s">
         <v>100</v>
       </c>
@@ -5140,7 +5139,7 @@
       </c>
       <c r="L32" s="86" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/creatorAffiliationIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorAffiliationIdentifier</v>
       </c>
       <c r="M32" s="84" t="s">
         <v>28</v>
@@ -5151,11 +5150,11 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
-      <c r="B33" s="651"/>
-      <c r="C33" s="651"/>
-      <c r="D33" s="651"/>
-      <c r="E33" s="680"/>
-      <c r="F33" s="715"/>
+      <c r="B33" s="654"/>
+      <c r="C33" s="654"/>
+      <c r="D33" s="654"/>
+      <c r="E33" s="679"/>
+      <c r="F33" s="711"/>
       <c r="G33" s="87" t="s">
         <v>103</v>
       </c>
@@ -5173,10 +5172,10 @@
       </c>
       <c r="L33" s="86" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/creatorAffiliationIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorAffiliationIdentifierScheme</v>
       </c>
       <c r="M33" s="89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N33" s="84" t="s">
         <v>104</v>
@@ -5184,11 +5183,11 @@
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="652"/>
-      <c r="C34" s="652"/>
-      <c r="D34" s="652"/>
-      <c r="E34" s="681"/>
-      <c r="F34" s="716"/>
+      <c r="B34" s="655"/>
+      <c r="C34" s="655"/>
+      <c r="D34" s="655"/>
+      <c r="E34" s="680"/>
+      <c r="F34" s="712"/>
       <c r="G34" s="141" t="s">
         <v>105</v>
       </c>
@@ -5206,10 +5205,10 @@
       </c>
       <c r="L34" s="144" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/creatorAffiliationIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="M34" s="148" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N34" s="145" t="s">
         <v>106</v>
@@ -5271,7 +5270,7 @@
       </c>
       <c r="L36" s="86" t="str">
         <f>Namespace &amp; $G36</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/creatorRole</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorRole</v>
       </c>
       <c r="M36" s="89" t="s">
         <v>24</v>
@@ -5304,7 +5303,7 @@
       </c>
       <c r="L37" s="180" t="str">
         <f>Namespace &amp; $G37</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/creatorType</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorType</v>
       </c>
       <c r="M37" s="181" t="s">
         <v>24</v>
@@ -5314,11 +5313,11 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="653" t="s">
+      <c r="A38" s="656" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="653"/>
-      <c r="C38" s="653"/>
+      <c r="B38" s="656"/>
+      <c r="C38" s="656"/>
       <c r="D38" s="382" t="s">
         <v>462</v>
       </c>
@@ -5326,8 +5325,8 @@
         <v>34</v>
       </c>
       <c r="F38" s="384" t="str">
-        <f>Namespace &amp; ($A38)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Contributor</v>
+        <f>Namespace &amp; ($A38) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/ContributorInfo</v>
       </c>
       <c r="G38" s="385"/>
       <c r="H38" s="385"/>
@@ -5340,19 +5339,19 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="424"/>
-      <c r="B39" s="654" t="s">
+      <c r="B39" s="657" t="s">
         <v>463</v>
       </c>
-      <c r="C39" s="654"/>
-      <c r="D39" s="670" t="s">
+      <c r="C39" s="657"/>
+      <c r="D39" s="669" t="s">
         <v>479</v>
       </c>
-      <c r="E39" s="585" t="s">
+      <c r="E39" s="582" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="676" t="str">
-        <f>Namespace &amp; ($B39)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/ContributorName</v>
+      <c r="F39" s="675" t="str">
+        <f>Namespace &amp; ($B39) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/ContributorNameInfo</v>
       </c>
       <c r="G39" s="390" t="s">
         <v>115</v>
@@ -5381,11 +5380,11 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="424"/>
-      <c r="B40" s="654"/>
-      <c r="C40" s="654"/>
-      <c r="D40" s="671"/>
-      <c r="E40" s="586"/>
-      <c r="F40" s="677"/>
+      <c r="B40" s="657"/>
+      <c r="C40" s="657"/>
+      <c r="D40" s="670"/>
+      <c r="E40" s="583"/>
+      <c r="F40" s="676"/>
       <c r="G40" s="394" t="s">
         <v>111</v>
       </c>
@@ -5413,11 +5412,11 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="424"/>
-      <c r="B41" s="654"/>
-      <c r="C41" s="654"/>
-      <c r="D41" s="672"/>
-      <c r="E41" s="587"/>
-      <c r="F41" s="678"/>
+      <c r="B41" s="657"/>
+      <c r="C41" s="657"/>
+      <c r="D41" s="671"/>
+      <c r="E41" s="584"/>
+      <c r="F41" s="677"/>
       <c r="G41" s="399" t="s">
         <v>113</v>
       </c>
@@ -5445,19 +5444,19 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="424"/>
-      <c r="B42" s="654" t="s">
+      <c r="B42" s="657" t="s">
         <v>466</v>
       </c>
-      <c r="C42" s="654"/>
-      <c r="D42" s="670" t="s">
+      <c r="C42" s="657"/>
+      <c r="D42" s="669" t="s">
         <v>480</v>
       </c>
-      <c r="E42" s="585" t="s">
+      <c r="E42" s="582" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="676" t="str">
-        <f>Namespace &amp; ($B42)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/ContributorIdentifier</v>
+      <c r="F42" s="675" t="str">
+        <f>Namespace &amp; ($B42) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/ContributorIdentifierInfo</v>
       </c>
       <c r="G42" s="404" t="s">
         <v>120</v>
@@ -5476,7 +5475,7 @@
       </c>
       <c r="L42" s="393" t="str">
         <f t="shared" ref="L42:L48" si="1">Namespace &amp; $G42</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifier</v>
       </c>
       <c r="M42" s="390" t="s">
         <v>28</v>
@@ -5487,11 +5486,11 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="424"/>
-      <c r="B43" s="654"/>
-      <c r="C43" s="654"/>
-      <c r="D43" s="671"/>
-      <c r="E43" s="586"/>
-      <c r="F43" s="677"/>
+      <c r="B43" s="657"/>
+      <c r="C43" s="657"/>
+      <c r="D43" s="670"/>
+      <c r="E43" s="583"/>
+      <c r="F43" s="676"/>
       <c r="G43" s="394" t="s">
         <v>121</v>
       </c>
@@ -5509,10 +5508,10 @@
       </c>
       <c r="L43" s="397" t="str">
         <f t="shared" si="1"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifierScheme</v>
       </c>
       <c r="M43" s="406" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N43" s="398" t="s">
         <v>94</v>
@@ -5520,11 +5519,11 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="424"/>
-      <c r="B44" s="654"/>
-      <c r="C44" s="654"/>
-      <c r="D44" s="672"/>
-      <c r="E44" s="587"/>
-      <c r="F44" s="678"/>
+      <c r="B44" s="657"/>
+      <c r="C44" s="657"/>
+      <c r="D44" s="671"/>
+      <c r="E44" s="584"/>
+      <c r="F44" s="677"/>
       <c r="G44" s="399" t="s">
         <v>122</v>
       </c>
@@ -5542,10 +5541,10 @@
       </c>
       <c r="L44" s="402" t="str">
         <f t="shared" si="1"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifierSchemeIRI</v>
       </c>
       <c r="M44" s="407" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N44" s="403" t="s">
         <v>96</v>
@@ -5553,19 +5552,19 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="424"/>
-      <c r="B45" s="654" t="s">
+      <c r="B45" s="657" t="s">
         <v>467</v>
       </c>
-      <c r="C45" s="654"/>
-      <c r="D45" s="670" t="s">
+      <c r="C45" s="657"/>
+      <c r="D45" s="669" t="s">
         <v>481</v>
       </c>
-      <c r="E45" s="585" t="s">
+      <c r="E45" s="582" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="673" t="str">
-        <f>Namespace &amp; ($B45)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/ContributorAffiliation</v>
+      <c r="F45" s="672" t="str">
+        <f>Namespace &amp; ($B45) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/ContributorAffiliationInfo</v>
       </c>
       <c r="G45" s="404" t="s">
         <v>331</v>
@@ -5584,7 +5583,7 @@
       </c>
       <c r="L45" s="393" t="str">
         <f t="shared" si="1"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliation</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliation</v>
       </c>
       <c r="M45" s="390" t="s">
         <v>28</v>
@@ -5595,11 +5594,11 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="424"/>
-      <c r="B46" s="654"/>
-      <c r="C46" s="654"/>
-      <c r="D46" s="671"/>
-      <c r="E46" s="586"/>
-      <c r="F46" s="674"/>
+      <c r="B46" s="657"/>
+      <c r="C46" s="657"/>
+      <c r="D46" s="670"/>
+      <c r="E46" s="583"/>
+      <c r="F46" s="673"/>
       <c r="G46" s="394" t="s">
         <v>123</v>
       </c>
@@ -5617,7 +5616,7 @@
       </c>
       <c r="L46" s="397" t="str">
         <f t="shared" si="1"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliationIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifier</v>
       </c>
       <c r="M46" s="398" t="s">
         <v>28</v>
@@ -5628,11 +5627,11 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="424"/>
-      <c r="B47" s="654"/>
-      <c r="C47" s="654"/>
-      <c r="D47" s="671"/>
-      <c r="E47" s="586"/>
-      <c r="F47" s="674"/>
+      <c r="B47" s="657"/>
+      <c r="C47" s="657"/>
+      <c r="D47" s="670"/>
+      <c r="E47" s="583"/>
+      <c r="F47" s="673"/>
       <c r="G47" s="394" t="s">
         <v>460</v>
       </c>
@@ -5650,10 +5649,10 @@
       </c>
       <c r="L47" s="397" t="str">
         <f t="shared" si="1"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliationIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifierScheme</v>
       </c>
       <c r="M47" s="406" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N47" s="398" t="s">
         <v>104</v>
@@ -5661,11 +5660,11 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="424"/>
-      <c r="B48" s="654"/>
-      <c r="C48" s="654"/>
-      <c r="D48" s="672"/>
-      <c r="E48" s="587"/>
-      <c r="F48" s="675"/>
+      <c r="B48" s="657"/>
+      <c r="C48" s="657"/>
+      <c r="D48" s="671"/>
+      <c r="E48" s="584"/>
+      <c r="F48" s="674"/>
       <c r="G48" s="399" t="s">
         <v>125</v>
       </c>
@@ -5683,10 +5682,10 @@
       </c>
       <c r="L48" s="402" t="str">
         <f t="shared" si="1"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliationIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="M48" s="407" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N48" s="403" t="s">
         <v>106</v>
@@ -5752,7 +5751,7 @@
       </c>
       <c r="L50" s="397" t="str">
         <f>Namespace &amp; $G50</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorRole</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorRole</v>
       </c>
       <c r="M50" s="406" t="s">
         <v>24</v>
@@ -5785,7 +5784,7 @@
       </c>
       <c r="L51" s="421" t="str">
         <f>Namespace &amp; $G51</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorType</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorType</v>
       </c>
       <c r="M51" s="422" t="s">
         <v>24</v>
@@ -5795,11 +5794,11 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="655" t="s">
+      <c r="A52" s="658" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="655"/>
-      <c r="C52" s="655"/>
+      <c r="B52" s="658"/>
+      <c r="C52" s="658"/>
       <c r="D52" s="248" t="s">
         <v>437</v>
       </c>
@@ -5807,8 +5806,8 @@
         <v>1</v>
       </c>
       <c r="F52" s="248" t="str">
-        <f>Namespace &amp; ($A52)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Publisher</v>
+        <f>Namespace &amp; ($A52) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/PublisherInfo</v>
       </c>
       <c r="G52" s="93"/>
       <c r="H52" s="93"/>
@@ -5821,19 +5820,19 @@
     </row>
     <row r="53" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="426"/>
-      <c r="B53" s="646" t="s">
+      <c r="B53" s="633" t="s">
         <v>474</v>
       </c>
-      <c r="C53" s="646"/>
-      <c r="D53" s="646" t="s">
+      <c r="C53" s="633"/>
+      <c r="D53" s="633" t="s">
         <v>475</v>
       </c>
-      <c r="E53" s="643" t="s">
+      <c r="E53" s="690" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="640" t="str">
-        <f>Namespace &amp; ($B53)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/PublisherIdentifier</v>
+      <c r="F53" s="687" t="str">
+        <f>Namespace &amp; ($B53) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/PublisherIdentifierInfo</v>
       </c>
       <c r="G53" s="252" t="s">
         <v>134</v>
@@ -5852,7 +5851,7 @@
       </c>
       <c r="L53" s="255" t="str">
         <f>Namespace &amp; $G53</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/publisherIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/publisherIdentifier</v>
       </c>
       <c r="M53" s="256" t="s">
         <v>28</v>
@@ -5863,11 +5862,11 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="426"/>
-      <c r="B54" s="647"/>
-      <c r="C54" s="647"/>
-      <c r="D54" s="647"/>
-      <c r="E54" s="644"/>
-      <c r="F54" s="641"/>
+      <c r="B54" s="634"/>
+      <c r="C54" s="634"/>
+      <c r="D54" s="634"/>
+      <c r="E54" s="691"/>
+      <c r="F54" s="688"/>
       <c r="G54" s="93" t="s">
         <v>136</v>
       </c>
@@ -5885,7 +5884,7 @@
       </c>
       <c r="L54" s="96" t="str">
         <f>Namespace &amp; $G54</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/publisherIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/publisherIdentifierScheme</v>
       </c>
       <c r="M54" s="97" t="s">
         <v>24</v>
@@ -5896,11 +5895,11 @@
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="426"/>
-      <c r="B55" s="648"/>
-      <c r="C55" s="648"/>
-      <c r="D55" s="648"/>
-      <c r="E55" s="645"/>
-      <c r="F55" s="642"/>
+      <c r="B55" s="635"/>
+      <c r="C55" s="635"/>
+      <c r="D55" s="635"/>
+      <c r="E55" s="692"/>
+      <c r="F55" s="689"/>
       <c r="G55" s="257" t="s">
         <v>137</v>
       </c>
@@ -5918,7 +5917,7 @@
       </c>
       <c r="L55" s="260" t="str">
         <f>Namespace &amp; $G55</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/publisherIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/publisherIdentifierSchemeIRI</v>
       </c>
       <c r="M55" s="261" t="s">
         <v>24</v>
@@ -6015,7 +6014,7 @@
       </c>
       <c r="L58" s="267" t="str">
         <f>Namespace &amp; $G58</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/publisherAddress</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/publisherAddress</v>
       </c>
       <c r="M58" s="268" t="s">
         <v>28</v>
@@ -6027,11 +6026,11 @@
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="605" t="s">
+      <c r="A59" s="648" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="605"/>
-      <c r="C59" s="605"/>
+      <c r="B59" s="648"/>
+      <c r="C59" s="648"/>
       <c r="D59" s="296" t="s">
         <v>139</v>
       </c>
@@ -6039,8 +6038,8 @@
         <v>1</v>
       </c>
       <c r="F59" s="298" t="str">
-        <f>Namespace &amp; ($A59)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Rights</v>
+        <f>Namespace &amp; ($A59) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/RightsInfo</v>
       </c>
       <c r="G59" s="278"/>
       <c r="H59" s="278"/>
@@ -6075,7 +6074,7 @@
       </c>
       <c r="L60" s="101" t="str">
         <f>Namespace &amp; $G60</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/licenseName</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/licenseName</v>
       </c>
       <c r="M60" s="102" t="s">
         <v>142</v>
@@ -6096,9 +6095,9 @@
       <c r="E61" s="552" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="656" t="str">
-        <f>Namespace &amp; ($B61)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/LicenseIdentifier</v>
+      <c r="F61" s="731" t="str">
+        <f>Namespace &amp; ($B61) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/LicenseIdentifierInfo</v>
       </c>
       <c r="G61" s="284" t="s">
         <v>145</v>
@@ -6117,7 +6116,7 @@
       </c>
       <c r="L61" s="287" t="str">
         <f>Namespace &amp; $G61</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/licenseIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/licenseIdentifier</v>
       </c>
       <c r="M61" s="288" t="s">
         <v>142</v>
@@ -6134,7 +6133,7 @@
       <c r="C62" s="550"/>
       <c r="D62" s="550"/>
       <c r="E62" s="553"/>
-      <c r="F62" s="657"/>
+      <c r="F62" s="732"/>
       <c r="G62" s="98" t="s">
         <v>148</v>
       </c>
@@ -6152,7 +6151,7 @@
       </c>
       <c r="L62" s="101" t="str">
         <f>Namespace &amp; $G62</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/licenseIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/licenseIdentifierScheme</v>
       </c>
       <c r="M62" s="102" t="s">
         <v>142</v>
@@ -6163,11 +6162,11 @@
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="428"/>
-      <c r="B63" s="606"/>
-      <c r="C63" s="606"/>
-      <c r="D63" s="606"/>
-      <c r="E63" s="659"/>
-      <c r="F63" s="658"/>
+      <c r="B63" s="649"/>
+      <c r="C63" s="649"/>
+      <c r="D63" s="649"/>
+      <c r="E63" s="734"/>
+      <c r="F63" s="733"/>
       <c r="G63" s="290" t="s">
         <v>149</v>
       </c>
@@ -6185,7 +6184,7 @@
       </c>
       <c r="L63" s="293" t="str">
         <f>Namespace &amp; $G63</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/licenseIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/licenseIdentifierSchemeIRI</v>
       </c>
       <c r="M63" s="294" t="s">
         <v>142</v>
@@ -6225,20 +6224,20 @@
       <c r="N64" s="277"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="607" t="s">
+      <c r="A65" s="650" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="607"/>
-      <c r="C65" s="607"/>
-      <c r="D65" s="636" t="s">
+      <c r="B65" s="650"/>
+      <c r="C65" s="650"/>
+      <c r="D65" s="638" t="s">
         <v>519</v>
       </c>
-      <c r="E65" s="638" t="s">
+      <c r="E65" s="640" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="636" t="str">
-        <f>Namespace &amp; ($A65)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Date</v>
+      <c r="F65" s="638" t="str">
+        <f>Namespace &amp; ($A65) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DateInfo</v>
       </c>
       <c r="G65" s="304" t="s">
         <v>152</v>
@@ -6255,18 +6254,18 @@
       <c r="K65" s="307"/>
       <c r="L65" s="307" t="str">
         <f t="shared" ref="L65:L69" si="2">Namespace &amp; $G65</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/datasetDate</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/datasetDate</v>
       </c>
       <c r="M65" s="308"/>
       <c r="N65" s="308"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="607"/>
-      <c r="B66" s="607"/>
-      <c r="C66" s="607"/>
-      <c r="D66" s="637"/>
-      <c r="E66" s="639"/>
-      <c r="F66" s="637"/>
+      <c r="A66" s="650"/>
+      <c r="B66" s="650"/>
+      <c r="C66" s="650"/>
+      <c r="D66" s="639"/>
+      <c r="E66" s="641"/>
+      <c r="F66" s="639"/>
       <c r="G66" s="105" t="s">
         <v>486</v>
       </c>
@@ -6282,7 +6281,7 @@
       <c r="K66" s="108"/>
       <c r="L66" s="108" t="str">
         <f t="shared" si="2"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/datasetDateType</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/datasetDateType</v>
       </c>
       <c r="M66" s="109" t="s">
         <v>24</v>
@@ -6292,20 +6291,20 @@
       </c>
     </row>
     <row r="67" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="608" t="s">
+      <c r="A67" s="651" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="608"/>
-      <c r="C67" s="608"/>
-      <c r="D67" s="660" t="s">
+      <c r="B67" s="651"/>
+      <c r="C67" s="651"/>
+      <c r="D67" s="659" t="s">
         <v>159</v>
       </c>
       <c r="E67" s="365" t="s">
         <v>34</v>
       </c>
       <c r="F67" s="366" t="str">
-        <f>Namespace &amp; ($A67)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Distribution</v>
+        <f>Namespace &amp; ($A67) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributionInfo</v>
       </c>
       <c r="G67" s="367"/>
       <c r="H67" s="367"/>
@@ -6318,9 +6317,9 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="372"/>
-      <c r="B68" s="634"/>
-      <c r="C68" s="634"/>
-      <c r="D68" s="661"/>
+      <c r="B68" s="636"/>
+      <c r="C68" s="636"/>
+      <c r="D68" s="660"/>
       <c r="E68" s="316"/>
       <c r="F68" s="317"/>
       <c r="G68" s="318" t="s">
@@ -6340,7 +6339,7 @@
       </c>
       <c r="L68" s="321" t="str">
         <f t="shared" si="2"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributionIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionIdentifier</v>
       </c>
       <c r="M68" s="318" t="s">
         <v>24</v>
@@ -6353,7 +6352,7 @@
       <c r="A69" s="372"/>
       <c r="B69" s="373"/>
       <c r="C69" s="322"/>
-      <c r="D69" s="661"/>
+      <c r="D69" s="660"/>
       <c r="E69" s="324"/>
       <c r="F69" s="317"/>
       <c r="G69" s="318" t="s">
@@ -6373,7 +6372,7 @@
       </c>
       <c r="L69" s="321" t="str">
         <f t="shared" si="2"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributionIdentifierType</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionIdentifierType</v>
       </c>
       <c r="M69" s="318" t="s">
         <v>24</v>
@@ -6386,7 +6385,7 @@
       <c r="A70" s="372"/>
       <c r="B70" s="373"/>
       <c r="C70" s="322"/>
-      <c r="D70" s="661"/>
+      <c r="D70" s="660"/>
       <c r="E70" s="325"/>
       <c r="F70" s="317"/>
       <c r="G70" s="310" t="s">
@@ -6418,7 +6417,7 @@
       <c r="A71" s="372"/>
       <c r="B71" s="373"/>
       <c r="C71" s="322"/>
-      <c r="D71" s="661"/>
+      <c r="D71" s="660"/>
       <c r="E71" s="325"/>
       <c r="F71" s="317"/>
       <c r="G71" s="310" t="s">
@@ -6438,10 +6437,10 @@
       </c>
       <c r="L71" s="313" t="str">
         <f t="shared" ref="L71:L76" si="3">Namespace &amp; $G71</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributionMediaType</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionMediaType</v>
       </c>
       <c r="M71" s="314" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N71" s="314" t="s">
         <v>28</v>
@@ -6451,7 +6450,7 @@
       <c r="A72" s="372"/>
       <c r="B72" s="373"/>
       <c r="C72" s="322"/>
-      <c r="D72" s="662"/>
+      <c r="D72" s="661"/>
       <c r="E72" s="324"/>
       <c r="F72" s="317"/>
       <c r="G72" s="310" t="s">
@@ -6471,7 +6470,7 @@
       </c>
       <c r="L72" s="313" t="str">
         <f t="shared" si="3"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributionSize</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionSize</v>
       </c>
       <c r="M72" s="314" t="s">
         <v>28</v>
@@ -6482,17 +6481,17 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="372"/>
-      <c r="B73" s="622" t="s">
+      <c r="B73" s="621" t="s">
         <v>490</v>
       </c>
-      <c r="C73" s="622"/>
-      <c r="D73" s="691" t="s">
+      <c r="C73" s="621"/>
+      <c r="D73" s="645" t="s">
         <v>491</v>
       </c>
-      <c r="E73" s="625">
+      <c r="E73" s="624">
         <v>1</v>
       </c>
-      <c r="F73" s="688"/>
+      <c r="F73" s="642"/>
       <c r="G73" s="326" t="s">
         <v>163</v>
       </c>
@@ -6510,7 +6509,7 @@
       </c>
       <c r="L73" s="329" t="str">
         <f t="shared" si="3"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributionAccessProtocol</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionAccessProtocol</v>
       </c>
       <c r="M73" s="330" t="s">
         <v>194</v>
@@ -6521,11 +6520,11 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="372"/>
-      <c r="B74" s="623"/>
-      <c r="C74" s="623"/>
-      <c r="D74" s="692"/>
-      <c r="E74" s="626"/>
-      <c r="F74" s="689"/>
+      <c r="B74" s="622"/>
+      <c r="C74" s="622"/>
+      <c r="D74" s="646"/>
+      <c r="E74" s="625"/>
+      <c r="F74" s="643"/>
       <c r="G74" s="310" t="s">
         <v>164</v>
       </c>
@@ -6543,7 +6542,7 @@
       </c>
       <c r="L74" s="313" t="str">
         <f t="shared" si="3"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributionAccessConfiguration</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionAccessConfiguration</v>
       </c>
       <c r="M74" s="314" t="s">
         <v>28</v>
@@ -6554,11 +6553,11 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="372"/>
-      <c r="B75" s="624"/>
-      <c r="C75" s="624"/>
-      <c r="D75" s="693"/>
-      <c r="E75" s="627"/>
-      <c r="F75" s="690"/>
+      <c r="B75" s="623"/>
+      <c r="C75" s="623"/>
+      <c r="D75" s="647"/>
+      <c r="E75" s="626"/>
+      <c r="F75" s="644"/>
       <c r="G75" s="331" t="s">
         <v>449</v>
       </c>
@@ -6576,7 +6575,7 @@
       </c>
       <c r="L75" s="334" t="str">
         <f t="shared" si="3"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributionQueryStatement</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionQueryStatement</v>
       </c>
       <c r="M75" s="335" t="s">
         <v>28</v>
@@ -6609,17 +6608,17 @@
       </c>
       <c r="L76" s="313" t="str">
         <f t="shared" si="3"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributionDate</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionDate</v>
       </c>
       <c r="M76" s="314"/>
       <c r="N76" s="314"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="372"/>
-      <c r="B77" s="635" t="s">
+      <c r="B77" s="637" t="s">
         <v>492</v>
       </c>
-      <c r="C77" s="635"/>
+      <c r="C77" s="637"/>
       <c r="D77" s="358" t="s">
         <v>493</v>
       </c>
@@ -6627,8 +6626,8 @@
         <v>54</v>
       </c>
       <c r="F77" s="360" t="str">
-        <f>Namespace &amp; ($B77)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Distributor</v>
+        <f>Namespace &amp; ($B77) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributorInfo</v>
       </c>
       <c r="G77" s="361"/>
       <c r="H77" s="361"/>
@@ -6641,19 +6640,19 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="372"/>
-      <c r="B78" s="621"/>
-      <c r="C78" s="622" t="s">
+      <c r="B78" s="620"/>
+      <c r="C78" s="621" t="s">
         <v>494</v>
       </c>
-      <c r="D78" s="622" t="s">
+      <c r="D78" s="621" t="s">
         <v>495</v>
       </c>
-      <c r="E78" s="625">
+      <c r="E78" s="624">
         <v>1</v>
       </c>
-      <c r="F78" s="631" t="str">
-        <f>Namespace &amp; ($C78)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/DistributorName</v>
+      <c r="F78" s="630" t="str">
+        <f>Namespace &amp; ($C78) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributorNameInfo</v>
       </c>
       <c r="G78" s="336" t="s">
         <v>174</v>
@@ -6682,11 +6681,11 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="372"/>
-      <c r="B79" s="621"/>
-      <c r="C79" s="623"/>
-      <c r="D79" s="623"/>
-      <c r="E79" s="626"/>
-      <c r="F79" s="632"/>
+      <c r="B79" s="620"/>
+      <c r="C79" s="622"/>
+      <c r="D79" s="622"/>
+      <c r="E79" s="625"/>
+      <c r="F79" s="631"/>
       <c r="G79" s="354" t="s">
         <v>170</v>
       </c>
@@ -6714,11 +6713,11 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="372"/>
-      <c r="B80" s="621"/>
-      <c r="C80" s="624"/>
-      <c r="D80" s="624"/>
-      <c r="E80" s="627"/>
-      <c r="F80" s="633"/>
+      <c r="B80" s="620"/>
+      <c r="C80" s="623"/>
+      <c r="D80" s="623"/>
+      <c r="E80" s="626"/>
+      <c r="F80" s="632"/>
       <c r="G80" s="340" t="s">
         <v>172</v>
       </c>
@@ -6746,19 +6745,19 @@
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="372"/>
-      <c r="B81" s="621"/>
-      <c r="C81" s="622" t="s">
+      <c r="B81" s="620"/>
+      <c r="C81" s="621" t="s">
         <v>497</v>
       </c>
-      <c r="D81" s="622" t="s">
+      <c r="D81" s="621" t="s">
         <v>498</v>
       </c>
-      <c r="E81" s="625">
+      <c r="E81" s="624">
         <v>1</v>
       </c>
-      <c r="F81" s="631" t="str">
-        <f>Namespace &amp; ($C81)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/DistributorIdentifier</v>
+      <c r="F81" s="630" t="str">
+        <f>Namespace &amp; ($C81) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributorIdentifierInfo</v>
       </c>
       <c r="G81" s="336" t="s">
         <v>179</v>
@@ -6777,7 +6776,7 @@
       </c>
       <c r="L81" s="339" t="str">
         <f t="shared" ref="L81:L87" si="4">Namespace &amp; $G81</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributorIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorIdentifier</v>
       </c>
       <c r="M81" s="336" t="s">
         <v>28</v>
@@ -6788,11 +6787,11 @@
     </row>
     <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="372"/>
-      <c r="B82" s="621"/>
-      <c r="C82" s="623"/>
-      <c r="D82" s="623"/>
-      <c r="E82" s="626"/>
-      <c r="F82" s="632"/>
+      <c r="B82" s="620"/>
+      <c r="C82" s="622"/>
+      <c r="D82" s="622"/>
+      <c r="E82" s="625"/>
+      <c r="F82" s="631"/>
       <c r="G82" s="354" t="s">
         <v>181</v>
       </c>
@@ -6810,10 +6809,10 @@
       </c>
       <c r="L82" s="357" t="str">
         <f t="shared" si="4"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributorIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorIdentifierScheme</v>
       </c>
       <c r="M82" s="374" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N82" s="354" t="s">
         <v>94</v>
@@ -6821,11 +6820,11 @@
     </row>
     <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="372"/>
-      <c r="B83" s="621"/>
-      <c r="C83" s="624"/>
-      <c r="D83" s="624"/>
-      <c r="E83" s="627"/>
-      <c r="F83" s="633"/>
+      <c r="B83" s="620"/>
+      <c r="C83" s="623"/>
+      <c r="D83" s="623"/>
+      <c r="E83" s="626"/>
+      <c r="F83" s="632"/>
       <c r="G83" s="340" t="s">
         <v>182</v>
       </c>
@@ -6843,10 +6842,10 @@
       </c>
       <c r="L83" s="343" t="str">
         <f t="shared" si="4"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributorIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorIdentifierSchemeIRI</v>
       </c>
       <c r="M83" s="344" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N83" s="340" t="s">
         <v>96</v>
@@ -6854,19 +6853,19 @@
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="372"/>
-      <c r="B84" s="621"/>
-      <c r="C84" s="622" t="s">
+      <c r="B84" s="620"/>
+      <c r="C84" s="621" t="s">
         <v>499</v>
       </c>
-      <c r="D84" s="622" t="s">
+      <c r="D84" s="621" t="s">
         <v>500</v>
       </c>
-      <c r="E84" s="625" t="s">
+      <c r="E84" s="624" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="628" t="str">
-        <f>Namespace &amp; ($C84)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/DistributorAffiliation</v>
+      <c r="F84" s="627" t="str">
+        <f>Namespace &amp; ($C84) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributorAffiliationInfo</v>
       </c>
       <c r="G84" s="336" t="s">
         <v>183</v>
@@ -6885,7 +6884,7 @@
       </c>
       <c r="L84" s="339" t="str">
         <f t="shared" si="4"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributorAffiliation</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorAffiliation</v>
       </c>
       <c r="M84" s="336" t="s">
         <v>28</v>
@@ -6896,11 +6895,11 @@
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="372"/>
-      <c r="B85" s="621"/>
-      <c r="C85" s="623"/>
-      <c r="D85" s="623"/>
-      <c r="E85" s="626"/>
-      <c r="F85" s="629"/>
+      <c r="B85" s="620"/>
+      <c r="C85" s="622"/>
+      <c r="D85" s="622"/>
+      <c r="E85" s="625"/>
+      <c r="F85" s="628"/>
       <c r="G85" s="354" t="s">
         <v>185</v>
       </c>
@@ -6918,7 +6917,7 @@
       </c>
       <c r="L85" s="357" t="str">
         <f t="shared" si="4"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributorAffiliationIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorAffiliationIdentifier</v>
       </c>
       <c r="M85" s="354" t="s">
         <v>28</v>
@@ -6929,11 +6928,11 @@
     </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="372"/>
-      <c r="B86" s="621"/>
-      <c r="C86" s="623"/>
-      <c r="D86" s="623"/>
-      <c r="E86" s="626"/>
-      <c r="F86" s="629"/>
+      <c r="B86" s="620"/>
+      <c r="C86" s="622"/>
+      <c r="D86" s="622"/>
+      <c r="E86" s="625"/>
+      <c r="F86" s="628"/>
       <c r="G86" s="354" t="s">
         <v>187</v>
       </c>
@@ -6951,10 +6950,10 @@
       </c>
       <c r="L86" s="357" t="str">
         <f t="shared" si="4"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributorAffiliationIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorAffiliationIdentifierScheme</v>
       </c>
       <c r="M86" s="374" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N86" s="354" t="s">
         <v>104</v>
@@ -6962,11 +6961,11 @@
     </row>
     <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="372"/>
-      <c r="B87" s="621"/>
-      <c r="C87" s="624"/>
-      <c r="D87" s="624"/>
-      <c r="E87" s="627"/>
-      <c r="F87" s="630"/>
+      <c r="B87" s="620"/>
+      <c r="C87" s="623"/>
+      <c r="D87" s="623"/>
+      <c r="E87" s="626"/>
+      <c r="F87" s="629"/>
       <c r="G87" s="340" t="s">
         <v>188</v>
       </c>
@@ -6984,10 +6983,10 @@
       </c>
       <c r="L87" s="343" t="str">
         <f t="shared" si="4"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributorAffiliationIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="M87" s="344" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N87" s="340" t="s">
         <v>106</v>
@@ -7049,10 +7048,10 @@
       </c>
       <c r="L89" s="357" t="str">
         <f>Namespace &amp; $G89</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributorRole</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorRole</v>
       </c>
       <c r="M89" s="374" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N89" s="354" t="s">
         <v>28</v>
@@ -7082,10 +7081,10 @@
       </c>
       <c r="L90" s="352" t="str">
         <f>Namespace &amp; $G90</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/distributorType</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorType</v>
       </c>
       <c r="M90" s="353" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N90" s="349" t="s">
         <v>76</v>
@@ -7094,11 +7093,11 @@
       <c r="P90"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="593" t="s">
+      <c r="A91" s="592" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="593"/>
-      <c r="C91" s="593"/>
+      <c r="B91" s="592"/>
+      <c r="C91" s="592"/>
       <c r="D91" s="430" t="s">
         <v>410</v>
       </c>
@@ -7106,8 +7105,8 @@
         <v>46</v>
       </c>
       <c r="F91" s="432" t="str">
-        <f>Namespace &amp; ($A91)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Content</v>
+        <f>Namespace &amp; ($A91) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/ContentInfo</v>
       </c>
       <c r="G91" s="433"/>
       <c r="H91" s="433"/>
@@ -7120,19 +7119,19 @@
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="426"/>
-      <c r="B92" s="594" t="s">
+      <c r="B92" s="593" t="s">
         <v>283</v>
       </c>
-      <c r="C92" s="594"/>
-      <c r="D92" s="594" t="s">
+      <c r="C92" s="593"/>
+      <c r="D92" s="593" t="s">
         <v>287</v>
       </c>
-      <c r="E92" s="694" t="s">
+      <c r="E92" s="604" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="698" t="str">
-        <f>Namespace &amp; ($B92)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/DataStream</v>
+      <c r="F92" s="694" t="str">
+        <f>Namespace &amp; ($B92) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DataStreamInfo</v>
       </c>
       <c r="G92" s="443" t="s">
         <v>284</v>
@@ -7151,7 +7150,7 @@
       </c>
       <c r="L92" s="446" t="str">
         <f t="shared" ref="L92:L133" si="5">Namespace &amp; $G92</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/dataStream</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/dataStream</v>
       </c>
       <c r="M92" s="447" t="s">
         <v>502</v>
@@ -7162,11 +7161,11 @@
     </row>
     <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="426"/>
-      <c r="B93" s="595"/>
-      <c r="C93" s="595"/>
-      <c r="D93" s="595"/>
-      <c r="E93" s="695"/>
-      <c r="F93" s="699"/>
+      <c r="B93" s="594"/>
+      <c r="C93" s="594"/>
+      <c r="D93" s="594"/>
+      <c r="E93" s="605"/>
+      <c r="F93" s="695"/>
       <c r="G93" s="110" t="s">
         <v>285</v>
       </c>
@@ -7184,7 +7183,7 @@
       </c>
       <c r="L93" s="113" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/dataStreamIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/dataStreamIRI</v>
       </c>
       <c r="M93" s="114" t="s">
         <v>502</v>
@@ -7195,11 +7194,11 @@
     </row>
     <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="426"/>
-      <c r="B94" s="595"/>
-      <c r="C94" s="595"/>
-      <c r="D94" s="595"/>
-      <c r="E94" s="695"/>
-      <c r="F94" s="699"/>
+      <c r="B94" s="594"/>
+      <c r="C94" s="594"/>
+      <c r="D94" s="594"/>
+      <c r="E94" s="605"/>
+      <c r="F94" s="695"/>
       <c r="G94" s="114" t="s">
         <v>191</v>
       </c>
@@ -7217,7 +7216,7 @@
       </c>
       <c r="L94" s="113" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/datastreamScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/datastreamScheme</v>
       </c>
       <c r="M94" s="114" t="s">
         <v>502</v>
@@ -7228,11 +7227,11 @@
     </row>
     <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="426"/>
-      <c r="B95" s="596"/>
-      <c r="C95" s="596"/>
-      <c r="D95" s="596"/>
-      <c r="E95" s="696"/>
-      <c r="F95" s="700"/>
+      <c r="B95" s="595"/>
+      <c r="C95" s="595"/>
+      <c r="D95" s="595"/>
+      <c r="E95" s="606"/>
+      <c r="F95" s="696"/>
       <c r="G95" s="448" t="s">
         <v>286</v>
       </c>
@@ -7250,7 +7249,7 @@
       </c>
       <c r="L95" s="450" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/dataStreamSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/dataStreamSchemeIRI</v>
       </c>
       <c r="M95" s="451" t="s">
         <v>502</v>
@@ -7261,19 +7260,19 @@
     </row>
     <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="426"/>
-      <c r="B96" s="600"/>
-      <c r="C96" s="594" t="s">
+      <c r="B96" s="599"/>
+      <c r="C96" s="593" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="594" t="s">
+      <c r="D96" s="593" t="s">
         <v>368</v>
       </c>
-      <c r="E96" s="694">
+      <c r="E96" s="604">
         <v>1</v>
       </c>
-      <c r="F96" s="698" t="str">
-        <f>Namespace &amp; ($C96)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/DataSource</v>
+      <c r="F96" s="694" t="str">
+        <f>Namespace &amp; ($C96) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/DataSourceInfo</v>
       </c>
       <c r="G96" s="443" t="s">
         <v>192</v>
@@ -7292,7 +7291,7 @@
       </c>
       <c r="L96" s="446" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/dataSource</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/dataSource</v>
       </c>
       <c r="M96" s="114" t="s">
         <v>502</v>
@@ -7303,11 +7302,11 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="426"/>
-      <c r="B97" s="600"/>
-      <c r="C97" s="595"/>
-      <c r="D97" s="595"/>
-      <c r="E97" s="695"/>
-      <c r="F97" s="699"/>
+      <c r="B97" s="599"/>
+      <c r="C97" s="594"/>
+      <c r="D97" s="594"/>
+      <c r="E97" s="605"/>
+      <c r="F97" s="695"/>
       <c r="G97" s="110" t="s">
         <v>195</v>
       </c>
@@ -7325,7 +7324,7 @@
       </c>
       <c r="L97" s="113" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/dataSourceIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/dataSourceIRI</v>
       </c>
       <c r="M97" s="114" t="s">
         <v>502</v>
@@ -7336,11 +7335,11 @@
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="426"/>
-      <c r="B98" s="600"/>
-      <c r="C98" s="595"/>
-      <c r="D98" s="595"/>
-      <c r="E98" s="695"/>
-      <c r="F98" s="699"/>
+      <c r="B98" s="599"/>
+      <c r="C98" s="594"/>
+      <c r="D98" s="594"/>
+      <c r="E98" s="605"/>
+      <c r="F98" s="695"/>
       <c r="G98" s="110" t="s">
         <v>197</v>
       </c>
@@ -7358,7 +7357,7 @@
       </c>
       <c r="L98" s="113" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/dataSourceScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/dataSourceScheme</v>
       </c>
       <c r="M98" s="114" t="s">
         <v>502</v>
@@ -7369,11 +7368,11 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="426"/>
-      <c r="B99" s="600"/>
-      <c r="C99" s="596"/>
-      <c r="D99" s="596"/>
-      <c r="E99" s="696"/>
-      <c r="F99" s="700"/>
+      <c r="B99" s="599"/>
+      <c r="C99" s="595"/>
+      <c r="D99" s="595"/>
+      <c r="E99" s="606"/>
+      <c r="F99" s="696"/>
       <c r="G99" s="448" t="s">
         <v>198</v>
       </c>
@@ -7391,7 +7390,7 @@
       </c>
       <c r="L99" s="450" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/dataSourceSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/dataSourceSchemeIRI</v>
       </c>
       <c r="M99" s="451" t="s">
         <v>502</v>
@@ -7402,19 +7401,19 @@
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="426"/>
-      <c r="B100" s="600"/>
-      <c r="C100" s="595" t="s">
+      <c r="B100" s="599"/>
+      <c r="C100" s="594" t="s">
         <v>282</v>
       </c>
-      <c r="D100" s="595" t="s">
+      <c r="D100" s="594" t="s">
         <v>288</v>
       </c>
-      <c r="E100" s="695" t="s">
+      <c r="E100" s="605" t="s">
         <v>54</v>
       </c>
-      <c r="F100" s="701" t="str">
-        <f>Namespace &amp; ($C100)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Variable</v>
+      <c r="F100" s="697" t="str">
+        <f>Namespace &amp; ($C100) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/VariableInfo</v>
       </c>
       <c r="G100" s="110" t="s">
         <v>289</v>
@@ -7433,7 +7432,7 @@
       </c>
       <c r="L100" s="113" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/variable</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/variable</v>
       </c>
       <c r="M100" s="114" t="s">
         <v>502</v>
@@ -7444,11 +7443,11 @@
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="426"/>
-      <c r="B101" s="600"/>
-      <c r="C101" s="595"/>
-      <c r="D101" s="595"/>
-      <c r="E101" s="695"/>
-      <c r="F101" s="701"/>
+      <c r="B101" s="599"/>
+      <c r="C101" s="594"/>
+      <c r="D101" s="594"/>
+      <c r="E101" s="605"/>
+      <c r="F101" s="697"/>
       <c r="G101" s="110" t="s">
         <v>290</v>
       </c>
@@ -7466,7 +7465,7 @@
       </c>
       <c r="L101" s="113" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/variableIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/variableIRI</v>
       </c>
       <c r="M101" s="114" t="s">
         <v>502</v>
@@ -7477,11 +7476,11 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="426"/>
-      <c r="B102" s="600"/>
-      <c r="C102" s="595"/>
-      <c r="D102" s="595"/>
-      <c r="E102" s="695"/>
-      <c r="F102" s="701"/>
+      <c r="B102" s="599"/>
+      <c r="C102" s="594"/>
+      <c r="D102" s="594"/>
+      <c r="E102" s="605"/>
+      <c r="F102" s="697"/>
       <c r="G102" s="110" t="s">
         <v>291</v>
       </c>
@@ -7499,7 +7498,7 @@
       </c>
       <c r="L102" s="113" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/variableScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/variableScheme</v>
       </c>
       <c r="M102" s="114" t="s">
         <v>502</v>
@@ -7510,11 +7509,11 @@
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="427"/>
-      <c r="B103" s="601"/>
-      <c r="C103" s="604"/>
-      <c r="D103" s="604"/>
-      <c r="E103" s="697"/>
-      <c r="F103" s="702"/>
+      <c r="B103" s="600"/>
+      <c r="C103" s="603"/>
+      <c r="D103" s="603"/>
+      <c r="E103" s="693"/>
+      <c r="F103" s="698"/>
       <c r="G103" s="438" t="s">
         <v>292</v>
       </c>
@@ -7532,7 +7531,7 @@
       </c>
       <c r="L103" s="441" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/variableSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/variableSchemeIRI</v>
       </c>
       <c r="M103" s="442" t="s">
         <v>502</v>
@@ -7542,11 +7541,11 @@
       </c>
     </row>
     <row r="104" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="597" t="s">
+      <c r="A104" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="597"/>
-      <c r="C104" s="597"/>
+      <c r="B104" s="596"/>
+      <c r="C104" s="596"/>
       <c r="D104" s="478" t="s">
         <v>202</v>
       </c>
@@ -7554,8 +7553,8 @@
         <v>46</v>
       </c>
       <c r="F104" s="480" t="str">
-        <f>Namespace &amp; ($A104)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoverage</v>
+        <f>Namespace &amp; ($A104) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/SpatialCoverageInfo</v>
       </c>
       <c r="G104" s="481"/>
       <c r="H104" s="481"/>
@@ -7568,19 +7567,19 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="424"/>
-      <c r="B105" s="582" t="s">
+      <c r="B105" s="588" t="s">
         <v>504</v>
       </c>
-      <c r="C105" s="582"/>
-      <c r="D105" s="598" t="s">
+      <c r="C105" s="588"/>
+      <c r="D105" s="597" t="s">
         <v>503</v>
       </c>
-      <c r="E105" s="602" t="s">
+      <c r="E105" s="601" t="s">
         <v>46</v>
       </c>
-      <c r="F105" s="588" t="str">
-        <f>Namespace &amp; ($B105)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoveragePoint</v>
+      <c r="F105" s="585" t="str">
+        <f>Namespace &amp; ($B105) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/SpatialCoveragePointInfo</v>
       </c>
       <c r="G105" s="453" t="s">
         <v>205</v>
@@ -7599,7 +7598,7 @@
       </c>
       <c r="L105" s="456" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/pointLatitude</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/pointLatitude</v>
       </c>
       <c r="M105" s="457" t="s">
         <v>28</v>
@@ -7610,11 +7609,11 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="424"/>
-      <c r="B106" s="584"/>
-      <c r="C106" s="584"/>
-      <c r="D106" s="599"/>
-      <c r="E106" s="603"/>
-      <c r="F106" s="590"/>
+      <c r="B106" s="589"/>
+      <c r="C106" s="589"/>
+      <c r="D106" s="598"/>
+      <c r="E106" s="602"/>
+      <c r="F106" s="587"/>
       <c r="G106" s="458" t="s">
         <v>203</v>
       </c>
@@ -7632,7 +7631,7 @@
       </c>
       <c r="L106" s="461" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/pointLongitude</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/pointLongitude</v>
       </c>
       <c r="M106" s="462" t="s">
         <v>28</v>
@@ -7643,19 +7642,19 @@
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="424"/>
-      <c r="B107" s="582" t="s">
+      <c r="B107" s="588" t="s">
         <v>505</v>
       </c>
-      <c r="C107" s="582"/>
-      <c r="D107" s="582" t="s">
+      <c r="C107" s="588"/>
+      <c r="D107" s="588" t="s">
         <v>506</v>
       </c>
-      <c r="E107" s="585" t="s">
+      <c r="E107" s="582" t="s">
         <v>46</v>
       </c>
-      <c r="F107" s="588" t="str">
-        <f>Namespace &amp; ($B107)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoverageBoundingBox</v>
+      <c r="F107" s="585" t="str">
+        <f>Namespace &amp; ($B107) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/SpatialCoverageBoundingBoxInfo</v>
       </c>
       <c r="G107" s="463" t="s">
         <v>207</v>
@@ -7674,7 +7673,7 @@
       </c>
       <c r="L107" s="466" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/westBoundLongitude</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/westBoundLongitude</v>
       </c>
       <c r="M107" s="467" t="s">
         <v>28</v>
@@ -7685,11 +7684,11 @@
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="424"/>
-      <c r="B108" s="583"/>
-      <c r="C108" s="583"/>
-      <c r="D108" s="583"/>
-      <c r="E108" s="586"/>
-      <c r="F108" s="589"/>
+      <c r="B108" s="619"/>
+      <c r="C108" s="619"/>
+      <c r="D108" s="619"/>
+      <c r="E108" s="583"/>
+      <c r="F108" s="586"/>
       <c r="G108" s="468" t="s">
         <v>209</v>
       </c>
@@ -7707,7 +7706,7 @@
       </c>
       <c r="L108" s="471" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/eastBoundLongitude</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/eastBoundLongitude</v>
       </c>
       <c r="M108" s="472" t="s">
         <v>28</v>
@@ -7718,11 +7717,11 @@
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="424"/>
-      <c r="B109" s="583"/>
-      <c r="C109" s="583"/>
-      <c r="D109" s="583"/>
-      <c r="E109" s="586"/>
-      <c r="F109" s="589"/>
+      <c r="B109" s="619"/>
+      <c r="C109" s="619"/>
+      <c r="D109" s="619"/>
+      <c r="E109" s="583"/>
+      <c r="F109" s="586"/>
       <c r="G109" s="468" t="s">
         <v>211</v>
       </c>
@@ -7740,7 +7739,7 @@
       </c>
       <c r="L109" s="471" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/southBoundLatitude</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/southBoundLatitude</v>
       </c>
       <c r="M109" s="472" t="s">
         <v>28</v>
@@ -7751,11 +7750,11 @@
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="424"/>
-      <c r="B110" s="584"/>
-      <c r="C110" s="584"/>
-      <c r="D110" s="584"/>
-      <c r="E110" s="587"/>
-      <c r="F110" s="590"/>
+      <c r="B110" s="589"/>
+      <c r="C110" s="589"/>
+      <c r="D110" s="589"/>
+      <c r="E110" s="584"/>
+      <c r="F110" s="587"/>
       <c r="G110" s="473" t="s">
         <v>213</v>
       </c>
@@ -7773,7 +7772,7 @@
       </c>
       <c r="L110" s="476" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/northBoundLatitude</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/northBoundLatitude</v>
       </c>
       <c r="M110" s="477" t="s">
         <v>28</v>
@@ -7784,19 +7783,19 @@
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="424"/>
-      <c r="B111" s="582" t="s">
+      <c r="B111" s="588" t="s">
         <v>507</v>
       </c>
-      <c r="C111" s="582"/>
-      <c r="D111" s="591" t="s">
+      <c r="C111" s="588"/>
+      <c r="D111" s="590" t="s">
         <v>508</v>
       </c>
-      <c r="E111" s="585" t="s">
+      <c r="E111" s="582" t="s">
         <v>46</v>
       </c>
-      <c r="F111" s="588" t="str">
-        <f>Namespace &amp; ($B111)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/SpatialCoveragePolygon</v>
+      <c r="F111" s="585" t="str">
+        <f>Namespace &amp; ($B111) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/SpatialCoveragePolygonInfo</v>
       </c>
       <c r="G111" s="453" t="s">
         <v>438</v>
@@ -7815,7 +7814,7 @@
       </c>
       <c r="L111" s="466" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/polygonPointLatitude</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/polygonPointLatitude</v>
       </c>
       <c r="M111" s="467" t="s">
         <v>28</v>
@@ -7826,11 +7825,11 @@
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="424"/>
-      <c r="B112" s="584"/>
-      <c r="C112" s="584"/>
-      <c r="D112" s="592"/>
-      <c r="E112" s="587"/>
-      <c r="F112" s="590"/>
+      <c r="B112" s="589"/>
+      <c r="C112" s="589"/>
+      <c r="D112" s="591"/>
+      <c r="E112" s="584"/>
+      <c r="F112" s="587"/>
       <c r="G112" s="458" t="s">
         <v>439</v>
       </c>
@@ -7848,7 +7847,7 @@
       </c>
       <c r="L112" s="476" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/polygonPointLongitude</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/polygonPointLongitude</v>
       </c>
       <c r="M112" s="477" t="s">
         <v>28</v>
@@ -7881,7 +7880,7 @@
       </c>
       <c r="L113" s="491" t="str">
         <f>Namespace &amp; $G113</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/geoLocationDescription</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/geoLocationDescription</v>
       </c>
       <c r="M113" s="492" t="s">
         <v>28</v>
@@ -7903,8 +7902,8 @@
         <v>46</v>
       </c>
       <c r="F114" s="567" t="str">
-        <f>Namespace &amp; ($A114)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/VerticalCoverage</v>
+        <f>Namespace &amp; ($A114) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/VerticalCoverageInfo</v>
       </c>
       <c r="G114" s="493" t="s">
         <v>219</v>
@@ -7923,7 +7922,7 @@
       </c>
       <c r="L114" s="496" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/verticalExtentMaximumValue</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentMaximumValue</v>
       </c>
       <c r="M114" s="497" t="s">
         <v>28</v>
@@ -7956,7 +7955,7 @@
       </c>
       <c r="L115" s="119" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/verticalExtentMinimumValue</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentMinimumValue</v>
       </c>
       <c r="M115" s="120" t="s">
         <v>28</v>
@@ -7989,7 +7988,7 @@
       </c>
       <c r="L116" s="119" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/verticalExtentUnit</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentUnit</v>
       </c>
       <c r="M116" s="120" t="s">
         <v>194</v>
@@ -8022,7 +8021,7 @@
       </c>
       <c r="L117" s="119" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/verticalExtentUnitIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentUnitIRI</v>
       </c>
       <c r="M117" s="120" t="s">
         <v>194</v>
@@ -8055,7 +8054,7 @@
       </c>
       <c r="L118" s="119" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/verticalExtentUnitScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentUnitScheme</v>
       </c>
       <c r="M118" s="120" t="s">
         <v>194</v>
@@ -8088,7 +8087,7 @@
       </c>
       <c r="L119" s="119" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/verticalExtentUnitSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentUnitSchemeIRI</v>
       </c>
       <c r="M119" s="120" t="s">
         <v>194</v>
@@ -8113,15 +8112,15 @@
       <c r="I120" s="117" t="s">
         <v>407</v>
       </c>
-      <c r="J120" s="118" t="s">
-        <v>46</v>
+      <c r="J120" s="118">
+        <v>1</v>
       </c>
       <c r="K120" s="119" t="s">
         <v>68</v>
       </c>
       <c r="L120" s="119" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/verticalExtentDatum</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentDatum</v>
       </c>
       <c r="M120" s="120" t="s">
         <v>194</v>
@@ -8154,7 +8153,7 @@
       </c>
       <c r="L121" s="500" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/verticalExtentDatumIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentDatumIRI</v>
       </c>
       <c r="M121" s="501" t="s">
         <v>194</v>
@@ -8176,8 +8175,8 @@
         <v>46</v>
       </c>
       <c r="F122" s="579" t="str">
-        <f>Namespace &amp; ($A122)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/TemporalCoverage</v>
+        <f>Namespace &amp; ($A122) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/TemporalCoverageInfo</v>
       </c>
       <c r="G122" s="502" t="s">
         <v>229</v>
@@ -8196,7 +8195,7 @@
       </c>
       <c r="L122" s="505" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/temporalExtentMinimumValue</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/temporalExtentMinimumValue</v>
       </c>
       <c r="M122" s="506" t="s">
         <v>28</v>
@@ -8229,7 +8228,7 @@
       </c>
       <c r="L123" s="124" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/temporalExtentMaximumValue</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/temporalExtentMaximumValue</v>
       </c>
       <c r="M123" s="125" t="s">
         <v>28</v>
@@ -8262,7 +8261,7 @@
       </c>
       <c r="L124" s="124" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/temporalResolution</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/temporalResolution</v>
       </c>
       <c r="M124" s="125" t="s">
         <v>28</v>
@@ -8295,7 +8294,7 @@
       </c>
       <c r="L125" s="510" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/duration</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/duration</v>
       </c>
       <c r="M125" s="511" t="s">
         <v>28</v>
@@ -8317,8 +8316,8 @@
         <v>34</v>
       </c>
       <c r="F126" s="519" t="str">
-        <f>Namespace &amp; ($A126)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Funding</v>
+        <f>Namespace &amp; ($A126) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/FundingInfo</v>
       </c>
       <c r="G126" s="520"/>
       <c r="H126" s="520"/>
@@ -8342,8 +8341,8 @@
         <v>1</v>
       </c>
       <c r="F127" s="540" t="str">
-        <f>Namespace &amp; ($B127)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Award</v>
+        <f>Namespace &amp; ($B127) &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/AwardInfo</v>
       </c>
       <c r="G127" s="529" t="s">
         <v>238</v>
@@ -8362,7 +8361,7 @@
       </c>
       <c r="L127" s="532" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/awardTitle</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/awardTitle</v>
       </c>
       <c r="M127" s="529" t="s">
         <v>28</v>
@@ -8395,7 +8394,7 @@
       </c>
       <c r="L128" s="515" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/awardPageIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/awardPageIRI</v>
       </c>
       <c r="M128" s="512" t="s">
         <v>28</v>
@@ -8428,7 +8427,7 @@
       </c>
       <c r="L129" s="536" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/awardLocalIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/awardLocalIdentifier</v>
       </c>
       <c r="M129" s="537" t="s">
         <v>28</v>
@@ -8450,8 +8449,8 @@
         <v>54</v>
       </c>
       <c r="F130" s="540" t="str">
-        <f>Namespace &amp; ($B130)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/Funder</v>
+        <f>Namespace &amp; ($B130)  &amp; "Info"</f>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/FunderInfo</v>
       </c>
       <c r="G130" s="512" t="s">
         <v>244</v>
@@ -8470,7 +8469,7 @@
       </c>
       <c r="L130" s="515" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/funderName</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/funderName</v>
       </c>
       <c r="M130" s="512" t="s">
         <v>28</v>
@@ -8503,7 +8502,7 @@
       </c>
       <c r="L131" s="515" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/funderIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/funderIdentifier</v>
       </c>
       <c r="M131" s="512" t="s">
         <v>28</v>
@@ -8536,7 +8535,7 @@
       </c>
       <c r="L132" s="515" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/funderIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/funderIdentifierScheme</v>
       </c>
       <c r="M132" s="512" t="s">
         <v>28</v>
@@ -8569,7 +8568,7 @@
       </c>
       <c r="L133" s="527" t="str">
         <f t="shared" si="5"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/funderIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/funderIdentifierSchemeIRI</v>
       </c>
       <c r="M133" s="512" t="s">
         <v>28</v>
@@ -8676,13 +8675,13 @@
     </row>
     <row r="150" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J150" s="6"/>
     </row>
     <row r="151" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="16" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J151" s="6"/>
     </row>
@@ -12221,6 +12220,16 @@
   </sheetData>
   <autoFilter ref="H1:N143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="134">
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="D53:D55"/>
     <mergeCell ref="E100:E103"/>
     <mergeCell ref="F92:F95"/>
     <mergeCell ref="F96:F99"/>
@@ -12228,24 +12237,12 @@
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F8:F12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="F31:F34"/>
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="F39:F41"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D67:D72"/>
     <mergeCell ref="A3:C4"/>
     <mergeCell ref="A5:C7"/>
     <mergeCell ref="A2:C2"/>
@@ -12266,18 +12263,17 @@
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="B42:C44"/>
-    <mergeCell ref="B45:C48"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
     <mergeCell ref="B53:C55"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="C78:C80"/>
@@ -12293,20 +12289,8 @@
     <mergeCell ref="F73:F75"/>
     <mergeCell ref="E73:E75"/>
     <mergeCell ref="D73:D75"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="B61:C63"/>
-    <mergeCell ref="A65:C66"/>
-    <mergeCell ref="A67:C67"/>
     <mergeCell ref="A8:C12"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="B19:C22"/>
@@ -12316,6 +12300,21 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="B107:C110"/>
     <mergeCell ref="D107:D110"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="B42:C44"/>
+    <mergeCell ref="B45:C48"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D67:D72"/>
     <mergeCell ref="E107:E110"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="B111:C112"/>
@@ -12427,7 +12426,7 @@
       </c>
       <c r="E1" s="22" t="str">
         <f>Namespace &amp; LOWER($A1)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributor</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributor</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="24"/>
@@ -12451,7 +12450,7 @@
       </c>
       <c r="E2" s="738" t="str">
         <f>Namespace &amp; LOWER($B2)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorname</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorname</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>115</v>
@@ -12553,7 +12552,7 @@
       </c>
       <c r="E5" s="738" t="str">
         <f>Namespace &amp; LOWER($B5)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributoridentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributoridentifier</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>120</v>
@@ -12572,7 +12571,7 @@
       </c>
       <c r="K5" s="33" t="str">
         <f t="shared" ref="K5:K11" si="0">Namespace &amp; $F5</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifier</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>28</v>
@@ -12604,7 +12603,7 @@
       </c>
       <c r="K6" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifierScheme</v>
       </c>
       <c r="L6" s="37" t="s">
         <v>24</v>
@@ -12636,7 +12635,7 @@
       </c>
       <c r="K7" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifierSchemeIRI</v>
       </c>
       <c r="L7" s="37" t="s">
         <v>24</v>
@@ -12658,7 +12657,7 @@
       </c>
       <c r="E8" s="739" t="str">
         <f>Namespace &amp; LOWER($B8)</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributoraffiliation</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributoraffiliation</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>331</v>
@@ -12677,7 +12676,7 @@
       </c>
       <c r="K8" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliation</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliation</v>
       </c>
       <c r="L8" s="29" t="s">
         <v>28</v>
@@ -12709,7 +12708,7 @@
       </c>
       <c r="K9" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliationIdentifier</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifier</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>28</v>
@@ -12741,7 +12740,7 @@
       </c>
       <c r="K10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliationIdentifierScheme</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifierScheme</v>
       </c>
       <c r="L10" s="37" t="s">
         <v>24</v>
@@ -12773,7 +12772,7 @@
       </c>
       <c r="K11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorAffiliationIdentifierSchemeIRI</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="L11" s="37" t="s">
         <v>24</v>
@@ -12836,7 +12835,7 @@
       </c>
       <c r="K13" s="33" t="str">
         <f>Namespace &amp; $F13</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorRole</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorRole</v>
       </c>
       <c r="L13" s="37" t="s">
         <v>24</v>
@@ -12868,7 +12867,7 @@
       </c>
       <c r="K14" s="33" t="str">
         <f>Namespace &amp; $F14</f>
-        <v>http://vocab.fairdatacollective.org/dataset/properties/contributorType</v>
+        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorType</v>
       </c>
       <c r="L14" s="37" t="s">
         <v>24</v>

--- a/template-description.xlsx
+++ b/template-description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD6CDDF-9082-E143-9B60-3B7C03608A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF421368-6A8E-2D41-A86A-288517FF656B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="523">
   <si>
     <t>Element 
 (CEDAR)</t>
@@ -1066,12 +1066,6 @@
     <t>License Identifier</t>
   </si>
   <si>
-    <t>LIcense Identifier Scheme</t>
-  </si>
-  <si>
-    <t>LIcense Identifier Scheme IRI</t>
-  </si>
-  <si>
     <t>License Text</t>
   </si>
   <si>
@@ -1604,13 +1598,16 @@
     <t>BASE url</t>
   </si>
   <si>
-    <t>FDC</t>
-  </si>
-  <si>
     <t>MIME Types list</t>
   </si>
   <si>
-    <t>https://vocab.fairdatacollective.org/gdmt/property/</t>
+    <t>http://vocab.fairdatacollective.org/gdmt/</t>
+  </si>
+  <si>
+    <t>License Identifier Scheme</t>
+  </si>
+  <si>
+    <t>License Identifier Scheme IRI</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="742">
+  <cellXfs count="747">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2307,15 +2304,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3154,32 +3142,53 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3187,94 +3196,157 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3285,6 +3357,193 @@
     <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3293,12 +3552,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3343,393 +3596,122 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3738,19 +3720,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3985,10 +3997,10 @@
   <dimension ref="A1:P1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B107" sqref="B107:C110"/>
+      <selection pane="bottomRight" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4010,11 +4022,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="668" t="s">
+      <c r="A1" s="601" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="668"/>
-      <c r="C1" s="668"/>
+      <c r="B1" s="601"/>
+      <c r="C1" s="601"/>
       <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
@@ -4046,18 +4058,18 @@
         <v>8</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="667" t="s">
+      <c r="A2" s="600" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="667"/>
-      <c r="C2" s="667"/>
-      <c r="D2" s="126" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="121" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="49" t="s">
@@ -4088,126 +4100,128 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="662" t="s">
+      <c r="A3" s="595" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="662"/>
-      <c r="C3" s="662"/>
-      <c r="D3" s="706" t="s">
+      <c r="B3" s="595"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="620" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="708">
+      <c r="E3" s="622">
         <v>1</v>
       </c>
-      <c r="F3" s="709" t="str">
-        <f>Namespace &amp; $A3 &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/ResourceTypeInfo</v>
-      </c>
-      <c r="G3" s="183" t="s">
+      <c r="F3" s="623" t="str">
+        <f>Namespace &amp; "has" &amp; $A3 &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasResourceTypeInfo</v>
+      </c>
+      <c r="G3" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="183" t="s">
+      <c r="H3" s="178" t="s">
         <v>263</v>
       </c>
-      <c r="I3" s="184" t="s">
+      <c r="I3" s="179" t="s">
         <v>258</v>
       </c>
-      <c r="J3" s="185">
+      <c r="J3" s="180">
         <v>1</v>
       </c>
-      <c r="K3" s="186" t="s">
+      <c r="K3" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="187" t="s">
+      <c r="L3" s="182" t="s">
         <v>257</v>
       </c>
-      <c r="M3" s="188" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="189" t="s">
+      <c r="M3" s="183" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N3" s="184" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="663"/>
-      <c r="B4" s="663"/>
-      <c r="C4" s="663"/>
-      <c r="D4" s="707"/>
-      <c r="E4" s="578"/>
-      <c r="F4" s="710"/>
-      <c r="G4" s="190" t="s">
+      <c r="A4" s="596"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="621"/>
+      <c r="E4" s="575"/>
+      <c r="F4" s="624"/>
+      <c r="G4" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="190" t="s">
+      <c r="H4" s="185" t="s">
         <v>262</v>
       </c>
-      <c r="I4" s="191" t="s">
+      <c r="I4" s="186" t="s">
         <v>256</v>
       </c>
-      <c r="J4" s="192">
+      <c r="J4" s="187">
         <v>1</v>
       </c>
-      <c r="K4" s="193" t="s">
+      <c r="K4" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="194" t="s">
+      <c r="L4" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="195" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="196" t="s">
+      <c r="M4" s="190" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N4" s="191" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="664" t="s">
+      <c r="A5" s="597" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="664"/>
-      <c r="C5" s="664"/>
-      <c r="D5" s="724" t="s">
+      <c r="B5" s="597"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="535" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="684">
+      <c r="E5" s="617">
         <v>1</v>
       </c>
-      <c r="F5" s="721" t="str">
-        <f>Namespace &amp; ($A5) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DatasetIdentifierInfo</v>
-      </c>
-      <c r="G5" s="197" t="s">
+      <c r="F5" s="625" t="str">
+        <f>Namespace &amp; "has" &amp; ($A5) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDatasetIdentifierInfo</v>
+      </c>
+      <c r="G5" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="197" t="s">
+      <c r="H5" s="192" t="s">
         <v>264</v>
       </c>
-      <c r="I5" s="198" t="s">
+      <c r="I5" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="199">
+      <c r="J5" s="194">
         <v>1</v>
       </c>
-      <c r="K5" s="200" t="s">
+      <c r="K5" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="201" t="s">
+      <c r="L5" s="196" t="s">
         <v>260</v>
       </c>
-      <c r="M5" s="202" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="202" t="s">
+      <c r="M5" s="197" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="197" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="665"/>
-      <c r="B6" s="665"/>
-      <c r="C6" s="665"/>
-      <c r="D6" s="725"/>
-      <c r="E6" s="685"/>
-      <c r="F6" s="722"/>
+      <c r="A6" s="598"/>
+      <c r="B6" s="598"/>
+      <c r="C6" s="598"/>
+      <c r="D6" s="536"/>
+      <c r="E6" s="618"/>
+      <c r="F6" s="626"/>
       <c r="G6" s="53" t="s">
         <v>29</v>
       </c>
@@ -4234,86 +4248,86 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="666"/>
-      <c r="B7" s="666"/>
-      <c r="C7" s="666"/>
-      <c r="D7" s="726"/>
-      <c r="E7" s="686"/>
-      <c r="F7" s="723"/>
-      <c r="G7" s="203" t="s">
+      <c r="A7" s="599"/>
+      <c r="B7" s="599"/>
+      <c r="C7" s="599"/>
+      <c r="D7" s="537"/>
+      <c r="E7" s="619"/>
+      <c r="F7" s="627"/>
+      <c r="G7" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="203" t="s">
+      <c r="H7" s="198" t="s">
         <v>305</v>
       </c>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="199" t="s">
         <v>274</v>
       </c>
-      <c r="J7" s="205">
+      <c r="J7" s="200">
         <v>1</v>
       </c>
-      <c r="K7" s="206" t="s">
+      <c r="K7" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="207" t="str">
+      <c r="L7" s="202" t="str">
         <f>Namespace &amp; "identifiersubtype"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/identifiersubtype</v>
-      </c>
-      <c r="M7" s="208" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="209" t="s">
+        <v>http://vocab.fairdatacollective.org/gdmt/identifiersubtype</v>
+      </c>
+      <c r="M7" s="203" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="204" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="607" t="s">
+      <c r="A8" s="652" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="607"/>
-      <c r="C8" s="607"/>
-      <c r="D8" s="699" t="s">
+      <c r="B8" s="652"/>
+      <c r="C8" s="652"/>
+      <c r="D8" s="570" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="702" t="s">
+      <c r="E8" s="573" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="703" t="str">
-        <f>Namespace &amp; ($A8) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/RelatedResourcesInfo</v>
-      </c>
-      <c r="G8" s="210" t="s">
+      <c r="F8" s="576" t="str">
+        <f>Namespace &amp; "has" &amp; ($A8) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasRelatedResourcesInfo</v>
+      </c>
+      <c r="G8" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="210" t="s">
+      <c r="H8" s="205" t="s">
         <v>268</v>
       </c>
-      <c r="I8" s="211" t="s">
+      <c r="I8" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="212">
+      <c r="J8" s="207">
         <v>1</v>
       </c>
-      <c r="K8" s="213" t="s">
+      <c r="K8" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="214" t="s">
+      <c r="L8" s="209" t="s">
         <v>260</v>
       </c>
-      <c r="M8" s="215" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="215" t="s">
+      <c r="M8" s="210" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="210" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="608"/>
-      <c r="B9" s="608"/>
-      <c r="C9" s="608"/>
-      <c r="D9" s="700"/>
-      <c r="E9" s="577"/>
-      <c r="F9" s="704"/>
+      <c r="A9" s="653"/>
+      <c r="B9" s="653"/>
+      <c r="C9" s="653"/>
+      <c r="D9" s="571"/>
+      <c r="E9" s="574"/>
+      <c r="F9" s="577"/>
       <c r="G9" s="59" t="s">
         <v>38</v>
       </c>
@@ -4332,20 +4346,21 @@
       <c r="L9" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="M9" s="65" t="s">
-        <v>24</v>
+      <c r="M9" s="65" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N9" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="608"/>
-      <c r="B10" s="608"/>
-      <c r="C10" s="608"/>
-      <c r="D10" s="700"/>
-      <c r="E10" s="577"/>
-      <c r="F10" s="704"/>
+      <c r="A10" s="653"/>
+      <c r="B10" s="653"/>
+      <c r="C10" s="653"/>
+      <c r="D10" s="571"/>
+      <c r="E10" s="574"/>
+      <c r="F10" s="577"/>
       <c r="G10" s="59" t="s">
         <v>272</v>
       </c>
@@ -4362,23 +4377,24 @@
         <v>36</v>
       </c>
       <c r="L10" s="63" t="str">
-        <f>Namespace &amp; $G10</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/relatedResourceIdentifierSubType</v>
-      </c>
-      <c r="M10" s="65" t="s">
-        <v>24</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE(PROPER(LOWER($H10)), " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasRelatedResourceIdentifierSubtype</v>
+      </c>
+      <c r="M10" s="65" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N10" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="608"/>
-      <c r="B11" s="608"/>
-      <c r="C11" s="608"/>
-      <c r="D11" s="700"/>
-      <c r="E11" s="577"/>
-      <c r="F11" s="704"/>
+      <c r="A11" s="653"/>
+      <c r="B11" s="653"/>
+      <c r="C11" s="653"/>
+      <c r="D11" s="571"/>
+      <c r="E11" s="574"/>
+      <c r="F11" s="577"/>
       <c r="G11" s="64" t="s">
         <v>41</v>
       </c>
@@ -4397,60 +4413,62 @@
       <c r="L11" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="M11" s="65" t="s">
-        <v>24</v>
+      <c r="M11" s="65" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N11" s="64" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="609"/>
-      <c r="B12" s="609"/>
-      <c r="C12" s="609"/>
-      <c r="D12" s="701"/>
-      <c r="E12" s="578"/>
-      <c r="F12" s="705"/>
-      <c r="G12" s="216" t="s">
+      <c r="A12" s="654"/>
+      <c r="B12" s="654"/>
+      <c r="C12" s="654"/>
+      <c r="D12" s="572"/>
+      <c r="E12" s="575"/>
+      <c r="F12" s="578"/>
+      <c r="G12" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="216" t="s">
+      <c r="H12" s="211" t="s">
         <v>262</v>
       </c>
-      <c r="I12" s="217" t="s">
+      <c r="I12" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="218">
+      <c r="J12" s="213">
         <v>1</v>
       </c>
-      <c r="K12" s="219" t="s">
+      <c r="K12" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="220" t="s">
+      <c r="L12" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="221" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="222" t="s">
+      <c r="M12" s="216" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N12" s="217" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="614" t="s">
+      <c r="A13" s="656" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="614"/>
-      <c r="C13" s="614"/>
-      <c r="D13" s="243" t="s">
+      <c r="B13" s="656"/>
+      <c r="C13" s="656"/>
+      <c r="D13" s="238" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="68" t="str">
-        <f>Namespace &amp; ($A13) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/VersionInfo</v>
+        <f>Namespace &amp; "has" &amp; ($A13) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVersionInfo</v>
       </c>
       <c r="G13" s="69" t="s">
         <v>47</v>
@@ -4478,128 +4496,128 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="615" t="s">
+      <c r="A14" s="657" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="615"/>
-      <c r="C14" s="615"/>
-      <c r="D14" s="729" t="s">
+      <c r="B14" s="657"/>
+      <c r="C14" s="657"/>
+      <c r="D14" s="540" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="719" t="s">
+      <c r="E14" s="593" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="727" t="str">
-        <f>Namespace &amp; ($A14) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/LanguageInfo</v>
-      </c>
-      <c r="G14" s="223" t="s">
+      <c r="F14" s="538" t="str">
+        <f>Namespace &amp; "has" &amp; ($A14) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasLanguageInfo</v>
+      </c>
+      <c r="G14" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="223" t="s">
+      <c r="H14" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="224" t="s">
-        <v>367</v>
-      </c>
-      <c r="J14" s="225" t="s">
+      <c r="I14" s="219" t="s">
+        <v>365</v>
+      </c>
+      <c r="J14" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="226" t="s">
+      <c r="K14" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="227" t="s">
-        <v>366</v>
-      </c>
-      <c r="M14" s="228" t="s">
-        <v>435</v>
-      </c>
-      <c r="N14" s="223" t="s">
-        <v>436</v>
+      <c r="L14" s="222" t="s">
+        <v>364</v>
+      </c>
+      <c r="M14" s="223" t="s">
+        <v>433</v>
+      </c>
+      <c r="N14" s="218" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="616"/>
-      <c r="B15" s="616"/>
-      <c r="C15" s="616"/>
-      <c r="D15" s="730"/>
-      <c r="E15" s="720"/>
-      <c r="F15" s="728"/>
-      <c r="G15" s="229" t="s">
+      <c r="A15" s="658"/>
+      <c r="B15" s="658"/>
+      <c r="C15" s="658"/>
+      <c r="D15" s="541"/>
+      <c r="E15" s="594"/>
+      <c r="F15" s="539"/>
+      <c r="G15" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="229" t="s">
+      <c r="H15" s="224" t="s">
         <v>280</v>
       </c>
-      <c r="I15" s="230" t="s">
-        <v>413</v>
-      </c>
-      <c r="J15" s="231">
+      <c r="I15" s="225" t="s">
+        <v>411</v>
+      </c>
+      <c r="J15" s="226">
         <v>1</v>
       </c>
-      <c r="K15" s="232" t="s">
+      <c r="K15" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="233" t="str">
-        <f>Namespace &amp; "primarylanguage"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/primarylanguage</v>
-      </c>
-      <c r="M15" s="234" t="s">
-        <v>435</v>
-      </c>
-      <c r="N15" s="229" t="s">
-        <v>436</v>
+      <c r="L15" s="228" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE(PROPER(LOWER($H15)), " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPrimaryLanguage</v>
+      </c>
+      <c r="M15" s="229" t="s">
+        <v>433</v>
+      </c>
+      <c r="N15" s="224" t="s">
+        <v>434</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="617" t="s">
+      <c r="A16" s="659" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="617"/>
-      <c r="C16" s="617"/>
-      <c r="D16" s="244" t="s">
+      <c r="B16" s="659"/>
+      <c r="C16" s="659"/>
+      <c r="D16" s="239" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="235">
+      <c r="E16" s="230">
         <v>1</v>
       </c>
-      <c r="F16" s="236" t="str">
-        <f>Namespace &amp; ($A16) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/TitleInfo</v>
-      </c>
-      <c r="G16" s="237" t="s">
+      <c r="F16" s="231" t="str">
+        <f>Namespace &amp; "has" &amp; ($A16) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasTitleInfo</v>
+      </c>
+      <c r="G16" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="237" t="s">
+      <c r="H16" s="232" t="s">
         <v>304</v>
       </c>
-      <c r="I16" s="238" t="s">
+      <c r="I16" s="233" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="239">
+      <c r="J16" s="234">
         <v>1</v>
       </c>
-      <c r="K16" s="240" t="s">
+      <c r="K16" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="241" t="s">
+      <c r="L16" s="236" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="242" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="242" t="s">
+      <c r="M16" s="237" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="237" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="618" t="s">
+      <c r="A17" s="660" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="618"/>
-      <c r="C17" s="618"/>
+      <c r="B17" s="660"/>
+      <c r="C17" s="660"/>
       <c r="D17" s="78" t="s">
         <v>58</v>
       </c>
@@ -4607,8 +4625,8 @@
         <v>1</v>
       </c>
       <c r="F17" s="76" t="str">
-        <f>Namespace &amp; ($A17) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DescriptionInfo</v>
+        <f>Namespace &amp; "has" &amp; ($A17) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDescriptionInfo</v>
       </c>
       <c r="G17" s="76" t="s">
         <v>59</v>
@@ -4638,85 +4656,85 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" s="11" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="610" t="s">
+      <c r="A18" s="655" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="610"/>
-      <c r="C18" s="610"/>
-      <c r="D18" s="245" t="s">
+      <c r="B18" s="655"/>
+      <c r="C18" s="655"/>
+      <c r="D18" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="149" t="str">
+      <c r="F18" s="144" t="str">
         <f>Namespace&amp;($A18) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/SubjectInfo</v>
-      </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
+        <v>http://vocab.fairdatacollective.org/gdmt/SubjectInfo</v>
+      </c>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="315"/>
-      <c r="B19" s="611" t="s">
-        <v>501</v>
-      </c>
-      <c r="C19" s="611"/>
-      <c r="D19" s="611" t="s">
+      <c r="A19" s="310"/>
+      <c r="B19" s="542" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="542"/>
+      <c r="D19" s="542" t="s">
+        <v>466</v>
+      </c>
+      <c r="E19" s="590" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="587" t="str">
+        <f>Namespace&amp;($B19) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/ControlledTermsInfo</v>
+      </c>
+      <c r="G19" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="122" t="s">
+        <v>307</v>
+      </c>
+      <c r="I19" s="123" t="s">
+        <v>469</v>
+      </c>
+      <c r="J19" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="126" t="s">
+        <v>500</v>
+      </c>
+      <c r="N19" s="126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="310"/>
+      <c r="B20" s="543"/>
+      <c r="C20" s="543"/>
+      <c r="D20" s="543"/>
+      <c r="E20" s="591"/>
+      <c r="F20" s="588"/>
+      <c r="G20" s="79" t="s">
+        <v>467</v>
+      </c>
+      <c r="H20" s="79" t="s">
         <v>468</v>
-      </c>
-      <c r="E19" s="716" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="713" t="str">
-        <f>Namespace&amp;($B19) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/ControlledTermsInfo</v>
-      </c>
-      <c r="G19" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="127" t="s">
-        <v>307</v>
-      </c>
-      <c r="I19" s="128" t="s">
-        <v>471</v>
-      </c>
-      <c r="J19" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="130" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="131" t="s">
-        <v>502</v>
-      </c>
-      <c r="N19" s="131" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="315"/>
-      <c r="B20" s="612"/>
-      <c r="C20" s="612"/>
-      <c r="D20" s="612"/>
-      <c r="E20" s="717"/>
-      <c r="F20" s="714"/>
-      <c r="G20" s="79" t="s">
-        <v>469</v>
-      </c>
-      <c r="H20" s="79" t="s">
-        <v>470</v>
       </c>
       <c r="I20" s="80" t="s">
         <v>69</v>
@@ -4728,23 +4746,23 @@
         <v>68</v>
       </c>
       <c r="L20" s="82" t="str">
-        <f>Namespace &amp; $G20</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/subjectIRI</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H20, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasSubjectIRI</v>
       </c>
       <c r="M20" s="83" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N20" s="83" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="315"/>
-      <c r="B21" s="612"/>
-      <c r="C21" s="612"/>
-      <c r="D21" s="612"/>
-      <c r="E21" s="717"/>
-      <c r="F21" s="714"/>
+      <c r="A21" s="310"/>
+      <c r="B21" s="543"/>
+      <c r="C21" s="543"/>
+      <c r="D21" s="543"/>
+      <c r="E21" s="591"/>
+      <c r="F21" s="588"/>
       <c r="G21" s="83" t="s">
         <v>70</v>
       </c>
@@ -4752,7 +4770,7 @@
         <v>308</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J21" s="81" t="s">
         <v>46</v>
@@ -4761,153 +4779,153 @@
         <v>68</v>
       </c>
       <c r="L21" s="82" t="str">
-        <f>Namespace &amp; $G21</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/subjectScheme</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H21, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasSubjectScheme</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N21" s="83" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="315"/>
-      <c r="B22" s="613"/>
-      <c r="C22" s="613"/>
-      <c r="D22" s="613"/>
-      <c r="E22" s="718"/>
-      <c r="F22" s="715"/>
-      <c r="G22" s="132" t="s">
+      <c r="A22" s="310"/>
+      <c r="B22" s="544"/>
+      <c r="C22" s="544"/>
+      <c r="D22" s="544"/>
+      <c r="E22" s="592"/>
+      <c r="F22" s="589"/>
+      <c r="G22" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="132" t="s">
+      <c r="H22" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="I22" s="133" t="s">
-        <v>371</v>
-      </c>
-      <c r="J22" s="134" t="s">
+      <c r="I22" s="128" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="135" t="s">
+      <c r="K22" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="135" t="str">
-        <f>Namespace &amp; $G22</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/subjectSchemeIRI</v>
-      </c>
-      <c r="M22" s="136" t="s">
-        <v>502</v>
-      </c>
-      <c r="N22" s="136" t="s">
+      <c r="L22" s="130" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H22, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasSubjectSchemeIRI</v>
+      </c>
+      <c r="M22" s="131" t="s">
+        <v>500</v>
+      </c>
+      <c r="N22" s="131" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="380"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="159" t="s">
-        <v>473</v>
-      </c>
-      <c r="H23" s="159" t="s">
+      <c r="A23" s="375"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="154" t="s">
+        <v>471</v>
+      </c>
+      <c r="H23" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="160" t="s">
+      <c r="I23" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="161" t="s">
+      <c r="J23" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="162" t="s">
+      <c r="K23" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="162" t="str">
-        <f>Namespace &amp; $G23</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/keyword</v>
-      </c>
-      <c r="M23" s="163"/>
-      <c r="N23" s="164" t="s">
+      <c r="L23" s="82" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H23, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasKeyword</v>
+      </c>
+      <c r="M23" s="158"/>
+      <c r="N23" s="159" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="652" t="s">
+      <c r="A24" s="665" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="652"/>
-      <c r="C24" s="652"/>
-      <c r="D24" s="246" t="s">
+      <c r="B24" s="665"/>
+      <c r="C24" s="665"/>
+      <c r="D24" s="241" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="165" t="s">
+      <c r="E24" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="166" t="str">
-        <f>Namespace &amp; ($A24) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/CreatorInfo</v>
-      </c>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
+      <c r="F24" s="161" t="str">
+        <f>Namespace &amp; "has" &amp; ($A24) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorInfo</v>
+      </c>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
     </row>
     <row r="25" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="653" t="s">
-        <v>452</v>
-      </c>
-      <c r="C25" s="653"/>
-      <c r="D25" s="653" t="s">
-        <v>478</v>
-      </c>
-      <c r="E25" s="678" t="s">
+      <c r="B25" s="611" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="611"/>
+      <c r="D25" s="611" t="s">
+        <v>476</v>
+      </c>
+      <c r="E25" s="581" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="681" t="str">
-        <f>Namespace &amp; ($B25) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/CreatorNameInfo</v>
-      </c>
-      <c r="G25" s="137" t="s">
+      <c r="F25" s="614" t="str">
+        <f>Namespace &amp; "has" &amp; ($B25) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorNameInfo</v>
+      </c>
+      <c r="G25" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="137" t="s">
+      <c r="H25" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="I25" s="138" t="s">
+      <c r="I25" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="139">
+      <c r="J25" s="134">
         <v>1</v>
       </c>
-      <c r="K25" s="140" t="s">
+      <c r="K25" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="140" t="s">
+      <c r="L25" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="137" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="137" t="s">
+      <c r="M25" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="132" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="654"/>
-      <c r="C26" s="654"/>
-      <c r="D26" s="654"/>
-      <c r="E26" s="679"/>
-      <c r="F26" s="682"/>
+      <c r="B26" s="612"/>
+      <c r="C26" s="612"/>
+      <c r="D26" s="612"/>
+      <c r="E26" s="582"/>
+      <c r="F26" s="615"/>
       <c r="G26" s="87" t="s">
         <v>79</v>
       </c>
@@ -4935,85 +4953,85 @@
     </row>
     <row r="27" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="655"/>
-      <c r="C27" s="655"/>
-      <c r="D27" s="655"/>
-      <c r="E27" s="680"/>
-      <c r="F27" s="683"/>
-      <c r="G27" s="141" t="s">
+      <c r="B27" s="613"/>
+      <c r="C27" s="613"/>
+      <c r="D27" s="613"/>
+      <c r="E27" s="583"/>
+      <c r="F27" s="616"/>
+      <c r="G27" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="141" t="s">
+      <c r="H27" s="136" t="s">
         <v>313</v>
       </c>
-      <c r="I27" s="142" t="s">
+      <c r="I27" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="143" t="s">
+      <c r="J27" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="144" t="s">
+      <c r="K27" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="144" t="s">
+      <c r="L27" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="M27" s="145" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" s="145" t="s">
+      <c r="M27" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="140" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="653" t="s">
-        <v>453</v>
-      </c>
-      <c r="C28" s="653"/>
-      <c r="D28" s="653" t="s">
-        <v>477</v>
-      </c>
-      <c r="E28" s="678" t="s">
+      <c r="B28" s="611" t="s">
+        <v>451</v>
+      </c>
+      <c r="C28" s="611"/>
+      <c r="D28" s="611" t="s">
+        <v>475</v>
+      </c>
+      <c r="E28" s="581" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="681" t="str">
-        <f>Namespace &amp; ($B28) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/CreatorIdentifierInfo</v>
-      </c>
-      <c r="G28" s="146" t="s">
+      <c r="F28" s="614" t="str">
+        <f>Namespace &amp; "has" &amp; ($B28) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifierInfo</v>
+      </c>
+      <c r="G28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="146" t="s">
+      <c r="H28" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="I28" s="147" t="s">
+      <c r="I28" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="139">
+      <c r="J28" s="134">
         <v>1</v>
       </c>
-      <c r="K28" s="140" t="s">
+      <c r="K28" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="140" t="str">
-        <f t="shared" ref="L28:L34" si="0">Namespace &amp; $G28</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorIdentifier</v>
-      </c>
-      <c r="M28" s="137" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" s="137" t="s">
+      <c r="L28" s="135" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H28, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifier</v>
+      </c>
+      <c r="M28" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="132" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="654"/>
-      <c r="C29" s="654"/>
-      <c r="D29" s="654"/>
-      <c r="E29" s="679"/>
-      <c r="F29" s="682"/>
+      <c r="B29" s="612"/>
+      <c r="C29" s="612"/>
+      <c r="D29" s="612"/>
+      <c r="E29" s="582"/>
+      <c r="F29" s="615"/>
       <c r="G29" s="87" t="s">
         <v>93</v>
       </c>
@@ -5021,7 +5039,7 @@
         <v>317</v>
       </c>
       <c r="I29" s="88" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J29" s="85">
         <v>1</v>
@@ -5030,11 +5048,12 @@
         <v>20</v>
       </c>
       <c r="L29" s="86" t="str">
-        <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorIdentifierScheme</v>
-      </c>
-      <c r="M29" s="89" t="s">
-        <v>521</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H29, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifierScheme</v>
+      </c>
+      <c r="M29" s="89" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N29" s="84" t="s">
         <v>94</v>
@@ -5042,71 +5061,72 @@
     </row>
     <row r="30" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="655"/>
-      <c r="C30" s="655"/>
-      <c r="D30" s="655"/>
-      <c r="E30" s="680"/>
-      <c r="F30" s="683"/>
-      <c r="G30" s="141" t="s">
+      <c r="B30" s="613"/>
+      <c r="C30" s="613"/>
+      <c r="D30" s="613"/>
+      <c r="E30" s="583"/>
+      <c r="F30" s="616"/>
+      <c r="G30" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="141" t="s">
+      <c r="H30" s="136" t="s">
         <v>318</v>
       </c>
-      <c r="I30" s="142" t="s">
-        <v>373</v>
-      </c>
-      <c r="J30" s="143">
+      <c r="I30" s="137" t="s">
+        <v>371</v>
+      </c>
+      <c r="J30" s="138">
         <v>1</v>
       </c>
-      <c r="K30" s="144" t="s">
+      <c r="K30" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="144" t="str">
-        <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorIdentifierSchemeIRI</v>
-      </c>
-      <c r="M30" s="148" t="s">
-        <v>521</v>
-      </c>
-      <c r="N30" s="145" t="s">
+      <c r="L30" s="139" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H30, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifierSchemeIRI</v>
+      </c>
+      <c r="M30" s="143" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N30" s="140" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="653" t="s">
-        <v>454</v>
-      </c>
-      <c r="C31" s="653"/>
-      <c r="D31" s="653" t="s">
-        <v>476</v>
-      </c>
-      <c r="E31" s="678" t="s">
+      <c r="B31" s="611" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31" s="611"/>
+      <c r="D31" s="611" t="s">
+        <v>474</v>
+      </c>
+      <c r="E31" s="581" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="711" t="str">
-        <f>Namespace &amp; ($B31) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/CreatorAffiliationInfo</v>
-      </c>
-      <c r="G31" s="87" t="s">
+      <c r="F31" s="733" t="str">
+        <f>Namespace &amp; "has" &amp; ($B31) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationInfo</v>
+      </c>
+      <c r="G31" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="87" t="s">
+      <c r="H31" s="141" t="s">
         <v>319</v>
       </c>
-      <c r="I31" s="88" t="s">
+      <c r="I31" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="85" t="s">
+      <c r="J31" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="86" t="s">
+      <c r="K31" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="86" t="str">
-        <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorAffiliation</v>
+      <c r="L31" s="135" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H31, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliation</v>
       </c>
       <c r="M31" s="84" t="s">
         <v>28</v>
@@ -5117,11 +5137,11 @@
     </row>
     <row r="32" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="654"/>
-      <c r="C32" s="654"/>
-      <c r="D32" s="654"/>
-      <c r="E32" s="679"/>
-      <c r="F32" s="711"/>
+      <c r="B32" s="612"/>
+      <c r="C32" s="612"/>
+      <c r="D32" s="612"/>
+      <c r="E32" s="582"/>
+      <c r="F32" s="579"/>
       <c r="G32" s="87" t="s">
         <v>100</v>
       </c>
@@ -5138,8 +5158,8 @@
         <v>36</v>
       </c>
       <c r="L32" s="86" t="str">
-        <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorAffiliationIdentifier</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H32, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationIdentifier</v>
       </c>
       <c r="M32" s="84" t="s">
         <v>28</v>
@@ -5150,11 +5170,11 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
-      <c r="B33" s="654"/>
-      <c r="C33" s="654"/>
-      <c r="D33" s="654"/>
-      <c r="E33" s="679"/>
-      <c r="F33" s="711"/>
+      <c r="B33" s="612"/>
+      <c r="C33" s="612"/>
+      <c r="D33" s="612"/>
+      <c r="E33" s="582"/>
+      <c r="F33" s="579"/>
       <c r="G33" s="87" t="s">
         <v>103</v>
       </c>
@@ -5162,7 +5182,7 @@
         <v>321</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J33" s="85" t="s">
         <v>34</v>
@@ -5171,11 +5191,12 @@
         <v>36</v>
       </c>
       <c r="L33" s="86" t="str">
-        <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorAffiliationIdentifierScheme</v>
-      </c>
-      <c r="M33" s="89" t="s">
-        <v>521</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H33, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationIdentifierScheme</v>
+      </c>
+      <c r="M33" s="89" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N33" s="84" t="s">
         <v>104</v>
@@ -5183,40 +5204,41 @@
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="655"/>
-      <c r="C34" s="655"/>
-      <c r="D34" s="655"/>
-      <c r="E34" s="680"/>
-      <c r="F34" s="712"/>
-      <c r="G34" s="141" t="s">
+      <c r="B34" s="613"/>
+      <c r="C34" s="613"/>
+      <c r="D34" s="613"/>
+      <c r="E34" s="583"/>
+      <c r="F34" s="580"/>
+      <c r="G34" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="H34" s="141" t="s">
+      <c r="H34" s="136" t="s">
         <v>322</v>
       </c>
-      <c r="I34" s="142" t="s">
-        <v>375</v>
-      </c>
-      <c r="J34" s="143" t="s">
+      <c r="I34" s="137" t="s">
+        <v>373</v>
+      </c>
+      <c r="J34" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="144" t="s">
+      <c r="K34" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="144" t="str">
-        <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorAffiliationIdentifierSchemeIRI</v>
-      </c>
-      <c r="M34" s="148" t="s">
-        <v>521</v>
-      </c>
-      <c r="N34" s="145" t="s">
+      <c r="L34" s="139" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H34, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationIdentifierSchemeIRI</v>
+      </c>
+      <c r="M34" s="143" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N34" s="140" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
-      <c r="B35" s="172"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="19"/>
@@ -5248,7 +5270,7 @@
     </row>
     <row r="36" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
-      <c r="B36" s="172"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="91"/>
       <c r="D36" s="91"/>
       <c r="E36" s="92"/>
@@ -5269,545 +5291,553 @@
         <v>68</v>
       </c>
       <c r="L36" s="86" t="str">
-        <f>Namespace &amp; $G36</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorRole</v>
-      </c>
-      <c r="M36" s="89" t="s">
-        <v>24</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H36, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorRole</v>
+      </c>
+      <c r="M36" s="89" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N36" s="84" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="381"/>
-      <c r="B37" s="173"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="177" t="s">
+      <c r="A37" s="376"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="H37" s="177" t="s">
+      <c r="H37" s="172" t="s">
         <v>311</v>
       </c>
-      <c r="I37" s="178" t="s">
+      <c r="I37" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="179">
+      <c r="J37" s="174">
         <v>1</v>
       </c>
-      <c r="K37" s="180" t="s">
+      <c r="K37" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="180" t="str">
-        <f>Namespace &amp; $G37</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/creatorType</v>
-      </c>
-      <c r="M37" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="182" t="s">
+      <c r="L37" s="175" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H37, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorType</v>
+      </c>
+      <c r="M37" s="176" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N37" s="177" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="656" t="s">
+      <c r="A38" s="666" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="656"/>
-      <c r="C38" s="656"/>
-      <c r="D38" s="382" t="s">
+      <c r="B38" s="666"/>
+      <c r="C38" s="666"/>
+      <c r="D38" s="377" t="s">
+        <v>460</v>
+      </c>
+      <c r="E38" s="378" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="379" t="str">
+        <f>Namespace &amp; "has" &amp; ($A38) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorInfo</v>
+      </c>
+      <c r="G38" s="380"/>
+      <c r="H38" s="380"/>
+      <c r="I38" s="381"/>
+      <c r="J38" s="382"/>
+      <c r="K38" s="383"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="419"/>
+      <c r="B39" s="667" t="s">
+        <v>461</v>
+      </c>
+      <c r="C39" s="667"/>
+      <c r="D39" s="602" t="s">
+        <v>477</v>
+      </c>
+      <c r="E39" s="605" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="584" t="str">
+        <f>Namespace &amp; "has" &amp; ($B39) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorNameInfo</v>
+      </c>
+      <c r="G39" s="385" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="385" t="s">
+        <v>325</v>
+      </c>
+      <c r="I39" s="386" t="s">
+        <v>117</v>
+      </c>
+      <c r="J39" s="387">
+        <v>1</v>
+      </c>
+      <c r="K39" s="388" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="388" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="385" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="385" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="419"/>
+      <c r="B40" s="667"/>
+      <c r="C40" s="667"/>
+      <c r="D40" s="603"/>
+      <c r="E40" s="606"/>
+      <c r="F40" s="585"/>
+      <c r="G40" s="389" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="389" t="s">
         <v>462</v>
       </c>
-      <c r="E38" s="383" t="s">
+      <c r="I40" s="390" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" s="391" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="384" t="str">
-        <f>Namespace &amp; ($A38) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/ContributorInfo</v>
-      </c>
-      <c r="G38" s="385"/>
-      <c r="H38" s="385"/>
-      <c r="I38" s="386"/>
-      <c r="J38" s="387"/>
-      <c r="K38" s="388"/>
-      <c r="L38" s="388"/>
-      <c r="M38" s="389"/>
-      <c r="N38" s="389"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="424"/>
-      <c r="B39" s="657" t="s">
+      <c r="K40" s="392" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="392" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40" s="393" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="393" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="419"/>
+      <c r="B41" s="667"/>
+      <c r="C41" s="667"/>
+      <c r="D41" s="604"/>
+      <c r="E41" s="607"/>
+      <c r="F41" s="586"/>
+      <c r="G41" s="394" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" s="394" t="s">
         <v>463</v>
       </c>
-      <c r="C39" s="657"/>
-      <c r="D39" s="669" t="s">
+      <c r="I41" s="395" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="396" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="397" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="397" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="398" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="398" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="419"/>
+      <c r="B42" s="602" t="s">
+        <v>464</v>
+      </c>
+      <c r="C42" s="602"/>
+      <c r="D42" s="602" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" s="605" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="584" t="str">
+        <f>Namespace &amp; "has" &amp; ($B42) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifierInfo</v>
+      </c>
+      <c r="G42" s="399" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="399" t="s">
+        <v>327</v>
+      </c>
+      <c r="I42" s="400" t="s">
+        <v>455</v>
+      </c>
+      <c r="J42" s="387">
+        <v>1</v>
+      </c>
+      <c r="K42" s="388" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="388" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H42, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifier</v>
+      </c>
+      <c r="M42" s="385" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" s="385" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="419"/>
+      <c r="B43" s="603"/>
+      <c r="C43" s="603"/>
+      <c r="D43" s="603"/>
+      <c r="E43" s="606"/>
+      <c r="F43" s="585"/>
+      <c r="G43" s="389" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" s="389" t="s">
+        <v>328</v>
+      </c>
+      <c r="I43" s="390" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" s="391">
+        <v>1</v>
+      </c>
+      <c r="K43" s="392" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="392" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H43, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifierScheme</v>
+      </c>
+      <c r="M43" s="401" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N43" s="393" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="419"/>
+      <c r="B44" s="604"/>
+      <c r="C44" s="604"/>
+      <c r="D44" s="604"/>
+      <c r="E44" s="607"/>
+      <c r="F44" s="586"/>
+      <c r="G44" s="394" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="394" t="s">
+        <v>329</v>
+      </c>
+      <c r="I44" s="395" t="s">
+        <v>375</v>
+      </c>
+      <c r="J44" s="396">
+        <v>1</v>
+      </c>
+      <c r="K44" s="397" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="397" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H44, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifierSchemeIRI</v>
+      </c>
+      <c r="M44" s="402" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N44" s="398" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="419"/>
+      <c r="B45" s="602" t="s">
+        <v>465</v>
+      </c>
+      <c r="C45" s="602"/>
+      <c r="D45" s="602" t="s">
         <v>479</v>
       </c>
-      <c r="E39" s="582" t="s">
+      <c r="E45" s="605" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="675" t="str">
-        <f>Namespace &amp; ($B39) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/ContributorNameInfo</v>
-      </c>
-      <c r="G39" s="390" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="390" t="s">
-        <v>325</v>
-      </c>
-      <c r="I39" s="391" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="392">
-        <v>1</v>
-      </c>
-      <c r="K39" s="393" t="s">
+      <c r="F45" s="608" t="str">
+        <f>Namespace &amp; "has" &amp; ($B45) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationInfo</v>
+      </c>
+      <c r="G45" s="399" t="s">
+        <v>331</v>
+      </c>
+      <c r="H45" s="399" t="s">
+        <v>330</v>
+      </c>
+      <c r="I45" s="400" t="s">
+        <v>457</v>
+      </c>
+      <c r="J45" s="387" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="388" t="s">
         <v>36</v>
       </c>
-      <c r="L39" s="393" t="s">
-        <v>116</v>
-      </c>
-      <c r="M39" s="390" t="s">
-        <v>28</v>
-      </c>
-      <c r="N39" s="390" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="424"/>
-      <c r="B40" s="657"/>
-      <c r="C40" s="657"/>
-      <c r="D40" s="670"/>
-      <c r="E40" s="583"/>
-      <c r="F40" s="676"/>
-      <c r="G40" s="394" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="394" t="s">
-        <v>464</v>
-      </c>
-      <c r="I40" s="395" t="s">
-        <v>112</v>
-      </c>
-      <c r="J40" s="396" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" s="397" t="s">
+      <c r="L45" s="388" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H45, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliation</v>
+      </c>
+      <c r="M45" s="385" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="385" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="419"/>
+      <c r="B46" s="603"/>
+      <c r="C46" s="603"/>
+      <c r="D46" s="603"/>
+      <c r="E46" s="606"/>
+      <c r="F46" s="609"/>
+      <c r="G46" s="389" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="389" t="s">
+        <v>332</v>
+      </c>
+      <c r="I46" s="390" t="s">
+        <v>124</v>
+      </c>
+      <c r="J46" s="391" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="392" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="397" t="s">
-        <v>80</v>
-      </c>
-      <c r="M40" s="398" t="s">
-        <v>28</v>
-      </c>
-      <c r="N40" s="398" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="424"/>
-      <c r="B41" s="657"/>
-      <c r="C41" s="657"/>
-      <c r="D41" s="671"/>
-      <c r="E41" s="584"/>
-      <c r="F41" s="677"/>
-      <c r="G41" s="399" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="399" t="s">
-        <v>465</v>
-      </c>
-      <c r="I41" s="400" t="s">
-        <v>114</v>
-      </c>
-      <c r="J41" s="401" t="s">
-        <v>34</v>
-      </c>
-      <c r="K41" s="402" t="s">
+      <c r="L46" s="392" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H46, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationIdentifier</v>
+      </c>
+      <c r="M46" s="393" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" s="393" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="419"/>
+      <c r="B47" s="603"/>
+      <c r="C47" s="603"/>
+      <c r="D47" s="603"/>
+      <c r="E47" s="606"/>
+      <c r="F47" s="609"/>
+      <c r="G47" s="389" t="s">
+        <v>458</v>
+      </c>
+      <c r="H47" s="389" t="s">
+        <v>333</v>
+      </c>
+      <c r="I47" s="390" t="s">
+        <v>376</v>
+      </c>
+      <c r="J47" s="391" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="392" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="402" t="s">
-        <v>83</v>
-      </c>
-      <c r="M41" s="403" t="s">
-        <v>28</v>
-      </c>
-      <c r="N41" s="403" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="424"/>
-      <c r="B42" s="657" t="s">
-        <v>466</v>
-      </c>
-      <c r="C42" s="657"/>
-      <c r="D42" s="669" t="s">
-        <v>480</v>
-      </c>
-      <c r="E42" s="582" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="675" t="str">
-        <f>Namespace &amp; ($B42) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/ContributorIdentifierInfo</v>
-      </c>
-      <c r="G42" s="404" t="s">
-        <v>120</v>
-      </c>
-      <c r="H42" s="404" t="s">
-        <v>327</v>
-      </c>
-      <c r="I42" s="405" t="s">
-        <v>457</v>
-      </c>
-      <c r="J42" s="392">
-        <v>1</v>
-      </c>
-      <c r="K42" s="393" t="s">
+      <c r="L47" s="392" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H47, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationIdentifierScheme</v>
+      </c>
+      <c r="M47" s="401" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N47" s="393" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="419"/>
+      <c r="B48" s="604"/>
+      <c r="C48" s="604"/>
+      <c r="D48" s="604"/>
+      <c r="E48" s="607"/>
+      <c r="F48" s="610"/>
+      <c r="G48" s="394" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="394" t="s">
+        <v>334</v>
+      </c>
+      <c r="I48" s="395" t="s">
+        <v>377</v>
+      </c>
+      <c r="J48" s="396" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="397" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="393" t="str">
-        <f t="shared" ref="L42:L48" si="1">Namespace &amp; $G42</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifier</v>
-      </c>
-      <c r="M42" s="390" t="s">
-        <v>28</v>
-      </c>
-      <c r="N42" s="390" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="424"/>
-      <c r="B43" s="657"/>
-      <c r="C43" s="657"/>
-      <c r="D43" s="670"/>
-      <c r="E43" s="583"/>
-      <c r="F43" s="676"/>
-      <c r="G43" s="394" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" s="394" t="s">
-        <v>328</v>
-      </c>
-      <c r="I43" s="395" t="s">
-        <v>376</v>
-      </c>
-      <c r="J43" s="396">
-        <v>1</v>
-      </c>
-      <c r="K43" s="397" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="397" t="str">
-        <f t="shared" si="1"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifierScheme</v>
-      </c>
-      <c r="M43" s="406" t="s">
-        <v>521</v>
-      </c>
-      <c r="N43" s="398" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="424"/>
-      <c r="B44" s="657"/>
-      <c r="C44" s="657"/>
-      <c r="D44" s="671"/>
-      <c r="E44" s="584"/>
-      <c r="F44" s="677"/>
-      <c r="G44" s="399" t="s">
-        <v>122</v>
-      </c>
-      <c r="H44" s="399" t="s">
-        <v>329</v>
-      </c>
-      <c r="I44" s="400" t="s">
-        <v>377</v>
-      </c>
-      <c r="J44" s="401">
-        <v>1</v>
-      </c>
-      <c r="K44" s="402" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="402" t="str">
-        <f t="shared" si="1"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifierSchemeIRI</v>
-      </c>
-      <c r="M44" s="407" t="s">
-        <v>521</v>
-      </c>
-      <c r="N44" s="403" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="424"/>
-      <c r="B45" s="657" t="s">
-        <v>467</v>
-      </c>
-      <c r="C45" s="657"/>
-      <c r="D45" s="669" t="s">
-        <v>481</v>
-      </c>
-      <c r="E45" s="582" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="672" t="str">
-        <f>Namespace &amp; ($B45) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/ContributorAffiliationInfo</v>
-      </c>
-      <c r="G45" s="404" t="s">
-        <v>331</v>
-      </c>
-      <c r="H45" s="404" t="s">
-        <v>330</v>
-      </c>
-      <c r="I45" s="405" t="s">
-        <v>459</v>
-      </c>
-      <c r="J45" s="392" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45" s="393" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="393" t="str">
-        <f t="shared" si="1"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliation</v>
-      </c>
-      <c r="M45" s="390" t="s">
-        <v>28</v>
-      </c>
-      <c r="N45" s="390" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="424"/>
-      <c r="B46" s="657"/>
-      <c r="C46" s="657"/>
-      <c r="D46" s="670"/>
-      <c r="E46" s="583"/>
-      <c r="F46" s="673"/>
-      <c r="G46" s="394" t="s">
-        <v>123</v>
-      </c>
-      <c r="H46" s="394" t="s">
-        <v>332</v>
-      </c>
-      <c r="I46" s="395" t="s">
-        <v>124</v>
-      </c>
-      <c r="J46" s="396" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46" s="397" t="s">
-        <v>36</v>
-      </c>
-      <c r="L46" s="397" t="str">
-        <f t="shared" si="1"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifier</v>
-      </c>
-      <c r="M46" s="398" t="s">
-        <v>28</v>
-      </c>
-      <c r="N46" s="398" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="424"/>
-      <c r="B47" s="657"/>
-      <c r="C47" s="657"/>
-      <c r="D47" s="670"/>
-      <c r="E47" s="583"/>
-      <c r="F47" s="673"/>
-      <c r="G47" s="394" t="s">
-        <v>460</v>
-      </c>
-      <c r="H47" s="394" t="s">
-        <v>333</v>
-      </c>
-      <c r="I47" s="395" t="s">
-        <v>378</v>
-      </c>
-      <c r="J47" s="396" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47" s="397" t="s">
-        <v>36</v>
-      </c>
-      <c r="L47" s="397" t="str">
-        <f t="shared" si="1"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifierScheme</v>
-      </c>
-      <c r="M47" s="406" t="s">
-        <v>521</v>
-      </c>
-      <c r="N47" s="398" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="424"/>
-      <c r="B48" s="657"/>
-      <c r="C48" s="657"/>
-      <c r="D48" s="671"/>
-      <c r="E48" s="584"/>
-      <c r="F48" s="674"/>
-      <c r="G48" s="399" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="399" t="s">
-        <v>334</v>
-      </c>
-      <c r="I48" s="400" t="s">
-        <v>379</v>
-      </c>
-      <c r="J48" s="401" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48" s="402" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="402" t="str">
-        <f t="shared" si="1"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifierSchemeIRI</v>
-      </c>
-      <c r="M48" s="407" t="s">
-        <v>521</v>
-      </c>
-      <c r="N48" s="403" t="s">
+      <c r="L48" s="397" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H48, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationIdentifierSchemeIRI</v>
+      </c>
+      <c r="M48" s="402" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N48" s="398" t="s">
         <v>106</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="424"/>
-      <c r="B49" s="408"/>
-      <c r="C49" s="409"/>
-      <c r="D49" s="409"/>
-      <c r="E49" s="410"/>
-      <c r="F49" s="411"/>
-      <c r="G49" s="394" t="s">
+      <c r="A49" s="419"/>
+      <c r="B49" s="403"/>
+      <c r="C49" s="404"/>
+      <c r="D49" s="404"/>
+      <c r="E49" s="405"/>
+      <c r="F49" s="406"/>
+      <c r="G49" s="389" t="s">
         <v>118</v>
       </c>
-      <c r="H49" s="394" t="s">
+      <c r="H49" s="389" t="s">
         <v>326</v>
       </c>
-      <c r="I49" s="395" t="s">
+      <c r="I49" s="390" t="s">
         <v>119</v>
       </c>
-      <c r="J49" s="396" t="s">
+      <c r="J49" s="391" t="s">
         <v>34</v>
       </c>
-      <c r="K49" s="397" t="s">
+      <c r="K49" s="392" t="s">
         <v>36</v>
       </c>
-      <c r="L49" s="397" t="s">
+      <c r="L49" s="388" t="s">
         <v>89</v>
       </c>
-      <c r="M49" s="398" t="s">
-        <v>28</v>
-      </c>
-      <c r="N49" s="398" t="s">
+      <c r="M49" s="393" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" s="393" t="s">
         <v>28</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="424"/>
-      <c r="B50" s="408"/>
-      <c r="C50" s="412"/>
-      <c r="D50" s="412"/>
-      <c r="E50" s="413"/>
-      <c r="F50" s="411"/>
-      <c r="G50" s="394" t="s">
+      <c r="A50" s="419"/>
+      <c r="B50" s="403"/>
+      <c r="C50" s="407"/>
+      <c r="D50" s="407"/>
+      <c r="E50" s="408"/>
+      <c r="F50" s="406"/>
+      <c r="G50" s="389" t="s">
         <v>108</v>
       </c>
-      <c r="H50" s="394" t="s">
+      <c r="H50" s="389" t="s">
         <v>323</v>
       </c>
-      <c r="I50" s="395" t="s">
-        <v>461</v>
-      </c>
-      <c r="J50" s="396" t="s">
+      <c r="I50" s="390" t="s">
+        <v>459</v>
+      </c>
+      <c r="J50" s="391" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="397" t="s">
+      <c r="K50" s="392" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="397" t="str">
-        <f>Namespace &amp; $G50</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorRole</v>
-      </c>
-      <c r="M50" s="406" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="398" t="s">
+      <c r="L50" s="392" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H50, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorRole</v>
+      </c>
+      <c r="M50" s="401" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N50" s="393" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="425"/>
-      <c r="B51" s="414"/>
-      <c r="C51" s="415"/>
-      <c r="D51" s="415"/>
-      <c r="E51" s="416"/>
-      <c r="F51" s="417"/>
-      <c r="G51" s="418" t="s">
+      <c r="A51" s="420"/>
+      <c r="B51" s="409"/>
+      <c r="C51" s="410"/>
+      <c r="D51" s="410"/>
+      <c r="E51" s="411"/>
+      <c r="F51" s="412"/>
+      <c r="G51" s="413" t="s">
         <v>109</v>
       </c>
-      <c r="H51" s="418" t="s">
+      <c r="H51" s="413" t="s">
         <v>324</v>
       </c>
-      <c r="I51" s="419" t="s">
+      <c r="I51" s="414" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="420">
+      <c r="J51" s="415">
         <v>1</v>
       </c>
-      <c r="K51" s="421" t="s">
+      <c r="K51" s="416" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="421" t="str">
-        <f>Namespace &amp; $G51</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorType</v>
-      </c>
-      <c r="M51" s="422" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="423" t="s">
+      <c r="L51" s="416" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H51, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContributorType</v>
+      </c>
+      <c r="M51" s="417" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N51" s="418" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="658" t="s">
+      <c r="A52" s="668" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="658"/>
-      <c r="C52" s="658"/>
-      <c r="D52" s="248" t="s">
-        <v>437</v>
-      </c>
-      <c r="E52" s="247">
+      <c r="B52" s="668"/>
+      <c r="C52" s="668"/>
+      <c r="D52" s="243" t="s">
+        <v>435</v>
+      </c>
+      <c r="E52" s="242">
         <v>1</v>
       </c>
-      <c r="F52" s="248" t="str">
-        <f>Namespace &amp; ($A52) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/PublisherInfo</v>
+      <c r="F52" s="243" t="str">
+        <f>Namespace &amp; "has" &amp; ($A52) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPublisherInfo</v>
       </c>
       <c r="G52" s="93"/>
       <c r="H52" s="93"/>
@@ -5819,54 +5849,54 @@
       <c r="N52" s="97"/>
     </row>
     <row r="53" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="426"/>
-      <c r="B53" s="633" t="s">
-        <v>474</v>
-      </c>
-      <c r="C53" s="633"/>
-      <c r="D53" s="633" t="s">
-        <v>475</v>
-      </c>
-      <c r="E53" s="690" t="s">
+      <c r="A53" s="421"/>
+      <c r="B53" s="560" t="s">
+        <v>472</v>
+      </c>
+      <c r="C53" s="560"/>
+      <c r="D53" s="560" t="s">
+        <v>473</v>
+      </c>
+      <c r="E53" s="557" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="687" t="str">
-        <f>Namespace &amp; ($B53) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/PublisherIdentifierInfo</v>
-      </c>
-      <c r="G53" s="252" t="s">
+      <c r="F53" s="554" t="str">
+        <f>Namespace &amp; "has" &amp; ($B53) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPublisherIdentifierInfo</v>
+      </c>
+      <c r="G53" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="H53" s="252" t="s">
+      <c r="H53" s="247" t="s">
         <v>338</v>
       </c>
-      <c r="I53" s="253" t="s">
+      <c r="I53" s="248" t="s">
         <v>135</v>
       </c>
-      <c r="J53" s="254">
+      <c r="J53" s="249">
         <v>1</v>
       </c>
-      <c r="K53" s="255" t="s">
+      <c r="K53" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="L53" s="255" t="str">
-        <f>Namespace &amp; $G53</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/publisherIdentifier</v>
-      </c>
-      <c r="M53" s="256" t="s">
-        <v>28</v>
-      </c>
-      <c r="N53" s="256" t="s">
+      <c r="L53" s="250" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H53, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPublisherIdentifier</v>
+      </c>
+      <c r="M53" s="251" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" s="251" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="426"/>
-      <c r="B54" s="634"/>
-      <c r="C54" s="634"/>
-      <c r="D54" s="634"/>
-      <c r="E54" s="691"/>
-      <c r="F54" s="688"/>
+      <c r="A54" s="421"/>
+      <c r="B54" s="561"/>
+      <c r="C54" s="561"/>
+      <c r="D54" s="561"/>
+      <c r="E54" s="558"/>
+      <c r="F54" s="555"/>
       <c r="G54" s="93" t="s">
         <v>136</v>
       </c>
@@ -5874,7 +5904,7 @@
         <v>339</v>
       </c>
       <c r="I54" s="94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J54" s="95">
         <v>1</v>
@@ -5883,56 +5913,58 @@
         <v>20</v>
       </c>
       <c r="L54" s="96" t="str">
-        <f>Namespace &amp; $G54</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/publisherIdentifierScheme</v>
-      </c>
-      <c r="M54" s="97" t="s">
-        <v>24</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H54, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPublisherIdentifierScheme</v>
+      </c>
+      <c r="M54" s="97" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N54" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="426"/>
-      <c r="B55" s="635"/>
-      <c r="C55" s="635"/>
-      <c r="D55" s="635"/>
-      <c r="E55" s="692"/>
-      <c r="F55" s="689"/>
-      <c r="G55" s="257" t="s">
+      <c r="A55" s="421"/>
+      <c r="B55" s="562"/>
+      <c r="C55" s="562"/>
+      <c r="D55" s="562"/>
+      <c r="E55" s="559"/>
+      <c r="F55" s="556"/>
+      <c r="G55" s="252" t="s">
         <v>137</v>
       </c>
-      <c r="H55" s="257" t="s">
+      <c r="H55" s="252" t="s">
         <v>340</v>
       </c>
-      <c r="I55" s="258" t="s">
-        <v>381</v>
-      </c>
-      <c r="J55" s="259">
+      <c r="I55" s="253" t="s">
+        <v>379</v>
+      </c>
+      <c r="J55" s="254">
         <v>1</v>
       </c>
-      <c r="K55" s="260" t="s">
+      <c r="K55" s="255" t="s">
         <v>20</v>
       </c>
-      <c r="L55" s="260" t="str">
-        <f>Namespace &amp; $G55</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/publisherIdentifierSchemeIRI</v>
-      </c>
-      <c r="M55" s="261" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" s="261" t="s">
+      <c r="L55" s="255" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H55, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPublisherIdentifierSchemeIRI</v>
+      </c>
+      <c r="M55" s="256" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N55" s="256" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="426"/>
-      <c r="B56" s="249"/>
-      <c r="C56" s="250"/>
-      <c r="D56" s="250"/>
-      <c r="E56" s="250"/>
-      <c r="F56" s="248"/>
+      <c r="A56" s="421"/>
+      <c r="B56" s="244"/>
+      <c r="C56" s="245"/>
+      <c r="D56" s="245"/>
+      <c r="E56" s="245"/>
+      <c r="F56" s="243"/>
       <c r="G56" s="93" t="s">
         <v>127</v>
       </c>
@@ -5959,12 +5991,12 @@
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="426"/>
-      <c r="B57" s="249"/>
-      <c r="C57" s="251"/>
-      <c r="D57" s="251"/>
-      <c r="E57" s="251"/>
-      <c r="F57" s="248"/>
+      <c r="A57" s="421"/>
+      <c r="B57" s="244"/>
+      <c r="C57" s="246"/>
+      <c r="D57" s="246"/>
+      <c r="E57" s="246"/>
+      <c r="F57" s="243"/>
       <c r="G57" s="93" t="s">
         <v>130</v>
       </c>
@@ -5991,80 +6023,80 @@
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="427"/>
-      <c r="B58" s="262"/>
-      <c r="C58" s="262"/>
-      <c r="D58" s="262"/>
-      <c r="E58" s="262"/>
-      <c r="F58" s="263"/>
-      <c r="G58" s="264" t="s">
+      <c r="A58" s="422"/>
+      <c r="B58" s="257"/>
+      <c r="C58" s="257"/>
+      <c r="D58" s="257"/>
+      <c r="E58" s="257"/>
+      <c r="F58" s="258"/>
+      <c r="G58" s="259" t="s">
         <v>132</v>
       </c>
-      <c r="H58" s="264" t="s">
+      <c r="H58" s="259" t="s">
         <v>337</v>
       </c>
-      <c r="I58" s="265" t="s">
+      <c r="I58" s="260" t="s">
         <v>133</v>
       </c>
-      <c r="J58" s="266" t="s">
+      <c r="J58" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="K58" s="267" t="s">
+      <c r="K58" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="L58" s="267" t="str">
-        <f>Namespace &amp; $G58</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/publisherAddress</v>
-      </c>
-      <c r="M58" s="268" t="s">
-        <v>28</v>
-      </c>
-      <c r="N58" s="268" t="s">
+      <c r="L58" s="262" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H58, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPublisherAddress</v>
+      </c>
+      <c r="M58" s="263" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" s="263" t="s">
         <v>28</v>
       </c>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="648" t="s">
+      <c r="A59" s="651" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="648"/>
-      <c r="C59" s="648"/>
-      <c r="D59" s="296" t="s">
+      <c r="B59" s="651"/>
+      <c r="C59" s="651"/>
+      <c r="D59" s="291" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="297">
+      <c r="E59" s="292">
         <v>1</v>
       </c>
-      <c r="F59" s="298" t="str">
-        <f>Namespace &amp; ($A59) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/RightsInfo</v>
-      </c>
-      <c r="G59" s="278"/>
-      <c r="H59" s="278"/>
-      <c r="I59" s="279"/>
-      <c r="J59" s="280"/>
-      <c r="K59" s="281"/>
-      <c r="L59" s="281"/>
-      <c r="M59" s="282"/>
-      <c r="N59" s="283"/>
+      <c r="F59" s="293" t="str">
+        <f>Namespace &amp; "has" &amp; ($A59) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasRightsInfo</v>
+      </c>
+      <c r="G59" s="273"/>
+      <c r="H59" s="273"/>
+      <c r="I59" s="274"/>
+      <c r="J59" s="275"/>
+      <c r="K59" s="276"/>
+      <c r="L59" s="276"/>
+      <c r="M59" s="277"/>
+      <c r="N59" s="278"/>
     </row>
     <row r="60" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="428"/>
-      <c r="B60" s="299"/>
-      <c r="C60" s="270"/>
-      <c r="D60" s="270"/>
-      <c r="E60" s="271"/>
-      <c r="F60" s="269"/>
+      <c r="A60" s="423"/>
+      <c r="B60" s="294"/>
+      <c r="C60" s="265"/>
+      <c r="D60" s="265"/>
+      <c r="E60" s="266"/>
+      <c r="F60" s="264"/>
       <c r="G60" s="98" t="s">
         <v>143</v>
       </c>
       <c r="H60" s="98" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I60" s="104" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J60" s="100">
         <v>1</v>
@@ -6073,8 +6105,8 @@
         <v>20</v>
       </c>
       <c r="L60" s="101" t="str">
-        <f>Namespace &amp; $G60</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/licenseName</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H60, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseName</v>
       </c>
       <c r="M60" s="102" t="s">
         <v>142</v>
@@ -6084,64 +6116,64 @@
       </c>
     </row>
     <row r="61" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="428"/>
-      <c r="B61" s="549" t="s">
-        <v>484</v>
-      </c>
-      <c r="C61" s="549"/>
-      <c r="D61" s="549" t="s">
-        <v>485</v>
-      </c>
-      <c r="E61" s="552" t="s">
+      <c r="A61" s="423"/>
+      <c r="B61" s="551" t="s">
+        <v>482</v>
+      </c>
+      <c r="C61" s="551"/>
+      <c r="D61" s="551" t="s">
+        <v>483</v>
+      </c>
+      <c r="E61" s="548" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="731" t="str">
-        <f>Namespace &amp; ($B61) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/LicenseIdentifierInfo</v>
-      </c>
-      <c r="G61" s="284" t="s">
+      <c r="F61" s="545" t="str">
+        <f>Namespace &amp; "has" &amp; ($B61) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifierInfo</v>
+      </c>
+      <c r="G61" s="279" t="s">
         <v>145</v>
       </c>
-      <c r="H61" s="284" t="s">
+      <c r="H61" s="279" t="s">
         <v>341</v>
       </c>
-      <c r="I61" s="285" t="s">
+      <c r="I61" s="280" t="s">
         <v>146</v>
       </c>
-      <c r="J61" s="286">
+      <c r="J61" s="281">
         <v>1</v>
       </c>
-      <c r="K61" s="287" t="s">
+      <c r="K61" s="282" t="s">
         <v>36</v>
       </c>
-      <c r="L61" s="287" t="str">
-        <f>Namespace &amp; $G61</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/licenseIdentifier</v>
-      </c>
-      <c r="M61" s="288" t="s">
+      <c r="L61" s="282" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H61, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifier</v>
+      </c>
+      <c r="M61" s="283" t="s">
         <v>142</v>
       </c>
-      <c r="N61" s="289" t="s">
+      <c r="N61" s="284" t="s">
         <v>147</v>
       </c>
       <c r="O61"/>
       <c r="P61"/>
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="428"/>
-      <c r="B62" s="550"/>
-      <c r="C62" s="550"/>
-      <c r="D62" s="550"/>
-      <c r="E62" s="553"/>
-      <c r="F62" s="732"/>
+      <c r="A62" s="423"/>
+      <c r="B62" s="552"/>
+      <c r="C62" s="552"/>
+      <c r="D62" s="552"/>
+      <c r="E62" s="549"/>
+      <c r="F62" s="546"/>
       <c r="G62" s="98" t="s">
         <v>148</v>
       </c>
       <c r="H62" s="98" t="s">
-        <v>342</v>
+        <v>521</v>
       </c>
       <c r="I62" s="99" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J62" s="100">
         <v>1</v>
@@ -6150,8 +6182,8 @@
         <v>36</v>
       </c>
       <c r="L62" s="101" t="str">
-        <f>Namespace &amp; $G62</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/licenseIdentifierScheme</v>
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H62, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifierScheme</v>
       </c>
       <c r="M62" s="102" t="s">
         <v>142</v>
@@ -6161,2419 +6193,2432 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="428"/>
-      <c r="B63" s="649"/>
-      <c r="C63" s="649"/>
-      <c r="D63" s="649"/>
-      <c r="E63" s="734"/>
-      <c r="F63" s="733"/>
-      <c r="G63" s="290" t="s">
+      <c r="A63" s="423"/>
+      <c r="B63" s="553"/>
+      <c r="C63" s="553"/>
+      <c r="D63" s="553"/>
+      <c r="E63" s="550"/>
+      <c r="F63" s="547"/>
+      <c r="G63" s="285" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="290" t="s">
-        <v>343</v>
-      </c>
-      <c r="I63" s="291" t="s">
+      <c r="H63" s="285" t="s">
+        <v>522</v>
+      </c>
+      <c r="I63" s="286" t="s">
+        <v>381</v>
+      </c>
+      <c r="J63" s="287">
+        <v>1</v>
+      </c>
+      <c r="K63" s="288" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="288" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H63, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifierSchemeIRI</v>
+      </c>
+      <c r="M63" s="289" t="s">
+        <v>142</v>
+      </c>
+      <c r="N63" s="290" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="424"/>
+      <c r="B64" s="295"/>
+      <c r="C64" s="296"/>
+      <c r="D64" s="296"/>
+      <c r="E64" s="297"/>
+      <c r="F64" s="298"/>
+      <c r="G64" s="267" t="s">
+        <v>140</v>
+      </c>
+      <c r="H64" s="267" t="s">
+        <v>342</v>
+      </c>
+      <c r="I64" s="268" t="s">
+        <v>480</v>
+      </c>
+      <c r="J64" s="269" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64" s="270" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64" s="270" t="s">
+        <v>141</v>
+      </c>
+      <c r="M64" s="271" t="s">
+        <v>142</v>
+      </c>
+      <c r="N64" s="272"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="734" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="734"/>
+      <c r="C65" s="734"/>
+      <c r="D65" s="643" t="s">
+        <v>517</v>
+      </c>
+      <c r="E65" s="644" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" s="643" t="str">
+        <f>Namespace &amp; "has" &amp; ($A65) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDateInfo</v>
+      </c>
+      <c r="G65" s="299" t="s">
+        <v>152</v>
+      </c>
+      <c r="H65" s="299" t="s">
+        <v>344</v>
+      </c>
+      <c r="I65" s="300" t="s">
+        <v>153</v>
+      </c>
+      <c r="J65" s="301">
+        <v>1</v>
+      </c>
+      <c r="K65" s="302"/>
+      <c r="L65" s="302" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H65, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDatasetDate</v>
+      </c>
+      <c r="M65" s="303" t="s">
+        <v>28</v>
+      </c>
+      <c r="N65" s="303"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="735"/>
+      <c r="B66" s="735"/>
+      <c r="C66" s="735"/>
+      <c r="D66" s="736"/>
+      <c r="E66" s="737"/>
+      <c r="F66" s="736"/>
+      <c r="G66" s="738" t="s">
+        <v>484</v>
+      </c>
+      <c r="H66" s="738" t="s">
+        <v>485</v>
+      </c>
+      <c r="I66" s="739" t="s">
+        <v>486</v>
+      </c>
+      <c r="J66" s="740">
+        <v>1</v>
+      </c>
+      <c r="K66" s="741"/>
+      <c r="L66" s="741" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H66, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDatasetDateType</v>
+      </c>
+      <c r="M66" s="742" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N66" s="742" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="664" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="664"/>
+      <c r="C67" s="664"/>
+      <c r="D67" s="669" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="360" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="361" t="str">
+        <f>Namespace &amp; "has" &amp; ($A67) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionInfo</v>
+      </c>
+      <c r="G67" s="362"/>
+      <c r="H67" s="362"/>
+      <c r="I67" s="363"/>
+      <c r="J67" s="364"/>
+      <c r="K67" s="365"/>
+      <c r="L67" s="365"/>
+      <c r="M67" s="366"/>
+      <c r="N67" s="366"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="367"/>
+      <c r="B68" s="641"/>
+      <c r="C68" s="641"/>
+      <c r="D68" s="670"/>
+      <c r="E68" s="311"/>
+      <c r="F68" s="312"/>
+      <c r="G68" s="313" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" s="313" t="s">
+        <v>346</v>
+      </c>
+      <c r="I68" s="314" t="s">
+        <v>156</v>
+      </c>
+      <c r="J68" s="315">
+        <v>1</v>
+      </c>
+      <c r="K68" s="316" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H68, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionIdentifier</v>
+      </c>
+      <c r="M68" s="313" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N68" s="313" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="367"/>
+      <c r="B69" s="368"/>
+      <c r="C69" s="317"/>
+      <c r="D69" s="670"/>
+      <c r="E69" s="319"/>
+      <c r="F69" s="312"/>
+      <c r="G69" s="313" t="s">
+        <v>157</v>
+      </c>
+      <c r="H69" s="313" t="s">
+        <v>345</v>
+      </c>
+      <c r="I69" s="314" t="s">
+        <v>158</v>
+      </c>
+      <c r="J69" s="315">
+        <v>1</v>
+      </c>
+      <c r="K69" s="316" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H69, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionIdentifierType</v>
+      </c>
+      <c r="M69" s="313" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N69" s="313" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="367"/>
+      <c r="B70" s="368"/>
+      <c r="C70" s="317"/>
+      <c r="D70" s="670"/>
+      <c r="E70" s="320"/>
+      <c r="F70" s="312"/>
+      <c r="G70" s="305" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70" s="305" t="s">
+        <v>347</v>
+      </c>
+      <c r="I70" s="306" t="s">
+        <v>442</v>
+      </c>
+      <c r="J70" s="307">
+        <v>1</v>
+      </c>
+      <c r="K70" s="308" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="308" t="s">
+        <v>441</v>
+      </c>
+      <c r="M70" s="309" t="s">
+        <v>500</v>
+      </c>
+      <c r="N70" s="309" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="367"/>
+      <c r="B71" s="368"/>
+      <c r="C71" s="317"/>
+      <c r="D71" s="670"/>
+      <c r="E71" s="320"/>
+      <c r="F71" s="312"/>
+      <c r="G71" s="305" t="s">
+        <v>443</v>
+      </c>
+      <c r="H71" s="305" t="s">
+        <v>444</v>
+      </c>
+      <c r="I71" s="306" t="s">
+        <v>445</v>
+      </c>
+      <c r="J71" s="307">
+        <v>1</v>
+      </c>
+      <c r="K71" s="308" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H71, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionMediaType</v>
+      </c>
+      <c r="M71" s="309" t="s">
+        <v>519</v>
+      </c>
+      <c r="N71" s="309" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="367"/>
+      <c r="B72" s="368"/>
+      <c r="C72" s="317"/>
+      <c r="D72" s="670"/>
+      <c r="E72" s="319"/>
+      <c r="F72" s="312"/>
+      <c r="G72" s="305" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72" s="305" t="s">
+        <v>349</v>
+      </c>
+      <c r="I72" s="306" t="s">
+        <v>162</v>
+      </c>
+      <c r="J72" s="307">
+        <v>1</v>
+      </c>
+      <c r="K72" s="308" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H72, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionSize</v>
+      </c>
+      <c r="M72" s="309" t="s">
+        <v>28</v>
+      </c>
+      <c r="N72" s="309" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="367"/>
+      <c r="B73" s="635" t="s">
+        <v>488</v>
+      </c>
+      <c r="C73" s="635"/>
+      <c r="D73" s="648" t="s">
+        <v>489</v>
+      </c>
+      <c r="E73" s="628">
+        <v>1</v>
+      </c>
+      <c r="F73" s="645"/>
+      <c r="G73" s="321" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" s="321" t="s">
+        <v>348</v>
+      </c>
+      <c r="I73" s="322" t="s">
+        <v>446</v>
+      </c>
+      <c r="J73" s="323">
+        <v>1</v>
+      </c>
+      <c r="K73" s="324" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" s="743" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H73, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionAccessProtocol</v>
+      </c>
+      <c r="M73" s="325" t="s">
+        <v>194</v>
+      </c>
+      <c r="N73" s="325" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="367"/>
+      <c r="B74" s="636"/>
+      <c r="C74" s="636"/>
+      <c r="D74" s="649"/>
+      <c r="E74" s="629"/>
+      <c r="F74" s="646"/>
+      <c r="G74" s="305" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74" s="305" t="s">
+        <v>350</v>
+      </c>
+      <c r="I74" s="306" t="s">
+        <v>449</v>
+      </c>
+      <c r="J74" s="307" t="s">
+        <v>54</v>
+      </c>
+      <c r="K74" s="308" t="s">
+        <v>36</v>
+      </c>
+      <c r="L74" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H74, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionAccessConfiguration</v>
+      </c>
+      <c r="M74" s="309" t="s">
+        <v>28</v>
+      </c>
+      <c r="N74" s="309" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="367"/>
+      <c r="B75" s="637"/>
+      <c r="C75" s="637"/>
+      <c r="D75" s="650"/>
+      <c r="E75" s="630"/>
+      <c r="F75" s="647"/>
+      <c r="G75" s="326" t="s">
+        <v>447</v>
+      </c>
+      <c r="H75" s="326" t="s">
+        <v>448</v>
+      </c>
+      <c r="I75" s="327" t="s">
+        <v>409</v>
+      </c>
+      <c r="J75" s="328" t="s">
+        <v>54</v>
+      </c>
+      <c r="K75" s="329" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" s="744" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H75, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionQueryStatement</v>
+      </c>
+      <c r="M75" s="330" t="s">
+        <v>28</v>
+      </c>
+      <c r="N75" s="330" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="367"/>
+      <c r="B76" s="368"/>
+      <c r="C76" s="317"/>
+      <c r="D76" s="318"/>
+      <c r="E76" s="319"/>
+      <c r="F76" s="312"/>
+      <c r="G76" s="304" t="s">
+        <v>165</v>
+      </c>
+      <c r="H76" s="305" t="s">
+        <v>351</v>
+      </c>
+      <c r="I76" s="306" t="s">
+        <v>410</v>
+      </c>
+      <c r="J76" s="307">
+        <v>1</v>
+      </c>
+      <c r="K76" s="308" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H76, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionDate</v>
+      </c>
+      <c r="M76" s="309" t="s">
+        <v>28</v>
+      </c>
+      <c r="N76" s="309"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="367"/>
+      <c r="B77" s="642" t="s">
+        <v>490</v>
+      </c>
+      <c r="C77" s="642"/>
+      <c r="D77" s="353" t="s">
+        <v>491</v>
+      </c>
+      <c r="E77" s="354" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="355" t="str">
+        <f>Namespace &amp; "has" &amp; ($B77) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorInfo</v>
+      </c>
+      <c r="G77" s="356"/>
+      <c r="H77" s="356"/>
+      <c r="I77" s="357"/>
+      <c r="J77" s="358"/>
+      <c r="K77" s="359"/>
+      <c r="L77" s="359"/>
+      <c r="M77" s="356"/>
+      <c r="N77" s="356"/>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="367"/>
+      <c r="B78" s="634"/>
+      <c r="C78" s="635" t="s">
+        <v>492</v>
+      </c>
+      <c r="D78" s="635" t="s">
+        <v>493</v>
+      </c>
+      <c r="E78" s="628">
+        <v>1</v>
+      </c>
+      <c r="F78" s="638" t="str">
+        <f>Namespace &amp; "has" &amp; ($C78) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorNameInfo</v>
+      </c>
+      <c r="G78" s="331" t="s">
+        <v>174</v>
+      </c>
+      <c r="H78" s="331" t="s">
+        <v>355</v>
+      </c>
+      <c r="I78" s="332" t="s">
+        <v>176</v>
+      </c>
+      <c r="J78" s="333">
+        <v>1</v>
+      </c>
+      <c r="K78" s="334" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="334" t="s">
+        <v>175</v>
+      </c>
+      <c r="M78" s="331" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" s="331" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="367"/>
+      <c r="B79" s="634"/>
+      <c r="C79" s="636"/>
+      <c r="D79" s="636"/>
+      <c r="E79" s="629"/>
+      <c r="F79" s="639"/>
+      <c r="G79" s="349" t="s">
+        <v>170</v>
+      </c>
+      <c r="H79" s="349" t="s">
+        <v>354</v>
+      </c>
+      <c r="I79" s="350" t="s">
+        <v>171</v>
+      </c>
+      <c r="J79" s="351" t="s">
+        <v>34</v>
+      </c>
+      <c r="K79" s="352" t="s">
+        <v>36</v>
+      </c>
+      <c r="L79" s="352" t="s">
+        <v>80</v>
+      </c>
+      <c r="M79" s="349" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" s="349" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="367"/>
+      <c r="B80" s="634"/>
+      <c r="C80" s="637"/>
+      <c r="D80" s="637"/>
+      <c r="E80" s="630"/>
+      <c r="F80" s="640"/>
+      <c r="G80" s="335" t="s">
+        <v>172</v>
+      </c>
+      <c r="H80" s="335" t="s">
+        <v>494</v>
+      </c>
+      <c r="I80" s="336" t="s">
+        <v>173</v>
+      </c>
+      <c r="J80" s="337" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="338" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" s="338" t="s">
+        <v>83</v>
+      </c>
+      <c r="M80" s="335" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" s="335" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="367"/>
+      <c r="B81" s="634"/>
+      <c r="C81" s="635" t="s">
+        <v>495</v>
+      </c>
+      <c r="D81" s="635" t="s">
+        <v>496</v>
+      </c>
+      <c r="E81" s="628">
+        <v>1</v>
+      </c>
+      <c r="F81" s="638" t="str">
+        <f>Namespace &amp; "has" &amp; ($C81) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifierInfo</v>
+      </c>
+      <c r="G81" s="331" t="s">
+        <v>179</v>
+      </c>
+      <c r="H81" s="331" t="s">
+        <v>357</v>
+      </c>
+      <c r="I81" s="332" t="s">
+        <v>180</v>
+      </c>
+      <c r="J81" s="333">
+        <v>1</v>
+      </c>
+      <c r="K81" s="334" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="743" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H81, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifier</v>
+      </c>
+      <c r="M81" s="331" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" s="331" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="367"/>
+      <c r="B82" s="634"/>
+      <c r="C82" s="636"/>
+      <c r="D82" s="636"/>
+      <c r="E82" s="629"/>
+      <c r="F82" s="639"/>
+      <c r="G82" s="349" t="s">
+        <v>181</v>
+      </c>
+      <c r="H82" s="349" t="s">
+        <v>358</v>
+      </c>
+      <c r="I82" s="350" t="s">
         <v>383</v>
       </c>
-      <c r="J63" s="292">
+      <c r="J82" s="351">
         <v>1</v>
       </c>
-      <c r="K63" s="293" t="s">
+      <c r="K82" s="352" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H82, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifierScheme</v>
+      </c>
+      <c r="M82" s="369" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N82" s="349" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="367"/>
+      <c r="B83" s="634"/>
+      <c r="C83" s="637"/>
+      <c r="D83" s="637"/>
+      <c r="E83" s="630"/>
+      <c r="F83" s="640"/>
+      <c r="G83" s="335" t="s">
+        <v>182</v>
+      </c>
+      <c r="H83" s="335" t="s">
+        <v>359</v>
+      </c>
+      <c r="I83" s="336" t="s">
+        <v>382</v>
+      </c>
+      <c r="J83" s="337">
+        <v>1</v>
+      </c>
+      <c r="K83" s="338" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" s="744" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H83, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifierSchemeIRI</v>
+      </c>
+      <c r="M83" s="339" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N83" s="335" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="367"/>
+      <c r="B84" s="634"/>
+      <c r="C84" s="635" t="s">
+        <v>497</v>
+      </c>
+      <c r="D84" s="635" t="s">
+        <v>498</v>
+      </c>
+      <c r="E84" s="628" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="631" t="str">
+        <f>Namespace &amp; "has" &amp; ($C84) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationInfo</v>
+      </c>
+      <c r="G84" s="331" t="s">
+        <v>183</v>
+      </c>
+      <c r="H84" s="331" t="s">
+        <v>360</v>
+      </c>
+      <c r="I84" s="332" t="s">
+        <v>184</v>
+      </c>
+      <c r="J84" s="333" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="334" t="s">
         <v>36</v>
       </c>
-      <c r="L63" s="293" t="str">
-        <f>Namespace &amp; $G63</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/licenseIdentifierSchemeIRI</v>
-      </c>
-      <c r="M63" s="294" t="s">
-        <v>142</v>
-      </c>
-      <c r="N63" s="295" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="429"/>
-      <c r="B64" s="300"/>
-      <c r="C64" s="301"/>
-      <c r="D64" s="301"/>
-      <c r="E64" s="302"/>
-      <c r="F64" s="303"/>
-      <c r="G64" s="272" t="s">
-        <v>140</v>
-      </c>
-      <c r="H64" s="272" t="s">
-        <v>344</v>
-      </c>
-      <c r="I64" s="273" t="s">
-        <v>482</v>
-      </c>
-      <c r="J64" s="274" t="s">
+      <c r="L84" s="743" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H84, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliation</v>
+      </c>
+      <c r="M84" s="331" t="s">
+        <v>28</v>
+      </c>
+      <c r="N84" s="349" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="367"/>
+      <c r="B85" s="634"/>
+      <c r="C85" s="636"/>
+      <c r="D85" s="636"/>
+      <c r="E85" s="629"/>
+      <c r="F85" s="632"/>
+      <c r="G85" s="349" t="s">
+        <v>185</v>
+      </c>
+      <c r="H85" s="349" t="s">
+        <v>361</v>
+      </c>
+      <c r="I85" s="350" t="s">
+        <v>186</v>
+      </c>
+      <c r="J85" s="351" t="s">
         <v>46</v>
       </c>
-      <c r="K64" s="275" t="s">
+      <c r="K85" s="352" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H85, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationIdentifier</v>
+      </c>
+      <c r="M85" s="349" t="s">
+        <v>28</v>
+      </c>
+      <c r="N85" s="349" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="367"/>
+      <c r="B86" s="634"/>
+      <c r="C86" s="636"/>
+      <c r="D86" s="636"/>
+      <c r="E86" s="629"/>
+      <c r="F86" s="632"/>
+      <c r="G86" s="349" t="s">
+        <v>187</v>
+      </c>
+      <c r="H86" s="349" t="s">
+        <v>362</v>
+      </c>
+      <c r="I86" s="350" t="s">
+        <v>384</v>
+      </c>
+      <c r="J86" s="351" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86" s="352" t="s">
+        <v>36</v>
+      </c>
+      <c r="L86" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H86, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationIdentifierScheme</v>
+      </c>
+      <c r="M86" s="369" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N86" s="349" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="367"/>
+      <c r="B87" s="634"/>
+      <c r="C87" s="637"/>
+      <c r="D87" s="637"/>
+      <c r="E87" s="630"/>
+      <c r="F87" s="633"/>
+      <c r="G87" s="335" t="s">
+        <v>188</v>
+      </c>
+      <c r="H87" s="335" t="s">
+        <v>363</v>
+      </c>
+      <c r="I87" s="336" t="s">
+        <v>385</v>
+      </c>
+      <c r="J87" s="337" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" s="338" t="s">
+        <v>36</v>
+      </c>
+      <c r="L87" s="744" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H87, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationIdentifierSchemeIRI</v>
+      </c>
+      <c r="M87" s="339" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N87" s="335" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="367"/>
+      <c r="B88" s="370"/>
+      <c r="C88" s="317"/>
+      <c r="D88" s="317"/>
+      <c r="E88" s="319"/>
+      <c r="F88" s="371"/>
+      <c r="G88" s="349" t="s">
+        <v>177</v>
+      </c>
+      <c r="H88" s="349" t="s">
+        <v>356</v>
+      </c>
+      <c r="I88" s="350" t="s">
+        <v>178</v>
+      </c>
+      <c r="J88" s="351" t="s">
+        <v>34</v>
+      </c>
+      <c r="K88" s="352" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" s="352" t="s">
+        <v>89</v>
+      </c>
+      <c r="M88" s="349" t="s">
+        <v>28</v>
+      </c>
+      <c r="N88" s="349" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="367"/>
+      <c r="B89" s="370"/>
+      <c r="C89" s="372"/>
+      <c r="D89" s="372"/>
+      <c r="E89" s="373"/>
+      <c r="F89" s="371"/>
+      <c r="G89" s="349" t="s">
+        <v>166</v>
+      </c>
+      <c r="H89" s="349" t="s">
+        <v>352</v>
+      </c>
+      <c r="I89" s="350" t="s">
+        <v>167</v>
+      </c>
+      <c r="J89" s="351" t="s">
+        <v>34</v>
+      </c>
+      <c r="K89" s="352" t="s">
         <v>68</v>
       </c>
-      <c r="L64" s="275" t="s">
-        <v>141</v>
-      </c>
-      <c r="M64" s="276" t="s">
-        <v>142</v>
-      </c>
-      <c r="N64" s="277"/>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="650" t="s">
-        <v>151</v>
-      </c>
-      <c r="B65" s="650"/>
-      <c r="C65" s="650"/>
-      <c r="D65" s="638" t="s">
-        <v>519</v>
-      </c>
-      <c r="E65" s="640" t="s">
-        <v>54</v>
-      </c>
-      <c r="F65" s="638" t="str">
-        <f>Namespace &amp; ($A65) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DateInfo</v>
-      </c>
-      <c r="G65" s="304" t="s">
-        <v>152</v>
-      </c>
-      <c r="H65" s="304" t="s">
-        <v>346</v>
-      </c>
-      <c r="I65" s="305" t="s">
-        <v>153</v>
-      </c>
-      <c r="J65" s="306">
+      <c r="L89" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H89, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorRole</v>
+      </c>
+      <c r="M89" s="369" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N89" s="349" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="374"/>
+      <c r="B90" s="340"/>
+      <c r="C90" s="341"/>
+      <c r="D90" s="341"/>
+      <c r="E90" s="342"/>
+      <c r="F90" s="343"/>
+      <c r="G90" s="344" t="s">
+        <v>168</v>
+      </c>
+      <c r="H90" s="344" t="s">
+        <v>353</v>
+      </c>
+      <c r="I90" s="345" t="s">
+        <v>169</v>
+      </c>
+      <c r="J90" s="346">
         <v>1</v>
       </c>
-      <c r="K65" s="307"/>
-      <c r="L65" s="307" t="str">
-        <f t="shared" ref="L65:L69" si="2">Namespace &amp; $G65</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/datasetDate</v>
-      </c>
-      <c r="M65" s="308"/>
-      <c r="N65" s="308"/>
-    </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="650"/>
-      <c r="B66" s="650"/>
-      <c r="C66" s="650"/>
-      <c r="D66" s="639"/>
-      <c r="E66" s="641"/>
-      <c r="F66" s="639"/>
-      <c r="G66" s="105" t="s">
-        <v>486</v>
-      </c>
-      <c r="H66" s="105" t="s">
-        <v>487</v>
-      </c>
-      <c r="I66" s="106" t="s">
-        <v>488</v>
-      </c>
-      <c r="J66" s="107">
-        <v>1</v>
-      </c>
-      <c r="K66" s="108"/>
-      <c r="L66" s="108" t="str">
-        <f t="shared" si="2"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/datasetDateType</v>
-      </c>
-      <c r="M66" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="109" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="651" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="651"/>
-      <c r="C67" s="651"/>
-      <c r="D67" s="659" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="365" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="366" t="str">
-        <f>Namespace &amp; ($A67) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributionInfo</v>
-      </c>
-      <c r="G67" s="367"/>
-      <c r="H67" s="367"/>
-      <c r="I67" s="368"/>
-      <c r="J67" s="369"/>
-      <c r="K67" s="370"/>
-      <c r="L67" s="370"/>
-      <c r="M67" s="371"/>
-      <c r="N67" s="371"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="372"/>
-      <c r="B68" s="636"/>
-      <c r="C68" s="636"/>
-      <c r="D68" s="660"/>
-      <c r="E68" s="316"/>
-      <c r="F68" s="317"/>
-      <c r="G68" s="318" t="s">
-        <v>155</v>
-      </c>
-      <c r="H68" s="318" t="s">
-        <v>348</v>
-      </c>
-      <c r="I68" s="319" t="s">
-        <v>156</v>
-      </c>
-      <c r="J68" s="320">
-        <v>1</v>
-      </c>
-      <c r="K68" s="321" t="s">
+      <c r="K90" s="347" t="s">
         <v>20</v>
       </c>
-      <c r="L68" s="321" t="str">
-        <f t="shared" si="2"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionIdentifier</v>
-      </c>
-      <c r="M68" s="318" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" s="318" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="372"/>
-      <c r="B69" s="373"/>
-      <c r="C69" s="322"/>
-      <c r="D69" s="660"/>
-      <c r="E69" s="324"/>
-      <c r="F69" s="317"/>
-      <c r="G69" s="318" t="s">
-        <v>157</v>
-      </c>
-      <c r="H69" s="318" t="s">
-        <v>347</v>
-      </c>
-      <c r="I69" s="319" t="s">
-        <v>158</v>
-      </c>
-      <c r="J69" s="320">
-        <v>1</v>
-      </c>
-      <c r="K69" s="321" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" s="321" t="str">
-        <f t="shared" si="2"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionIdentifierType</v>
-      </c>
-      <c r="M69" s="318" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="318" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="372"/>
-      <c r="B70" s="373"/>
-      <c r="C70" s="322"/>
-      <c r="D70" s="660"/>
-      <c r="E70" s="325"/>
-      <c r="F70" s="317"/>
-      <c r="G70" s="310" t="s">
-        <v>160</v>
-      </c>
-      <c r="H70" s="310" t="s">
-        <v>349</v>
-      </c>
-      <c r="I70" s="311" t="s">
-        <v>444</v>
-      </c>
-      <c r="J70" s="312">
-        <v>1</v>
-      </c>
-      <c r="K70" s="313" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="313" t="s">
-        <v>443</v>
-      </c>
-      <c r="M70" s="314" t="s">
-        <v>502</v>
-      </c>
-      <c r="N70" s="314" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="372"/>
-      <c r="B71" s="373"/>
-      <c r="C71" s="322"/>
-      <c r="D71" s="660"/>
-      <c r="E71" s="325"/>
-      <c r="F71" s="317"/>
-      <c r="G71" s="310" t="s">
-        <v>445</v>
-      </c>
-      <c r="H71" s="310" t="s">
-        <v>446</v>
-      </c>
-      <c r="I71" s="311" t="s">
-        <v>447</v>
-      </c>
-      <c r="J71" s="312">
-        <v>1</v>
-      </c>
-      <c r="K71" s="313" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" s="313" t="str">
-        <f t="shared" ref="L71:L76" si="3">Namespace &amp; $G71</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionMediaType</v>
-      </c>
-      <c r="M71" s="314" t="s">
-        <v>522</v>
-      </c>
-      <c r="N71" s="314" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="372"/>
-      <c r="B72" s="373"/>
-      <c r="C72" s="322"/>
-      <c r="D72" s="661"/>
-      <c r="E72" s="324"/>
-      <c r="F72" s="317"/>
-      <c r="G72" s="310" t="s">
-        <v>161</v>
-      </c>
-      <c r="H72" s="310" t="s">
-        <v>351</v>
-      </c>
-      <c r="I72" s="311" t="s">
-        <v>162</v>
-      </c>
-      <c r="J72" s="312">
-        <v>1</v>
-      </c>
-      <c r="K72" s="313" t="s">
-        <v>36</v>
-      </c>
-      <c r="L72" s="313" t="str">
-        <f t="shared" si="3"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionSize</v>
-      </c>
-      <c r="M72" s="314" t="s">
-        <v>28</v>
-      </c>
-      <c r="N72" s="314" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="372"/>
-      <c r="B73" s="621" t="s">
-        <v>490</v>
-      </c>
-      <c r="C73" s="621"/>
-      <c r="D73" s="645" t="s">
-        <v>491</v>
-      </c>
-      <c r="E73" s="624">
-        <v>1</v>
-      </c>
-      <c r="F73" s="642"/>
-      <c r="G73" s="326" t="s">
-        <v>163</v>
-      </c>
-      <c r="H73" s="326" t="s">
-        <v>350</v>
-      </c>
-      <c r="I73" s="327" t="s">
-        <v>448</v>
-      </c>
-      <c r="J73" s="328">
-        <v>1</v>
-      </c>
-      <c r="K73" s="329" t="s">
-        <v>36</v>
-      </c>
-      <c r="L73" s="329" t="str">
-        <f t="shared" si="3"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionAccessProtocol</v>
-      </c>
-      <c r="M73" s="330" t="s">
-        <v>194</v>
-      </c>
-      <c r="N73" s="330" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="372"/>
-      <c r="B74" s="622"/>
-      <c r="C74" s="622"/>
-      <c r="D74" s="646"/>
-      <c r="E74" s="625"/>
-      <c r="F74" s="643"/>
-      <c r="G74" s="310" t="s">
-        <v>164</v>
-      </c>
-      <c r="H74" s="310" t="s">
-        <v>352</v>
-      </c>
-      <c r="I74" s="311" t="s">
-        <v>451</v>
-      </c>
-      <c r="J74" s="312" t="s">
-        <v>54</v>
-      </c>
-      <c r="K74" s="313" t="s">
-        <v>36</v>
-      </c>
-      <c r="L74" s="313" t="str">
-        <f t="shared" si="3"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionAccessConfiguration</v>
-      </c>
-      <c r="M74" s="314" t="s">
-        <v>28</v>
-      </c>
-      <c r="N74" s="314" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="372"/>
-      <c r="B75" s="623"/>
-      <c r="C75" s="623"/>
-      <c r="D75" s="647"/>
-      <c r="E75" s="626"/>
-      <c r="F75" s="644"/>
-      <c r="G75" s="331" t="s">
-        <v>449</v>
-      </c>
-      <c r="H75" s="331" t="s">
-        <v>450</v>
-      </c>
-      <c r="I75" s="332" t="s">
-        <v>411</v>
-      </c>
-      <c r="J75" s="333" t="s">
-        <v>54</v>
-      </c>
-      <c r="K75" s="334" t="s">
-        <v>36</v>
-      </c>
-      <c r="L75" s="334" t="str">
-        <f t="shared" si="3"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionQueryStatement</v>
-      </c>
-      <c r="M75" s="335" t="s">
-        <v>28</v>
-      </c>
-      <c r="N75" s="335" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="372"/>
-      <c r="B76" s="373"/>
-      <c r="C76" s="322"/>
-      <c r="D76" s="323"/>
-      <c r="E76" s="324"/>
-      <c r="F76" s="317"/>
-      <c r="G76" s="309" t="s">
-        <v>165</v>
-      </c>
-      <c r="H76" s="310" t="s">
-        <v>353</v>
-      </c>
-      <c r="I76" s="311" t="s">
-        <v>412</v>
-      </c>
-      <c r="J76" s="312">
-        <v>1</v>
-      </c>
-      <c r="K76" s="313" t="s">
-        <v>20</v>
-      </c>
-      <c r="L76" s="313" t="str">
-        <f t="shared" si="3"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributionDate</v>
-      </c>
-      <c r="M76" s="314"/>
-      <c r="N76" s="314"/>
-    </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="372"/>
-      <c r="B77" s="637" t="s">
-        <v>492</v>
-      </c>
-      <c r="C77" s="637"/>
-      <c r="D77" s="358" t="s">
-        <v>493</v>
-      </c>
-      <c r="E77" s="359" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="360" t="str">
-        <f>Namespace &amp; ($B77) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributorInfo</v>
-      </c>
-      <c r="G77" s="361"/>
-      <c r="H77" s="361"/>
-      <c r="I77" s="362"/>
-      <c r="J77" s="363"/>
-      <c r="K77" s="364"/>
-      <c r="L77" s="364"/>
-      <c r="M77" s="361"/>
-      <c r="N77" s="361"/>
-    </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="372"/>
-      <c r="B78" s="620"/>
-      <c r="C78" s="621" t="s">
-        <v>494</v>
-      </c>
-      <c r="D78" s="621" t="s">
-        <v>495</v>
-      </c>
-      <c r="E78" s="624">
-        <v>1</v>
-      </c>
-      <c r="F78" s="630" t="str">
-        <f>Namespace &amp; ($C78) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributorNameInfo</v>
-      </c>
-      <c r="G78" s="336" t="s">
-        <v>174</v>
-      </c>
-      <c r="H78" s="336" t="s">
-        <v>357</v>
-      </c>
-      <c r="I78" s="337" t="s">
-        <v>176</v>
-      </c>
-      <c r="J78" s="338">
-        <v>1</v>
-      </c>
-      <c r="K78" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="L78" s="339" t="s">
-        <v>175</v>
-      </c>
-      <c r="M78" s="336" t="s">
-        <v>28</v>
-      </c>
-      <c r="N78" s="336" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="372"/>
-      <c r="B79" s="620"/>
-      <c r="C79" s="622"/>
-      <c r="D79" s="622"/>
-      <c r="E79" s="625"/>
-      <c r="F79" s="631"/>
-      <c r="G79" s="354" t="s">
-        <v>170</v>
-      </c>
-      <c r="H79" s="354" t="s">
-        <v>356</v>
-      </c>
-      <c r="I79" s="355" t="s">
-        <v>171</v>
-      </c>
-      <c r="J79" s="356" t="s">
-        <v>34</v>
-      </c>
-      <c r="K79" s="357" t="s">
-        <v>36</v>
-      </c>
-      <c r="L79" s="357" t="s">
-        <v>80</v>
-      </c>
-      <c r="M79" s="354" t="s">
-        <v>28</v>
-      </c>
-      <c r="N79" s="354" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="372"/>
-      <c r="B80" s="620"/>
-      <c r="C80" s="623"/>
-      <c r="D80" s="623"/>
-      <c r="E80" s="626"/>
-      <c r="F80" s="632"/>
-      <c r="G80" s="340" t="s">
-        <v>172</v>
-      </c>
-      <c r="H80" s="340" t="s">
-        <v>496</v>
-      </c>
-      <c r="I80" s="341" t="s">
-        <v>173</v>
-      </c>
-      <c r="J80" s="342" t="s">
-        <v>34</v>
-      </c>
-      <c r="K80" s="343" t="s">
-        <v>36</v>
-      </c>
-      <c r="L80" s="343" t="s">
-        <v>83</v>
-      </c>
-      <c r="M80" s="340" t="s">
-        <v>28</v>
-      </c>
-      <c r="N80" s="340" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="372"/>
-      <c r="B81" s="620"/>
-      <c r="C81" s="621" t="s">
-        <v>497</v>
-      </c>
-      <c r="D81" s="621" t="s">
-        <v>498</v>
-      </c>
-      <c r="E81" s="624">
-        <v>1</v>
-      </c>
-      <c r="F81" s="630" t="str">
-        <f>Namespace &amp; ($C81) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributorIdentifierInfo</v>
-      </c>
-      <c r="G81" s="336" t="s">
-        <v>179</v>
-      </c>
-      <c r="H81" s="336" t="s">
-        <v>359</v>
-      </c>
-      <c r="I81" s="337" t="s">
-        <v>180</v>
-      </c>
-      <c r="J81" s="338">
-        <v>1</v>
-      </c>
-      <c r="K81" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" s="339" t="str">
-        <f t="shared" ref="L81:L87" si="4">Namespace &amp; $G81</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorIdentifier</v>
-      </c>
-      <c r="M81" s="336" t="s">
-        <v>28</v>
-      </c>
-      <c r="N81" s="336" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="372"/>
-      <c r="B82" s="620"/>
-      <c r="C82" s="622"/>
-      <c r="D82" s="622"/>
-      <c r="E82" s="625"/>
-      <c r="F82" s="631"/>
-      <c r="G82" s="354" t="s">
-        <v>181</v>
-      </c>
-      <c r="H82" s="354" t="s">
-        <v>360</v>
-      </c>
-      <c r="I82" s="355" t="s">
-        <v>385</v>
-      </c>
-      <c r="J82" s="356">
-        <v>1</v>
-      </c>
-      <c r="K82" s="357" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" s="357" t="str">
-        <f t="shared" si="4"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorIdentifierScheme</v>
-      </c>
-      <c r="M82" s="374" t="s">
-        <v>521</v>
-      </c>
-      <c r="N82" s="354" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="372"/>
-      <c r="B83" s="620"/>
-      <c r="C83" s="623"/>
-      <c r="D83" s="623"/>
-      <c r="E83" s="626"/>
-      <c r="F83" s="632"/>
-      <c r="G83" s="340" t="s">
-        <v>182</v>
-      </c>
-      <c r="H83" s="340" t="s">
-        <v>361</v>
-      </c>
-      <c r="I83" s="341" t="s">
-        <v>384</v>
-      </c>
-      <c r="J83" s="342">
-        <v>1</v>
-      </c>
-      <c r="K83" s="343" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" s="343" t="str">
-        <f t="shared" si="4"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorIdentifierSchemeIRI</v>
-      </c>
-      <c r="M83" s="344" t="s">
-        <v>521</v>
-      </c>
-      <c r="N83" s="340" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="372"/>
-      <c r="B84" s="620"/>
-      <c r="C84" s="621" t="s">
-        <v>499</v>
-      </c>
-      <c r="D84" s="621" t="s">
-        <v>500</v>
-      </c>
-      <c r="E84" s="624" t="s">
-        <v>54</v>
-      </c>
-      <c r="F84" s="627" t="str">
-        <f>Namespace &amp; ($C84) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DistributorAffiliationInfo</v>
-      </c>
-      <c r="G84" s="336" t="s">
-        <v>183</v>
-      </c>
-      <c r="H84" s="336" t="s">
-        <v>362</v>
-      </c>
-      <c r="I84" s="337" t="s">
-        <v>184</v>
-      </c>
-      <c r="J84" s="338" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84" s="339" t="s">
-        <v>36</v>
-      </c>
-      <c r="L84" s="339" t="str">
-        <f t="shared" si="4"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorAffiliation</v>
-      </c>
-      <c r="M84" s="336" t="s">
-        <v>28</v>
-      </c>
-      <c r="N84" s="354" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="372"/>
-      <c r="B85" s="620"/>
-      <c r="C85" s="622"/>
-      <c r="D85" s="622"/>
-      <c r="E85" s="625"/>
-      <c r="F85" s="628"/>
-      <c r="G85" s="354" t="s">
-        <v>185</v>
-      </c>
-      <c r="H85" s="354" t="s">
-        <v>363</v>
-      </c>
-      <c r="I85" s="355" t="s">
-        <v>186</v>
-      </c>
-      <c r="J85" s="356" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85" s="357" t="s">
-        <v>36</v>
-      </c>
-      <c r="L85" s="357" t="str">
-        <f t="shared" si="4"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorAffiliationIdentifier</v>
-      </c>
-      <c r="M85" s="354" t="s">
-        <v>28</v>
-      </c>
-      <c r="N85" s="354" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="372"/>
-      <c r="B86" s="620"/>
-      <c r="C86" s="622"/>
-      <c r="D86" s="622"/>
-      <c r="E86" s="625"/>
-      <c r="F86" s="628"/>
-      <c r="G86" s="354" t="s">
-        <v>187</v>
-      </c>
-      <c r="H86" s="354" t="s">
-        <v>364</v>
-      </c>
-      <c r="I86" s="355" t="s">
-        <v>386</v>
-      </c>
-      <c r="J86" s="356" t="s">
-        <v>46</v>
-      </c>
-      <c r="K86" s="357" t="s">
-        <v>36</v>
-      </c>
-      <c r="L86" s="357" t="str">
-        <f t="shared" si="4"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorAffiliationIdentifierScheme</v>
-      </c>
-      <c r="M86" s="374" t="s">
-        <v>521</v>
-      </c>
-      <c r="N86" s="354" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="372"/>
-      <c r="B87" s="620"/>
-      <c r="C87" s="623"/>
-      <c r="D87" s="623"/>
-      <c r="E87" s="626"/>
-      <c r="F87" s="629"/>
-      <c r="G87" s="340" t="s">
-        <v>188</v>
-      </c>
-      <c r="H87" s="340" t="s">
-        <v>365</v>
-      </c>
-      <c r="I87" s="341" t="s">
-        <v>387</v>
-      </c>
-      <c r="J87" s="342" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87" s="343" t="s">
-        <v>36</v>
-      </c>
-      <c r="L87" s="343" t="str">
-        <f t="shared" si="4"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorAffiliationIdentifierSchemeIRI</v>
-      </c>
-      <c r="M87" s="344" t="s">
-        <v>521</v>
-      </c>
-      <c r="N87" s="340" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="372"/>
-      <c r="B88" s="375"/>
-      <c r="C88" s="322"/>
-      <c r="D88" s="322"/>
-      <c r="E88" s="324"/>
-      <c r="F88" s="376"/>
-      <c r="G88" s="354" t="s">
-        <v>177</v>
-      </c>
-      <c r="H88" s="354" t="s">
-        <v>358</v>
-      </c>
-      <c r="I88" s="355" t="s">
-        <v>178</v>
-      </c>
-      <c r="J88" s="356" t="s">
-        <v>34</v>
-      </c>
-      <c r="K88" s="357" t="s">
-        <v>36</v>
-      </c>
-      <c r="L88" s="357" t="s">
-        <v>89</v>
-      </c>
-      <c r="M88" s="354" t="s">
-        <v>28</v>
-      </c>
-      <c r="N88" s="354" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="372"/>
-      <c r="B89" s="375"/>
-      <c r="C89" s="377"/>
-      <c r="D89" s="377"/>
-      <c r="E89" s="378"/>
-      <c r="F89" s="376"/>
-      <c r="G89" s="354" t="s">
-        <v>166</v>
-      </c>
-      <c r="H89" s="354" t="s">
-        <v>354</v>
-      </c>
-      <c r="I89" s="355" t="s">
-        <v>167</v>
-      </c>
-      <c r="J89" s="356" t="s">
-        <v>34</v>
-      </c>
-      <c r="K89" s="357" t="s">
-        <v>68</v>
-      </c>
-      <c r="L89" s="357" t="str">
-        <f>Namespace &amp; $G89</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorRole</v>
-      </c>
-      <c r="M89" s="374" t="s">
-        <v>521</v>
-      </c>
-      <c r="N89" s="354" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="379"/>
-      <c r="B90" s="345"/>
-      <c r="C90" s="346"/>
-      <c r="D90" s="346"/>
-      <c r="E90" s="347"/>
-      <c r="F90" s="348"/>
-      <c r="G90" s="349" t="s">
-        <v>168</v>
-      </c>
-      <c r="H90" s="349" t="s">
-        <v>355</v>
-      </c>
-      <c r="I90" s="350" t="s">
-        <v>169</v>
-      </c>
-      <c r="J90" s="351">
-        <v>1</v>
-      </c>
-      <c r="K90" s="352" t="s">
-        <v>20</v>
-      </c>
-      <c r="L90" s="352" t="str">
-        <f>Namespace &amp; $G90</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/distributorType</v>
-      </c>
-      <c r="M90" s="353" t="s">
-        <v>521</v>
-      </c>
-      <c r="N90" s="349" t="s">
+      <c r="L90" s="316" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H90, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorType</v>
+      </c>
+      <c r="M90" s="348" t="str">
+        <f>Namespace</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/</v>
+      </c>
+      <c r="N90" s="344" t="s">
         <v>76</v>
       </c>
       <c r="O90"/>
       <c r="P90"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="592" t="s">
+      <c r="A91" s="676" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="592"/>
-      <c r="C91" s="592"/>
-      <c r="D91" s="430" t="s">
-        <v>410</v>
-      </c>
-      <c r="E91" s="431" t="s">
+      <c r="B91" s="676"/>
+      <c r="C91" s="676"/>
+      <c r="D91" s="425" t="s">
+        <v>408</v>
+      </c>
+      <c r="E91" s="426" t="s">
         <v>46</v>
       </c>
-      <c r="F91" s="432" t="str">
-        <f>Namespace &amp; ($A91) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/ContentInfo</v>
-      </c>
-      <c r="G91" s="433"/>
-      <c r="H91" s="433"/>
-      <c r="I91" s="434"/>
-      <c r="J91" s="435"/>
-      <c r="K91" s="436"/>
-      <c r="L91" s="436"/>
-      <c r="M91" s="437"/>
-      <c r="N91" s="437"/>
+      <c r="F91" s="427" t="str">
+        <f>Namespace &amp; "has" &amp; ($A91) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasContentInfo</v>
+      </c>
+      <c r="G91" s="428"/>
+      <c r="H91" s="428"/>
+      <c r="I91" s="429"/>
+      <c r="J91" s="430"/>
+      <c r="K91" s="431"/>
+      <c r="L91" s="431"/>
+      <c r="M91" s="432"/>
+      <c r="N91" s="432"/>
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="426"/>
-      <c r="B92" s="593" t="s">
+      <c r="A92" s="421"/>
+      <c r="B92" s="677" t="s">
         <v>283</v>
       </c>
-      <c r="C92" s="593"/>
-      <c r="D92" s="593" t="s">
+      <c r="C92" s="677"/>
+      <c r="D92" s="677" t="s">
         <v>287</v>
       </c>
-      <c r="E92" s="604" t="s">
+      <c r="E92" s="688" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="694" t="str">
-        <f>Namespace &amp; ($B92) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DataStreamInfo</v>
-      </c>
-      <c r="G92" s="443" t="s">
+      <c r="F92" s="565" t="str">
+        <f>Namespace &amp; "has" &amp; ($B92) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamInfo</v>
+      </c>
+      <c r="G92" s="438" t="s">
         <v>284</v>
       </c>
-      <c r="H92" s="443" t="s">
+      <c r="H92" s="438" t="s">
         <v>296</v>
       </c>
-      <c r="I92" s="444" t="s">
+      <c r="I92" s="439" t="s">
         <v>190</v>
       </c>
-      <c r="J92" s="445">
+      <c r="J92" s="440">
         <v>1</v>
       </c>
-      <c r="K92" s="446" t="s">
+      <c r="K92" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="L92" s="446" t="str">
-        <f t="shared" ref="L92:L133" si="5">Namespace &amp; $G92</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/dataStream</v>
-      </c>
-      <c r="M92" s="447" t="s">
+      <c r="L92" s="441" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H92, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataStream</v>
+      </c>
+      <c r="M92" s="442" t="s">
+        <v>500</v>
+      </c>
+      <c r="N92" s="442" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="421"/>
+      <c r="B93" s="678"/>
+      <c r="C93" s="678"/>
+      <c r="D93" s="678"/>
+      <c r="E93" s="563"/>
+      <c r="F93" s="566"/>
+      <c r="G93" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="H93" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="I93" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="J93" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L93" s="108" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H93, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamIRI</v>
+      </c>
+      <c r="M93" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="N93" s="109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="421"/>
+      <c r="B94" s="678"/>
+      <c r="C94" s="678"/>
+      <c r="D94" s="678"/>
+      <c r="E94" s="563"/>
+      <c r="F94" s="566"/>
+      <c r="G94" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="H94" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="I94" s="110" t="s">
+        <v>386</v>
+      </c>
+      <c r="J94" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L94" s="108" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H94, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamScheme</v>
+      </c>
+      <c r="M94" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="N94" s="109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="421"/>
+      <c r="B95" s="679"/>
+      <c r="C95" s="679"/>
+      <c r="D95" s="679"/>
+      <c r="E95" s="689"/>
+      <c r="F95" s="567"/>
+      <c r="G95" s="443" t="s">
+        <v>286</v>
+      </c>
+      <c r="H95" s="443" t="s">
+        <v>299</v>
+      </c>
+      <c r="I95" s="444" t="s">
+        <v>387</v>
+      </c>
+      <c r="J95" s="447" t="s">
+        <v>46</v>
+      </c>
+      <c r="K95" s="445" t="s">
+        <v>68</v>
+      </c>
+      <c r="L95" s="445" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H95, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamSchemeIRI</v>
+      </c>
+      <c r="M95" s="446" t="s">
+        <v>500</v>
+      </c>
+      <c r="N95" s="446" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="421"/>
+      <c r="B96" s="683"/>
+      <c r="C96" s="677" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="677" t="s">
+        <v>366</v>
+      </c>
+      <c r="E96" s="688">
+        <v>1</v>
+      </c>
+      <c r="F96" s="565" t="str">
+        <f>Namespace &amp; "has" &amp; ($C96) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceInfo</v>
+      </c>
+      <c r="G96" s="438" t="s">
+        <v>192</v>
+      </c>
+      <c r="H96" s="438" t="s">
+        <v>300</v>
+      </c>
+      <c r="I96" s="439" t="s">
+        <v>193</v>
+      </c>
+      <c r="J96" s="440">
+        <v>1</v>
+      </c>
+      <c r="K96" s="441" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="441" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H96, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataSource</v>
+      </c>
+      <c r="M96" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="N96" s="442" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="421"/>
+      <c r="B97" s="683"/>
+      <c r="C97" s="678"/>
+      <c r="D97" s="678"/>
+      <c r="E97" s="563"/>
+      <c r="F97" s="566"/>
+      <c r="G97" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="H97" s="105" t="s">
+        <v>301</v>
+      </c>
+      <c r="I97" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="J97" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K97" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="108" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H97, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceIRI</v>
+      </c>
+      <c r="M97" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="N97" s="109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="421"/>
+      <c r="B98" s="683"/>
+      <c r="C98" s="678"/>
+      <c r="D98" s="678"/>
+      <c r="E98" s="563"/>
+      <c r="F98" s="566"/>
+      <c r="G98" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="H98" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="I98" s="106" t="s">
+        <v>388</v>
+      </c>
+      <c r="J98" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L98" s="108" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H98, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceScheme</v>
+      </c>
+      <c r="M98" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="N98" s="109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="421"/>
+      <c r="B99" s="683"/>
+      <c r="C99" s="679"/>
+      <c r="D99" s="679"/>
+      <c r="E99" s="689"/>
+      <c r="F99" s="567"/>
+      <c r="G99" s="443" t="s">
+        <v>198</v>
+      </c>
+      <c r="H99" s="443" t="s">
+        <v>303</v>
+      </c>
+      <c r="I99" s="444" t="s">
+        <v>389</v>
+      </c>
+      <c r="J99" s="447" t="s">
+        <v>46</v>
+      </c>
+      <c r="K99" s="445" t="s">
+        <v>68</v>
+      </c>
+      <c r="L99" s="445" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H99, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceSchemaIRI</v>
+      </c>
+      <c r="M99" s="446" t="s">
+        <v>500</v>
+      </c>
+      <c r="N99" s="446" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="421"/>
+      <c r="B100" s="683"/>
+      <c r="C100" s="677" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="677" t="s">
+        <v>288</v>
+      </c>
+      <c r="E100" s="688" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="745" t="str">
+        <f>Namespace &amp; "has" &amp; ($C100) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVariableInfo</v>
+      </c>
+      <c r="G100" s="438" t="s">
+        <v>289</v>
+      </c>
+      <c r="H100" s="438" t="s">
+        <v>282</v>
+      </c>
+      <c r="I100" s="439" t="s">
+        <v>199</v>
+      </c>
+      <c r="J100" s="440" t="s">
+        <v>54</v>
+      </c>
+      <c r="K100" s="441" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" s="441" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H100, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVariable</v>
+      </c>
+      <c r="M100" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="N100" s="109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="421"/>
+      <c r="B101" s="683"/>
+      <c r="C101" s="678"/>
+      <c r="D101" s="678"/>
+      <c r="E101" s="563"/>
+      <c r="F101" s="568"/>
+      <c r="G101" s="105" t="s">
+        <v>290</v>
+      </c>
+      <c r="H101" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="I101" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="J101" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K101" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L101" s="108" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H101, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVariableIRI</v>
+      </c>
+      <c r="M101" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="N101" s="109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="421"/>
+      <c r="B102" s="683"/>
+      <c r="C102" s="678"/>
+      <c r="D102" s="678"/>
+      <c r="E102" s="563"/>
+      <c r="F102" s="568"/>
+      <c r="G102" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="H102" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="I102" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="J102" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K102" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L102" s="108" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H102, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVariableScheme</v>
+      </c>
+      <c r="M102" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="N102" s="109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="422"/>
+      <c r="B103" s="684"/>
+      <c r="C103" s="687"/>
+      <c r="D103" s="687"/>
+      <c r="E103" s="564"/>
+      <c r="F103" s="569"/>
+      <c r="G103" s="433" t="s">
+        <v>292</v>
+      </c>
+      <c r="H103" s="433" t="s">
+        <v>295</v>
+      </c>
+      <c r="I103" s="434" t="s">
+        <v>391</v>
+      </c>
+      <c r="J103" s="435" t="s">
+        <v>46</v>
+      </c>
+      <c r="K103" s="436" t="s">
+        <v>68</v>
+      </c>
+      <c r="L103" s="436" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H103, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVariableSchemeIRI</v>
+      </c>
+      <c r="M103" s="437" t="s">
+        <v>500</v>
+      </c>
+      <c r="N103" s="437" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="680" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="680"/>
+      <c r="C104" s="680"/>
+      <c r="D104" s="473" t="s">
+        <v>202</v>
+      </c>
+      <c r="E104" s="474" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="475" t="str">
+        <f>Namespace &amp; "has" &amp; ($A104) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoverageInfo</v>
+      </c>
+      <c r="G104" s="476"/>
+      <c r="H104" s="476"/>
+      <c r="I104" s="477"/>
+      <c r="J104" s="478"/>
+      <c r="K104" s="479"/>
+      <c r="L104" s="479"/>
+      <c r="M104" s="480"/>
+      <c r="N104" s="480"/>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="419"/>
+      <c r="B105" s="661" t="s">
         <v>502</v>
       </c>
-      <c r="N92" s="447" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="426"/>
-      <c r="B93" s="594"/>
-      <c r="C93" s="594"/>
-      <c r="D93" s="594"/>
-      <c r="E93" s="605"/>
-      <c r="F93" s="695"/>
-      <c r="G93" s="110" t="s">
-        <v>285</v>
-      </c>
-      <c r="H93" s="110" t="s">
-        <v>297</v>
-      </c>
-      <c r="I93" s="111" t="s">
-        <v>369</v>
-      </c>
-      <c r="J93" s="112" t="s">
+      <c r="C105" s="661"/>
+      <c r="D105" s="681" t="s">
+        <v>501</v>
+      </c>
+      <c r="E105" s="685" t="s">
         <v>46</v>
       </c>
-      <c r="K93" s="113" t="s">
+      <c r="F105" s="671" t="str">
+        <f>Namespace &amp; "has" &amp; ($B105) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoveragePointInfo</v>
+      </c>
+      <c r="G105" s="448" t="s">
+        <v>205</v>
+      </c>
+      <c r="H105" s="448" t="s">
+        <v>398</v>
+      </c>
+      <c r="I105" s="449" t="s">
+        <v>206</v>
+      </c>
+      <c r="J105" s="450">
+        <v>1</v>
+      </c>
+      <c r="K105" s="451" t="s">
         <v>68</v>
       </c>
-      <c r="L93" s="113" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/dataStreamIRI</v>
-      </c>
-      <c r="M93" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="N93" s="114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="426"/>
-      <c r="B94" s="594"/>
-      <c r="C94" s="594"/>
-      <c r="D94" s="594"/>
-      <c r="E94" s="605"/>
-      <c r="F94" s="695"/>
-      <c r="G94" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="H94" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="I94" s="115" t="s">
-        <v>388</v>
-      </c>
-      <c r="J94" s="112" t="s">
+      <c r="L105" s="451" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H105, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPointLatitude</v>
+      </c>
+      <c r="M105" s="452" t="s">
+        <v>28</v>
+      </c>
+      <c r="N105" s="452" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="419"/>
+      <c r="B106" s="663"/>
+      <c r="C106" s="663"/>
+      <c r="D106" s="682"/>
+      <c r="E106" s="686"/>
+      <c r="F106" s="673"/>
+      <c r="G106" s="453" t="s">
+        <v>203</v>
+      </c>
+      <c r="H106" s="453" t="s">
+        <v>397</v>
+      </c>
+      <c r="I106" s="454" t="s">
+        <v>204</v>
+      </c>
+      <c r="J106" s="455">
+        <v>1</v>
+      </c>
+      <c r="K106" s="456" t="s">
+        <v>68</v>
+      </c>
+      <c r="L106" s="456" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H106, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPointLongitude</v>
+      </c>
+      <c r="M106" s="457" t="s">
+        <v>28</v>
+      </c>
+      <c r="N106" s="457" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="419"/>
+      <c r="B107" s="661" t="s">
+        <v>503</v>
+      </c>
+      <c r="C107" s="661"/>
+      <c r="D107" s="661" t="s">
+        <v>504</v>
+      </c>
+      <c r="E107" s="605" t="s">
         <v>46</v>
       </c>
-      <c r="K94" s="113" t="s">
+      <c r="F107" s="671" t="str">
+        <f>Namespace &amp; "has" &amp; ($B107) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoverageBoundingBoxInfo</v>
+      </c>
+      <c r="G107" s="458" t="s">
+        <v>207</v>
+      </c>
+      <c r="H107" s="458" t="s">
+        <v>399</v>
+      </c>
+      <c r="I107" s="459" t="s">
+        <v>208</v>
+      </c>
+      <c r="J107" s="460">
+        <v>1</v>
+      </c>
+      <c r="K107" s="461" t="s">
         <v>68</v>
       </c>
-      <c r="L94" s="113" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/datastreamScheme</v>
-      </c>
-      <c r="M94" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="N94" s="114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="426"/>
-      <c r="B95" s="595"/>
-      <c r="C95" s="595"/>
-      <c r="D95" s="595"/>
-      <c r="E95" s="606"/>
-      <c r="F95" s="696"/>
-      <c r="G95" s="448" t="s">
-        <v>286</v>
-      </c>
-      <c r="H95" s="448" t="s">
-        <v>299</v>
-      </c>
-      <c r="I95" s="449" t="s">
-        <v>389</v>
-      </c>
-      <c r="J95" s="452" t="s">
+      <c r="L107" s="451" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H107, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasWestLongitudinalBoundary</v>
+      </c>
+      <c r="M107" s="462" t="s">
+        <v>28</v>
+      </c>
+      <c r="N107" s="462" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="419"/>
+      <c r="B108" s="662"/>
+      <c r="C108" s="662"/>
+      <c r="D108" s="662"/>
+      <c r="E108" s="606"/>
+      <c r="F108" s="672"/>
+      <c r="G108" s="463" t="s">
+        <v>209</v>
+      </c>
+      <c r="H108" s="463" t="s">
+        <v>400</v>
+      </c>
+      <c r="I108" s="464" t="s">
+        <v>210</v>
+      </c>
+      <c r="J108" s="465">
+        <v>1</v>
+      </c>
+      <c r="K108" s="466" t="s">
+        <v>68</v>
+      </c>
+      <c r="L108" s="746" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H108, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasEastLongitudinalBoundary</v>
+      </c>
+      <c r="M108" s="467" t="s">
+        <v>28</v>
+      </c>
+      <c r="N108" s="467" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="419"/>
+      <c r="B109" s="662"/>
+      <c r="C109" s="662"/>
+      <c r="D109" s="662"/>
+      <c r="E109" s="606"/>
+      <c r="F109" s="672"/>
+      <c r="G109" s="463" t="s">
+        <v>211</v>
+      </c>
+      <c r="H109" s="463" t="s">
+        <v>401</v>
+      </c>
+      <c r="I109" s="464" t="s">
+        <v>212</v>
+      </c>
+      <c r="J109" s="465">
+        <v>1</v>
+      </c>
+      <c r="K109" s="466" t="s">
+        <v>68</v>
+      </c>
+      <c r="L109" s="746" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H109, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasSouthLongitudinalBoundary</v>
+      </c>
+      <c r="M109" s="467" t="s">
+        <v>28</v>
+      </c>
+      <c r="N109" s="467" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="419"/>
+      <c r="B110" s="663"/>
+      <c r="C110" s="663"/>
+      <c r="D110" s="663"/>
+      <c r="E110" s="607"/>
+      <c r="F110" s="673"/>
+      <c r="G110" s="468" t="s">
+        <v>213</v>
+      </c>
+      <c r="H110" s="468" t="s">
+        <v>402</v>
+      </c>
+      <c r="I110" s="469" t="s">
+        <v>214</v>
+      </c>
+      <c r="J110" s="470">
+        <v>1</v>
+      </c>
+      <c r="K110" s="471" t="s">
+        <v>68</v>
+      </c>
+      <c r="L110" s="456" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H110, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasNorthLongitudinalBoundary</v>
+      </c>
+      <c r="M110" s="472" t="s">
+        <v>28</v>
+      </c>
+      <c r="N110" s="472" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="419"/>
+      <c r="B111" s="661" t="s">
+        <v>505</v>
+      </c>
+      <c r="C111" s="661"/>
+      <c r="D111" s="674" t="s">
+        <v>506</v>
+      </c>
+      <c r="E111" s="605" t="s">
         <v>46</v>
       </c>
-      <c r="K95" s="450" t="s">
+      <c r="F111" s="671" t="str">
+        <f>Namespace &amp; "has" &amp; ($B111) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoveragePolygonInfo</v>
+      </c>
+      <c r="G111" s="448" t="s">
+        <v>436</v>
+      </c>
+      <c r="H111" s="448" t="s">
+        <v>438</v>
+      </c>
+      <c r="I111" s="459" t="s">
+        <v>413</v>
+      </c>
+      <c r="J111" s="450" t="s">
+        <v>216</v>
+      </c>
+      <c r="K111" s="461" t="s">
         <v>68</v>
       </c>
-      <c r="L95" s="450" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/dataStreamSchemeIRI</v>
-      </c>
-      <c r="M95" s="451" t="s">
-        <v>502</v>
-      </c>
-      <c r="N95" s="451" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="426"/>
-      <c r="B96" s="599"/>
-      <c r="C96" s="593" t="s">
-        <v>281</v>
-      </c>
-      <c r="D96" s="593" t="s">
-        <v>368</v>
-      </c>
-      <c r="E96" s="604">
+      <c r="L111" s="451" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H111, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPolygonPointLatitude</v>
+      </c>
+      <c r="M111" s="462" t="s">
+        <v>28</v>
+      </c>
+      <c r="N111" s="462" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="419"/>
+      <c r="B112" s="663"/>
+      <c r="C112" s="663"/>
+      <c r="D112" s="675"/>
+      <c r="E112" s="607"/>
+      <c r="F112" s="673"/>
+      <c r="G112" s="453" t="s">
+        <v>437</v>
+      </c>
+      <c r="H112" s="453" t="s">
+        <v>439</v>
+      </c>
+      <c r="I112" s="469" t="s">
+        <v>412</v>
+      </c>
+      <c r="J112" s="455" t="s">
+        <v>216</v>
+      </c>
+      <c r="K112" s="471" t="s">
+        <v>68</v>
+      </c>
+      <c r="L112" s="456" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H112, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasPolygonPointLongitude</v>
+      </c>
+      <c r="M112" s="472" t="s">
+        <v>28</v>
+      </c>
+      <c r="N112" s="472" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="420"/>
+      <c r="B113" s="409"/>
+      <c r="C113" s="410"/>
+      <c r="D113" s="481"/>
+      <c r="E113" s="411"/>
+      <c r="F113" s="482"/>
+      <c r="G113" s="483" t="s">
+        <v>404</v>
+      </c>
+      <c r="H113" s="483" t="s">
+        <v>403</v>
+      </c>
+      <c r="I113" s="484" t="s">
+        <v>215</v>
+      </c>
+      <c r="J113" s="485" t="s">
+        <v>54</v>
+      </c>
+      <c r="K113" s="486" t="s">
+        <v>68</v>
+      </c>
+      <c r="L113" s="451" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H113, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasGeospatialLocationDescription</v>
+      </c>
+      <c r="M113" s="487" t="s">
+        <v>28</v>
+      </c>
+      <c r="N113" s="487" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="702" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" s="702"/>
+      <c r="C114" s="702"/>
+      <c r="D114" s="719" t="s">
+        <v>218</v>
+      </c>
+      <c r="E114" s="710" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="713" t="str">
+        <f>Namespace &amp; "has" &amp; ($A114) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalCoverageInfo</v>
+      </c>
+      <c r="G114" s="488" t="s">
+        <v>219</v>
+      </c>
+      <c r="H114" s="488" t="s">
+        <v>414</v>
+      </c>
+      <c r="I114" s="489" t="s">
+        <v>220</v>
+      </c>
+      <c r="J114" s="490">
         <v>1</v>
       </c>
-      <c r="F96" s="694" t="str">
-        <f>Namespace &amp; ($C96) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/DataSourceInfo</v>
-      </c>
-      <c r="G96" s="443" t="s">
-        <v>192</v>
-      </c>
-      <c r="H96" s="443" t="s">
-        <v>300</v>
-      </c>
-      <c r="I96" s="444" t="s">
-        <v>193</v>
-      </c>
-      <c r="J96" s="445">
+      <c r="K114" s="491" t="s">
+        <v>68</v>
+      </c>
+      <c r="L114" s="491" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H114, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentMaximumValue</v>
+      </c>
+      <c r="M114" s="492" t="s">
+        <v>28</v>
+      </c>
+      <c r="N114" s="492" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="703"/>
+      <c r="B115" s="703"/>
+      <c r="C115" s="703"/>
+      <c r="D115" s="720"/>
+      <c r="E115" s="711"/>
+      <c r="F115" s="714"/>
+      <c r="G115" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="H115" s="111" t="s">
+        <v>415</v>
+      </c>
+      <c r="I115" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="J115" s="113">
         <v>1</v>
       </c>
-      <c r="K96" s="446" t="s">
-        <v>20</v>
-      </c>
-      <c r="L96" s="446" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/dataSource</v>
-      </c>
-      <c r="M96" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="N96" s="447" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="426"/>
-      <c r="B97" s="599"/>
-      <c r="C97" s="594"/>
-      <c r="D97" s="594"/>
-      <c r="E97" s="605"/>
-      <c r="F97" s="695"/>
-      <c r="G97" s="110" t="s">
-        <v>195</v>
-      </c>
-      <c r="H97" s="110" t="s">
-        <v>301</v>
-      </c>
-      <c r="I97" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="J97" s="112" t="s">
+      <c r="K115" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L115" s="114" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H115, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentMinimumValue</v>
+      </c>
+      <c r="M115" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="N115" s="115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="703"/>
+      <c r="B116" s="703"/>
+      <c r="C116" s="703"/>
+      <c r="D116" s="720"/>
+      <c r="E116" s="711"/>
+      <c r="F116" s="714"/>
+      <c r="G116" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="H116" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="I116" s="112" t="s">
+        <v>395</v>
+      </c>
+      <c r="J116" s="113">
+        <v>1</v>
+      </c>
+      <c r="K116" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L116" s="114" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H116, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnit</v>
+      </c>
+      <c r="M116" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="N116" s="115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="703"/>
+      <c r="B117" s="703"/>
+      <c r="C117" s="703"/>
+      <c r="D117" s="720"/>
+      <c r="E117" s="711"/>
+      <c r="F117" s="714"/>
+      <c r="G117" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="H117" s="111" t="s">
+        <v>417</v>
+      </c>
+      <c r="I117" s="112" t="s">
+        <v>393</v>
+      </c>
+      <c r="J117" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="K97" s="113" t="s">
+      <c r="K117" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L117" s="114" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H117, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnitIRI</v>
+      </c>
+      <c r="M117" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="N117" s="115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="703"/>
+      <c r="B118" s="703"/>
+      <c r="C118" s="703"/>
+      <c r="D118" s="720"/>
+      <c r="E118" s="711"/>
+      <c r="F118" s="714"/>
+      <c r="G118" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="H118" s="111" t="s">
+        <v>418</v>
+      </c>
+      <c r="I118" s="112" t="s">
+        <v>394</v>
+      </c>
+      <c r="J118" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="K118" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L118" s="114" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H118, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnitScheme</v>
+      </c>
+      <c r="M118" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="N118" s="115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="703"/>
+      <c r="B119" s="703"/>
+      <c r="C119" s="703"/>
+      <c r="D119" s="720"/>
+      <c r="E119" s="711"/>
+      <c r="F119" s="714"/>
+      <c r="G119" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="H119" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="I119" s="112" t="s">
+        <v>392</v>
+      </c>
+      <c r="J119" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L119" s="114" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H119, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnitSchemeURI</v>
+      </c>
+      <c r="M119" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="N119" s="115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="703"/>
+      <c r="B120" s="703"/>
+      <c r="C120" s="703"/>
+      <c r="D120" s="720"/>
+      <c r="E120" s="711"/>
+      <c r="F120" s="714"/>
+      <c r="G120" s="111" t="s">
+        <v>396</v>
+      </c>
+      <c r="H120" s="111" t="s">
+        <v>420</v>
+      </c>
+      <c r="I120" s="112" t="s">
+        <v>405</v>
+      </c>
+      <c r="J120" s="113">
+        <v>1</v>
+      </c>
+      <c r="K120" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L120" s="114" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H120, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentDatum</v>
+      </c>
+      <c r="M120" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="N120" s="115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="704"/>
+      <c r="B121" s="704"/>
+      <c r="C121" s="704"/>
+      <c r="D121" s="721"/>
+      <c r="E121" s="712"/>
+      <c r="F121" s="715"/>
+      <c r="G121" s="534" t="s">
+        <v>406</v>
+      </c>
+      <c r="H121" s="534" t="s">
+        <v>421</v>
+      </c>
+      <c r="I121" s="493" t="s">
+        <v>407</v>
+      </c>
+      <c r="J121" s="494" t="s">
+        <v>46</v>
+      </c>
+      <c r="K121" s="495" t="s">
+        <v>68</v>
+      </c>
+      <c r="L121" s="495" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H121, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentDatumIRI</v>
+      </c>
+      <c r="M121" s="496" t="s">
+        <v>194</v>
+      </c>
+      <c r="N121" s="496" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="705" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="705"/>
+      <c r="C122" s="705"/>
+      <c r="D122" s="716" t="s">
+        <v>228</v>
+      </c>
+      <c r="E122" s="722" t="s">
+        <v>46</v>
+      </c>
+      <c r="F122" s="723" t="str">
+        <f>Namespace &amp; "has" &amp; ($A122) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalCoverageInfo</v>
+      </c>
+      <c r="G122" s="497" t="s">
+        <v>229</v>
+      </c>
+      <c r="H122" s="497" t="s">
+        <v>422</v>
+      </c>
+      <c r="I122" s="498" t="s">
+        <v>230</v>
+      </c>
+      <c r="J122" s="499">
+        <v>1</v>
+      </c>
+      <c r="K122" s="500" t="s">
         <v>36</v>
       </c>
-      <c r="L97" s="113" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/dataSourceIRI</v>
-      </c>
-      <c r="M97" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="N97" s="114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="426"/>
-      <c r="B98" s="599"/>
-      <c r="C98" s="594"/>
-      <c r="D98" s="594"/>
-      <c r="E98" s="605"/>
-      <c r="F98" s="695"/>
-      <c r="G98" s="110" t="s">
-        <v>197</v>
-      </c>
-      <c r="H98" s="110" t="s">
-        <v>302</v>
-      </c>
-      <c r="I98" s="111" t="s">
-        <v>390</v>
-      </c>
-      <c r="J98" s="112" t="s">
+      <c r="L122" s="500" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H122, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalExtentMinimumValue</v>
+      </c>
+      <c r="M122" s="501" t="s">
+        <v>28</v>
+      </c>
+      <c r="N122" s="501" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="706"/>
+      <c r="B123" s="706"/>
+      <c r="C123" s="706"/>
+      <c r="D123" s="717"/>
+      <c r="E123" s="574"/>
+      <c r="F123" s="724"/>
+      <c r="G123" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="H123" s="116" t="s">
+        <v>423</v>
+      </c>
+      <c r="I123" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="J123" s="118">
+        <v>1</v>
+      </c>
+      <c r="K123" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="L123" s="119" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H123, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalExtentMaximumValue</v>
+      </c>
+      <c r="M123" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="N123" s="120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="706"/>
+      <c r="B124" s="706"/>
+      <c r="C124" s="706"/>
+      <c r="D124" s="717"/>
+      <c r="E124" s="574"/>
+      <c r="F124" s="724"/>
+      <c r="G124" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="H124" s="116" t="s">
+        <v>424</v>
+      </c>
+      <c r="I124" s="117" t="s">
+        <v>234</v>
+      </c>
+      <c r="J124" s="118">
+        <v>1</v>
+      </c>
+      <c r="K124" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="L124" s="119" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H124, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalResolution</v>
+      </c>
+      <c r="M124" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="N124" s="120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="707"/>
+      <c r="B125" s="707"/>
+      <c r="C125" s="707"/>
+      <c r="D125" s="718"/>
+      <c r="E125" s="575"/>
+      <c r="F125" s="725"/>
+      <c r="G125" s="502" t="s">
+        <v>235</v>
+      </c>
+      <c r="H125" s="502" t="s">
+        <v>425</v>
+      </c>
+      <c r="I125" s="503" t="s">
+        <v>236</v>
+      </c>
+      <c r="J125" s="504">
+        <v>1</v>
+      </c>
+      <c r="K125" s="505" t="s">
+        <v>36</v>
+      </c>
+      <c r="L125" s="505" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H125, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasDuration</v>
+      </c>
+      <c r="M125" s="506" t="s">
+        <v>28</v>
+      </c>
+      <c r="N125" s="506" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="708" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" s="708"/>
+      <c r="C126" s="708"/>
+      <c r="D126" s="512" t="s">
+        <v>507</v>
+      </c>
+      <c r="E126" s="513" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" s="514" t="str">
+        <f>Namespace &amp; "has" &amp; ($A126) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasFundingInfo</v>
+      </c>
+      <c r="G126" s="515"/>
+      <c r="H126" s="515"/>
+      <c r="I126" s="516"/>
+      <c r="J126" s="517"/>
+      <c r="K126" s="518"/>
+      <c r="L126" s="518"/>
+      <c r="M126" s="515"/>
+      <c r="N126" s="515"/>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="423"/>
+      <c r="B127" s="696" t="s">
+        <v>508</v>
+      </c>
+      <c r="C127" s="696"/>
+      <c r="D127" s="690" t="s">
+        <v>511</v>
+      </c>
+      <c r="E127" s="693">
+        <v>1</v>
+      </c>
+      <c r="F127" s="690" t="str">
+        <f>Namespace &amp; "has" &amp; ($B127) &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasAwardInfo</v>
+      </c>
+      <c r="G127" s="524" t="s">
+        <v>238</v>
+      </c>
+      <c r="H127" s="524" t="s">
+        <v>426</v>
+      </c>
+      <c r="I127" s="525" t="s">
+        <v>239</v>
+      </c>
+      <c r="J127" s="526">
+        <v>1</v>
+      </c>
+      <c r="K127" s="527" t="s">
+        <v>36</v>
+      </c>
+      <c r="L127" s="527" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H127, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasAwardTitle</v>
+      </c>
+      <c r="M127" s="524" t="s">
+        <v>28</v>
+      </c>
+      <c r="N127" s="524" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="423"/>
+      <c r="B128" s="697"/>
+      <c r="C128" s="697"/>
+      <c r="D128" s="691"/>
+      <c r="E128" s="694"/>
+      <c r="F128" s="691"/>
+      <c r="G128" s="511" t="s">
+        <v>240</v>
+      </c>
+      <c r="H128" s="511" t="s">
+        <v>427</v>
+      </c>
+      <c r="I128" s="508" t="s">
+        <v>241</v>
+      </c>
+      <c r="J128" s="509" t="s">
         <v>46</v>
       </c>
-      <c r="K98" s="113" t="s">
+      <c r="K128" s="510" t="s">
         <v>68</v>
       </c>
-      <c r="L98" s="113" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/dataSourceScheme</v>
-      </c>
-      <c r="M98" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="N98" s="114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="426"/>
-      <c r="B99" s="599"/>
-      <c r="C99" s="595"/>
-      <c r="D99" s="595"/>
-      <c r="E99" s="606"/>
-      <c r="F99" s="696"/>
-      <c r="G99" s="448" t="s">
-        <v>198</v>
-      </c>
-      <c r="H99" s="448" t="s">
-        <v>303</v>
-      </c>
-      <c r="I99" s="449" t="s">
-        <v>391</v>
-      </c>
-      <c r="J99" s="452" t="s">
+      <c r="L128" s="510" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H128, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasAwardPageIRI</v>
+      </c>
+      <c r="M128" s="507" t="s">
+        <v>28</v>
+      </c>
+      <c r="N128" s="507" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="423"/>
+      <c r="B129" s="709"/>
+      <c r="C129" s="709"/>
+      <c r="D129" s="692"/>
+      <c r="E129" s="695"/>
+      <c r="F129" s="692"/>
+      <c r="G129" s="528" t="s">
+        <v>242</v>
+      </c>
+      <c r="H129" s="528" t="s">
+        <v>428</v>
+      </c>
+      <c r="I129" s="529" t="s">
+        <v>243</v>
+      </c>
+      <c r="J129" s="530">
+        <v>1</v>
+      </c>
+      <c r="K129" s="531" t="s">
+        <v>36</v>
+      </c>
+      <c r="L129" s="531" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H129, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasAwardLocalIdentifier</v>
+      </c>
+      <c r="M129" s="532" t="s">
+        <v>28</v>
+      </c>
+      <c r="N129" s="532" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="423"/>
+      <c r="B130" s="696" t="s">
+        <v>509</v>
+      </c>
+      <c r="C130" s="696"/>
+      <c r="D130" s="551" t="s">
+        <v>510</v>
+      </c>
+      <c r="E130" s="548" t="s">
+        <v>54</v>
+      </c>
+      <c r="F130" s="690" t="str">
+        <f>Namespace &amp; "has" &amp; ($B130)  &amp; "Info"</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasFunderInfo</v>
+      </c>
+      <c r="G130" s="524" t="s">
+        <v>244</v>
+      </c>
+      <c r="H130" s="524" t="s">
+        <v>429</v>
+      </c>
+      <c r="I130" s="525" t="s">
+        <v>245</v>
+      </c>
+      <c r="J130" s="526">
+        <v>1</v>
+      </c>
+      <c r="K130" s="527" t="s">
+        <v>36</v>
+      </c>
+      <c r="L130" s="527" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H130, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasFunderName</v>
+      </c>
+      <c r="M130" s="524" t="s">
+        <v>28</v>
+      </c>
+      <c r="N130" s="507" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="423"/>
+      <c r="B131" s="697"/>
+      <c r="C131" s="697"/>
+      <c r="D131" s="552"/>
+      <c r="E131" s="549"/>
+      <c r="F131" s="691"/>
+      <c r="G131" s="507" t="s">
+        <v>246</v>
+      </c>
+      <c r="H131" s="507" t="s">
+        <v>430</v>
+      </c>
+      <c r="I131" s="508" t="s">
+        <v>247</v>
+      </c>
+      <c r="J131" s="509" t="s">
         <v>46</v>
       </c>
-      <c r="K99" s="450" t="s">
+      <c r="K131" s="510" t="s">
         <v>68</v>
       </c>
-      <c r="L99" s="450" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/dataSourceSchemeIRI</v>
-      </c>
-      <c r="M99" s="451" t="s">
-        <v>502</v>
-      </c>
-      <c r="N99" s="451" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="426"/>
-      <c r="B100" s="599"/>
-      <c r="C100" s="594" t="s">
-        <v>282</v>
-      </c>
-      <c r="D100" s="594" t="s">
-        <v>288</v>
-      </c>
-      <c r="E100" s="605" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" s="697" t="str">
-        <f>Namespace &amp; ($C100) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/VariableInfo</v>
-      </c>
-      <c r="G100" s="110" t="s">
-        <v>289</v>
-      </c>
-      <c r="H100" s="110" t="s">
-        <v>282</v>
-      </c>
-      <c r="I100" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="J100" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="K100" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="L100" s="113" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/variable</v>
-      </c>
-      <c r="M100" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="N100" s="114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="426"/>
-      <c r="B101" s="599"/>
-      <c r="C101" s="594"/>
-      <c r="D101" s="594"/>
-      <c r="E101" s="605"/>
-      <c r="F101" s="697"/>
-      <c r="G101" s="110" t="s">
-        <v>290</v>
-      </c>
-      <c r="H101" s="110" t="s">
-        <v>293</v>
-      </c>
-      <c r="I101" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="J101" s="112" t="s">
+      <c r="L131" s="510" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H131, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasFunderIdentifier</v>
+      </c>
+      <c r="M131" s="507" t="s">
+        <v>28</v>
+      </c>
+      <c r="N131" s="507" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="423"/>
+      <c r="B132" s="697"/>
+      <c r="C132" s="697"/>
+      <c r="D132" s="552"/>
+      <c r="E132" s="549"/>
+      <c r="F132" s="691"/>
+      <c r="G132" s="511" t="s">
+        <v>248</v>
+      </c>
+      <c r="H132" s="511" t="s">
+        <v>431</v>
+      </c>
+      <c r="I132" s="508" t="s">
+        <v>249</v>
+      </c>
+      <c r="J132" s="509" t="s">
         <v>46</v>
       </c>
-      <c r="K101" s="113" t="s">
+      <c r="K132" s="510" t="s">
         <v>68</v>
       </c>
-      <c r="L101" s="113" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/variableIRI</v>
-      </c>
-      <c r="M101" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="N101" s="114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="426"/>
-      <c r="B102" s="599"/>
-      <c r="C102" s="594"/>
-      <c r="D102" s="594"/>
-      <c r="E102" s="605"/>
-      <c r="F102" s="697"/>
-      <c r="G102" s="110" t="s">
-        <v>291</v>
-      </c>
-      <c r="H102" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="I102" s="111" t="s">
-        <v>392</v>
-      </c>
-      <c r="J102" s="112" t="s">
+      <c r="L132" s="510" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H132, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasFunderIdentifierScheme</v>
+      </c>
+      <c r="M132" s="507" t="s">
+        <v>28</v>
+      </c>
+      <c r="N132" s="507" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="424"/>
+      <c r="B133" s="698"/>
+      <c r="C133" s="698"/>
+      <c r="D133" s="699"/>
+      <c r="E133" s="700"/>
+      <c r="F133" s="701"/>
+      <c r="G133" s="519" t="s">
+        <v>250</v>
+      </c>
+      <c r="H133" s="519" t="s">
+        <v>432</v>
+      </c>
+      <c r="I133" s="520" t="s">
+        <v>251</v>
+      </c>
+      <c r="J133" s="521" t="s">
         <v>46</v>
       </c>
-      <c r="K102" s="113" t="s">
+      <c r="K133" s="522" t="s">
         <v>68</v>
       </c>
-      <c r="L102" s="113" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/variableScheme</v>
-      </c>
-      <c r="M102" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="N102" s="114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="427"/>
-      <c r="B103" s="600"/>
-      <c r="C103" s="603"/>
-      <c r="D103" s="603"/>
-      <c r="E103" s="693"/>
-      <c r="F103" s="698"/>
-      <c r="G103" s="438" t="s">
-        <v>292</v>
-      </c>
-      <c r="H103" s="438" t="s">
-        <v>295</v>
-      </c>
-      <c r="I103" s="439" t="s">
-        <v>393</v>
-      </c>
-      <c r="J103" s="440" t="s">
-        <v>46</v>
-      </c>
-      <c r="K103" s="441" t="s">
-        <v>68</v>
-      </c>
-      <c r="L103" s="441" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/variableSchemeIRI</v>
-      </c>
-      <c r="M103" s="442" t="s">
-        <v>502</v>
-      </c>
-      <c r="N103" s="442" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="596" t="s">
-        <v>201</v>
-      </c>
-      <c r="B104" s="596"/>
-      <c r="C104" s="596"/>
-      <c r="D104" s="478" t="s">
-        <v>202</v>
-      </c>
-      <c r="E104" s="479" t="s">
-        <v>46</v>
-      </c>
-      <c r="F104" s="480" t="str">
-        <f>Namespace &amp; ($A104) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/SpatialCoverageInfo</v>
-      </c>
-      <c r="G104" s="481"/>
-      <c r="H104" s="481"/>
-      <c r="I104" s="482"/>
-      <c r="J104" s="483"/>
-      <c r="K104" s="484"/>
-      <c r="L104" s="484"/>
-      <c r="M104" s="485"/>
-      <c r="N104" s="485"/>
-    </row>
-    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="424"/>
-      <c r="B105" s="588" t="s">
-        <v>504</v>
-      </c>
-      <c r="C105" s="588"/>
-      <c r="D105" s="597" t="s">
-        <v>503</v>
-      </c>
-      <c r="E105" s="601" t="s">
-        <v>46</v>
-      </c>
-      <c r="F105" s="585" t="str">
-        <f>Namespace &amp; ($B105) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/SpatialCoveragePointInfo</v>
-      </c>
-      <c r="G105" s="453" t="s">
-        <v>205</v>
-      </c>
-      <c r="H105" s="453" t="s">
-        <v>400</v>
-      </c>
-      <c r="I105" s="454" t="s">
-        <v>206</v>
-      </c>
-      <c r="J105" s="455">
-        <v>1</v>
-      </c>
-      <c r="K105" s="456" t="s">
-        <v>68</v>
-      </c>
-      <c r="L105" s="456" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/pointLatitude</v>
-      </c>
-      <c r="M105" s="457" t="s">
-        <v>28</v>
-      </c>
-      <c r="N105" s="457" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="424"/>
-      <c r="B106" s="589"/>
-      <c r="C106" s="589"/>
-      <c r="D106" s="598"/>
-      <c r="E106" s="602"/>
-      <c r="F106" s="587"/>
-      <c r="G106" s="458" t="s">
-        <v>203</v>
-      </c>
-      <c r="H106" s="458" t="s">
-        <v>399</v>
-      </c>
-      <c r="I106" s="459" t="s">
-        <v>204</v>
-      </c>
-      <c r="J106" s="460">
-        <v>1</v>
-      </c>
-      <c r="K106" s="461" t="s">
-        <v>68</v>
-      </c>
-      <c r="L106" s="461" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/pointLongitude</v>
-      </c>
-      <c r="M106" s="462" t="s">
-        <v>28</v>
-      </c>
-      <c r="N106" s="462" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="424"/>
-      <c r="B107" s="588" t="s">
-        <v>505</v>
-      </c>
-      <c r="C107" s="588"/>
-      <c r="D107" s="588" t="s">
-        <v>506</v>
-      </c>
-      <c r="E107" s="582" t="s">
-        <v>46</v>
-      </c>
-      <c r="F107" s="585" t="str">
-        <f>Namespace &amp; ($B107) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/SpatialCoverageBoundingBoxInfo</v>
-      </c>
-      <c r="G107" s="463" t="s">
-        <v>207</v>
-      </c>
-      <c r="H107" s="463" t="s">
-        <v>401</v>
-      </c>
-      <c r="I107" s="464" t="s">
-        <v>208</v>
-      </c>
-      <c r="J107" s="465">
-        <v>1</v>
-      </c>
-      <c r="K107" s="466" t="s">
-        <v>68</v>
-      </c>
-      <c r="L107" s="466" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/westBoundLongitude</v>
-      </c>
-      <c r="M107" s="467" t="s">
-        <v>28</v>
-      </c>
-      <c r="N107" s="467" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="424"/>
-      <c r="B108" s="619"/>
-      <c r="C108" s="619"/>
-      <c r="D108" s="619"/>
-      <c r="E108" s="583"/>
-      <c r="F108" s="586"/>
-      <c r="G108" s="468" t="s">
-        <v>209</v>
-      </c>
-      <c r="H108" s="468" t="s">
-        <v>402</v>
-      </c>
-      <c r="I108" s="469" t="s">
-        <v>210</v>
-      </c>
-      <c r="J108" s="470">
-        <v>1</v>
-      </c>
-      <c r="K108" s="471" t="s">
-        <v>68</v>
-      </c>
-      <c r="L108" s="471" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/eastBoundLongitude</v>
-      </c>
-      <c r="M108" s="472" t="s">
-        <v>28</v>
-      </c>
-      <c r="N108" s="472" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="424"/>
-      <c r="B109" s="619"/>
-      <c r="C109" s="619"/>
-      <c r="D109" s="619"/>
-      <c r="E109" s="583"/>
-      <c r="F109" s="586"/>
-      <c r="G109" s="468" t="s">
-        <v>211</v>
-      </c>
-      <c r="H109" s="468" t="s">
-        <v>403</v>
-      </c>
-      <c r="I109" s="469" t="s">
-        <v>212</v>
-      </c>
-      <c r="J109" s="470">
-        <v>1</v>
-      </c>
-      <c r="K109" s="471" t="s">
-        <v>68</v>
-      </c>
-      <c r="L109" s="471" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/southBoundLatitude</v>
-      </c>
-      <c r="M109" s="472" t="s">
-        <v>28</v>
-      </c>
-      <c r="N109" s="472" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="424"/>
-      <c r="B110" s="589"/>
-      <c r="C110" s="589"/>
-      <c r="D110" s="589"/>
-      <c r="E110" s="584"/>
-      <c r="F110" s="587"/>
-      <c r="G110" s="473" t="s">
-        <v>213</v>
-      </c>
-      <c r="H110" s="473" t="s">
-        <v>404</v>
-      </c>
-      <c r="I110" s="474" t="s">
-        <v>214</v>
-      </c>
-      <c r="J110" s="475">
-        <v>1</v>
-      </c>
-      <c r="K110" s="476" t="s">
-        <v>68</v>
-      </c>
-      <c r="L110" s="476" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/northBoundLatitude</v>
-      </c>
-      <c r="M110" s="477" t="s">
-        <v>28</v>
-      </c>
-      <c r="N110" s="477" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="424"/>
-      <c r="B111" s="588" t="s">
-        <v>507</v>
-      </c>
-      <c r="C111" s="588"/>
-      <c r="D111" s="590" t="s">
-        <v>508</v>
-      </c>
-      <c r="E111" s="582" t="s">
-        <v>46</v>
-      </c>
-      <c r="F111" s="585" t="str">
-        <f>Namespace &amp; ($B111) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/SpatialCoveragePolygonInfo</v>
-      </c>
-      <c r="G111" s="453" t="s">
-        <v>438</v>
-      </c>
-      <c r="H111" s="453" t="s">
-        <v>440</v>
-      </c>
-      <c r="I111" s="464" t="s">
-        <v>415</v>
-      </c>
-      <c r="J111" s="455" t="s">
-        <v>216</v>
-      </c>
-      <c r="K111" s="466" t="s">
-        <v>68</v>
-      </c>
-      <c r="L111" s="466" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/polygonPointLatitude</v>
-      </c>
-      <c r="M111" s="467" t="s">
-        <v>28</v>
-      </c>
-      <c r="N111" s="467" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="424"/>
-      <c r="B112" s="589"/>
-      <c r="C112" s="589"/>
-      <c r="D112" s="591"/>
-      <c r="E112" s="584"/>
-      <c r="F112" s="587"/>
-      <c r="G112" s="458" t="s">
-        <v>439</v>
-      </c>
-      <c r="H112" s="458" t="s">
-        <v>441</v>
-      </c>
-      <c r="I112" s="474" t="s">
-        <v>414</v>
-      </c>
-      <c r="J112" s="460" t="s">
-        <v>216</v>
-      </c>
-      <c r="K112" s="476" t="s">
-        <v>68</v>
-      </c>
-      <c r="L112" s="476" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/polygonPointLongitude</v>
-      </c>
-      <c r="M112" s="477" t="s">
-        <v>28</v>
-      </c>
-      <c r="N112" s="477" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="425"/>
-      <c r="B113" s="414"/>
-      <c r="C113" s="415"/>
-      <c r="D113" s="486"/>
-      <c r="E113" s="416"/>
-      <c r="F113" s="487"/>
-      <c r="G113" s="488" t="s">
-        <v>406</v>
-      </c>
-      <c r="H113" s="488" t="s">
-        <v>405</v>
-      </c>
-      <c r="I113" s="489" t="s">
-        <v>215</v>
-      </c>
-      <c r="J113" s="490" t="s">
-        <v>54</v>
-      </c>
-      <c r="K113" s="491" t="s">
-        <v>68</v>
-      </c>
-      <c r="L113" s="491" t="str">
-        <f>Namespace &amp; $G113</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/geoLocationDescription</v>
-      </c>
-      <c r="M113" s="492" t="s">
-        <v>28</v>
-      </c>
-      <c r="N113" s="492" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="556" t="s">
-        <v>217</v>
-      </c>
-      <c r="B114" s="556"/>
-      <c r="C114" s="556"/>
-      <c r="D114" s="573" t="s">
-        <v>218</v>
-      </c>
-      <c r="E114" s="564" t="s">
-        <v>46</v>
-      </c>
-      <c r="F114" s="567" t="str">
-        <f>Namespace &amp; ($A114) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/VerticalCoverageInfo</v>
-      </c>
-      <c r="G114" s="493" t="s">
-        <v>219</v>
-      </c>
-      <c r="H114" s="493" t="s">
-        <v>416</v>
-      </c>
-      <c r="I114" s="494" t="s">
-        <v>220</v>
-      </c>
-      <c r="J114" s="495">
-        <v>1</v>
-      </c>
-      <c r="K114" s="496" t="s">
-        <v>68</v>
-      </c>
-      <c r="L114" s="496" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentMaximumValue</v>
-      </c>
-      <c r="M114" s="497" t="s">
-        <v>28</v>
-      </c>
-      <c r="N114" s="497" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="557"/>
-      <c r="B115" s="557"/>
-      <c r="C115" s="557"/>
-      <c r="D115" s="574"/>
-      <c r="E115" s="565"/>
-      <c r="F115" s="568"/>
-      <c r="G115" s="116" t="s">
-        <v>221</v>
-      </c>
-      <c r="H115" s="116" t="s">
-        <v>417</v>
-      </c>
-      <c r="I115" s="117" t="s">
-        <v>222</v>
-      </c>
-      <c r="J115" s="118">
-        <v>1</v>
-      </c>
-      <c r="K115" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="L115" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentMinimumValue</v>
-      </c>
-      <c r="M115" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="N115" s="120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="557"/>
-      <c r="B116" s="557"/>
-      <c r="C116" s="557"/>
-      <c r="D116" s="574"/>
-      <c r="E116" s="565"/>
-      <c r="F116" s="568"/>
-      <c r="G116" s="116" t="s">
-        <v>223</v>
-      </c>
-      <c r="H116" s="116" t="s">
-        <v>418</v>
-      </c>
-      <c r="I116" s="117" t="s">
-        <v>397</v>
-      </c>
-      <c r="J116" s="118">
-        <v>1</v>
-      </c>
-      <c r="K116" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="L116" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentUnit</v>
-      </c>
-      <c r="M116" s="120" t="s">
-        <v>194</v>
-      </c>
-      <c r="N116" s="120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="557"/>
-      <c r="B117" s="557"/>
-      <c r="C117" s="557"/>
-      <c r="D117" s="574"/>
-      <c r="E117" s="565"/>
-      <c r="F117" s="568"/>
-      <c r="G117" s="116" t="s">
-        <v>224</v>
-      </c>
-      <c r="H117" s="116" t="s">
-        <v>419</v>
-      </c>
-      <c r="I117" s="117" t="s">
-        <v>395</v>
-      </c>
-      <c r="J117" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="K117" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="L117" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentUnitIRI</v>
-      </c>
-      <c r="M117" s="120" t="s">
-        <v>194</v>
-      </c>
-      <c r="N117" s="120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="557"/>
-      <c r="B118" s="557"/>
-      <c r="C118" s="557"/>
-      <c r="D118" s="574"/>
-      <c r="E118" s="565"/>
-      <c r="F118" s="568"/>
-      <c r="G118" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="H118" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="I118" s="117" t="s">
-        <v>396</v>
-      </c>
-      <c r="J118" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="K118" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="L118" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentUnitScheme</v>
-      </c>
-      <c r="M118" s="120" t="s">
-        <v>194</v>
-      </c>
-      <c r="N118" s="120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="557"/>
-      <c r="B119" s="557"/>
-      <c r="C119" s="557"/>
-      <c r="D119" s="574"/>
-      <c r="E119" s="565"/>
-      <c r="F119" s="568"/>
-      <c r="G119" s="116" t="s">
-        <v>226</v>
-      </c>
-      <c r="H119" s="116" t="s">
-        <v>421</v>
-      </c>
-      <c r="I119" s="117" t="s">
-        <v>394</v>
-      </c>
-      <c r="J119" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="K119" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="L119" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentUnitSchemeIRI</v>
-      </c>
-      <c r="M119" s="120" t="s">
-        <v>194</v>
-      </c>
-      <c r="N119" s="120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="557"/>
-      <c r="B120" s="557"/>
-      <c r="C120" s="557"/>
-      <c r="D120" s="574"/>
-      <c r="E120" s="565"/>
-      <c r="F120" s="568"/>
-      <c r="G120" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="H120" s="116" t="s">
-        <v>422</v>
-      </c>
-      <c r="I120" s="117" t="s">
-        <v>407</v>
-      </c>
-      <c r="J120" s="118">
-        <v>1</v>
-      </c>
-      <c r="K120" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="L120" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentDatum</v>
-      </c>
-      <c r="M120" s="120" t="s">
-        <v>194</v>
-      </c>
-      <c r="N120" s="120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="558"/>
-      <c r="B121" s="558"/>
-      <c r="C121" s="558"/>
-      <c r="D121" s="575"/>
-      <c r="E121" s="566"/>
-      <c r="F121" s="569"/>
-      <c r="G121" s="539" t="s">
-        <v>408</v>
-      </c>
-      <c r="H121" s="539" t="s">
-        <v>423</v>
-      </c>
-      <c r="I121" s="498" t="s">
-        <v>409</v>
-      </c>
-      <c r="J121" s="499" t="s">
-        <v>46</v>
-      </c>
-      <c r="K121" s="500" t="s">
-        <v>68</v>
-      </c>
-      <c r="L121" s="500" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/verticalExtentDatumIRI</v>
-      </c>
-      <c r="M121" s="501" t="s">
-        <v>194</v>
-      </c>
-      <c r="N121" s="501" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="559" t="s">
-        <v>227</v>
-      </c>
-      <c r="B122" s="559"/>
-      <c r="C122" s="559"/>
-      <c r="D122" s="570" t="s">
-        <v>228</v>
-      </c>
-      <c r="E122" s="576" t="s">
-        <v>46</v>
-      </c>
-      <c r="F122" s="579" t="str">
-        <f>Namespace &amp; ($A122) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/TemporalCoverageInfo</v>
-      </c>
-      <c r="G122" s="502" t="s">
-        <v>229</v>
-      </c>
-      <c r="H122" s="502" t="s">
-        <v>424</v>
-      </c>
-      <c r="I122" s="503" t="s">
-        <v>230</v>
-      </c>
-      <c r="J122" s="504">
-        <v>1</v>
-      </c>
-      <c r="K122" s="505" t="s">
-        <v>36</v>
-      </c>
-      <c r="L122" s="505" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/temporalExtentMinimumValue</v>
-      </c>
-      <c r="M122" s="506" t="s">
-        <v>28</v>
-      </c>
-      <c r="N122" s="506" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="560"/>
-      <c r="B123" s="560"/>
-      <c r="C123" s="560"/>
-      <c r="D123" s="571"/>
-      <c r="E123" s="577"/>
-      <c r="F123" s="580"/>
-      <c r="G123" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="H123" s="121" t="s">
-        <v>425</v>
-      </c>
-      <c r="I123" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="J123" s="123">
-        <v>1</v>
-      </c>
-      <c r="K123" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="L123" s="124" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/temporalExtentMaximumValue</v>
-      </c>
-      <c r="M123" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="N123" s="125" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="560"/>
-      <c r="B124" s="560"/>
-      <c r="C124" s="560"/>
-      <c r="D124" s="571"/>
-      <c r="E124" s="577"/>
-      <c r="F124" s="580"/>
-      <c r="G124" s="121" t="s">
-        <v>233</v>
-      </c>
-      <c r="H124" s="121" t="s">
-        <v>426</v>
-      </c>
-      <c r="I124" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="J124" s="123">
-        <v>1</v>
-      </c>
-      <c r="K124" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="L124" s="124" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/temporalResolution</v>
-      </c>
-      <c r="M124" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="N124" s="125" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="561"/>
-      <c r="B125" s="561"/>
-      <c r="C125" s="561"/>
-      <c r="D125" s="572"/>
-      <c r="E125" s="578"/>
-      <c r="F125" s="581"/>
-      <c r="G125" s="507" t="s">
-        <v>235</v>
-      </c>
-      <c r="H125" s="507" t="s">
-        <v>427</v>
-      </c>
-      <c r="I125" s="508" t="s">
-        <v>236</v>
-      </c>
-      <c r="J125" s="509">
-        <v>1</v>
-      </c>
-      <c r="K125" s="510" t="s">
-        <v>36</v>
-      </c>
-      <c r="L125" s="510" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/duration</v>
-      </c>
-      <c r="M125" s="511" t="s">
-        <v>28</v>
-      </c>
-      <c r="N125" s="511" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="562" t="s">
-        <v>237</v>
-      </c>
-      <c r="B126" s="562"/>
-      <c r="C126" s="562"/>
-      <c r="D126" s="517" t="s">
-        <v>509</v>
-      </c>
-      <c r="E126" s="518" t="s">
-        <v>34</v>
-      </c>
-      <c r="F126" s="519" t="str">
-        <f>Namespace &amp; ($A126) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/FundingInfo</v>
-      </c>
-      <c r="G126" s="520"/>
-      <c r="H126" s="520"/>
-      <c r="I126" s="521"/>
-      <c r="J126" s="522"/>
-      <c r="K126" s="523"/>
-      <c r="L126" s="523"/>
-      <c r="M126" s="520"/>
-      <c r="N126" s="520"/>
-    </row>
-    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="428"/>
-      <c r="B127" s="546" t="s">
-        <v>510</v>
-      </c>
-      <c r="C127" s="546"/>
-      <c r="D127" s="540" t="s">
-        <v>513</v>
-      </c>
-      <c r="E127" s="543">
-        <v>1</v>
-      </c>
-      <c r="F127" s="540" t="str">
-        <f>Namespace &amp; ($B127) &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/AwardInfo</v>
-      </c>
-      <c r="G127" s="529" t="s">
-        <v>238</v>
-      </c>
-      <c r="H127" s="529" t="s">
-        <v>428</v>
-      </c>
-      <c r="I127" s="530" t="s">
-        <v>239</v>
-      </c>
-      <c r="J127" s="531">
-        <v>1</v>
-      </c>
-      <c r="K127" s="532" t="s">
-        <v>36</v>
-      </c>
-      <c r="L127" s="532" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/awardTitle</v>
-      </c>
-      <c r="M127" s="529" t="s">
-        <v>28</v>
-      </c>
-      <c r="N127" s="529" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="428"/>
-      <c r="B128" s="547"/>
-      <c r="C128" s="547"/>
-      <c r="D128" s="541"/>
-      <c r="E128" s="544"/>
-      <c r="F128" s="541"/>
-      <c r="G128" s="516" t="s">
-        <v>240</v>
-      </c>
-      <c r="H128" s="516" t="s">
-        <v>429</v>
-      </c>
-      <c r="I128" s="513" t="s">
-        <v>241</v>
-      </c>
-      <c r="J128" s="514" t="s">
-        <v>46</v>
-      </c>
-      <c r="K128" s="515" t="s">
-        <v>68</v>
-      </c>
-      <c r="L128" s="515" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/awardPageIRI</v>
-      </c>
-      <c r="M128" s="512" t="s">
-        <v>28</v>
-      </c>
-      <c r="N128" s="512" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="428"/>
-      <c r="B129" s="563"/>
-      <c r="C129" s="563"/>
-      <c r="D129" s="542"/>
-      <c r="E129" s="545"/>
-      <c r="F129" s="542"/>
-      <c r="G129" s="533" t="s">
-        <v>242</v>
-      </c>
-      <c r="H129" s="533" t="s">
-        <v>430</v>
-      </c>
-      <c r="I129" s="534" t="s">
-        <v>243</v>
-      </c>
-      <c r="J129" s="535">
-        <v>1</v>
-      </c>
-      <c r="K129" s="536" t="s">
-        <v>36</v>
-      </c>
-      <c r="L129" s="536" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/awardLocalIdentifier</v>
-      </c>
-      <c r="M129" s="537" t="s">
-        <v>28</v>
-      </c>
-      <c r="N129" s="537" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="428"/>
-      <c r="B130" s="546" t="s">
-        <v>511</v>
-      </c>
-      <c r="C130" s="546"/>
-      <c r="D130" s="549" t="s">
-        <v>512</v>
-      </c>
-      <c r="E130" s="552" t="s">
-        <v>54</v>
-      </c>
-      <c r="F130" s="540" t="str">
-        <f>Namespace &amp; ($B130)  &amp; "Info"</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/FunderInfo</v>
-      </c>
-      <c r="G130" s="512" t="s">
-        <v>244</v>
-      </c>
-      <c r="H130" s="512" t="s">
-        <v>431</v>
-      </c>
-      <c r="I130" s="513" t="s">
-        <v>245</v>
-      </c>
-      <c r="J130" s="514">
-        <v>1</v>
-      </c>
-      <c r="K130" s="515" t="s">
-        <v>36</v>
-      </c>
-      <c r="L130" s="515" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/funderName</v>
-      </c>
-      <c r="M130" s="512" t="s">
-        <v>28</v>
-      </c>
-      <c r="N130" s="512" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="428"/>
-      <c r="B131" s="547"/>
-      <c r="C131" s="547"/>
-      <c r="D131" s="550"/>
-      <c r="E131" s="553"/>
-      <c r="F131" s="541"/>
-      <c r="G131" s="512" t="s">
-        <v>246</v>
-      </c>
-      <c r="H131" s="512" t="s">
-        <v>432</v>
-      </c>
-      <c r="I131" s="513" t="s">
-        <v>247</v>
-      </c>
-      <c r="J131" s="514" t="s">
-        <v>46</v>
-      </c>
-      <c r="K131" s="515" t="s">
-        <v>68</v>
-      </c>
-      <c r="L131" s="515" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/funderIdentifier</v>
-      </c>
-      <c r="M131" s="512" t="s">
-        <v>28</v>
-      </c>
-      <c r="N131" s="512" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="428"/>
-      <c r="B132" s="547"/>
-      <c r="C132" s="547"/>
-      <c r="D132" s="550"/>
-      <c r="E132" s="553"/>
-      <c r="F132" s="541"/>
-      <c r="G132" s="516" t="s">
-        <v>248</v>
-      </c>
-      <c r="H132" s="516" t="s">
-        <v>433</v>
-      </c>
-      <c r="I132" s="513" t="s">
-        <v>249</v>
-      </c>
-      <c r="J132" s="514" t="s">
-        <v>46</v>
-      </c>
-      <c r="K132" s="515" t="s">
-        <v>68</v>
-      </c>
-      <c r="L132" s="515" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/funderIdentifierScheme</v>
-      </c>
-      <c r="M132" s="512" t="s">
-        <v>28</v>
-      </c>
-      <c r="N132" s="512" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="429"/>
-      <c r="B133" s="548"/>
-      <c r="C133" s="548"/>
-      <c r="D133" s="551"/>
-      <c r="E133" s="554"/>
-      <c r="F133" s="555"/>
-      <c r="G133" s="524" t="s">
-        <v>250</v>
-      </c>
-      <c r="H133" s="524" t="s">
-        <v>434</v>
-      </c>
-      <c r="I133" s="525" t="s">
-        <v>251</v>
-      </c>
-      <c r="J133" s="526" t="s">
-        <v>46</v>
-      </c>
-      <c r="K133" s="527" t="s">
-        <v>68</v>
-      </c>
-      <c r="L133" s="527" t="str">
-        <f t="shared" si="5"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/funderIdentifierSchemeIRI</v>
-      </c>
-      <c r="M133" s="512" t="s">
-        <v>28</v>
-      </c>
-      <c r="N133" s="528" t="s">
+      <c r="L133" s="522" t="str">
+        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H133, " ", "")</f>
+        <v>http://vocab.fairdatacollective.org/gdmt/hasFunderIdentifierSchemeIRI</v>
+      </c>
+      <c r="M133" s="523" t="s">
+        <v>28</v>
+      </c>
+      <c r="N133" s="523" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8590,8 +8635,8 @@
       <c r="J136" s="6"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D137" s="538" t="s">
-        <v>517</v>
+      <c r="D137" s="533" t="s">
+        <v>515</v>
       </c>
       <c r="H137" s="3"/>
       <c r="J137" s="9"/>
@@ -8630,20 +8675,20 @@
     </row>
     <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H143" s="3"/>
       <c r="J143" s="9"/>
     </row>
     <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J144" s="6"/>
     </row>
     <row r="145" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J145" s="6"/>
     </row>
@@ -8655,7 +8700,7 @@
     </row>
     <row r="147" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -8675,13 +8720,13 @@
     </row>
     <row r="150" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J150" s="6"/>
     </row>
     <row r="151" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="16" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J151" s="6"/>
     </row>
@@ -12220,29 +12265,91 @@
   </sheetData>
   <autoFilter ref="H1:N143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="134">
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="B130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="A114:C121"/>
+    <mergeCell ref="A122:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B127:C129"/>
+    <mergeCell ref="E114:E121"/>
+    <mergeCell ref="F114:F121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="B105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A8:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="B42:C44"/>
+    <mergeCell ref="B45:C48"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B61:C63"/>
     <mergeCell ref="A3:C4"/>
     <mergeCell ref="A5:C7"/>
     <mergeCell ref="A2:C2"/>
@@ -12267,133 +12374,42 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="E84:E87"/>
     <mergeCell ref="F84:F87"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B61:C63"/>
-    <mergeCell ref="A8:C12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="A65:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="B42:C44"/>
-    <mergeCell ref="B45:C48"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="B105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="B130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="A114:C121"/>
-    <mergeCell ref="A122:C125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="B127:C129"/>
-    <mergeCell ref="E114:E121"/>
-    <mergeCell ref="F114:F121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="D53:D55"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" display="e.g., DataCiteSchema" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M36" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M37" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M29" r:id="rId8" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M30" r:id="rId9" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M33" r:id="rId10" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M34" r:id="rId11" display="DataCiteSchema" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M60" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M61" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M62" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M63" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="L4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L3" r:id="rId17" xr:uid="{79274165-A08F-504F-ABEF-86158BAB6E38}"/>
-    <hyperlink ref="L5" r:id="rId18" xr:uid="{EB38BFB8-104C-9549-9590-CD747EA2AB6E}"/>
-    <hyperlink ref="L6" r:id="rId19" xr:uid="{F30A9924-D727-3841-A75B-86457F100CDE}"/>
-    <hyperlink ref="L9" r:id="rId20" xr:uid="{ACAFE479-E18E-2047-B209-085A9026CC0F}"/>
-    <hyperlink ref="L8" r:id="rId21" xr:uid="{AA8245AE-3C94-7147-8E40-35DCB3896ED9}"/>
-    <hyperlink ref="L11" r:id="rId22" xr:uid="{686CAE22-83EC-A34E-B091-F87EA6510ADC}"/>
-    <hyperlink ref="M10" r:id="rId23" xr:uid="{DE9DC848-A7C3-104D-B0CC-7DED37DA0AD1}"/>
-    <hyperlink ref="L13" r:id="rId24" xr:uid="{E40CF022-E2D9-024B-BA4B-36300D6EABED}"/>
-    <hyperlink ref="M50" r:id="rId25" xr:uid="{F21891FB-61A7-3242-9AAA-F78E177BD42B}"/>
-    <hyperlink ref="M51" r:id="rId26" xr:uid="{528FA186-ED8E-6B4E-8209-54BF5C699854}"/>
-    <hyperlink ref="M43" r:id="rId27" display="DataCiteSchema" xr:uid="{512E7D48-D0BB-474E-81C8-84AF8AADE6CD}"/>
-    <hyperlink ref="M44" r:id="rId28" display="DataCiteSchema" xr:uid="{9F3289B1-82D8-D94D-802C-C6C552D25A29}"/>
-    <hyperlink ref="M47" r:id="rId29" display="DataCiteSchema" xr:uid="{6F22468B-C0E2-8E44-88CB-546D020C68F0}"/>
-    <hyperlink ref="M48" r:id="rId30" display="DataCiteSchema" xr:uid="{A7D1F61F-E528-0C44-AC76-2EF1F8BEB3E9}"/>
-    <hyperlink ref="M64" r:id="rId31" xr:uid="{0CC4972C-ECFA-B440-9A75-02F82DDED55D}"/>
-    <hyperlink ref="M89" r:id="rId32" display="DataCiteSchema" xr:uid="{9D6D4BCF-FB27-6D40-A7BD-017D1A5A4757}"/>
-    <hyperlink ref="M90" r:id="rId33" display="DataCiteSchema" xr:uid="{A858633D-A581-7741-AFEF-6719BC41416C}"/>
-    <hyperlink ref="M82" r:id="rId34" display="DataCiteSchema" xr:uid="{31DE2953-BF4E-694F-871C-448507278D9A}"/>
-    <hyperlink ref="M83" r:id="rId35" display="DataCiteSchema" xr:uid="{8630DA0C-B932-C246-9078-95C72FB5BF91}"/>
-    <hyperlink ref="M86" r:id="rId36" display="DataCiteSchema" xr:uid="{1B438F6A-F696-1841-A0B8-8C5CDE068A67}"/>
-    <hyperlink ref="M87" r:id="rId37" display="DataCiteSchema" xr:uid="{DDF97B6B-BEE3-3C44-8345-9022D2F48A26}"/>
-    <hyperlink ref="D151" r:id="rId38" display="https://fairdatacollective.org/" xr:uid="{F7D6490E-4341-0240-BE7B-5E8915480BD0}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{79274165-A08F-504F-ABEF-86158BAB6E38}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{EB38BFB8-104C-9549-9590-CD747EA2AB6E}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{F30A9924-D727-3841-A75B-86457F100CDE}"/>
+    <hyperlink ref="L9" r:id="rId5" xr:uid="{ACAFE479-E18E-2047-B209-085A9026CC0F}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{AA8245AE-3C94-7147-8E40-35DCB3896ED9}"/>
+    <hyperlink ref="L11" r:id="rId7" xr:uid="{686CAE22-83EC-A34E-B091-F87EA6510ADC}"/>
+    <hyperlink ref="L13" r:id="rId8" xr:uid="{E40CF022-E2D9-024B-BA4B-36300D6EABED}"/>
+    <hyperlink ref="D151" r:id="rId9" display="https://fairdatacollective.org/" xr:uid="{F7D6490E-4341-0240-BE7B-5E8915480BD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -12414,19 +12430,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="740" t="s">
+      <c r="A1" s="727" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="740"/>
+      <c r="B1" s="727"/>
       <c r="C1" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="22" t="str">
         <f>Namespace &amp; LOWER($A1)</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributor</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributor</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="24"/>
@@ -12438,19 +12454,19 @@
       <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="735"/>
-      <c r="B2" s="736" t="s">
-        <v>463</v>
-      </c>
-      <c r="C2" s="741" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" s="737" t="s">
+      <c r="A2" s="728"/>
+      <c r="B2" s="729" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="730" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="731" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="738" t="str">
+      <c r="E2" s="726" t="str">
         <f>Namespace &amp; LOWER($B2)</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorname</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorname</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>115</v>
@@ -12478,16 +12494,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="735"/>
-      <c r="B3" s="736"/>
-      <c r="C3" s="741"/>
-      <c r="D3" s="737"/>
-      <c r="E3" s="738"/>
+      <c r="A3" s="728"/>
+      <c r="B3" s="729"/>
+      <c r="C3" s="730"/>
+      <c r="D3" s="731"/>
+      <c r="E3" s="726"/>
       <c r="F3" s="34" t="s">
         <v>111</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>112</v>
@@ -12509,16 +12525,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="735"/>
-      <c r="B4" s="736"/>
-      <c r="C4" s="741"/>
-      <c r="D4" s="737"/>
-      <c r="E4" s="738"/>
+      <c r="A4" s="728"/>
+      <c r="B4" s="729"/>
+      <c r="C4" s="730"/>
+      <c r="D4" s="731"/>
+      <c r="E4" s="726"/>
       <c r="F4" s="34" t="s">
         <v>113</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>114</v>
@@ -12540,19 +12556,19 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="735"/>
-      <c r="B5" s="736" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="736" t="s">
-        <v>456</v>
-      </c>
-      <c r="D5" s="737" t="s">
+      <c r="A5" s="728"/>
+      <c r="B5" s="729" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="729" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" s="731" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="738" t="str">
+      <c r="E5" s="726" t="str">
         <f>Namespace &amp; LOWER($B5)</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributoridentifier</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributoridentifier</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>120</v>
@@ -12561,7 +12577,7 @@
         <v>327</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>54</v>
@@ -12571,7 +12587,7 @@
       </c>
       <c r="K5" s="33" t="str">
         <f t="shared" ref="K5:K11" si="0">Namespace &amp; $F5</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifier</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorIdentifier</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>28</v>
@@ -12581,11 +12597,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="735"/>
-      <c r="B6" s="736"/>
-      <c r="C6" s="736"/>
-      <c r="D6" s="737"/>
-      <c r="E6" s="738"/>
+      <c r="A6" s="728"/>
+      <c r="B6" s="729"/>
+      <c r="C6" s="729"/>
+      <c r="D6" s="731"/>
+      <c r="E6" s="726"/>
       <c r="F6" s="34" t="s">
         <v>121</v>
       </c>
@@ -12593,7 +12609,7 @@
         <v>328</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>54</v>
@@ -12603,7 +12619,7 @@
       </c>
       <c r="K6" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifierScheme</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorIdentifierScheme</v>
       </c>
       <c r="L6" s="37" t="s">
         <v>24</v>
@@ -12613,11 +12629,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="735"/>
-      <c r="B7" s="736"/>
-      <c r="C7" s="736"/>
-      <c r="D7" s="737"/>
-      <c r="E7" s="738"/>
+      <c r="A7" s="728"/>
+      <c r="B7" s="729"/>
+      <c r="C7" s="729"/>
+      <c r="D7" s="731"/>
+      <c r="E7" s="726"/>
       <c r="F7" s="34" t="s">
         <v>122</v>
       </c>
@@ -12625,7 +12641,7 @@
         <v>329</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>54</v>
@@ -12635,7 +12651,7 @@
       </c>
       <c r="K7" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorIdentifierSchemeIRI</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorIdentifierSchemeIRI</v>
       </c>
       <c r="L7" s="37" t="s">
         <v>24</v>
@@ -12645,19 +12661,19 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="735"/>
-      <c r="B8" s="736" t="s">
-        <v>467</v>
-      </c>
-      <c r="C8" s="736" t="s">
-        <v>458</v>
-      </c>
-      <c r="D8" s="737" t="s">
+      <c r="A8" s="728"/>
+      <c r="B8" s="729" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="729" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="731" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="739" t="str">
+      <c r="E8" s="732" t="str">
         <f>Namespace &amp; LOWER($B8)</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributoraffiliation</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributoraffiliation</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>331</v>
@@ -12666,7 +12682,7 @@
         <v>330</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>34</v>
@@ -12676,7 +12692,7 @@
       </c>
       <c r="K8" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliation</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorAffiliation</v>
       </c>
       <c r="L8" s="29" t="s">
         <v>28</v>
@@ -12686,11 +12702,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="735"/>
-      <c r="B9" s="736"/>
-      <c r="C9" s="736"/>
-      <c r="D9" s="737"/>
-      <c r="E9" s="739"/>
+      <c r="A9" s="728"/>
+      <c r="B9" s="729"/>
+      <c r="C9" s="729"/>
+      <c r="D9" s="731"/>
+      <c r="E9" s="732"/>
       <c r="F9" s="34" t="s">
         <v>123</v>
       </c>
@@ -12708,7 +12724,7 @@
       </c>
       <c r="K9" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifier</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorAffiliationIdentifier</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>28</v>
@@ -12718,19 +12734,19 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="735"/>
-      <c r="B10" s="736"/>
-      <c r="C10" s="736"/>
-      <c r="D10" s="737"/>
-      <c r="E10" s="739"/>
+      <c r="A10" s="728"/>
+      <c r="B10" s="729"/>
+      <c r="C10" s="729"/>
+      <c r="D10" s="731"/>
+      <c r="E10" s="732"/>
       <c r="F10" s="34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>333</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>34</v>
@@ -12740,7 +12756,7 @@
       </c>
       <c r="K10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifierScheme</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorAffiliationIdentifierScheme</v>
       </c>
       <c r="L10" s="37" t="s">
         <v>24</v>
@@ -12750,11 +12766,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="735"/>
-      <c r="B11" s="736"/>
-      <c r="C11" s="736"/>
-      <c r="D11" s="737"/>
-      <c r="E11" s="739"/>
+      <c r="A11" s="728"/>
+      <c r="B11" s="729"/>
+      <c r="C11" s="729"/>
+      <c r="D11" s="731"/>
+      <c r="E11" s="732"/>
       <c r="F11" s="34" t="s">
         <v>125</v>
       </c>
@@ -12762,7 +12778,7 @@
         <v>334</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>34</v>
@@ -12772,7 +12788,7 @@
       </c>
       <c r="K11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorAffiliationIdentifierSchemeIRI</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="L11" s="37" t="s">
         <v>24</v>
@@ -12825,7 +12841,7 @@
         <v>323</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I13" s="32" t="s">
         <v>34</v>
@@ -12835,7 +12851,7 @@
       </c>
       <c r="K13" s="33" t="str">
         <f>Namespace &amp; $F13</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorRole</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorRole</v>
       </c>
       <c r="L13" s="37" t="s">
         <v>24</v>
@@ -12867,7 +12883,7 @@
       </c>
       <c r="K14" s="33" t="str">
         <f>Namespace &amp; $F14</f>
-        <v>https://vocab.fairdatacollective.org/gdmt/property/contributorType</v>
+        <v>http://vocab.fairdatacollective.org/gdmt/contributorType</v>
       </c>
       <c r="L14" s="37" t="s">
         <v>24</v>
@@ -12878,22 +12894,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L13" r:id="rId1" xr:uid="{9ABA6EE5-7A54-DF40-9E10-C757BCBA07FF}"/>

--- a/template-description.xlsx
+++ b/template-description.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF421368-6A8E-2D41-A86A-288517FF656B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96259B1-314F-6140-9370-C69555C090DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="525">
   <si>
     <t>Element 
 (CEDAR)</t>
@@ -1514,9 +1514,6 @@
     <t>Distributor</t>
   </si>
   <si>
-    <t>Information about this distributor of the dataset. The Distributor includes primarily the system doing the distribution, but can include the person or persons responsible as well, for example the person who reformsts the dataset for this distribution.</t>
-  </si>
-  <si>
     <t>DistributorName</t>
   </si>
   <si>
@@ -1608,6 +1605,15 @@
   </si>
   <si>
     <t>License Identifier Scheme IRI</t>
+  </si>
+  <si>
+    <t>1..1</t>
+  </si>
+  <si>
+    <t>Information about the distributor of this dataset distribution. The Distributor includes primarily the system doing the distribution, but can include the person or persons responsible as well, for example the person who reformed the dataset for this distribution.</t>
+  </si>
+  <si>
+    <t>http://vocab.fairdatacollective.org/gdmt/hasDistributionAccess</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="747">
+  <cellXfs count="744">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3142,607 +3148,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3758,11 +3163,603 @@
     <xf numFmtId="0" fontId="11" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3997,10 +3994,10 @@
   <dimension ref="A1:P1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L67" sqref="L67"/>
+      <selection pane="bottomRight" activeCell="G130" sqref="G130:L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4022,11 +4019,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="601" t="s">
+      <c r="A1" s="668" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="601"/>
-      <c r="C1" s="601"/>
+      <c r="B1" s="668"/>
+      <c r="C1" s="668"/>
       <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
@@ -4064,11 +4061,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="600" t="s">
+      <c r="A2" s="667" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="600"/>
-      <c r="C2" s="600"/>
+      <c r="B2" s="667"/>
+      <c r="C2" s="667"/>
       <c r="D2" s="121" t="s">
         <v>10</v>
       </c>
@@ -4100,18 +4097,18 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="595" t="s">
+      <c r="A3" s="662" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="595"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="620" t="s">
+      <c r="B3" s="662"/>
+      <c r="C3" s="662"/>
+      <c r="D3" s="684" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="622">
+      <c r="E3" s="686">
         <v>1</v>
       </c>
-      <c r="F3" s="623" t="str">
+      <c r="F3" s="687" t="str">
         <f>Namespace &amp; "has" &amp; $A3 &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasResourceTypeInfo</v>
       </c>
@@ -4142,12 +4139,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="596"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="621"/>
-      <c r="E4" s="575"/>
-      <c r="F4" s="624"/>
+      <c r="A4" s="663"/>
+      <c r="B4" s="663"/>
+      <c r="C4" s="663"/>
+      <c r="D4" s="685"/>
+      <c r="E4" s="581"/>
+      <c r="F4" s="688"/>
       <c r="G4" s="185" t="s">
         <v>22</v>
       </c>
@@ -4175,18 +4172,18 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="597" t="s">
+      <c r="A5" s="664" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="597"/>
-      <c r="C5" s="597"/>
-      <c r="D5" s="535" t="s">
+      <c r="B5" s="664"/>
+      <c r="C5" s="664"/>
+      <c r="D5" s="720" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="617">
+      <c r="E5" s="681">
         <v>1</v>
       </c>
-      <c r="F5" s="625" t="str">
+      <c r="F5" s="689" t="str">
         <f>Namespace &amp; "has" &amp; ($A5) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDatasetIdentifierInfo</v>
       </c>
@@ -4216,12 +4213,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="598"/>
-      <c r="B6" s="598"/>
-      <c r="C6" s="598"/>
-      <c r="D6" s="536"/>
-      <c r="E6" s="618"/>
-      <c r="F6" s="626"/>
+      <c r="A6" s="665"/>
+      <c r="B6" s="665"/>
+      <c r="C6" s="665"/>
+      <c r="D6" s="721"/>
+      <c r="E6" s="682"/>
+      <c r="F6" s="690"/>
       <c r="G6" s="53" t="s">
         <v>29</v>
       </c>
@@ -4248,12 +4245,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="599"/>
-      <c r="B7" s="599"/>
-      <c r="C7" s="599"/>
-      <c r="D7" s="537"/>
-      <c r="E7" s="619"/>
-      <c r="F7" s="627"/>
+      <c r="A7" s="666"/>
+      <c r="B7" s="666"/>
+      <c r="C7" s="666"/>
+      <c r="D7" s="722"/>
+      <c r="E7" s="683"/>
+      <c r="F7" s="691"/>
       <c r="G7" s="198" t="s">
         <v>32</v>
       </c>
@@ -4281,18 +4278,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="652" t="s">
+      <c r="A8" s="610" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="652"/>
-      <c r="C8" s="652"/>
-      <c r="D8" s="570" t="s">
+      <c r="B8" s="610"/>
+      <c r="C8" s="610"/>
+      <c r="D8" s="699" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="573" t="s">
+      <c r="E8" s="702" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="576" t="str">
+      <c r="F8" s="703" t="str">
         <f>Namespace &amp; "has" &amp; ($A8) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasRelatedResourcesInfo</v>
       </c>
@@ -4322,12 +4319,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="653"/>
-      <c r="B9" s="653"/>
-      <c r="C9" s="653"/>
-      <c r="D9" s="571"/>
-      <c r="E9" s="574"/>
-      <c r="F9" s="577"/>
+      <c r="A9" s="611"/>
+      <c r="B9" s="611"/>
+      <c r="C9" s="611"/>
+      <c r="D9" s="700"/>
+      <c r="E9" s="580"/>
+      <c r="F9" s="704"/>
       <c r="G9" s="59" t="s">
         <v>38</v>
       </c>
@@ -4355,12 +4352,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="653"/>
-      <c r="B10" s="653"/>
-      <c r="C10" s="653"/>
-      <c r="D10" s="571"/>
-      <c r="E10" s="574"/>
-      <c r="F10" s="577"/>
+      <c r="A10" s="611"/>
+      <c r="B10" s="611"/>
+      <c r="C10" s="611"/>
+      <c r="D10" s="700"/>
+      <c r="E10" s="580"/>
+      <c r="F10" s="704"/>
       <c r="G10" s="59" t="s">
         <v>272</v>
       </c>
@@ -4389,12 +4386,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="653"/>
-      <c r="B11" s="653"/>
-      <c r="C11" s="653"/>
-      <c r="D11" s="571"/>
-      <c r="E11" s="574"/>
-      <c r="F11" s="577"/>
+      <c r="A11" s="611"/>
+      <c r="B11" s="611"/>
+      <c r="C11" s="611"/>
+      <c r="D11" s="700"/>
+      <c r="E11" s="580"/>
+      <c r="F11" s="704"/>
       <c r="G11" s="64" t="s">
         <v>41</v>
       </c>
@@ -4422,12 +4419,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="654"/>
-      <c r="B12" s="654"/>
-      <c r="C12" s="654"/>
-      <c r="D12" s="572"/>
-      <c r="E12" s="575"/>
-      <c r="F12" s="578"/>
+      <c r="A12" s="612"/>
+      <c r="B12" s="612"/>
+      <c r="C12" s="612"/>
+      <c r="D12" s="701"/>
+      <c r="E12" s="581"/>
+      <c r="F12" s="705"/>
       <c r="G12" s="211" t="s">
         <v>42</v>
       </c>
@@ -4455,11 +4452,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="656" t="s">
+      <c r="A13" s="617" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="656"/>
-      <c r="C13" s="656"/>
+      <c r="B13" s="617"/>
+      <c r="C13" s="617"/>
       <c r="D13" s="238" t="s">
         <v>45</v>
       </c>
@@ -4496,18 +4493,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="657" t="s">
+      <c r="A14" s="618" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="657"/>
-      <c r="C14" s="657"/>
-      <c r="D14" s="540" t="s">
+      <c r="B14" s="618"/>
+      <c r="C14" s="618"/>
+      <c r="D14" s="725" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="593" t="s">
+      <c r="E14" s="715" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="538" t="str">
+      <c r="F14" s="723" t="str">
         <f>Namespace &amp; "has" &amp; ($A14) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasLanguageInfo</v>
       </c>
@@ -4537,12 +4534,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="658"/>
-      <c r="B15" s="658"/>
-      <c r="C15" s="658"/>
-      <c r="D15" s="541"/>
-      <c r="E15" s="594"/>
-      <c r="F15" s="539"/>
+      <c r="A15" s="619"/>
+      <c r="B15" s="619"/>
+      <c r="C15" s="619"/>
+      <c r="D15" s="726"/>
+      <c r="E15" s="716"/>
+      <c r="F15" s="724"/>
       <c r="G15" s="224" t="s">
         <v>51</v>
       </c>
@@ -4572,11 +4569,11 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="659" t="s">
+      <c r="A16" s="620" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="659"/>
-      <c r="C16" s="659"/>
+      <c r="B16" s="620"/>
+      <c r="C16" s="620"/>
       <c r="D16" s="239" t="s">
         <v>53</v>
       </c>
@@ -4613,11 +4610,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="660" t="s">
+      <c r="A17" s="621" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="660"/>
-      <c r="C17" s="660"/>
+      <c r="B17" s="621"/>
+      <c r="C17" s="621"/>
       <c r="D17" s="78" t="s">
         <v>58</v>
       </c>
@@ -4656,11 +4653,11 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" s="11" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="655" t="s">
+      <c r="A18" s="613" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="655"/>
-      <c r="C18" s="655"/>
+      <c r="B18" s="613"/>
+      <c r="C18" s="613"/>
       <c r="D18" s="240" t="s">
         <v>63</v>
       </c>
@@ -4684,17 +4681,17 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="310"/>
-      <c r="B19" s="542" t="s">
-        <v>499</v>
-      </c>
-      <c r="C19" s="542"/>
-      <c r="D19" s="542" t="s">
+      <c r="B19" s="614" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="614"/>
+      <c r="D19" s="614" t="s">
         <v>466</v>
       </c>
-      <c r="E19" s="590" t="s">
+      <c r="E19" s="712" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="587" t="str">
+      <c r="F19" s="709" t="str">
         <f>Namespace&amp;($B19) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/ControlledTermsInfo</v>
       </c>
@@ -4717,7 +4714,7 @@
         <v>67</v>
       </c>
       <c r="M19" s="126" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N19" s="126" t="s">
         <v>28</v>
@@ -4725,11 +4722,11 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="310"/>
-      <c r="B20" s="543"/>
-      <c r="C20" s="543"/>
-      <c r="D20" s="543"/>
-      <c r="E20" s="591"/>
-      <c r="F20" s="588"/>
+      <c r="B20" s="615"/>
+      <c r="C20" s="615"/>
+      <c r="D20" s="615"/>
+      <c r="E20" s="713"/>
+      <c r="F20" s="710"/>
       <c r="G20" s="79" t="s">
         <v>467</v>
       </c>
@@ -4750,7 +4747,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasSubjectIRI</v>
       </c>
       <c r="M20" s="83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N20" s="83" t="s">
         <v>28</v>
@@ -4758,11 +4755,11 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="310"/>
-      <c r="B21" s="543"/>
-      <c r="C21" s="543"/>
-      <c r="D21" s="543"/>
-      <c r="E21" s="591"/>
-      <c r="F21" s="588"/>
+      <c r="B21" s="615"/>
+      <c r="C21" s="615"/>
+      <c r="D21" s="615"/>
+      <c r="E21" s="713"/>
+      <c r="F21" s="710"/>
       <c r="G21" s="83" t="s">
         <v>70</v>
       </c>
@@ -4783,7 +4780,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasSubjectScheme</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N21" s="83" t="s">
         <v>28</v>
@@ -4791,11 +4788,11 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="310"/>
-      <c r="B22" s="544"/>
-      <c r="C22" s="544"/>
-      <c r="D22" s="544"/>
-      <c r="E22" s="592"/>
-      <c r="F22" s="589"/>
+      <c r="B22" s="616"/>
+      <c r="C22" s="616"/>
+      <c r="D22" s="616"/>
+      <c r="E22" s="714"/>
+      <c r="F22" s="711"/>
       <c r="G22" s="127" t="s">
         <v>71</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasSubjectSchemeIRI</v>
       </c>
       <c r="M22" s="131" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N22" s="131" t="s">
         <v>28</v>
@@ -4854,11 +4851,11 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="665" t="s">
+      <c r="A24" s="630" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="665"/>
-      <c r="C24" s="665"/>
+      <c r="B24" s="630"/>
+      <c r="C24" s="630"/>
       <c r="D24" s="241" t="s">
         <v>73</v>
       </c>
@@ -4880,17 +4877,17 @@
     </row>
     <row r="25" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="611" t="s">
+      <c r="B25" s="631" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="611"/>
-      <c r="D25" s="611" t="s">
+      <c r="C25" s="631"/>
+      <c r="D25" s="631" t="s">
         <v>476</v>
       </c>
-      <c r="E25" s="581" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="614" t="str">
+      <c r="E25" s="675" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="678" t="str">
         <f>Namespace &amp; "has" &amp; ($B25) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorNameInfo</v>
       </c>
@@ -4921,11 +4918,11 @@
     </row>
     <row r="26" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="612"/>
-      <c r="C26" s="612"/>
-      <c r="D26" s="612"/>
-      <c r="E26" s="582"/>
-      <c r="F26" s="615"/>
+      <c r="B26" s="632"/>
+      <c r="C26" s="632"/>
+      <c r="D26" s="632"/>
+      <c r="E26" s="676"/>
+      <c r="F26" s="679"/>
       <c r="G26" s="87" t="s">
         <v>79</v>
       </c>
@@ -4953,11 +4950,11 @@
     </row>
     <row r="27" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="613"/>
-      <c r="C27" s="613"/>
-      <c r="D27" s="613"/>
-      <c r="E27" s="583"/>
-      <c r="F27" s="616"/>
+      <c r="B27" s="633"/>
+      <c r="C27" s="633"/>
+      <c r="D27" s="633"/>
+      <c r="E27" s="677"/>
+      <c r="F27" s="680"/>
       <c r="G27" s="136" t="s">
         <v>82</v>
       </c>
@@ -4985,17 +4982,17 @@
     </row>
     <row r="28" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="611" t="s">
+      <c r="B28" s="631" t="s">
         <v>451</v>
       </c>
-      <c r="C28" s="611"/>
-      <c r="D28" s="611" t="s">
+      <c r="C28" s="631"/>
+      <c r="D28" s="631" t="s">
         <v>475</v>
       </c>
-      <c r="E28" s="581" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="614" t="str">
+      <c r="E28" s="675" t="s">
+        <v>522</v>
+      </c>
+      <c r="F28" s="678" t="str">
         <f>Namespace &amp; "has" &amp; ($B28) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifierInfo</v>
       </c>
@@ -5015,7 +5012,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="135" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H28, " ", "")</f>
+        <f t="shared" ref="L28:L34" si="0">Namespace &amp; "has" &amp; SUBSTITUTE($H28, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifier</v>
       </c>
       <c r="M28" s="132" t="s">
@@ -5027,11 +5024,11 @@
     </row>
     <row r="29" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="612"/>
-      <c r="C29" s="612"/>
-      <c r="D29" s="612"/>
-      <c r="E29" s="582"/>
-      <c r="F29" s="615"/>
+      <c r="B29" s="632"/>
+      <c r="C29" s="632"/>
+      <c r="D29" s="632"/>
+      <c r="E29" s="676"/>
+      <c r="F29" s="679"/>
       <c r="G29" s="87" t="s">
         <v>93</v>
       </c>
@@ -5048,7 +5045,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="86" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H29, " ", "")</f>
+        <f t="shared" si="0"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifierScheme</v>
       </c>
       <c r="M29" s="89" t="str">
@@ -5061,11 +5058,11 @@
     </row>
     <row r="30" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="613"/>
-      <c r="C30" s="613"/>
-      <c r="D30" s="613"/>
-      <c r="E30" s="583"/>
-      <c r="F30" s="616"/>
+      <c r="B30" s="633"/>
+      <c r="C30" s="633"/>
+      <c r="D30" s="633"/>
+      <c r="E30" s="677"/>
+      <c r="F30" s="680"/>
       <c r="G30" s="136" t="s">
         <v>95</v>
       </c>
@@ -5082,7 +5079,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="139" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H30, " ", "")</f>
+        <f t="shared" si="0"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifierSchemeIRI</v>
       </c>
       <c r="M30" s="143" t="str">
@@ -5095,17 +5092,17 @@
     </row>
     <row r="31" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="611" t="s">
+      <c r="B31" s="631" t="s">
         <v>452</v>
       </c>
-      <c r="C31" s="611"/>
-      <c r="D31" s="611" t="s">
+      <c r="C31" s="631"/>
+      <c r="D31" s="631" t="s">
         <v>474</v>
       </c>
-      <c r="E31" s="581" t="s">
+      <c r="E31" s="675" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="733" t="str">
+      <c r="F31" s="706" t="str">
         <f>Namespace &amp; "has" &amp; ($B31) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationInfo</v>
       </c>
@@ -5125,7 +5122,7 @@
         <v>36</v>
       </c>
       <c r="L31" s="135" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H31, " ", "")</f>
+        <f t="shared" si="0"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliation</v>
       </c>
       <c r="M31" s="84" t="s">
@@ -5137,11 +5134,11 @@
     </row>
     <row r="32" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="612"/>
-      <c r="C32" s="612"/>
-      <c r="D32" s="612"/>
-      <c r="E32" s="582"/>
-      <c r="F32" s="579"/>
+      <c r="B32" s="632"/>
+      <c r="C32" s="632"/>
+      <c r="D32" s="632"/>
+      <c r="E32" s="676"/>
+      <c r="F32" s="707"/>
       <c r="G32" s="87" t="s">
         <v>100</v>
       </c>
@@ -5158,7 +5155,7 @@
         <v>36</v>
       </c>
       <c r="L32" s="86" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H32, " ", "")</f>
+        <f t="shared" si="0"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationIdentifier</v>
       </c>
       <c r="M32" s="84" t="s">
@@ -5170,11 +5167,11 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
-      <c r="B33" s="612"/>
-      <c r="C33" s="612"/>
-      <c r="D33" s="612"/>
-      <c r="E33" s="582"/>
-      <c r="F33" s="579"/>
+      <c r="B33" s="632"/>
+      <c r="C33" s="632"/>
+      <c r="D33" s="632"/>
+      <c r="E33" s="676"/>
+      <c r="F33" s="707"/>
       <c r="G33" s="87" t="s">
         <v>103</v>
       </c>
@@ -5191,7 +5188,7 @@
         <v>36</v>
       </c>
       <c r="L33" s="86" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H33, " ", "")</f>
+        <f t="shared" si="0"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationIdentifierScheme</v>
       </c>
       <c r="M33" s="89" t="str">
@@ -5204,11 +5201,11 @@
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="613"/>
-      <c r="C34" s="613"/>
-      <c r="D34" s="613"/>
-      <c r="E34" s="583"/>
-      <c r="F34" s="580"/>
+      <c r="B34" s="633"/>
+      <c r="C34" s="633"/>
+      <c r="D34" s="633"/>
+      <c r="E34" s="677"/>
+      <c r="F34" s="708"/>
       <c r="G34" s="136" t="s">
         <v>105</v>
       </c>
@@ -5225,7 +5222,7 @@
         <v>36</v>
       </c>
       <c r="L34" s="139" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H34, " ", "")</f>
+        <f t="shared" si="0"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="M34" s="143" t="str">
@@ -5337,11 +5334,11 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="666" t="s">
+      <c r="A38" s="634" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="666"/>
-      <c r="C38" s="666"/>
+      <c r="B38" s="634"/>
+      <c r="C38" s="634"/>
       <c r="D38" s="377" t="s">
         <v>460</v>
       </c>
@@ -5363,17 +5360,17 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="419"/>
-      <c r="B39" s="667" t="s">
+      <c r="B39" s="635" t="s">
         <v>461</v>
       </c>
-      <c r="C39" s="667"/>
-      <c r="D39" s="602" t="s">
+      <c r="C39" s="635"/>
+      <c r="D39" s="636" t="s">
         <v>477</v>
       </c>
-      <c r="E39" s="605" t="s">
+      <c r="E39" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="584" t="str">
+      <c r="F39" s="672" t="str">
         <f>Namespace &amp; "has" &amp; ($B39) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorNameInfo</v>
       </c>
@@ -5404,11 +5401,11 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="419"/>
-      <c r="B40" s="667"/>
-      <c r="C40" s="667"/>
-      <c r="D40" s="603"/>
-      <c r="E40" s="606"/>
-      <c r="F40" s="585"/>
+      <c r="B40" s="635"/>
+      <c r="C40" s="635"/>
+      <c r="D40" s="637"/>
+      <c r="E40" s="586"/>
+      <c r="F40" s="673"/>
       <c r="G40" s="389" t="s">
         <v>111</v>
       </c>
@@ -5436,11 +5433,11 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="419"/>
-      <c r="B41" s="667"/>
-      <c r="C41" s="667"/>
-      <c r="D41" s="604"/>
-      <c r="E41" s="607"/>
-      <c r="F41" s="586"/>
+      <c r="B41" s="635"/>
+      <c r="C41" s="635"/>
+      <c r="D41" s="638"/>
+      <c r="E41" s="587"/>
+      <c r="F41" s="674"/>
       <c r="G41" s="394" t="s">
         <v>113</v>
       </c>
@@ -5468,17 +5465,17 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="419"/>
-      <c r="B42" s="602" t="s">
+      <c r="B42" s="636" t="s">
         <v>464</v>
       </c>
-      <c r="C42" s="602"/>
-      <c r="D42" s="602" t="s">
+      <c r="C42" s="636"/>
+      <c r="D42" s="636" t="s">
         <v>478</v>
       </c>
-      <c r="E42" s="605" t="s">
+      <c r="E42" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="584" t="str">
+      <c r="F42" s="672" t="str">
         <f>Namespace &amp; "has" &amp; ($B42) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifierInfo</v>
       </c>
@@ -5498,7 +5495,7 @@
         <v>36</v>
       </c>
       <c r="L42" s="388" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H42, " ", "")</f>
+        <f t="shared" ref="L42:L48" si="1">Namespace &amp; "has" &amp; SUBSTITUTE($H42, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifier</v>
       </c>
       <c r="M42" s="385" t="s">
@@ -5510,11 +5507,11 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="419"/>
-      <c r="B43" s="603"/>
-      <c r="C43" s="603"/>
-      <c r="D43" s="603"/>
-      <c r="E43" s="606"/>
-      <c r="F43" s="585"/>
+      <c r="B43" s="637"/>
+      <c r="C43" s="637"/>
+      <c r="D43" s="637"/>
+      <c r="E43" s="586"/>
+      <c r="F43" s="673"/>
       <c r="G43" s="389" t="s">
         <v>121</v>
       </c>
@@ -5531,7 +5528,7 @@
         <v>36</v>
       </c>
       <c r="L43" s="392" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H43, " ", "")</f>
+        <f t="shared" si="1"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifierScheme</v>
       </c>
       <c r="M43" s="401" t="str">
@@ -5544,11 +5541,11 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="419"/>
-      <c r="B44" s="604"/>
-      <c r="C44" s="604"/>
-      <c r="D44" s="604"/>
-      <c r="E44" s="607"/>
-      <c r="F44" s="586"/>
+      <c r="B44" s="638"/>
+      <c r="C44" s="638"/>
+      <c r="D44" s="638"/>
+      <c r="E44" s="587"/>
+      <c r="F44" s="674"/>
       <c r="G44" s="394" t="s">
         <v>122</v>
       </c>
@@ -5565,7 +5562,7 @@
         <v>36</v>
       </c>
       <c r="L44" s="397" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H44, " ", "")</f>
+        <f t="shared" si="1"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifierSchemeIRI</v>
       </c>
       <c r="M44" s="402" t="str">
@@ -5578,17 +5575,17 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="419"/>
-      <c r="B45" s="602" t="s">
+      <c r="B45" s="636" t="s">
         <v>465</v>
       </c>
-      <c r="C45" s="602"/>
-      <c r="D45" s="602" t="s">
+      <c r="C45" s="636"/>
+      <c r="D45" s="636" t="s">
         <v>479</v>
       </c>
-      <c r="E45" s="605" t="s">
+      <c r="E45" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="608" t="str">
+      <c r="F45" s="669" t="str">
         <f>Namespace &amp; "has" &amp; ($B45) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationInfo</v>
       </c>
@@ -5608,7 +5605,7 @@
         <v>36</v>
       </c>
       <c r="L45" s="388" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H45, " ", "")</f>
+        <f t="shared" si="1"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliation</v>
       </c>
       <c r="M45" s="385" t="s">
@@ -5620,11 +5617,11 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="419"/>
-      <c r="B46" s="603"/>
-      <c r="C46" s="603"/>
-      <c r="D46" s="603"/>
-      <c r="E46" s="606"/>
-      <c r="F46" s="609"/>
+      <c r="B46" s="637"/>
+      <c r="C46" s="637"/>
+      <c r="D46" s="637"/>
+      <c r="E46" s="586"/>
+      <c r="F46" s="670"/>
       <c r="G46" s="389" t="s">
         <v>123</v>
       </c>
@@ -5641,7 +5638,7 @@
         <v>36</v>
       </c>
       <c r="L46" s="392" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H46, " ", "")</f>
+        <f t="shared" si="1"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationIdentifier</v>
       </c>
       <c r="M46" s="393" t="s">
@@ -5653,11 +5650,11 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="419"/>
-      <c r="B47" s="603"/>
-      <c r="C47" s="603"/>
-      <c r="D47" s="603"/>
-      <c r="E47" s="606"/>
-      <c r="F47" s="609"/>
+      <c r="B47" s="637"/>
+      <c r="C47" s="637"/>
+      <c r="D47" s="637"/>
+      <c r="E47" s="586"/>
+      <c r="F47" s="670"/>
       <c r="G47" s="389" t="s">
         <v>458</v>
       </c>
@@ -5674,7 +5671,7 @@
         <v>36</v>
       </c>
       <c r="L47" s="392" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H47, " ", "")</f>
+        <f t="shared" si="1"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationIdentifierScheme</v>
       </c>
       <c r="M47" s="401" t="str">
@@ -5687,11 +5684,11 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="419"/>
-      <c r="B48" s="604"/>
-      <c r="C48" s="604"/>
-      <c r="D48" s="604"/>
-      <c r="E48" s="607"/>
-      <c r="F48" s="610"/>
+      <c r="B48" s="638"/>
+      <c r="C48" s="638"/>
+      <c r="D48" s="638"/>
+      <c r="E48" s="587"/>
+      <c r="F48" s="671"/>
       <c r="G48" s="394" t="s">
         <v>125</v>
       </c>
@@ -5708,7 +5705,7 @@
         <v>36</v>
       </c>
       <c r="L48" s="397" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H48, " ", "")</f>
+        <f t="shared" si="1"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="M48" s="402" t="str">
@@ -5824,11 +5821,11 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="668" t="s">
+      <c r="A52" s="639" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="668"/>
-      <c r="C52" s="668"/>
+      <c r="B52" s="639"/>
+      <c r="C52" s="639"/>
       <c r="D52" s="243" t="s">
         <v>435</v>
       </c>
@@ -5850,17 +5847,17 @@
     </row>
     <row r="53" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="421"/>
-      <c r="B53" s="560" t="s">
+      <c r="B53" s="648" t="s">
         <v>472</v>
       </c>
-      <c r="C53" s="560"/>
-      <c r="D53" s="560" t="s">
+      <c r="C53" s="648"/>
+      <c r="D53" s="648" t="s">
         <v>473</v>
       </c>
-      <c r="E53" s="557" t="s">
+      <c r="E53" s="734" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="554" t="str">
+      <c r="F53" s="731" t="str">
         <f>Namespace &amp; "has" &amp; ($B53) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasPublisherIdentifierInfo</v>
       </c>
@@ -5892,11 +5889,11 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="421"/>
-      <c r="B54" s="561"/>
-      <c r="C54" s="561"/>
-      <c r="D54" s="561"/>
-      <c r="E54" s="558"/>
-      <c r="F54" s="555"/>
+      <c r="B54" s="649"/>
+      <c r="C54" s="649"/>
+      <c r="D54" s="649"/>
+      <c r="E54" s="735"/>
+      <c r="F54" s="732"/>
       <c r="G54" s="93" t="s">
         <v>136</v>
       </c>
@@ -5926,11 +5923,11 @@
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="421"/>
-      <c r="B55" s="562"/>
-      <c r="C55" s="562"/>
-      <c r="D55" s="562"/>
-      <c r="E55" s="559"/>
-      <c r="F55" s="556"/>
+      <c r="B55" s="650"/>
+      <c r="C55" s="650"/>
+      <c r="D55" s="650"/>
+      <c r="E55" s="736"/>
+      <c r="F55" s="733"/>
       <c r="G55" s="252" t="s">
         <v>137</v>
       </c>
@@ -6058,11 +6055,11 @@
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="651" t="s">
+      <c r="A59" s="660" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="651"/>
-      <c r="C59" s="651"/>
+      <c r="B59" s="660"/>
+      <c r="C59" s="660"/>
       <c r="D59" s="291" t="s">
         <v>139</v>
       </c>
@@ -6117,17 +6114,17 @@
     </row>
     <row r="61" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="423"/>
-      <c r="B61" s="551" t="s">
+      <c r="B61" s="552" t="s">
         <v>482</v>
       </c>
-      <c r="C61" s="551"/>
-      <c r="D61" s="551" t="s">
+      <c r="C61" s="552"/>
+      <c r="D61" s="552" t="s">
         <v>483</v>
       </c>
-      <c r="E61" s="548" t="s">
+      <c r="E61" s="555" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="545" t="str">
+      <c r="F61" s="727" t="str">
         <f>Namespace &amp; "has" &amp; ($B61) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifierInfo</v>
       </c>
@@ -6161,16 +6158,16 @@
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="423"/>
-      <c r="B62" s="552"/>
-      <c r="C62" s="552"/>
-      <c r="D62" s="552"/>
-      <c r="E62" s="549"/>
-      <c r="F62" s="546"/>
+      <c r="B62" s="553"/>
+      <c r="C62" s="553"/>
+      <c r="D62" s="553"/>
+      <c r="E62" s="556"/>
+      <c r="F62" s="728"/>
       <c r="G62" s="98" t="s">
         <v>148</v>
       </c>
       <c r="H62" s="98" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I62" s="99" t="s">
         <v>380</v>
@@ -6194,16 +6191,16 @@
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="423"/>
-      <c r="B63" s="553"/>
-      <c r="C63" s="553"/>
-      <c r="D63" s="553"/>
-      <c r="E63" s="550"/>
-      <c r="F63" s="547"/>
+      <c r="B63" s="661"/>
+      <c r="C63" s="661"/>
+      <c r="D63" s="661"/>
+      <c r="E63" s="730"/>
+      <c r="F63" s="729"/>
       <c r="G63" s="285" t="s">
         <v>149</v>
       </c>
       <c r="H63" s="285" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I63" s="286" t="s">
         <v>381</v>
@@ -6256,18 +6253,18 @@
       <c r="N64" s="272"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="734" t="s">
+      <c r="A65" s="627" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="734"/>
-      <c r="C65" s="734"/>
-      <c r="D65" s="643" t="s">
-        <v>517</v>
-      </c>
-      <c r="E65" s="644" t="s">
+      <c r="B65" s="627"/>
+      <c r="C65" s="627"/>
+      <c r="D65" s="653" t="s">
+        <v>516</v>
+      </c>
+      <c r="E65" s="655" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="643" t="str">
+      <c r="F65" s="653" t="str">
         <f>Namespace &amp; "has" &amp; ($A65) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDateInfo</v>
       </c>
@@ -6283,7 +6280,9 @@
       <c r="J65" s="301">
         <v>1</v>
       </c>
-      <c r="K65" s="302"/>
+      <c r="K65" s="302" t="s">
+        <v>20</v>
+      </c>
       <c r="L65" s="302" t="str">
         <f>Namespace &amp; "has" &amp; SUBSTITUTE($H65, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDatasetDate</v>
@@ -6294,44 +6293,46 @@
       <c r="N65" s="303"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="735"/>
-      <c r="B66" s="735"/>
-      <c r="C66" s="735"/>
-      <c r="D66" s="736"/>
-      <c r="E66" s="737"/>
-      <c r="F66" s="736"/>
-      <c r="G66" s="738" t="s">
+      <c r="A66" s="628"/>
+      <c r="B66" s="628"/>
+      <c r="C66" s="628"/>
+      <c r="D66" s="654"/>
+      <c r="E66" s="656"/>
+      <c r="F66" s="654"/>
+      <c r="G66" s="535" t="s">
         <v>484</v>
       </c>
-      <c r="H66" s="738" t="s">
+      <c r="H66" s="535" t="s">
         <v>485</v>
       </c>
-      <c r="I66" s="739" t="s">
+      <c r="I66" s="536" t="s">
         <v>486</v>
       </c>
-      <c r="J66" s="740">
+      <c r="J66" s="537">
         <v>1</v>
       </c>
-      <c r="K66" s="741"/>
-      <c r="L66" s="741" t="str">
+      <c r="K66" s="538" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="538" t="str">
         <f>Namespace &amp; "has" &amp; SUBSTITUTE($H66, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDatasetDateType</v>
       </c>
-      <c r="M66" s="742" t="str">
+      <c r="M66" s="539" t="str">
         <f>Namespace</f>
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
-      <c r="N66" s="742" t="s">
+      <c r="N66" s="539" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="664" t="s">
+      <c r="A67" s="629" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="664"/>
-      <c r="C67" s="664"/>
-      <c r="D67" s="669" t="s">
+      <c r="B67" s="629"/>
+      <c r="C67" s="629"/>
+      <c r="D67" s="640" t="s">
         <v>159</v>
       </c>
       <c r="E67" s="360" t="s">
@@ -6352,9 +6353,9 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="367"/>
-      <c r="B68" s="641"/>
-      <c r="C68" s="641"/>
-      <c r="D68" s="670"/>
+      <c r="B68" s="651"/>
+      <c r="C68" s="651"/>
+      <c r="D68" s="641"/>
       <c r="E68" s="311"/>
       <c r="F68" s="312"/>
       <c r="G68" s="313" t="s">
@@ -6388,7 +6389,7 @@
       <c r="A69" s="367"/>
       <c r="B69" s="368"/>
       <c r="C69" s="317"/>
-      <c r="D69" s="670"/>
+      <c r="D69" s="641"/>
       <c r="E69" s="319"/>
       <c r="F69" s="312"/>
       <c r="G69" s="313" t="s">
@@ -6422,7 +6423,7 @@
       <c r="A70" s="367"/>
       <c r="B70" s="368"/>
       <c r="C70" s="317"/>
-      <c r="D70" s="670"/>
+      <c r="D70" s="641"/>
       <c r="E70" s="320"/>
       <c r="F70" s="312"/>
       <c r="G70" s="305" t="s">
@@ -6444,17 +6445,17 @@
         <v>441</v>
       </c>
       <c r="M70" s="309" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N70" s="309" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="367"/>
       <c r="B71" s="368"/>
       <c r="C71" s="317"/>
-      <c r="D71" s="670"/>
+      <c r="D71" s="641"/>
       <c r="E71" s="320"/>
       <c r="F71" s="312"/>
       <c r="G71" s="305" t="s">
@@ -6473,11 +6474,11 @@
         <v>20</v>
       </c>
       <c r="L71" s="316" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H71, " ", "")</f>
+        <f t="shared" ref="L71:L76" si="2">Namespace &amp; "has" &amp; SUBSTITUTE($H71, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionMediaType</v>
       </c>
       <c r="M71" s="309" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N71" s="309" t="s">
         <v>28</v>
@@ -6487,7 +6488,7 @@
       <c r="A72" s="367"/>
       <c r="B72" s="368"/>
       <c r="C72" s="317"/>
-      <c r="D72" s="670"/>
+      <c r="D72" s="641"/>
       <c r="E72" s="319"/>
       <c r="F72" s="312"/>
       <c r="G72" s="305" t="s">
@@ -6506,7 +6507,7 @@
         <v>36</v>
       </c>
       <c r="L72" s="316" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H72, " ", "")</f>
+        <f t="shared" si="2"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionSize</v>
       </c>
       <c r="M72" s="309" t="s">
@@ -6518,17 +6519,19 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="367"/>
-      <c r="B73" s="635" t="s">
+      <c r="B73" s="624" t="s">
         <v>488</v>
       </c>
-      <c r="C73" s="635"/>
-      <c r="D73" s="648" t="s">
+      <c r="C73" s="624"/>
+      <c r="D73" s="657" t="s">
         <v>489</v>
       </c>
-      <c r="E73" s="628">
+      <c r="E73" s="642">
         <v>1</v>
       </c>
-      <c r="F73" s="645"/>
+      <c r="F73" s="657" t="s">
+        <v>524</v>
+      </c>
       <c r="G73" s="321" t="s">
         <v>163</v>
       </c>
@@ -6544,8 +6547,8 @@
       <c r="K73" s="324" t="s">
         <v>36</v>
       </c>
-      <c r="L73" s="743" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H73, " ", "")</f>
+      <c r="L73" s="540" t="str">
+        <f t="shared" si="2"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionAccessProtocol</v>
       </c>
       <c r="M73" s="325" t="s">
@@ -6557,11 +6560,11 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="367"/>
-      <c r="B74" s="636"/>
-      <c r="C74" s="636"/>
-      <c r="D74" s="649"/>
-      <c r="E74" s="629"/>
-      <c r="F74" s="646"/>
+      <c r="B74" s="625"/>
+      <c r="C74" s="625"/>
+      <c r="D74" s="658"/>
+      <c r="E74" s="643"/>
+      <c r="F74" s="658"/>
       <c r="G74" s="305" t="s">
         <v>164</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>36</v>
       </c>
       <c r="L74" s="316" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H74, " ", "")</f>
+        <f t="shared" si="2"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionAccessConfiguration</v>
       </c>
       <c r="M74" s="309" t="s">
@@ -6590,11 +6593,11 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="367"/>
-      <c r="B75" s="637"/>
-      <c r="C75" s="637"/>
-      <c r="D75" s="650"/>
-      <c r="E75" s="630"/>
-      <c r="F75" s="647"/>
+      <c r="B75" s="626"/>
+      <c r="C75" s="626"/>
+      <c r="D75" s="659"/>
+      <c r="E75" s="644"/>
+      <c r="F75" s="659"/>
       <c r="G75" s="326" t="s">
         <v>447</v>
       </c>
@@ -6610,8 +6613,8 @@
       <c r="K75" s="329" t="s">
         <v>36</v>
       </c>
-      <c r="L75" s="744" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H75, " ", "")</f>
+      <c r="L75" s="541" t="str">
+        <f t="shared" si="2"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionQueryStatement</v>
       </c>
       <c r="M75" s="330" t="s">
@@ -6644,7 +6647,7 @@
         <v>20</v>
       </c>
       <c r="L76" s="316" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H76, " ", "")</f>
+        <f t="shared" si="2"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionDate</v>
       </c>
       <c r="M76" s="309" t="s">
@@ -6654,12 +6657,12 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="367"/>
-      <c r="B77" s="642" t="s">
+      <c r="B77" s="652" t="s">
         <v>490</v>
       </c>
-      <c r="C77" s="642"/>
+      <c r="C77" s="652"/>
       <c r="D77" s="353" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="E77" s="354" t="s">
         <v>54</v>
@@ -6679,17 +6682,17 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="367"/>
-      <c r="B78" s="634"/>
-      <c r="C78" s="635" t="s">
+      <c r="B78" s="623"/>
+      <c r="C78" s="624" t="s">
+        <v>491</v>
+      </c>
+      <c r="D78" s="624" t="s">
         <v>492</v>
       </c>
-      <c r="D78" s="635" t="s">
-        <v>493</v>
-      </c>
-      <c r="E78" s="628">
+      <c r="E78" s="642">
         <v>1</v>
       </c>
-      <c r="F78" s="638" t="str">
+      <c r="F78" s="645" t="str">
         <f>Namespace &amp; "has" &amp; ($C78) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorNameInfo</v>
       </c>
@@ -6720,11 +6723,11 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="367"/>
-      <c r="B79" s="634"/>
-      <c r="C79" s="636"/>
-      <c r="D79" s="636"/>
-      <c r="E79" s="629"/>
-      <c r="F79" s="639"/>
+      <c r="B79" s="623"/>
+      <c r="C79" s="625"/>
+      <c r="D79" s="625"/>
+      <c r="E79" s="643"/>
+      <c r="F79" s="646"/>
       <c r="G79" s="349" t="s">
         <v>170</v>
       </c>
@@ -6752,16 +6755,16 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="367"/>
-      <c r="B80" s="634"/>
-      <c r="C80" s="637"/>
-      <c r="D80" s="637"/>
-      <c r="E80" s="630"/>
-      <c r="F80" s="640"/>
+      <c r="B80" s="623"/>
+      <c r="C80" s="626"/>
+      <c r="D80" s="626"/>
+      <c r="E80" s="644"/>
+      <c r="F80" s="647"/>
       <c r="G80" s="335" t="s">
         <v>172</v>
       </c>
       <c r="H80" s="335" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I80" s="336" t="s">
         <v>173</v>
@@ -6784,17 +6787,17 @@
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="367"/>
-      <c r="B81" s="634"/>
-      <c r="C81" s="635" t="s">
+      <c r="B81" s="623"/>
+      <c r="C81" s="624" t="s">
+        <v>494</v>
+      </c>
+      <c r="D81" s="624" t="s">
         <v>495</v>
       </c>
-      <c r="D81" s="635" t="s">
-        <v>496</v>
-      </c>
-      <c r="E81" s="628">
+      <c r="E81" s="642">
         <v>1</v>
       </c>
-      <c r="F81" s="638" t="str">
+      <c r="F81" s="645" t="str">
         <f>Namespace &amp; "has" &amp; ($C81) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifierInfo</v>
       </c>
@@ -6813,8 +6816,8 @@
       <c r="K81" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="L81" s="743" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H81, " ", "")</f>
+      <c r="L81" s="540" t="str">
+        <f t="shared" ref="L81:L87" si="3">Namespace &amp; "has" &amp; SUBSTITUTE($H81, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifier</v>
       </c>
       <c r="M81" s="331" t="s">
@@ -6826,11 +6829,11 @@
     </row>
     <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="367"/>
-      <c r="B82" s="634"/>
-      <c r="C82" s="636"/>
-      <c r="D82" s="636"/>
-      <c r="E82" s="629"/>
-      <c r="F82" s="639"/>
+      <c r="B82" s="623"/>
+      <c r="C82" s="625"/>
+      <c r="D82" s="625"/>
+      <c r="E82" s="643"/>
+      <c r="F82" s="646"/>
       <c r="G82" s="349" t="s">
         <v>181</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>20</v>
       </c>
       <c r="L82" s="316" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H82, " ", "")</f>
+        <f t="shared" si="3"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifierScheme</v>
       </c>
       <c r="M82" s="369" t="str">
@@ -6860,11 +6863,11 @@
     </row>
     <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="367"/>
-      <c r="B83" s="634"/>
-      <c r="C83" s="637"/>
-      <c r="D83" s="637"/>
-      <c r="E83" s="630"/>
-      <c r="F83" s="640"/>
+      <c r="B83" s="623"/>
+      <c r="C83" s="626"/>
+      <c r="D83" s="626"/>
+      <c r="E83" s="644"/>
+      <c r="F83" s="647"/>
       <c r="G83" s="335" t="s">
         <v>182</v>
       </c>
@@ -6880,8 +6883,8 @@
       <c r="K83" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="L83" s="744" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H83, " ", "")</f>
+      <c r="L83" s="541" t="str">
+        <f t="shared" si="3"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifierSchemeIRI</v>
       </c>
       <c r="M83" s="339" t="str">
@@ -6894,17 +6897,17 @@
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="367"/>
-      <c r="B84" s="634"/>
-      <c r="C84" s="635" t="s">
+      <c r="B84" s="623"/>
+      <c r="C84" s="624" t="s">
+        <v>496</v>
+      </c>
+      <c r="D84" s="624" t="s">
         <v>497</v>
       </c>
-      <c r="D84" s="635" t="s">
-        <v>498</v>
-      </c>
-      <c r="E84" s="628" t="s">
+      <c r="E84" s="642" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="631" t="str">
+      <c r="F84" s="717" t="str">
         <f>Namespace &amp; "has" &amp; ($C84) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationInfo</v>
       </c>
@@ -6923,8 +6926,8 @@
       <c r="K84" s="334" t="s">
         <v>36</v>
       </c>
-      <c r="L84" s="743" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H84, " ", "")</f>
+      <c r="L84" s="540" t="str">
+        <f t="shared" si="3"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliation</v>
       </c>
       <c r="M84" s="331" t="s">
@@ -6936,11 +6939,11 @@
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="367"/>
-      <c r="B85" s="634"/>
-      <c r="C85" s="636"/>
-      <c r="D85" s="636"/>
-      <c r="E85" s="629"/>
-      <c r="F85" s="632"/>
+      <c r="B85" s="623"/>
+      <c r="C85" s="625"/>
+      <c r="D85" s="625"/>
+      <c r="E85" s="643"/>
+      <c r="F85" s="718"/>
       <c r="G85" s="349" t="s">
         <v>185</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>36</v>
       </c>
       <c r="L85" s="316" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H85, " ", "")</f>
+        <f t="shared" si="3"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationIdentifier</v>
       </c>
       <c r="M85" s="349" t="s">
@@ -6969,11 +6972,11 @@
     </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="367"/>
-      <c r="B86" s="634"/>
-      <c r="C86" s="636"/>
-      <c r="D86" s="636"/>
-      <c r="E86" s="629"/>
-      <c r="F86" s="632"/>
+      <c r="B86" s="623"/>
+      <c r="C86" s="625"/>
+      <c r="D86" s="625"/>
+      <c r="E86" s="643"/>
+      <c r="F86" s="718"/>
       <c r="G86" s="349" t="s">
         <v>187</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>36</v>
       </c>
       <c r="L86" s="316" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H86, " ", "")</f>
+        <f t="shared" si="3"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationIdentifierScheme</v>
       </c>
       <c r="M86" s="369" t="str">
@@ -7003,11 +7006,11 @@
     </row>
     <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="367"/>
-      <c r="B87" s="634"/>
-      <c r="C87" s="637"/>
-      <c r="D87" s="637"/>
-      <c r="E87" s="630"/>
-      <c r="F87" s="633"/>
+      <c r="B87" s="623"/>
+      <c r="C87" s="626"/>
+      <c r="D87" s="626"/>
+      <c r="E87" s="644"/>
+      <c r="F87" s="719"/>
       <c r="G87" s="335" t="s">
         <v>188</v>
       </c>
@@ -7023,8 +7026,8 @@
       <c r="K87" s="338" t="s">
         <v>36</v>
       </c>
-      <c r="L87" s="744" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H87, " ", "")</f>
+      <c r="L87" s="541" t="str">
+        <f t="shared" si="3"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="M87" s="339" t="str">
@@ -7138,11 +7141,11 @@
       <c r="P90"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="676" t="s">
+      <c r="A91" s="595" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="676"/>
-      <c r="C91" s="676"/>
+      <c r="B91" s="595"/>
+      <c r="C91" s="595"/>
       <c r="D91" s="425" t="s">
         <v>408</v>
       </c>
@@ -7164,17 +7167,17 @@
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="421"/>
-      <c r="B92" s="677" t="s">
+      <c r="B92" s="596" t="s">
         <v>283</v>
       </c>
-      <c r="C92" s="677"/>
-      <c r="D92" s="677" t="s">
+      <c r="C92" s="596"/>
+      <c r="D92" s="596" t="s">
         <v>287</v>
       </c>
-      <c r="E92" s="688" t="s">
+      <c r="E92" s="607" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="565" t="str">
+      <c r="F92" s="693" t="str">
         <f>Namespace &amp; "has" &amp; ($B92) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamInfo</v>
       </c>
@@ -7194,11 +7197,11 @@
         <v>20</v>
       </c>
       <c r="L92" s="441" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H92, " ", "")</f>
+        <f t="shared" ref="L92:L103" si="4">Namespace &amp; "has" &amp; SUBSTITUTE($H92, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStream</v>
       </c>
       <c r="M92" s="442" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N92" s="442" t="s">
         <v>28</v>
@@ -7206,11 +7209,11 @@
     </row>
     <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="421"/>
-      <c r="B93" s="678"/>
-      <c r="C93" s="678"/>
-      <c r="D93" s="678"/>
-      <c r="E93" s="563"/>
-      <c r="F93" s="566"/>
+      <c r="B93" s="597"/>
+      <c r="C93" s="597"/>
+      <c r="D93" s="597"/>
+      <c r="E93" s="608"/>
+      <c r="F93" s="694"/>
       <c r="G93" s="105" t="s">
         <v>285</v>
       </c>
@@ -7227,11 +7230,11 @@
         <v>68</v>
       </c>
       <c r="L93" s="108" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H93, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamIRI</v>
       </c>
       <c r="M93" s="109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N93" s="109" t="s">
         <v>28</v>
@@ -7239,11 +7242,11 @@
     </row>
     <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="421"/>
-      <c r="B94" s="678"/>
-      <c r="C94" s="678"/>
-      <c r="D94" s="678"/>
-      <c r="E94" s="563"/>
-      <c r="F94" s="566"/>
+      <c r="B94" s="597"/>
+      <c r="C94" s="597"/>
+      <c r="D94" s="597"/>
+      <c r="E94" s="608"/>
+      <c r="F94" s="694"/>
       <c r="G94" s="109" t="s">
         <v>191</v>
       </c>
@@ -7260,11 +7263,11 @@
         <v>68</v>
       </c>
       <c r="L94" s="108" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H94, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamScheme</v>
       </c>
       <c r="M94" s="109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N94" s="109" t="s">
         <v>28</v>
@@ -7272,11 +7275,11 @@
     </row>
     <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="421"/>
-      <c r="B95" s="679"/>
-      <c r="C95" s="679"/>
-      <c r="D95" s="679"/>
-      <c r="E95" s="689"/>
-      <c r="F95" s="567"/>
+      <c r="B95" s="598"/>
+      <c r="C95" s="598"/>
+      <c r="D95" s="598"/>
+      <c r="E95" s="609"/>
+      <c r="F95" s="695"/>
       <c r="G95" s="443" t="s">
         <v>286</v>
       </c>
@@ -7293,11 +7296,11 @@
         <v>68</v>
       </c>
       <c r="L95" s="445" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H95, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamSchemeIRI</v>
       </c>
       <c r="M95" s="446" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N95" s="446" t="s">
         <v>28</v>
@@ -7305,17 +7308,17 @@
     </row>
     <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="421"/>
-      <c r="B96" s="683"/>
-      <c r="C96" s="677" t="s">
+      <c r="B96" s="602"/>
+      <c r="C96" s="596" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="677" t="s">
+      <c r="D96" s="596" t="s">
         <v>366</v>
       </c>
-      <c r="E96" s="688">
+      <c r="E96" s="607">
         <v>1</v>
       </c>
-      <c r="F96" s="565" t="str">
+      <c r="F96" s="693" t="str">
         <f>Namespace &amp; "has" &amp; ($C96) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceInfo</v>
       </c>
@@ -7335,11 +7338,11 @@
         <v>20</v>
       </c>
       <c r="L96" s="441" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H96, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSource</v>
       </c>
       <c r="M96" s="109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N96" s="442" t="s">
         <v>28</v>
@@ -7347,11 +7350,11 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="421"/>
-      <c r="B97" s="683"/>
-      <c r="C97" s="678"/>
-      <c r="D97" s="678"/>
-      <c r="E97" s="563"/>
-      <c r="F97" s="566"/>
+      <c r="B97" s="602"/>
+      <c r="C97" s="597"/>
+      <c r="D97" s="597"/>
+      <c r="E97" s="608"/>
+      <c r="F97" s="694"/>
       <c r="G97" s="105" t="s">
         <v>195</v>
       </c>
@@ -7368,11 +7371,11 @@
         <v>36</v>
       </c>
       <c r="L97" s="108" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H97, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceIRI</v>
       </c>
       <c r="M97" s="109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N97" s="109" t="s">
         <v>28</v>
@@ -7380,11 +7383,11 @@
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="421"/>
-      <c r="B98" s="683"/>
-      <c r="C98" s="678"/>
-      <c r="D98" s="678"/>
-      <c r="E98" s="563"/>
-      <c r="F98" s="566"/>
+      <c r="B98" s="602"/>
+      <c r="C98" s="597"/>
+      <c r="D98" s="597"/>
+      <c r="E98" s="608"/>
+      <c r="F98" s="694"/>
       <c r="G98" s="105" t="s">
         <v>197</v>
       </c>
@@ -7401,11 +7404,11 @@
         <v>68</v>
       </c>
       <c r="L98" s="108" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H98, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceScheme</v>
       </c>
       <c r="M98" s="109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N98" s="109" t="s">
         <v>28</v>
@@ -7413,11 +7416,11 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="421"/>
-      <c r="B99" s="683"/>
-      <c r="C99" s="679"/>
-      <c r="D99" s="679"/>
-      <c r="E99" s="689"/>
-      <c r="F99" s="567"/>
+      <c r="B99" s="602"/>
+      <c r="C99" s="598"/>
+      <c r="D99" s="598"/>
+      <c r="E99" s="609"/>
+      <c r="F99" s="695"/>
       <c r="G99" s="443" t="s">
         <v>198</v>
       </c>
@@ -7434,11 +7437,11 @@
         <v>68</v>
       </c>
       <c r="L99" s="445" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H99, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceSchemaIRI</v>
       </c>
       <c r="M99" s="446" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N99" s="446" t="s">
         <v>28</v>
@@ -7446,17 +7449,17 @@
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="421"/>
-      <c r="B100" s="683"/>
-      <c r="C100" s="677" t="s">
+      <c r="B100" s="602"/>
+      <c r="C100" s="596" t="s">
         <v>282</v>
       </c>
-      <c r="D100" s="677" t="s">
+      <c r="D100" s="596" t="s">
         <v>288</v>
       </c>
-      <c r="E100" s="688" t="s">
+      <c r="E100" s="607" t="s">
         <v>54</v>
       </c>
-      <c r="F100" s="745" t="str">
+      <c r="F100" s="696" t="str">
         <f>Namespace &amp; "has" &amp; ($C100) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariableInfo</v>
       </c>
@@ -7476,11 +7479,11 @@
         <v>36</v>
       </c>
       <c r="L100" s="441" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H100, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariable</v>
       </c>
       <c r="M100" s="109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N100" s="109" t="s">
         <v>28</v>
@@ -7488,11 +7491,11 @@
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="421"/>
-      <c r="B101" s="683"/>
-      <c r="C101" s="678"/>
-      <c r="D101" s="678"/>
-      <c r="E101" s="563"/>
-      <c r="F101" s="568"/>
+      <c r="B101" s="602"/>
+      <c r="C101" s="597"/>
+      <c r="D101" s="597"/>
+      <c r="E101" s="608"/>
+      <c r="F101" s="697"/>
       <c r="G101" s="105" t="s">
         <v>290</v>
       </c>
@@ -7509,11 +7512,11 @@
         <v>68</v>
       </c>
       <c r="L101" s="108" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H101, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariableIRI</v>
       </c>
       <c r="M101" s="109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N101" s="109" t="s">
         <v>28</v>
@@ -7521,11 +7524,11 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="421"/>
-      <c r="B102" s="683"/>
-      <c r="C102" s="678"/>
-      <c r="D102" s="678"/>
-      <c r="E102" s="563"/>
-      <c r="F102" s="568"/>
+      <c r="B102" s="602"/>
+      <c r="C102" s="597"/>
+      <c r="D102" s="597"/>
+      <c r="E102" s="608"/>
+      <c r="F102" s="697"/>
       <c r="G102" s="105" t="s">
         <v>291</v>
       </c>
@@ -7542,11 +7545,11 @@
         <v>68</v>
       </c>
       <c r="L102" s="108" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H102, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariableScheme</v>
       </c>
       <c r="M102" s="109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N102" s="109" t="s">
         <v>28</v>
@@ -7554,11 +7557,11 @@
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="422"/>
-      <c r="B103" s="684"/>
-      <c r="C103" s="687"/>
-      <c r="D103" s="687"/>
-      <c r="E103" s="564"/>
-      <c r="F103" s="569"/>
+      <c r="B103" s="603"/>
+      <c r="C103" s="606"/>
+      <c r="D103" s="606"/>
+      <c r="E103" s="692"/>
+      <c r="F103" s="698"/>
       <c r="G103" s="433" t="s">
         <v>292</v>
       </c>
@@ -7575,22 +7578,22 @@
         <v>68</v>
       </c>
       <c r="L103" s="436" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H103, " ", "")</f>
+        <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariableSchemeIRI</v>
       </c>
       <c r="M103" s="437" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N103" s="437" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="680" t="s">
+      <c r="A104" s="599" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="680"/>
-      <c r="C104" s="680"/>
+      <c r="B104" s="599"/>
+      <c r="C104" s="599"/>
       <c r="D104" s="473" t="s">
         <v>202</v>
       </c>
@@ -7612,17 +7615,17 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="419"/>
-      <c r="B105" s="661" t="s">
-        <v>502</v>
-      </c>
-      <c r="C105" s="661"/>
-      <c r="D105" s="681" t="s">
+      <c r="B105" s="591" t="s">
         <v>501</v>
       </c>
-      <c r="E105" s="685" t="s">
+      <c r="C105" s="591"/>
+      <c r="D105" s="600" t="s">
+        <v>500</v>
+      </c>
+      <c r="E105" s="604" t="s">
         <v>46</v>
       </c>
-      <c r="F105" s="671" t="str">
+      <c r="F105" s="588" t="str">
         <f>Namespace &amp; "has" &amp; ($B105) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoveragePointInfo</v>
       </c>
@@ -7642,7 +7645,7 @@
         <v>68</v>
       </c>
       <c r="L105" s="451" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H105, " ", "")</f>
+        <f t="shared" ref="L105:L125" si="5">Namespace &amp; "has" &amp; SUBSTITUTE($H105, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasPointLatitude</v>
       </c>
       <c r="M105" s="452" t="s">
@@ -7654,11 +7657,11 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="419"/>
-      <c r="B106" s="663"/>
-      <c r="C106" s="663"/>
-      <c r="D106" s="682"/>
-      <c r="E106" s="686"/>
-      <c r="F106" s="673"/>
+      <c r="B106" s="592"/>
+      <c r="C106" s="592"/>
+      <c r="D106" s="601"/>
+      <c r="E106" s="605"/>
+      <c r="F106" s="590"/>
       <c r="G106" s="453" t="s">
         <v>203</v>
       </c>
@@ -7675,7 +7678,7 @@
         <v>68</v>
       </c>
       <c r="L106" s="456" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H106, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasPointLongitude</v>
       </c>
       <c r="M106" s="457" t="s">
@@ -7687,17 +7690,17 @@
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="419"/>
-      <c r="B107" s="661" t="s">
+      <c r="B107" s="591" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107" s="591"/>
+      <c r="D107" s="591" t="s">
         <v>503</v>
       </c>
-      <c r="C107" s="661"/>
-      <c r="D107" s="661" t="s">
-        <v>504</v>
-      </c>
-      <c r="E107" s="605" t="s">
+      <c r="E107" s="585" t="s">
         <v>46</v>
       </c>
-      <c r="F107" s="671" t="str">
+      <c r="F107" s="588" t="str">
         <f>Namespace &amp; "has" &amp; ($B107) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoverageBoundingBoxInfo</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>68</v>
       </c>
       <c r="L107" s="451" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H107, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasWestLongitudinalBoundary</v>
       </c>
       <c r="M107" s="462" t="s">
@@ -7729,11 +7732,11 @@
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="419"/>
-      <c r="B108" s="662"/>
-      <c r="C108" s="662"/>
-      <c r="D108" s="662"/>
-      <c r="E108" s="606"/>
-      <c r="F108" s="672"/>
+      <c r="B108" s="622"/>
+      <c r="C108" s="622"/>
+      <c r="D108" s="622"/>
+      <c r="E108" s="586"/>
+      <c r="F108" s="589"/>
       <c r="G108" s="463" t="s">
         <v>209</v>
       </c>
@@ -7749,8 +7752,8 @@
       <c r="K108" s="466" t="s">
         <v>68</v>
       </c>
-      <c r="L108" s="746" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H108, " ", "")</f>
+      <c r="L108" s="542" t="str">
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasEastLongitudinalBoundary</v>
       </c>
       <c r="M108" s="467" t="s">
@@ -7762,11 +7765,11 @@
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="419"/>
-      <c r="B109" s="662"/>
-      <c r="C109" s="662"/>
-      <c r="D109" s="662"/>
-      <c r="E109" s="606"/>
-      <c r="F109" s="672"/>
+      <c r="B109" s="622"/>
+      <c r="C109" s="622"/>
+      <c r="D109" s="622"/>
+      <c r="E109" s="586"/>
+      <c r="F109" s="589"/>
       <c r="G109" s="463" t="s">
         <v>211</v>
       </c>
@@ -7782,8 +7785,8 @@
       <c r="K109" s="466" t="s">
         <v>68</v>
       </c>
-      <c r="L109" s="746" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H109, " ", "")</f>
+      <c r="L109" s="542" t="str">
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSouthLongitudinalBoundary</v>
       </c>
       <c r="M109" s="467" t="s">
@@ -7795,11 +7798,11 @@
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="419"/>
-      <c r="B110" s="663"/>
-      <c r="C110" s="663"/>
-      <c r="D110" s="663"/>
-      <c r="E110" s="607"/>
-      <c r="F110" s="673"/>
+      <c r="B110" s="592"/>
+      <c r="C110" s="592"/>
+      <c r="D110" s="592"/>
+      <c r="E110" s="587"/>
+      <c r="F110" s="590"/>
       <c r="G110" s="468" t="s">
         <v>213</v>
       </c>
@@ -7816,7 +7819,7 @@
         <v>68</v>
       </c>
       <c r="L110" s="456" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H110, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasNorthLongitudinalBoundary</v>
       </c>
       <c r="M110" s="472" t="s">
@@ -7828,17 +7831,17 @@
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="419"/>
-      <c r="B111" s="661" t="s">
+      <c r="B111" s="591" t="s">
+        <v>504</v>
+      </c>
+      <c r="C111" s="591"/>
+      <c r="D111" s="593" t="s">
         <v>505</v>
       </c>
-      <c r="C111" s="661"/>
-      <c r="D111" s="674" t="s">
-        <v>506</v>
-      </c>
-      <c r="E111" s="605" t="s">
+      <c r="E111" s="585" t="s">
         <v>46</v>
       </c>
-      <c r="F111" s="671" t="str">
+      <c r="F111" s="588" t="str">
         <f>Namespace &amp; "has" &amp; ($B111) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoveragePolygonInfo</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>68</v>
       </c>
       <c r="L111" s="451" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H111, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasPolygonPointLatitude</v>
       </c>
       <c r="M111" s="462" t="s">
@@ -7870,11 +7873,11 @@
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="419"/>
-      <c r="B112" s="663"/>
-      <c r="C112" s="663"/>
-      <c r="D112" s="675"/>
-      <c r="E112" s="607"/>
-      <c r="F112" s="673"/>
+      <c r="B112" s="592"/>
+      <c r="C112" s="592"/>
+      <c r="D112" s="594"/>
+      <c r="E112" s="587"/>
+      <c r="F112" s="590"/>
       <c r="G112" s="453" t="s">
         <v>437</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>68</v>
       </c>
       <c r="L112" s="456" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H112, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasPolygonPointLongitude</v>
       </c>
       <c r="M112" s="472" t="s">
@@ -7924,7 +7927,7 @@
         <v>68</v>
       </c>
       <c r="L113" s="451" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H113, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasGeospatialLocationDescription</v>
       </c>
       <c r="M113" s="487" t="s">
@@ -7935,18 +7938,18 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="702" t="s">
+      <c r="A114" s="559" t="s">
         <v>217</v>
       </c>
-      <c r="B114" s="702"/>
-      <c r="C114" s="702"/>
-      <c r="D114" s="719" t="s">
+      <c r="B114" s="559"/>
+      <c r="C114" s="559"/>
+      <c r="D114" s="576" t="s">
         <v>218</v>
       </c>
-      <c r="E114" s="710" t="s">
+      <c r="E114" s="567" t="s">
         <v>46</v>
       </c>
-      <c r="F114" s="713" t="str">
+      <c r="F114" s="570" t="str">
         <f>Namespace &amp; "has" &amp; ($A114) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalCoverageInfo</v>
       </c>
@@ -7966,7 +7969,7 @@
         <v>68</v>
       </c>
       <c r="L114" s="491" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H114, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentMaximumValue</v>
       </c>
       <c r="M114" s="492" t="s">
@@ -7977,12 +7980,12 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="703"/>
-      <c r="B115" s="703"/>
-      <c r="C115" s="703"/>
-      <c r="D115" s="720"/>
-      <c r="E115" s="711"/>
-      <c r="F115" s="714"/>
+      <c r="A115" s="560"/>
+      <c r="B115" s="560"/>
+      <c r="C115" s="560"/>
+      <c r="D115" s="577"/>
+      <c r="E115" s="568"/>
+      <c r="F115" s="571"/>
       <c r="G115" s="111" t="s">
         <v>221</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>68</v>
       </c>
       <c r="L115" s="114" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H115, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentMinimumValue</v>
       </c>
       <c r="M115" s="115" t="s">
@@ -8010,12 +8013,12 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="703"/>
-      <c r="B116" s="703"/>
-      <c r="C116" s="703"/>
-      <c r="D116" s="720"/>
-      <c r="E116" s="711"/>
-      <c r="F116" s="714"/>
+      <c r="A116" s="560"/>
+      <c r="B116" s="560"/>
+      <c r="C116" s="560"/>
+      <c r="D116" s="577"/>
+      <c r="E116" s="568"/>
+      <c r="F116" s="571"/>
       <c r="G116" s="111" t="s">
         <v>223</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>68</v>
       </c>
       <c r="L116" s="114" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H116, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnit</v>
       </c>
       <c r="M116" s="115" t="s">
@@ -8043,12 +8046,12 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="703"/>
-      <c r="B117" s="703"/>
-      <c r="C117" s="703"/>
-      <c r="D117" s="720"/>
-      <c r="E117" s="711"/>
-      <c r="F117" s="714"/>
+      <c r="A117" s="560"/>
+      <c r="B117" s="560"/>
+      <c r="C117" s="560"/>
+      <c r="D117" s="577"/>
+      <c r="E117" s="568"/>
+      <c r="F117" s="571"/>
       <c r="G117" s="111" t="s">
         <v>224</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>68</v>
       </c>
       <c r="L117" s="114" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H117, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnitIRI</v>
       </c>
       <c r="M117" s="115" t="s">
@@ -8076,12 +8079,12 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="703"/>
-      <c r="B118" s="703"/>
-      <c r="C118" s="703"/>
-      <c r="D118" s="720"/>
-      <c r="E118" s="711"/>
-      <c r="F118" s="714"/>
+      <c r="A118" s="560"/>
+      <c r="B118" s="560"/>
+      <c r="C118" s="560"/>
+      <c r="D118" s="577"/>
+      <c r="E118" s="568"/>
+      <c r="F118" s="571"/>
       <c r="G118" s="111" t="s">
         <v>225</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>68</v>
       </c>
       <c r="L118" s="114" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H118, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnitScheme</v>
       </c>
       <c r="M118" s="115" t="s">
@@ -8109,12 +8112,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="703"/>
-      <c r="B119" s="703"/>
-      <c r="C119" s="703"/>
-      <c r="D119" s="720"/>
-      <c r="E119" s="711"/>
-      <c r="F119" s="714"/>
+      <c r="A119" s="560"/>
+      <c r="B119" s="560"/>
+      <c r="C119" s="560"/>
+      <c r="D119" s="577"/>
+      <c r="E119" s="568"/>
+      <c r="F119" s="571"/>
       <c r="G119" s="111" t="s">
         <v>226</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>68</v>
       </c>
       <c r="L119" s="114" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H119, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnitSchemeURI</v>
       </c>
       <c r="M119" s="115" t="s">
@@ -8142,12 +8145,12 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="703"/>
-      <c r="B120" s="703"/>
-      <c r="C120" s="703"/>
-      <c r="D120" s="720"/>
-      <c r="E120" s="711"/>
-      <c r="F120" s="714"/>
+      <c r="A120" s="560"/>
+      <c r="B120" s="560"/>
+      <c r="C120" s="560"/>
+      <c r="D120" s="577"/>
+      <c r="E120" s="568"/>
+      <c r="F120" s="571"/>
       <c r="G120" s="111" t="s">
         <v>396</v>
       </c>
@@ -8164,7 +8167,7 @@
         <v>68</v>
       </c>
       <c r="L120" s="114" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H120, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentDatum</v>
       </c>
       <c r="M120" s="115" t="s">
@@ -8175,12 +8178,12 @@
       </c>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="704"/>
-      <c r="B121" s="704"/>
-      <c r="C121" s="704"/>
-      <c r="D121" s="721"/>
-      <c r="E121" s="712"/>
-      <c r="F121" s="715"/>
+      <c r="A121" s="561"/>
+      <c r="B121" s="561"/>
+      <c r="C121" s="561"/>
+      <c r="D121" s="578"/>
+      <c r="E121" s="569"/>
+      <c r="F121" s="572"/>
       <c r="G121" s="534" t="s">
         <v>406</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>68</v>
       </c>
       <c r="L121" s="495" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H121, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentDatumIRI</v>
       </c>
       <c r="M121" s="496" t="s">
@@ -8208,18 +8211,18 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="705" t="s">
+      <c r="A122" s="562" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="705"/>
-      <c r="C122" s="705"/>
-      <c r="D122" s="716" t="s">
+      <c r="B122" s="562"/>
+      <c r="C122" s="562"/>
+      <c r="D122" s="573" t="s">
         <v>228</v>
       </c>
-      <c r="E122" s="722" t="s">
+      <c r="E122" s="579" t="s">
         <v>46</v>
       </c>
-      <c r="F122" s="723" t="str">
+      <c r="F122" s="582" t="str">
         <f>Namespace &amp; "has" &amp; ($A122) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalCoverageInfo</v>
       </c>
@@ -8239,7 +8242,7 @@
         <v>36</v>
       </c>
       <c r="L122" s="500" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H122, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalExtentMinimumValue</v>
       </c>
       <c r="M122" s="501" t="s">
@@ -8250,12 +8253,12 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="706"/>
-      <c r="B123" s="706"/>
-      <c r="C123" s="706"/>
-      <c r="D123" s="717"/>
-      <c r="E123" s="574"/>
-      <c r="F123" s="724"/>
+      <c r="A123" s="563"/>
+      <c r="B123" s="563"/>
+      <c r="C123" s="563"/>
+      <c r="D123" s="574"/>
+      <c r="E123" s="580"/>
+      <c r="F123" s="583"/>
       <c r="G123" s="116" t="s">
         <v>231</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>36</v>
       </c>
       <c r="L123" s="119" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H123, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalExtentMaximumValue</v>
       </c>
       <c r="M123" s="120" t="s">
@@ -8283,12 +8286,12 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="706"/>
-      <c r="B124" s="706"/>
-      <c r="C124" s="706"/>
-      <c r="D124" s="717"/>
-      <c r="E124" s="574"/>
-      <c r="F124" s="724"/>
+      <c r="A124" s="563"/>
+      <c r="B124" s="563"/>
+      <c r="C124" s="563"/>
+      <c r="D124" s="574"/>
+      <c r="E124" s="580"/>
+      <c r="F124" s="583"/>
       <c r="G124" s="116" t="s">
         <v>233</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>36</v>
       </c>
       <c r="L124" s="119" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H124, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalResolution</v>
       </c>
       <c r="M124" s="120" t="s">
@@ -8316,12 +8319,12 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="707"/>
-      <c r="B125" s="707"/>
-      <c r="C125" s="707"/>
-      <c r="D125" s="718"/>
-      <c r="E125" s="575"/>
-      <c r="F125" s="725"/>
+      <c r="A125" s="564"/>
+      <c r="B125" s="564"/>
+      <c r="C125" s="564"/>
+      <c r="D125" s="575"/>
+      <c r="E125" s="581"/>
+      <c r="F125" s="584"/>
       <c r="G125" s="502" t="s">
         <v>235</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>36</v>
       </c>
       <c r="L125" s="505" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H125, " ", "")</f>
+        <f t="shared" si="5"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDuration</v>
       </c>
       <c r="M125" s="506" t="s">
@@ -8349,13 +8352,13 @@
       </c>
     </row>
     <row r="126" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="708" t="s">
+      <c r="A126" s="565" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="708"/>
-      <c r="C126" s="708"/>
+      <c r="B126" s="565"/>
+      <c r="C126" s="565"/>
       <c r="D126" s="512" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E126" s="513" t="s">
         <v>34</v>
@@ -8375,17 +8378,17 @@
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="423"/>
-      <c r="B127" s="696" t="s">
-        <v>508</v>
-      </c>
-      <c r="C127" s="696"/>
-      <c r="D127" s="690" t="s">
-        <v>511</v>
-      </c>
-      <c r="E127" s="693">
+      <c r="B127" s="549" t="s">
+        <v>507</v>
+      </c>
+      <c r="C127" s="549"/>
+      <c r="D127" s="543" t="s">
+        <v>510</v>
+      </c>
+      <c r="E127" s="546">
         <v>1</v>
       </c>
-      <c r="F127" s="690" t="str">
+      <c r="F127" s="543" t="str">
         <f>Namespace &amp; "has" &amp; ($B127) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasAwardInfo</v>
       </c>
@@ -8405,7 +8408,7 @@
         <v>36</v>
       </c>
       <c r="L127" s="527" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H127, " ", "")</f>
+        <f t="shared" ref="L127:L133" si="6">Namespace &amp; "has" &amp; SUBSTITUTE($H127, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasAwardTitle</v>
       </c>
       <c r="M127" s="524" t="s">
@@ -8417,11 +8420,11 @@
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="423"/>
-      <c r="B128" s="697"/>
-      <c r="C128" s="697"/>
-      <c r="D128" s="691"/>
-      <c r="E128" s="694"/>
-      <c r="F128" s="691"/>
+      <c r="B128" s="550"/>
+      <c r="C128" s="550"/>
+      <c r="D128" s="544"/>
+      <c r="E128" s="547"/>
+      <c r="F128" s="544"/>
       <c r="G128" s="511" t="s">
         <v>240</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>68</v>
       </c>
       <c r="L128" s="510" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H128, " ", "")</f>
+        <f t="shared" si="6"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasAwardPageIRI</v>
       </c>
       <c r="M128" s="507" t="s">
@@ -8450,11 +8453,11 @@
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="423"/>
-      <c r="B129" s="709"/>
-      <c r="C129" s="709"/>
-      <c r="D129" s="692"/>
-      <c r="E129" s="695"/>
-      <c r="F129" s="692"/>
+      <c r="B129" s="566"/>
+      <c r="C129" s="566"/>
+      <c r="D129" s="545"/>
+      <c r="E129" s="548"/>
+      <c r="F129" s="545"/>
       <c r="G129" s="528" t="s">
         <v>242</v>
       </c>
@@ -8471,7 +8474,7 @@
         <v>36</v>
       </c>
       <c r="L129" s="531" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H129, " ", "")</f>
+        <f t="shared" si="6"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasAwardLocalIdentifier</v>
       </c>
       <c r="M129" s="532" t="s">
@@ -8483,17 +8486,17 @@
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="423"/>
-      <c r="B130" s="696" t="s">
+      <c r="B130" s="549" t="s">
+        <v>508</v>
+      </c>
+      <c r="C130" s="549"/>
+      <c r="D130" s="552" t="s">
         <v>509</v>
       </c>
-      <c r="C130" s="696"/>
-      <c r="D130" s="551" t="s">
-        <v>510</v>
-      </c>
-      <c r="E130" s="548" t="s">
+      <c r="E130" s="555" t="s">
         <v>54</v>
       </c>
-      <c r="F130" s="690" t="str">
+      <c r="F130" s="543" t="str">
         <f>Namespace &amp; "has" &amp; ($B130)  &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasFunderInfo</v>
       </c>
@@ -8513,7 +8516,7 @@
         <v>36</v>
       </c>
       <c r="L130" s="527" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H130, " ", "")</f>
+        <f t="shared" si="6"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasFunderName</v>
       </c>
       <c r="M130" s="524" t="s">
@@ -8525,11 +8528,11 @@
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="423"/>
-      <c r="B131" s="697"/>
-      <c r="C131" s="697"/>
-      <c r="D131" s="552"/>
-      <c r="E131" s="549"/>
-      <c r="F131" s="691"/>
+      <c r="B131" s="550"/>
+      <c r="C131" s="550"/>
+      <c r="D131" s="553"/>
+      <c r="E131" s="556"/>
+      <c r="F131" s="544"/>
       <c r="G131" s="507" t="s">
         <v>246</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>68</v>
       </c>
       <c r="L131" s="510" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H131, " ", "")</f>
+        <f t="shared" si="6"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasFunderIdentifier</v>
       </c>
       <c r="M131" s="507" t="s">
@@ -8558,11 +8561,11 @@
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="423"/>
-      <c r="B132" s="697"/>
-      <c r="C132" s="697"/>
-      <c r="D132" s="552"/>
-      <c r="E132" s="549"/>
-      <c r="F132" s="691"/>
+      <c r="B132" s="550"/>
+      <c r="C132" s="550"/>
+      <c r="D132" s="553"/>
+      <c r="E132" s="556"/>
+      <c r="F132" s="544"/>
       <c r="G132" s="511" t="s">
         <v>248</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>68</v>
       </c>
       <c r="L132" s="510" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H132, " ", "")</f>
+        <f t="shared" si="6"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasFunderIdentifierScheme</v>
       </c>
       <c r="M132" s="507" t="s">
@@ -8591,11 +8594,11 @@
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="424"/>
-      <c r="B133" s="698"/>
-      <c r="C133" s="698"/>
-      <c r="D133" s="699"/>
-      <c r="E133" s="700"/>
-      <c r="F133" s="701"/>
+      <c r="B133" s="551"/>
+      <c r="C133" s="551"/>
+      <c r="D133" s="554"/>
+      <c r="E133" s="557"/>
+      <c r="F133" s="558"/>
       <c r="G133" s="519" t="s">
         <v>250</v>
       </c>
@@ -8612,7 +8615,7 @@
         <v>68</v>
       </c>
       <c r="L133" s="522" t="str">
-        <f>Namespace &amp; "has" &amp; SUBSTITUTE($H133, " ", "")</f>
+        <f t="shared" si="6"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasFunderIdentifierSchemeIRI</v>
       </c>
       <c r="M133" s="523" t="s">
@@ -8636,7 +8639,7 @@
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" s="533" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H137" s="3"/>
       <c r="J137" s="9"/>
@@ -8675,20 +8678,20 @@
     </row>
     <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H143" s="3"/>
       <c r="J143" s="9"/>
     </row>
     <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J144" s="6"/>
     </row>
     <row r="145" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J145" s="6"/>
     </row>
@@ -8700,7 +8703,7 @@
     </row>
     <row r="147" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -8720,13 +8723,13 @@
     </row>
     <row r="150" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J150" s="6"/>
     </row>
     <row r="151" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J151" s="6"/>
     </row>
@@ -12265,45 +12268,75 @@
   </sheetData>
   <autoFilter ref="H1:N143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="134">
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="B130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="A114:C121"/>
-    <mergeCell ref="A122:C125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="B127:C129"/>
-    <mergeCell ref="E114:E121"/>
-    <mergeCell ref="F114:F121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="B105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B61:C63"/>
     <mergeCell ref="A8:C12"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="B19:C22"/>
@@ -12328,77 +12361,47 @@
     <mergeCell ref="B45:C48"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D67:D72"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B61:C63"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A5:C7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="B105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="D100:D103"/>
     <mergeCell ref="E100:E103"/>
     <mergeCell ref="F92:F95"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="B130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="A114:C121"/>
+    <mergeCell ref="A122:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B127:C129"/>
+    <mergeCell ref="E114:E121"/>
+    <mergeCell ref="F114:F121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -12430,10 +12433,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="727" t="s">
+      <c r="A1" s="742" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="727"/>
+      <c r="B1" s="742"/>
       <c r="C1" s="20" t="s">
         <v>460</v>
       </c>
@@ -12454,17 +12457,17 @@
       <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="728"/>
-      <c r="B2" s="729" t="s">
+      <c r="A2" s="737"/>
+      <c r="B2" s="738" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="730" t="s">
+      <c r="C2" s="743" t="s">
         <v>453</v>
       </c>
-      <c r="D2" s="731" t="s">
+      <c r="D2" s="739" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="726" t="str">
+      <c r="E2" s="740" t="str">
         <f>Namespace &amp; LOWER($B2)</f>
         <v>http://vocab.fairdatacollective.org/gdmt/contributorname</v>
       </c>
@@ -12494,11 +12497,11 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="728"/>
-      <c r="B3" s="729"/>
-      <c r="C3" s="730"/>
-      <c r="D3" s="731"/>
-      <c r="E3" s="726"/>
+      <c r="A3" s="737"/>
+      <c r="B3" s="738"/>
+      <c r="C3" s="743"/>
+      <c r="D3" s="739"/>
+      <c r="E3" s="740"/>
       <c r="F3" s="34" t="s">
         <v>111</v>
       </c>
@@ -12525,11 +12528,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="728"/>
-      <c r="B4" s="729"/>
-      <c r="C4" s="730"/>
-      <c r="D4" s="731"/>
-      <c r="E4" s="726"/>
+      <c r="A4" s="737"/>
+      <c r="B4" s="738"/>
+      <c r="C4" s="743"/>
+      <c r="D4" s="739"/>
+      <c r="E4" s="740"/>
       <c r="F4" s="34" t="s">
         <v>113</v>
       </c>
@@ -12556,17 +12559,17 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="728"/>
-      <c r="B5" s="729" t="s">
+      <c r="A5" s="737"/>
+      <c r="B5" s="738" t="s">
         <v>464</v>
       </c>
-      <c r="C5" s="729" t="s">
+      <c r="C5" s="738" t="s">
         <v>454</v>
       </c>
-      <c r="D5" s="731" t="s">
+      <c r="D5" s="739" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="726" t="str">
+      <c r="E5" s="740" t="str">
         <f>Namespace &amp; LOWER($B5)</f>
         <v>http://vocab.fairdatacollective.org/gdmt/contributoridentifier</v>
       </c>
@@ -12597,11 +12600,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="728"/>
-      <c r="B6" s="729"/>
-      <c r="C6" s="729"/>
-      <c r="D6" s="731"/>
-      <c r="E6" s="726"/>
+      <c r="A6" s="737"/>
+      <c r="B6" s="738"/>
+      <c r="C6" s="738"/>
+      <c r="D6" s="739"/>
+      <c r="E6" s="740"/>
       <c r="F6" s="34" t="s">
         <v>121</v>
       </c>
@@ -12629,11 +12632,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="728"/>
-      <c r="B7" s="729"/>
-      <c r="C7" s="729"/>
-      <c r="D7" s="731"/>
-      <c r="E7" s="726"/>
+      <c r="A7" s="737"/>
+      <c r="B7" s="738"/>
+      <c r="C7" s="738"/>
+      <c r="D7" s="739"/>
+      <c r="E7" s="740"/>
       <c r="F7" s="34" t="s">
         <v>122</v>
       </c>
@@ -12661,17 +12664,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="728"/>
-      <c r="B8" s="729" t="s">
+      <c r="A8" s="737"/>
+      <c r="B8" s="738" t="s">
         <v>465</v>
       </c>
-      <c r="C8" s="729" t="s">
+      <c r="C8" s="738" t="s">
         <v>456</v>
       </c>
-      <c r="D8" s="731" t="s">
+      <c r="D8" s="739" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="732" t="str">
+      <c r="E8" s="741" t="str">
         <f>Namespace &amp; LOWER($B8)</f>
         <v>http://vocab.fairdatacollective.org/gdmt/contributoraffiliation</v>
       </c>
@@ -12702,11 +12705,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="728"/>
-      <c r="B9" s="729"/>
-      <c r="C9" s="729"/>
-      <c r="D9" s="731"/>
-      <c r="E9" s="732"/>
+      <c r="A9" s="737"/>
+      <c r="B9" s="738"/>
+      <c r="C9" s="738"/>
+      <c r="D9" s="739"/>
+      <c r="E9" s="741"/>
       <c r="F9" s="34" t="s">
         <v>123</v>
       </c>
@@ -12734,11 +12737,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="728"/>
-      <c r="B10" s="729"/>
-      <c r="C10" s="729"/>
-      <c r="D10" s="731"/>
-      <c r="E10" s="732"/>
+      <c r="A10" s="737"/>
+      <c r="B10" s="738"/>
+      <c r="C10" s="738"/>
+      <c r="D10" s="739"/>
+      <c r="E10" s="741"/>
       <c r="F10" s="34" t="s">
         <v>458</v>
       </c>
@@ -12766,11 +12769,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="728"/>
-      <c r="B11" s="729"/>
-      <c r="C11" s="729"/>
-      <c r="D11" s="731"/>
-      <c r="E11" s="732"/>
+      <c r="A11" s="737"/>
+      <c r="B11" s="738"/>
+      <c r="C11" s="738"/>
+      <c r="D11" s="739"/>
+      <c r="E11" s="741"/>
       <c r="F11" s="34" t="s">
         <v>125</v>
       </c>
@@ -12894,22 +12897,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L13" r:id="rId1" xr:uid="{9ABA6EE5-7A54-DF40-9E10-C757BCBA07FF}"/>

--- a/template-description.xlsx
+++ b/template-description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96259B1-314F-6140-9370-C69555C090DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3303354-C006-E94C-A1B9-CD4EDB9A6C91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3166,32 +3166,53 @@
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3199,94 +3220,175 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3297,6 +3399,178 @@
     <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3305,12 +3579,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3361,384 +3629,122 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3747,19 +3753,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3994,10 +3994,10 @@
   <dimension ref="A1:P1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G130" sqref="G130:L133"/>
+      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4019,11 +4019,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="668" t="s">
+      <c r="A1" s="615" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="668"/>
-      <c r="C1" s="668"/>
+      <c r="B1" s="615"/>
+      <c r="C1" s="615"/>
       <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
@@ -4061,11 +4061,11 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="667" t="s">
+      <c r="A2" s="614" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="667"/>
-      <c r="C2" s="667"/>
+      <c r="B2" s="614"/>
+      <c r="C2" s="614"/>
       <c r="D2" s="121" t="s">
         <v>10</v>
       </c>
@@ -4097,18 +4097,18 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="662" t="s">
+      <c r="A3" s="609" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="662"/>
-      <c r="C3" s="662"/>
-      <c r="D3" s="684" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="634" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="686">
+      <c r="E3" s="636">
         <v>1</v>
       </c>
-      <c r="F3" s="687" t="str">
+      <c r="F3" s="637" t="str">
         <f>Namespace &amp; "has" &amp; $A3 &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasResourceTypeInfo</v>
       </c>
@@ -4139,12 +4139,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="663"/>
-      <c r="B4" s="663"/>
-      <c r="C4" s="663"/>
-      <c r="D4" s="685"/>
-      <c r="E4" s="581"/>
-      <c r="F4" s="688"/>
+      <c r="A4" s="610"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="635"/>
+      <c r="E4" s="582"/>
+      <c r="F4" s="638"/>
       <c r="G4" s="185" t="s">
         <v>22</v>
       </c>
@@ -4172,18 +4172,18 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="664" t="s">
+      <c r="A5" s="611" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="664"/>
-      <c r="C5" s="664"/>
-      <c r="D5" s="720" t="s">
+      <c r="B5" s="611"/>
+      <c r="C5" s="611"/>
+      <c r="D5" s="543" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="681">
+      <c r="E5" s="631">
         <v>1</v>
       </c>
-      <c r="F5" s="689" t="str">
+      <c r="F5" s="639" t="str">
         <f>Namespace &amp; "has" &amp; ($A5) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDatasetIdentifierInfo</v>
       </c>
@@ -4213,12 +4213,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="665"/>
-      <c r="B6" s="665"/>
-      <c r="C6" s="665"/>
-      <c r="D6" s="721"/>
-      <c r="E6" s="682"/>
-      <c r="F6" s="690"/>
+      <c r="A6" s="612"/>
+      <c r="B6" s="612"/>
+      <c r="C6" s="612"/>
+      <c r="D6" s="544"/>
+      <c r="E6" s="632"/>
+      <c r="F6" s="640"/>
       <c r="G6" s="53" t="s">
         <v>29</v>
       </c>
@@ -4245,12 +4245,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="666"/>
-      <c r="B7" s="666"/>
-      <c r="C7" s="666"/>
-      <c r="D7" s="722"/>
-      <c r="E7" s="683"/>
-      <c r="F7" s="691"/>
+      <c r="A7" s="613"/>
+      <c r="B7" s="613"/>
+      <c r="C7" s="613"/>
+      <c r="D7" s="545"/>
+      <c r="E7" s="633"/>
+      <c r="F7" s="641"/>
       <c r="G7" s="198" t="s">
         <v>32</v>
       </c>
@@ -4278,18 +4278,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="610" t="s">
+      <c r="A8" s="659" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="610"/>
-      <c r="C8" s="610"/>
-      <c r="D8" s="699" t="s">
+      <c r="B8" s="659"/>
+      <c r="C8" s="659"/>
+      <c r="D8" s="577" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="702" t="s">
+      <c r="E8" s="580" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="703" t="str">
+      <c r="F8" s="583" t="str">
         <f>Namespace &amp; "has" &amp; ($A8) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasRelatedResourcesInfo</v>
       </c>
@@ -4319,12 +4319,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="611"/>
-      <c r="B9" s="611"/>
-      <c r="C9" s="611"/>
-      <c r="D9" s="700"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="704"/>
+      <c r="A9" s="660"/>
+      <c r="B9" s="660"/>
+      <c r="C9" s="660"/>
+      <c r="D9" s="578"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="584"/>
       <c r="G9" s="59" t="s">
         <v>38</v>
       </c>
@@ -4352,12 +4352,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="611"/>
-      <c r="B10" s="611"/>
-      <c r="C10" s="611"/>
-      <c r="D10" s="700"/>
-      <c r="E10" s="580"/>
-      <c r="F10" s="704"/>
+      <c r="A10" s="660"/>
+      <c r="B10" s="660"/>
+      <c r="C10" s="660"/>
+      <c r="D10" s="578"/>
+      <c r="E10" s="581"/>
+      <c r="F10" s="584"/>
       <c r="G10" s="59" t="s">
         <v>272</v>
       </c>
@@ -4386,12 +4386,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="611"/>
-      <c r="B11" s="611"/>
-      <c r="C11" s="611"/>
-      <c r="D11" s="700"/>
-      <c r="E11" s="580"/>
-      <c r="F11" s="704"/>
+      <c r="A11" s="660"/>
+      <c r="B11" s="660"/>
+      <c r="C11" s="660"/>
+      <c r="D11" s="578"/>
+      <c r="E11" s="581"/>
+      <c r="F11" s="584"/>
       <c r="G11" s="64" t="s">
         <v>41</v>
       </c>
@@ -4419,12 +4419,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="612"/>
-      <c r="B12" s="612"/>
-      <c r="C12" s="612"/>
-      <c r="D12" s="701"/>
-      <c r="E12" s="581"/>
-      <c r="F12" s="705"/>
+      <c r="A12" s="661"/>
+      <c r="B12" s="661"/>
+      <c r="C12" s="661"/>
+      <c r="D12" s="579"/>
+      <c r="E12" s="582"/>
+      <c r="F12" s="585"/>
       <c r="G12" s="211" t="s">
         <v>42</v>
       </c>
@@ -4452,11 +4452,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="617" t="s">
+      <c r="A13" s="663" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="617"/>
-      <c r="C13" s="617"/>
+      <c r="B13" s="663"/>
+      <c r="C13" s="663"/>
       <c r="D13" s="238" t="s">
         <v>45</v>
       </c>
@@ -4493,18 +4493,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="618" t="s">
+      <c r="A14" s="664" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="618"/>
-      <c r="C14" s="618"/>
-      <c r="D14" s="725" t="s">
+      <c r="B14" s="664"/>
+      <c r="C14" s="664"/>
+      <c r="D14" s="548" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="715" t="s">
+      <c r="E14" s="601" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="723" t="str">
+      <c r="F14" s="546" t="str">
         <f>Namespace &amp; "has" &amp; ($A14) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasLanguageInfo</v>
       </c>
@@ -4534,12 +4534,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="619"/>
-      <c r="B15" s="619"/>
-      <c r="C15" s="619"/>
-      <c r="D15" s="726"/>
-      <c r="E15" s="716"/>
-      <c r="F15" s="724"/>
+      <c r="A15" s="665"/>
+      <c r="B15" s="665"/>
+      <c r="C15" s="665"/>
+      <c r="D15" s="549"/>
+      <c r="E15" s="602"/>
+      <c r="F15" s="547"/>
       <c r="G15" s="224" t="s">
         <v>51</v>
       </c>
@@ -4569,11 +4569,11 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="620" t="s">
+      <c r="A16" s="666" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="620"/>
-      <c r="C16" s="620"/>
+      <c r="B16" s="666"/>
+      <c r="C16" s="666"/>
       <c r="D16" s="239" t="s">
         <v>53</v>
       </c>
@@ -4610,11 +4610,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="621" t="s">
+      <c r="A17" s="667" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="621"/>
-      <c r="C17" s="621"/>
+      <c r="B17" s="667"/>
+      <c r="C17" s="667"/>
       <c r="D17" s="78" t="s">
         <v>58</v>
       </c>
@@ -4653,11 +4653,11 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" s="11" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="613" t="s">
+      <c r="A18" s="662" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="613"/>
-      <c r="C18" s="613"/>
+      <c r="B18" s="662"/>
+      <c r="C18" s="662"/>
       <c r="D18" s="240" t="s">
         <v>63</v>
       </c>
@@ -4681,17 +4681,17 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="310"/>
-      <c r="B19" s="614" t="s">
+      <c r="B19" s="550" t="s">
         <v>498</v>
       </c>
-      <c r="C19" s="614"/>
-      <c r="D19" s="614" t="s">
+      <c r="C19" s="550"/>
+      <c r="D19" s="550" t="s">
         <v>466</v>
       </c>
-      <c r="E19" s="712" t="s">
+      <c r="E19" s="598" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="709" t="str">
+      <c r="F19" s="595" t="str">
         <f>Namespace&amp;($B19) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/ControlledTermsInfo</v>
       </c>
@@ -4722,11 +4722,11 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="310"/>
-      <c r="B20" s="615"/>
-      <c r="C20" s="615"/>
-      <c r="D20" s="615"/>
-      <c r="E20" s="713"/>
-      <c r="F20" s="710"/>
+      <c r="B20" s="551"/>
+      <c r="C20" s="551"/>
+      <c r="D20" s="551"/>
+      <c r="E20" s="599"/>
+      <c r="F20" s="596"/>
       <c r="G20" s="79" t="s">
         <v>467</v>
       </c>
@@ -4755,11 +4755,11 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="310"/>
-      <c r="B21" s="615"/>
-      <c r="C21" s="615"/>
-      <c r="D21" s="615"/>
-      <c r="E21" s="713"/>
-      <c r="F21" s="710"/>
+      <c r="B21" s="551"/>
+      <c r="C21" s="551"/>
+      <c r="D21" s="551"/>
+      <c r="E21" s="599"/>
+      <c r="F21" s="596"/>
       <c r="G21" s="83" t="s">
         <v>70</v>
       </c>
@@ -4788,11 +4788,11 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="310"/>
-      <c r="B22" s="616"/>
-      <c r="C22" s="616"/>
-      <c r="D22" s="616"/>
-      <c r="E22" s="714"/>
-      <c r="F22" s="711"/>
+      <c r="B22" s="552"/>
+      <c r="C22" s="552"/>
+      <c r="D22" s="552"/>
+      <c r="E22" s="600"/>
+      <c r="F22" s="597"/>
       <c r="G22" s="127" t="s">
         <v>71</v>
       </c>
@@ -4851,11 +4851,11 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="630" t="s">
+      <c r="A24" s="674" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="630"/>
-      <c r="C24" s="630"/>
+      <c r="B24" s="674"/>
+      <c r="C24" s="674"/>
       <c r="D24" s="241" t="s">
         <v>73</v>
       </c>
@@ -4877,17 +4877,17 @@
     </row>
     <row r="25" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="631" t="s">
+      <c r="B25" s="625" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="631"/>
-      <c r="D25" s="631" t="s">
+      <c r="C25" s="625"/>
+      <c r="D25" s="625" t="s">
         <v>476</v>
       </c>
-      <c r="E25" s="675" t="s">
+      <c r="E25" s="589" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="678" t="str">
+      <c r="F25" s="628" t="str">
         <f>Namespace &amp; "has" &amp; ($B25) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorNameInfo</v>
       </c>
@@ -4918,11 +4918,11 @@
     </row>
     <row r="26" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="632"/>
-      <c r="C26" s="632"/>
-      <c r="D26" s="632"/>
-      <c r="E26" s="676"/>
-      <c r="F26" s="679"/>
+      <c r="B26" s="626"/>
+      <c r="C26" s="626"/>
+      <c r="D26" s="626"/>
+      <c r="E26" s="590"/>
+      <c r="F26" s="629"/>
       <c r="G26" s="87" t="s">
         <v>79</v>
       </c>
@@ -4950,11 +4950,11 @@
     </row>
     <row r="27" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="633"/>
-      <c r="C27" s="633"/>
-      <c r="D27" s="633"/>
-      <c r="E27" s="677"/>
-      <c r="F27" s="680"/>
+      <c r="B27" s="627"/>
+      <c r="C27" s="627"/>
+      <c r="D27" s="627"/>
+      <c r="E27" s="591"/>
+      <c r="F27" s="630"/>
       <c r="G27" s="136" t="s">
         <v>82</v>
       </c>
@@ -4982,17 +4982,17 @@
     </row>
     <row r="28" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="631" t="s">
+      <c r="B28" s="625" t="s">
         <v>451</v>
       </c>
-      <c r="C28" s="631"/>
-      <c r="D28" s="631" t="s">
+      <c r="C28" s="625"/>
+      <c r="D28" s="625" t="s">
         <v>475</v>
       </c>
-      <c r="E28" s="675" t="s">
+      <c r="E28" s="589" t="s">
         <v>522</v>
       </c>
-      <c r="F28" s="678" t="str">
+      <c r="F28" s="628" t="str">
         <f>Namespace &amp; "has" &amp; ($B28) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifierInfo</v>
       </c>
@@ -5024,11 +5024,11 @@
     </row>
     <row r="29" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="632"/>
-      <c r="C29" s="632"/>
-      <c r="D29" s="632"/>
-      <c r="E29" s="676"/>
-      <c r="F29" s="679"/>
+      <c r="B29" s="626"/>
+      <c r="C29" s="626"/>
+      <c r="D29" s="626"/>
+      <c r="E29" s="590"/>
+      <c r="F29" s="629"/>
       <c r="G29" s="87" t="s">
         <v>93</v>
       </c>
@@ -5058,11 +5058,11 @@
     </row>
     <row r="30" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="633"/>
-      <c r="C30" s="633"/>
-      <c r="D30" s="633"/>
-      <c r="E30" s="677"/>
-      <c r="F30" s="680"/>
+      <c r="B30" s="627"/>
+      <c r="C30" s="627"/>
+      <c r="D30" s="627"/>
+      <c r="E30" s="591"/>
+      <c r="F30" s="630"/>
       <c r="G30" s="136" t="s">
         <v>95</v>
       </c>
@@ -5092,17 +5092,17 @@
     </row>
     <row r="31" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="631" t="s">
+      <c r="B31" s="625" t="s">
         <v>452</v>
       </c>
-      <c r="C31" s="631"/>
-      <c r="D31" s="631" t="s">
+      <c r="C31" s="625"/>
+      <c r="D31" s="625" t="s">
         <v>474</v>
       </c>
-      <c r="E31" s="675" t="s">
+      <c r="E31" s="589" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="706" t="str">
+      <c r="F31" s="586" t="str">
         <f>Namespace &amp; "has" &amp; ($B31) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationInfo</v>
       </c>
@@ -5134,11 +5134,11 @@
     </row>
     <row r="32" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="632"/>
-      <c r="C32" s="632"/>
-      <c r="D32" s="632"/>
-      <c r="E32" s="676"/>
-      <c r="F32" s="707"/>
+      <c r="B32" s="626"/>
+      <c r="C32" s="626"/>
+      <c r="D32" s="626"/>
+      <c r="E32" s="590"/>
+      <c r="F32" s="587"/>
       <c r="G32" s="87" t="s">
         <v>100</v>
       </c>
@@ -5167,11 +5167,11 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
-      <c r="B33" s="632"/>
-      <c r="C33" s="632"/>
-      <c r="D33" s="632"/>
-      <c r="E33" s="676"/>
-      <c r="F33" s="707"/>
+      <c r="B33" s="626"/>
+      <c r="C33" s="626"/>
+      <c r="D33" s="626"/>
+      <c r="E33" s="590"/>
+      <c r="F33" s="587"/>
       <c r="G33" s="87" t="s">
         <v>103</v>
       </c>
@@ -5201,11 +5201,11 @@
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="633"/>
-      <c r="C34" s="633"/>
-      <c r="D34" s="633"/>
-      <c r="E34" s="677"/>
-      <c r="F34" s="708"/>
+      <c r="B34" s="627"/>
+      <c r="C34" s="627"/>
+      <c r="D34" s="627"/>
+      <c r="E34" s="591"/>
+      <c r="F34" s="588"/>
       <c r="G34" s="136" t="s">
         <v>105</v>
       </c>
@@ -5334,11 +5334,11 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="634" t="s">
+      <c r="A38" s="675" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="634"/>
-      <c r="C38" s="634"/>
+      <c r="B38" s="675"/>
+      <c r="C38" s="675"/>
       <c r="D38" s="377" t="s">
         <v>460</v>
       </c>
@@ -5360,17 +5360,17 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="419"/>
-      <c r="B39" s="635" t="s">
+      <c r="B39" s="676" t="s">
         <v>461</v>
       </c>
-      <c r="C39" s="635"/>
-      <c r="D39" s="636" t="s">
+      <c r="C39" s="676"/>
+      <c r="D39" s="616" t="s">
         <v>477</v>
       </c>
-      <c r="E39" s="585" t="s">
+      <c r="E39" s="619" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="672" t="str">
+      <c r="F39" s="592" t="str">
         <f>Namespace &amp; "has" &amp; ($B39) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorNameInfo</v>
       </c>
@@ -5401,11 +5401,11 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="419"/>
-      <c r="B40" s="635"/>
-      <c r="C40" s="635"/>
-      <c r="D40" s="637"/>
-      <c r="E40" s="586"/>
-      <c r="F40" s="673"/>
+      <c r="B40" s="676"/>
+      <c r="C40" s="676"/>
+      <c r="D40" s="617"/>
+      <c r="E40" s="620"/>
+      <c r="F40" s="593"/>
       <c r="G40" s="389" t="s">
         <v>111</v>
       </c>
@@ -5433,11 +5433,11 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="419"/>
-      <c r="B41" s="635"/>
-      <c r="C41" s="635"/>
-      <c r="D41" s="638"/>
-      <c r="E41" s="587"/>
-      <c r="F41" s="674"/>
+      <c r="B41" s="676"/>
+      <c r="C41" s="676"/>
+      <c r="D41" s="618"/>
+      <c r="E41" s="621"/>
+      <c r="F41" s="594"/>
       <c r="G41" s="394" t="s">
         <v>113</v>
       </c>
@@ -5465,17 +5465,17 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="419"/>
-      <c r="B42" s="636" t="s">
+      <c r="B42" s="616" t="s">
         <v>464</v>
       </c>
-      <c r="C42" s="636"/>
-      <c r="D42" s="636" t="s">
+      <c r="C42" s="616"/>
+      <c r="D42" s="616" t="s">
         <v>478</v>
       </c>
-      <c r="E42" s="585" t="s">
+      <c r="E42" s="619" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="672" t="str">
+      <c r="F42" s="592" t="str">
         <f>Namespace &amp; "has" &amp; ($B42) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifierInfo</v>
       </c>
@@ -5507,11 +5507,11 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="419"/>
-      <c r="B43" s="637"/>
-      <c r="C43" s="637"/>
-      <c r="D43" s="637"/>
-      <c r="E43" s="586"/>
-      <c r="F43" s="673"/>
+      <c r="B43" s="617"/>
+      <c r="C43" s="617"/>
+      <c r="D43" s="617"/>
+      <c r="E43" s="620"/>
+      <c r="F43" s="593"/>
       <c r="G43" s="389" t="s">
         <v>121</v>
       </c>
@@ -5541,11 +5541,11 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="419"/>
-      <c r="B44" s="638"/>
-      <c r="C44" s="638"/>
-      <c r="D44" s="638"/>
-      <c r="E44" s="587"/>
-      <c r="F44" s="674"/>
+      <c r="B44" s="618"/>
+      <c r="C44" s="618"/>
+      <c r="D44" s="618"/>
+      <c r="E44" s="621"/>
+      <c r="F44" s="594"/>
       <c r="G44" s="394" t="s">
         <v>122</v>
       </c>
@@ -5575,17 +5575,17 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="419"/>
-      <c r="B45" s="636" t="s">
+      <c r="B45" s="616" t="s">
         <v>465</v>
       </c>
-      <c r="C45" s="636"/>
-      <c r="D45" s="636" t="s">
+      <c r="C45" s="616"/>
+      <c r="D45" s="616" t="s">
         <v>479</v>
       </c>
-      <c r="E45" s="585" t="s">
+      <c r="E45" s="619" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="669" t="str">
+      <c r="F45" s="622" t="str">
         <f>Namespace &amp; "has" &amp; ($B45) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationInfo</v>
       </c>
@@ -5617,11 +5617,11 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="419"/>
-      <c r="B46" s="637"/>
-      <c r="C46" s="637"/>
-      <c r="D46" s="637"/>
-      <c r="E46" s="586"/>
-      <c r="F46" s="670"/>
+      <c r="B46" s="617"/>
+      <c r="C46" s="617"/>
+      <c r="D46" s="617"/>
+      <c r="E46" s="620"/>
+      <c r="F46" s="623"/>
       <c r="G46" s="389" t="s">
         <v>123</v>
       </c>
@@ -5650,11 +5650,11 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="419"/>
-      <c r="B47" s="637"/>
-      <c r="C47" s="637"/>
-      <c r="D47" s="637"/>
-      <c r="E47" s="586"/>
-      <c r="F47" s="670"/>
+      <c r="B47" s="617"/>
+      <c r="C47" s="617"/>
+      <c r="D47" s="617"/>
+      <c r="E47" s="620"/>
+      <c r="F47" s="623"/>
       <c r="G47" s="389" t="s">
         <v>458</v>
       </c>
@@ -5684,11 +5684,11 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="419"/>
-      <c r="B48" s="638"/>
-      <c r="C48" s="638"/>
-      <c r="D48" s="638"/>
-      <c r="E48" s="587"/>
-      <c r="F48" s="671"/>
+      <c r="B48" s="618"/>
+      <c r="C48" s="618"/>
+      <c r="D48" s="618"/>
+      <c r="E48" s="621"/>
+      <c r="F48" s="624"/>
       <c r="G48" s="394" t="s">
         <v>125</v>
       </c>
@@ -5821,11 +5821,11 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="639" t="s">
+      <c r="A52" s="677" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="639"/>
-      <c r="C52" s="639"/>
+      <c r="B52" s="677"/>
+      <c r="C52" s="677"/>
       <c r="D52" s="243" t="s">
         <v>435</v>
       </c>
@@ -5847,17 +5847,17 @@
     </row>
     <row r="53" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="421"/>
-      <c r="B53" s="648" t="s">
+      <c r="B53" s="568" t="s">
         <v>472</v>
       </c>
-      <c r="C53" s="648"/>
-      <c r="D53" s="648" t="s">
+      <c r="C53" s="568"/>
+      <c r="D53" s="568" t="s">
         <v>473</v>
       </c>
-      <c r="E53" s="734" t="s">
+      <c r="E53" s="565" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="731" t="str">
+      <c r="F53" s="562" t="str">
         <f>Namespace &amp; "has" &amp; ($B53) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasPublisherIdentifierInfo</v>
       </c>
@@ -5889,11 +5889,11 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="421"/>
-      <c r="B54" s="649"/>
-      <c r="C54" s="649"/>
-      <c r="D54" s="649"/>
-      <c r="E54" s="735"/>
-      <c r="F54" s="732"/>
+      <c r="B54" s="569"/>
+      <c r="C54" s="569"/>
+      <c r="D54" s="569"/>
+      <c r="E54" s="566"/>
+      <c r="F54" s="563"/>
       <c r="G54" s="93" t="s">
         <v>136</v>
       </c>
@@ -5923,11 +5923,11 @@
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="421"/>
-      <c r="B55" s="650"/>
-      <c r="C55" s="650"/>
-      <c r="D55" s="650"/>
-      <c r="E55" s="736"/>
-      <c r="F55" s="733"/>
+      <c r="B55" s="570"/>
+      <c r="C55" s="570"/>
+      <c r="D55" s="570"/>
+      <c r="E55" s="567"/>
+      <c r="F55" s="564"/>
       <c r="G55" s="252" t="s">
         <v>137</v>
       </c>
@@ -6055,11 +6055,11 @@
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="660" t="s">
+      <c r="A59" s="658" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="660"/>
-      <c r="C59" s="660"/>
+      <c r="B59" s="658"/>
+      <c r="C59" s="658"/>
       <c r="D59" s="291" t="s">
         <v>139</v>
       </c>
@@ -6114,17 +6114,17 @@
     </row>
     <row r="61" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="423"/>
-      <c r="B61" s="552" t="s">
+      <c r="B61" s="559" t="s">
         <v>482</v>
       </c>
-      <c r="C61" s="552"/>
-      <c r="D61" s="552" t="s">
+      <c r="C61" s="559"/>
+      <c r="D61" s="559" t="s">
         <v>483</v>
       </c>
-      <c r="E61" s="555" t="s">
+      <c r="E61" s="556" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="727" t="str">
+      <c r="F61" s="553" t="str">
         <f>Namespace &amp; "has" &amp; ($B61) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifierInfo</v>
       </c>
@@ -6158,11 +6158,11 @@
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="423"/>
-      <c r="B62" s="553"/>
-      <c r="C62" s="553"/>
-      <c r="D62" s="553"/>
-      <c r="E62" s="556"/>
-      <c r="F62" s="728"/>
+      <c r="B62" s="560"/>
+      <c r="C62" s="560"/>
+      <c r="D62" s="560"/>
+      <c r="E62" s="557"/>
+      <c r="F62" s="554"/>
       <c r="G62" s="98" t="s">
         <v>148</v>
       </c>
@@ -6191,11 +6191,11 @@
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="423"/>
-      <c r="B63" s="661"/>
-      <c r="C63" s="661"/>
-      <c r="D63" s="661"/>
-      <c r="E63" s="730"/>
-      <c r="F63" s="729"/>
+      <c r="B63" s="561"/>
+      <c r="C63" s="561"/>
+      <c r="D63" s="561"/>
+      <c r="E63" s="558"/>
+      <c r="F63" s="555"/>
       <c r="G63" s="285" t="s">
         <v>149</v>
       </c>
@@ -6253,18 +6253,18 @@
       <c r="N64" s="272"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="627" t="s">
+      <c r="A65" s="671" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="627"/>
-      <c r="C65" s="627"/>
-      <c r="D65" s="653" t="s">
+      <c r="B65" s="671"/>
+      <c r="C65" s="671"/>
+      <c r="D65" s="651" t="s">
         <v>516</v>
       </c>
-      <c r="E65" s="655" t="s">
+      <c r="E65" s="653" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="653" t="str">
+      <c r="F65" s="651" t="str">
         <f>Namespace &amp; "has" &amp; ($A65) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDateInfo</v>
       </c>
@@ -6293,12 +6293,12 @@
       <c r="N65" s="303"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="628"/>
-      <c r="B66" s="628"/>
-      <c r="C66" s="628"/>
-      <c r="D66" s="654"/>
-      <c r="E66" s="656"/>
-      <c r="F66" s="654"/>
+      <c r="A66" s="672"/>
+      <c r="B66" s="672"/>
+      <c r="C66" s="672"/>
+      <c r="D66" s="652"/>
+      <c r="E66" s="654"/>
+      <c r="F66" s="652"/>
       <c r="G66" s="535" t="s">
         <v>484</v>
       </c>
@@ -6327,12 +6327,12 @@
       </c>
     </row>
     <row r="67" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="629" t="s">
+      <c r="A67" s="673" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="629"/>
-      <c r="C67" s="629"/>
-      <c r="D67" s="640" t="s">
+      <c r="B67" s="673"/>
+      <c r="C67" s="673"/>
+      <c r="D67" s="678" t="s">
         <v>159</v>
       </c>
       <c r="E67" s="360" t="s">
@@ -6353,9 +6353,9 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="367"/>
-      <c r="B68" s="651"/>
-      <c r="C68" s="651"/>
-      <c r="D68" s="641"/>
+      <c r="B68" s="649"/>
+      <c r="C68" s="649"/>
+      <c r="D68" s="679"/>
       <c r="E68" s="311"/>
       <c r="F68" s="312"/>
       <c r="G68" s="313" t="s">
@@ -6389,7 +6389,7 @@
       <c r="A69" s="367"/>
       <c r="B69" s="368"/>
       <c r="C69" s="317"/>
-      <c r="D69" s="641"/>
+      <c r="D69" s="679"/>
       <c r="E69" s="319"/>
       <c r="F69" s="312"/>
       <c r="G69" s="313" t="s">
@@ -6423,7 +6423,7 @@
       <c r="A70" s="367"/>
       <c r="B70" s="368"/>
       <c r="C70" s="317"/>
-      <c r="D70" s="641"/>
+      <c r="D70" s="679"/>
       <c r="E70" s="320"/>
       <c r="F70" s="312"/>
       <c r="G70" s="305" t="s">
@@ -6455,7 +6455,7 @@
       <c r="A71" s="367"/>
       <c r="B71" s="368"/>
       <c r="C71" s="317"/>
-      <c r="D71" s="641"/>
+      <c r="D71" s="679"/>
       <c r="E71" s="320"/>
       <c r="F71" s="312"/>
       <c r="G71" s="305" t="s">
@@ -6488,7 +6488,7 @@
       <c r="A72" s="367"/>
       <c r="B72" s="368"/>
       <c r="C72" s="317"/>
-      <c r="D72" s="641"/>
+      <c r="D72" s="679"/>
       <c r="E72" s="319"/>
       <c r="F72" s="312"/>
       <c r="G72" s="305" t="s">
@@ -6519,17 +6519,17 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="367"/>
-      <c r="B73" s="624" t="s">
+      <c r="B73" s="643" t="s">
         <v>488</v>
       </c>
-      <c r="C73" s="624"/>
-      <c r="D73" s="657" t="s">
+      <c r="C73" s="643"/>
+      <c r="D73" s="655" t="s">
         <v>489</v>
       </c>
-      <c r="E73" s="642">
+      <c r="E73" s="603">
         <v>1</v>
       </c>
-      <c r="F73" s="657" t="s">
+      <c r="F73" s="655" t="s">
         <v>524</v>
       </c>
       <c r="G73" s="321" t="s">
@@ -6560,11 +6560,11 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="367"/>
-      <c r="B74" s="625"/>
-      <c r="C74" s="625"/>
-      <c r="D74" s="658"/>
-      <c r="E74" s="643"/>
-      <c r="F74" s="658"/>
+      <c r="B74" s="644"/>
+      <c r="C74" s="644"/>
+      <c r="D74" s="656"/>
+      <c r="E74" s="604"/>
+      <c r="F74" s="656"/>
       <c r="G74" s="305" t="s">
         <v>164</v>
       </c>
@@ -6593,11 +6593,11 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="367"/>
-      <c r="B75" s="626"/>
-      <c r="C75" s="626"/>
-      <c r="D75" s="659"/>
-      <c r="E75" s="644"/>
-      <c r="F75" s="659"/>
+      <c r="B75" s="645"/>
+      <c r="C75" s="645"/>
+      <c r="D75" s="657"/>
+      <c r="E75" s="605"/>
+      <c r="F75" s="657"/>
       <c r="G75" s="326" t="s">
         <v>447</v>
       </c>
@@ -6657,10 +6657,10 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="367"/>
-      <c r="B77" s="652" t="s">
+      <c r="B77" s="650" t="s">
         <v>490</v>
       </c>
-      <c r="C77" s="652"/>
+      <c r="C77" s="650"/>
       <c r="D77" s="353" t="s">
         <v>523</v>
       </c>
@@ -6682,17 +6682,17 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="367"/>
-      <c r="B78" s="623"/>
-      <c r="C78" s="624" t="s">
+      <c r="B78" s="642"/>
+      <c r="C78" s="643" t="s">
         <v>491</v>
       </c>
-      <c r="D78" s="624" t="s">
+      <c r="D78" s="643" t="s">
         <v>492</v>
       </c>
-      <c r="E78" s="642">
+      <c r="E78" s="603">
         <v>1</v>
       </c>
-      <c r="F78" s="645" t="str">
+      <c r="F78" s="646" t="str">
         <f>Namespace &amp; "has" &amp; ($C78) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorNameInfo</v>
       </c>
@@ -6723,11 +6723,11 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="367"/>
-      <c r="B79" s="623"/>
-      <c r="C79" s="625"/>
-      <c r="D79" s="625"/>
-      <c r="E79" s="643"/>
-      <c r="F79" s="646"/>
+      <c r="B79" s="642"/>
+      <c r="C79" s="644"/>
+      <c r="D79" s="644"/>
+      <c r="E79" s="604"/>
+      <c r="F79" s="647"/>
       <c r="G79" s="349" t="s">
         <v>170</v>
       </c>
@@ -6755,11 +6755,11 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="367"/>
-      <c r="B80" s="623"/>
-      <c r="C80" s="626"/>
-      <c r="D80" s="626"/>
-      <c r="E80" s="644"/>
-      <c r="F80" s="647"/>
+      <c r="B80" s="642"/>
+      <c r="C80" s="645"/>
+      <c r="D80" s="645"/>
+      <c r="E80" s="605"/>
+      <c r="F80" s="648"/>
       <c r="G80" s="335" t="s">
         <v>172</v>
       </c>
@@ -6787,17 +6787,17 @@
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="367"/>
-      <c r="B81" s="623"/>
-      <c r="C81" s="624" t="s">
+      <c r="B81" s="642"/>
+      <c r="C81" s="643" t="s">
         <v>494</v>
       </c>
-      <c r="D81" s="624" t="s">
+      <c r="D81" s="643" t="s">
         <v>495</v>
       </c>
-      <c r="E81" s="642">
+      <c r="E81" s="603">
         <v>1</v>
       </c>
-      <c r="F81" s="645" t="str">
+      <c r="F81" s="646" t="str">
         <f>Namespace &amp; "has" &amp; ($C81) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifierInfo</v>
       </c>
@@ -6829,11 +6829,11 @@
     </row>
     <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="367"/>
-      <c r="B82" s="623"/>
-      <c r="C82" s="625"/>
-      <c r="D82" s="625"/>
-      <c r="E82" s="643"/>
-      <c r="F82" s="646"/>
+      <c r="B82" s="642"/>
+      <c r="C82" s="644"/>
+      <c r="D82" s="644"/>
+      <c r="E82" s="604"/>
+      <c r="F82" s="647"/>
       <c r="G82" s="349" t="s">
         <v>181</v>
       </c>
@@ -6863,11 +6863,11 @@
     </row>
     <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="367"/>
-      <c r="B83" s="623"/>
-      <c r="C83" s="626"/>
-      <c r="D83" s="626"/>
-      <c r="E83" s="644"/>
-      <c r="F83" s="647"/>
+      <c r="B83" s="642"/>
+      <c r="C83" s="645"/>
+      <c r="D83" s="645"/>
+      <c r="E83" s="605"/>
+      <c r="F83" s="648"/>
       <c r="G83" s="335" t="s">
         <v>182</v>
       </c>
@@ -6897,17 +6897,17 @@
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="367"/>
-      <c r="B84" s="623"/>
-      <c r="C84" s="624" t="s">
+      <c r="B84" s="642"/>
+      <c r="C84" s="643" t="s">
         <v>496</v>
       </c>
-      <c r="D84" s="624" t="s">
+      <c r="D84" s="643" t="s">
         <v>497</v>
       </c>
-      <c r="E84" s="642" t="s">
+      <c r="E84" s="603" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="717" t="str">
+      <c r="F84" s="606" t="str">
         <f>Namespace &amp; "has" &amp; ($C84) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationInfo</v>
       </c>
@@ -6939,11 +6939,11 @@
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="367"/>
-      <c r="B85" s="623"/>
-      <c r="C85" s="625"/>
-      <c r="D85" s="625"/>
-      <c r="E85" s="643"/>
-      <c r="F85" s="718"/>
+      <c r="B85" s="642"/>
+      <c r="C85" s="644"/>
+      <c r="D85" s="644"/>
+      <c r="E85" s="604"/>
+      <c r="F85" s="607"/>
       <c r="G85" s="349" t="s">
         <v>185</v>
       </c>
@@ -6972,11 +6972,11 @@
     </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="367"/>
-      <c r="B86" s="623"/>
-      <c r="C86" s="625"/>
-      <c r="D86" s="625"/>
-      <c r="E86" s="643"/>
-      <c r="F86" s="718"/>
+      <c r="B86" s="642"/>
+      <c r="C86" s="644"/>
+      <c r="D86" s="644"/>
+      <c r="E86" s="604"/>
+      <c r="F86" s="607"/>
       <c r="G86" s="349" t="s">
         <v>187</v>
       </c>
@@ -7006,11 +7006,11 @@
     </row>
     <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="367"/>
-      <c r="B87" s="623"/>
-      <c r="C87" s="626"/>
-      <c r="D87" s="626"/>
-      <c r="E87" s="644"/>
-      <c r="F87" s="719"/>
+      <c r="B87" s="642"/>
+      <c r="C87" s="645"/>
+      <c r="D87" s="645"/>
+      <c r="E87" s="605"/>
+      <c r="F87" s="608"/>
       <c r="G87" s="335" t="s">
         <v>188</v>
       </c>
@@ -7141,11 +7141,11 @@
       <c r="P90"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="595" t="s">
+      <c r="A91" s="685" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="595"/>
-      <c r="C91" s="595"/>
+      <c r="B91" s="685"/>
+      <c r="C91" s="685"/>
       <c r="D91" s="425" t="s">
         <v>408</v>
       </c>
@@ -7167,17 +7167,17 @@
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="421"/>
-      <c r="B92" s="596" t="s">
+      <c r="B92" s="686" t="s">
         <v>283</v>
       </c>
-      <c r="C92" s="596"/>
-      <c r="D92" s="596" t="s">
+      <c r="C92" s="686"/>
+      <c r="D92" s="686" t="s">
         <v>287</v>
       </c>
-      <c r="E92" s="607" t="s">
+      <c r="E92" s="697" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="693" t="str">
+      <c r="F92" s="571" t="str">
         <f>Namespace &amp; "has" &amp; ($B92) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamInfo</v>
       </c>
@@ -7209,11 +7209,11 @@
     </row>
     <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="421"/>
-      <c r="B93" s="597"/>
-      <c r="C93" s="597"/>
-      <c r="D93" s="597"/>
-      <c r="E93" s="608"/>
-      <c r="F93" s="694"/>
+      <c r="B93" s="687"/>
+      <c r="C93" s="687"/>
+      <c r="D93" s="687"/>
+      <c r="E93" s="698"/>
+      <c r="F93" s="572"/>
       <c r="G93" s="105" t="s">
         <v>285</v>
       </c>
@@ -7242,11 +7242,11 @@
     </row>
     <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="421"/>
-      <c r="B94" s="597"/>
-      <c r="C94" s="597"/>
-      <c r="D94" s="597"/>
-      <c r="E94" s="608"/>
-      <c r="F94" s="694"/>
+      <c r="B94" s="687"/>
+      <c r="C94" s="687"/>
+      <c r="D94" s="687"/>
+      <c r="E94" s="698"/>
+      <c r="F94" s="572"/>
       <c r="G94" s="109" t="s">
         <v>191</v>
       </c>
@@ -7275,11 +7275,11 @@
     </row>
     <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="421"/>
-      <c r="B95" s="598"/>
-      <c r="C95" s="598"/>
-      <c r="D95" s="598"/>
-      <c r="E95" s="609"/>
-      <c r="F95" s="695"/>
+      <c r="B95" s="688"/>
+      <c r="C95" s="688"/>
+      <c r="D95" s="688"/>
+      <c r="E95" s="699"/>
+      <c r="F95" s="573"/>
       <c r="G95" s="443" t="s">
         <v>286</v>
       </c>
@@ -7308,17 +7308,17 @@
     </row>
     <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="421"/>
-      <c r="B96" s="602"/>
-      <c r="C96" s="596" t="s">
+      <c r="B96" s="692"/>
+      <c r="C96" s="686" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="596" t="s">
+      <c r="D96" s="686" t="s">
         <v>366</v>
       </c>
-      <c r="E96" s="607">
+      <c r="E96" s="697">
         <v>1</v>
       </c>
-      <c r="F96" s="693" t="str">
+      <c r="F96" s="571" t="str">
         <f>Namespace &amp; "has" &amp; ($C96) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceInfo</v>
       </c>
@@ -7350,11 +7350,11 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="421"/>
-      <c r="B97" s="602"/>
-      <c r="C97" s="597"/>
-      <c r="D97" s="597"/>
-      <c r="E97" s="608"/>
-      <c r="F97" s="694"/>
+      <c r="B97" s="692"/>
+      <c r="C97" s="687"/>
+      <c r="D97" s="687"/>
+      <c r="E97" s="698"/>
+      <c r="F97" s="572"/>
       <c r="G97" s="105" t="s">
         <v>195</v>
       </c>
@@ -7383,11 +7383,11 @@
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="421"/>
-      <c r="B98" s="602"/>
-      <c r="C98" s="597"/>
-      <c r="D98" s="597"/>
-      <c r="E98" s="608"/>
-      <c r="F98" s="694"/>
+      <c r="B98" s="692"/>
+      <c r="C98" s="687"/>
+      <c r="D98" s="687"/>
+      <c r="E98" s="698"/>
+      <c r="F98" s="572"/>
       <c r="G98" s="105" t="s">
         <v>197</v>
       </c>
@@ -7416,11 +7416,11 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="421"/>
-      <c r="B99" s="602"/>
-      <c r="C99" s="598"/>
-      <c r="D99" s="598"/>
-      <c r="E99" s="609"/>
-      <c r="F99" s="695"/>
+      <c r="B99" s="692"/>
+      <c r="C99" s="688"/>
+      <c r="D99" s="688"/>
+      <c r="E99" s="699"/>
+      <c r="F99" s="573"/>
       <c r="G99" s="443" t="s">
         <v>198</v>
       </c>
@@ -7449,17 +7449,17 @@
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="421"/>
-      <c r="B100" s="602"/>
-      <c r="C100" s="596" t="s">
+      <c r="B100" s="692"/>
+      <c r="C100" s="686" t="s">
         <v>282</v>
       </c>
-      <c r="D100" s="596" t="s">
+      <c r="D100" s="686" t="s">
         <v>288</v>
       </c>
-      <c r="E100" s="607" t="s">
+      <c r="E100" s="697" t="s">
         <v>54</v>
       </c>
-      <c r="F100" s="696" t="str">
+      <c r="F100" s="574" t="str">
         <f>Namespace &amp; "has" &amp; ($C100) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariableInfo</v>
       </c>
@@ -7491,11 +7491,11 @@
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="421"/>
-      <c r="B101" s="602"/>
-      <c r="C101" s="597"/>
-      <c r="D101" s="597"/>
-      <c r="E101" s="608"/>
-      <c r="F101" s="697"/>
+      <c r="B101" s="692"/>
+      <c r="C101" s="687"/>
+      <c r="D101" s="687"/>
+      <c r="E101" s="698"/>
+      <c r="F101" s="575"/>
       <c r="G101" s="105" t="s">
         <v>290</v>
       </c>
@@ -7524,11 +7524,11 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="421"/>
-      <c r="B102" s="602"/>
-      <c r="C102" s="597"/>
-      <c r="D102" s="597"/>
-      <c r="E102" s="608"/>
-      <c r="F102" s="697"/>
+      <c r="B102" s="692"/>
+      <c r="C102" s="687"/>
+      <c r="D102" s="687"/>
+      <c r="E102" s="698"/>
+      <c r="F102" s="575"/>
       <c r="G102" s="105" t="s">
         <v>291</v>
       </c>
@@ -7557,11 +7557,11 @@
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="422"/>
-      <c r="B103" s="603"/>
-      <c r="C103" s="606"/>
-      <c r="D103" s="606"/>
-      <c r="E103" s="692"/>
-      <c r="F103" s="698"/>
+      <c r="B103" s="693"/>
+      <c r="C103" s="696"/>
+      <c r="D103" s="696"/>
+      <c r="E103" s="700"/>
+      <c r="F103" s="576"/>
       <c r="G103" s="433" t="s">
         <v>292</v>
       </c>
@@ -7589,11 +7589,11 @@
       </c>
     </row>
     <row r="104" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="599" t="s">
+      <c r="A104" s="689" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="599"/>
-      <c r="C104" s="599"/>
+      <c r="B104" s="689"/>
+      <c r="C104" s="689"/>
       <c r="D104" s="473" t="s">
         <v>202</v>
       </c>
@@ -7615,17 +7615,17 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="419"/>
-      <c r="B105" s="591" t="s">
+      <c r="B105" s="668" t="s">
         <v>501</v>
       </c>
-      <c r="C105" s="591"/>
-      <c r="D105" s="600" t="s">
+      <c r="C105" s="668"/>
+      <c r="D105" s="690" t="s">
         <v>500</v>
       </c>
-      <c r="E105" s="604" t="s">
+      <c r="E105" s="694" t="s">
         <v>46</v>
       </c>
-      <c r="F105" s="588" t="str">
+      <c r="F105" s="680" t="str">
         <f>Namespace &amp; "has" &amp; ($B105) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoveragePointInfo</v>
       </c>
@@ -7657,11 +7657,11 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="419"/>
-      <c r="B106" s="592"/>
-      <c r="C106" s="592"/>
-      <c r="D106" s="601"/>
-      <c r="E106" s="605"/>
-      <c r="F106" s="590"/>
+      <c r="B106" s="670"/>
+      <c r="C106" s="670"/>
+      <c r="D106" s="691"/>
+      <c r="E106" s="695"/>
+      <c r="F106" s="682"/>
       <c r="G106" s="453" t="s">
         <v>203</v>
       </c>
@@ -7690,17 +7690,17 @@
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="419"/>
-      <c r="B107" s="591" t="s">
+      <c r="B107" s="668" t="s">
         <v>502</v>
       </c>
-      <c r="C107" s="591"/>
-      <c r="D107" s="591" t="s">
+      <c r="C107" s="668"/>
+      <c r="D107" s="668" t="s">
         <v>503</v>
       </c>
-      <c r="E107" s="585" t="s">
+      <c r="E107" s="619" t="s">
         <v>46</v>
       </c>
-      <c r="F107" s="588" t="str">
+      <c r="F107" s="680" t="str">
         <f>Namespace &amp; "has" &amp; ($B107) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoverageBoundingBoxInfo</v>
       </c>
@@ -7732,11 +7732,11 @@
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="419"/>
-      <c r="B108" s="622"/>
-      <c r="C108" s="622"/>
-      <c r="D108" s="622"/>
-      <c r="E108" s="586"/>
-      <c r="F108" s="589"/>
+      <c r="B108" s="669"/>
+      <c r="C108" s="669"/>
+      <c r="D108" s="669"/>
+      <c r="E108" s="620"/>
+      <c r="F108" s="681"/>
       <c r="G108" s="463" t="s">
         <v>209</v>
       </c>
@@ -7765,11 +7765,11 @@
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="419"/>
-      <c r="B109" s="622"/>
-      <c r="C109" s="622"/>
-      <c r="D109" s="622"/>
-      <c r="E109" s="586"/>
-      <c r="F109" s="589"/>
+      <c r="B109" s="669"/>
+      <c r="C109" s="669"/>
+      <c r="D109" s="669"/>
+      <c r="E109" s="620"/>
+      <c r="F109" s="681"/>
       <c r="G109" s="463" t="s">
         <v>211</v>
       </c>
@@ -7798,11 +7798,11 @@
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="419"/>
-      <c r="B110" s="592"/>
-      <c r="C110" s="592"/>
-      <c r="D110" s="592"/>
-      <c r="E110" s="587"/>
-      <c r="F110" s="590"/>
+      <c r="B110" s="670"/>
+      <c r="C110" s="670"/>
+      <c r="D110" s="670"/>
+      <c r="E110" s="621"/>
+      <c r="F110" s="682"/>
       <c r="G110" s="468" t="s">
         <v>213</v>
       </c>
@@ -7831,17 +7831,17 @@
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="419"/>
-      <c r="B111" s="591" t="s">
+      <c r="B111" s="668" t="s">
         <v>504</v>
       </c>
-      <c r="C111" s="591"/>
-      <c r="D111" s="593" t="s">
+      <c r="C111" s="668"/>
+      <c r="D111" s="683" t="s">
         <v>505</v>
       </c>
-      <c r="E111" s="585" t="s">
+      <c r="E111" s="619" t="s">
         <v>46</v>
       </c>
-      <c r="F111" s="588" t="str">
+      <c r="F111" s="680" t="str">
         <f>Namespace &amp; "has" &amp; ($B111) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoveragePolygonInfo</v>
       </c>
@@ -7873,11 +7873,11 @@
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="419"/>
-      <c r="B112" s="592"/>
-      <c r="C112" s="592"/>
-      <c r="D112" s="594"/>
-      <c r="E112" s="587"/>
-      <c r="F112" s="590"/>
+      <c r="B112" s="670"/>
+      <c r="C112" s="670"/>
+      <c r="D112" s="684"/>
+      <c r="E112" s="621"/>
+      <c r="F112" s="682"/>
       <c r="G112" s="453" t="s">
         <v>437</v>
       </c>
@@ -7938,18 +7938,18 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="559" t="s">
+      <c r="A114" s="713" t="s">
         <v>217</v>
       </c>
-      <c r="B114" s="559"/>
-      <c r="C114" s="559"/>
-      <c r="D114" s="576" t="s">
+      <c r="B114" s="713"/>
+      <c r="C114" s="713"/>
+      <c r="D114" s="730" t="s">
         <v>218</v>
       </c>
-      <c r="E114" s="567" t="s">
+      <c r="E114" s="721" t="s">
         <v>46</v>
       </c>
-      <c r="F114" s="570" t="str">
+      <c r="F114" s="724" t="str">
         <f>Namespace &amp; "has" &amp; ($A114) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalCoverageInfo</v>
       </c>
@@ -7980,12 +7980,12 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="560"/>
-      <c r="B115" s="560"/>
-      <c r="C115" s="560"/>
-      <c r="D115" s="577"/>
-      <c r="E115" s="568"/>
-      <c r="F115" s="571"/>
+      <c r="A115" s="714"/>
+      <c r="B115" s="714"/>
+      <c r="C115" s="714"/>
+      <c r="D115" s="731"/>
+      <c r="E115" s="722"/>
+      <c r="F115" s="725"/>
       <c r="G115" s="111" t="s">
         <v>221</v>
       </c>
@@ -8013,12 +8013,12 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="560"/>
-      <c r="B116" s="560"/>
-      <c r="C116" s="560"/>
-      <c r="D116" s="577"/>
-      <c r="E116" s="568"/>
-      <c r="F116" s="571"/>
+      <c r="A116" s="714"/>
+      <c r="B116" s="714"/>
+      <c r="C116" s="714"/>
+      <c r="D116" s="731"/>
+      <c r="E116" s="722"/>
+      <c r="F116" s="725"/>
       <c r="G116" s="111" t="s">
         <v>223</v>
       </c>
@@ -8046,12 +8046,12 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="560"/>
-      <c r="B117" s="560"/>
-      <c r="C117" s="560"/>
-      <c r="D117" s="577"/>
-      <c r="E117" s="568"/>
-      <c r="F117" s="571"/>
+      <c r="A117" s="714"/>
+      <c r="B117" s="714"/>
+      <c r="C117" s="714"/>
+      <c r="D117" s="731"/>
+      <c r="E117" s="722"/>
+      <c r="F117" s="725"/>
       <c r="G117" s="111" t="s">
         <v>224</v>
       </c>
@@ -8079,12 +8079,12 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="560"/>
-      <c r="B118" s="560"/>
-      <c r="C118" s="560"/>
-      <c r="D118" s="577"/>
-      <c r="E118" s="568"/>
-      <c r="F118" s="571"/>
+      <c r="A118" s="714"/>
+      <c r="B118" s="714"/>
+      <c r="C118" s="714"/>
+      <c r="D118" s="731"/>
+      <c r="E118" s="722"/>
+      <c r="F118" s="725"/>
       <c r="G118" s="111" t="s">
         <v>225</v>
       </c>
@@ -8112,12 +8112,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="560"/>
-      <c r="B119" s="560"/>
-      <c r="C119" s="560"/>
-      <c r="D119" s="577"/>
-      <c r="E119" s="568"/>
-      <c r="F119" s="571"/>
+      <c r="A119" s="714"/>
+      <c r="B119" s="714"/>
+      <c r="C119" s="714"/>
+      <c r="D119" s="731"/>
+      <c r="E119" s="722"/>
+      <c r="F119" s="725"/>
       <c r="G119" s="111" t="s">
         <v>226</v>
       </c>
@@ -8145,12 +8145,12 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="560"/>
-      <c r="B120" s="560"/>
-      <c r="C120" s="560"/>
-      <c r="D120" s="577"/>
-      <c r="E120" s="568"/>
-      <c r="F120" s="571"/>
+      <c r="A120" s="714"/>
+      <c r="B120" s="714"/>
+      <c r="C120" s="714"/>
+      <c r="D120" s="731"/>
+      <c r="E120" s="722"/>
+      <c r="F120" s="725"/>
       <c r="G120" s="111" t="s">
         <v>396</v>
       </c>
@@ -8178,12 +8178,12 @@
       </c>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="561"/>
-      <c r="B121" s="561"/>
-      <c r="C121" s="561"/>
-      <c r="D121" s="578"/>
-      <c r="E121" s="569"/>
-      <c r="F121" s="572"/>
+      <c r="A121" s="715"/>
+      <c r="B121" s="715"/>
+      <c r="C121" s="715"/>
+      <c r="D121" s="732"/>
+      <c r="E121" s="723"/>
+      <c r="F121" s="726"/>
       <c r="G121" s="534" t="s">
         <v>406</v>
       </c>
@@ -8211,18 +8211,18 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="562" t="s">
+      <c r="A122" s="716" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="562"/>
-      <c r="C122" s="562"/>
-      <c r="D122" s="573" t="s">
+      <c r="B122" s="716"/>
+      <c r="C122" s="716"/>
+      <c r="D122" s="727" t="s">
         <v>228</v>
       </c>
-      <c r="E122" s="579" t="s">
+      <c r="E122" s="733" t="s">
         <v>46</v>
       </c>
-      <c r="F122" s="582" t="str">
+      <c r="F122" s="734" t="str">
         <f>Namespace &amp; "has" &amp; ($A122) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalCoverageInfo</v>
       </c>
@@ -8253,12 +8253,12 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="563"/>
-      <c r="B123" s="563"/>
-      <c r="C123" s="563"/>
-      <c r="D123" s="574"/>
-      <c r="E123" s="580"/>
-      <c r="F123" s="583"/>
+      <c r="A123" s="717"/>
+      <c r="B123" s="717"/>
+      <c r="C123" s="717"/>
+      <c r="D123" s="728"/>
+      <c r="E123" s="581"/>
+      <c r="F123" s="735"/>
       <c r="G123" s="116" t="s">
         <v>231</v>
       </c>
@@ -8286,12 +8286,12 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="563"/>
-      <c r="B124" s="563"/>
-      <c r="C124" s="563"/>
-      <c r="D124" s="574"/>
-      <c r="E124" s="580"/>
-      <c r="F124" s="583"/>
+      <c r="A124" s="717"/>
+      <c r="B124" s="717"/>
+      <c r="C124" s="717"/>
+      <c r="D124" s="728"/>
+      <c r="E124" s="581"/>
+      <c r="F124" s="735"/>
       <c r="G124" s="116" t="s">
         <v>233</v>
       </c>
@@ -8319,12 +8319,12 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="564"/>
-      <c r="B125" s="564"/>
-      <c r="C125" s="564"/>
-      <c r="D125" s="575"/>
-      <c r="E125" s="581"/>
-      <c r="F125" s="584"/>
+      <c r="A125" s="718"/>
+      <c r="B125" s="718"/>
+      <c r="C125" s="718"/>
+      <c r="D125" s="729"/>
+      <c r="E125" s="582"/>
+      <c r="F125" s="736"/>
       <c r="G125" s="502" t="s">
         <v>235</v>
       </c>
@@ -8352,11 +8352,11 @@
       </c>
     </row>
     <row r="126" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="565" t="s">
+      <c r="A126" s="719" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="565"/>
-      <c r="C126" s="565"/>
+      <c r="B126" s="719"/>
+      <c r="C126" s="719"/>
       <c r="D126" s="512" t="s">
         <v>506</v>
       </c>
@@ -8378,17 +8378,17 @@
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="423"/>
-      <c r="B127" s="549" t="s">
+      <c r="B127" s="707" t="s">
         <v>507</v>
       </c>
-      <c r="C127" s="549"/>
-      <c r="D127" s="543" t="s">
+      <c r="C127" s="707"/>
+      <c r="D127" s="701" t="s">
         <v>510</v>
       </c>
-      <c r="E127" s="546">
+      <c r="E127" s="704">
         <v>1</v>
       </c>
-      <c r="F127" s="543" t="str">
+      <c r="F127" s="701" t="str">
         <f>Namespace &amp; "has" &amp; ($B127) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasAwardInfo</v>
       </c>
@@ -8420,11 +8420,11 @@
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="423"/>
-      <c r="B128" s="550"/>
-      <c r="C128" s="550"/>
-      <c r="D128" s="544"/>
-      <c r="E128" s="547"/>
-      <c r="F128" s="544"/>
+      <c r="B128" s="708"/>
+      <c r="C128" s="708"/>
+      <c r="D128" s="702"/>
+      <c r="E128" s="705"/>
+      <c r="F128" s="702"/>
       <c r="G128" s="511" t="s">
         <v>240</v>
       </c>
@@ -8453,11 +8453,11 @@
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="423"/>
-      <c r="B129" s="566"/>
-      <c r="C129" s="566"/>
-      <c r="D129" s="545"/>
-      <c r="E129" s="548"/>
-      <c r="F129" s="545"/>
+      <c r="B129" s="720"/>
+      <c r="C129" s="720"/>
+      <c r="D129" s="703"/>
+      <c r="E129" s="706"/>
+      <c r="F129" s="703"/>
       <c r="G129" s="528" t="s">
         <v>242</v>
       </c>
@@ -8486,17 +8486,17 @@
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="423"/>
-      <c r="B130" s="549" t="s">
+      <c r="B130" s="707" t="s">
         <v>508</v>
       </c>
-      <c r="C130" s="549"/>
-      <c r="D130" s="552" t="s">
+      <c r="C130" s="707"/>
+      <c r="D130" s="559" t="s">
         <v>509</v>
       </c>
-      <c r="E130" s="555" t="s">
+      <c r="E130" s="556" t="s">
         <v>54</v>
       </c>
-      <c r="F130" s="543" t="str">
+      <c r="F130" s="701" t="str">
         <f>Namespace &amp; "has" &amp; ($B130)  &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasFunderInfo</v>
       </c>
@@ -8528,11 +8528,11 @@
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="423"/>
-      <c r="B131" s="550"/>
-      <c r="C131" s="550"/>
-      <c r="D131" s="553"/>
-      <c r="E131" s="556"/>
-      <c r="F131" s="544"/>
+      <c r="B131" s="708"/>
+      <c r="C131" s="708"/>
+      <c r="D131" s="560"/>
+      <c r="E131" s="557"/>
+      <c r="F131" s="702"/>
       <c r="G131" s="507" t="s">
         <v>246</v>
       </c>
@@ -8561,11 +8561,11 @@
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="423"/>
-      <c r="B132" s="550"/>
-      <c r="C132" s="550"/>
-      <c r="D132" s="553"/>
-      <c r="E132" s="556"/>
-      <c r="F132" s="544"/>
+      <c r="B132" s="708"/>
+      <c r="C132" s="708"/>
+      <c r="D132" s="560"/>
+      <c r="E132" s="557"/>
+      <c r="F132" s="702"/>
       <c r="G132" s="511" t="s">
         <v>248</v>
       </c>
@@ -8594,11 +8594,11 @@
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="424"/>
-      <c r="B133" s="551"/>
-      <c r="C133" s="551"/>
-      <c r="D133" s="554"/>
-      <c r="E133" s="557"/>
-      <c r="F133" s="558"/>
+      <c r="B133" s="709"/>
+      <c r="C133" s="709"/>
+      <c r="D133" s="710"/>
+      <c r="E133" s="711"/>
+      <c r="F133" s="712"/>
       <c r="G133" s="519" t="s">
         <v>250</v>
       </c>
@@ -12268,29 +12268,93 @@
   </sheetData>
   <autoFilter ref="H1:N143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="134">
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="B130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="A114:C121"/>
+    <mergeCell ref="A122:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B127:C129"/>
+    <mergeCell ref="E114:E121"/>
+    <mergeCell ref="F114:F121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="B105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="A8:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="B42:C44"/>
+    <mergeCell ref="B45:C48"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B61:C63"/>
     <mergeCell ref="A3:C4"/>
     <mergeCell ref="A5:C7"/>
     <mergeCell ref="A2:C2"/>
@@ -12315,93 +12379,29 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B61:C63"/>
-    <mergeCell ref="A8:C12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="A65:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="B42:C44"/>
-    <mergeCell ref="B45:C48"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="B105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="B130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="A114:C121"/>
-    <mergeCell ref="A122:C125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="B127:C129"/>
-    <mergeCell ref="E114:E121"/>
-    <mergeCell ref="F114:F121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="D53:D55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -12433,10 +12433,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="742" t="s">
+      <c r="A1" s="738" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="742"/>
+      <c r="B1" s="738"/>
       <c r="C1" s="20" t="s">
         <v>460</v>
       </c>
@@ -12457,17 +12457,17 @@
       <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="737"/>
-      <c r="B2" s="738" t="s">
+      <c r="A2" s="739"/>
+      <c r="B2" s="740" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="743" t="s">
+      <c r="C2" s="741" t="s">
         <v>453</v>
       </c>
-      <c r="D2" s="739" t="s">
+      <c r="D2" s="742" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="740" t="str">
+      <c r="E2" s="737" t="str">
         <f>Namespace &amp; LOWER($B2)</f>
         <v>http://vocab.fairdatacollective.org/gdmt/contributorname</v>
       </c>
@@ -12497,11 +12497,11 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="737"/>
-      <c r="B3" s="738"/>
-      <c r="C3" s="743"/>
-      <c r="D3" s="739"/>
-      <c r="E3" s="740"/>
+      <c r="A3" s="739"/>
+      <c r="B3" s="740"/>
+      <c r="C3" s="741"/>
+      <c r="D3" s="742"/>
+      <c r="E3" s="737"/>
       <c r="F3" s="34" t="s">
         <v>111</v>
       </c>
@@ -12528,11 +12528,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="737"/>
-      <c r="B4" s="738"/>
-      <c r="C4" s="743"/>
-      <c r="D4" s="739"/>
-      <c r="E4" s="740"/>
+      <c r="A4" s="739"/>
+      <c r="B4" s="740"/>
+      <c r="C4" s="741"/>
+      <c r="D4" s="742"/>
+      <c r="E4" s="737"/>
       <c r="F4" s="34" t="s">
         <v>113</v>
       </c>
@@ -12559,17 +12559,17 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="737"/>
-      <c r="B5" s="738" t="s">
+      <c r="A5" s="739"/>
+      <c r="B5" s="740" t="s">
         <v>464</v>
       </c>
-      <c r="C5" s="738" t="s">
+      <c r="C5" s="740" t="s">
         <v>454</v>
       </c>
-      <c r="D5" s="739" t="s">
+      <c r="D5" s="742" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="740" t="str">
+      <c r="E5" s="737" t="str">
         <f>Namespace &amp; LOWER($B5)</f>
         <v>http://vocab.fairdatacollective.org/gdmt/contributoridentifier</v>
       </c>
@@ -12600,11 +12600,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="737"/>
-      <c r="B6" s="738"/>
-      <c r="C6" s="738"/>
-      <c r="D6" s="739"/>
-      <c r="E6" s="740"/>
+      <c r="A6" s="739"/>
+      <c r="B6" s="740"/>
+      <c r="C6" s="740"/>
+      <c r="D6" s="742"/>
+      <c r="E6" s="737"/>
       <c r="F6" s="34" t="s">
         <v>121</v>
       </c>
@@ -12632,11 +12632,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="737"/>
-      <c r="B7" s="738"/>
-      <c r="C7" s="738"/>
-      <c r="D7" s="739"/>
-      <c r="E7" s="740"/>
+      <c r="A7" s="739"/>
+      <c r="B7" s="740"/>
+      <c r="C7" s="740"/>
+      <c r="D7" s="742"/>
+      <c r="E7" s="737"/>
       <c r="F7" s="34" t="s">
         <v>122</v>
       </c>
@@ -12664,17 +12664,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="737"/>
-      <c r="B8" s="738" t="s">
+      <c r="A8" s="739"/>
+      <c r="B8" s="740" t="s">
         <v>465</v>
       </c>
-      <c r="C8" s="738" t="s">
+      <c r="C8" s="740" t="s">
         <v>456</v>
       </c>
-      <c r="D8" s="739" t="s">
+      <c r="D8" s="742" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="741" t="str">
+      <c r="E8" s="743" t="str">
         <f>Namespace &amp; LOWER($B8)</f>
         <v>http://vocab.fairdatacollective.org/gdmt/contributoraffiliation</v>
       </c>
@@ -12705,11 +12705,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="737"/>
-      <c r="B9" s="738"/>
-      <c r="C9" s="738"/>
-      <c r="D9" s="739"/>
-      <c r="E9" s="741"/>
+      <c r="A9" s="739"/>
+      <c r="B9" s="740"/>
+      <c r="C9" s="740"/>
+      <c r="D9" s="742"/>
+      <c r="E9" s="743"/>
       <c r="F9" s="34" t="s">
         <v>123</v>
       </c>
@@ -12737,11 +12737,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="737"/>
-      <c r="B10" s="738"/>
-      <c r="C10" s="738"/>
-      <c r="D10" s="739"/>
-      <c r="E10" s="741"/>
+      <c r="A10" s="739"/>
+      <c r="B10" s="740"/>
+      <c r="C10" s="740"/>
+      <c r="D10" s="742"/>
+      <c r="E10" s="743"/>
       <c r="F10" s="34" t="s">
         <v>458</v>
       </c>
@@ -12769,11 +12769,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="737"/>
-      <c r="B11" s="738"/>
-      <c r="C11" s="738"/>
-      <c r="D11" s="739"/>
-      <c r="E11" s="741"/>
+      <c r="A11" s="739"/>
+      <c r="B11" s="740"/>
+      <c r="C11" s="740"/>
+      <c r="D11" s="742"/>
+      <c r="E11" s="743"/>
       <c r="F11" s="34" t="s">
         <v>125</v>
       </c>
@@ -12897,22 +12897,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L13" r:id="rId1" xr:uid="{9ABA6EE5-7A54-DF40-9E10-C757BCBA07FF}"/>

--- a/template-description.xlsx
+++ b/template-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3303354-C006-E94C-A1B9-CD4EDB9A6C91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8471335-A05C-3B41-9182-27AF43DD13E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="525">
   <si>
     <t>Element 
 (CEDAR)</t>
@@ -274,9 +274,6 @@
     <t>creatorType</t>
   </si>
   <si>
-    <t>The type of the creator of the described dataset (organization, person, or system).</t>
-  </si>
-  <si>
     <t>creatorGivenName</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>creatorIdentifier</t>
   </si>
   <si>
-    <t>Globally unique string that identifies the creator (an individual, legal entity or system).</t>
-  </si>
-  <si>
     <t>creatorIdentifierScheme</t>
   </si>
   <si>
@@ -547,9 +541,6 @@
     <t>distributorType</t>
   </si>
   <si>
-    <t>The type of the distributor of the described dataset (organization, person, or system).</t>
-  </si>
-  <si>
     <t>distributorGivenName</t>
   </si>
   <si>
@@ -580,9 +571,6 @@
     <t>distributorIdentifier</t>
   </si>
   <si>
-    <t>Globally unique string that identifies the distributor (an individual, legal entity or system).</t>
-  </si>
-  <si>
     <t>distributorIdentifierScheme</t>
   </si>
   <si>
@@ -686,9 +674,6 @@
   </si>
   <si>
     <t>The description of a geographical location of dataset collection.</t>
-  </si>
-  <si>
-    <t>3..N</t>
   </si>
   <si>
     <t>VerticalCoverage</t>
@@ -1607,13 +1592,28 @@
     <t>License Identifier Scheme IRI</t>
   </si>
   <si>
-    <t>1..1</t>
-  </si>
-  <si>
-    <t>Information about the distributor of this dataset distribution. The Distributor includes primarily the system doing the distribution, but can include the person or persons responsible as well, for example the person who reformed the dataset for this distribution.</t>
-  </si>
-  <si>
     <t>http://vocab.fairdatacollective.org/gdmt/hasDistributionAccess</t>
+  </si>
+  <si>
+    <t>Globally unique string that identifies the creator (an individual or legal entity).</t>
+  </si>
+  <si>
+    <t>The type of the creator of the described dataset (person or organization).</t>
+  </si>
+  <si>
+    <t>The type of the contributor of the described dataset (organization or person).</t>
+  </si>
+  <si>
+    <t>Globally unique string that identifies the distributor (an individual or legal entity).</t>
+  </si>
+  <si>
+    <t>The type of the distributor of the described dataset (organization or person).</t>
+  </si>
+  <si>
+    <t>Globally unique string that identifies the contributor (an individual or legal).</t>
+  </si>
+  <si>
+    <t>Information about the distributor of this dataset distribution. The Distributor includes persons or legal entities that responsible for distributing the dataset distribution.</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="744">
+  <cellXfs count="741">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3166,25 +3166,214 @@
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3196,109 +3385,179 @@
     <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3308,114 +3567,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3457,309 +3608,149 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3994,10 +3985,10 @@
   <dimension ref="A1:P1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4019,11 +4010,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="615" t="s">
+      <c r="A1" s="669" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="615"/>
-      <c r="C1" s="615"/>
+      <c r="B1" s="669"/>
+      <c r="C1" s="669"/>
       <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
@@ -4034,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I1" s="45" t="s">
         <v>7</v>
@@ -4055,17 +4046,17 @@
         <v>8</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="614" t="s">
+      <c r="A2" s="668" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="614"/>
-      <c r="C2" s="614"/>
+      <c r="B2" s="668"/>
+      <c r="C2" s="668"/>
       <c r="D2" s="121" t="s">
         <v>10</v>
       </c>
@@ -4079,7 +4070,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I2" s="49" t="s">
         <v>16</v>
@@ -4097,18 +4088,18 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="609" t="s">
+      <c r="A3" s="663" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="609"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="634" t="s">
+      <c r="B3" s="663"/>
+      <c r="C3" s="663"/>
+      <c r="D3" s="685" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="636">
+      <c r="E3" s="687">
         <v>1</v>
       </c>
-      <c r="F3" s="637" t="str">
+      <c r="F3" s="688" t="str">
         <f>Namespace &amp; "has" &amp; $A3 &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasResourceTypeInfo</v>
       </c>
@@ -4116,10 +4107,10 @@
         <v>18</v>
       </c>
       <c r="H3" s="178" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I3" s="179" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J3" s="180">
         <v>1</v>
@@ -4128,7 +4119,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="182" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M3" s="183" t="str">
         <f>Namespace</f>
@@ -4139,20 +4130,20 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="610"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="635"/>
-      <c r="E4" s="582"/>
-      <c r="F4" s="638"/>
+      <c r="A4" s="664"/>
+      <c r="B4" s="664"/>
+      <c r="C4" s="664"/>
+      <c r="D4" s="686"/>
+      <c r="E4" s="581"/>
+      <c r="F4" s="689"/>
       <c r="G4" s="185" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="185" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I4" s="186" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J4" s="187">
         <v>1</v>
@@ -4172,18 +4163,18 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="611" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="611"/>
-      <c r="C5" s="611"/>
-      <c r="D5" s="543" t="s">
+      <c r="A5" s="665" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="665"/>
+      <c r="C5" s="665"/>
+      <c r="D5" s="717" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="631">
+      <c r="E5" s="682">
         <v>1</v>
       </c>
-      <c r="F5" s="639" t="str">
+      <c r="F5" s="690" t="str">
         <f>Namespace &amp; "has" &amp; ($A5) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDatasetIdentifierInfo</v>
       </c>
@@ -4191,7 +4182,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="192" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I5" s="193" t="s">
         <v>27</v>
@@ -4203,7 +4194,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="196" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M5" s="197" t="s">
         <v>28</v>
@@ -4213,17 +4204,17 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="612"/>
-      <c r="B6" s="612"/>
-      <c r="C6" s="612"/>
-      <c r="D6" s="544"/>
-      <c r="E6" s="632"/>
-      <c r="F6" s="640"/>
+      <c r="A6" s="666"/>
+      <c r="B6" s="666"/>
+      <c r="C6" s="666"/>
+      <c r="D6" s="718"/>
+      <c r="E6" s="683"/>
+      <c r="F6" s="691"/>
       <c r="G6" s="53" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I6" s="54" t="s">
         <v>30</v>
@@ -4235,7 +4226,7 @@
         <v>20</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M6" s="58" t="s">
         <v>28</v>
@@ -4245,20 +4236,20 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="613"/>
-      <c r="B7" s="613"/>
-      <c r="C7" s="613"/>
-      <c r="D7" s="545"/>
-      <c r="E7" s="633"/>
-      <c r="F7" s="641"/>
+      <c r="A7" s="667"/>
+      <c r="B7" s="667"/>
+      <c r="C7" s="667"/>
+      <c r="D7" s="719"/>
+      <c r="E7" s="684"/>
+      <c r="F7" s="692"/>
       <c r="G7" s="198" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="198" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I7" s="199" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J7" s="200">
         <v>1</v>
@@ -4278,18 +4269,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="659" t="s">
+      <c r="A8" s="611" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="659"/>
-      <c r="C8" s="659"/>
-      <c r="D8" s="577" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" s="580" t="s">
+      <c r="B8" s="611"/>
+      <c r="C8" s="611"/>
+      <c r="D8" s="696" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="699" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="583" t="str">
+      <c r="F8" s="700" t="str">
         <f>Namespace &amp; "has" &amp; ($A8) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasRelatedResourcesInfo</v>
       </c>
@@ -4297,7 +4288,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="205" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I8" s="206" t="s">
         <v>37</v>
@@ -4309,7 +4300,7 @@
         <v>36</v>
       </c>
       <c r="L8" s="209" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M8" s="210" t="s">
         <v>28</v>
@@ -4319,17 +4310,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="660"/>
-      <c r="B9" s="660"/>
-      <c r="C9" s="660"/>
-      <c r="D9" s="578"/>
-      <c r="E9" s="581"/>
-      <c r="F9" s="584"/>
+      <c r="A9" s="612"/>
+      <c r="B9" s="612"/>
+      <c r="C9" s="612"/>
+      <c r="D9" s="697"/>
+      <c r="E9" s="580"/>
+      <c r="F9" s="701"/>
       <c r="G9" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I9" s="60" t="s">
         <v>39</v>
@@ -4341,7 +4332,7 @@
         <v>36</v>
       </c>
       <c r="L9" s="63" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M9" s="65" t="str">
         <f>Namespace</f>
@@ -4352,20 +4343,20 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="660"/>
-      <c r="B10" s="660"/>
-      <c r="C10" s="660"/>
-      <c r="D10" s="578"/>
-      <c r="E10" s="581"/>
-      <c r="F10" s="584"/>
+      <c r="A10" s="612"/>
+      <c r="B10" s="612"/>
+      <c r="C10" s="612"/>
+      <c r="D10" s="697"/>
+      <c r="E10" s="580"/>
+      <c r="F10" s="701"/>
       <c r="G10" s="59" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J10" s="61">
         <v>1</v>
@@ -4386,20 +4377,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="660"/>
-      <c r="B11" s="660"/>
-      <c r="C11" s="660"/>
-      <c r="D11" s="578"/>
-      <c r="E11" s="581"/>
-      <c r="F11" s="584"/>
+      <c r="A11" s="612"/>
+      <c r="B11" s="612"/>
+      <c r="C11" s="612"/>
+      <c r="D11" s="697"/>
+      <c r="E11" s="580"/>
+      <c r="F11" s="701"/>
       <c r="G11" s="64" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J11" s="61">
         <v>1</v>
@@ -4408,7 +4399,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="66" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M11" s="65" t="str">
         <f>Namespace</f>
@@ -4419,17 +4410,17 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="661"/>
-      <c r="B12" s="661"/>
-      <c r="C12" s="661"/>
-      <c r="D12" s="579"/>
-      <c r="E12" s="582"/>
-      <c r="F12" s="585"/>
+      <c r="A12" s="613"/>
+      <c r="B12" s="613"/>
+      <c r="C12" s="613"/>
+      <c r="D12" s="698"/>
+      <c r="E12" s="581"/>
+      <c r="F12" s="702"/>
       <c r="G12" s="211" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="211" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I12" s="212" t="s">
         <v>43</v>
@@ -4452,11 +4443,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="663" t="s">
+      <c r="A13" s="618" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="663"/>
-      <c r="C13" s="663"/>
+      <c r="B13" s="618"/>
+      <c r="C13" s="618"/>
       <c r="D13" s="238" t="s">
         <v>45</v>
       </c>
@@ -4474,7 +4465,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="70" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J13" s="71">
         <v>1</v>
@@ -4483,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M13" s="74" t="s">
         <v>28</v>
@@ -4493,18 +4484,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="664" t="s">
+      <c r="A14" s="619" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="664"/>
-      <c r="C14" s="664"/>
-      <c r="D14" s="548" t="s">
+      <c r="B14" s="619"/>
+      <c r="C14" s="619"/>
+      <c r="D14" s="722" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="601" t="s">
+      <c r="E14" s="712" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="546" t="str">
+      <c r="F14" s="720" t="str">
         <f>Namespace &amp; "has" &amp; ($A14) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasLanguageInfo</v>
       </c>
@@ -4515,7 +4506,7 @@
         <v>48</v>
       </c>
       <c r="I14" s="219" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="J14" s="220" t="s">
         <v>34</v>
@@ -4524,33 +4515,33 @@
         <v>36</v>
       </c>
       <c r="L14" s="222" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M14" s="223" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="N14" s="218" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="665"/>
-      <c r="B15" s="665"/>
-      <c r="C15" s="665"/>
-      <c r="D15" s="549"/>
-      <c r="E15" s="602"/>
-      <c r="F15" s="547"/>
+      <c r="A15" s="620"/>
+      <c r="B15" s="620"/>
+      <c r="C15" s="620"/>
+      <c r="D15" s="723"/>
+      <c r="E15" s="713"/>
+      <c r="F15" s="721"/>
       <c r="G15" s="224" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="224" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I15" s="225" t="s">
-        <v>411</v>
-      </c>
-      <c r="J15" s="226">
-        <v>1</v>
+        <v>406</v>
+      </c>
+      <c r="J15" s="226" t="s">
+        <v>46</v>
       </c>
       <c r="K15" s="227" t="s">
         <v>68</v>
@@ -4560,20 +4551,20 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasPrimaryLanguage</v>
       </c>
       <c r="M15" s="229" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="N15" s="224" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="666" t="s">
+      <c r="A16" s="621" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="666"/>
-      <c r="C16" s="666"/>
+      <c r="B16" s="621"/>
+      <c r="C16" s="621"/>
       <c r="D16" s="239" t="s">
         <v>53</v>
       </c>
@@ -4588,7 +4579,7 @@
         <v>55</v>
       </c>
       <c r="H16" s="232" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I16" s="233" t="s">
         <v>53</v>
@@ -4610,11 +4601,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="667" t="s">
+      <c r="A17" s="622" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="667"/>
-      <c r="C17" s="667"/>
+      <c r="B17" s="622"/>
+      <c r="C17" s="622"/>
       <c r="D17" s="78" t="s">
         <v>58</v>
       </c>
@@ -4629,7 +4620,7 @@
         <v>59</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I17" s="77" t="s">
         <v>61</v>
@@ -4653,11 +4644,11 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" s="11" customFormat="1" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="662" t="s">
+      <c r="A18" s="614" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="662"/>
-      <c r="C18" s="662"/>
+      <c r="B18" s="614"/>
+      <c r="C18" s="614"/>
       <c r="D18" s="240" t="s">
         <v>63</v>
       </c>
@@ -4681,17 +4672,17 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="310"/>
-      <c r="B19" s="550" t="s">
-        <v>498</v>
-      </c>
-      <c r="C19" s="550"/>
-      <c r="D19" s="550" t="s">
-        <v>466</v>
-      </c>
-      <c r="E19" s="598" t="s">
+      <c r="B19" s="615" t="s">
+        <v>493</v>
+      </c>
+      <c r="C19" s="615"/>
+      <c r="D19" s="615" t="s">
+        <v>461</v>
+      </c>
+      <c r="E19" s="709" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="595" t="str">
+      <c r="F19" s="706" t="str">
         <f>Namespace&amp;($B19) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/ControlledTermsInfo</v>
       </c>
@@ -4699,10 +4690,10 @@
         <v>66</v>
       </c>
       <c r="H19" s="122" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I19" s="123" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J19" s="124" t="s">
         <v>34</v>
@@ -4714,7 +4705,7 @@
         <v>67</v>
       </c>
       <c r="M19" s="126" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N19" s="126" t="s">
         <v>28</v>
@@ -4722,16 +4713,16 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="310"/>
-      <c r="B20" s="551"/>
-      <c r="C20" s="551"/>
-      <c r="D20" s="551"/>
-      <c r="E20" s="599"/>
-      <c r="F20" s="596"/>
+      <c r="B20" s="616"/>
+      <c r="C20" s="616"/>
+      <c r="D20" s="616"/>
+      <c r="E20" s="710"/>
+      <c r="F20" s="707"/>
       <c r="G20" s="79" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H20" s="79" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I20" s="80" t="s">
         <v>69</v>
@@ -4747,7 +4738,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasSubjectIRI</v>
       </c>
       <c r="M20" s="83" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N20" s="83" t="s">
         <v>28</v>
@@ -4755,19 +4746,19 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="310"/>
-      <c r="B21" s="551"/>
-      <c r="C21" s="551"/>
-      <c r="D21" s="551"/>
-      <c r="E21" s="599"/>
-      <c r="F21" s="596"/>
+      <c r="B21" s="616"/>
+      <c r="C21" s="616"/>
+      <c r="D21" s="616"/>
+      <c r="E21" s="710"/>
+      <c r="F21" s="707"/>
       <c r="G21" s="83" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J21" s="81" t="s">
         <v>46</v>
@@ -4780,7 +4771,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasSubjectScheme</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N21" s="83" t="s">
         <v>28</v>
@@ -4788,19 +4779,19 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="310"/>
-      <c r="B22" s="552"/>
-      <c r="C22" s="552"/>
-      <c r="D22" s="552"/>
-      <c r="E22" s="600"/>
-      <c r="F22" s="597"/>
+      <c r="B22" s="617"/>
+      <c r="C22" s="617"/>
+      <c r="D22" s="617"/>
+      <c r="E22" s="711"/>
+      <c r="F22" s="708"/>
       <c r="G22" s="127" t="s">
         <v>71</v>
       </c>
       <c r="H22" s="127" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I22" s="128" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J22" s="129" t="s">
         <v>46</v>
@@ -4813,7 +4804,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasSubjectSchemeIRI</v>
       </c>
       <c r="M22" s="131" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N22" s="131" t="s">
         <v>28</v>
@@ -4827,7 +4818,7 @@
       <c r="E23" s="152"/>
       <c r="F23" s="153"/>
       <c r="G23" s="154" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H23" s="154" t="s">
         <v>64</v>
@@ -4851,11 +4842,11 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="674" t="s">
+      <c r="A24" s="631" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="674"/>
-      <c r="C24" s="674"/>
+      <c r="B24" s="631"/>
+      <c r="C24" s="631"/>
       <c r="D24" s="241" t="s">
         <v>73</v>
       </c>
@@ -4877,28 +4868,28 @@
     </row>
     <row r="25" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="625" t="s">
-        <v>450</v>
-      </c>
-      <c r="C25" s="625"/>
-      <c r="D25" s="625" t="s">
-        <v>476</v>
-      </c>
-      <c r="E25" s="589" t="s">
+      <c r="B25" s="632" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="632"/>
+      <c r="D25" s="632" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="676" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="628" t="str">
+      <c r="F25" s="679" t="str">
         <f>Namespace &amp; "has" &amp; ($B25) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorNameInfo</v>
       </c>
       <c r="G25" s="132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" s="132" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I25" s="133" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="134">
         <v>1</v>
@@ -4907,7 +4898,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="135" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M25" s="132" t="s">
         <v>28</v>
@@ -4918,19 +4909,19 @@
     </row>
     <row r="26" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="626"/>
-      <c r="C26" s="626"/>
-      <c r="D26" s="626"/>
-      <c r="E26" s="590"/>
-      <c r="F26" s="629"/>
+      <c r="B26" s="633"/>
+      <c r="C26" s="633"/>
+      <c r="D26" s="633"/>
+      <c r="E26" s="677"/>
+      <c r="F26" s="680"/>
       <c r="G26" s="87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="87" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I26" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" s="85" t="s">
         <v>34</v>
@@ -4939,7 +4930,7 @@
         <v>36</v>
       </c>
       <c r="L26" s="86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M26" s="84" t="s">
         <v>28</v>
@@ -4950,19 +4941,19 @@
     </row>
     <row r="27" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="627"/>
-      <c r="C27" s="627"/>
-      <c r="D27" s="627"/>
-      <c r="E27" s="591"/>
-      <c r="F27" s="630"/>
+      <c r="B27" s="634"/>
+      <c r="C27" s="634"/>
+      <c r="D27" s="634"/>
+      <c r="E27" s="678"/>
+      <c r="F27" s="681"/>
       <c r="G27" s="136" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="136" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I27" s="137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J27" s="138" t="s">
         <v>34</v>
@@ -4971,7 +4962,7 @@
         <v>36</v>
       </c>
       <c r="L27" s="139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27" s="140" t="s">
         <v>28</v>
@@ -4982,28 +4973,28 @@
     </row>
     <row r="28" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="625" t="s">
-        <v>451</v>
-      </c>
-      <c r="C28" s="625"/>
-      <c r="D28" s="625" t="s">
-        <v>475</v>
-      </c>
-      <c r="E28" s="589" t="s">
-        <v>522</v>
-      </c>
-      <c r="F28" s="628" t="str">
+      <c r="B28" s="632" t="s">
+        <v>446</v>
+      </c>
+      <c r="C28" s="632"/>
+      <c r="D28" s="632" t="s">
+        <v>470</v>
+      </c>
+      <c r="E28" s="676">
+        <v>1</v>
+      </c>
+      <c r="F28" s="679" t="str">
         <f>Namespace &amp; "has" &amp; ($B28) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorIdentifierInfo</v>
       </c>
       <c r="G28" s="141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="141" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I28" s="142" t="s">
-        <v>92</v>
+        <v>518</v>
       </c>
       <c r="J28" s="134">
         <v>1</v>
@@ -5024,25 +5015,25 @@
     </row>
     <row r="29" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="626"/>
-      <c r="C29" s="626"/>
-      <c r="D29" s="626"/>
-      <c r="E29" s="590"/>
-      <c r="F29" s="629"/>
+      <c r="B29" s="633"/>
+      <c r="C29" s="633"/>
+      <c r="D29" s="633"/>
+      <c r="E29" s="677"/>
+      <c r="F29" s="680"/>
       <c r="G29" s="87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H29" s="87" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I29" s="88" t="s">
-        <v>370</v>
-      </c>
-      <c r="J29" s="85">
-        <v>1</v>
+        <v>365</v>
+      </c>
+      <c r="J29" s="85" t="s">
+        <v>46</v>
       </c>
       <c r="K29" s="86" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L29" s="86" t="str">
         <f t="shared" si="0"/>
@@ -5053,30 +5044,30 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N29" s="84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="627"/>
-      <c r="C30" s="627"/>
-      <c r="D30" s="627"/>
-      <c r="E30" s="591"/>
-      <c r="F30" s="630"/>
+      <c r="B30" s="634"/>
+      <c r="C30" s="634"/>
+      <c r="D30" s="634"/>
+      <c r="E30" s="678"/>
+      <c r="F30" s="681"/>
       <c r="G30" s="136" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H30" s="136" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I30" s="137" t="s">
-        <v>371</v>
-      </c>
-      <c r="J30" s="138">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="J30" s="85" t="s">
+        <v>46</v>
       </c>
       <c r="K30" s="139" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L30" s="139" t="str">
         <f t="shared" si="0"/>
@@ -5087,33 +5078,33 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N30" s="140" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="625" t="s">
-        <v>452</v>
-      </c>
-      <c r="C31" s="625"/>
-      <c r="D31" s="625" t="s">
-        <v>474</v>
-      </c>
-      <c r="E31" s="589" t="s">
+      <c r="B31" s="632" t="s">
+        <v>447</v>
+      </c>
+      <c r="C31" s="632"/>
+      <c r="D31" s="632" t="s">
+        <v>469</v>
+      </c>
+      <c r="E31" s="676" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="586" t="str">
+      <c r="F31" s="703" t="str">
         <f>Namespace &amp; "has" &amp; ($B31) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasCreatorAffiliationInfo</v>
       </c>
       <c r="G31" s="141" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H31" s="141" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I31" s="142" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J31" s="134" t="s">
         <v>34</v>
@@ -5134,19 +5125,19 @@
     </row>
     <row r="32" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="626"/>
-      <c r="C32" s="626"/>
-      <c r="D32" s="626"/>
-      <c r="E32" s="590"/>
-      <c r="F32" s="587"/>
+      <c r="B32" s="633"/>
+      <c r="C32" s="633"/>
+      <c r="D32" s="633"/>
+      <c r="E32" s="677"/>
+      <c r="F32" s="704"/>
       <c r="G32" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H32" s="87" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I32" s="88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J32" s="85" t="s">
         <v>34</v>
@@ -5167,19 +5158,19 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
-      <c r="B33" s="626"/>
-      <c r="C33" s="626"/>
-      <c r="D33" s="626"/>
-      <c r="E33" s="590"/>
-      <c r="F33" s="587"/>
+      <c r="B33" s="633"/>
+      <c r="C33" s="633"/>
+      <c r="D33" s="633"/>
+      <c r="E33" s="677"/>
+      <c r="F33" s="704"/>
       <c r="G33" s="87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H33" s="87" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J33" s="85" t="s">
         <v>34</v>
@@ -5196,24 +5187,24 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N33" s="84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="627"/>
-      <c r="C34" s="627"/>
-      <c r="D34" s="627"/>
-      <c r="E34" s="591"/>
-      <c r="F34" s="588"/>
+      <c r="B34" s="634"/>
+      <c r="C34" s="634"/>
+      <c r="D34" s="634"/>
+      <c r="E34" s="678"/>
+      <c r="F34" s="705"/>
       <c r="G34" s="136" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H34" s="136" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I34" s="137" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J34" s="138" t="s">
         <v>34</v>
@@ -5230,7 +5221,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N34" s="140" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5241,13 +5232,13 @@
       <c r="E35" s="19"/>
       <c r="F35" s="90"/>
       <c r="G35" s="87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" s="87" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I35" s="88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" s="85" t="s">
         <v>34</v>
@@ -5256,7 +5247,7 @@
         <v>36</v>
       </c>
       <c r="L35" s="86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M35" s="84" t="s">
         <v>28</v>
@@ -5276,7 +5267,7 @@
         <v>74</v>
       </c>
       <c r="H36" s="87" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I36" s="88" t="s">
         <v>75</v>
@@ -5310,10 +5301,10 @@
         <v>77</v>
       </c>
       <c r="H37" s="172" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I37" s="173" t="s">
-        <v>78</v>
+        <v>519</v>
       </c>
       <c r="J37" s="174">
         <v>1</v>
@@ -5334,13 +5325,13 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="675" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="675"/>
-      <c r="C38" s="675"/>
+      <c r="A38" s="635" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="635"/>
+      <c r="C38" s="635"/>
       <c r="D38" s="377" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E38" s="378" t="s">
         <v>34</v>
@@ -5360,37 +5351,37 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="419"/>
-      <c r="B39" s="676" t="s">
-        <v>461</v>
-      </c>
-      <c r="C39" s="676"/>
-      <c r="D39" s="616" t="s">
-        <v>477</v>
-      </c>
-      <c r="E39" s="619" t="s">
+      <c r="B39" s="636" t="s">
+        <v>456</v>
+      </c>
+      <c r="C39" s="636"/>
+      <c r="D39" s="637" t="s">
+        <v>472</v>
+      </c>
+      <c r="E39" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="592" t="str">
+      <c r="F39" s="673" t="str">
         <f>Namespace &amp; "has" &amp; ($B39) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorNameInfo</v>
       </c>
       <c r="G39" s="385" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="385" t="s">
+        <v>320</v>
+      </c>
+      <c r="I39" s="386" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="385" t="s">
-        <v>325</v>
-      </c>
-      <c r="I39" s="386" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="387">
-        <v>1</v>
+      <c r="J39" s="387" t="s">
+        <v>46</v>
       </c>
       <c r="K39" s="388" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="388" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M39" s="385" t="s">
         <v>28</v>
@@ -5401,19 +5392,19 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="419"/>
-      <c r="B40" s="676"/>
-      <c r="C40" s="676"/>
-      <c r="D40" s="617"/>
-      <c r="E40" s="620"/>
-      <c r="F40" s="593"/>
+      <c r="B40" s="636"/>
+      <c r="C40" s="636"/>
+      <c r="D40" s="638"/>
+      <c r="E40" s="586"/>
+      <c r="F40" s="674"/>
       <c r="G40" s="389" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H40" s="389" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I40" s="390" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J40" s="391" t="s">
         <v>34</v>
@@ -5422,7 +5413,7 @@
         <v>36</v>
       </c>
       <c r="L40" s="392" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M40" s="393" t="s">
         <v>28</v>
@@ -5433,19 +5424,19 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="419"/>
-      <c r="B41" s="676"/>
-      <c r="C41" s="676"/>
-      <c r="D41" s="618"/>
-      <c r="E41" s="621"/>
-      <c r="F41" s="594"/>
+      <c r="B41" s="636"/>
+      <c r="C41" s="636"/>
+      <c r="D41" s="639"/>
+      <c r="E41" s="587"/>
+      <c r="F41" s="675"/>
       <c r="G41" s="394" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H41" s="394" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I41" s="395" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J41" s="396" t="s">
         <v>34</v>
@@ -5454,7 +5445,7 @@
         <v>36</v>
       </c>
       <c r="L41" s="397" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M41" s="398" t="s">
         <v>28</v>
@@ -5465,31 +5456,31 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="419"/>
-      <c r="B42" s="616" t="s">
-        <v>464</v>
-      </c>
-      <c r="C42" s="616"/>
-      <c r="D42" s="616" t="s">
-        <v>478</v>
-      </c>
-      <c r="E42" s="619" t="s">
+      <c r="B42" s="637" t="s">
+        <v>459</v>
+      </c>
+      <c r="C42" s="637"/>
+      <c r="D42" s="637" t="s">
+        <v>473</v>
+      </c>
+      <c r="E42" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="592" t="str">
+      <c r="F42" s="673" t="str">
         <f>Namespace &amp; "has" &amp; ($B42) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorIdentifierInfo</v>
       </c>
       <c r="G42" s="399" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H42" s="399" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I42" s="400" t="s">
-        <v>455</v>
-      </c>
-      <c r="J42" s="387">
-        <v>1</v>
+        <v>523</v>
+      </c>
+      <c r="J42" s="387" t="s">
+        <v>46</v>
       </c>
       <c r="K42" s="388" t="s">
         <v>36</v>
@@ -5507,22 +5498,22 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="419"/>
-      <c r="B43" s="617"/>
-      <c r="C43" s="617"/>
-      <c r="D43" s="617"/>
-      <c r="E43" s="620"/>
-      <c r="F43" s="593"/>
+      <c r="B43" s="638"/>
+      <c r="C43" s="638"/>
+      <c r="D43" s="638"/>
+      <c r="E43" s="586"/>
+      <c r="F43" s="674"/>
       <c r="G43" s="389" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H43" s="389" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I43" s="390" t="s">
-        <v>374</v>
-      </c>
-      <c r="J43" s="391">
-        <v>1</v>
+        <v>369</v>
+      </c>
+      <c r="J43" s="391" t="s">
+        <v>46</v>
       </c>
       <c r="K43" s="392" t="s">
         <v>36</v>
@@ -5536,27 +5527,27 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N43" s="393" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="419"/>
-      <c r="B44" s="618"/>
-      <c r="C44" s="618"/>
-      <c r="D44" s="618"/>
-      <c r="E44" s="621"/>
-      <c r="F44" s="594"/>
+      <c r="B44" s="639"/>
+      <c r="C44" s="639"/>
+      <c r="D44" s="639"/>
+      <c r="E44" s="587"/>
+      <c r="F44" s="675"/>
       <c r="G44" s="394" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H44" s="394" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I44" s="395" t="s">
-        <v>375</v>
-      </c>
-      <c r="J44" s="396">
-        <v>1</v>
+        <v>370</v>
+      </c>
+      <c r="J44" s="396" t="s">
+        <v>46</v>
       </c>
       <c r="K44" s="397" t="s">
         <v>36</v>
@@ -5570,33 +5561,33 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N44" s="398" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="419"/>
-      <c r="B45" s="616" t="s">
-        <v>465</v>
-      </c>
-      <c r="C45" s="616"/>
-      <c r="D45" s="616" t="s">
-        <v>479</v>
-      </c>
-      <c r="E45" s="619" t="s">
+      <c r="B45" s="637" t="s">
+        <v>460</v>
+      </c>
+      <c r="C45" s="637"/>
+      <c r="D45" s="637" t="s">
+        <v>474</v>
+      </c>
+      <c r="E45" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="622" t="str">
+      <c r="F45" s="670" t="str">
         <f>Namespace &amp; "has" &amp; ($B45) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasContributorAffiliationInfo</v>
       </c>
       <c r="G45" s="399" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H45" s="399" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I45" s="400" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J45" s="387" t="s">
         <v>46</v>
@@ -5617,19 +5608,19 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="419"/>
-      <c r="B46" s="617"/>
-      <c r="C46" s="617"/>
-      <c r="D46" s="617"/>
-      <c r="E46" s="620"/>
-      <c r="F46" s="623"/>
+      <c r="B46" s="638"/>
+      <c r="C46" s="638"/>
+      <c r="D46" s="638"/>
+      <c r="E46" s="586"/>
+      <c r="F46" s="671"/>
       <c r="G46" s="389" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H46" s="389" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I46" s="390" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J46" s="391" t="s">
         <v>46</v>
@@ -5650,19 +5641,19 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="419"/>
-      <c r="B47" s="617"/>
-      <c r="C47" s="617"/>
-      <c r="D47" s="617"/>
-      <c r="E47" s="620"/>
-      <c r="F47" s="623"/>
+      <c r="B47" s="638"/>
+      <c r="C47" s="638"/>
+      <c r="D47" s="638"/>
+      <c r="E47" s="586"/>
+      <c r="F47" s="671"/>
       <c r="G47" s="389" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H47" s="389" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I47" s="390" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J47" s="391" t="s">
         <v>46</v>
@@ -5679,24 +5670,24 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N47" s="393" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="419"/>
-      <c r="B48" s="618"/>
-      <c r="C48" s="618"/>
-      <c r="D48" s="618"/>
-      <c r="E48" s="621"/>
-      <c r="F48" s="624"/>
+      <c r="B48" s="639"/>
+      <c r="C48" s="639"/>
+      <c r="D48" s="639"/>
+      <c r="E48" s="587"/>
+      <c r="F48" s="672"/>
       <c r="G48" s="394" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H48" s="394" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I48" s="395" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J48" s="396" t="s">
         <v>46</v>
@@ -5713,7 +5704,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N48" s="398" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -5726,13 +5717,13 @@
       <c r="E49" s="405"/>
       <c r="F49" s="406"/>
       <c r="G49" s="389" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H49" s="389" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I49" s="390" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J49" s="391" t="s">
         <v>34</v>
@@ -5741,7 +5732,7 @@
         <v>36</v>
       </c>
       <c r="L49" s="388" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M49" s="393" t="s">
         <v>28</v>
@@ -5760,13 +5751,13 @@
       <c r="E50" s="408"/>
       <c r="F50" s="406"/>
       <c r="G50" s="389" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H50" s="389" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I50" s="390" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="J50" s="391" t="s">
         <v>34</v>
@@ -5794,16 +5785,16 @@
       <c r="E51" s="411"/>
       <c r="F51" s="412"/>
       <c r="G51" s="413" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H51" s="413" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I51" s="414" t="s">
-        <v>110</v>
-      </c>
-      <c r="J51" s="415">
-        <v>1</v>
+        <v>520</v>
+      </c>
+      <c r="J51" s="415" t="s">
+        <v>46</v>
       </c>
       <c r="K51" s="416" t="s">
         <v>36</v>
@@ -5821,13 +5812,13 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="677" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="677"/>
-      <c r="C52" s="677"/>
+      <c r="A52" s="640" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="640"/>
+      <c r="C52" s="640"/>
       <c r="D52" s="243" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E52" s="242">
         <v>1</v>
@@ -5847,34 +5838,34 @@
     </row>
     <row r="53" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="421"/>
-      <c r="B53" s="568" t="s">
-        <v>472</v>
-      </c>
-      <c r="C53" s="568"/>
-      <c r="D53" s="568" t="s">
-        <v>473</v>
-      </c>
-      <c r="E53" s="565" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="562" t="str">
+      <c r="B53" s="649" t="s">
+        <v>467</v>
+      </c>
+      <c r="C53" s="649"/>
+      <c r="D53" s="649" t="s">
+        <v>468</v>
+      </c>
+      <c r="E53" s="731" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="728" t="str">
         <f>Namespace &amp; "has" &amp; ($B53) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasPublisherIdentifierInfo</v>
       </c>
       <c r="G53" s="247" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H53" s="247" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I53" s="248" t="s">
-        <v>135</v>
-      </c>
-      <c r="J53" s="249">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="J53" s="249" t="s">
+        <v>46</v>
       </c>
       <c r="K53" s="250" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L53" s="250" t="str">
         <f>Namespace &amp; "has" &amp; SUBSTITUTE($H53, " ", "")</f>
@@ -5889,25 +5880,25 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="421"/>
-      <c r="B54" s="569"/>
-      <c r="C54" s="569"/>
-      <c r="D54" s="569"/>
-      <c r="E54" s="566"/>
-      <c r="F54" s="563"/>
+      <c r="B54" s="650"/>
+      <c r="C54" s="650"/>
+      <c r="D54" s="650"/>
+      <c r="E54" s="732"/>
+      <c r="F54" s="729"/>
       <c r="G54" s="93" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H54" s="93" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I54" s="94" t="s">
-        <v>378</v>
-      </c>
-      <c r="J54" s="95">
-        <v>1</v>
+        <v>373</v>
+      </c>
+      <c r="J54" s="95" t="s">
+        <v>46</v>
       </c>
       <c r="K54" s="96" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L54" s="96" t="str">
         <f>Namespace &amp; "has" &amp; SUBSTITUTE($H54, " ", "")</f>
@@ -5918,30 +5909,30 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N54" s="97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="421"/>
-      <c r="B55" s="570"/>
-      <c r="C55" s="570"/>
-      <c r="D55" s="570"/>
-      <c r="E55" s="567"/>
-      <c r="F55" s="564"/>
+      <c r="B55" s="651"/>
+      <c r="C55" s="651"/>
+      <c r="D55" s="651"/>
+      <c r="E55" s="733"/>
+      <c r="F55" s="730"/>
       <c r="G55" s="252" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H55" s="252" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I55" s="253" t="s">
-        <v>379</v>
-      </c>
-      <c r="J55" s="254">
-        <v>1</v>
+        <v>374</v>
+      </c>
+      <c r="J55" s="254" t="s">
+        <v>46</v>
       </c>
       <c r="K55" s="255" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L55" s="255" t="str">
         <f>Namespace &amp; "has" &amp; SUBSTITUTE($H55, " ", "")</f>
@@ -5952,7 +5943,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N55" s="256" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5963,13 +5954,13 @@
       <c r="E56" s="245"/>
       <c r="F56" s="243"/>
       <c r="G56" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="93" t="s">
+        <v>331</v>
+      </c>
+      <c r="I56" s="94" t="s">
         <v>127</v>
-      </c>
-      <c r="H56" s="93" t="s">
-        <v>336</v>
-      </c>
-      <c r="I56" s="94" t="s">
-        <v>129</v>
       </c>
       <c r="J56" s="95">
         <v>1</v>
@@ -5978,7 +5969,7 @@
         <v>20</v>
       </c>
       <c r="L56" s="96" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M56" s="97" t="s">
         <v>28</v>
@@ -5995,13 +5986,13 @@
       <c r="E57" s="246"/>
       <c r="F57" s="243"/>
       <c r="G57" s="93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H57" s="93" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I57" s="94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J57" s="95" t="s">
         <v>34</v>
@@ -6010,7 +6001,7 @@
         <v>36</v>
       </c>
       <c r="L57" s="96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M57" s="97" t="s">
         <v>28</v>
@@ -6027,13 +6018,13 @@
       <c r="E58" s="257"/>
       <c r="F58" s="258"/>
       <c r="G58" s="259" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H58" s="259" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I58" s="260" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J58" s="261" t="s">
         <v>34</v>
@@ -6055,13 +6046,13 @@
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="658" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" s="658"/>
-      <c r="C59" s="658"/>
+      <c r="A59" s="661" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="661"/>
+      <c r="C59" s="661"/>
       <c r="D59" s="291" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E59" s="292">
         <v>1</v>
@@ -6087,13 +6078,13 @@
       <c r="E60" s="266"/>
       <c r="F60" s="264"/>
       <c r="G60" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H60" s="98" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I60" s="104" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J60" s="100">
         <v>1</v>
@@ -6106,39 +6097,39 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseName</v>
       </c>
       <c r="M60" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="N60" s="103" t="s">
         <v>142</v>
-      </c>
-      <c r="N60" s="103" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="423"/>
-      <c r="B61" s="559" t="s">
-        <v>482</v>
-      </c>
-      <c r="C61" s="559"/>
-      <c r="D61" s="559" t="s">
-        <v>483</v>
-      </c>
-      <c r="E61" s="556" t="s">
+      <c r="B61" s="552" t="s">
+        <v>477</v>
+      </c>
+      <c r="C61" s="552"/>
+      <c r="D61" s="552" t="s">
+        <v>478</v>
+      </c>
+      <c r="E61" s="555" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="553" t="str">
+      <c r="F61" s="724" t="str">
         <f>Namespace &amp; "has" &amp; ($B61) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifierInfo</v>
       </c>
       <c r="G61" s="279" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H61" s="279" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I61" s="280" t="s">
-        <v>146</v>
-      </c>
-      <c r="J61" s="281">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="J61" s="281" t="s">
+        <v>46</v>
       </c>
       <c r="K61" s="282" t="s">
         <v>36</v>
@@ -6148,32 +6139,32 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifier</v>
       </c>
       <c r="M61" s="283" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N61" s="284" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O61"/>
       <c r="P61"/>
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="423"/>
-      <c r="B62" s="560"/>
-      <c r="C62" s="560"/>
-      <c r="D62" s="560"/>
-      <c r="E62" s="557"/>
-      <c r="F62" s="554"/>
+      <c r="B62" s="553"/>
+      <c r="C62" s="553"/>
+      <c r="D62" s="553"/>
+      <c r="E62" s="556"/>
+      <c r="F62" s="725"/>
       <c r="G62" s="98" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H62" s="98" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I62" s="99" t="s">
-        <v>380</v>
-      </c>
-      <c r="J62" s="100">
-        <v>1</v>
+        <v>375</v>
+      </c>
+      <c r="J62" s="100" t="s">
+        <v>46</v>
       </c>
       <c r="K62" s="101" t="s">
         <v>36</v>
@@ -6183,30 +6174,30 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifierScheme</v>
       </c>
       <c r="M62" s="102" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N62" s="103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="423"/>
-      <c r="B63" s="561"/>
-      <c r="C63" s="561"/>
-      <c r="D63" s="561"/>
-      <c r="E63" s="558"/>
-      <c r="F63" s="555"/>
+      <c r="B63" s="662"/>
+      <c r="C63" s="662"/>
+      <c r="D63" s="662"/>
+      <c r="E63" s="727"/>
+      <c r="F63" s="726"/>
       <c r="G63" s="285" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H63" s="285" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I63" s="286" t="s">
-        <v>381</v>
-      </c>
-      <c r="J63" s="287">
-        <v>1</v>
+        <v>376</v>
+      </c>
+      <c r="J63" s="287" t="s">
+        <v>46</v>
       </c>
       <c r="K63" s="288" t="s">
         <v>36</v>
@@ -6216,10 +6207,10 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasLicenseIdentifierSchemeIRI</v>
       </c>
       <c r="M63" s="289" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N63" s="290" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6230,13 +6221,13 @@
       <c r="E64" s="297"/>
       <c r="F64" s="298"/>
       <c r="G64" s="267" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H64" s="267" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I64" s="268" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J64" s="269" t="s">
         <v>46</v>
@@ -6245,37 +6236,37 @@
         <v>68</v>
       </c>
       <c r="L64" s="270" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M64" s="271" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N64" s="272"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="671" t="s">
-        <v>151</v>
-      </c>
-      <c r="B65" s="671"/>
-      <c r="C65" s="671"/>
-      <c r="D65" s="651" t="s">
-        <v>516</v>
-      </c>
-      <c r="E65" s="653" t="s">
+      <c r="A65" s="628" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="628"/>
+      <c r="C65" s="628"/>
+      <c r="D65" s="654" t="s">
+        <v>511</v>
+      </c>
+      <c r="E65" s="656" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="651" t="str">
+      <c r="F65" s="654" t="str">
         <f>Namespace &amp; "has" &amp; ($A65) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDateInfo</v>
       </c>
       <c r="G65" s="299" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H65" s="299" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I65" s="300" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J65" s="301">
         <v>1</v>
@@ -6293,20 +6284,20 @@
       <c r="N65" s="303"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="672"/>
-      <c r="B66" s="672"/>
-      <c r="C66" s="672"/>
-      <c r="D66" s="652"/>
-      <c r="E66" s="654"/>
-      <c r="F66" s="652"/>
+      <c r="A66" s="629"/>
+      <c r="B66" s="629"/>
+      <c r="C66" s="629"/>
+      <c r="D66" s="655"/>
+      <c r="E66" s="657"/>
+      <c r="F66" s="655"/>
       <c r="G66" s="535" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H66" s="535" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I66" s="536" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J66" s="537">
         <v>1</v>
@@ -6323,17 +6314,17 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N66" s="539" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="673" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="673"/>
-      <c r="C67" s="673"/>
-      <c r="D67" s="678" t="s">
-        <v>159</v>
+      <c r="A67" s="630" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="630"/>
+      <c r="C67" s="630"/>
+      <c r="D67" s="641" t="s">
+        <v>157</v>
       </c>
       <c r="E67" s="360" t="s">
         <v>34</v>
@@ -6353,25 +6344,25 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="367"/>
-      <c r="B68" s="649"/>
-      <c r="C68" s="649"/>
-      <c r="D68" s="679"/>
+      <c r="B68" s="652"/>
+      <c r="C68" s="652"/>
+      <c r="D68" s="642"/>
       <c r="E68" s="311"/>
       <c r="F68" s="312"/>
       <c r="G68" s="313" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H68" s="313" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I68" s="314" t="s">
-        <v>156</v>
-      </c>
-      <c r="J68" s="315">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="J68" s="315" t="s">
+        <v>46</v>
       </c>
       <c r="K68" s="316" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L68" s="316" t="str">
         <f>Namespace &amp; "has" &amp; SUBSTITUTE($H68, " ", "")</f>
@@ -6389,23 +6380,23 @@
       <c r="A69" s="367"/>
       <c r="B69" s="368"/>
       <c r="C69" s="317"/>
-      <c r="D69" s="679"/>
+      <c r="D69" s="642"/>
       <c r="E69" s="319"/>
       <c r="F69" s="312"/>
       <c r="G69" s="313" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H69" s="313" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I69" s="314" t="s">
-        <v>158</v>
-      </c>
-      <c r="J69" s="315">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="J69" s="315" t="s">
+        <v>46</v>
       </c>
       <c r="K69" s="316" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L69" s="316" t="str">
         <f>Namespace &amp; "has" &amp; SUBSTITUTE($H69, " ", "")</f>
@@ -6416,69 +6407,69 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N69" s="313" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="367"/>
       <c r="B70" s="368"/>
       <c r="C70" s="317"/>
-      <c r="D70" s="679"/>
+      <c r="D70" s="642"/>
       <c r="E70" s="320"/>
       <c r="F70" s="312"/>
       <c r="G70" s="305" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H70" s="305" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I70" s="306" t="s">
-        <v>442</v>
-      </c>
-      <c r="J70" s="307">
-        <v>1</v>
+        <v>437</v>
+      </c>
+      <c r="J70" s="307" t="s">
+        <v>46</v>
       </c>
       <c r="K70" s="308" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L70" s="308" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M70" s="309" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N70" s="309" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="367"/>
       <c r="B71" s="368"/>
       <c r="C71" s="317"/>
-      <c r="D71" s="679"/>
+      <c r="D71" s="642"/>
       <c r="E71" s="320"/>
       <c r="F71" s="312"/>
       <c r="G71" s="305" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H71" s="305" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I71" s="306" t="s">
-        <v>445</v>
-      </c>
-      <c r="J71" s="307">
-        <v>1</v>
+        <v>440</v>
+      </c>
+      <c r="J71" s="307" t="s">
+        <v>46</v>
       </c>
       <c r="K71" s="308" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L71" s="316" t="str">
         <f t="shared" ref="L71:L76" si="2">Namespace &amp; "has" &amp; SUBSTITUTE($H71, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionMediaType</v>
       </c>
       <c r="M71" s="309" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="N71" s="309" t="s">
         <v>28</v>
@@ -6488,20 +6479,20 @@
       <c r="A72" s="367"/>
       <c r="B72" s="368"/>
       <c r="C72" s="317"/>
-      <c r="D72" s="679"/>
+      <c r="D72" s="642"/>
       <c r="E72" s="319"/>
       <c r="F72" s="312"/>
       <c r="G72" s="305" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H72" s="305" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I72" s="306" t="s">
-        <v>162</v>
-      </c>
-      <c r="J72" s="307">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="J72" s="307" t="s">
+        <v>46</v>
       </c>
       <c r="K72" s="308" t="s">
         <v>36</v>
@@ -6519,30 +6510,30 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="367"/>
-      <c r="B73" s="643" t="s">
-        <v>488</v>
-      </c>
-      <c r="C73" s="643"/>
-      <c r="D73" s="655" t="s">
-        <v>489</v>
-      </c>
-      <c r="E73" s="603">
-        <v>1</v>
-      </c>
-      <c r="F73" s="655" t="s">
-        <v>524</v>
+      <c r="B73" s="625" t="s">
+        <v>483</v>
+      </c>
+      <c r="C73" s="625"/>
+      <c r="D73" s="658" t="s">
+        <v>484</v>
+      </c>
+      <c r="E73" s="643" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="658" t="s">
+        <v>517</v>
       </c>
       <c r="G73" s="321" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H73" s="321" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I73" s="322" t="s">
-        <v>446</v>
-      </c>
-      <c r="J73" s="323">
-        <v>1</v>
+        <v>441</v>
+      </c>
+      <c r="J73" s="323" t="s">
+        <v>46</v>
       </c>
       <c r="K73" s="324" t="s">
         <v>36</v>
@@ -6552,7 +6543,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributionAccessProtocol</v>
       </c>
       <c r="M73" s="325" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N73" s="325" t="s">
         <v>28</v>
@@ -6560,19 +6551,19 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="367"/>
-      <c r="B74" s="644"/>
-      <c r="C74" s="644"/>
-      <c r="D74" s="656"/>
-      <c r="E74" s="604"/>
-      <c r="F74" s="656"/>
+      <c r="B74" s="626"/>
+      <c r="C74" s="626"/>
+      <c r="D74" s="659"/>
+      <c r="E74" s="644"/>
+      <c r="F74" s="659"/>
       <c r="G74" s="305" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H74" s="305" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I74" s="306" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J74" s="307" t="s">
         <v>54</v>
@@ -6593,19 +6584,19 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="367"/>
-      <c r="B75" s="645"/>
-      <c r="C75" s="645"/>
-      <c r="D75" s="657"/>
-      <c r="E75" s="605"/>
-      <c r="F75" s="657"/>
+      <c r="B75" s="627"/>
+      <c r="C75" s="627"/>
+      <c r="D75" s="660"/>
+      <c r="E75" s="645"/>
+      <c r="F75" s="660"/>
       <c r="G75" s="326" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H75" s="326" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I75" s="327" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J75" s="328" t="s">
         <v>54</v>
@@ -6632,19 +6623,19 @@
       <c r="E76" s="319"/>
       <c r="F76" s="312"/>
       <c r="G76" s="304" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H76" s="305" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I76" s="306" t="s">
-        <v>410</v>
-      </c>
-      <c r="J76" s="307">
-        <v>1</v>
+        <v>405</v>
+      </c>
+      <c r="J76" s="307" t="s">
+        <v>46</v>
       </c>
       <c r="K76" s="308" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L76" s="316" t="str">
         <f t="shared" si="2"/>
@@ -6657,15 +6648,15 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="367"/>
-      <c r="B77" s="650" t="s">
-        <v>490</v>
-      </c>
-      <c r="C77" s="650"/>
+      <c r="B77" s="653" t="s">
+        <v>485</v>
+      </c>
+      <c r="C77" s="653"/>
       <c r="D77" s="353" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E77" s="354" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F77" s="355" t="str">
         <f>Namespace &amp; "has" &amp; ($B77) &amp; "Info"</f>
@@ -6682,37 +6673,37 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="367"/>
-      <c r="B78" s="642"/>
-      <c r="C78" s="643" t="s">
-        <v>491</v>
-      </c>
-      <c r="D78" s="643" t="s">
-        <v>492</v>
-      </c>
-      <c r="E78" s="603">
-        <v>1</v>
+      <c r="B78" s="624"/>
+      <c r="C78" s="625" t="s">
+        <v>486</v>
+      </c>
+      <c r="D78" s="625" t="s">
+        <v>487</v>
+      </c>
+      <c r="E78" s="643" t="s">
+        <v>46</v>
       </c>
       <c r="F78" s="646" t="str">
         <f>Namespace &amp; "has" &amp; ($C78) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorNameInfo</v>
       </c>
       <c r="G78" s="331" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H78" s="331" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I78" s="332" t="s">
-        <v>176</v>
-      </c>
-      <c r="J78" s="333">
-        <v>1</v>
+        <v>173</v>
+      </c>
+      <c r="J78" s="333" t="s">
+        <v>46</v>
       </c>
       <c r="K78" s="334" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L78" s="334" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M78" s="331" t="s">
         <v>28</v>
@@ -6723,19 +6714,19 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="367"/>
-      <c r="B79" s="642"/>
-      <c r="C79" s="644"/>
-      <c r="D79" s="644"/>
-      <c r="E79" s="604"/>
+      <c r="B79" s="624"/>
+      <c r="C79" s="626"/>
+      <c r="D79" s="626"/>
+      <c r="E79" s="644"/>
       <c r="F79" s="647"/>
       <c r="G79" s="349" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H79" s="349" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I79" s="350" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J79" s="351" t="s">
         <v>34</v>
@@ -6744,7 +6735,7 @@
         <v>36</v>
       </c>
       <c r="L79" s="352" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M79" s="349" t="s">
         <v>28</v>
@@ -6755,19 +6746,19 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="367"/>
-      <c r="B80" s="642"/>
-      <c r="C80" s="645"/>
-      <c r="D80" s="645"/>
-      <c r="E80" s="605"/>
+      <c r="B80" s="624"/>
+      <c r="C80" s="627"/>
+      <c r="D80" s="627"/>
+      <c r="E80" s="645"/>
       <c r="F80" s="648"/>
       <c r="G80" s="335" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H80" s="335" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I80" s="336" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J80" s="337" t="s">
         <v>34</v>
@@ -6776,7 +6767,7 @@
         <v>36</v>
       </c>
       <c r="L80" s="338" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M80" s="335" t="s">
         <v>28</v>
@@ -6787,34 +6778,34 @@
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="367"/>
-      <c r="B81" s="642"/>
-      <c r="C81" s="643" t="s">
-        <v>494</v>
-      </c>
-      <c r="D81" s="643" t="s">
-        <v>495</v>
-      </c>
-      <c r="E81" s="603">
-        <v>1</v>
+      <c r="B81" s="624"/>
+      <c r="C81" s="625" t="s">
+        <v>489</v>
+      </c>
+      <c r="D81" s="625" t="s">
+        <v>490</v>
+      </c>
+      <c r="E81" s="643" t="s">
+        <v>46</v>
       </c>
       <c r="F81" s="646" t="str">
         <f>Namespace &amp; "has" &amp; ($C81) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorIdentifierInfo</v>
       </c>
       <c r="G81" s="331" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H81" s="331" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I81" s="332" t="s">
-        <v>180</v>
-      </c>
-      <c r="J81" s="333">
-        <v>1</v>
+        <v>521</v>
+      </c>
+      <c r="J81" s="333" t="s">
+        <v>46</v>
       </c>
       <c r="K81" s="334" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L81" s="540" t="str">
         <f t="shared" ref="L81:L87" si="3">Namespace &amp; "has" &amp; SUBSTITUTE($H81, " ", "")</f>
@@ -6829,25 +6820,25 @@
     </row>
     <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="367"/>
-      <c r="B82" s="642"/>
-      <c r="C82" s="644"/>
-      <c r="D82" s="644"/>
-      <c r="E82" s="604"/>
+      <c r="B82" s="624"/>
+      <c r="C82" s="626"/>
+      <c r="D82" s="626"/>
+      <c r="E82" s="644"/>
       <c r="F82" s="647"/>
       <c r="G82" s="349" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H82" s="349" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I82" s="350" t="s">
-        <v>383</v>
-      </c>
-      <c r="J82" s="351">
-        <v>1</v>
+        <v>378</v>
+      </c>
+      <c r="J82" s="351" t="s">
+        <v>46</v>
       </c>
       <c r="K82" s="352" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L82" s="316" t="str">
         <f t="shared" si="3"/>
@@ -6858,30 +6849,30 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N82" s="349" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="367"/>
-      <c r="B83" s="642"/>
-      <c r="C83" s="645"/>
-      <c r="D83" s="645"/>
-      <c r="E83" s="605"/>
+      <c r="B83" s="624"/>
+      <c r="C83" s="627"/>
+      <c r="D83" s="627"/>
+      <c r="E83" s="645"/>
       <c r="F83" s="648"/>
       <c r="G83" s="335" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H83" s="335" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I83" s="336" t="s">
-        <v>382</v>
-      </c>
-      <c r="J83" s="337">
-        <v>1</v>
+        <v>377</v>
+      </c>
+      <c r="J83" s="337" t="s">
+        <v>46</v>
       </c>
       <c r="K83" s="338" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L83" s="541" t="str">
         <f t="shared" si="3"/>
@@ -6892,33 +6883,33 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N83" s="335" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="367"/>
-      <c r="B84" s="642"/>
-      <c r="C84" s="643" t="s">
-        <v>496</v>
-      </c>
-      <c r="D84" s="643" t="s">
-        <v>497</v>
-      </c>
-      <c r="E84" s="603" t="s">
-        <v>54</v>
-      </c>
-      <c r="F84" s="606" t="str">
+      <c r="B84" s="624"/>
+      <c r="C84" s="625" t="s">
+        <v>491</v>
+      </c>
+      <c r="D84" s="625" t="s">
+        <v>492</v>
+      </c>
+      <c r="E84" s="643" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="714" t="str">
         <f>Namespace &amp; "has" &amp; ($C84) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDistributorAffiliationInfo</v>
       </c>
       <c r="G84" s="331" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H84" s="331" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I84" s="332" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J84" s="333" t="s">
         <v>46</v>
@@ -6939,19 +6930,19 @@
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="367"/>
-      <c r="B85" s="642"/>
-      <c r="C85" s="644"/>
-      <c r="D85" s="644"/>
-      <c r="E85" s="604"/>
-      <c r="F85" s="607"/>
+      <c r="B85" s="624"/>
+      <c r="C85" s="626"/>
+      <c r="D85" s="626"/>
+      <c r="E85" s="644"/>
+      <c r="F85" s="715"/>
       <c r="G85" s="349" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H85" s="349" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I85" s="350" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J85" s="351" t="s">
         <v>46</v>
@@ -6972,19 +6963,19 @@
     </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="367"/>
-      <c r="B86" s="642"/>
-      <c r="C86" s="644"/>
-      <c r="D86" s="644"/>
-      <c r="E86" s="604"/>
-      <c r="F86" s="607"/>
+      <c r="B86" s="624"/>
+      <c r="C86" s="626"/>
+      <c r="D86" s="626"/>
+      <c r="E86" s="644"/>
+      <c r="F86" s="715"/>
       <c r="G86" s="349" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H86" s="349" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I86" s="350" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J86" s="351" t="s">
         <v>46</v>
@@ -7001,24 +6992,24 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N86" s="349" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="367"/>
-      <c r="B87" s="642"/>
-      <c r="C87" s="645"/>
-      <c r="D87" s="645"/>
-      <c r="E87" s="605"/>
-      <c r="F87" s="608"/>
+      <c r="B87" s="624"/>
+      <c r="C87" s="627"/>
+      <c r="D87" s="627"/>
+      <c r="E87" s="645"/>
+      <c r="F87" s="716"/>
       <c r="G87" s="335" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H87" s="335" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I87" s="336" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J87" s="337" t="s">
         <v>46</v>
@@ -7035,7 +7026,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/</v>
       </c>
       <c r="N87" s="335" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7046,13 +7037,13 @@
       <c r="E88" s="319"/>
       <c r="F88" s="371"/>
       <c r="G88" s="349" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H88" s="349" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I88" s="350" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J88" s="351" t="s">
         <v>34</v>
@@ -7061,7 +7052,7 @@
         <v>36</v>
       </c>
       <c r="L88" s="352" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M88" s="349" t="s">
         <v>28</v>
@@ -7078,13 +7069,13 @@
       <c r="E89" s="373"/>
       <c r="F89" s="371"/>
       <c r="G89" s="349" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H89" s="349" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I89" s="350" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J89" s="351" t="s">
         <v>34</v>
@@ -7112,19 +7103,19 @@
       <c r="E90" s="342"/>
       <c r="F90" s="343"/>
       <c r="G90" s="344" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H90" s="344" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I90" s="345" t="s">
-        <v>169</v>
-      </c>
-      <c r="J90" s="346">
-        <v>1</v>
+        <v>522</v>
+      </c>
+      <c r="J90" s="346" t="s">
+        <v>46</v>
       </c>
       <c r="K90" s="347" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L90" s="316" t="str">
         <f>Namespace &amp; "has" &amp; SUBSTITUTE($H90, " ", "")</f>
@@ -7141,13 +7132,13 @@
       <c r="P90"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="685" t="s">
-        <v>189</v>
-      </c>
-      <c r="B91" s="685"/>
-      <c r="C91" s="685"/>
+      <c r="A91" s="595" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="595"/>
+      <c r="C91" s="595"/>
       <c r="D91" s="425" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E91" s="426" t="s">
         <v>46</v>
@@ -7167,41 +7158,41 @@
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="421"/>
-      <c r="B92" s="686" t="s">
-        <v>283</v>
-      </c>
-      <c r="C92" s="686"/>
-      <c r="D92" s="686" t="s">
-        <v>287</v>
-      </c>
-      <c r="E92" s="697" t="s">
-        <v>54</v>
-      </c>
-      <c r="F92" s="571" t="str">
+      <c r="B92" s="596" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" s="596"/>
+      <c r="D92" s="596" t="s">
+        <v>282</v>
+      </c>
+      <c r="E92" s="605" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="608" t="str">
         <f>Namespace &amp; "has" &amp; ($B92) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamInfo</v>
       </c>
       <c r="G92" s="438" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H92" s="438" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I92" s="439" t="s">
-        <v>190</v>
-      </c>
-      <c r="J92" s="440">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="J92" s="440" t="s">
+        <v>46</v>
       </c>
       <c r="K92" s="441" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L92" s="441" t="str">
         <f t="shared" ref="L92:L103" si="4">Namespace &amp; "has" &amp; SUBSTITUTE($H92, " ", "")</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStream</v>
       </c>
       <c r="M92" s="442" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N92" s="442" t="s">
         <v>28</v>
@@ -7209,19 +7200,19 @@
     </row>
     <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="421"/>
-      <c r="B93" s="687"/>
-      <c r="C93" s="687"/>
-      <c r="D93" s="687"/>
-      <c r="E93" s="698"/>
-      <c r="F93" s="572"/>
+      <c r="B93" s="597"/>
+      <c r="C93" s="597"/>
+      <c r="D93" s="597"/>
+      <c r="E93" s="606"/>
+      <c r="F93" s="609"/>
       <c r="G93" s="105" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H93" s="105" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I93" s="106" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J93" s="107" t="s">
         <v>46</v>
@@ -7234,7 +7225,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamIRI</v>
       </c>
       <c r="M93" s="109" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N93" s="109" t="s">
         <v>28</v>
@@ -7242,19 +7233,19 @@
     </row>
     <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="421"/>
-      <c r="B94" s="687"/>
-      <c r="C94" s="687"/>
-      <c r="D94" s="687"/>
-      <c r="E94" s="698"/>
-      <c r="F94" s="572"/>
+      <c r="B94" s="597"/>
+      <c r="C94" s="597"/>
+      <c r="D94" s="597"/>
+      <c r="E94" s="606"/>
+      <c r="F94" s="609"/>
       <c r="G94" s="109" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H94" s="109" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I94" s="110" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J94" s="107" t="s">
         <v>46</v>
@@ -7267,7 +7258,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamScheme</v>
       </c>
       <c r="M94" s="109" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N94" s="109" t="s">
         <v>28</v>
@@ -7275,19 +7266,19 @@
     </row>
     <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="421"/>
-      <c r="B95" s="688"/>
-      <c r="C95" s="688"/>
-      <c r="D95" s="688"/>
-      <c r="E95" s="699"/>
-      <c r="F95" s="573"/>
+      <c r="B95" s="598"/>
+      <c r="C95" s="598"/>
+      <c r="D95" s="598"/>
+      <c r="E95" s="607"/>
+      <c r="F95" s="610"/>
       <c r="G95" s="443" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H95" s="443" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I95" s="444" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J95" s="447" t="s">
         <v>46</v>
@@ -7300,7 +7291,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataStreamSchemeIRI</v>
       </c>
       <c r="M95" s="446" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N95" s="446" t="s">
         <v>28</v>
@@ -7308,41 +7299,41 @@
     </row>
     <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="421"/>
-      <c r="B96" s="692"/>
-      <c r="C96" s="686" t="s">
-        <v>281</v>
-      </c>
-      <c r="D96" s="686" t="s">
-        <v>366</v>
-      </c>
-      <c r="E96" s="697">
-        <v>1</v>
-      </c>
-      <c r="F96" s="571" t="str">
-        <f>Namespace &amp; "has" &amp; ($C96) &amp; "Info"</f>
+      <c r="B96" s="596" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="596"/>
+      <c r="D96" s="596" t="s">
+        <v>361</v>
+      </c>
+      <c r="E96" s="605" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="608" t="str">
+        <f>Namespace &amp; "has" &amp; ($B96) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceInfo</v>
       </c>
       <c r="G96" s="438" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H96" s="438" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I96" s="439" t="s">
-        <v>193</v>
-      </c>
-      <c r="J96" s="440">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="J96" s="440" t="s">
+        <v>46</v>
       </c>
       <c r="K96" s="441" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L96" s="441" t="str">
         <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSource</v>
       </c>
       <c r="M96" s="109" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N96" s="442" t="s">
         <v>28</v>
@@ -7350,19 +7341,19 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="421"/>
-      <c r="B97" s="692"/>
-      <c r="C97" s="687"/>
-      <c r="D97" s="687"/>
-      <c r="E97" s="698"/>
-      <c r="F97" s="572"/>
+      <c r="B97" s="597"/>
+      <c r="C97" s="597"/>
+      <c r="D97" s="597"/>
+      <c r="E97" s="606"/>
+      <c r="F97" s="609"/>
       <c r="G97" s="105" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H97" s="105" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I97" s="106" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J97" s="107" t="s">
         <v>46</v>
@@ -7375,7 +7366,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceIRI</v>
       </c>
       <c r="M97" s="109" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N97" s="109" t="s">
         <v>28</v>
@@ -7383,32 +7374,32 @@
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="421"/>
-      <c r="B98" s="692"/>
-      <c r="C98" s="687"/>
-      <c r="D98" s="687"/>
-      <c r="E98" s="698"/>
-      <c r="F98" s="572"/>
+      <c r="B98" s="597"/>
+      <c r="C98" s="597"/>
+      <c r="D98" s="597"/>
+      <c r="E98" s="606"/>
+      <c r="F98" s="609"/>
       <c r="G98" s="105" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H98" s="105" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I98" s="106" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J98" s="107" t="s">
         <v>46</v>
       </c>
       <c r="K98" s="108" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="L98" s="108" t="str">
         <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceScheme</v>
       </c>
       <c r="M98" s="109" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N98" s="109" t="s">
         <v>28</v>
@@ -7416,32 +7407,32 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="421"/>
-      <c r="B99" s="692"/>
-      <c r="C99" s="688"/>
-      <c r="D99" s="688"/>
-      <c r="E99" s="699"/>
-      <c r="F99" s="573"/>
+      <c r="B99" s="598"/>
+      <c r="C99" s="598"/>
+      <c r="D99" s="598"/>
+      <c r="E99" s="607"/>
+      <c r="F99" s="610"/>
       <c r="G99" s="443" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H99" s="443" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I99" s="444" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J99" s="447" t="s">
         <v>46</v>
       </c>
       <c r="K99" s="445" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="L99" s="445" t="str">
         <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasDataSourceSchemaIRI</v>
       </c>
       <c r="M99" s="446" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N99" s="446" t="s">
         <v>28</v>
@@ -7449,31 +7440,31 @@
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="421"/>
-      <c r="B100" s="692"/>
-      <c r="C100" s="686" t="s">
-        <v>282</v>
-      </c>
-      <c r="D100" s="686" t="s">
-        <v>288</v>
-      </c>
-      <c r="E100" s="697" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" s="574" t="str">
-        <f>Namespace &amp; "has" &amp; ($C100) &amp; "Info"</f>
+      <c r="B100" s="597" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" s="597"/>
+      <c r="D100" s="596" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" s="605" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="693" t="str">
+        <f>Namespace &amp; "has" &amp; ($B100) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariableInfo</v>
       </c>
       <c r="G100" s="438" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H100" s="438" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I100" s="439" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J100" s="440" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K100" s="441" t="s">
         <v>36</v>
@@ -7483,7 +7474,7 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariable</v>
       </c>
       <c r="M100" s="109" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N100" s="109" t="s">
         <v>28</v>
@@ -7491,32 +7482,32 @@
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="421"/>
-      <c r="B101" s="692"/>
-      <c r="C101" s="687"/>
-      <c r="D101" s="687"/>
-      <c r="E101" s="698"/>
-      <c r="F101" s="575"/>
+      <c r="B101" s="597"/>
+      <c r="C101" s="597"/>
+      <c r="D101" s="597"/>
+      <c r="E101" s="606"/>
+      <c r="F101" s="694"/>
       <c r="G101" s="105" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H101" s="105" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I101" s="106" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J101" s="107" t="s">
         <v>46</v>
       </c>
       <c r="K101" s="108" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="L101" s="108" t="str">
         <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariableIRI</v>
       </c>
       <c r="M101" s="109" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N101" s="109" t="s">
         <v>28</v>
@@ -7524,32 +7515,32 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="421"/>
-      <c r="B102" s="692"/>
-      <c r="C102" s="687"/>
-      <c r="D102" s="687"/>
-      <c r="E102" s="698"/>
-      <c r="F102" s="575"/>
+      <c r="B102" s="597"/>
+      <c r="C102" s="597"/>
+      <c r="D102" s="597"/>
+      <c r="E102" s="606"/>
+      <c r="F102" s="694"/>
       <c r="G102" s="105" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H102" s="105" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I102" s="106" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J102" s="107" t="s">
         <v>46</v>
       </c>
       <c r="K102" s="108" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="L102" s="108" t="str">
         <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariableScheme</v>
       </c>
       <c r="M102" s="109" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N102" s="109" t="s">
         <v>28</v>
@@ -7557,45 +7548,45 @@
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="422"/>
-      <c r="B103" s="693"/>
-      <c r="C103" s="696"/>
-      <c r="D103" s="696"/>
-      <c r="E103" s="700"/>
-      <c r="F103" s="576"/>
+      <c r="B103" s="604"/>
+      <c r="C103" s="604"/>
+      <c r="D103" s="604"/>
+      <c r="E103" s="607"/>
+      <c r="F103" s="695"/>
       <c r="G103" s="433" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H103" s="433" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I103" s="434" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J103" s="435" t="s">
         <v>46</v>
       </c>
       <c r="K103" s="436" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="L103" s="436" t="str">
         <f t="shared" si="4"/>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVariableSchemeIRI</v>
       </c>
       <c r="M103" s="437" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N103" s="437" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="689" t="s">
-        <v>201</v>
-      </c>
-      <c r="B104" s="689"/>
-      <c r="C104" s="689"/>
+      <c r="A104" s="599" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" s="599"/>
+      <c r="C104" s="599"/>
       <c r="D104" s="473" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E104" s="474" t="s">
         <v>46</v>
@@ -7615,31 +7606,31 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="419"/>
-      <c r="B105" s="668" t="s">
-        <v>501</v>
-      </c>
-      <c r="C105" s="668"/>
-      <c r="D105" s="690" t="s">
-        <v>500</v>
-      </c>
-      <c r="E105" s="694" t="s">
+      <c r="B105" s="591" t="s">
+        <v>496</v>
+      </c>
+      <c r="C105" s="591"/>
+      <c r="D105" s="600" t="s">
+        <v>495</v>
+      </c>
+      <c r="E105" s="602" t="s">
         <v>46</v>
       </c>
-      <c r="F105" s="680" t="str">
+      <c r="F105" s="588" t="str">
         <f>Namespace &amp; "has" &amp; ($B105) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoveragePointInfo</v>
       </c>
       <c r="G105" s="448" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H105" s="448" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I105" s="449" t="s">
-        <v>206</v>
-      </c>
-      <c r="J105" s="450">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="J105" s="450" t="s">
+        <v>46</v>
       </c>
       <c r="K105" s="451" t="s">
         <v>68</v>
@@ -7657,22 +7648,22 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="419"/>
-      <c r="B106" s="670"/>
-      <c r="C106" s="670"/>
-      <c r="D106" s="691"/>
-      <c r="E106" s="695"/>
-      <c r="F106" s="682"/>
+      <c r="B106" s="592"/>
+      <c r="C106" s="592"/>
+      <c r="D106" s="601"/>
+      <c r="E106" s="603"/>
+      <c r="F106" s="590"/>
       <c r="G106" s="453" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H106" s="453" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I106" s="454" t="s">
-        <v>204</v>
-      </c>
-      <c r="J106" s="455">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="J106" s="455" t="s">
+        <v>46</v>
       </c>
       <c r="K106" s="456" t="s">
         <v>68</v>
@@ -7690,31 +7681,31 @@
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="419"/>
-      <c r="B107" s="668" t="s">
-        <v>502</v>
-      </c>
-      <c r="C107" s="668"/>
-      <c r="D107" s="668" t="s">
-        <v>503</v>
-      </c>
-      <c r="E107" s="619" t="s">
+      <c r="B107" s="591" t="s">
+        <v>497</v>
+      </c>
+      <c r="C107" s="591"/>
+      <c r="D107" s="591" t="s">
+        <v>498</v>
+      </c>
+      <c r="E107" s="585" t="s">
         <v>46</v>
       </c>
-      <c r="F107" s="680" t="str">
+      <c r="F107" s="588" t="str">
         <f>Namespace &amp; "has" &amp; ($B107) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoverageBoundingBoxInfo</v>
       </c>
       <c r="G107" s="458" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H107" s="458" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I107" s="459" t="s">
-        <v>208</v>
-      </c>
-      <c r="J107" s="460">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="J107" s="460" t="s">
+        <v>46</v>
       </c>
       <c r="K107" s="461" t="s">
         <v>68</v>
@@ -7732,22 +7723,22 @@
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="419"/>
-      <c r="B108" s="669"/>
-      <c r="C108" s="669"/>
-      <c r="D108" s="669"/>
-      <c r="E108" s="620"/>
-      <c r="F108" s="681"/>
+      <c r="B108" s="623"/>
+      <c r="C108" s="623"/>
+      <c r="D108" s="623"/>
+      <c r="E108" s="586"/>
+      <c r="F108" s="589"/>
       <c r="G108" s="463" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H108" s="463" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I108" s="464" t="s">
-        <v>210</v>
-      </c>
-      <c r="J108" s="465">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="J108" s="465" t="s">
+        <v>46</v>
       </c>
       <c r="K108" s="466" t="s">
         <v>68</v>
@@ -7765,22 +7756,22 @@
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="419"/>
-      <c r="B109" s="669"/>
-      <c r="C109" s="669"/>
-      <c r="D109" s="669"/>
-      <c r="E109" s="620"/>
-      <c r="F109" s="681"/>
+      <c r="B109" s="623"/>
+      <c r="C109" s="623"/>
+      <c r="D109" s="623"/>
+      <c r="E109" s="586"/>
+      <c r="F109" s="589"/>
       <c r="G109" s="463" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H109" s="463" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I109" s="464" t="s">
-        <v>212</v>
-      </c>
-      <c r="J109" s="465">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="J109" s="465" t="s">
+        <v>46</v>
       </c>
       <c r="K109" s="466" t="s">
         <v>68</v>
@@ -7798,22 +7789,22 @@
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="419"/>
-      <c r="B110" s="670"/>
-      <c r="C110" s="670"/>
-      <c r="D110" s="670"/>
-      <c r="E110" s="621"/>
-      <c r="F110" s="682"/>
+      <c r="B110" s="592"/>
+      <c r="C110" s="592"/>
+      <c r="D110" s="592"/>
+      <c r="E110" s="587"/>
+      <c r="F110" s="590"/>
       <c r="G110" s="468" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H110" s="468" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I110" s="469" t="s">
-        <v>214</v>
-      </c>
-      <c r="J110" s="470">
-        <v>1</v>
+        <v>210</v>
+      </c>
+      <c r="J110" s="470" t="s">
+        <v>46</v>
       </c>
       <c r="K110" s="471" t="s">
         <v>68</v>
@@ -7831,31 +7822,31 @@
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="419"/>
-      <c r="B111" s="668" t="s">
-        <v>504</v>
-      </c>
-      <c r="C111" s="668"/>
-      <c r="D111" s="683" t="s">
-        <v>505</v>
-      </c>
-      <c r="E111" s="619" t="s">
+      <c r="B111" s="591" t="s">
+        <v>499</v>
+      </c>
+      <c r="C111" s="591"/>
+      <c r="D111" s="593" t="s">
+        <v>500</v>
+      </c>
+      <c r="E111" s="585" t="s">
         <v>46</v>
       </c>
-      <c r="F111" s="680" t="str">
+      <c r="F111" s="588" t="str">
         <f>Namespace &amp; "has" &amp; ($B111) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasSpatialCoveragePolygonInfo</v>
       </c>
       <c r="G111" s="448" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H111" s="448" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I111" s="459" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J111" s="450" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="K111" s="461" t="s">
         <v>68</v>
@@ -7873,22 +7864,22 @@
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="419"/>
-      <c r="B112" s="670"/>
-      <c r="C112" s="670"/>
-      <c r="D112" s="684"/>
-      <c r="E112" s="621"/>
-      <c r="F112" s="682"/>
+      <c r="B112" s="592"/>
+      <c r="C112" s="592"/>
+      <c r="D112" s="594"/>
+      <c r="E112" s="587"/>
+      <c r="F112" s="590"/>
       <c r="G112" s="453" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H112" s="453" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I112" s="469" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J112" s="455" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="K112" s="471" t="s">
         <v>68</v>
@@ -7912,16 +7903,16 @@
       <c r="E113" s="411"/>
       <c r="F113" s="482"/>
       <c r="G113" s="483" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H113" s="483" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I113" s="484" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J113" s="485" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K113" s="486" t="s">
         <v>68</v>
@@ -7938,32 +7929,32 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="713" t="s">
-        <v>217</v>
-      </c>
-      <c r="B114" s="713"/>
-      <c r="C114" s="713"/>
-      <c r="D114" s="730" t="s">
-        <v>218</v>
-      </c>
-      <c r="E114" s="721" t="s">
+      <c r="A114" s="559" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" s="559"/>
+      <c r="C114" s="559"/>
+      <c r="D114" s="576" t="s">
+        <v>213</v>
+      </c>
+      <c r="E114" s="567" t="s">
         <v>46</v>
       </c>
-      <c r="F114" s="724" t="str">
+      <c r="F114" s="570" t="str">
         <f>Namespace &amp; "has" &amp; ($A114) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalCoverageInfo</v>
       </c>
       <c r="G114" s="488" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H114" s="488" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I114" s="489" t="s">
-        <v>220</v>
-      </c>
-      <c r="J114" s="490">
-        <v>1</v>
+        <v>215</v>
+      </c>
+      <c r="J114" s="490" t="s">
+        <v>46</v>
       </c>
       <c r="K114" s="491" t="s">
         <v>68</v>
@@ -7980,23 +7971,23 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="714"/>
-      <c r="B115" s="714"/>
-      <c r="C115" s="714"/>
-      <c r="D115" s="731"/>
-      <c r="E115" s="722"/>
-      <c r="F115" s="725"/>
+      <c r="A115" s="560"/>
+      <c r="B115" s="560"/>
+      <c r="C115" s="560"/>
+      <c r="D115" s="577"/>
+      <c r="E115" s="568"/>
+      <c r="F115" s="571"/>
       <c r="G115" s="111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H115" s="111" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="I115" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="J115" s="113">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="J115" s="113" t="s">
+        <v>46</v>
       </c>
       <c r="K115" s="114" t="s">
         <v>68</v>
@@ -8013,23 +8004,23 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="714"/>
-      <c r="B116" s="714"/>
-      <c r="C116" s="714"/>
-      <c r="D116" s="731"/>
-      <c r="E116" s="722"/>
-      <c r="F116" s="725"/>
+      <c r="A116" s="560"/>
+      <c r="B116" s="560"/>
+      <c r="C116" s="560"/>
+      <c r="D116" s="577"/>
+      <c r="E116" s="568"/>
+      <c r="F116" s="571"/>
       <c r="G116" s="111" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H116" s="111" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I116" s="112" t="s">
-        <v>395</v>
-      </c>
-      <c r="J116" s="113">
-        <v>1</v>
+        <v>390</v>
+      </c>
+      <c r="J116" s="113" t="s">
+        <v>46</v>
       </c>
       <c r="K116" s="114" t="s">
         <v>68</v>
@@ -8039,27 +8030,27 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnit</v>
       </c>
       <c r="M116" s="115" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N116" s="115" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="714"/>
-      <c r="B117" s="714"/>
-      <c r="C117" s="714"/>
-      <c r="D117" s="731"/>
-      <c r="E117" s="722"/>
-      <c r="F117" s="725"/>
+      <c r="A117" s="560"/>
+      <c r="B117" s="560"/>
+      <c r="C117" s="560"/>
+      <c r="D117" s="577"/>
+      <c r="E117" s="568"/>
+      <c r="F117" s="571"/>
       <c r="G117" s="111" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H117" s="111" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I117" s="112" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J117" s="113" t="s">
         <v>46</v>
@@ -8072,27 +8063,27 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnitIRI</v>
       </c>
       <c r="M117" s="115" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N117" s="115" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="714"/>
-      <c r="B118" s="714"/>
-      <c r="C118" s="714"/>
-      <c r="D118" s="731"/>
-      <c r="E118" s="722"/>
-      <c r="F118" s="725"/>
+      <c r="A118" s="560"/>
+      <c r="B118" s="560"/>
+      <c r="C118" s="560"/>
+      <c r="D118" s="577"/>
+      <c r="E118" s="568"/>
+      <c r="F118" s="571"/>
       <c r="G118" s="111" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H118" s="111" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I118" s="112" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J118" s="113" t="s">
         <v>46</v>
@@ -8105,27 +8096,27 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnitScheme</v>
       </c>
       <c r="M118" s="115" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N118" s="115" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="714"/>
-      <c r="B119" s="714"/>
-      <c r="C119" s="714"/>
-      <c r="D119" s="731"/>
-      <c r="E119" s="722"/>
-      <c r="F119" s="725"/>
+      <c r="A119" s="560"/>
+      <c r="B119" s="560"/>
+      <c r="C119" s="560"/>
+      <c r="D119" s="577"/>
+      <c r="E119" s="568"/>
+      <c r="F119" s="571"/>
       <c r="G119" s="111" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H119" s="111" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I119" s="112" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J119" s="113" t="s">
         <v>46</v>
@@ -8138,30 +8129,30 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentUnitSchemeURI</v>
       </c>
       <c r="M119" s="115" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N119" s="115" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="714"/>
-      <c r="B120" s="714"/>
-      <c r="C120" s="714"/>
-      <c r="D120" s="731"/>
-      <c r="E120" s="722"/>
-      <c r="F120" s="725"/>
+      <c r="A120" s="560"/>
+      <c r="B120" s="560"/>
+      <c r="C120" s="560"/>
+      <c r="D120" s="577"/>
+      <c r="E120" s="568"/>
+      <c r="F120" s="571"/>
       <c r="G120" s="111" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H120" s="111" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I120" s="112" t="s">
-        <v>405</v>
-      </c>
-      <c r="J120" s="113">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="J120" s="113" t="s">
+        <v>46</v>
       </c>
       <c r="K120" s="114" t="s">
         <v>68</v>
@@ -8171,27 +8162,27 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentDatum</v>
       </c>
       <c r="M120" s="115" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N120" s="115" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="715"/>
-      <c r="B121" s="715"/>
-      <c r="C121" s="715"/>
-      <c r="D121" s="732"/>
-      <c r="E121" s="723"/>
-      <c r="F121" s="726"/>
+      <c r="A121" s="561"/>
+      <c r="B121" s="561"/>
+      <c r="C121" s="561"/>
+      <c r="D121" s="578"/>
+      <c r="E121" s="569"/>
+      <c r="F121" s="572"/>
       <c r="G121" s="534" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H121" s="534" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="I121" s="493" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J121" s="494" t="s">
         <v>46</v>
@@ -8204,39 +8195,39 @@
         <v>http://vocab.fairdatacollective.org/gdmt/hasVerticalExtentDatumIRI</v>
       </c>
       <c r="M121" s="496" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N121" s="496" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="716" t="s">
-        <v>227</v>
-      </c>
-      <c r="B122" s="716"/>
-      <c r="C122" s="716"/>
-      <c r="D122" s="727" t="s">
-        <v>228</v>
-      </c>
-      <c r="E122" s="733" t="s">
+      <c r="A122" s="562" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" s="562"/>
+      <c r="C122" s="562"/>
+      <c r="D122" s="573" t="s">
+        <v>223</v>
+      </c>
+      <c r="E122" s="579" t="s">
         <v>46</v>
       </c>
-      <c r="F122" s="734" t="str">
+      <c r="F122" s="582" t="str">
         <f>Namespace &amp; "has" &amp; ($A122) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasTemporalCoverageInfo</v>
       </c>
       <c r="G122" s="497" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H122" s="497" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I122" s="498" t="s">
-        <v>230</v>
-      </c>
-      <c r="J122" s="499">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="J122" s="499" t="s">
+        <v>46</v>
       </c>
       <c r="K122" s="500" t="s">
         <v>36</v>
@@ -8253,23 +8244,23 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="717"/>
-      <c r="B123" s="717"/>
-      <c r="C123" s="717"/>
-      <c r="D123" s="728"/>
-      <c r="E123" s="581"/>
-      <c r="F123" s="735"/>
+      <c r="A123" s="563"/>
+      <c r="B123" s="563"/>
+      <c r="C123" s="563"/>
+      <c r="D123" s="574"/>
+      <c r="E123" s="580"/>
+      <c r="F123" s="583"/>
       <c r="G123" s="116" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H123" s="116" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I123" s="117" t="s">
-        <v>232</v>
-      </c>
-      <c r="J123" s="118">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="J123" s="118" t="s">
+        <v>46</v>
       </c>
       <c r="K123" s="119" t="s">
         <v>36</v>
@@ -8286,23 +8277,23 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="717"/>
-      <c r="B124" s="717"/>
-      <c r="C124" s="717"/>
-      <c r="D124" s="728"/>
-      <c r="E124" s="581"/>
-      <c r="F124" s="735"/>
+      <c r="A124" s="563"/>
+      <c r="B124" s="563"/>
+      <c r="C124" s="563"/>
+      <c r="D124" s="574"/>
+      <c r="E124" s="580"/>
+      <c r="F124" s="583"/>
       <c r="G124" s="116" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H124" s="116" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I124" s="117" t="s">
-        <v>234</v>
-      </c>
-      <c r="J124" s="118">
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="J124" s="118" t="s">
+        <v>46</v>
       </c>
       <c r="K124" s="119" t="s">
         <v>36</v>
@@ -8319,23 +8310,23 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="718"/>
-      <c r="B125" s="718"/>
-      <c r="C125" s="718"/>
-      <c r="D125" s="729"/>
-      <c r="E125" s="582"/>
-      <c r="F125" s="736"/>
+      <c r="A125" s="564"/>
+      <c r="B125" s="564"/>
+      <c r="C125" s="564"/>
+      <c r="D125" s="575"/>
+      <c r="E125" s="581"/>
+      <c r="F125" s="584"/>
       <c r="G125" s="502" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H125" s="502" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I125" s="503" t="s">
-        <v>236</v>
-      </c>
-      <c r="J125" s="504">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="J125" s="504" t="s">
+        <v>46</v>
       </c>
       <c r="K125" s="505" t="s">
         <v>36</v>
@@ -8352,13 +8343,13 @@
       </c>
     </row>
     <row r="126" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="719" t="s">
-        <v>237</v>
-      </c>
-      <c r="B126" s="719"/>
-      <c r="C126" s="719"/>
+      <c r="A126" s="565" t="s">
+        <v>232</v>
+      </c>
+      <c r="B126" s="565"/>
+      <c r="C126" s="565"/>
       <c r="D126" s="512" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E126" s="513" t="s">
         <v>34</v>
@@ -8378,31 +8369,31 @@
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="423"/>
-      <c r="B127" s="707" t="s">
-        <v>507</v>
-      </c>
-      <c r="C127" s="707"/>
-      <c r="D127" s="701" t="s">
-        <v>510</v>
-      </c>
-      <c r="E127" s="704">
+      <c r="B127" s="549" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" s="549"/>
+      <c r="D127" s="543" t="s">
+        <v>505</v>
+      </c>
+      <c r="E127" s="546">
         <v>1</v>
       </c>
-      <c r="F127" s="701" t="str">
+      <c r="F127" s="543" t="str">
         <f>Namespace &amp; "has" &amp; ($B127) &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasAwardInfo</v>
       </c>
       <c r="G127" s="524" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H127" s="524" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I127" s="525" t="s">
-        <v>239</v>
-      </c>
-      <c r="J127" s="526">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="J127" s="526" t="s">
+        <v>46</v>
       </c>
       <c r="K127" s="527" t="s">
         <v>36</v>
@@ -8420,19 +8411,19 @@
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="423"/>
-      <c r="B128" s="708"/>
-      <c r="C128" s="708"/>
-      <c r="D128" s="702"/>
-      <c r="E128" s="705"/>
-      <c r="F128" s="702"/>
+      <c r="B128" s="550"/>
+      <c r="C128" s="550"/>
+      <c r="D128" s="544"/>
+      <c r="E128" s="547"/>
+      <c r="F128" s="544"/>
       <c r="G128" s="511" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H128" s="511" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I128" s="508" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J128" s="509" t="s">
         <v>46</v>
@@ -8453,22 +8444,22 @@
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="423"/>
-      <c r="B129" s="720"/>
-      <c r="C129" s="720"/>
-      <c r="D129" s="703"/>
-      <c r="E129" s="706"/>
-      <c r="F129" s="703"/>
+      <c r="B129" s="566"/>
+      <c r="C129" s="566"/>
+      <c r="D129" s="545"/>
+      <c r="E129" s="548"/>
+      <c r="F129" s="545"/>
       <c r="G129" s="528" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H129" s="528" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I129" s="529" t="s">
-        <v>243</v>
-      </c>
-      <c r="J129" s="530">
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="J129" s="530" t="s">
+        <v>46</v>
       </c>
       <c r="K129" s="531" t="s">
         <v>36</v>
@@ -8486,31 +8477,31 @@
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="423"/>
-      <c r="B130" s="707" t="s">
-        <v>508</v>
-      </c>
-      <c r="C130" s="707"/>
-      <c r="D130" s="559" t="s">
-        <v>509</v>
-      </c>
-      <c r="E130" s="556" t="s">
+      <c r="B130" s="549" t="s">
+        <v>503</v>
+      </c>
+      <c r="C130" s="549"/>
+      <c r="D130" s="552" t="s">
+        <v>504</v>
+      </c>
+      <c r="E130" s="555" t="s">
         <v>54</v>
       </c>
-      <c r="F130" s="701" t="str">
+      <c r="F130" s="543" t="str">
         <f>Namespace &amp; "has" &amp; ($B130)  &amp; "Info"</f>
         <v>http://vocab.fairdatacollective.org/gdmt/hasFunderInfo</v>
       </c>
       <c r="G130" s="524" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H130" s="524" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I130" s="525" t="s">
-        <v>245</v>
-      </c>
-      <c r="J130" s="526">
-        <v>1</v>
+        <v>240</v>
+      </c>
+      <c r="J130" s="526" t="s">
+        <v>46</v>
       </c>
       <c r="K130" s="527" t="s">
         <v>36</v>
@@ -8528,19 +8519,19 @@
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="423"/>
-      <c r="B131" s="708"/>
-      <c r="C131" s="708"/>
-      <c r="D131" s="560"/>
-      <c r="E131" s="557"/>
-      <c r="F131" s="702"/>
+      <c r="B131" s="550"/>
+      <c r="C131" s="550"/>
+      <c r="D131" s="553"/>
+      <c r="E131" s="556"/>
+      <c r="F131" s="544"/>
       <c r="G131" s="507" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H131" s="507" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I131" s="508" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J131" s="509" t="s">
         <v>46</v>
@@ -8561,19 +8552,19 @@
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="423"/>
-      <c r="B132" s="708"/>
-      <c r="C132" s="708"/>
-      <c r="D132" s="560"/>
-      <c r="E132" s="557"/>
-      <c r="F132" s="702"/>
+      <c r="B132" s="550"/>
+      <c r="C132" s="550"/>
+      <c r="D132" s="553"/>
+      <c r="E132" s="556"/>
+      <c r="F132" s="544"/>
       <c r="G132" s="511" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H132" s="511" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I132" s="508" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J132" s="509" t="s">
         <v>46</v>
@@ -8594,19 +8585,19 @@
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="424"/>
-      <c r="B133" s="709"/>
-      <c r="C133" s="709"/>
-      <c r="D133" s="710"/>
-      <c r="E133" s="711"/>
-      <c r="F133" s="712"/>
+      <c r="B133" s="551"/>
+      <c r="C133" s="551"/>
+      <c r="D133" s="554"/>
+      <c r="E133" s="557"/>
+      <c r="F133" s="558"/>
       <c r="G133" s="519" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H133" s="519" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I133" s="520" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J133" s="521" t="s">
         <v>46</v>
@@ -8639,28 +8630,28 @@
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" s="533" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H137" s="3"/>
       <c r="J137" s="9"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D138" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H138" s="3"/>
       <c r="J138" s="9"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D139" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H139" s="3"/>
       <c r="J139" s="9"/>
     </row>
     <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D140" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J140" s="6"/>
     </row>
@@ -8671,27 +8662,27 @@
     </row>
     <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D142" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H142" s="3"/>
       <c r="J142" s="9"/>
     </row>
     <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H143" s="3"/>
       <c r="J143" s="9"/>
     </row>
     <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="J144" s="6"/>
     </row>
     <row r="145" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="J145" s="6"/>
     </row>
@@ -8703,7 +8694,7 @@
     </row>
     <row r="147" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -8723,13 +8714,13 @@
     </row>
     <row r="150" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="J150" s="6"/>
     </row>
     <row r="151" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="16" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="J151" s="6"/>
     </row>
@@ -12267,48 +12258,78 @@
     </row>
   </sheetData>
   <autoFilter ref="H1:N143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="134">
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="B130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="A114:C121"/>
-    <mergeCell ref="A122:C125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="B127:C129"/>
-    <mergeCell ref="E114:E121"/>
-    <mergeCell ref="F114:F121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="B92:C95"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="B105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F92:F95"/>
+  <mergeCells count="132">
+    <mergeCell ref="B96:C99"/>
+    <mergeCell ref="B100:C103"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B73:C75"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B61:C63"/>
     <mergeCell ref="A8:C12"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="B19:C22"/>
@@ -12333,75 +12354,43 @@
     <mergeCell ref="B45:C48"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D67:D72"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B73:C75"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B61:C63"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A5:C7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="B92:C95"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="B105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="B130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="A114:C121"/>
+    <mergeCell ref="A122:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B127:C129"/>
+    <mergeCell ref="E114:E121"/>
+    <mergeCell ref="F114:F121"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -12433,12 +12422,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="738" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="738"/>
+      <c r="A1" s="739" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="739"/>
       <c r="C1" s="20" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>54</v>
@@ -12457,14 +12446,14 @@
       <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="739"/>
-      <c r="B2" s="740" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2" s="741" t="s">
-        <v>453</v>
-      </c>
-      <c r="D2" s="742" t="s">
+      <c r="A2" s="734"/>
+      <c r="B2" s="735" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="740" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="736" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="737" t="str">
@@ -12472,13 +12461,13 @@
         <v>http://vocab.fairdatacollective.org/gdmt/contributorname</v>
       </c>
       <c r="F2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>117</v>
       </c>
       <c r="I2" s="32">
         <v>1</v>
@@ -12487,7 +12476,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>28</v>
@@ -12497,19 +12486,19 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="739"/>
-      <c r="B3" s="740"/>
-      <c r="C3" s="741"/>
-      <c r="D3" s="742"/>
+      <c r="A3" s="734"/>
+      <c r="B3" s="735"/>
+      <c r="C3" s="740"/>
+      <c r="D3" s="736"/>
       <c r="E3" s="737"/>
       <c r="F3" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>34</v>
@@ -12518,7 +12507,7 @@
         <v>36</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>28</v>
@@ -12528,19 +12517,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="739"/>
-      <c r="B4" s="740"/>
-      <c r="C4" s="741"/>
-      <c r="D4" s="742"/>
+      <c r="A4" s="734"/>
+      <c r="B4" s="735"/>
+      <c r="C4" s="740"/>
+      <c r="D4" s="736"/>
       <c r="E4" s="737"/>
       <c r="F4" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>34</v>
@@ -12549,7 +12538,7 @@
         <v>36</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="29" t="s">
         <v>28</v>
@@ -12559,14 +12548,14 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="739"/>
-      <c r="B5" s="740" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" s="740" t="s">
-        <v>454</v>
-      </c>
-      <c r="D5" s="742" t="s">
+      <c r="A5" s="734"/>
+      <c r="B5" s="735" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="735" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="736" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="737" t="str">
@@ -12574,13 +12563,13 @@
         <v>http://vocab.fairdatacollective.org/gdmt/contributoridentifier</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>54</v>
@@ -12600,19 +12589,19 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="739"/>
-      <c r="B6" s="740"/>
-      <c r="C6" s="740"/>
-      <c r="D6" s="742"/>
+      <c r="A6" s="734"/>
+      <c r="B6" s="735"/>
+      <c r="C6" s="735"/>
+      <c r="D6" s="736"/>
       <c r="E6" s="737"/>
       <c r="F6" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>54</v>
@@ -12628,23 +12617,23 @@
         <v>24</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="739"/>
-      <c r="B7" s="740"/>
-      <c r="C7" s="740"/>
-      <c r="D7" s="742"/>
+      <c r="A7" s="734"/>
+      <c r="B7" s="735"/>
+      <c r="C7" s="735"/>
+      <c r="D7" s="736"/>
       <c r="E7" s="737"/>
       <c r="F7" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>54</v>
@@ -12660,32 +12649,32 @@
         <v>24</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="739"/>
-      <c r="B8" s="740" t="s">
-        <v>465</v>
-      </c>
-      <c r="C8" s="740" t="s">
-        <v>456</v>
-      </c>
-      <c r="D8" s="742" t="s">
+      <c r="A8" s="734"/>
+      <c r="B8" s="735" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" s="735" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" s="736" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="743" t="str">
+      <c r="E8" s="738" t="str">
         <f>Namespace &amp; LOWER($B8)</f>
         <v>http://vocab.fairdatacollective.org/gdmt/contributoraffiliation</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>34</v>
@@ -12701,23 +12690,23 @@
         <v>28</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="739"/>
-      <c r="B9" s="740"/>
-      <c r="C9" s="740"/>
-      <c r="D9" s="742"/>
-      <c r="E9" s="743"/>
+      <c r="A9" s="734"/>
+      <c r="B9" s="735"/>
+      <c r="C9" s="735"/>
+      <c r="D9" s="736"/>
+      <c r="E9" s="738"/>
       <c r="F9" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>34</v>
@@ -12733,23 +12722,23 @@
         <v>28</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="739"/>
-      <c r="B10" s="740"/>
-      <c r="C10" s="740"/>
-      <c r="D10" s="742"/>
-      <c r="E10" s="743"/>
+      <c r="A10" s="734"/>
+      <c r="B10" s="735"/>
+      <c r="C10" s="735"/>
+      <c r="D10" s="736"/>
+      <c r="E10" s="738"/>
       <c r="F10" s="34" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>34</v>
@@ -12765,23 +12754,23 @@
         <v>24</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="739"/>
-      <c r="B11" s="740"/>
-      <c r="C11" s="740"/>
-      <c r="D11" s="742"/>
-      <c r="E11" s="743"/>
+      <c r="A11" s="734"/>
+      <c r="B11" s="735"/>
+      <c r="C11" s="735"/>
+      <c r="D11" s="736"/>
+      <c r="E11" s="738"/>
       <c r="F11" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>34</v>
@@ -12797,7 +12786,7 @@
         <v>24</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -12807,13 +12796,13 @@
       <c r="D12" s="20"/>
       <c r="E12" s="40"/>
       <c r="F12" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>34</v>
@@ -12822,7 +12811,7 @@
         <v>36</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="29" t="s">
         <v>28</v>
@@ -12838,13 +12827,13 @@
       <c r="D13" s="43"/>
       <c r="E13" s="40"/>
       <c r="F13" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I13" s="32" t="s">
         <v>34</v>
@@ -12870,13 +12859,13 @@
       <c r="D14" s="20"/>
       <c r="E14" s="40"/>
       <c r="F14" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I14" s="32">
         <v>1</v>
@@ -12897,22 +12886,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L13" r:id="rId1" xr:uid="{9ABA6EE5-7A54-DF40-9E10-C757BCBA07FF}"/>
